--- a/日计划.xlsx
+++ b/日计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作记录1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="405">
   <si>
     <t>完成</t>
   </si>
@@ -1217,19 +1217,33 @@
   </si>
   <si>
     <t>添加 扫码后重新使用app设置模块，但目前android app的连接AP有点问题，需要对方去完善</t>
+  </si>
+  <si>
+    <t>确认代码提示成功没bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经用样机测试过，是同样的问题，确定是代码本身有问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习新建github page</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建page，可用于写博客。技术文档等</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次提交个人日记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1252,151 +1266,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1427,188 +1303,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1785,500 +1481,262 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FF0000"/>
+      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2570,12 +2028,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:M577"/>
   <sheetViews>
     <sheetView topLeftCell="A537" workbookViewId="0">
@@ -2594,545 +2052,545 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:12">
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="23" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="4:12">
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27" t="s">
+      <c r="G9" s="25"/>
+      <c r="H9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-    </row>
-    <row r="10" spans="6:12">
-      <c r="F10" s="26" t="s">
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+    </row>
+    <row r="10" spans="4:12">
+      <c r="F10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27" t="s">
+      <c r="G10" s="25"/>
+      <c r="H10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-    </row>
-    <row r="11" spans="6:12">
-      <c r="F11" s="26" t="s">
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+    </row>
+    <row r="11" spans="4:12">
+      <c r="F11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="28" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="6:12">
-      <c r="F12" s="29" t="s">
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" spans="4:12">
+      <c r="F12" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="23" t="s">
+      <c r="G12" s="59"/>
+      <c r="H12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-    </row>
-    <row r="13" spans="6:12">
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="23" t="s">
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="4:12">
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="6:12">
-      <c r="F14" s="30" t="s">
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" spans="4:12">
+      <c r="F14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="27" t="s">
+      <c r="G14" s="26"/>
+      <c r="H14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="27"/>
-    </row>
-    <row r="15" spans="6:12">
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="26" t="s">
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="4:12">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="27"/>
-    </row>
-    <row r="20" spans="6:11">
-      <c r="F20" s="3" t="s">
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="20" spans="5:11">
+      <c r="F20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33" t="s">
+      <c r="G20" s="30"/>
+      <c r="H20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="33"/>
-    </row>
-    <row r="21" spans="6:11">
-      <c r="F21" s="26" t="s">
+      <c r="J20" s="24"/>
+      <c r="K20" s="31"/>
+    </row>
+    <row r="21" spans="5:11">
+      <c r="F21" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="33" t="s">
+      <c r="G21" s="32"/>
+      <c r="H21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="24"/>
-    </row>
-    <row r="22" spans="6:11">
-      <c r="F22" s="3" t="s">
+      <c r="J21" s="25"/>
+      <c r="K21" s="33"/>
+    </row>
+    <row r="22" spans="5:11">
+      <c r="F22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="33" t="s">
+      <c r="G22" s="30"/>
+      <c r="H22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="6:11">
-      <c r="F23" s="3" t="s">
+      <c r="J22" s="25"/>
+      <c r="K22" s="33"/>
+    </row>
+    <row r="23" spans="5:11">
+      <c r="F23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="16" t="s">
+      <c r="G23" s="30"/>
+      <c r="H23" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="24"/>
-    </row>
-    <row r="24" spans="6:11">
-      <c r="F24" s="35" t="s">
+      <c r="J23" s="25"/>
+      <c r="K23" s="33"/>
+    </row>
+    <row r="24" spans="5:11">
+      <c r="F24" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="26" t="s">
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="24"/>
-    </row>
-    <row r="28" spans="6:11">
-      <c r="F28" s="3" t="s">
+      <c r="J24" s="25"/>
+      <c r="K24" s="33"/>
+    </row>
+    <row r="28" spans="5:11">
+      <c r="F28" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="33" t="s">
+      <c r="G28" s="24"/>
+      <c r="H28" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
     </row>
     <row r="29" spans="5:11">
       <c r="E29" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="24" t="s">
+      <c r="G29" s="25"/>
+      <c r="H29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I29" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="6:11">
-      <c r="F30" s="3" t="s">
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+    </row>
+    <row r="30" spans="5:11">
+      <c r="F30" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="24" t="s">
+      <c r="G30" s="24"/>
+      <c r="H30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="6:8">
-      <c r="F31" s="16" t="s">
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" spans="5:11">
+      <c r="F31" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16" t="s">
+      <c r="G31" s="36"/>
+      <c r="H31" s="36" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="6:8">
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="6:8">
-      <c r="F33" s="16" t="s">
+    <row r="32" spans="5:11">
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+    </row>
+    <row r="33" spans="6:11">
+      <c r="F33" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="25" t="s">
+      <c r="G33" s="36"/>
+      <c r="H33" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="6:8">
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="24" t="s">
+    <row r="34" spans="6:11">
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="6:7">
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-    </row>
-    <row r="36" spans="6:7">
-      <c r="F36" s="22" t="s">
+    <row r="35" spans="6:11">
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+    </row>
+    <row r="36" spans="6:11">
+      <c r="F36" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="23"/>
-    </row>
-    <row r="40" spans="6:7">
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="40" spans="6:11">
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
     </row>
     <row r="41" spans="6:11">
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="22"/>
-      <c r="H41" s="33" t="s">
+      <c r="G41" s="37"/>
+      <c r="H41" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I41" s="22" t="s">
+      <c r="I41" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="J41" s="41"/>
-      <c r="K41" s="23"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="38"/>
     </row>
     <row r="42" spans="6:11">
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="16" t="s">
+      <c r="G42" s="37"/>
+      <c r="H42" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="26" t="s">
+      <c r="I42" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
     </row>
     <row r="43" spans="6:11">
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="22"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="29" t="s">
+      <c r="G43" s="37"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
     </row>
     <row r="44" spans="6:11">
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="22"/>
-      <c r="H44" s="33" t="s">
+      <c r="G44" s="37"/>
+      <c r="H44" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-    </row>
-    <row r="45" spans="8:8">
-      <c r="H45" s="33" t="s">
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+    </row>
+    <row r="45" spans="6:11">
+      <c r="H45" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="8:8">
-      <c r="H46" s="33" t="s">
+    <row r="46" spans="6:11">
+      <c r="H46" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="8:8">
-      <c r="H47" s="16" t="s">
+    <row r="47" spans="6:11">
+      <c r="H47" s="36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="8:8">
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" spans="8:8">
-      <c r="H49" s="16"/>
-    </row>
-    <row r="50" spans="8:8">
-      <c r="H50" s="16"/>
-    </row>
-    <row r="51" spans="8:8">
-      <c r="H51" s="16"/>
-    </row>
-    <row r="52" spans="8:8">
-      <c r="H52" s="16" t="s">
+    <row r="48" spans="6:11">
+      <c r="H48" s="36"/>
+    </row>
+    <row r="49" spans="6:11">
+      <c r="H49" s="36"/>
+    </row>
+    <row r="50" spans="6:11">
+      <c r="H50" s="36"/>
+    </row>
+    <row r="51" spans="6:11">
+      <c r="H51" s="36"/>
+    </row>
+    <row r="52" spans="6:11">
+      <c r="H52" s="36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="8:8">
-      <c r="H53" s="16"/>
-    </row>
-    <row r="54" spans="8:8">
-      <c r="H54" s="16"/>
+    <row r="53" spans="6:11">
+      <c r="H53" s="36"/>
+    </row>
+    <row r="54" spans="6:11">
+      <c r="H54" s="36"/>
     </row>
     <row r="58" spans="6:11">
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="33" t="s">
+      <c r="G58" s="24"/>
+      <c r="H58" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
     </row>
     <row r="59" spans="6:11">
-      <c r="F59" s="30" t="s">
+      <c r="F59" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G59" s="25"/>
-      <c r="H59" s="24" t="s">
+      <c r="G59" s="40"/>
+      <c r="H59" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
     </row>
     <row r="60" spans="6:11">
-      <c r="F60" s="30" t="s">
+      <c r="F60" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="25"/>
-      <c r="H60" s="38" t="s">
+      <c r="G60" s="40"/>
+      <c r="H60" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="I60" s="16" t="s">
+      <c r="I60" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
     </row>
     <row r="61" spans="6:11">
-      <c r="F61" s="29" t="s">
+      <c r="F61" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="G61" s="29"/>
-      <c r="H61" s="33" t="s">
+      <c r="G61" s="59"/>
+      <c r="H61" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
     </row>
     <row r="62" spans="6:11">
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-    </row>
-    <row r="63" spans="9:11">
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-    </row>
-    <row r="67" spans="6:11">
-      <c r="F67" s="16" t="s">
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+    </row>
+    <row r="63" spans="6:11">
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+    </row>
+    <row r="67" spans="3:11">
+      <c r="F67" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="42"/>
-      <c r="H67" s="32" t="s">
+      <c r="G67" s="41"/>
+      <c r="H67" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
     </row>
     <row r="68" spans="3:11">
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="26" t="s">
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="24"/>
-      <c r="H68" s="32" t="s">
+      <c r="G68" s="33"/>
+      <c r="H68" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="I68" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="6:11">
-      <c r="F69" s="26" t="s">
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+    </row>
+    <row r="69" spans="3:11">
+      <c r="F69" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="G69" s="24"/>
-      <c r="H69" s="32" t="s">
+      <c r="G69" s="33"/>
+      <c r="H69" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I69" s="26" t="s">
+      <c r="I69" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-    </row>
-    <row r="70" spans="6:11">
-      <c r="F70" s="16" t="s">
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+    </row>
+    <row r="70" spans="3:11">
+      <c r="F70" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="G70" s="16"/>
-      <c r="H70" s="43" t="s">
+      <c r="G70" s="36"/>
+      <c r="H70" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="I70" s="29" t="s">
+      <c r="I70" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-    </row>
-    <row r="71" spans="6:11">
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-    </row>
-    <row r="72" spans="6:11">
-      <c r="F72" s="29" t="s">
+      <c r="J70" s="59"/>
+      <c r="K70" s="59"/>
+    </row>
+    <row r="71" spans="3:11">
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="59"/>
+      <c r="K71" s="59"/>
+    </row>
+    <row r="72" spans="3:11">
+      <c r="F72" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="G72" s="29"/>
-      <c r="H72" s="34" t="s">
+      <c r="G72" s="59"/>
+      <c r="H72" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I72" s="29" t="s">
+      <c r="I72" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-    </row>
-    <row r="73" spans="6:11">
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-    </row>
-    <row r="74" spans="6:11">
-      <c r="F74" s="16" t="s">
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+    </row>
+    <row r="73" spans="3:11">
+      <c r="F73" s="59"/>
+      <c r="G73" s="59"/>
+      <c r="I73" s="59"/>
+      <c r="J73" s="59"/>
+      <c r="K73" s="59"/>
+    </row>
+    <row r="74" spans="3:11">
+      <c r="F74" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="G74" s="16"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-    </row>
-    <row r="75" spans="6:11">
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-    </row>
-    <row r="78" spans="7:10">
+      <c r="G74" s="36"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="59"/>
+      <c r="K74" s="59"/>
+    </row>
+    <row r="75" spans="3:11">
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
+    </row>
+    <row r="78" spans="3:11">
       <c r="G78" t="s">
         <v>91</v>
       </c>
@@ -3143,178 +2601,182 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="6:11">
-      <c r="F79" s="31" t="s">
+    <row r="79" spans="3:11">
+      <c r="F79" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="H79" s="10" t="s">
+      <c r="G79" s="43"/>
+      <c r="H79" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="I79" s="31" t="s">
+      <c r="I79" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="J79" s="31"/>
-      <c r="K79" s="31"/>
-    </row>
-    <row r="80" spans="8:11">
-      <c r="H80" s="10"/>
-      <c r="I80" s="31" t="s">
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+    </row>
+    <row r="80" spans="3:11">
+      <c r="H80" s="54"/>
+      <c r="I80" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="J80" s="31"/>
-      <c r="K80" s="31"/>
-    </row>
-    <row r="81" spans="10:10">
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+    </row>
+    <row r="81" spans="3:10">
       <c r="J81" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="6:8">
-      <c r="F86" s="33"/>
-      <c r="G86" s="33" t="s">
+    <row r="86" spans="3:10">
+      <c r="F86" s="12"/>
+      <c r="G86" s="12" t="s">
         <v>99</v>
       </c>
       <c r="H86" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="3:8">
-      <c r="C87" s="44" t="s">
+    <row r="87" spans="3:10">
+      <c r="C87" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="29" t="s">
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="G87" s="29"/>
+      <c r="G87" s="59"/>
       <c r="H87" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="3:8">
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
+    <row r="88" spans="3:10">
+      <c r="C88" s="60"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
       <c r="H88" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="6:7">
-      <c r="F89" s="33"/>
-      <c r="G89" s="33" t="s">
+    <row r="89" spans="3:10">
+      <c r="F89" s="12"/>
+      <c r="G89" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="6:7">
-      <c r="F90" s="33"/>
-      <c r="G90" s="33" t="s">
+    <row r="90" spans="3:10">
+      <c r="F90" s="12"/>
+      <c r="G90" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="6:7">
-      <c r="F91" s="33"/>
-      <c r="G91" s="33" t="s">
+    <row r="91" spans="3:10">
+      <c r="F91" s="12"/>
+      <c r="G91" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="6:9">
-      <c r="F96" s="31" t="s">
+    <row r="96" spans="3:10">
+      <c r="F96" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="H96" s="22">
-        <v>2.24</v>
-      </c>
-      <c r="I96" s="23"/>
-    </row>
-    <row r="97" spans="6:9">
-      <c r="F97" s="31" t="s">
+      <c r="G96" s="43"/>
+      <c r="H96" s="37">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I96" s="38"/>
+    </row>
+    <row r="97" spans="6:10">
+      <c r="F97" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="G97" s="43"/>
+      <c r="H97" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="8:9">
-      <c r="H98" s="16" t="s">
+      <c r="I97" s="24"/>
+    </row>
+    <row r="98" spans="6:10">
+      <c r="H98" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="I98" s="16"/>
-    </row>
-    <row r="99" spans="8:9">
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-    </row>
-    <row r="100" spans="8:9">
-      <c r="H100" s="16" t="s">
+      <c r="I98" s="36"/>
+    </row>
+    <row r="99" spans="6:10">
+      <c r="H99" s="36"/>
+      <c r="I99" s="36"/>
+    </row>
+    <row r="100" spans="6:10">
+      <c r="H100" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="I100" s="16"/>
-    </row>
-    <row r="101" spans="8:9">
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-    </row>
-    <row r="102" spans="8:9">
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-    </row>
-    <row r="103" spans="8:9">
-      <c r="H103" s="16" t="s">
+      <c r="I100" s="36"/>
+    </row>
+    <row r="101" spans="6:10">
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+    </row>
+    <row r="102" spans="6:10">
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
+    </row>
+    <row r="103" spans="6:10">
+      <c r="H103" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="I103" s="16"/>
-    </row>
-    <row r="104" spans="8:9">
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-    </row>
-    <row r="108" spans="7:10">
+      <c r="I103" s="36"/>
+    </row>
+    <row r="104" spans="6:10">
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
+    </row>
+    <row r="108" spans="6:10">
       <c r="G108">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H108">
         <v>2.27</v>
       </c>
-      <c r="I108" s="3">
-        <v>2.28</v>
-      </c>
-      <c r="J108" s="3"/>
-    </row>
-    <row r="109" spans="7:10">
+      <c r="I108" s="24">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J108" s="24"/>
+    </row>
+    <row r="109" spans="6:10">
       <c r="G109" t="s">
         <v>113</v>
       </c>
       <c r="H109" t="s">
         <v>114</v>
       </c>
-      <c r="I109" s="3" t="s">
+      <c r="I109" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="J109" s="3"/>
-    </row>
-    <row r="110" spans="8:10">
+      <c r="J109" s="24"/>
+    </row>
+    <row r="110" spans="6:10">
       <c r="H110" t="s">
         <v>113</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="I110" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="J110" s="3"/>
-    </row>
-    <row r="113" spans="7:9">
+      <c r="J110" s="24"/>
+    </row>
+    <row r="113" spans="7:10">
       <c r="G113">
         <v>3.1</v>
       </c>
       <c r="H113">
         <v>3.2</v>
       </c>
-      <c r="I113" s="31">
+      <c r="I113" s="42">
         <v>3.3</v>
       </c>
+      <c r="J113" s="43"/>
     </row>
     <row r="114" spans="7:10">
       <c r="G114" t="s">
@@ -3323,10 +2785,10 @@
       <c r="H114" t="s">
         <v>115</v>
       </c>
-      <c r="I114" s="31" t="s">
+      <c r="I114" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="J114" s="31"/>
+      <c r="J114" s="42"/>
     </row>
     <row r="115" spans="7:10">
       <c r="G115" t="s">
@@ -3335,19 +2797,20 @@
       <c r="H115" t="s">
         <v>116</v>
       </c>
-      <c r="I115" s="37"/>
-      <c r="J115" s="37"/>
-    </row>
-    <row r="119" spans="7:9">
+      <c r="I115" s="14"/>
+      <c r="J115" s="14"/>
+    </row>
+    <row r="119" spans="7:10">
       <c r="G119">
         <v>3.5</v>
       </c>
       <c r="H119">
         <v>3.6</v>
       </c>
-      <c r="I119" s="31">
+      <c r="I119" s="42">
         <v>3.7</v>
       </c>
+      <c r="J119" s="43"/>
     </row>
     <row r="120" spans="7:10">
       <c r="G120" t="s">
@@ -3356,12 +2819,12 @@
       <c r="H120" t="s">
         <v>118</v>
       </c>
-      <c r="I120" s="31" t="s">
+      <c r="I120" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="J120" s="31"/>
-    </row>
-    <row r="121" spans="8:9">
+      <c r="J120" s="42"/>
+    </row>
+    <row r="121" spans="7:10">
       <c r="H121" t="s">
         <v>120</v>
       </c>
@@ -3369,7 +2832,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="9:9">
+    <row r="122" spans="7:10">
       <c r="I122" t="s">
         <v>122</v>
       </c>
@@ -3381,35 +2844,37 @@
       <c r="H127">
         <v>3.13</v>
       </c>
-      <c r="I127" s="31">
+      <c r="I127" s="42">
         <v>3.14</v>
       </c>
-      <c r="J127" s="31"/>
-    </row>
-    <row r="128" spans="7:9">
-      <c r="G128" s="10" t="s">
+      <c r="J127" s="42"/>
+    </row>
+    <row r="128" spans="7:10">
+      <c r="G128" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="H128" s="10" t="s">
+      <c r="H128" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="I128" s="31" t="s">
+      <c r="I128" s="42" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="129" spans="7:9">
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="31" t="s">
+      <c r="J128" s="43"/>
+    </row>
+    <row r="129" spans="7:10">
+      <c r="G129" s="54"/>
+      <c r="H129" s="54"/>
+      <c r="I129" s="42" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="130" spans="7:7">
+      <c r="J129" s="43"/>
+    </row>
+    <row r="130" spans="7:10">
       <c r="G130" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="135" spans="7:8">
+    <row r="135" spans="7:10">
       <c r="G135">
         <v>3.21</v>
       </c>
@@ -3417,7 +2882,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="136" spans="7:8">
+    <row r="136" spans="7:10">
       <c r="G136" t="s">
         <v>128</v>
       </c>
@@ -3426,10 +2891,10 @@
       </c>
     </row>
     <row r="140" spans="7:10">
-      <c r="G140" s="33">
+      <c r="G140" s="12">
         <v>3.26</v>
       </c>
-      <c r="H140" s="33">
+      <c r="H140" s="12">
         <v>3.27</v>
       </c>
       <c r="J140">
@@ -3437,10 +2902,10 @@
       </c>
     </row>
     <row r="141" spans="7:10">
-      <c r="G141" s="16" t="s">
+      <c r="G141" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="H141" s="33" t="s">
+      <c r="H141" s="12" t="s">
         <v>131</v>
       </c>
       <c r="J141" t="s">
@@ -3448,344 +2913,344 @@
       </c>
     </row>
     <row r="142" spans="7:10">
-      <c r="G142" s="16"/>
-      <c r="H142" s="33" t="s">
+      <c r="G142" s="36"/>
+      <c r="H142" s="12" t="s">
         <v>133</v>
       </c>
       <c r="J142" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="7:8">
-      <c r="G143" s="3" t="s">
+    <row r="143" spans="7:10">
+      <c r="G143" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H143" s="33" t="s">
+      <c r="H143" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="144" spans="7:8">
-      <c r="G144" s="16" t="s">
+    <row r="144" spans="7:10">
+      <c r="G144" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="H144" s="33" t="s">
+      <c r="H144" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="145" spans="7:7">
-      <c r="G145" s="16"/>
-    </row>
-    <row r="146" spans="7:7">
-      <c r="G146" s="16"/>
-    </row>
-    <row r="149" spans="7:10">
-      <c r="G149" s="17">
+    <row r="145" spans="3:10">
+      <c r="G145" s="36"/>
+    </row>
+    <row r="146" spans="3:10">
+      <c r="G146" s="36"/>
+    </row>
+    <row r="149" spans="3:10">
+      <c r="G149" s="2">
         <v>43188</v>
       </c>
-      <c r="H149" s="17">
+      <c r="H149" s="2">
         <v>43189</v>
       </c>
-      <c r="J149" s="47">
+      <c r="J149" s="18">
         <v>43190</v>
       </c>
     </row>
     <row r="150" spans="3:10">
-      <c r="C150" s="45" t="s">
+      <c r="C150" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="D150" s="45"/>
-      <c r="E150" s="45"/>
-      <c r="F150" s="45"/>
-      <c r="G150" s="16" t="s">
+      <c r="D150" s="61"/>
+      <c r="E150" s="61"/>
+      <c r="F150" s="61"/>
+      <c r="G150" s="36" t="s">
         <v>140</v>
       </c>
       <c r="H150" t="s">
         <v>141</v>
       </c>
-      <c r="J150" s="33" t="s">
+      <c r="J150" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="151" spans="3:10">
-      <c r="C151" s="45"/>
-      <c r="D151" s="45"/>
-      <c r="E151" s="45"/>
-      <c r="F151" s="45"/>
-      <c r="G151" s="16"/>
+      <c r="C151" s="61"/>
+      <c r="D151" s="61"/>
+      <c r="E151" s="61"/>
+      <c r="F151" s="61"/>
+      <c r="G151" s="36"/>
       <c r="H151" t="s">
         <v>142</v>
       </c>
-      <c r="J151" s="16" t="s">
+      <c r="J151" s="36" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="152" spans="3:10">
-      <c r="C152" s="45"/>
-      <c r="D152" s="45"/>
-      <c r="E152" s="45"/>
-      <c r="F152" s="45"/>
-      <c r="G152" s="16"/>
-      <c r="J152" s="16"/>
-    </row>
-    <row r="153" spans="7:10">
-      <c r="G153" s="16" t="s">
+      <c r="C152" s="61"/>
+      <c r="D152" s="61"/>
+      <c r="E152" s="61"/>
+      <c r="F152" s="61"/>
+      <c r="G152" s="36"/>
+      <c r="J152" s="36"/>
+    </row>
+    <row r="153" spans="3:10">
+      <c r="G153" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="J153" s="16" t="s">
+      <c r="J153" s="36" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="7:10">
-      <c r="G154" s="16"/>
-      <c r="J154" s="16"/>
-    </row>
-    <row r="155" spans="7:10">
-      <c r="G155" s="16"/>
-      <c r="J155" s="16"/>
-    </row>
-    <row r="156" spans="7:10">
-      <c r="G156" s="16"/>
-      <c r="J156" s="16"/>
-    </row>
-    <row r="157" spans="7:10">
-      <c r="G157" s="16" t="s">
+    <row r="154" spans="3:10">
+      <c r="G154" s="36"/>
+      <c r="J154" s="36"/>
+    </row>
+    <row r="155" spans="3:10">
+      <c r="G155" s="36"/>
+      <c r="J155" s="36"/>
+    </row>
+    <row r="156" spans="3:10">
+      <c r="G156" s="36"/>
+      <c r="J156" s="36"/>
+    </row>
+    <row r="157" spans="3:10">
+      <c r="G157" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="J157" s="16"/>
-    </row>
-    <row r="158" spans="7:10">
-      <c r="G158" s="16"/>
-      <c r="J158" s="16"/>
-    </row>
-    <row r="159" spans="7:10">
-      <c r="G159" s="16"/>
-      <c r="J159" s="16"/>
-    </row>
-    <row r="160" spans="7:10">
-      <c r="G160" s="16"/>
-      <c r="J160" s="16" t="s">
+      <c r="J157" s="36"/>
+    </row>
+    <row r="158" spans="3:10">
+      <c r="G158" s="36"/>
+      <c r="J158" s="36"/>
+    </row>
+    <row r="159" spans="3:10">
+      <c r="G159" s="36"/>
+      <c r="J159" s="36"/>
+    </row>
+    <row r="160" spans="3:10">
+      <c r="G160" s="36"/>
+      <c r="J160" s="36" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="7:10">
-      <c r="G161" s="16" t="s">
+    <row r="161" spans="2:10">
+      <c r="G161" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="J161" s="16"/>
-    </row>
-    <row r="162" spans="7:10">
-      <c r="G162" s="16"/>
-      <c r="J162" s="16"/>
-    </row>
-    <row r="163" spans="7:7">
-      <c r="G163" s="16"/>
-    </row>
-    <row r="166" spans="7:10">
-      <c r="G166" s="46">
+      <c r="J161" s="36"/>
+    </row>
+    <row r="162" spans="2:10">
+      <c r="G162" s="36"/>
+      <c r="J162" s="36"/>
+    </row>
+    <row r="163" spans="2:10">
+      <c r="G163" s="36"/>
+    </row>
+    <row r="166" spans="2:10">
+      <c r="G166" s="17">
         <v>43192</v>
       </c>
-      <c r="H166" s="47">
+      <c r="H166" s="18">
         <v>43193</v>
       </c>
-      <c r="I166" s="18">
+      <c r="I166" s="44">
         <v>43194</v>
       </c>
-      <c r="J166" s="47"/>
-    </row>
-    <row r="167" spans="7:10">
-      <c r="G167" s="32" t="s">
+      <c r="J166" s="45"/>
+    </row>
+    <row r="167" spans="2:10">
+      <c r="G167" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H167" s="33" t="s">
+      <c r="H167" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="I167" s="16" t="s">
+      <c r="I167" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="J167" s="16"/>
-    </row>
-    <row r="168" spans="7:10">
-      <c r="G168" s="48" t="s">
+      <c r="J167" s="36"/>
+    </row>
+    <row r="168" spans="2:10">
+      <c r="G168" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="H168" s="33" t="s">
+      <c r="H168" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="I168" s="16"/>
-      <c r="J168" s="16"/>
-    </row>
-    <row r="169" spans="7:10">
-      <c r="G169" s="48"/>
-      <c r="H169" s="16" t="s">
+      <c r="I168" s="36"/>
+      <c r="J168" s="36"/>
+    </row>
+    <row r="169" spans="2:10">
+      <c r="G169" s="55"/>
+      <c r="H169" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="I169" s="16"/>
-      <c r="J169" s="16"/>
-    </row>
-    <row r="170" spans="8:10">
-      <c r="H170" s="16"/>
-      <c r="I170" s="3" t="s">
+      <c r="I169" s="36"/>
+      <c r="J169" s="36"/>
+    </row>
+    <row r="170" spans="2:10">
+      <c r="H170" s="36"/>
+      <c r="I170" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="J170" s="33"/>
-    </row>
-    <row r="175" spans="7:7">
-      <c r="G175" s="17">
+      <c r="J170" s="31"/>
+    </row>
+    <row r="175" spans="2:10">
+      <c r="G175" s="2">
         <v>43199</v>
       </c>
     </row>
-    <row r="176" spans="2:7">
-      <c r="B176" s="3" t="s">
+    <row r="176" spans="2:10">
+      <c r="B176" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
+      <c r="C176" s="24"/>
+      <c r="D176" s="24"/>
+      <c r="E176" s="24"/>
       <c r="G176" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="177" spans="2:5">
-      <c r="B177" s="3" t="s">
+    <row r="177" spans="2:10">
+      <c r="B177" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-    </row>
-    <row r="178" spans="2:5">
-      <c r="B178" s="49" t="s">
+      <c r="C177" s="24"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="24"/>
+    </row>
+    <row r="178" spans="2:10">
+      <c r="B178" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="C178" s="49"/>
-      <c r="D178" s="49"/>
-      <c r="E178" s="49"/>
-    </row>
-    <row r="179" spans="2:5">
-      <c r="B179" s="49"/>
-      <c r="C179" s="49"/>
-      <c r="D179" s="49"/>
-      <c r="E179" s="49"/>
-    </row>
-    <row r="180" spans="2:5">
-      <c r="B180" s="49"/>
-      <c r="C180" s="49"/>
-      <c r="D180" s="49"/>
-      <c r="E180" s="49"/>
-    </row>
-    <row r="181" spans="2:5">
-      <c r="B181" s="49"/>
-      <c r="C181" s="49"/>
-      <c r="D181" s="49"/>
-      <c r="E181" s="49"/>
+      <c r="C178" s="62"/>
+      <c r="D178" s="62"/>
+      <c r="E178" s="62"/>
+    </row>
+    <row r="179" spans="2:10">
+      <c r="B179" s="62"/>
+      <c r="C179" s="62"/>
+      <c r="D179" s="62"/>
+      <c r="E179" s="62"/>
+    </row>
+    <row r="180" spans="2:10">
+      <c r="B180" s="62"/>
+      <c r="C180" s="62"/>
+      <c r="D180" s="62"/>
+      <c r="E180" s="62"/>
+    </row>
+    <row r="181" spans="2:10">
+      <c r="B181" s="62"/>
+      <c r="C181" s="62"/>
+      <c r="D181" s="62"/>
+      <c r="E181" s="62"/>
     </row>
     <row r="182" spans="2:10">
-      <c r="B182" s="49"/>
-      <c r="C182" s="49"/>
-      <c r="D182" s="49"/>
-      <c r="E182" s="49"/>
-      <c r="G182" s="17">
+      <c r="B182" s="62"/>
+      <c r="C182" s="62"/>
+      <c r="D182" s="62"/>
+      <c r="E182" s="62"/>
+      <c r="G182" s="2">
         <v>43211</v>
       </c>
-      <c r="H182" s="47">
+      <c r="H182" s="18">
         <v>43215</v>
       </c>
-      <c r="I182" s="18">
+      <c r="I182" s="44">
         <v>43216</v>
       </c>
-      <c r="J182" s="47"/>
+      <c r="J182" s="45"/>
     </row>
     <row r="183" spans="2:10">
-      <c r="B183" s="49"/>
-      <c r="C183" s="49"/>
-      <c r="D183" s="49"/>
-      <c r="E183" s="49"/>
+      <c r="B183" s="62"/>
+      <c r="C183" s="62"/>
+      <c r="D183" s="62"/>
+      <c r="E183" s="62"/>
       <c r="G183" t="s">
         <v>160</v>
       </c>
-      <c r="H183" s="16" t="s">
+      <c r="H183" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="I183" s="16" t="s">
+      <c r="I183" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="J183" s="16"/>
+      <c r="J183" s="36"/>
     </row>
     <row r="184" spans="2:10">
-      <c r="B184" s="49"/>
-      <c r="C184" s="49"/>
-      <c r="D184" s="49"/>
-      <c r="E184" s="49"/>
-      <c r="H184" s="16"/>
-      <c r="I184" s="16"/>
-      <c r="J184" s="16"/>
-    </row>
-    <row r="185" spans="8:10">
-      <c r="H185" s="16"/>
-      <c r="I185" s="10" t="s">
+      <c r="B184" s="62"/>
+      <c r="C184" s="62"/>
+      <c r="D184" s="62"/>
+      <c r="E184" s="62"/>
+      <c r="H184" s="36"/>
+      <c r="I184" s="36"/>
+      <c r="J184" s="36"/>
+    </row>
+    <row r="185" spans="2:10">
+      <c r="H185" s="36"/>
+      <c r="I185" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="J185" s="10"/>
-    </row>
-    <row r="186" spans="8:10">
-      <c r="H186" s="16"/>
-      <c r="I186" s="10"/>
-      <c r="J186" s="10"/>
-    </row>
-    <row r="187" spans="9:10">
-      <c r="I187" s="10"/>
-      <c r="J187" s="10"/>
-    </row>
-    <row r="188" spans="9:10">
-      <c r="I188" s="10"/>
-      <c r="J188" s="10"/>
-    </row>
-    <row r="191" spans="7:8">
-      <c r="G191" s="17">
+      <c r="J185" s="54"/>
+    </row>
+    <row r="186" spans="2:10">
+      <c r="H186" s="36"/>
+      <c r="I186" s="54"/>
+      <c r="J186" s="54"/>
+    </row>
+    <row r="187" spans="2:10">
+      <c r="I187" s="54"/>
+      <c r="J187" s="54"/>
+    </row>
+    <row r="188" spans="2:10">
+      <c r="I188" s="54"/>
+      <c r="J188" s="54"/>
+    </row>
+    <row r="191" spans="2:10">
+      <c r="G191" s="2">
         <v>43217</v>
       </c>
-      <c r="H191" s="47">
+      <c r="H191" s="18">
         <v>43218</v>
       </c>
     </row>
-    <row r="192" spans="7:8">
-      <c r="G192" s="10" t="s">
+    <row r="192" spans="2:10">
+      <c r="G192" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="H192" s="16" t="s">
+      <c r="H192" s="36" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="193" spans="7:8">
-      <c r="G193" s="10"/>
-      <c r="H193" s="16"/>
-    </row>
-    <row r="194" spans="7:8">
-      <c r="G194" s="10"/>
-      <c r="H194" s="16"/>
-    </row>
-    <row r="195" spans="7:8">
-      <c r="G195" s="10"/>
-      <c r="H195" s="16"/>
-    </row>
-    <row r="196" spans="7:8">
-      <c r="G196" s="10"/>
-      <c r="H196" s="16"/>
-    </row>
-    <row r="197" spans="8:8">
-      <c r="H197" s="16"/>
-    </row>
-    <row r="198" spans="8:8">
-      <c r="H198" s="16"/>
+    <row r="193" spans="7:10">
+      <c r="G193" s="54"/>
+      <c r="H193" s="36"/>
+    </row>
+    <row r="194" spans="7:10">
+      <c r="G194" s="54"/>
+      <c r="H194" s="36"/>
+    </row>
+    <row r="195" spans="7:10">
+      <c r="G195" s="54"/>
+      <c r="H195" s="36"/>
+    </row>
+    <row r="196" spans="7:10">
+      <c r="G196" s="54"/>
+      <c r="H196" s="36"/>
+    </row>
+    <row r="197" spans="7:10">
+      <c r="H197" s="36"/>
+    </row>
+    <row r="198" spans="7:10">
+      <c r="H198" s="36"/>
     </row>
     <row r="202" spans="7:10">
-      <c r="G202" s="17">
+      <c r="G202" s="2">
         <v>43223</v>
       </c>
-      <c r="H202" s="17">
+      <c r="H202" s="2">
         <v>43225</v>
       </c>
-      <c r="J202" s="17">
+      <c r="J202" s="2">
         <v>43227</v>
       </c>
     </row>
@@ -3796,152 +3261,152 @@
       <c r="H203" t="s">
         <v>167</v>
       </c>
-      <c r="I203" s="10" t="s">
+      <c r="I203" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="J203" s="10"/>
+      <c r="J203" s="54"/>
     </row>
     <row r="204" spans="7:10">
       <c r="G204" t="s">
         <v>169</v>
       </c>
-      <c r="I204" s="10"/>
-      <c r="J204" s="10"/>
-    </row>
-    <row r="205" spans="10:10">
+      <c r="I204" s="54"/>
+      <c r="J204" s="54"/>
+    </row>
+    <row r="205" spans="7:10">
       <c r="J205" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="208" spans="10:10">
-      <c r="J208" s="17"/>
-    </row>
-    <row r="209" spans="7:8">
-      <c r="G209" s="47">
+    <row r="208" spans="7:10">
+      <c r="J208" s="2"/>
+    </row>
+    <row r="209" spans="7:10">
+      <c r="G209" s="18">
         <v>43231</v>
       </c>
-      <c r="H209" s="17">
+      <c r="H209" s="2">
         <v>43234</v>
       </c>
     </row>
-    <row r="210" spans="7:8">
-      <c r="G210" s="16" t="s">
+    <row r="210" spans="7:10">
+      <c r="G210" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="H210" s="10" t="s">
+      <c r="H210" s="54" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="211" spans="7:8">
-      <c r="G211" s="16"/>
-      <c r="H211" s="10"/>
-    </row>
-    <row r="212" spans="7:7">
-      <c r="G212" s="16"/>
-    </row>
-    <row r="213" spans="7:7">
-      <c r="G213" s="33" t="s">
+    <row r="211" spans="7:10">
+      <c r="G211" s="36"/>
+      <c r="H211" s="54"/>
+    </row>
+    <row r="212" spans="7:10">
+      <c r="G212" s="36"/>
+    </row>
+    <row r="213" spans="7:10">
+      <c r="G213" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="214" spans="7:7">
-      <c r="G214" s="16" t="s">
+    <row r="214" spans="7:10">
+      <c r="G214" s="36" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="215" spans="7:7">
-      <c r="G215" s="42"/>
+    <row r="215" spans="7:10">
+      <c r="G215" s="41"/>
     </row>
     <row r="220" spans="7:10">
-      <c r="G220" s="50">
+      <c r="G220" s="19">
         <v>43236</v>
       </c>
-      <c r="H220" s="50">
+      <c r="H220" s="19">
         <v>43238</v>
       </c>
-      <c r="I220" s="18">
+      <c r="I220" s="44">
         <v>43239</v>
       </c>
-      <c r="J220" s="47"/>
+      <c r="J220" s="45"/>
     </row>
     <row r="221" spans="7:10">
-      <c r="G221" s="3" t="s">
+      <c r="G221" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="H221" s="3"/>
-      <c r="I221" s="51" t="s">
+      <c r="H221" s="24"/>
+      <c r="I221" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="J221" s="16"/>
+      <c r="J221" s="36"/>
     </row>
     <row r="222" spans="7:10">
-      <c r="G222" s="16" t="s">
+      <c r="G222" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="H222" s="16"/>
-      <c r="I222" s="51"/>
-      <c r="J222" s="16"/>
+      <c r="H222" s="36"/>
+      <c r="I222" s="63"/>
+      <c r="J222" s="36"/>
     </row>
     <row r="223" spans="7:10">
-      <c r="G223" s="16"/>
-      <c r="H223" s="16"/>
-      <c r="I223" s="23" t="s">
+      <c r="G223" s="36"/>
+      <c r="H223" s="36"/>
+      <c r="I223" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="J223" s="33"/>
-    </row>
-    <row r="224" spans="7:8">
-      <c r="G224" s="3" t="s">
+      <c r="J223" s="31"/>
+    </row>
+    <row r="224" spans="7:10">
+      <c r="G224" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="H224" s="3"/>
+      <c r="H224" s="24"/>
     </row>
     <row r="229" spans="7:10">
-      <c r="G229" s="17">
+      <c r="G229" s="2">
         <v>43241</v>
       </c>
-      <c r="H229" s="17">
+      <c r="H229" s="2">
         <v>43243</v>
       </c>
-      <c r="I229" s="18">
+      <c r="I229" s="44">
         <v>43244</v>
       </c>
-      <c r="J229" s="47"/>
+      <c r="J229" s="45"/>
     </row>
     <row r="230" spans="7:10">
-      <c r="G230" s="10" t="s">
+      <c r="G230" s="54" t="s">
         <v>180</v>
       </c>
       <c r="H230" t="s">
         <v>181</v>
       </c>
-      <c r="I230" s="16" t="s">
+      <c r="I230" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="J230" s="16"/>
+      <c r="J230" s="36"/>
     </row>
     <row r="231" spans="7:10">
-      <c r="G231" s="10"/>
+      <c r="G231" s="54"/>
       <c r="H231" t="s">
         <v>183</v>
       </c>
-      <c r="I231" s="16"/>
-      <c r="J231" s="16"/>
+      <c r="I231" s="36"/>
+      <c r="J231" s="36"/>
     </row>
     <row r="232" spans="7:10">
-      <c r="G232" s="10"/>
-      <c r="I232" s="3" t="s">
+      <c r="G232" s="54"/>
+      <c r="I232" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="J232" s="33"/>
-    </row>
-    <row r="233" spans="9:9">
+      <c r="J232" s="31"/>
+    </row>
+    <row r="233" spans="7:10">
       <c r="I233" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="238" spans="7:7">
-      <c r="G238" s="17">
+    <row r="238" spans="7:10">
+      <c r="G238" s="2">
         <v>43245</v>
       </c>
     </row>
@@ -3949,77 +3414,77 @@
       <c r="G239" t="s">
         <v>186</v>
       </c>
-      <c r="I239" s="18">
+      <c r="I239" s="44">
         <v>43248</v>
       </c>
-      <c r="J239" s="47"/>
+      <c r="J239" s="45"/>
     </row>
     <row r="240" spans="7:10">
-      <c r="G240" s="10" t="s">
+      <c r="G240" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="I240" s="3" t="s">
+      <c r="I240" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="J240" s="33"/>
+      <c r="J240" s="31"/>
     </row>
     <row r="241" spans="7:10">
-      <c r="G241" s="10"/>
-      <c r="I241" s="16" t="s">
+      <c r="G241" s="54"/>
+      <c r="I241" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="J241" s="16"/>
+      <c r="J241" s="36"/>
     </row>
     <row r="242" spans="7:10">
-      <c r="G242" s="10"/>
-      <c r="I242" s="16"/>
-      <c r="J242" s="16"/>
+      <c r="G242" s="54"/>
+      <c r="I242" s="36"/>
+      <c r="J242" s="36"/>
     </row>
     <row r="243" spans="7:10">
-      <c r="G243" s="10"/>
-      <c r="I243" s="16" t="s">
+      <c r="G243" s="54"/>
+      <c r="I243" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="J243" s="16"/>
+      <c r="J243" s="36"/>
     </row>
     <row r="244" spans="7:10">
-      <c r="G244" s="10"/>
-      <c r="I244" s="16"/>
-      <c r="J244" s="16"/>
-    </row>
-    <row r="245" spans="9:10">
-      <c r="I245" s="16"/>
-      <c r="J245" s="16"/>
-    </row>
-    <row r="246" spans="9:10">
-      <c r="I246" s="16"/>
-      <c r="J246" s="16"/>
-    </row>
-    <row r="247" spans="9:10">
-      <c r="I247" s="16"/>
-      <c r="J247" s="16"/>
-    </row>
-    <row r="248" spans="9:10">
-      <c r="I248" s="16"/>
-      <c r="J248" s="16"/>
-    </row>
-    <row r="249" spans="9:10">
-      <c r="I249" s="16"/>
-      <c r="J249" s="16"/>
-    </row>
-    <row r="250" spans="9:10">
-      <c r="I250" s="16"/>
-      <c r="J250" s="16"/>
-    </row>
-    <row r="254" spans="7:8">
-      <c r="G254" s="17">
+      <c r="G244" s="54"/>
+      <c r="I244" s="36"/>
+      <c r="J244" s="36"/>
+    </row>
+    <row r="245" spans="7:10">
+      <c r="I245" s="36"/>
+      <c r="J245" s="36"/>
+    </row>
+    <row r="246" spans="7:10">
+      <c r="I246" s="36"/>
+      <c r="J246" s="36"/>
+    </row>
+    <row r="247" spans="7:10">
+      <c r="I247" s="36"/>
+      <c r="J247" s="36"/>
+    </row>
+    <row r="248" spans="7:10">
+      <c r="I248" s="36"/>
+      <c r="J248" s="36"/>
+    </row>
+    <row r="249" spans="7:10">
+      <c r="I249" s="36"/>
+      <c r="J249" s="36"/>
+    </row>
+    <row r="250" spans="7:10">
+      <c r="I250" s="36"/>
+      <c r="J250" s="36"/>
+    </row>
+    <row r="254" spans="7:10">
+      <c r="G254" s="2">
         <v>43249</v>
       </c>
-      <c r="H254" s="17">
+      <c r="H254" s="2">
         <v>43250</v>
       </c>
     </row>
-    <row r="255" spans="7:8">
+    <row r="255" spans="7:10">
       <c r="G255" t="s">
         <v>191</v>
       </c>
@@ -4027,254 +3492,254 @@
         <v>192</v>
       </c>
     </row>
-    <row r="256" spans="7:8">
-      <c r="G256" s="10" t="s">
+    <row r="256" spans="7:10">
+      <c r="G256" s="54" t="s">
         <v>193</v>
       </c>
       <c r="H256" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="257" spans="7:7">
-      <c r="G257" s="10"/>
+    <row r="257" spans="7:10">
+      <c r="G257" s="54"/>
     </row>
     <row r="264" spans="7:10">
-      <c r="G264" s="18">
+      <c r="G264" s="3">
         <v>43252</v>
       </c>
-      <c r="H264" s="47">
+      <c r="H264" s="18">
         <v>43253</v>
       </c>
-      <c r="I264" s="18">
+      <c r="I264" s="44">
         <v>43255</v>
       </c>
-      <c r="J264" s="47"/>
+      <c r="J264" s="45"/>
     </row>
     <row r="265" spans="7:10">
-      <c r="G265" s="3" t="s">
+      <c r="G265" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H265" s="16" t="s">
+      <c r="H265" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I265" s="16" t="s">
+      <c r="I265" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="J265" s="16"/>
+      <c r="J265" s="36"/>
     </row>
     <row r="266" spans="7:10">
-      <c r="G266" s="16" t="s">
+      <c r="G266" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="H266" s="16"/>
-      <c r="I266" s="16"/>
-      <c r="J266" s="16"/>
+      <c r="H266" s="36"/>
+      <c r="I266" s="36"/>
+      <c r="J266" s="36"/>
     </row>
     <row r="267" spans="7:10">
-      <c r="G267" s="16"/>
-      <c r="H267" s="33" t="s">
+      <c r="G267" s="36"/>
+      <c r="H267" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="I267" s="16"/>
-      <c r="J267" s="16"/>
+      <c r="I267" s="36"/>
+      <c r="J267" s="36"/>
     </row>
     <row r="268" spans="7:10">
-      <c r="G268" s="16"/>
-      <c r="I268" s="16"/>
-      <c r="J268" s="16"/>
+      <c r="G268" s="36"/>
+      <c r="I268" s="36"/>
+      <c r="J268" s="36"/>
     </row>
     <row r="269" spans="7:10">
-      <c r="G269" s="16" t="s">
+      <c r="G269" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="I269" s="16"/>
-      <c r="J269" s="16"/>
-    </row>
-    <row r="270" spans="7:7">
-      <c r="G270" s="16"/>
-    </row>
-    <row r="271" spans="7:7">
-      <c r="G271" s="16" t="s">
+      <c r="I269" s="36"/>
+      <c r="J269" s="36"/>
+    </row>
+    <row r="270" spans="7:10">
+      <c r="G270" s="36"/>
+    </row>
+    <row r="271" spans="7:10">
+      <c r="G271" s="36" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="272" spans="7:7">
-      <c r="G272" s="16"/>
-    </row>
-    <row r="273" spans="7:7">
-      <c r="G273" s="16"/>
-    </row>
-    <row r="274" spans="7:7">
-      <c r="G274" s="16"/>
-    </row>
-    <row r="275" spans="7:7">
-      <c r="G275" s="16"/>
-    </row>
-    <row r="276" spans="7:7">
-      <c r="G276" s="16" t="s">
+    <row r="272" spans="7:10">
+      <c r="G272" s="36"/>
+    </row>
+    <row r="273" spans="7:10">
+      <c r="G273" s="36"/>
+    </row>
+    <row r="274" spans="7:10">
+      <c r="G274" s="36"/>
+    </row>
+    <row r="275" spans="7:10">
+      <c r="G275" s="36"/>
+    </row>
+    <row r="276" spans="7:10">
+      <c r="G276" s="36" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="277" spans="7:7">
-      <c r="G277" s="16"/>
-    </row>
-    <row r="278" spans="7:7">
-      <c r="G278" s="16" t="s">
+    <row r="277" spans="7:10">
+      <c r="G277" s="36"/>
+    </row>
+    <row r="278" spans="7:10">
+      <c r="G278" s="36" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="279" spans="7:7">
-      <c r="G279" s="16"/>
-    </row>
-    <row r="280" spans="7:7">
-      <c r="G280" s="16"/>
+    <row r="279" spans="7:10">
+      <c r="G279" s="36"/>
+    </row>
+    <row r="280" spans="7:10">
+      <c r="G280" s="36"/>
     </row>
     <row r="287" spans="7:10">
-      <c r="G287" s="47">
+      <c r="G287" s="18">
         <v>43256</v>
       </c>
-      <c r="H287" s="47">
+      <c r="H287" s="18">
         <v>43257</v>
       </c>
-      <c r="I287" s="19">
+      <c r="I287" s="46">
         <v>43258</v>
       </c>
-      <c r="J287" s="53"/>
+      <c r="J287" s="47"/>
     </row>
     <row r="288" spans="7:10">
-      <c r="G288" s="16" t="s">
+      <c r="G288" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="H288" s="16" t="s">
+      <c r="H288" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="I288" s="5" t="s">
+      <c r="I288" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="J288" s="7"/>
-    </row>
-    <row r="289" spans="7:10">
-      <c r="G289" s="16"/>
-      <c r="H289" s="16"/>
-      <c r="I289" s="13"/>
-      <c r="J289" s="15"/>
-    </row>
-    <row r="290" spans="7:10">
-      <c r="G290" s="16" t="s">
+      <c r="J288" s="65"/>
+    </row>
+    <row r="289" spans="7:12">
+      <c r="G289" s="36"/>
+      <c r="H289" s="36"/>
+      <c r="I289" s="66"/>
+      <c r="J289" s="67"/>
+    </row>
+    <row r="290" spans="7:12">
+      <c r="G290" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="H290" s="33" t="s">
+      <c r="H290" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="I290" s="22" t="s">
+      <c r="I290" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="J290" s="54"/>
-    </row>
-    <row r="291" spans="7:10">
-      <c r="G291" s="16"/>
-      <c r="H291" s="33"/>
-      <c r="I291" s="33"/>
-      <c r="J291" s="33"/>
-    </row>
-    <row r="292" spans="7:10">
-      <c r="G292" s="33"/>
-      <c r="H292" s="33"/>
-      <c r="I292" s="33"/>
-      <c r="J292" s="33"/>
-    </row>
-    <row r="297" spans="7:7">
-      <c r="G297" s="17">
+      <c r="J290" s="48"/>
+    </row>
+    <row r="291" spans="7:12">
+      <c r="G291" s="36"/>
+      <c r="H291" s="12"/>
+      <c r="I291" s="12"/>
+      <c r="J291" s="12"/>
+    </row>
+    <row r="292" spans="7:12">
+      <c r="G292" s="12"/>
+      <c r="H292" s="12"/>
+      <c r="I292" s="12"/>
+      <c r="J292" s="12"/>
+    </row>
+    <row r="297" spans="7:12">
+      <c r="G297" s="2">
         <v>43259</v>
       </c>
     </row>
     <row r="298" spans="7:12">
-      <c r="G298" s="10" t="s">
+      <c r="G298" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="L298" s="16" t="s">
+      <c r="L298" s="36" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="299" spans="7:12">
-      <c r="G299" s="10"/>
-      <c r="L299" s="16"/>
+      <c r="G299" s="54"/>
+      <c r="L299" s="36"/>
     </row>
     <row r="300" spans="7:12">
-      <c r="G300" s="10"/>
-      <c r="L300" s="16"/>
+      <c r="G300" s="54"/>
+      <c r="L300" s="36"/>
     </row>
     <row r="301" spans="7:12">
-      <c r="G301" s="10"/>
-      <c r="L301" s="16"/>
-    </row>
-    <row r="302" spans="12:12">
-      <c r="L302" s="16"/>
-    </row>
-    <row r="303" spans="12:12">
-      <c r="L303" s="16"/>
-    </row>
-    <row r="304" spans="12:12">
-      <c r="L304" s="16"/>
-    </row>
-    <row r="305" spans="12:12">
-      <c r="L305" s="37"/>
-    </row>
-    <row r="306" spans="12:12">
-      <c r="L306" s="37"/>
-    </row>
-    <row r="307" spans="12:12">
-      <c r="L307" s="37"/>
-    </row>
-    <row r="308" spans="12:12">
-      <c r="L308" s="37"/>
-    </row>
-    <row r="309" spans="12:12">
-      <c r="L309" s="37"/>
-    </row>
-    <row r="313" spans="7:10">
-      <c r="G313" s="17">
+      <c r="G301" s="54"/>
+      <c r="L301" s="36"/>
+    </row>
+    <row r="302" spans="7:12">
+      <c r="L302" s="36"/>
+    </row>
+    <row r="303" spans="7:12">
+      <c r="L303" s="36"/>
+    </row>
+    <row r="304" spans="7:12">
+      <c r="L304" s="36"/>
+    </row>
+    <row r="305" spans="7:12">
+      <c r="L305" s="14"/>
+    </row>
+    <row r="306" spans="7:12">
+      <c r="L306" s="14"/>
+    </row>
+    <row r="307" spans="7:12">
+      <c r="L307" s="14"/>
+    </row>
+    <row r="308" spans="7:12">
+      <c r="L308" s="14"/>
+    </row>
+    <row r="309" spans="7:12">
+      <c r="L309" s="14"/>
+    </row>
+    <row r="313" spans="7:12">
+      <c r="G313" s="2">
         <v>43271</v>
       </c>
-      <c r="H313" s="17">
+      <c r="H313" s="2">
         <v>43272</v>
       </c>
-      <c r="I313" s="55">
+      <c r="I313" s="49">
         <v>43273</v>
       </c>
-      <c r="J313" s="17"/>
-    </row>
-    <row r="314" spans="7:10">
-      <c r="G314" s="52" t="s">
+      <c r="J313" s="50"/>
+    </row>
+    <row r="314" spans="7:12">
+      <c r="G314" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="H314" s="52" t="s">
+      <c r="H314" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="I314" s="56" t="s">
+      <c r="I314" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="J314" s="3"/>
-    </row>
-    <row r="315" spans="7:10">
-      <c r="G315" s="16"/>
-      <c r="H315" s="16"/>
-      <c r="I315" s="3"/>
-      <c r="J315" s="3"/>
-    </row>
-    <row r="317" spans="7:10">
-      <c r="G317" s="33" t="s">
+      <c r="J314" s="24"/>
+    </row>
+    <row r="315" spans="7:12">
+      <c r="G315" s="36"/>
+      <c r="H315" s="36"/>
+      <c r="I315" s="24"/>
+      <c r="J315" s="24"/>
+    </row>
+    <row r="317" spans="7:12">
+      <c r="G317" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="H317" s="33" t="s">
+      <c r="H317" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="I317" s="3" t="s">
+      <c r="I317" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="J317" s="3"/>
-    </row>
-    <row r="318" spans="7:9">
+      <c r="J317" s="24"/>
+    </row>
+    <row r="318" spans="7:12">
       <c r="G318" t="s">
         <v>218</v>
       </c>
@@ -4283,166 +3748,166 @@
       </c>
     </row>
     <row r="322" spans="7:10">
-      <c r="G322" s="47">
+      <c r="G322" s="18">
         <v>43274</v>
       </c>
-      <c r="H322" s="17">
+      <c r="H322" s="2">
         <v>43276</v>
       </c>
-      <c r="J322" s="17">
+      <c r="J322" s="2">
         <v>43277</v>
       </c>
     </row>
     <row r="323" spans="7:10">
-      <c r="G323" s="16" t="s">
+      <c r="G323" s="36" t="s">
         <v>220</v>
       </c>
       <c r="H323" t="s">
         <v>221</v>
       </c>
-      <c r="I323" s="10" t="s">
+      <c r="I323" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="J323" s="10"/>
+      <c r="J323" s="54"/>
     </row>
     <row r="324" spans="7:10">
-      <c r="G324" s="16"/>
+      <c r="G324" s="36"/>
       <c r="H324" t="s">
         <v>223</v>
       </c>
-      <c r="I324" s="10"/>
-      <c r="J324" s="10"/>
-    </row>
-    <row r="325" spans="7:8">
-      <c r="G325" s="16" t="s">
+      <c r="I324" s="54"/>
+      <c r="J324" s="54"/>
+    </row>
+    <row r="325" spans="7:10">
+      <c r="G325" s="36" t="s">
         <v>224</v>
       </c>
       <c r="H325" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="326" spans="7:7">
-      <c r="G326" s="16"/>
-    </row>
-    <row r="327" spans="7:8">
-      <c r="G327" s="16"/>
-      <c r="H327" s="10" t="s">
+    <row r="326" spans="7:10">
+      <c r="G326" s="36"/>
+    </row>
+    <row r="327" spans="7:10">
+      <c r="G327" s="36"/>
+      <c r="H327" s="54" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="328" spans="8:8">
-      <c r="H328" s="10"/>
-    </row>
-    <row r="329" spans="8:8">
-      <c r="H329" s="10"/>
+    <row r="328" spans="7:10">
+      <c r="H328" s="54"/>
+    </row>
+    <row r="329" spans="7:10">
+      <c r="H329" s="54"/>
     </row>
     <row r="334" spans="7:10">
-      <c r="G334" s="47">
+      <c r="G334" s="18">
         <v>43278</v>
       </c>
-      <c r="H334" s="47">
+      <c r="H334" s="18">
         <v>43279</v>
       </c>
-      <c r="J334" s="17">
+      <c r="J334" s="2">
         <v>43280</v>
       </c>
     </row>
-    <row r="335" spans="7:8">
-      <c r="G335" s="16" t="s">
+    <row r="335" spans="7:10">
+      <c r="G335" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="H335" s="16" t="s">
+      <c r="H335" s="36" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="336" spans="7:8">
-      <c r="G336" s="16"/>
-      <c r="H336" s="16"/>
-    </row>
-    <row r="337" spans="7:8">
-      <c r="G337" s="16"/>
-      <c r="H337" s="16"/>
-    </row>
-    <row r="338" spans="7:8">
-      <c r="G338" s="48"/>
-      <c r="H338" s="16" t="s">
+    <row r="336" spans="7:10">
+      <c r="G336" s="36"/>
+      <c r="H336" s="36"/>
+    </row>
+    <row r="337" spans="7:10">
+      <c r="G337" s="36"/>
+      <c r="H337" s="36"/>
+    </row>
+    <row r="338" spans="7:10">
+      <c r="G338" s="55"/>
+      <c r="H338" s="36" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="339" spans="7:8">
-      <c r="G339" s="48" t="s">
+    <row r="339" spans="7:10">
+      <c r="G339" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="H339" s="16"/>
-    </row>
-    <row r="340" spans="7:8">
-      <c r="G340" s="48"/>
-      <c r="H340" s="16"/>
-    </row>
-    <row r="341" spans="8:8">
-      <c r="H341" s="16"/>
-    </row>
-    <row r="342" spans="8:8">
-      <c r="H342" s="16"/>
+      <c r="H339" s="36"/>
+    </row>
+    <row r="340" spans="7:10">
+      <c r="G340" s="55"/>
+      <c r="H340" s="36"/>
+    </row>
+    <row r="341" spans="7:10">
+      <c r="H341" s="36"/>
+    </row>
+    <row r="342" spans="7:10">
+      <c r="H342" s="36"/>
     </row>
     <row r="345" spans="7:10">
-      <c r="G345" s="57">
+      <c r="G345" s="20">
         <v>43281</v>
       </c>
-      <c r="H345" s="17">
+      <c r="H345" s="2">
         <v>43283</v>
       </c>
-      <c r="I345" s="55">
+      <c r="I345" s="49">
         <v>43285</v>
       </c>
-      <c r="J345" s="17"/>
+      <c r="J345" s="50"/>
     </row>
     <row r="346" spans="7:10">
-      <c r="G346" s="58" t="s">
+      <c r="G346" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="H346" s="10" t="s">
+      <c r="H346" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="I346" s="10" t="s">
+      <c r="I346" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="J346" s="10"/>
+      <c r="J346" s="54"/>
     </row>
     <row r="347" spans="7:10">
-      <c r="G347" s="58"/>
-      <c r="H347" s="10"/>
-      <c r="I347" s="10"/>
-      <c r="J347" s="10"/>
-    </row>
-    <row r="348" spans="7:7">
-      <c r="G348" s="58"/>
-    </row>
-    <row r="349" spans="7:7">
-      <c r="G349" s="58"/>
-    </row>
-    <row r="350" spans="7:7">
-      <c r="G350" s="58"/>
-    </row>
-    <row r="351" spans="7:7">
-      <c r="G351" s="58"/>
-    </row>
-    <row r="352" spans="7:7">
-      <c r="G352" s="58"/>
-    </row>
-    <row r="353" spans="7:7">
-      <c r="G353" s="58" t="s">
+      <c r="G347" s="57"/>
+      <c r="H347" s="54"/>
+      <c r="I347" s="54"/>
+      <c r="J347" s="54"/>
+    </row>
+    <row r="348" spans="7:10">
+      <c r="G348" s="57"/>
+    </row>
+    <row r="349" spans="7:10">
+      <c r="G349" s="57"/>
+    </row>
+    <row r="350" spans="7:10">
+      <c r="G350" s="57"/>
+    </row>
+    <row r="351" spans="7:10">
+      <c r="G351" s="57"/>
+    </row>
+    <row r="352" spans="7:10">
+      <c r="G352" s="57"/>
+    </row>
+    <row r="353" spans="7:10">
+      <c r="G353" s="57" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="354" spans="7:7">
-      <c r="G354" s="58"/>
+    <row r="354" spans="7:10">
+      <c r="G354" s="57"/>
     </row>
     <row r="357" spans="7:10">
-      <c r="G357" s="17">
+      <c r="G357" s="2">
         <v>43286</v>
       </c>
-      <c r="J357" s="17">
+      <c r="J357" s="2">
         <v>43288</v>
       </c>
     </row>
@@ -4450,64 +3915,64 @@
       <c r="G358" t="s">
         <v>235</v>
       </c>
-      <c r="I358" s="10" t="s">
+      <c r="I358" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="J358" s="10"/>
+      <c r="J358" s="54"/>
     </row>
     <row r="359" spans="7:10">
       <c r="G359" t="s">
         <v>237</v>
       </c>
-      <c r="I359" s="10"/>
-      <c r="J359" s="10"/>
-    </row>
-    <row r="365" spans="7:8">
-      <c r="G365" s="17">
+      <c r="I359" s="54"/>
+      <c r="J359" s="54"/>
+    </row>
+    <row r="365" spans="7:10">
+      <c r="G365" s="2">
         <v>43292</v>
       </c>
-      <c r="H365" s="47">
+      <c r="H365" s="18">
         <v>43293</v>
       </c>
     </row>
-    <row r="366" spans="7:8">
-      <c r="G366" s="10" t="s">
+    <row r="366" spans="7:10">
+      <c r="G366" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="H366" s="16" t="s">
+      <c r="H366" s="36" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="367" spans="7:8">
-      <c r="G367" s="10"/>
-      <c r="H367" s="16"/>
-    </row>
-    <row r="368" spans="7:8">
-      <c r="G368" s="10" t="s">
+    <row r="367" spans="7:10">
+      <c r="G367" s="54"/>
+      <c r="H367" s="36"/>
+    </row>
+    <row r="368" spans="7:10">
+      <c r="G368" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="H368" s="16"/>
-    </row>
-    <row r="369" spans="7:8">
-      <c r="G369" s="10"/>
-      <c r="H369" s="16"/>
+      <c r="H368" s="36"/>
+    </row>
+    <row r="369" spans="7:10">
+      <c r="G369" s="54"/>
+      <c r="H369" s="36"/>
     </row>
     <row r="374" spans="7:10">
-      <c r="G374" s="17">
+      <c r="G374" s="2">
         <v>43307</v>
       </c>
-      <c r="H374" s="47">
+      <c r="H374" s="18">
         <v>43308</v>
       </c>
-      <c r="J374" s="17">
+      <c r="J374" s="2">
         <v>43311</v>
       </c>
     </row>
     <row r="375" spans="7:10">
-      <c r="G375" s="10" t="s">
+      <c r="G375" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="H375" s="16" t="s">
+      <c r="H375" s="36" t="s">
         <v>242</v>
       </c>
       <c r="J375" t="s">
@@ -4515,42 +3980,42 @@
       </c>
     </row>
     <row r="376" spans="7:10">
-      <c r="G376" s="10"/>
-      <c r="H376" s="16"/>
+      <c r="G376" s="54"/>
+      <c r="H376" s="36"/>
       <c r="J376" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="377" spans="7:8">
-      <c r="G377" s="10"/>
-      <c r="H377" s="33" t="s">
+    <row r="377" spans="7:10">
+      <c r="G377" s="54"/>
+      <c r="H377" s="12" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="378" spans="8:8">
-      <c r="H378" s="16" t="s">
+    <row r="378" spans="7:10">
+      <c r="H378" s="36" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="379" spans="8:8">
-      <c r="H379" s="16"/>
+    <row r="379" spans="7:10">
+      <c r="H379" s="36"/>
     </row>
     <row r="384" spans="7:10">
-      <c r="G384" s="47">
+      <c r="G384" s="18">
         <v>43312</v>
       </c>
-      <c r="H384" s="17">
+      <c r="H384" s="2">
         <v>43313</v>
       </c>
-      <c r="J384" s="17">
+      <c r="J384" s="2">
         <v>43314</v>
       </c>
     </row>
     <row r="385" spans="7:10">
-      <c r="G385" s="33" t="s">
+      <c r="G385" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="H385" s="10" t="s">
+      <c r="H385" s="54" t="s">
         <v>248</v>
       </c>
       <c r="J385" t="s">
@@ -4558,40 +4023,40 @@
       </c>
     </row>
     <row r="386" spans="7:10">
-      <c r="G386" s="33" t="s">
+      <c r="G386" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="H386" s="10"/>
-      <c r="J386" s="10" t="s">
+      <c r="H386" s="54"/>
+      <c r="J386" s="54" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="387" spans="7:10">
-      <c r="G387" s="33" t="s">
+      <c r="G387" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="H387" s="10"/>
-      <c r="J387" s="10"/>
-    </row>
-    <row r="388" spans="8:10">
-      <c r="H388" s="10" t="s">
+      <c r="H387" s="54"/>
+      <c r="J387" s="54"/>
+    </row>
+    <row r="388" spans="7:10">
+      <c r="H388" s="54" t="s">
         <v>253</v>
       </c>
       <c r="J388" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="389" spans="8:8">
-      <c r="H389" s="10"/>
+    <row r="389" spans="7:10">
+      <c r="H389" s="54"/>
     </row>
     <row r="393" spans="7:10">
-      <c r="G393" s="17">
+      <c r="G393" s="2">
         <v>43315</v>
       </c>
-      <c r="H393" s="17">
+      <c r="H393" s="2">
         <v>43316</v>
       </c>
-      <c r="J393" s="17">
+      <c r="J393" s="2">
         <v>43318</v>
       </c>
     </row>
@@ -4599,131 +4064,132 @@
       <c r="G394" t="s">
         <v>255</v>
       </c>
-      <c r="H394" s="10" t="s">
+      <c r="H394" s="54" t="s">
         <v>256</v>
       </c>
       <c r="J394" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="395" spans="7:8">
+    <row r="395" spans="7:10">
       <c r="G395" t="s">
         <v>258</v>
       </c>
-      <c r="H395" s="10"/>
-    </row>
-    <row r="396" spans="7:8">
-      <c r="G396" s="10" t="s">
+      <c r="H395" s="54"/>
+    </row>
+    <row r="396" spans="7:10">
+      <c r="G396" s="54" t="s">
         <v>259</v>
       </c>
       <c r="H396" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="397" spans="7:7">
-      <c r="G397" s="10"/>
+    <row r="397" spans="7:10">
+      <c r="G397" s="54"/>
     </row>
     <row r="401" spans="7:10">
-      <c r="G401" s="17">
+      <c r="G401" s="2">
         <v>43319</v>
       </c>
-      <c r="H401" s="17">
+      <c r="H401" s="2">
         <v>43320</v>
       </c>
-      <c r="J401" s="17">
+      <c r="J401" s="2">
         <v>43321</v>
       </c>
     </row>
     <row r="402" spans="7:10">
-      <c r="G402" s="10" t="s">
+      <c r="G402" s="54" t="s">
         <v>261</v>
       </c>
       <c r="H402" t="s">
         <v>262</v>
       </c>
-      <c r="I402" s="10" t="s">
+      <c r="I402" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="J402" s="10"/>
+      <c r="J402" s="54"/>
     </row>
     <row r="403" spans="7:10">
-      <c r="G403" s="10"/>
-      <c r="I403" s="10"/>
-      <c r="J403" s="10"/>
+      <c r="G403" s="54"/>
+      <c r="I403" s="54"/>
+      <c r="J403" s="54"/>
     </row>
     <row r="404" spans="7:10">
-      <c r="G404" s="10" t="s">
+      <c r="G404" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="I404" s="10" t="s">
+      <c r="I404" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="J404" s="10"/>
+      <c r="J404" s="54"/>
     </row>
     <row r="405" spans="7:10">
-      <c r="G405" s="10"/>
-      <c r="I405" s="10"/>
-      <c r="J405" s="10"/>
+      <c r="G405" s="54"/>
+      <c r="I405" s="54"/>
+      <c r="J405" s="54"/>
     </row>
     <row r="406" spans="7:10">
-      <c r="G406" s="10" t="s">
+      <c r="G406" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="I406" s="10" t="s">
+      <c r="I406" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="J406" s="10"/>
+      <c r="J406" s="54"/>
     </row>
     <row r="407" spans="7:10">
-      <c r="G407" s="10"/>
-      <c r="I407" s="10"/>
-      <c r="J407" s="10"/>
-    </row>
-    <row r="408" spans="9:10">
-      <c r="I408" s="10"/>
-      <c r="J408" s="10"/>
-    </row>
-    <row r="409" spans="9:9">
-      <c r="I409" s="31" t="s">
+      <c r="G407" s="54"/>
+      <c r="I407" s="54"/>
+      <c r="J407" s="54"/>
+    </row>
+    <row r="408" spans="7:10">
+      <c r="I408" s="54"/>
+      <c r="J408" s="54"/>
+    </row>
+    <row r="409" spans="7:10">
+      <c r="I409" s="42" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="414" spans="7:8">
-      <c r="G414" s="17">
+      <c r="J409" s="43"/>
+    </row>
+    <row r="414" spans="7:10">
+      <c r="G414" s="2">
         <v>43322</v>
       </c>
       <c r="H414" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="415" spans="7:7">
-      <c r="G415" s="10" t="s">
+    <row r="415" spans="7:10">
+      <c r="G415" s="54" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="416" spans="7:7">
-      <c r="G416" s="10"/>
-    </row>
-    <row r="417" spans="7:7">
-      <c r="G417" s="10" t="s">
+    <row r="416" spans="7:10">
+      <c r="G416" s="54"/>
+    </row>
+    <row r="417" spans="7:13">
+      <c r="G417" s="54" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="418" spans="7:7">
-      <c r="G418" s="10"/>
-    </row>
-    <row r="423" spans="7:10">
-      <c r="G423" s="17">
+    <row r="418" spans="7:13">
+      <c r="G418" s="54"/>
+    </row>
+    <row r="423" spans="7:13">
+      <c r="G423" s="2">
         <v>43325</v>
       </c>
-      <c r="H423" s="17">
+      <c r="H423" s="2">
         <v>43326</v>
       </c>
-      <c r="J423" s="17">
+      <c r="J423" s="2">
         <v>43327</v>
       </c>
     </row>
-    <row r="424" spans="7:10">
+    <row r="424" spans="7:13">
       <c r="G424" t="s">
         <v>272</v>
       </c>
@@ -4734,350 +4200,350 @@
         <v>274</v>
       </c>
     </row>
-    <row r="425" spans="8:8">
+    <row r="425" spans="7:13">
       <c r="H425" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="426" spans="8:8">
+    <row r="426" spans="7:13">
       <c r="H426" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="432" spans="7:13">
-      <c r="G432" s="17">
+      <c r="G432" s="2">
         <v>43328</v>
       </c>
-      <c r="H432" s="17">
+      <c r="H432" s="2">
         <v>43329</v>
       </c>
-      <c r="I432" s="61">
+      <c r="I432" s="51">
         <v>43330</v>
       </c>
-      <c r="J432" s="59"/>
-      <c r="K432" s="62"/>
-      <c r="L432" s="60" t="s">
+      <c r="J432" s="52"/>
+      <c r="K432" s="23"/>
+      <c r="L432" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="M432" s="60" t="s">
+      <c r="M432" s="22" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="433" spans="7:13">
-      <c r="G433" s="10" t="s">
+    <row r="433" spans="5:13">
+      <c r="G433" s="54" t="s">
         <v>279</v>
       </c>
       <c r="H433" t="s">
         <v>280</v>
       </c>
-      <c r="I433" s="16" t="s">
+      <c r="I433" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="J433" s="48"/>
-      <c r="K433" s="33" t="s">
+      <c r="J433" s="55"/>
+      <c r="K433" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="L433" s="3">
+      <c r="L433" s="1">
         <v>1790015</v>
       </c>
-      <c r="M433" s="3">
+      <c r="M433" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="434" spans="7:13">
-      <c r="G434" s="10"/>
+    <row r="434" spans="5:13">
+      <c r="G434" s="54"/>
       <c r="H434" t="s">
         <v>283</v>
       </c>
-      <c r="I434" s="16"/>
-      <c r="J434" s="48"/>
-      <c r="K434" s="33" t="s">
+      <c r="I434" s="36"/>
+      <c r="J434" s="55"/>
+      <c r="K434" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="L434" s="3">
+      <c r="L434" s="1">
         <v>1790609</v>
       </c>
-      <c r="M434" s="3">
+      <c r="M434" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="435" spans="7:13">
+    <row r="435" spans="5:13">
       <c r="G435" t="s">
         <v>285</v>
       </c>
-      <c r="H435" s="10" t="s">
+      <c r="H435" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="I435" s="16"/>
-      <c r="J435" s="16"/>
-      <c r="K435" s="30" t="s">
+      <c r="I435" s="36"/>
+      <c r="J435" s="36"/>
+      <c r="K435" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="L435" s="30"/>
-      <c r="M435" s="30"/>
-    </row>
-    <row r="436" spans="7:10">
-      <c r="G436" s="10" t="s">
+      <c r="L435" s="26"/>
+      <c r="M435" s="26"/>
+    </row>
+    <row r="436" spans="5:13">
+      <c r="G436" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="H436" s="10"/>
-      <c r="I436" s="16" t="s">
+      <c r="H436" s="54"/>
+      <c r="I436" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="J436" s="16"/>
-    </row>
-    <row r="437" spans="7:10">
-      <c r="G437" s="10"/>
+      <c r="J436" s="36"/>
+    </row>
+    <row r="437" spans="5:13">
+      <c r="G437" s="54"/>
       <c r="H437" t="s">
         <v>290</v>
       </c>
-      <c r="I437" s="16"/>
-      <c r="J437" s="16"/>
-    </row>
-    <row r="438" spans="9:10">
-      <c r="I438" s="16"/>
-      <c r="J438" s="16"/>
-    </row>
-    <row r="439" spans="9:10">
-      <c r="I439" s="16"/>
-      <c r="J439" s="16"/>
-    </row>
-    <row r="440" spans="9:10">
-      <c r="I440" s="16"/>
-      <c r="J440" s="16"/>
-    </row>
-    <row r="441" spans="9:10">
-      <c r="I441" s="16"/>
-      <c r="J441" s="16"/>
-    </row>
-    <row r="446" spans="5:10">
-      <c r="E446" s="59">
+      <c r="I437" s="36"/>
+      <c r="J437" s="36"/>
+    </row>
+    <row r="438" spans="5:13">
+      <c r="I438" s="36"/>
+      <c r="J438" s="36"/>
+    </row>
+    <row r="439" spans="5:13">
+      <c r="I439" s="36"/>
+      <c r="J439" s="36"/>
+    </row>
+    <row r="440" spans="5:13">
+      <c r="I440" s="36"/>
+      <c r="J440" s="36"/>
+    </row>
+    <row r="441" spans="5:13">
+      <c r="I441" s="36"/>
+      <c r="J441" s="36"/>
+    </row>
+    <row r="446" spans="5:13">
+      <c r="E446" s="21">
         <v>43332</v>
       </c>
-      <c r="F446" s="60" t="s">
+      <c r="F446" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="G446" s="60" t="s">
+      <c r="G446" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="H446" s="17">
+      <c r="H446" s="2">
         <v>43333</v>
       </c>
-      <c r="J446" s="17">
+      <c r="J446" s="2">
         <v>43334</v>
       </c>
     </row>
-    <row r="447" spans="5:10">
-      <c r="E447" s="33" t="s">
+    <row r="447" spans="5:13">
+      <c r="E447" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="F447" s="3">
+      <c r="F447" s="1">
         <v>2287467</v>
       </c>
-      <c r="G447" s="3">
+      <c r="G447" s="1">
         <v>122</v>
       </c>
       <c r="H447" t="s">
         <v>291</v>
       </c>
-      <c r="I447" s="10" t="s">
+      <c r="I447" s="54" t="s">
         <v>292</v>
       </c>
-      <c r="J447" s="10"/>
-    </row>
-    <row r="448" spans="5:10">
-      <c r="E448" s="33" t="s">
+      <c r="J447" s="54"/>
+    </row>
+    <row r="448" spans="5:13">
+      <c r="E448" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="F448" s="3">
+      <c r="F448" s="1">
         <v>2287003</v>
       </c>
-      <c r="G448" s="3">
+      <c r="G448" s="1">
         <v>56</v>
       </c>
-      <c r="I448" s="10"/>
-      <c r="J448" s="10"/>
+      <c r="I448" s="54"/>
+      <c r="J448" s="54"/>
     </row>
     <row r="449" spans="5:10">
-      <c r="E449" s="30" t="s">
+      <c r="E449" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="F449" s="30"/>
-      <c r="G449" s="30"/>
-      <c r="I449" s="10"/>
-      <c r="J449" s="10"/>
-    </row>
-    <row r="451" spans="5:5">
+      <c r="F449" s="26"/>
+      <c r="G449" s="26"/>
+      <c r="I449" s="54"/>
+      <c r="J449" s="54"/>
+    </row>
+    <row r="451" spans="5:10">
       <c r="E451" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="458" spans="6:10">
-      <c r="F458" s="18">
+    <row r="458" spans="5:10">
+      <c r="F458" s="44">
         <v>43335</v>
       </c>
-      <c r="G458" s="46"/>
-      <c r="H458" s="47">
+      <c r="G458" s="53"/>
+      <c r="H458" s="18">
         <v>43336</v>
       </c>
-      <c r="J458" s="17">
+      <c r="J458" s="2">
         <v>43337</v>
       </c>
     </row>
-    <row r="459" spans="6:10">
-      <c r="F459" s="3" t="s">
+    <row r="459" spans="5:10">
+      <c r="F459" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="G459" s="32"/>
-      <c r="H459" s="33" t="s">
+      <c r="G459" s="30"/>
+      <c r="H459" s="12" t="s">
         <v>295</v>
       </c>
       <c r="J459" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="460" spans="6:10">
-      <c r="F460" s="16" t="s">
+    <row r="460" spans="5:10">
+      <c r="F460" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="G460" s="48"/>
-      <c r="H460" s="16" t="s">
+      <c r="G460" s="55"/>
+      <c r="H460" s="36" t="s">
         <v>298</v>
       </c>
       <c r="J460" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="461" spans="6:10">
-      <c r="F461" s="16"/>
-      <c r="G461" s="48"/>
-      <c r="H461" s="16"/>
+    <row r="461" spans="5:10">
+      <c r="F461" s="36"/>
+      <c r="G461" s="55"/>
+      <c r="H461" s="36"/>
       <c r="J461" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="462" spans="6:10">
-      <c r="F462" s="16" t="s">
+    <row r="462" spans="5:10">
+      <c r="F462" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="G462" s="48"/>
-      <c r="H462" s="16"/>
+      <c r="G462" s="55"/>
+      <c r="H462" s="36"/>
       <c r="J462" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="463" spans="6:10">
-      <c r="F463" s="16"/>
-      <c r="G463" s="48"/>
-      <c r="H463" s="16" t="s">
+    <row r="463" spans="5:10">
+      <c r="F463" s="36"/>
+      <c r="G463" s="55"/>
+      <c r="H463" s="36" t="s">
         <v>303</v>
       </c>
       <c r="J463" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="464" spans="8:8">
-      <c r="H464" s="16"/>
-    </row>
-    <row r="465" spans="8:8">
-      <c r="H465" s="33" t="s">
+    <row r="464" spans="5:10">
+      <c r="H464" s="36"/>
+    </row>
+    <row r="465" spans="6:10">
+      <c r="H465" s="12" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="470" spans="6:10">
-      <c r="F470" s="18">
+      <c r="F470" s="44">
         <v>43339</v>
       </c>
-      <c r="G470" s="47"/>
-      <c r="H470" s="47">
+      <c r="G470" s="45"/>
+      <c r="H470" s="18">
         <v>43340</v>
       </c>
-      <c r="J470" s="17">
+      <c r="J470" s="2">
         <v>43341</v>
       </c>
     </row>
     <row r="471" spans="6:10">
-      <c r="F471" s="3" t="s">
+      <c r="F471" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="G471" s="33"/>
-      <c r="H471" s="16" t="s">
+      <c r="G471" s="31"/>
+      <c r="H471" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="I471" s="10" t="s">
+      <c r="I471" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="J471" s="10"/>
+      <c r="J471" s="54"/>
     </row>
     <row r="472" spans="6:10">
-      <c r="F472" s="3" t="s">
+      <c r="F472" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="G472" s="33"/>
-      <c r="H472" s="16"/>
-      <c r="I472" s="10"/>
-      <c r="J472" s="10"/>
+      <c r="G472" s="31"/>
+      <c r="H472" s="36"/>
+      <c r="I472" s="54"/>
+      <c r="J472" s="54"/>
     </row>
     <row r="473" spans="6:10">
-      <c r="F473" s="16" t="s">
+      <c r="F473" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="G473" s="16"/>
-      <c r="H473" s="16"/>
-      <c r="I473" s="10"/>
-      <c r="J473" s="10"/>
+      <c r="G473" s="36"/>
+      <c r="H473" s="36"/>
+      <c r="I473" s="54"/>
+      <c r="J473" s="54"/>
     </row>
     <row r="474" spans="6:10">
-      <c r="F474" s="16"/>
-      <c r="G474" s="16"/>
-      <c r="H474" s="16"/>
-      <c r="I474" s="10"/>
-      <c r="J474" s="10"/>
+      <c r="F474" s="36"/>
+      <c r="G474" s="36"/>
+      <c r="H474" s="36"/>
+      <c r="I474" s="54"/>
+      <c r="J474" s="54"/>
     </row>
     <row r="475" spans="6:10">
-      <c r="F475" s="16" t="s">
+      <c r="F475" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="G475" s="16"/>
-      <c r="H475" s="16" t="s">
+      <c r="G475" s="36"/>
+      <c r="H475" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="I475" s="10"/>
-      <c r="J475" s="10"/>
+      <c r="I475" s="54"/>
+      <c r="J475" s="54"/>
     </row>
     <row r="476" spans="6:10">
-      <c r="F476" s="16"/>
-      <c r="G476" s="16"/>
-      <c r="H476" s="42"/>
-      <c r="I476" s="10"/>
-      <c r="J476" s="10"/>
-    </row>
-    <row r="477" spans="6:8">
-      <c r="F477" s="3" t="s">
+      <c r="F476" s="36"/>
+      <c r="G476" s="36"/>
+      <c r="H476" s="41"/>
+      <c r="I476" s="54"/>
+      <c r="J476" s="54"/>
+    </row>
+    <row r="477" spans="6:10">
+      <c r="F477" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="G477" s="33"/>
-      <c r="H477" s="33" t="s">
+      <c r="G477" s="31"/>
+      <c r="H477" s="12" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="478" ht="27" spans="6:8">
-      <c r="F478" s="3" t="s">
+    <row r="478" spans="6:10" ht="27">
+      <c r="F478" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="G478" s="33"/>
-      <c r="H478" s="42" t="s">
+      <c r="G478" s="31"/>
+      <c r="H478" s="16" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="482" spans="7:10">
-      <c r="G482" s="17">
+      <c r="G482" s="2">
         <v>43342</v>
       </c>
-      <c r="H482" s="17">
+      <c r="H482" s="2">
         <v>43343</v>
       </c>
-      <c r="J482" s="17">
+      <c r="J482" s="2">
         <v>43344</v>
       </c>
     </row>
@@ -5088,10 +4554,10 @@
       <c r="H483" t="s">
         <v>318</v>
       </c>
-      <c r="I483" s="10" t="s">
+      <c r="I483" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="J483" s="10"/>
+      <c r="J483" s="54"/>
     </row>
     <row r="484" spans="7:10">
       <c r="G484" t="s">
@@ -5100,93 +4566,94 @@
       <c r="H484" t="s">
         <v>321</v>
       </c>
-      <c r="I484" s="10"/>
-      <c r="J484" s="10"/>
+      <c r="I484" s="54"/>
+      <c r="J484" s="54"/>
     </row>
     <row r="485" spans="7:10">
       <c r="G485" t="s">
         <v>322</v>
       </c>
-      <c r="H485" s="10" t="s">
+      <c r="H485" s="54" t="s">
         <v>323</v>
       </c>
-      <c r="I485" s="10" t="s">
+      <c r="I485" s="54" t="s">
         <v>324</v>
       </c>
-      <c r="J485" s="10"/>
+      <c r="J485" s="54"/>
     </row>
     <row r="486" spans="7:10">
-      <c r="G486" s="10" t="s">
+      <c r="G486" s="54" t="s">
         <v>325</v>
       </c>
-      <c r="H486" s="10"/>
-      <c r="I486" s="10"/>
-      <c r="J486" s="10"/>
+      <c r="H486" s="54"/>
+      <c r="I486" s="54"/>
+      <c r="J486" s="54"/>
     </row>
     <row r="487" spans="7:10">
-      <c r="G487" s="10"/>
+      <c r="G487" s="54"/>
       <c r="H487" t="s">
         <v>326</v>
       </c>
-      <c r="I487" s="31" t="s">
+      <c r="I487" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="J487" s="31"/>
+      <c r="J487" s="42"/>
     </row>
     <row r="488" spans="7:10">
-      <c r="G488" s="10"/>
-      <c r="H488" s="10" t="s">
+      <c r="G488" s="54"/>
+      <c r="H488" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="I488" s="10" t="s">
+      <c r="I488" s="54" t="s">
         <v>329</v>
       </c>
-      <c r="J488" s="10"/>
+      <c r="J488" s="54"/>
     </row>
     <row r="489" spans="7:10">
-      <c r="G489" s="10" t="s">
+      <c r="G489" s="54" t="s">
         <v>330</v>
       </c>
-      <c r="H489" s="10"/>
-      <c r="I489" s="10"/>
-      <c r="J489" s="10"/>
-    </row>
-    <row r="490" spans="7:9">
-      <c r="G490" s="10"/>
-      <c r="H490" s="10" t="s">
+      <c r="H489" s="54"/>
+      <c r="I489" s="54"/>
+      <c r="J489" s="54"/>
+    </row>
+    <row r="490" spans="7:10">
+      <c r="G490" s="54"/>
+      <c r="H490" s="54" t="s">
         <v>331</v>
       </c>
-      <c r="I490" s="31" t="s">
+      <c r="I490" s="42" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="491" spans="8:8">
-      <c r="H491" s="10"/>
-    </row>
-    <row r="492" spans="8:8">
-      <c r="H492" s="10" t="s">
+      <c r="J490" s="43"/>
+    </row>
+    <row r="491" spans="7:10">
+      <c r="H491" s="54"/>
+    </row>
+    <row r="492" spans="7:10">
+      <c r="H492" s="54" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="493" spans="8:8">
-      <c r="H493" s="10"/>
-    </row>
-    <row r="494" spans="8:8">
-      <c r="H494" s="10" t="s">
+    <row r="493" spans="7:10">
+      <c r="H493" s="54"/>
+    </row>
+    <row r="494" spans="7:10">
+      <c r="H494" s="54" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="495" spans="8:8">
-      <c r="H495" s="10"/>
+    <row r="495" spans="7:10">
+      <c r="H495" s="54"/>
     </row>
     <row r="500" spans="7:10">
-      <c r="G500" s="17">
+      <c r="G500" s="2">
         <v>43346</v>
       </c>
-      <c r="H500" s="17">
+      <c r="H500" s="2">
         <v>43347</v>
       </c>
-      <c r="J500" s="17">
+      <c r="J500" s="2">
         <v>43348</v>
       </c>
     </row>
@@ -5197,112 +4664,112 @@
       <c r="H501" t="s">
         <v>336</v>
       </c>
-      <c r="I501" s="10" t="s">
+      <c r="I501" s="54" t="s">
         <v>337</v>
       </c>
-      <c r="J501" s="10"/>
-    </row>
-    <row r="502" spans="8:10">
+      <c r="J501" s="54"/>
+    </row>
+    <row r="502" spans="7:10">
       <c r="H502" t="s">
         <v>338</v>
       </c>
-      <c r="I502" s="10"/>
-      <c r="J502" s="10"/>
-    </row>
-    <row r="503" spans="8:10">
+      <c r="I502" s="54"/>
+      <c r="J502" s="54"/>
+    </row>
+    <row r="503" spans="7:10">
       <c r="H503" t="s">
         <v>339</v>
       </c>
-      <c r="I503" s="10" t="s">
+      <c r="I503" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="J503" s="10"/>
-    </row>
-    <row r="504" spans="8:10">
-      <c r="H504" s="10" t="s">
+      <c r="J503" s="54"/>
+    </row>
+    <row r="504" spans="7:10">
+      <c r="H504" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="I504" s="10"/>
-      <c r="J504" s="10"/>
-    </row>
-    <row r="505" spans="8:10">
-      <c r="H505" s="10"/>
-      <c r="I505" s="10"/>
-      <c r="J505" s="10"/>
+      <c r="I504" s="54"/>
+      <c r="J504" s="54"/>
+    </row>
+    <row r="505" spans="7:10">
+      <c r="H505" s="54"/>
+      <c r="I505" s="54"/>
+      <c r="J505" s="54"/>
     </row>
     <row r="512" spans="7:10">
-      <c r="G512" s="17">
+      <c r="G512" s="2">
         <v>43349</v>
       </c>
-      <c r="H512" s="17">
+      <c r="H512" s="2">
         <v>43350</v>
       </c>
-      <c r="J512" s="17">
+      <c r="J512" s="2">
         <v>43351</v>
       </c>
     </row>
     <row r="513" spans="7:10">
-      <c r="G513" s="10" t="s">
+      <c r="G513" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="H513" s="10" t="s">
+      <c r="H513" s="54" t="s">
         <v>343</v>
       </c>
-      <c r="I513" s="16" t="s">
+      <c r="I513" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="J513" s="16"/>
+      <c r="J513" s="36"/>
     </row>
     <row r="514" spans="7:10">
-      <c r="G514" s="10"/>
-      <c r="H514" s="10"/>
-      <c r="I514" s="16"/>
-      <c r="J514" s="16"/>
+      <c r="G514" s="54"/>
+      <c r="H514" s="54"/>
+      <c r="I514" s="36"/>
+      <c r="J514" s="36"/>
     </row>
     <row r="515" spans="7:10">
       <c r="G515" t="s">
         <v>345</v>
       </c>
-      <c r="H515" s="31" t="s">
+      <c r="H515" s="42" t="s">
         <v>346</v>
       </c>
-      <c r="I515" s="16"/>
-      <c r="J515" s="16"/>
+      <c r="I515" s="36"/>
+      <c r="J515" s="36"/>
     </row>
     <row r="516" spans="7:10">
       <c r="G516" t="s">
         <v>347</v>
       </c>
-      <c r="H516" s="31"/>
-      <c r="I516" s="16"/>
-      <c r="J516" s="16"/>
+      <c r="H516" s="42"/>
+      <c r="I516" s="36"/>
+      <c r="J516" s="36"/>
     </row>
     <row r="517" spans="7:10">
-      <c r="G517" s="10" t="s">
+      <c r="G517" s="54" t="s">
         <v>348</v>
       </c>
-      <c r="I517" s="16"/>
-      <c r="J517" s="16"/>
-    </row>
-    <row r="518" spans="7:7">
-      <c r="G518" s="10"/>
-    </row>
-    <row r="519" spans="7:7">
-      <c r="G519" s="10" t="s">
+      <c r="I517" s="36"/>
+      <c r="J517" s="36"/>
+    </row>
+    <row r="518" spans="7:10">
+      <c r="G518" s="54"/>
+    </row>
+    <row r="519" spans="7:10">
+      <c r="G519" s="54" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="520" spans="7:7">
-      <c r="G520" s="10"/>
+    <row r="520" spans="7:10">
+      <c r="G520" s="54"/>
     </row>
     <row r="527" spans="7:10">
-      <c r="G527" s="17">
+      <c r="G527" s="2">
         <v>43353</v>
       </c>
-      <c r="H527" s="17">
+      <c r="H527" s="2">
         <v>43354</v>
       </c>
-      <c r="J527" s="17">
+      <c r="J527" s="2">
         <v>43355</v>
       </c>
     </row>
@@ -5310,45 +4777,45 @@
       <c r="G528" t="s">
         <v>350</v>
       </c>
-      <c r="H528" s="10" t="s">
+      <c r="H528" s="54" t="s">
         <v>351</v>
       </c>
       <c r="J528" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="529" spans="8:10">
-      <c r="H529" s="10"/>
+    <row r="529" spans="7:10">
+      <c r="H529" s="54"/>
       <c r="J529" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="530" spans="8:8">
-      <c r="H530" s="10"/>
-    </row>
-    <row r="531" spans="8:8">
+    <row r="530" spans="7:10">
+      <c r="H530" s="54"/>
+    </row>
+    <row r="531" spans="7:10">
       <c r="H531" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="532" spans="8:8">
+    <row r="532" spans="7:10">
       <c r="H532" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="536" spans="7:10">
-      <c r="G536" s="17">
+      <c r="G536" s="2">
         <v>43356</v>
       </c>
-      <c r="H536" s="17">
+      <c r="H536" s="2">
         <v>43357</v>
       </c>
-      <c r="J536" s="17">
+      <c r="J536" s="2">
         <v>43358</v>
       </c>
     </row>
     <row r="537" spans="7:10">
-      <c r="G537" s="10" t="s">
+      <c r="G537" s="54" t="s">
         <v>356</v>
       </c>
       <c r="H537" t="s">
@@ -5358,80 +4825,80 @@
         <v>358</v>
       </c>
     </row>
-    <row r="538" spans="7:7">
-      <c r="G538" s="10"/>
-    </row>
-    <row r="546" spans="7:10">
-      <c r="G546" s="17">
+    <row r="538" spans="7:10">
+      <c r="G538" s="54"/>
+    </row>
+    <row r="546" spans="7:12">
+      <c r="G546" s="2">
         <v>43361</v>
       </c>
-      <c r="H546" s="17">
+      <c r="H546" s="2">
         <v>43362</v>
       </c>
-      <c r="J546" s="17">
+      <c r="J546" s="2">
         <v>43363</v>
       </c>
     </row>
     <row r="547" spans="7:12">
-      <c r="G547" s="10" t="s">
+      <c r="G547" s="54" t="s">
         <v>359</v>
       </c>
-      <c r="H547" s="10" t="s">
+      <c r="H547" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="I547" s="31" t="s">
+      <c r="I547" s="42" t="s">
         <v>361</v>
       </c>
-      <c r="J547" s="31"/>
-      <c r="K547" s="31"/>
-      <c r="L547" s="31"/>
-    </row>
-    <row r="548" spans="7:8">
-      <c r="G548" s="10"/>
-      <c r="H548" s="10"/>
-    </row>
-    <row r="549" spans="8:8">
+      <c r="J547" s="42"/>
+      <c r="K547" s="42"/>
+      <c r="L547" s="42"/>
+    </row>
+    <row r="548" spans="7:12">
+      <c r="G548" s="54"/>
+      <c r="H548" s="54"/>
+    </row>
+    <row r="549" spans="7:12">
       <c r="H549" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="550" spans="8:8">
+    <row r="550" spans="7:12">
       <c r="H550" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="553" spans="7:7">
-      <c r="G553" s="17">
+    <row r="553" spans="7:12">
+      <c r="G553" s="2">
         <v>43364</v>
       </c>
     </row>
-    <row r="554" spans="7:7">
-      <c r="G554" s="10" t="s">
+    <row r="554" spans="7:12">
+      <c r="G554" s="54" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="555" spans="7:7">
-      <c r="G555" s="10"/>
-    </row>
-    <row r="556" spans="7:7">
-      <c r="G556" s="10"/>
+    <row r="555" spans="7:12">
+      <c r="G555" s="54"/>
+    </row>
+    <row r="556" spans="7:12">
+      <c r="G556" s="54"/>
     </row>
     <row r="563" spans="7:10">
-      <c r="G563" s="17">
+      <c r="G563" s="2">
         <v>43368</v>
       </c>
-      <c r="H563" s="47">
+      <c r="H563" s="18">
         <v>43369</v>
       </c>
-      <c r="J563" s="17">
+      <c r="J563" s="2">
         <v>43370</v>
       </c>
     </row>
     <row r="564" spans="7:10">
-      <c r="G564" s="10" t="s">
+      <c r="G564" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="H564" s="16" t="s">
+      <c r="H564" s="36" t="s">
         <v>366</v>
       </c>
       <c r="J564" t="s">
@@ -5439,34 +4906,34 @@
       </c>
     </row>
     <row r="565" spans="7:10">
-      <c r="G565" s="10"/>
-      <c r="H565" s="16"/>
+      <c r="G565" s="54"/>
+      <c r="H565" s="36"/>
       <c r="J565" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="566" spans="8:8">
-      <c r="H566" s="33" t="s">
+    <row r="566" spans="7:10">
+      <c r="H566" s="12" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="567" spans="8:8">
-      <c r="H567" s="16" t="s">
+    <row r="567" spans="7:10">
+      <c r="H567" s="36" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="568" spans="8:8">
-      <c r="H568" s="16"/>
-    </row>
-    <row r="574" spans="7:8">
-      <c r="G574" s="17">
+    <row r="568" spans="7:10">
+      <c r="H568" s="36"/>
+    </row>
+    <row r="574" spans="7:10">
+      <c r="G574" s="2">
         <v>43371</v>
       </c>
-      <c r="H574" s="17">
+      <c r="H574" s="2">
         <v>43372</v>
       </c>
     </row>
-    <row r="575" spans="7:8">
+    <row r="575" spans="7:10">
       <c r="G575" t="s">
         <v>371</v>
       </c>
@@ -5474,8 +4941,8 @@
         <v>372</v>
       </c>
     </row>
-    <row r="576" spans="7:8">
-      <c r="G576" s="10" t="s">
+    <row r="576" spans="7:10">
+      <c r="G576" s="54" t="s">
         <v>373</v>
       </c>
       <c r="H576" t="s">
@@ -5483,103 +4950,118 @@
       </c>
     </row>
     <row r="577" spans="7:7">
-      <c r="G577" s="10"/>
+      <c r="G577" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="244">
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="I59:K59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="I68:K68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="I69:K69"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="I79:K79"/>
-    <mergeCell ref="I80:K80"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="I166:J166"/>
-    <mergeCell ref="I170:J170"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="I182:J182"/>
-    <mergeCell ref="I220:J220"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="I223:J223"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="I229:J229"/>
-    <mergeCell ref="I232:J232"/>
-    <mergeCell ref="I239:J239"/>
-    <mergeCell ref="I240:J240"/>
-    <mergeCell ref="I264:J264"/>
-    <mergeCell ref="I287:J287"/>
-    <mergeCell ref="I290:J290"/>
-    <mergeCell ref="I313:J313"/>
-    <mergeCell ref="I317:J317"/>
-    <mergeCell ref="I345:J345"/>
-    <mergeCell ref="I409:J409"/>
-    <mergeCell ref="I432:J432"/>
-    <mergeCell ref="K435:M435"/>
-    <mergeCell ref="E449:G449"/>
-    <mergeCell ref="F458:G458"/>
-    <mergeCell ref="F459:G459"/>
-    <mergeCell ref="F470:G470"/>
-    <mergeCell ref="F471:G471"/>
-    <mergeCell ref="F472:G472"/>
-    <mergeCell ref="F477:G477"/>
-    <mergeCell ref="F478:G478"/>
+    <mergeCell ref="I483:J484"/>
+    <mergeCell ref="I485:J486"/>
+    <mergeCell ref="I488:J489"/>
+    <mergeCell ref="I501:J502"/>
+    <mergeCell ref="I503:J505"/>
+    <mergeCell ref="I513:J517"/>
+    <mergeCell ref="C87:E88"/>
+    <mergeCell ref="H98:I99"/>
+    <mergeCell ref="H100:I102"/>
+    <mergeCell ref="H103:I104"/>
+    <mergeCell ref="C150:F152"/>
+    <mergeCell ref="I167:J169"/>
+    <mergeCell ref="B178:E184"/>
+    <mergeCell ref="I183:J184"/>
+    <mergeCell ref="I185:J188"/>
+    <mergeCell ref="H567:H568"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="J153:J159"/>
+    <mergeCell ref="J160:J162"/>
+    <mergeCell ref="J386:J387"/>
+    <mergeCell ref="L298:L304"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="I9:L10"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="F33:G35"/>
+    <mergeCell ref="I43:K44"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="I60:K63"/>
+    <mergeCell ref="F70:G71"/>
+    <mergeCell ref="F72:G73"/>
+    <mergeCell ref="F74:G75"/>
+    <mergeCell ref="I70:K71"/>
+    <mergeCell ref="I72:K75"/>
+    <mergeCell ref="F87:G88"/>
+    <mergeCell ref="I203:J204"/>
+    <mergeCell ref="G222:H223"/>
+    <mergeCell ref="I221:J222"/>
+    <mergeCell ref="I230:J231"/>
+    <mergeCell ref="I241:J242"/>
+    <mergeCell ref="H490:H491"/>
+    <mergeCell ref="H492:H493"/>
+    <mergeCell ref="H494:H495"/>
+    <mergeCell ref="H504:H505"/>
+    <mergeCell ref="H513:H514"/>
+    <mergeCell ref="H515:H516"/>
+    <mergeCell ref="H528:H530"/>
+    <mergeCell ref="H547:H548"/>
+    <mergeCell ref="H564:H565"/>
+    <mergeCell ref="H388:H389"/>
+    <mergeCell ref="H394:H395"/>
+    <mergeCell ref="H435:H436"/>
+    <mergeCell ref="H460:H462"/>
+    <mergeCell ref="H463:H464"/>
+    <mergeCell ref="H471:H474"/>
+    <mergeCell ref="H475:H476"/>
+    <mergeCell ref="H485:H486"/>
+    <mergeCell ref="H488:H489"/>
+    <mergeCell ref="G576:G577"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="H169:H170"/>
+    <mergeCell ref="H183:H186"/>
+    <mergeCell ref="H192:H198"/>
+    <mergeCell ref="H210:H211"/>
+    <mergeCell ref="H265:H266"/>
+    <mergeCell ref="H288:H289"/>
+    <mergeCell ref="H314:H315"/>
+    <mergeCell ref="H327:H329"/>
+    <mergeCell ref="H335:H337"/>
+    <mergeCell ref="H338:H342"/>
+    <mergeCell ref="H346:H347"/>
+    <mergeCell ref="H366:H369"/>
+    <mergeCell ref="H375:H376"/>
+    <mergeCell ref="H378:H379"/>
+    <mergeCell ref="H385:H387"/>
+    <mergeCell ref="G486:G488"/>
+    <mergeCell ref="G489:G490"/>
+    <mergeCell ref="G513:G514"/>
+    <mergeCell ref="G517:G518"/>
+    <mergeCell ref="G519:G520"/>
+    <mergeCell ref="G537:G538"/>
+    <mergeCell ref="G547:G548"/>
+    <mergeCell ref="G554:G556"/>
+    <mergeCell ref="G564:G565"/>
+    <mergeCell ref="G368:G369"/>
+    <mergeCell ref="G375:G377"/>
+    <mergeCell ref="G396:G397"/>
+    <mergeCell ref="G402:G403"/>
+    <mergeCell ref="G404:G405"/>
+    <mergeCell ref="G406:G407"/>
+    <mergeCell ref="G415:G416"/>
+    <mergeCell ref="G417:G418"/>
+    <mergeCell ref="G433:G434"/>
+    <mergeCell ref="G298:G301"/>
+    <mergeCell ref="G314:G315"/>
+    <mergeCell ref="G323:G324"/>
+    <mergeCell ref="G325:G327"/>
+    <mergeCell ref="G335:G338"/>
+    <mergeCell ref="G339:G340"/>
+    <mergeCell ref="G346:G352"/>
+    <mergeCell ref="G353:G354"/>
+    <mergeCell ref="G366:G367"/>
     <mergeCell ref="I487:J487"/>
     <mergeCell ref="I490:J490"/>
     <mergeCell ref="I547:L547"/>
@@ -5604,109 +5086,33 @@
     <mergeCell ref="G278:G280"/>
     <mergeCell ref="G288:G289"/>
     <mergeCell ref="G290:G291"/>
-    <mergeCell ref="G298:G301"/>
-    <mergeCell ref="G314:G315"/>
-    <mergeCell ref="G323:G324"/>
-    <mergeCell ref="G325:G327"/>
-    <mergeCell ref="G335:G338"/>
-    <mergeCell ref="G339:G340"/>
-    <mergeCell ref="G346:G352"/>
-    <mergeCell ref="G353:G354"/>
-    <mergeCell ref="G366:G367"/>
-    <mergeCell ref="G368:G369"/>
-    <mergeCell ref="G375:G377"/>
-    <mergeCell ref="G396:G397"/>
-    <mergeCell ref="G402:G403"/>
-    <mergeCell ref="G404:G405"/>
-    <mergeCell ref="G406:G407"/>
-    <mergeCell ref="G415:G416"/>
-    <mergeCell ref="G417:G418"/>
-    <mergeCell ref="G433:G434"/>
+    <mergeCell ref="K435:M435"/>
+    <mergeCell ref="E449:G449"/>
+    <mergeCell ref="F458:G458"/>
+    <mergeCell ref="F459:G459"/>
+    <mergeCell ref="F470:G470"/>
+    <mergeCell ref="F471:G471"/>
+    <mergeCell ref="F472:G472"/>
+    <mergeCell ref="F477:G477"/>
+    <mergeCell ref="F478:G478"/>
     <mergeCell ref="G436:G437"/>
-    <mergeCell ref="G486:G488"/>
-    <mergeCell ref="G489:G490"/>
-    <mergeCell ref="G513:G514"/>
-    <mergeCell ref="G517:G518"/>
-    <mergeCell ref="G519:G520"/>
-    <mergeCell ref="G537:G538"/>
-    <mergeCell ref="G547:G548"/>
-    <mergeCell ref="G554:G556"/>
-    <mergeCell ref="G564:G565"/>
-    <mergeCell ref="G576:G577"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="H169:H170"/>
-    <mergeCell ref="H183:H186"/>
-    <mergeCell ref="H192:H198"/>
-    <mergeCell ref="H210:H211"/>
-    <mergeCell ref="H265:H266"/>
-    <mergeCell ref="H288:H289"/>
-    <mergeCell ref="H314:H315"/>
-    <mergeCell ref="H327:H329"/>
-    <mergeCell ref="H335:H337"/>
-    <mergeCell ref="H338:H342"/>
-    <mergeCell ref="H346:H347"/>
-    <mergeCell ref="H366:H369"/>
-    <mergeCell ref="H375:H376"/>
-    <mergeCell ref="H378:H379"/>
-    <mergeCell ref="H385:H387"/>
-    <mergeCell ref="H388:H389"/>
-    <mergeCell ref="H394:H395"/>
-    <mergeCell ref="H435:H436"/>
-    <mergeCell ref="H460:H462"/>
-    <mergeCell ref="H463:H464"/>
-    <mergeCell ref="H471:H474"/>
-    <mergeCell ref="H475:H476"/>
-    <mergeCell ref="H485:H486"/>
-    <mergeCell ref="H488:H489"/>
-    <mergeCell ref="H490:H491"/>
-    <mergeCell ref="H492:H493"/>
-    <mergeCell ref="H494:H495"/>
-    <mergeCell ref="H504:H505"/>
-    <mergeCell ref="H513:H514"/>
-    <mergeCell ref="H515:H516"/>
-    <mergeCell ref="H528:H530"/>
-    <mergeCell ref="H547:H548"/>
-    <mergeCell ref="H564:H565"/>
-    <mergeCell ref="H567:H568"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="J153:J159"/>
-    <mergeCell ref="J160:J162"/>
-    <mergeCell ref="J386:J387"/>
-    <mergeCell ref="L298:L304"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="I9:L10"/>
-    <mergeCell ref="F31:G32"/>
-    <mergeCell ref="F33:G35"/>
-    <mergeCell ref="I43:K44"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="I60:K63"/>
-    <mergeCell ref="F70:G71"/>
-    <mergeCell ref="F72:G73"/>
-    <mergeCell ref="F74:G75"/>
-    <mergeCell ref="I70:K71"/>
-    <mergeCell ref="I72:K75"/>
-    <mergeCell ref="F87:G88"/>
-    <mergeCell ref="C87:E88"/>
-    <mergeCell ref="H98:I99"/>
-    <mergeCell ref="H100:I102"/>
-    <mergeCell ref="H103:I104"/>
-    <mergeCell ref="C150:F152"/>
-    <mergeCell ref="I167:J169"/>
-    <mergeCell ref="B178:E184"/>
-    <mergeCell ref="I183:J184"/>
-    <mergeCell ref="I185:J188"/>
-    <mergeCell ref="I203:J204"/>
-    <mergeCell ref="G222:H223"/>
-    <mergeCell ref="I221:J222"/>
-    <mergeCell ref="I230:J231"/>
-    <mergeCell ref="I241:J242"/>
+    <mergeCell ref="I433:J435"/>
+    <mergeCell ref="I436:J441"/>
+    <mergeCell ref="I447:J449"/>
+    <mergeCell ref="F460:G461"/>
+    <mergeCell ref="F462:G463"/>
+    <mergeCell ref="F473:G474"/>
+    <mergeCell ref="F475:G476"/>
+    <mergeCell ref="I471:J476"/>
+    <mergeCell ref="I240:J240"/>
+    <mergeCell ref="I264:J264"/>
+    <mergeCell ref="I287:J287"/>
+    <mergeCell ref="I290:J290"/>
+    <mergeCell ref="I313:J313"/>
+    <mergeCell ref="I317:J317"/>
+    <mergeCell ref="I345:J345"/>
+    <mergeCell ref="I409:J409"/>
+    <mergeCell ref="I432:J432"/>
     <mergeCell ref="I243:J250"/>
     <mergeCell ref="I265:J269"/>
     <mergeCell ref="I288:J289"/>
@@ -5717,301 +5123,411 @@
     <mergeCell ref="I402:J403"/>
     <mergeCell ref="I404:J405"/>
     <mergeCell ref="I406:J408"/>
-    <mergeCell ref="I433:J435"/>
-    <mergeCell ref="I436:J441"/>
-    <mergeCell ref="I447:J449"/>
-    <mergeCell ref="F460:G461"/>
-    <mergeCell ref="F462:G463"/>
-    <mergeCell ref="F473:G474"/>
-    <mergeCell ref="F475:G476"/>
-    <mergeCell ref="I471:J476"/>
-    <mergeCell ref="I483:J484"/>
-    <mergeCell ref="I485:J486"/>
-    <mergeCell ref="I488:J489"/>
-    <mergeCell ref="I501:J502"/>
-    <mergeCell ref="I503:J505"/>
-    <mergeCell ref="I513:J517"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="I182:J182"/>
+    <mergeCell ref="I220:J220"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="I223:J223"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="I229:J229"/>
+    <mergeCell ref="I232:J232"/>
+    <mergeCell ref="I239:J239"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="I166:J166"/>
+    <mergeCell ref="I170:J170"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:L14"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B4:S25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="4" spans="2:19">
-      <c r="B4" s="1">
+      <c r="B4" s="69">
         <v>43373</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="I4" s="18">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="I4" s="44">
         <v>43379</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="P4" s="19">
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="P4" s="46">
         <v>43380</v>
       </c>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="21"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="71"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="72" t="s">
         <v>375</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="I5" s="16" t="s">
+      <c r="F5" s="24"/>
+      <c r="I5" s="36" t="s">
         <v>378</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16" t="s">
+      <c r="J5" s="36"/>
+      <c r="K5" s="36" t="s">
         <v>379</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="P5" s="16" t="s">
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="P5" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="22" t="s">
+      <c r="Q5" s="36"/>
+      <c r="R5" s="37" t="s">
         <v>381</v>
       </c>
-      <c r="S5" s="23"/>
+      <c r="S5" s="38"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="22" t="s">
+      <c r="F6" s="24"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="37" t="s">
         <v>385</v>
       </c>
-      <c r="S6" s="23"/>
+      <c r="S6" s="38"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="P7" s="3" t="s">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="P7" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="73" t="s">
         <v>389</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="64" t="s">
         <v>390</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="I8" s="16" t="s">
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="65"/>
+      <c r="I8" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16" t="s">
+      <c r="J8" s="36"/>
+      <c r="K8" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="P8" s="16" t="s">
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="P8" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="78"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="I10" s="3" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="78"/>
+      <c r="I10" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="P10" s="16" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="P10" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="I11" s="16" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="78"/>
+      <c r="I11" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="P12" s="16" t="s">
+      <c r="B12" s="74"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="78"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="P12" s="36" t="s">
         <v>397</v>
       </c>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="78"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="P14" s="16" t="s">
+      <c r="B14" s="75"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="67"/>
+      <c r="P14" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="17">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="44">
         <v>43381</v>
       </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
-        <v>388</v>
-      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="R5:S5"/>
+  <mergeCells count="32">
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B15:F16"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="K5:M7"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:M9"/>
+    <mergeCell ref="I11:M13"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="P7:S7"/>
@@ -6021,19 +5537,19 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C8:F14"/>
-    <mergeCell ref="B15:F16"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="K5:M7"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:M9"/>
-    <mergeCell ref="I11:M13"/>
     <mergeCell ref="P5:Q6"/>
     <mergeCell ref="P8:S9"/>
     <mergeCell ref="P10:S11"/>
     <mergeCell ref="P12:S13"/>
     <mergeCell ref="P14:S15"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="R5:S5"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/日计划.xlsx
+++ b/日计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作记录1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412">
   <si>
     <t>完成</t>
   </si>
@@ -1219,31 +1219,53 @@
     <t>添加 扫码后重新使用app设置模块，但目前android app的连接AP有点问题，需要对方去完善</t>
   </si>
   <si>
-    <t>确认代码提示成功没bug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>已经用样机测试过，是同样的问题，确定是代码本身有问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>第一次使用git 更新本地文件</t>
+  </si>
+  <si>
+    <t>看完了一个github视频，又找到了小甲鱼的git视频加深学习</t>
   </si>
   <si>
     <t>学习新建github page</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>新建page，可用于写博客。技术文档等</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>penetrate</t>
+  </si>
+  <si>
+    <t>渗透，穿刺，洞察</t>
   </si>
   <si>
     <t>第一次提交个人日记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>intentional</t>
+  </si>
+  <si>
+    <t>故意，un...无意</t>
+  </si>
+  <si>
+    <t>BT-957C 测试中，与之前的BT-826差不多，但HID发送数据时，不是直接写入数据，而是 长度 + content</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1266,13 +1288,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1303,8 +1463,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1481,28 +1827,342 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1518,6 +2178,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1530,26 +2196,80 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1557,186 +2277,68 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF0000"/>
+      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2028,12 +2630,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B8:M577"/>
   <sheetViews>
     <sheetView topLeftCell="A537" workbookViewId="0">
@@ -2052,545 +2654,545 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:12">
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="4:12">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="31"/>
+      <c r="H9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-    </row>
-    <row r="10" spans="4:12">
-      <c r="F10" s="25" t="s">
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+    </row>
+    <row r="10" spans="6:12">
+      <c r="F10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="31"/>
+      <c r="H10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-    </row>
-    <row r="11" spans="4:12">
-      <c r="F11" s="25" t="s">
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+    </row>
+    <row r="11" spans="6:12">
+      <c r="F11" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="9" t="s">
+      <c r="G11" s="31"/>
+      <c r="H11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-    </row>
-    <row r="12" spans="4:12">
-      <c r="F12" s="59" t="s">
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+    </row>
+    <row r="12" spans="6:12">
+      <c r="F12" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="4" t="s">
+      <c r="G12" s="34"/>
+      <c r="H12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-    </row>
-    <row r="13" spans="4:12">
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="4" t="s">
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+    </row>
+    <row r="13" spans="6:12">
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-    </row>
-    <row r="14" spans="4:12">
-      <c r="F14" s="26" t="s">
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+    </row>
+    <row r="14" spans="6:12">
+      <c r="F14" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="35"/>
+      <c r="H14" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
-    </row>
-    <row r="15" spans="4:12">
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="7" t="s">
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="15" spans="6:12">
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
-    </row>
-    <row r="20" spans="5:11">
-      <c r="F20" s="24" t="s">
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="20" spans="6:11">
+      <c r="F20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="12" t="s">
+      <c r="G20" s="37"/>
+      <c r="H20" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="5:11">
-      <c r="F21" s="25" t="s">
+      <c r="J20" s="3"/>
+      <c r="K20" s="38"/>
+    </row>
+    <row r="21" spans="6:11">
+      <c r="F21" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="12" t="s">
+      <c r="G21" s="39"/>
+      <c r="H21" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="33"/>
-    </row>
-    <row r="22" spans="5:11">
-      <c r="F22" s="24" t="s">
+      <c r="J21" s="31"/>
+      <c r="K21" s="29"/>
+    </row>
+    <row r="22" spans="6:11">
+      <c r="F22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="12" t="s">
+      <c r="G22" s="37"/>
+      <c r="H22" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="33"/>
-    </row>
-    <row r="23" spans="5:11">
-      <c r="F23" s="24" t="s">
+      <c r="J22" s="31"/>
+      <c r="K22" s="29"/>
+    </row>
+    <row r="23" spans="6:11">
+      <c r="F23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="36" t="s">
+      <c r="G23" s="37"/>
+      <c r="H23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="33"/>
-    </row>
-    <row r="24" spans="5:11">
-      <c r="F24" s="34" t="s">
+      <c r="J23" s="31"/>
+      <c r="K23" s="29"/>
+    </row>
+    <row r="24" spans="6:11">
+      <c r="F24" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="25" t="s">
+      <c r="G24" s="41"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="33"/>
-    </row>
-    <row r="28" spans="5:11">
-      <c r="F28" s="24" t="s">
+      <c r="J24" s="31"/>
+      <c r="K24" s="29"/>
+    </row>
+    <row r="28" spans="6:11">
+      <c r="F28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="12" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="5:11">
       <c r="E29" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="5" t="s">
+      <c r="G29" s="31"/>
+      <c r="H29" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="36" t="s">
+      <c r="I29" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-    </row>
-    <row r="30" spans="5:11">
-      <c r="F30" s="24" t="s">
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="6:11">
+      <c r="F30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="5" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-    </row>
-    <row r="31" spans="5:11">
-      <c r="F31" s="36" t="s">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="6:8">
+      <c r="F31" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36" t="s">
+      <c r="G31" s="16"/>
+      <c r="H31" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="5:11">
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-    </row>
-    <row r="33" spans="6:11">
-      <c r="F33" s="36" t="s">
+    <row r="32" spans="6:8">
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="36"/>
-      <c r="H33" s="6" t="s">
+      <c r="G33" s="16"/>
+      <c r="H33" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="6:11">
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="5" t="s">
+    <row r="34" spans="6:8">
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="6:11">
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36" spans="6:11">
-      <c r="F36" s="37" t="s">
+    <row r="35" spans="6:7">
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="6:7">
+      <c r="F36" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="38"/>
-    </row>
-    <row r="40" spans="6:11">
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="G36" s="28"/>
+    </row>
+    <row r="40" spans="6:7">
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
     </row>
     <row r="41" spans="6:11">
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="37"/>
-      <c r="H41" s="12" t="s">
+      <c r="G41" s="27"/>
+      <c r="H41" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="I41" s="37" t="s">
+      <c r="I41" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J41" s="39"/>
-      <c r="K41" s="38"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="28"/>
     </row>
     <row r="42" spans="6:11">
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="37"/>
-      <c r="H42" s="36" t="s">
+      <c r="G42" s="27"/>
+      <c r="H42" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="25" t="s">
+      <c r="I42" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
     </row>
     <row r="43" spans="6:11">
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="37"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="59" t="s">
+      <c r="G43" s="27"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
     </row>
     <row r="44" spans="6:11">
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="37"/>
-      <c r="H44" s="12" t="s">
+      <c r="G44" s="27"/>
+      <c r="H44" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-    </row>
-    <row r="45" spans="6:11">
-      <c r="H45" s="12" t="s">
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+    </row>
+    <row r="45" spans="8:8">
+      <c r="H45" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="6:11">
-      <c r="H46" s="12" t="s">
+    <row r="46" spans="8:8">
+      <c r="H46" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="6:11">
-      <c r="H47" s="36" t="s">
+    <row r="47" spans="8:8">
+      <c r="H47" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="6:11">
-      <c r="H48" s="36"/>
-    </row>
-    <row r="49" spans="6:11">
-      <c r="H49" s="36"/>
-    </row>
-    <row r="50" spans="6:11">
-      <c r="H50" s="36"/>
-    </row>
-    <row r="51" spans="6:11">
-      <c r="H51" s="36"/>
-    </row>
-    <row r="52" spans="6:11">
-      <c r="H52" s="36" t="s">
+    <row r="48" spans="8:8">
+      <c r="H48" s="16"/>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="H52" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="6:11">
-      <c r="H53" s="36"/>
-    </row>
-    <row r="54" spans="6:11">
-      <c r="H54" s="36"/>
+    <row r="53" spans="8:8">
+      <c r="H53" s="16"/>
+    </row>
+    <row r="54" spans="8:8">
+      <c r="H54" s="16"/>
     </row>
     <row r="58" spans="6:11">
-      <c r="F58" s="24" t="s">
+      <c r="F58" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G58" s="24"/>
-      <c r="H58" s="12" t="s">
+      <c r="G58" s="3"/>
+      <c r="H58" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I58" s="24" t="s">
+      <c r="I58" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
     </row>
     <row r="59" spans="6:11">
-      <c r="F59" s="26" t="s">
+      <c r="F59" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="G59" s="40"/>
-      <c r="H59" s="5" t="s">
+      <c r="G59" s="30"/>
+      <c r="H59" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="I59" s="24" t="s">
+      <c r="I59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
     </row>
     <row r="60" spans="6:11">
-      <c r="F60" s="26" t="s">
+      <c r="F60" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="40"/>
-      <c r="H60" s="15" t="s">
+      <c r="G60" s="30"/>
+      <c r="H60" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="I60" s="36" t="s">
+      <c r="I60" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
     </row>
     <row r="61" spans="6:11">
-      <c r="F61" s="59" t="s">
+      <c r="F61" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G61" s="59"/>
-      <c r="H61" s="12" t="s">
+      <c r="G61" s="34"/>
+      <c r="H61" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
     </row>
     <row r="62" spans="6:11">
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-    </row>
-    <row r="63" spans="6:11">
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-    </row>
-    <row r="67" spans="3:11">
-      <c r="F67" s="36" t="s">
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+    </row>
+    <row r="63" spans="9:11">
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+    </row>
+    <row r="67" spans="6:11">
+      <c r="F67" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="41"/>
-      <c r="H67" s="11" t="s">
+      <c r="G67" s="47"/>
+      <c r="H67" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="I67" s="24" t="s">
+      <c r="I67" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
     </row>
     <row r="68" spans="3:11">
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="25" t="s">
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="33"/>
-      <c r="H68" s="11" t="s">
+      <c r="G68" s="29"/>
+      <c r="H68" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="I68" s="24" t="s">
+      <c r="I68" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-    </row>
-    <row r="69" spans="3:11">
-      <c r="F69" s="25" t="s">
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="6:11">
+      <c r="F69" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="G69" s="33"/>
-      <c r="H69" s="11" t="s">
+      <c r="G69" s="29"/>
+      <c r="H69" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="I69" s="25" t="s">
+      <c r="I69" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-    </row>
-    <row r="70" spans="3:11">
-      <c r="F70" s="36" t="s">
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+    </row>
+    <row r="70" spans="6:11">
+      <c r="F70" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G70" s="36"/>
-      <c r="H70" s="58" t="s">
+      <c r="G70" s="16"/>
+      <c r="H70" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="I70" s="59" t="s">
+      <c r="I70" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="J70" s="59"/>
-      <c r="K70" s="59"/>
-    </row>
-    <row r="71" spans="3:11">
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
-    </row>
-    <row r="72" spans="3:11">
-      <c r="F72" s="59" t="s">
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+    </row>
+    <row r="71" spans="6:11">
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+    </row>
+    <row r="72" spans="6:11">
+      <c r="F72" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="G72" s="59"/>
-      <c r="H72" s="13" t="s">
+      <c r="G72" s="34"/>
+      <c r="H72" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="I72" s="59" t="s">
+      <c r="I72" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-    </row>
-    <row r="73" spans="3:11">
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="59"/>
-      <c r="K73" s="59"/>
-    </row>
-    <row r="74" spans="3:11">
-      <c r="F74" s="36" t="s">
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+    </row>
+    <row r="73" spans="6:11">
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+    </row>
+    <row r="74" spans="6:11">
+      <c r="F74" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="G74" s="36"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="59"/>
-      <c r="K74" s="59"/>
-    </row>
-    <row r="75" spans="3:11">
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
-      <c r="K75" s="59"/>
-    </row>
-    <row r="78" spans="3:11">
+      <c r="G74" s="16"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+    </row>
+    <row r="75" spans="6:11">
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
+    </row>
+    <row r="78" spans="7:10">
       <c r="G78" t="s">
         <v>91</v>
       </c>
@@ -2601,182 +3203,178 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="3:11">
-      <c r="F79" s="42" t="s">
+    <row r="79" spans="6:11">
+      <c r="F79" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="G79" s="43"/>
-      <c r="H79" s="54" t="s">
+      <c r="H79" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I79" s="42" t="s">
+      <c r="I79" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
-    </row>
-    <row r="80" spans="3:11">
-      <c r="H80" s="54"/>
-      <c r="I80" s="42" t="s">
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+    </row>
+    <row r="80" spans="8:11">
+      <c r="H80" s="10"/>
+      <c r="I80" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
-    </row>
-    <row r="81" spans="3:10">
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+    </row>
+    <row r="81" spans="10:10">
       <c r="J81" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="3:10">
-      <c r="F86" s="12"/>
-      <c r="G86" s="12" t="s">
+    <row r="86" spans="6:8">
+      <c r="F86" s="38"/>
+      <c r="G86" s="38" t="s">
         <v>99</v>
       </c>
       <c r="H86" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="3:10">
-      <c r="C87" s="60" t="s">
+    <row r="87" spans="3:8">
+      <c r="C87" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D87" s="60"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="59" t="s">
+      <c r="D87" s="49"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="G87" s="59"/>
+      <c r="G87" s="34"/>
       <c r="H87" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="3:10">
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="59"/>
+    <row r="88" spans="3:8">
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
       <c r="H88" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="3:10">
-      <c r="F89" s="12"/>
-      <c r="G89" s="12" t="s">
+    <row r="89" spans="6:7">
+      <c r="F89" s="38"/>
+      <c r="G89" s="38" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="3:10">
-      <c r="F90" s="12"/>
-      <c r="G90" s="12" t="s">
+    <row r="90" spans="6:7">
+      <c r="F90" s="38"/>
+      <c r="G90" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="3:10">
-      <c r="F91" s="12"/>
-      <c r="G91" s="12" t="s">
+    <row r="91" spans="6:7">
+      <c r="F91" s="38"/>
+      <c r="G91" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="3:10">
-      <c r="F96" s="42" t="s">
+    <row r="96" spans="6:9">
+      <c r="F96" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G96" s="43"/>
-      <c r="H96" s="37">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I96" s="38"/>
-    </row>
-    <row r="97" spans="6:10">
-      <c r="F97" s="42" t="s">
+      <c r="H96" s="27">
+        <v>2.24</v>
+      </c>
+      <c r="I96" s="28"/>
+    </row>
+    <row r="97" spans="6:9">
+      <c r="F97" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="G97" s="43"/>
-      <c r="H97" s="24" t="s">
+      <c r="H97" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I97" s="24"/>
-    </row>
-    <row r="98" spans="6:10">
-      <c r="H98" s="36" t="s">
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="8:9">
+      <c r="H98" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="I98" s="36"/>
-    </row>
-    <row r="99" spans="6:10">
-      <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
-    </row>
-    <row r="100" spans="6:10">
-      <c r="H100" s="36" t="s">
+      <c r="I98" s="16"/>
+    </row>
+    <row r="99" spans="8:9">
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+    </row>
+    <row r="100" spans="8:9">
+      <c r="H100" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="I100" s="36"/>
-    </row>
-    <row r="101" spans="6:10">
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-    </row>
-    <row r="102" spans="6:10">
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
-    </row>
-    <row r="103" spans="6:10">
-      <c r="H103" s="36" t="s">
+      <c r="I100" s="16"/>
+    </row>
+    <row r="101" spans="8:9">
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+    </row>
+    <row r="102" spans="8:9">
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+    </row>
+    <row r="103" spans="8:9">
+      <c r="H103" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I103" s="36"/>
-    </row>
-    <row r="104" spans="6:10">
-      <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
-    </row>
-    <row r="108" spans="6:10">
+      <c r="I103" s="16"/>
+    </row>
+    <row r="104" spans="8:9">
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+    </row>
+    <row r="108" spans="7:10">
       <c r="G108">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="H108">
         <v>2.27</v>
       </c>
-      <c r="I108" s="24">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="J108" s="24"/>
-    </row>
-    <row r="109" spans="6:10">
+      <c r="I108" s="3">
+        <v>2.28</v>
+      </c>
+      <c r="J108" s="3"/>
+    </row>
+    <row r="109" spans="7:10">
       <c r="G109" t="s">
         <v>113</v>
       </c>
       <c r="H109" t="s">
         <v>114</v>
       </c>
-      <c r="I109" s="24" t="s">
+      <c r="I109" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J109" s="24"/>
-    </row>
-    <row r="110" spans="6:10">
+      <c r="J109" s="3"/>
+    </row>
+    <row r="110" spans="8:10">
       <c r="H110" t="s">
         <v>113</v>
       </c>
-      <c r="I110" s="24" t="s">
+      <c r="I110" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J110" s="24"/>
-    </row>
-    <row r="113" spans="7:10">
+      <c r="J110" s="3"/>
+    </row>
+    <row r="113" spans="7:9">
       <c r="G113">
         <v>3.1</v>
       </c>
       <c r="H113">
         <v>3.2</v>
       </c>
-      <c r="I113" s="42">
+      <c r="I113" s="36">
         <v>3.3</v>
       </c>
-      <c r="J113" s="43"/>
     </row>
     <row r="114" spans="7:10">
       <c r="G114" t="s">
@@ -2785,10 +3383,10 @@
       <c r="H114" t="s">
         <v>115</v>
       </c>
-      <c r="I114" s="42" t="s">
+      <c r="I114" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="J114" s="42"/>
+      <c r="J114" s="36"/>
     </row>
     <row r="115" spans="7:10">
       <c r="G115" t="s">
@@ -2797,20 +3395,19 @@
       <c r="H115" t="s">
         <v>116</v>
       </c>
-      <c r="I115" s="14"/>
-      <c r="J115" s="14"/>
-    </row>
-    <row r="119" spans="7:10">
+      <c r="I115" s="42"/>
+      <c r="J115" s="42"/>
+    </row>
+    <row r="119" spans="7:9">
       <c r="G119">
         <v>3.5</v>
       </c>
       <c r="H119">
         <v>3.6</v>
       </c>
-      <c r="I119" s="42">
+      <c r="I119" s="36">
         <v>3.7</v>
       </c>
-      <c r="J119" s="43"/>
     </row>
     <row r="120" spans="7:10">
       <c r="G120" t="s">
@@ -2819,12 +3416,12 @@
       <c r="H120" t="s">
         <v>118</v>
       </c>
-      <c r="I120" s="42" t="s">
+      <c r="I120" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="J120" s="42"/>
-    </row>
-    <row r="121" spans="7:10">
+      <c r="J120" s="36"/>
+    </row>
+    <row r="121" spans="8:9">
       <c r="H121" t="s">
         <v>120</v>
       </c>
@@ -2832,7 +3429,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="7:10">
+    <row r="122" spans="9:9">
       <c r="I122" t="s">
         <v>122</v>
       </c>
@@ -2844,37 +3441,35 @@
       <c r="H127">
         <v>3.13</v>
       </c>
-      <c r="I127" s="42">
+      <c r="I127" s="36">
         <v>3.14</v>
       </c>
-      <c r="J127" s="42"/>
-    </row>
-    <row r="128" spans="7:10">
-      <c r="G128" s="54" t="s">
+      <c r="J127" s="36"/>
+    </row>
+    <row r="128" spans="7:9">
+      <c r="G128" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H128" s="54" t="s">
+      <c r="H128" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="I128" s="42" t="s">
+      <c r="I128" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="J128" s="43"/>
-    </row>
-    <row r="129" spans="7:10">
-      <c r="G129" s="54"/>
-      <c r="H129" s="54"/>
-      <c r="I129" s="42" t="s">
+    </row>
+    <row r="129" spans="7:9">
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="J129" s="43"/>
-    </row>
-    <row r="130" spans="7:10">
+    </row>
+    <row r="130" spans="7:7">
       <c r="G130" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="135" spans="7:10">
+    <row r="135" spans="7:8">
       <c r="G135">
         <v>3.21</v>
       </c>
@@ -2882,7 +3477,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="136" spans="7:10">
+    <row r="136" spans="7:8">
       <c r="G136" t="s">
         <v>128</v>
       </c>
@@ -2891,10 +3486,10 @@
       </c>
     </row>
     <row r="140" spans="7:10">
-      <c r="G140" s="12">
+      <c r="G140" s="38">
         <v>3.26</v>
       </c>
-      <c r="H140" s="12">
+      <c r="H140" s="38">
         <v>3.27</v>
       </c>
       <c r="J140">
@@ -2902,10 +3497,10 @@
       </c>
     </row>
     <row r="141" spans="7:10">
-      <c r="G141" s="36" t="s">
+      <c r="G141" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="H141" s="12" t="s">
+      <c r="H141" s="38" t="s">
         <v>131</v>
       </c>
       <c r="J141" t="s">
@@ -2913,344 +3508,344 @@
       </c>
     </row>
     <row r="142" spans="7:10">
-      <c r="G142" s="36"/>
-      <c r="H142" s="12" t="s">
+      <c r="G142" s="16"/>
+      <c r="H142" s="38" t="s">
         <v>133</v>
       </c>
       <c r="J142" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="7:10">
-      <c r="G143" s="1" t="s">
+    <row r="143" spans="7:8">
+      <c r="G143" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H143" s="12" t="s">
+      <c r="H143" s="38" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="144" spans="7:10">
-      <c r="G144" s="36" t="s">
+    <row r="144" spans="7:8">
+      <c r="G144" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H144" s="12" t="s">
+      <c r="H144" s="38" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="145" spans="3:10">
-      <c r="G145" s="36"/>
-    </row>
-    <row r="146" spans="3:10">
-      <c r="G146" s="36"/>
-    </row>
-    <row r="149" spans="3:10">
-      <c r="G149" s="2">
+    <row r="145" spans="7:7">
+      <c r="G145" s="16"/>
+    </row>
+    <row r="146" spans="7:7">
+      <c r="G146" s="16"/>
+    </row>
+    <row r="149" spans="7:10">
+      <c r="G149" s="50">
         <v>43188</v>
       </c>
-      <c r="H149" s="2">
+      <c r="H149" s="50">
         <v>43189</v>
       </c>
-      <c r="J149" s="18">
+      <c r="J149" s="53">
         <v>43190</v>
       </c>
     </row>
     <row r="150" spans="3:10">
-      <c r="C150" s="61" t="s">
+      <c r="C150" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D150" s="61"/>
-      <c r="E150" s="61"/>
-      <c r="F150" s="61"/>
-      <c r="G150" s="36" t="s">
+      <c r="D150" s="51"/>
+      <c r="E150" s="51"/>
+      <c r="F150" s="51"/>
+      <c r="G150" s="16" t="s">
         <v>140</v>
       </c>
       <c r="H150" t="s">
         <v>141</v>
       </c>
-      <c r="J150" s="12" t="s">
+      <c r="J150" s="38" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="151" spans="3:10">
-      <c r="C151" s="61"/>
-      <c r="D151" s="61"/>
-      <c r="E151" s="61"/>
-      <c r="F151" s="61"/>
-      <c r="G151" s="36"/>
+      <c r="C151" s="51"/>
+      <c r="D151" s="51"/>
+      <c r="E151" s="51"/>
+      <c r="F151" s="51"/>
+      <c r="G151" s="16"/>
       <c r="H151" t="s">
         <v>142</v>
       </c>
-      <c r="J151" s="36" t="s">
+      <c r="J151" s="16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="152" spans="3:10">
-      <c r="C152" s="61"/>
-      <c r="D152" s="61"/>
-      <c r="E152" s="61"/>
-      <c r="F152" s="61"/>
-      <c r="G152" s="36"/>
-      <c r="J152" s="36"/>
-    </row>
-    <row r="153" spans="3:10">
-      <c r="G153" s="36" t="s">
+      <c r="C152" s="51"/>
+      <c r="D152" s="51"/>
+      <c r="E152" s="51"/>
+      <c r="F152" s="51"/>
+      <c r="G152" s="16"/>
+      <c r="J152" s="16"/>
+    </row>
+    <row r="153" spans="7:10">
+      <c r="G153" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="J153" s="36" t="s">
+      <c r="J153" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="3:10">
-      <c r="G154" s="36"/>
-      <c r="J154" s="36"/>
-    </row>
-    <row r="155" spans="3:10">
-      <c r="G155" s="36"/>
-      <c r="J155" s="36"/>
-    </row>
-    <row r="156" spans="3:10">
-      <c r="G156" s="36"/>
-      <c r="J156" s="36"/>
-    </row>
-    <row r="157" spans="3:10">
-      <c r="G157" s="36" t="s">
+    <row r="154" spans="7:10">
+      <c r="G154" s="16"/>
+      <c r="J154" s="16"/>
+    </row>
+    <row r="155" spans="7:10">
+      <c r="G155" s="16"/>
+      <c r="J155" s="16"/>
+    </row>
+    <row r="156" spans="7:10">
+      <c r="G156" s="16"/>
+      <c r="J156" s="16"/>
+    </row>
+    <row r="157" spans="7:10">
+      <c r="G157" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="J157" s="36"/>
-    </row>
-    <row r="158" spans="3:10">
-      <c r="G158" s="36"/>
-      <c r="J158" s="36"/>
-    </row>
-    <row r="159" spans="3:10">
-      <c r="G159" s="36"/>
-      <c r="J159" s="36"/>
-    </row>
-    <row r="160" spans="3:10">
-      <c r="G160" s="36"/>
-      <c r="J160" s="36" t="s">
+      <c r="J157" s="16"/>
+    </row>
+    <row r="158" spans="7:10">
+      <c r="G158" s="16"/>
+      <c r="J158" s="16"/>
+    </row>
+    <row r="159" spans="7:10">
+      <c r="G159" s="16"/>
+      <c r="J159" s="16"/>
+    </row>
+    <row r="160" spans="7:10">
+      <c r="G160" s="16"/>
+      <c r="J160" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="2:10">
-      <c r="G161" s="36" t="s">
+    <row r="161" spans="7:10">
+      <c r="G161" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="J161" s="36"/>
-    </row>
-    <row r="162" spans="2:10">
-      <c r="G162" s="36"/>
-      <c r="J162" s="36"/>
-    </row>
-    <row r="163" spans="2:10">
-      <c r="G163" s="36"/>
-    </row>
-    <row r="166" spans="2:10">
-      <c r="G166" s="17">
+      <c r="J161" s="16"/>
+    </row>
+    <row r="162" spans="7:10">
+      <c r="G162" s="16"/>
+      <c r="J162" s="16"/>
+    </row>
+    <row r="163" spans="7:7">
+      <c r="G163" s="16"/>
+    </row>
+    <row r="166" spans="7:10">
+      <c r="G166" s="52">
         <v>43192</v>
       </c>
-      <c r="H166" s="18">
+      <c r="H166" s="53">
         <v>43193</v>
       </c>
-      <c r="I166" s="44">
+      <c r="I166" s="17">
         <v>43194</v>
       </c>
-      <c r="J166" s="45"/>
-    </row>
-    <row r="167" spans="2:10">
-      <c r="G167" s="11" t="s">
+      <c r="J166" s="53"/>
+    </row>
+    <row r="167" spans="7:10">
+      <c r="G167" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="H167" s="12" t="s">
+      <c r="H167" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="I167" s="36" t="s">
+      <c r="I167" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="J167" s="36"/>
-    </row>
-    <row r="168" spans="2:10">
-      <c r="G168" s="55" t="s">
+      <c r="J167" s="16"/>
+    </row>
+    <row r="168" spans="7:10">
+      <c r="G168" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="H168" s="12" t="s">
+      <c r="H168" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="I168" s="36"/>
-      <c r="J168" s="36"/>
-    </row>
-    <row r="169" spans="2:10">
-      <c r="G169" s="55"/>
-      <c r="H169" s="36" t="s">
+      <c r="I168" s="16"/>
+      <c r="J168" s="16"/>
+    </row>
+    <row r="169" spans="7:10">
+      <c r="G169" s="54"/>
+      <c r="H169" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="I169" s="36"/>
-      <c r="J169" s="36"/>
-    </row>
-    <row r="170" spans="2:10">
-      <c r="H170" s="36"/>
-      <c r="I170" s="24" t="s">
+      <c r="I169" s="16"/>
+      <c r="J169" s="16"/>
+    </row>
+    <row r="170" spans="8:10">
+      <c r="H170" s="16"/>
+      <c r="I170" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J170" s="31"/>
-    </row>
-    <row r="175" spans="2:10">
-      <c r="G175" s="2">
+      <c r="J170" s="38"/>
+    </row>
+    <row r="175" spans="7:7">
+      <c r="G175" s="50">
         <v>43199</v>
       </c>
     </row>
-    <row r="176" spans="2:10">
-      <c r="B176" s="24" t="s">
+    <row r="176" spans="2:7">
+      <c r="B176" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C176" s="24"/>
-      <c r="D176" s="24"/>
-      <c r="E176" s="24"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
       <c r="G176" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="177" spans="2:10">
-      <c r="B177" s="24" t="s">
+    <row r="177" spans="2:5">
+      <c r="B177" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C177" s="24"/>
-      <c r="D177" s="24"/>
-      <c r="E177" s="24"/>
-    </row>
-    <row r="178" spans="2:10">
-      <c r="B178" s="62" t="s">
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="C178" s="62"/>
-      <c r="D178" s="62"/>
-      <c r="E178" s="62"/>
-    </row>
-    <row r="179" spans="2:10">
-      <c r="B179" s="62"/>
-      <c r="C179" s="62"/>
-      <c r="D179" s="62"/>
-      <c r="E179" s="62"/>
-    </row>
-    <row r="180" spans="2:10">
-      <c r="B180" s="62"/>
-      <c r="C180" s="62"/>
-      <c r="D180" s="62"/>
-      <c r="E180" s="62"/>
-    </row>
-    <row r="181" spans="2:10">
-      <c r="B181" s="62"/>
-      <c r="C181" s="62"/>
-      <c r="D181" s="62"/>
-      <c r="E181" s="62"/>
+      <c r="C178" s="55"/>
+      <c r="D178" s="55"/>
+      <c r="E178" s="55"/>
+    </row>
+    <row r="179" spans="2:5">
+      <c r="B179" s="55"/>
+      <c r="C179" s="55"/>
+      <c r="D179" s="55"/>
+      <c r="E179" s="55"/>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="B180" s="55"/>
+      <c r="C180" s="55"/>
+      <c r="D180" s="55"/>
+      <c r="E180" s="55"/>
+    </row>
+    <row r="181" spans="2:5">
+      <c r="B181" s="55"/>
+      <c r="C181" s="55"/>
+      <c r="D181" s="55"/>
+      <c r="E181" s="55"/>
     </row>
     <row r="182" spans="2:10">
-      <c r="B182" s="62"/>
-      <c r="C182" s="62"/>
-      <c r="D182" s="62"/>
-      <c r="E182" s="62"/>
-      <c r="G182" s="2">
+      <c r="B182" s="55"/>
+      <c r="C182" s="55"/>
+      <c r="D182" s="55"/>
+      <c r="E182" s="55"/>
+      <c r="G182" s="50">
         <v>43211</v>
       </c>
-      <c r="H182" s="18">
+      <c r="H182" s="53">
         <v>43215</v>
       </c>
-      <c r="I182" s="44">
+      <c r="I182" s="17">
         <v>43216</v>
       </c>
-      <c r="J182" s="45"/>
+      <c r="J182" s="53"/>
     </row>
     <row r="183" spans="2:10">
-      <c r="B183" s="62"/>
-      <c r="C183" s="62"/>
-      <c r="D183" s="62"/>
-      <c r="E183" s="62"/>
+      <c r="B183" s="55"/>
+      <c r="C183" s="55"/>
+      <c r="D183" s="55"/>
+      <c r="E183" s="55"/>
       <c r="G183" t="s">
         <v>160</v>
       </c>
-      <c r="H183" s="36" t="s">
+      <c r="H183" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="I183" s="36" t="s">
+      <c r="I183" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="J183" s="36"/>
+      <c r="J183" s="16"/>
     </row>
     <row r="184" spans="2:10">
-      <c r="B184" s="62"/>
-      <c r="C184" s="62"/>
-      <c r="D184" s="62"/>
-      <c r="E184" s="62"/>
-      <c r="H184" s="36"/>
-      <c r="I184" s="36"/>
-      <c r="J184" s="36"/>
-    </row>
-    <row r="185" spans="2:10">
-      <c r="H185" s="36"/>
-      <c r="I185" s="54" t="s">
+      <c r="B184" s="55"/>
+      <c r="C184" s="55"/>
+      <c r="D184" s="55"/>
+      <c r="E184" s="55"/>
+      <c r="H184" s="16"/>
+      <c r="I184" s="16"/>
+      <c r="J184" s="16"/>
+    </row>
+    <row r="185" spans="8:10">
+      <c r="H185" s="16"/>
+      <c r="I185" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="J185" s="54"/>
-    </row>
-    <row r="186" spans="2:10">
-      <c r="H186" s="36"/>
-      <c r="I186" s="54"/>
-      <c r="J186" s="54"/>
-    </row>
-    <row r="187" spans="2:10">
-      <c r="I187" s="54"/>
-      <c r="J187" s="54"/>
-    </row>
-    <row r="188" spans="2:10">
-      <c r="I188" s="54"/>
-      <c r="J188" s="54"/>
-    </row>
-    <row r="191" spans="2:10">
-      <c r="G191" s="2">
+      <c r="J185" s="10"/>
+    </row>
+    <row r="186" spans="8:10">
+      <c r="H186" s="16"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="10"/>
+    </row>
+    <row r="187" spans="9:10">
+      <c r="I187" s="10"/>
+      <c r="J187" s="10"/>
+    </row>
+    <row r="188" spans="9:10">
+      <c r="I188" s="10"/>
+      <c r="J188" s="10"/>
+    </row>
+    <row r="191" spans="7:8">
+      <c r="G191" s="50">
         <v>43217</v>
       </c>
-      <c r="H191" s="18">
+      <c r="H191" s="53">
         <v>43218</v>
       </c>
     </row>
-    <row r="192" spans="2:10">
-      <c r="G192" s="54" t="s">
+    <row r="192" spans="7:8">
+      <c r="G192" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="H192" s="36" t="s">
+      <c r="H192" s="16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="193" spans="7:10">
-      <c r="G193" s="54"/>
-      <c r="H193" s="36"/>
-    </row>
-    <row r="194" spans="7:10">
-      <c r="G194" s="54"/>
-      <c r="H194" s="36"/>
-    </row>
-    <row r="195" spans="7:10">
-      <c r="G195" s="54"/>
-      <c r="H195" s="36"/>
-    </row>
-    <row r="196" spans="7:10">
-      <c r="G196" s="54"/>
-      <c r="H196" s="36"/>
-    </row>
-    <row r="197" spans="7:10">
-      <c r="H197" s="36"/>
-    </row>
-    <row r="198" spans="7:10">
-      <c r="H198" s="36"/>
+    <row r="193" spans="7:8">
+      <c r="G193" s="10"/>
+      <c r="H193" s="16"/>
+    </row>
+    <row r="194" spans="7:8">
+      <c r="G194" s="10"/>
+      <c r="H194" s="16"/>
+    </row>
+    <row r="195" spans="7:8">
+      <c r="G195" s="10"/>
+      <c r="H195" s="16"/>
+    </row>
+    <row r="196" spans="7:8">
+      <c r="G196" s="10"/>
+      <c r="H196" s="16"/>
+    </row>
+    <row r="197" spans="8:8">
+      <c r="H197" s="16"/>
+    </row>
+    <row r="198" spans="8:8">
+      <c r="H198" s="16"/>
     </row>
     <row r="202" spans="7:10">
-      <c r="G202" s="2">
+      <c r="G202" s="50">
         <v>43223</v>
       </c>
-      <c r="H202" s="2">
+      <c r="H202" s="50">
         <v>43225</v>
       </c>
-      <c r="J202" s="2">
+      <c r="J202" s="50">
         <v>43227</v>
       </c>
     </row>
@@ -3261,152 +3856,152 @@
       <c r="H203" t="s">
         <v>167</v>
       </c>
-      <c r="I203" s="54" t="s">
+      <c r="I203" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="J203" s="54"/>
+      <c r="J203" s="10"/>
     </row>
     <row r="204" spans="7:10">
       <c r="G204" t="s">
         <v>169</v>
       </c>
-      <c r="I204" s="54"/>
-      <c r="J204" s="54"/>
-    </row>
-    <row r="205" spans="7:10">
+      <c r="I204" s="10"/>
+      <c r="J204" s="10"/>
+    </row>
+    <row r="205" spans="10:10">
       <c r="J205" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="208" spans="7:10">
-      <c r="J208" s="2"/>
-    </row>
-    <row r="209" spans="7:10">
-      <c r="G209" s="18">
+    <row r="208" spans="10:10">
+      <c r="J208" s="50"/>
+    </row>
+    <row r="209" spans="7:8">
+      <c r="G209" s="53">
         <v>43231</v>
       </c>
-      <c r="H209" s="2">
+      <c r="H209" s="50">
         <v>43234</v>
       </c>
     </row>
-    <row r="210" spans="7:10">
-      <c r="G210" s="36" t="s">
+    <row r="210" spans="7:8">
+      <c r="G210" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="H210" s="54" t="s">
+      <c r="H210" s="10" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="211" spans="7:10">
-      <c r="G211" s="36"/>
-      <c r="H211" s="54"/>
-    </row>
-    <row r="212" spans="7:10">
-      <c r="G212" s="36"/>
-    </row>
-    <row r="213" spans="7:10">
-      <c r="G213" s="12" t="s">
+    <row r="211" spans="7:8">
+      <c r="G211" s="16"/>
+      <c r="H211" s="10"/>
+    </row>
+    <row r="212" spans="7:7">
+      <c r="G212" s="16"/>
+    </row>
+    <row r="213" spans="7:7">
+      <c r="G213" s="38" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="214" spans="7:10">
-      <c r="G214" s="36" t="s">
+    <row r="214" spans="7:7">
+      <c r="G214" s="16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="215" spans="7:10">
-      <c r="G215" s="41"/>
+    <row r="215" spans="7:7">
+      <c r="G215" s="47"/>
     </row>
     <row r="220" spans="7:10">
-      <c r="G220" s="19">
+      <c r="G220" s="56">
         <v>43236</v>
       </c>
-      <c r="H220" s="19">
+      <c r="H220" s="56">
         <v>43238</v>
       </c>
-      <c r="I220" s="44">
+      <c r="I220" s="17">
         <v>43239</v>
       </c>
-      <c r="J220" s="45"/>
+      <c r="J220" s="53"/>
     </row>
     <row r="221" spans="7:10">
-      <c r="G221" s="24" t="s">
+      <c r="G221" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H221" s="24"/>
-      <c r="I221" s="63" t="s">
+      <c r="H221" s="3"/>
+      <c r="I221" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="J221" s="36"/>
+      <c r="J221" s="16"/>
     </row>
     <row r="222" spans="7:10">
-      <c r="G222" s="36" t="s">
+      <c r="G222" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="H222" s="36"/>
-      <c r="I222" s="63"/>
-      <c r="J222" s="36"/>
+      <c r="H222" s="16"/>
+      <c r="I222" s="57"/>
+      <c r="J222" s="16"/>
     </row>
     <row r="223" spans="7:10">
-      <c r="G223" s="36"/>
-      <c r="H223" s="36"/>
-      <c r="I223" s="38" t="s">
+      <c r="G223" s="16"/>
+      <c r="H223" s="16"/>
+      <c r="I223" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="J223" s="31"/>
-    </row>
-    <row r="224" spans="7:10">
-      <c r="G224" s="24" t="s">
+      <c r="J223" s="38"/>
+    </row>
+    <row r="224" spans="7:8">
+      <c r="G224" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H224" s="24"/>
+      <c r="H224" s="3"/>
     </row>
     <row r="229" spans="7:10">
-      <c r="G229" s="2">
+      <c r="G229" s="50">
         <v>43241</v>
       </c>
-      <c r="H229" s="2">
+      <c r="H229" s="50">
         <v>43243</v>
       </c>
-      <c r="I229" s="44">
+      <c r="I229" s="17">
         <v>43244</v>
       </c>
-      <c r="J229" s="45"/>
+      <c r="J229" s="53"/>
     </row>
     <row r="230" spans="7:10">
-      <c r="G230" s="54" t="s">
+      <c r="G230" s="10" t="s">
         <v>180</v>
       </c>
       <c r="H230" t="s">
         <v>181</v>
       </c>
-      <c r="I230" s="36" t="s">
+      <c r="I230" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="J230" s="36"/>
+      <c r="J230" s="16"/>
     </row>
     <row r="231" spans="7:10">
-      <c r="G231" s="54"/>
+      <c r="G231" s="10"/>
       <c r="H231" t="s">
         <v>183</v>
       </c>
-      <c r="I231" s="36"/>
-      <c r="J231" s="36"/>
+      <c r="I231" s="16"/>
+      <c r="J231" s="16"/>
     </row>
     <row r="232" spans="7:10">
-      <c r="G232" s="54"/>
-      <c r="I232" s="24" t="s">
+      <c r="G232" s="10"/>
+      <c r="I232" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J232" s="31"/>
-    </row>
-    <row r="233" spans="7:10">
+      <c r="J232" s="38"/>
+    </row>
+    <row r="233" spans="9:9">
       <c r="I233" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="238" spans="7:10">
-      <c r="G238" s="2">
+    <row r="238" spans="7:7">
+      <c r="G238" s="50">
         <v>43245</v>
       </c>
     </row>
@@ -3414,77 +4009,77 @@
       <c r="G239" t="s">
         <v>186</v>
       </c>
-      <c r="I239" s="44">
+      <c r="I239" s="17">
         <v>43248</v>
       </c>
-      <c r="J239" s="45"/>
+      <c r="J239" s="53"/>
     </row>
     <row r="240" spans="7:10">
-      <c r="G240" s="54" t="s">
+      <c r="G240" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="I240" s="24" t="s">
+      <c r="I240" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J240" s="31"/>
+      <c r="J240" s="38"/>
     </row>
     <row r="241" spans="7:10">
-      <c r="G241" s="54"/>
-      <c r="I241" s="36" t="s">
+      <c r="G241" s="10"/>
+      <c r="I241" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="J241" s="36"/>
+      <c r="J241" s="16"/>
     </row>
     <row r="242" spans="7:10">
-      <c r="G242" s="54"/>
-      <c r="I242" s="36"/>
-      <c r="J242" s="36"/>
+      <c r="G242" s="10"/>
+      <c r="I242" s="16"/>
+      <c r="J242" s="16"/>
     </row>
     <row r="243" spans="7:10">
-      <c r="G243" s="54"/>
-      <c r="I243" s="36" t="s">
+      <c r="G243" s="10"/>
+      <c r="I243" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="J243" s="36"/>
+      <c r="J243" s="16"/>
     </row>
     <row r="244" spans="7:10">
-      <c r="G244" s="54"/>
-      <c r="I244" s="36"/>
-      <c r="J244" s="36"/>
-    </row>
-    <row r="245" spans="7:10">
-      <c r="I245" s="36"/>
-      <c r="J245" s="36"/>
-    </row>
-    <row r="246" spans="7:10">
-      <c r="I246" s="36"/>
-      <c r="J246" s="36"/>
-    </row>
-    <row r="247" spans="7:10">
-      <c r="I247" s="36"/>
-      <c r="J247" s="36"/>
-    </row>
-    <row r="248" spans="7:10">
-      <c r="I248" s="36"/>
-      <c r="J248" s="36"/>
-    </row>
-    <row r="249" spans="7:10">
-      <c r="I249" s="36"/>
-      <c r="J249" s="36"/>
-    </row>
-    <row r="250" spans="7:10">
-      <c r="I250" s="36"/>
-      <c r="J250" s="36"/>
-    </row>
-    <row r="254" spans="7:10">
-      <c r="G254" s="2">
+      <c r="G244" s="10"/>
+      <c r="I244" s="16"/>
+      <c r="J244" s="16"/>
+    </row>
+    <row r="245" spans="9:10">
+      <c r="I245" s="16"/>
+      <c r="J245" s="16"/>
+    </row>
+    <row r="246" spans="9:10">
+      <c r="I246" s="16"/>
+      <c r="J246" s="16"/>
+    </row>
+    <row r="247" spans="9:10">
+      <c r="I247" s="16"/>
+      <c r="J247" s="16"/>
+    </row>
+    <row r="248" spans="9:10">
+      <c r="I248" s="16"/>
+      <c r="J248" s="16"/>
+    </row>
+    <row r="249" spans="9:10">
+      <c r="I249" s="16"/>
+      <c r="J249" s="16"/>
+    </row>
+    <row r="250" spans="9:10">
+      <c r="I250" s="16"/>
+      <c r="J250" s="16"/>
+    </row>
+    <row r="254" spans="7:8">
+      <c r="G254" s="50">
         <v>43249</v>
       </c>
-      <c r="H254" s="2">
+      <c r="H254" s="50">
         <v>43250</v>
       </c>
     </row>
-    <row r="255" spans="7:10">
+    <row r="255" spans="7:8">
       <c r="G255" t="s">
         <v>191</v>
       </c>
@@ -3492,254 +4087,254 @@
         <v>192</v>
       </c>
     </row>
-    <row r="256" spans="7:10">
-      <c r="G256" s="54" t="s">
+    <row r="256" spans="7:8">
+      <c r="G256" s="10" t="s">
         <v>193</v>
       </c>
       <c r="H256" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="257" spans="7:10">
-      <c r="G257" s="54"/>
+    <row r="257" spans="7:7">
+      <c r="G257" s="10"/>
     </row>
     <row r="264" spans="7:10">
-      <c r="G264" s="3">
+      <c r="G264" s="17">
         <v>43252</v>
       </c>
-      <c r="H264" s="18">
+      <c r="H264" s="53">
         <v>43253</v>
       </c>
-      <c r="I264" s="44">
+      <c r="I264" s="17">
         <v>43255</v>
       </c>
-      <c r="J264" s="45"/>
+      <c r="J264" s="53"/>
     </row>
     <row r="265" spans="7:10">
-      <c r="G265" s="1" t="s">
+      <c r="G265" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H265" s="36" t="s">
+      <c r="H265" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="I265" s="36" t="s">
+      <c r="I265" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="J265" s="36"/>
+      <c r="J265" s="16"/>
     </row>
     <row r="266" spans="7:10">
-      <c r="G266" s="36" t="s">
+      <c r="G266" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="H266" s="36"/>
-      <c r="I266" s="36"/>
-      <c r="J266" s="36"/>
+      <c r="H266" s="16"/>
+      <c r="I266" s="16"/>
+      <c r="J266" s="16"/>
     </row>
     <row r="267" spans="7:10">
-      <c r="G267" s="36"/>
-      <c r="H267" s="12" t="s">
+      <c r="G267" s="16"/>
+      <c r="H267" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="I267" s="36"/>
-      <c r="J267" s="36"/>
+      <c r="I267" s="16"/>
+      <c r="J267" s="16"/>
     </row>
     <row r="268" spans="7:10">
-      <c r="G268" s="36"/>
-      <c r="I268" s="36"/>
-      <c r="J268" s="36"/>
+      <c r="G268" s="16"/>
+      <c r="I268" s="16"/>
+      <c r="J268" s="16"/>
     </row>
     <row r="269" spans="7:10">
-      <c r="G269" s="36" t="s">
+      <c r="G269" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="I269" s="36"/>
-      <c r="J269" s="36"/>
-    </row>
-    <row r="270" spans="7:10">
-      <c r="G270" s="36"/>
-    </row>
-    <row r="271" spans="7:10">
-      <c r="G271" s="36" t="s">
+      <c r="I269" s="16"/>
+      <c r="J269" s="16"/>
+    </row>
+    <row r="270" spans="7:7">
+      <c r="G270" s="16"/>
+    </row>
+    <row r="271" spans="7:7">
+      <c r="G271" s="16" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="272" spans="7:10">
-      <c r="G272" s="36"/>
-    </row>
-    <row r="273" spans="7:10">
-      <c r="G273" s="36"/>
-    </row>
-    <row r="274" spans="7:10">
-      <c r="G274" s="36"/>
-    </row>
-    <row r="275" spans="7:10">
-      <c r="G275" s="36"/>
-    </row>
-    <row r="276" spans="7:10">
-      <c r="G276" s="36" t="s">
+    <row r="272" spans="7:7">
+      <c r="G272" s="16"/>
+    </row>
+    <row r="273" spans="7:7">
+      <c r="G273" s="16"/>
+    </row>
+    <row r="274" spans="7:7">
+      <c r="G274" s="16"/>
+    </row>
+    <row r="275" spans="7:7">
+      <c r="G275" s="16"/>
+    </row>
+    <row r="276" spans="7:7">
+      <c r="G276" s="16" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="277" spans="7:10">
-      <c r="G277" s="36"/>
-    </row>
-    <row r="278" spans="7:10">
-      <c r="G278" s="36" t="s">
+    <row r="277" spans="7:7">
+      <c r="G277" s="16"/>
+    </row>
+    <row r="278" spans="7:7">
+      <c r="G278" s="16" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="279" spans="7:10">
-      <c r="G279" s="36"/>
-    </row>
-    <row r="280" spans="7:10">
-      <c r="G280" s="36"/>
+    <row r="279" spans="7:7">
+      <c r="G279" s="16"/>
+    </row>
+    <row r="280" spans="7:7">
+      <c r="G280" s="16"/>
     </row>
     <row r="287" spans="7:10">
-      <c r="G287" s="18">
+      <c r="G287" s="53">
         <v>43256</v>
       </c>
-      <c r="H287" s="18">
+      <c r="H287" s="53">
         <v>43257</v>
       </c>
-      <c r="I287" s="46">
+      <c r="I287" s="21">
         <v>43258</v>
       </c>
-      <c r="J287" s="47"/>
+      <c r="J287" s="59"/>
     </row>
     <row r="288" spans="7:10">
-      <c r="G288" s="36" t="s">
+      <c r="G288" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="H288" s="36" t="s">
+      <c r="H288" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="I288" s="64" t="s">
+      <c r="I288" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J288" s="65"/>
-    </row>
-    <row r="289" spans="7:12">
-      <c r="G289" s="36"/>
-      <c r="H289" s="36"/>
-      <c r="I289" s="66"/>
-      <c r="J289" s="67"/>
-    </row>
-    <row r="290" spans="7:12">
-      <c r="G290" s="36" t="s">
+      <c r="J288" s="7"/>
+    </row>
+    <row r="289" spans="7:10">
+      <c r="G289" s="16"/>
+      <c r="H289" s="16"/>
+      <c r="I289" s="13"/>
+      <c r="J289" s="15"/>
+    </row>
+    <row r="290" spans="7:10">
+      <c r="G290" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H290" s="12" t="s">
+      <c r="H290" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="I290" s="37" t="s">
+      <c r="I290" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="J290" s="48"/>
-    </row>
-    <row r="291" spans="7:12">
-      <c r="G291" s="36"/>
-      <c r="H291" s="12"/>
-      <c r="I291" s="12"/>
-      <c r="J291" s="12"/>
-    </row>
-    <row r="292" spans="7:12">
-      <c r="G292" s="12"/>
-      <c r="H292" s="12"/>
-      <c r="I292" s="12"/>
-      <c r="J292" s="12"/>
-    </row>
-    <row r="297" spans="7:12">
-      <c r="G297" s="2">
+      <c r="J290" s="60"/>
+    </row>
+    <row r="291" spans="7:10">
+      <c r="G291" s="16"/>
+      <c r="H291" s="38"/>
+      <c r="I291" s="38"/>
+      <c r="J291" s="38"/>
+    </row>
+    <row r="292" spans="7:10">
+      <c r="G292" s="38"/>
+      <c r="H292" s="38"/>
+      <c r="I292" s="38"/>
+      <c r="J292" s="38"/>
+    </row>
+    <row r="297" spans="7:7">
+      <c r="G297" s="50">
         <v>43259</v>
       </c>
     </row>
     <row r="298" spans="7:12">
-      <c r="G298" s="54" t="s">
+      <c r="G298" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="L298" s="36" t="s">
+      <c r="L298" s="16" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="299" spans="7:12">
-      <c r="G299" s="54"/>
-      <c r="L299" s="36"/>
+      <c r="G299" s="10"/>
+      <c r="L299" s="16"/>
     </row>
     <row r="300" spans="7:12">
-      <c r="G300" s="54"/>
-      <c r="L300" s="36"/>
+      <c r="G300" s="10"/>
+      <c r="L300" s="16"/>
     </row>
     <row r="301" spans="7:12">
-      <c r="G301" s="54"/>
-      <c r="L301" s="36"/>
-    </row>
-    <row r="302" spans="7:12">
-      <c r="L302" s="36"/>
-    </row>
-    <row r="303" spans="7:12">
-      <c r="L303" s="36"/>
-    </row>
-    <row r="304" spans="7:12">
-      <c r="L304" s="36"/>
-    </row>
-    <row r="305" spans="7:12">
-      <c r="L305" s="14"/>
-    </row>
-    <row r="306" spans="7:12">
-      <c r="L306" s="14"/>
-    </row>
-    <row r="307" spans="7:12">
-      <c r="L307" s="14"/>
-    </row>
-    <row r="308" spans="7:12">
-      <c r="L308" s="14"/>
-    </row>
-    <row r="309" spans="7:12">
-      <c r="L309" s="14"/>
-    </row>
-    <row r="313" spans="7:12">
-      <c r="G313" s="2">
+      <c r="G301" s="10"/>
+      <c r="L301" s="16"/>
+    </row>
+    <row r="302" spans="12:12">
+      <c r="L302" s="16"/>
+    </row>
+    <row r="303" spans="12:12">
+      <c r="L303" s="16"/>
+    </row>
+    <row r="304" spans="12:12">
+      <c r="L304" s="16"/>
+    </row>
+    <row r="305" spans="12:12">
+      <c r="L305" s="42"/>
+    </row>
+    <row r="306" spans="12:12">
+      <c r="L306" s="42"/>
+    </row>
+    <row r="307" spans="12:12">
+      <c r="L307" s="42"/>
+    </row>
+    <row r="308" spans="12:12">
+      <c r="L308" s="42"/>
+    </row>
+    <row r="309" spans="12:12">
+      <c r="L309" s="42"/>
+    </row>
+    <row r="313" spans="7:10">
+      <c r="G313" s="50">
         <v>43271</v>
       </c>
-      <c r="H313" s="2">
+      <c r="H313" s="50">
         <v>43272</v>
       </c>
-      <c r="I313" s="49">
+      <c r="I313" s="61">
         <v>43273</v>
       </c>
       <c r="J313" s="50"/>
     </row>
-    <row r="314" spans="7:12">
-      <c r="G314" s="56" t="s">
+    <row r="314" spans="7:10">
+      <c r="G314" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="H314" s="56" t="s">
+      <c r="H314" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="I314" s="68" t="s">
+      <c r="I314" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="J314" s="24"/>
-    </row>
-    <row r="315" spans="7:12">
-      <c r="G315" s="36"/>
-      <c r="H315" s="36"/>
-      <c r="I315" s="24"/>
-      <c r="J315" s="24"/>
-    </row>
-    <row r="317" spans="7:12">
-      <c r="G317" s="12" t="s">
+      <c r="J314" s="3"/>
+    </row>
+    <row r="315" spans="7:10">
+      <c r="G315" s="16"/>
+      <c r="H315" s="16"/>
+      <c r="I315" s="3"/>
+      <c r="J315" s="3"/>
+    </row>
+    <row r="317" spans="7:10">
+      <c r="G317" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="H317" s="12" t="s">
+      <c r="H317" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="I317" s="24" t="s">
+      <c r="I317" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="J317" s="24"/>
-    </row>
-    <row r="318" spans="7:12">
+      <c r="J317" s="3"/>
+    </row>
+    <row r="318" spans="7:9">
       <c r="G318" t="s">
         <v>218</v>
       </c>
@@ -3748,166 +4343,166 @@
       </c>
     </row>
     <row r="322" spans="7:10">
-      <c r="G322" s="18">
+      <c r="G322" s="53">
         <v>43274</v>
       </c>
-      <c r="H322" s="2">
+      <c r="H322" s="50">
         <v>43276</v>
       </c>
-      <c r="J322" s="2">
+      <c r="J322" s="50">
         <v>43277</v>
       </c>
     </row>
     <row r="323" spans="7:10">
-      <c r="G323" s="36" t="s">
+      <c r="G323" s="16" t="s">
         <v>220</v>
       </c>
       <c r="H323" t="s">
         <v>221</v>
       </c>
-      <c r="I323" s="54" t="s">
+      <c r="I323" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="J323" s="54"/>
+      <c r="J323" s="10"/>
     </row>
     <row r="324" spans="7:10">
-      <c r="G324" s="36"/>
+      <c r="G324" s="16"/>
       <c r="H324" t="s">
         <v>223</v>
       </c>
-      <c r="I324" s="54"/>
-      <c r="J324" s="54"/>
-    </row>
-    <row r="325" spans="7:10">
-      <c r="G325" s="36" t="s">
+      <c r="I324" s="10"/>
+      <c r="J324" s="10"/>
+    </row>
+    <row r="325" spans="7:8">
+      <c r="G325" s="16" t="s">
         <v>224</v>
       </c>
       <c r="H325" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="326" spans="7:10">
-      <c r="G326" s="36"/>
-    </row>
-    <row r="327" spans="7:10">
-      <c r="G327" s="36"/>
-      <c r="H327" s="54" t="s">
+    <row r="326" spans="7:7">
+      <c r="G326" s="16"/>
+    </row>
+    <row r="327" spans="7:8">
+      <c r="G327" s="16"/>
+      <c r="H327" s="10" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="328" spans="7:10">
-      <c r="H328" s="54"/>
-    </row>
-    <row r="329" spans="7:10">
-      <c r="H329" s="54"/>
+    <row r="328" spans="8:8">
+      <c r="H328" s="10"/>
+    </row>
+    <row r="329" spans="8:8">
+      <c r="H329" s="10"/>
     </row>
     <row r="334" spans="7:10">
-      <c r="G334" s="18">
+      <c r="G334" s="53">
         <v>43278</v>
       </c>
-      <c r="H334" s="18">
+      <c r="H334" s="53">
         <v>43279</v>
       </c>
-      <c r="J334" s="2">
+      <c r="J334" s="50">
         <v>43280</v>
       </c>
     </row>
-    <row r="335" spans="7:10">
-      <c r="G335" s="36" t="s">
+    <row r="335" spans="7:8">
+      <c r="G335" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="H335" s="36" t="s">
+      <c r="H335" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="336" spans="7:10">
-      <c r="G336" s="36"/>
-      <c r="H336" s="36"/>
-    </row>
-    <row r="337" spans="7:10">
-      <c r="G337" s="36"/>
-      <c r="H337" s="36"/>
-    </row>
-    <row r="338" spans="7:10">
-      <c r="G338" s="55"/>
-      <c r="H338" s="36" t="s">
+    <row r="336" spans="7:8">
+      <c r="G336" s="16"/>
+      <c r="H336" s="16"/>
+    </row>
+    <row r="337" spans="7:8">
+      <c r="G337" s="16"/>
+      <c r="H337" s="16"/>
+    </row>
+    <row r="338" spans="7:8">
+      <c r="G338" s="54"/>
+      <c r="H338" s="16" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="339" spans="7:10">
-      <c r="G339" s="55" t="s">
+    <row r="339" spans="7:8">
+      <c r="G339" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="H339" s="36"/>
-    </row>
-    <row r="340" spans="7:10">
-      <c r="G340" s="55"/>
-      <c r="H340" s="36"/>
-    </row>
-    <row r="341" spans="7:10">
-      <c r="H341" s="36"/>
-    </row>
-    <row r="342" spans="7:10">
-      <c r="H342" s="36"/>
+      <c r="H339" s="16"/>
+    </row>
+    <row r="340" spans="7:8">
+      <c r="G340" s="54"/>
+      <c r="H340" s="16"/>
+    </row>
+    <row r="341" spans="8:8">
+      <c r="H341" s="16"/>
+    </row>
+    <row r="342" spans="8:8">
+      <c r="H342" s="16"/>
     </row>
     <row r="345" spans="7:10">
-      <c r="G345" s="20">
+      <c r="G345" s="63">
         <v>43281</v>
       </c>
-      <c r="H345" s="2">
+      <c r="H345" s="50">
         <v>43283</v>
       </c>
-      <c r="I345" s="49">
+      <c r="I345" s="61">
         <v>43285</v>
       </c>
       <c r="J345" s="50"/>
     </row>
     <row r="346" spans="7:10">
-      <c r="G346" s="57" t="s">
+      <c r="G346" s="64" t="s">
         <v>231</v>
       </c>
-      <c r="H346" s="54" t="s">
+      <c r="H346" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="I346" s="54" t="s">
+      <c r="I346" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="J346" s="54"/>
+      <c r="J346" s="10"/>
     </row>
     <row r="347" spans="7:10">
-      <c r="G347" s="57"/>
-      <c r="H347" s="54"/>
-      <c r="I347" s="54"/>
-      <c r="J347" s="54"/>
-    </row>
-    <row r="348" spans="7:10">
-      <c r="G348" s="57"/>
-    </row>
-    <row r="349" spans="7:10">
-      <c r="G349" s="57"/>
-    </row>
-    <row r="350" spans="7:10">
-      <c r="G350" s="57"/>
-    </row>
-    <row r="351" spans="7:10">
-      <c r="G351" s="57"/>
-    </row>
-    <row r="352" spans="7:10">
-      <c r="G352" s="57"/>
-    </row>
-    <row r="353" spans="7:10">
-      <c r="G353" s="57" t="s">
+      <c r="G347" s="64"/>
+      <c r="H347" s="10"/>
+      <c r="I347" s="10"/>
+      <c r="J347" s="10"/>
+    </row>
+    <row r="348" spans="7:7">
+      <c r="G348" s="64"/>
+    </row>
+    <row r="349" spans="7:7">
+      <c r="G349" s="64"/>
+    </row>
+    <row r="350" spans="7:7">
+      <c r="G350" s="64"/>
+    </row>
+    <row r="351" spans="7:7">
+      <c r="G351" s="64"/>
+    </row>
+    <row r="352" spans="7:7">
+      <c r="G352" s="64"/>
+    </row>
+    <row r="353" spans="7:7">
+      <c r="G353" s="64" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="354" spans="7:10">
-      <c r="G354" s="57"/>
+    <row r="354" spans="7:7">
+      <c r="G354" s="64"/>
     </row>
     <row r="357" spans="7:10">
-      <c r="G357" s="2">
+      <c r="G357" s="50">
         <v>43286</v>
       </c>
-      <c r="J357" s="2">
+      <c r="J357" s="50">
         <v>43288</v>
       </c>
     </row>
@@ -3915,64 +4510,64 @@
       <c r="G358" t="s">
         <v>235</v>
       </c>
-      <c r="I358" s="54" t="s">
+      <c r="I358" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="J358" s="54"/>
+      <c r="J358" s="10"/>
     </row>
     <row r="359" spans="7:10">
       <c r="G359" t="s">
         <v>237</v>
       </c>
-      <c r="I359" s="54"/>
-      <c r="J359" s="54"/>
-    </row>
-    <row r="365" spans="7:10">
-      <c r="G365" s="2">
+      <c r="I359" s="10"/>
+      <c r="J359" s="10"/>
+    </row>
+    <row r="365" spans="7:8">
+      <c r="G365" s="50">
         <v>43292</v>
       </c>
-      <c r="H365" s="18">
+      <c r="H365" s="53">
         <v>43293</v>
       </c>
     </row>
-    <row r="366" spans="7:10">
-      <c r="G366" s="54" t="s">
+    <row r="366" spans="7:8">
+      <c r="G366" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="H366" s="36" t="s">
+      <c r="H366" s="16" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="367" spans="7:10">
-      <c r="G367" s="54"/>
-      <c r="H367" s="36"/>
-    </row>
-    <row r="368" spans="7:10">
-      <c r="G368" s="54" t="s">
+    <row r="367" spans="7:8">
+      <c r="G367" s="10"/>
+      <c r="H367" s="16"/>
+    </row>
+    <row r="368" spans="7:8">
+      <c r="G368" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="H368" s="36"/>
-    </row>
-    <row r="369" spans="7:10">
-      <c r="G369" s="54"/>
-      <c r="H369" s="36"/>
+      <c r="H368" s="16"/>
+    </row>
+    <row r="369" spans="7:8">
+      <c r="G369" s="10"/>
+      <c r="H369" s="16"/>
     </row>
     <row r="374" spans="7:10">
-      <c r="G374" s="2">
+      <c r="G374" s="50">
         <v>43307</v>
       </c>
-      <c r="H374" s="18">
+      <c r="H374" s="53">
         <v>43308</v>
       </c>
-      <c r="J374" s="2">
+      <c r="J374" s="50">
         <v>43311</v>
       </c>
     </row>
     <row r="375" spans="7:10">
-      <c r="G375" s="54" t="s">
+      <c r="G375" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="H375" s="36" t="s">
+      <c r="H375" s="16" t="s">
         <v>242</v>
       </c>
       <c r="J375" t="s">
@@ -3980,42 +4575,42 @@
       </c>
     </row>
     <row r="376" spans="7:10">
-      <c r="G376" s="54"/>
-      <c r="H376" s="36"/>
+      <c r="G376" s="10"/>
+      <c r="H376" s="16"/>
       <c r="J376" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="377" spans="7:10">
-      <c r="G377" s="54"/>
-      <c r="H377" s="12" t="s">
+    <row r="377" spans="7:8">
+      <c r="G377" s="10"/>
+      <c r="H377" s="38" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="378" spans="7:10">
-      <c r="H378" s="36" t="s">
+    <row r="378" spans="8:8">
+      <c r="H378" s="16" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="379" spans="7:10">
-      <c r="H379" s="36"/>
+    <row r="379" spans="8:8">
+      <c r="H379" s="16"/>
     </row>
     <row r="384" spans="7:10">
-      <c r="G384" s="18">
+      <c r="G384" s="53">
         <v>43312</v>
       </c>
-      <c r="H384" s="2">
+      <c r="H384" s="50">
         <v>43313</v>
       </c>
-      <c r="J384" s="2">
+      <c r="J384" s="50">
         <v>43314</v>
       </c>
     </row>
     <row r="385" spans="7:10">
-      <c r="G385" s="12" t="s">
+      <c r="G385" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="H385" s="54" t="s">
+      <c r="H385" s="10" t="s">
         <v>248</v>
       </c>
       <c r="J385" t="s">
@@ -4023,40 +4618,40 @@
       </c>
     </row>
     <row r="386" spans="7:10">
-      <c r="G386" s="12" t="s">
+      <c r="G386" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="H386" s="54"/>
-      <c r="J386" s="54" t="s">
+      <c r="H386" s="10"/>
+      <c r="J386" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="387" spans="7:10">
-      <c r="G387" s="12" t="s">
+      <c r="G387" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="H387" s="54"/>
-      <c r="J387" s="54"/>
-    </row>
-    <row r="388" spans="7:10">
-      <c r="H388" s="54" t="s">
+      <c r="H387" s="10"/>
+      <c r="J387" s="10"/>
+    </row>
+    <row r="388" spans="8:10">
+      <c r="H388" s="10" t="s">
         <v>253</v>
       </c>
       <c r="J388" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="389" spans="7:10">
-      <c r="H389" s="54"/>
+    <row r="389" spans="8:8">
+      <c r="H389" s="10"/>
     </row>
     <row r="393" spans="7:10">
-      <c r="G393" s="2">
+      <c r="G393" s="50">
         <v>43315</v>
       </c>
-      <c r="H393" s="2">
+      <c r="H393" s="50">
         <v>43316</v>
       </c>
-      <c r="J393" s="2">
+      <c r="J393" s="50">
         <v>43318</v>
       </c>
     </row>
@@ -4064,132 +4659,131 @@
       <c r="G394" t="s">
         <v>255</v>
       </c>
-      <c r="H394" s="54" t="s">
+      <c r="H394" s="10" t="s">
         <v>256</v>
       </c>
       <c r="J394" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="395" spans="7:10">
+    <row r="395" spans="7:8">
       <c r="G395" t="s">
         <v>258</v>
       </c>
-      <c r="H395" s="54"/>
-    </row>
-    <row r="396" spans="7:10">
-      <c r="G396" s="54" t="s">
+      <c r="H395" s="10"/>
+    </row>
+    <row r="396" spans="7:8">
+      <c r="G396" s="10" t="s">
         <v>259</v>
       </c>
       <c r="H396" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="397" spans="7:10">
-      <c r="G397" s="54"/>
+    <row r="397" spans="7:7">
+      <c r="G397" s="10"/>
     </row>
     <row r="401" spans="7:10">
-      <c r="G401" s="2">
+      <c r="G401" s="50">
         <v>43319</v>
       </c>
-      <c r="H401" s="2">
+      <c r="H401" s="50">
         <v>43320</v>
       </c>
-      <c r="J401" s="2">
+      <c r="J401" s="50">
         <v>43321</v>
       </c>
     </row>
     <row r="402" spans="7:10">
-      <c r="G402" s="54" t="s">
+      <c r="G402" s="10" t="s">
         <v>261</v>
       </c>
       <c r="H402" t="s">
         <v>262</v>
       </c>
-      <c r="I402" s="54" t="s">
+      <c r="I402" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="J402" s="54"/>
+      <c r="J402" s="10"/>
     </row>
     <row r="403" spans="7:10">
-      <c r="G403" s="54"/>
-      <c r="I403" s="54"/>
-      <c r="J403" s="54"/>
+      <c r="G403" s="10"/>
+      <c r="I403" s="10"/>
+      <c r="J403" s="10"/>
     </row>
     <row r="404" spans="7:10">
-      <c r="G404" s="54" t="s">
+      <c r="G404" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="I404" s="54" t="s">
+      <c r="I404" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="J404" s="54"/>
+      <c r="J404" s="10"/>
     </row>
     <row r="405" spans="7:10">
-      <c r="G405" s="54"/>
-      <c r="I405" s="54"/>
-      <c r="J405" s="54"/>
+      <c r="G405" s="10"/>
+      <c r="I405" s="10"/>
+      <c r="J405" s="10"/>
     </row>
     <row r="406" spans="7:10">
-      <c r="G406" s="54" t="s">
+      <c r="G406" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="I406" s="54" t="s">
+      <c r="I406" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="J406" s="54"/>
+      <c r="J406" s="10"/>
     </row>
     <row r="407" spans="7:10">
-      <c r="G407" s="54"/>
-      <c r="I407" s="54"/>
-      <c r="J407" s="54"/>
-    </row>
-    <row r="408" spans="7:10">
-      <c r="I408" s="54"/>
-      <c r="J408" s="54"/>
-    </row>
-    <row r="409" spans="7:10">
-      <c r="I409" s="42" t="s">
+      <c r="G407" s="10"/>
+      <c r="I407" s="10"/>
+      <c r="J407" s="10"/>
+    </row>
+    <row r="408" spans="9:10">
+      <c r="I408" s="10"/>
+      <c r="J408" s="10"/>
+    </row>
+    <row r="409" spans="9:9">
+      <c r="I409" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="J409" s="43"/>
-    </row>
-    <row r="414" spans="7:10">
-      <c r="G414" s="2">
+    </row>
+    <row r="414" spans="7:8">
+      <c r="G414" s="50">
         <v>43322</v>
       </c>
       <c r="H414" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="415" spans="7:10">
-      <c r="G415" s="54" t="s">
+    <row r="415" spans="7:7">
+      <c r="G415" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="416" spans="7:10">
-      <c r="G416" s="54"/>
-    </row>
-    <row r="417" spans="7:13">
-      <c r="G417" s="54" t="s">
+    <row r="416" spans="7:7">
+      <c r="G416" s="10"/>
+    </row>
+    <row r="417" spans="7:7">
+      <c r="G417" s="10" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="418" spans="7:13">
-      <c r="G418" s="54"/>
-    </row>
-    <row r="423" spans="7:13">
-      <c r="G423" s="2">
+    <row r="418" spans="7:7">
+      <c r="G418" s="10"/>
+    </row>
+    <row r="423" spans="7:10">
+      <c r="G423" s="50">
         <v>43325</v>
       </c>
-      <c r="H423" s="2">
+      <c r="H423" s="50">
         <v>43326</v>
       </c>
-      <c r="J423" s="2">
+      <c r="J423" s="50">
         <v>43327</v>
       </c>
     </row>
-    <row r="424" spans="7:13">
+    <row r="424" spans="7:10">
       <c r="G424" t="s">
         <v>272</v>
       </c>
@@ -4200,350 +4794,350 @@
         <v>274</v>
       </c>
     </row>
-    <row r="425" spans="7:13">
+    <row r="425" spans="8:8">
       <c r="H425" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="426" spans="7:13">
+    <row r="426" spans="8:8">
       <c r="H426" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="432" spans="7:13">
-      <c r="G432" s="2">
+      <c r="G432" s="50">
         <v>43328</v>
       </c>
-      <c r="H432" s="2">
+      <c r="H432" s="50">
         <v>43329</v>
       </c>
-      <c r="I432" s="51">
+      <c r="I432" s="67">
         <v>43330</v>
       </c>
-      <c r="J432" s="52"/>
-      <c r="K432" s="23"/>
-      <c r="L432" s="22" t="s">
+      <c r="J432" s="65"/>
+      <c r="K432" s="68"/>
+      <c r="L432" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="M432" s="22" t="s">
+      <c r="M432" s="66" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="433" spans="5:13">
-      <c r="G433" s="54" t="s">
+    <row r="433" spans="7:13">
+      <c r="G433" s="10" t="s">
         <v>279</v>
       </c>
       <c r="H433" t="s">
         <v>280</v>
       </c>
-      <c r="I433" s="36" t="s">
+      <c r="I433" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="J433" s="55"/>
-      <c r="K433" s="12" t="s">
+      <c r="J433" s="54"/>
+      <c r="K433" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="L433" s="1">
+      <c r="L433" s="3">
         <v>1790015</v>
       </c>
-      <c r="M433" s="1">
+      <c r="M433" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="434" spans="5:13">
-      <c r="G434" s="54"/>
+    <row r="434" spans="7:13">
+      <c r="G434" s="10"/>
       <c r="H434" t="s">
         <v>283</v>
       </c>
-      <c r="I434" s="36"/>
-      <c r="J434" s="55"/>
-      <c r="K434" s="12" t="s">
+      <c r="I434" s="16"/>
+      <c r="J434" s="54"/>
+      <c r="K434" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="L434" s="1">
+      <c r="L434" s="3">
         <v>1790609</v>
       </c>
-      <c r="M434" s="1">
+      <c r="M434" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="435" spans="5:13">
+    <row r="435" spans="7:13">
       <c r="G435" t="s">
         <v>285</v>
       </c>
-      <c r="H435" s="54" t="s">
+      <c r="H435" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="I435" s="36"/>
-      <c r="J435" s="36"/>
-      <c r="K435" s="26" t="s">
+      <c r="I435" s="16"/>
+      <c r="J435" s="16"/>
+      <c r="K435" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="L435" s="26"/>
-      <c r="M435" s="26"/>
-    </row>
-    <row r="436" spans="5:13">
-      <c r="G436" s="54" t="s">
+      <c r="L435" s="35"/>
+      <c r="M435" s="35"/>
+    </row>
+    <row r="436" spans="7:10">
+      <c r="G436" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="H436" s="54"/>
-      <c r="I436" s="36" t="s">
+      <c r="H436" s="10"/>
+      <c r="I436" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J436" s="36"/>
-    </row>
-    <row r="437" spans="5:13">
-      <c r="G437" s="54"/>
+      <c r="J436" s="16"/>
+    </row>
+    <row r="437" spans="7:10">
+      <c r="G437" s="10"/>
       <c r="H437" t="s">
         <v>290</v>
       </c>
-      <c r="I437" s="36"/>
-      <c r="J437" s="36"/>
-    </row>
-    <row r="438" spans="5:13">
-      <c r="I438" s="36"/>
-      <c r="J438" s="36"/>
-    </row>
-    <row r="439" spans="5:13">
-      <c r="I439" s="36"/>
-      <c r="J439" s="36"/>
-    </row>
-    <row r="440" spans="5:13">
-      <c r="I440" s="36"/>
-      <c r="J440" s="36"/>
-    </row>
-    <row r="441" spans="5:13">
-      <c r="I441" s="36"/>
-      <c r="J441" s="36"/>
-    </row>
-    <row r="446" spans="5:13">
-      <c r="E446" s="21">
+      <c r="I437" s="16"/>
+      <c r="J437" s="16"/>
+    </row>
+    <row r="438" spans="9:10">
+      <c r="I438" s="16"/>
+      <c r="J438" s="16"/>
+    </row>
+    <row r="439" spans="9:10">
+      <c r="I439" s="16"/>
+      <c r="J439" s="16"/>
+    </row>
+    <row r="440" spans="9:10">
+      <c r="I440" s="16"/>
+      <c r="J440" s="16"/>
+    </row>
+    <row r="441" spans="9:10">
+      <c r="I441" s="16"/>
+      <c r="J441" s="16"/>
+    </row>
+    <row r="446" spans="5:10">
+      <c r="E446" s="65">
         <v>43332</v>
       </c>
-      <c r="F446" s="22" t="s">
+      <c r="F446" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="G446" s="22" t="s">
+      <c r="G446" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="H446" s="2">
+      <c r="H446" s="50">
         <v>43333</v>
       </c>
-      <c r="J446" s="2">
+      <c r="J446" s="50">
         <v>43334</v>
       </c>
     </row>
-    <row r="447" spans="5:13">
-      <c r="E447" s="12" t="s">
+    <row r="447" spans="5:10">
+      <c r="E447" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="F447" s="1">
+      <c r="F447" s="3">
         <v>2287467</v>
       </c>
-      <c r="G447" s="1">
+      <c r="G447" s="3">
         <v>122</v>
       </c>
       <c r="H447" t="s">
         <v>291</v>
       </c>
-      <c r="I447" s="54" t="s">
+      <c r="I447" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="J447" s="54"/>
-    </row>
-    <row r="448" spans="5:13">
-      <c r="E448" s="12" t="s">
+      <c r="J447" s="10"/>
+    </row>
+    <row r="448" spans="5:10">
+      <c r="E448" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="F448" s="1">
+      <c r="F448" s="3">
         <v>2287003</v>
       </c>
-      <c r="G448" s="1">
+      <c r="G448" s="3">
         <v>56</v>
       </c>
-      <c r="I448" s="54"/>
-      <c r="J448" s="54"/>
+      <c r="I448" s="10"/>
+      <c r="J448" s="10"/>
     </row>
     <row r="449" spans="5:10">
-      <c r="E449" s="26" t="s">
+      <c r="E449" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="F449" s="26"/>
-      <c r="G449" s="26"/>
-      <c r="I449" s="54"/>
-      <c r="J449" s="54"/>
-    </row>
-    <row r="451" spans="5:10">
+      <c r="F449" s="35"/>
+      <c r="G449" s="35"/>
+      <c r="I449" s="10"/>
+      <c r="J449" s="10"/>
+    </row>
+    <row r="451" spans="5:5">
       <c r="E451" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="458" spans="5:10">
-      <c r="F458" s="44">
+    <row r="458" spans="6:10">
+      <c r="F458" s="17">
         <v>43335</v>
       </c>
-      <c r="G458" s="53"/>
-      <c r="H458" s="18">
+      <c r="G458" s="52"/>
+      <c r="H458" s="53">
         <v>43336</v>
       </c>
-      <c r="J458" s="2">
+      <c r="J458" s="50">
         <v>43337</v>
       </c>
     </row>
-    <row r="459" spans="5:10">
-      <c r="F459" s="24" t="s">
+    <row r="459" spans="6:10">
+      <c r="F459" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G459" s="30"/>
-      <c r="H459" s="12" t="s">
+      <c r="G459" s="37"/>
+      <c r="H459" s="38" t="s">
         <v>295</v>
       </c>
       <c r="J459" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="460" spans="5:10">
-      <c r="F460" s="36" t="s">
+    <row r="460" spans="6:10">
+      <c r="F460" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="G460" s="55"/>
-      <c r="H460" s="36" t="s">
+      <c r="G460" s="54"/>
+      <c r="H460" s="16" t="s">
         <v>298</v>
       </c>
       <c r="J460" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="461" spans="5:10">
-      <c r="F461" s="36"/>
-      <c r="G461" s="55"/>
-      <c r="H461" s="36"/>
+    <row r="461" spans="6:10">
+      <c r="F461" s="16"/>
+      <c r="G461" s="54"/>
+      <c r="H461" s="16"/>
       <c r="J461" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="462" spans="5:10">
-      <c r="F462" s="36" t="s">
+    <row r="462" spans="6:10">
+      <c r="F462" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="G462" s="55"/>
-      <c r="H462" s="36"/>
+      <c r="G462" s="54"/>
+      <c r="H462" s="16"/>
       <c r="J462" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="463" spans="5:10">
-      <c r="F463" s="36"/>
-      <c r="G463" s="55"/>
-      <c r="H463" s="36" t="s">
+    <row r="463" spans="6:10">
+      <c r="F463" s="16"/>
+      <c r="G463" s="54"/>
+      <c r="H463" s="16" t="s">
         <v>303</v>
       </c>
       <c r="J463" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="464" spans="5:10">
-      <c r="H464" s="36"/>
-    </row>
-    <row r="465" spans="6:10">
-      <c r="H465" s="12" t="s">
+    <row r="464" spans="8:8">
+      <c r="H464" s="16"/>
+    </row>
+    <row r="465" spans="8:8">
+      <c r="H465" s="38" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="470" spans="6:10">
-      <c r="F470" s="44">
+      <c r="F470" s="17">
         <v>43339</v>
       </c>
-      <c r="G470" s="45"/>
-      <c r="H470" s="18">
+      <c r="G470" s="53"/>
+      <c r="H470" s="53">
         <v>43340</v>
       </c>
-      <c r="J470" s="2">
+      <c r="J470" s="50">
         <v>43341</v>
       </c>
     </row>
     <row r="471" spans="6:10">
-      <c r="F471" s="24" t="s">
+      <c r="F471" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G471" s="31"/>
-      <c r="H471" s="36" t="s">
+      <c r="G471" s="38"/>
+      <c r="H471" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="I471" s="54" t="s">
+      <c r="I471" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="J471" s="54"/>
+      <c r="J471" s="10"/>
     </row>
     <row r="472" spans="6:10">
-      <c r="F472" s="24" t="s">
+      <c r="F472" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G472" s="31"/>
-      <c r="H472" s="36"/>
-      <c r="I472" s="54"/>
-      <c r="J472" s="54"/>
+      <c r="G472" s="38"/>
+      <c r="H472" s="16"/>
+      <c r="I472" s="10"/>
+      <c r="J472" s="10"/>
     </row>
     <row r="473" spans="6:10">
-      <c r="F473" s="36" t="s">
+      <c r="F473" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="G473" s="36"/>
-      <c r="H473" s="36"/>
-      <c r="I473" s="54"/>
-      <c r="J473" s="54"/>
+      <c r="G473" s="16"/>
+      <c r="H473" s="16"/>
+      <c r="I473" s="10"/>
+      <c r="J473" s="10"/>
     </row>
     <row r="474" spans="6:10">
-      <c r="F474" s="36"/>
-      <c r="G474" s="36"/>
-      <c r="H474" s="36"/>
-      <c r="I474" s="54"/>
-      <c r="J474" s="54"/>
+      <c r="F474" s="16"/>
+      <c r="G474" s="16"/>
+      <c r="H474" s="16"/>
+      <c r="I474" s="10"/>
+      <c r="J474" s="10"/>
     </row>
     <row r="475" spans="6:10">
-      <c r="F475" s="36" t="s">
+      <c r="F475" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="G475" s="36"/>
-      <c r="H475" s="36" t="s">
+      <c r="G475" s="16"/>
+      <c r="H475" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="I475" s="54"/>
-      <c r="J475" s="54"/>
+      <c r="I475" s="10"/>
+      <c r="J475" s="10"/>
     </row>
     <row r="476" spans="6:10">
-      <c r="F476" s="36"/>
-      <c r="G476" s="36"/>
-      <c r="H476" s="41"/>
-      <c r="I476" s="54"/>
-      <c r="J476" s="54"/>
-    </row>
-    <row r="477" spans="6:10">
-      <c r="F477" s="24" t="s">
+      <c r="F476" s="16"/>
+      <c r="G476" s="16"/>
+      <c r="H476" s="47"/>
+      <c r="I476" s="10"/>
+      <c r="J476" s="10"/>
+    </row>
+    <row r="477" spans="6:8">
+      <c r="F477" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G477" s="31"/>
-      <c r="H477" s="12" t="s">
+      <c r="G477" s="38"/>
+      <c r="H477" s="38" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="478" spans="6:10" ht="27">
-      <c r="F478" s="24" t="s">
+    <row r="478" ht="27" spans="6:8">
+      <c r="F478" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="G478" s="31"/>
-      <c r="H478" s="16" t="s">
+      <c r="G478" s="38"/>
+      <c r="H478" s="47" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="482" spans="7:10">
-      <c r="G482" s="2">
+      <c r="G482" s="50">
         <v>43342</v>
       </c>
-      <c r="H482" s="2">
+      <c r="H482" s="50">
         <v>43343</v>
       </c>
-      <c r="J482" s="2">
+      <c r="J482" s="50">
         <v>43344</v>
       </c>
     </row>
@@ -4554,10 +5148,10 @@
       <c r="H483" t="s">
         <v>318</v>
       </c>
-      <c r="I483" s="54" t="s">
+      <c r="I483" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="J483" s="54"/>
+      <c r="J483" s="10"/>
     </row>
     <row r="484" spans="7:10">
       <c r="G484" t="s">
@@ -4566,94 +5160,93 @@
       <c r="H484" t="s">
         <v>321</v>
       </c>
-      <c r="I484" s="54"/>
-      <c r="J484" s="54"/>
+      <c r="I484" s="10"/>
+      <c r="J484" s="10"/>
     </row>
     <row r="485" spans="7:10">
       <c r="G485" t="s">
         <v>322</v>
       </c>
-      <c r="H485" s="54" t="s">
+      <c r="H485" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="I485" s="54" t="s">
+      <c r="I485" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="J485" s="54"/>
+      <c r="J485" s="10"/>
     </row>
     <row r="486" spans="7:10">
-      <c r="G486" s="54" t="s">
+      <c r="G486" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="H486" s="54"/>
-      <c r="I486" s="54"/>
-      <c r="J486" s="54"/>
+      <c r="H486" s="10"/>
+      <c r="I486" s="10"/>
+      <c r="J486" s="10"/>
     </row>
     <row r="487" spans="7:10">
-      <c r="G487" s="54"/>
+      <c r="G487" s="10"/>
       <c r="H487" t="s">
         <v>326</v>
       </c>
-      <c r="I487" s="42" t="s">
+      <c r="I487" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="J487" s="42"/>
+      <c r="J487" s="36"/>
     </row>
     <row r="488" spans="7:10">
-      <c r="G488" s="54"/>
-      <c r="H488" s="54" t="s">
+      <c r="G488" s="10"/>
+      <c r="H488" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="I488" s="54" t="s">
+      <c r="I488" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="J488" s="54"/>
+      <c r="J488" s="10"/>
     </row>
     <row r="489" spans="7:10">
-      <c r="G489" s="54" t="s">
+      <c r="G489" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="H489" s="54"/>
-      <c r="I489" s="54"/>
-      <c r="J489" s="54"/>
-    </row>
-    <row r="490" spans="7:10">
-      <c r="G490" s="54"/>
-      <c r="H490" s="54" t="s">
+      <c r="H489" s="10"/>
+      <c r="I489" s="10"/>
+      <c r="J489" s="10"/>
+    </row>
+    <row r="490" spans="7:9">
+      <c r="G490" s="10"/>
+      <c r="H490" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="I490" s="42" t="s">
+      <c r="I490" s="36" t="s">
         <v>332</v>
       </c>
-      <c r="J490" s="43"/>
-    </row>
-    <row r="491" spans="7:10">
-      <c r="H491" s="54"/>
-    </row>
-    <row r="492" spans="7:10">
-      <c r="H492" s="54" t="s">
+    </row>
+    <row r="491" spans="8:8">
+      <c r="H491" s="10"/>
+    </row>
+    <row r="492" spans="8:8">
+      <c r="H492" s="10" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="493" spans="7:10">
-      <c r="H493" s="54"/>
-    </row>
-    <row r="494" spans="7:10">
-      <c r="H494" s="54" t="s">
+    <row r="493" spans="8:8">
+      <c r="H493" s="10"/>
+    </row>
+    <row r="494" spans="8:8">
+      <c r="H494" s="10" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="495" spans="7:10">
-      <c r="H495" s="54"/>
+    <row r="495" spans="8:8">
+      <c r="H495" s="10"/>
     </row>
     <row r="500" spans="7:10">
-      <c r="G500" s="2">
+      <c r="G500" s="50">
         <v>43346</v>
       </c>
-      <c r="H500" s="2">
+      <c r="H500" s="50">
         <v>43347</v>
       </c>
-      <c r="J500" s="2">
+      <c r="J500" s="50">
         <v>43348</v>
       </c>
     </row>
@@ -4664,112 +5257,112 @@
       <c r="H501" t="s">
         <v>336</v>
       </c>
-      <c r="I501" s="54" t="s">
+      <c r="I501" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="J501" s="54"/>
-    </row>
-    <row r="502" spans="7:10">
+      <c r="J501" s="10"/>
+    </row>
+    <row r="502" spans="8:10">
       <c r="H502" t="s">
         <v>338</v>
       </c>
-      <c r="I502" s="54"/>
-      <c r="J502" s="54"/>
-    </row>
-    <row r="503" spans="7:10">
+      <c r="I502" s="10"/>
+      <c r="J502" s="10"/>
+    </row>
+    <row r="503" spans="8:10">
       <c r="H503" t="s">
         <v>339</v>
       </c>
-      <c r="I503" s="54" t="s">
+      <c r="I503" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="J503" s="54"/>
-    </row>
-    <row r="504" spans="7:10">
-      <c r="H504" s="54" t="s">
+      <c r="J503" s="10"/>
+    </row>
+    <row r="504" spans="8:10">
+      <c r="H504" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="I504" s="54"/>
-      <c r="J504" s="54"/>
-    </row>
-    <row r="505" spans="7:10">
-      <c r="H505" s="54"/>
-      <c r="I505" s="54"/>
-      <c r="J505" s="54"/>
+      <c r="I504" s="10"/>
+      <c r="J504" s="10"/>
+    </row>
+    <row r="505" spans="8:10">
+      <c r="H505" s="10"/>
+      <c r="I505" s="10"/>
+      <c r="J505" s="10"/>
     </row>
     <row r="512" spans="7:10">
-      <c r="G512" s="2">
+      <c r="G512" s="50">
         <v>43349</v>
       </c>
-      <c r="H512" s="2">
+      <c r="H512" s="50">
         <v>43350</v>
       </c>
-      <c r="J512" s="2">
+      <c r="J512" s="50">
         <v>43351</v>
       </c>
     </row>
     <row r="513" spans="7:10">
-      <c r="G513" s="54" t="s">
+      <c r="G513" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="H513" s="54" t="s">
+      <c r="H513" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="I513" s="36" t="s">
+      <c r="I513" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="J513" s="36"/>
+      <c r="J513" s="16"/>
     </row>
     <row r="514" spans="7:10">
-      <c r="G514" s="54"/>
-      <c r="H514" s="54"/>
-      <c r="I514" s="36"/>
-      <c r="J514" s="36"/>
+      <c r="G514" s="10"/>
+      <c r="H514" s="10"/>
+      <c r="I514" s="16"/>
+      <c r="J514" s="16"/>
     </row>
     <row r="515" spans="7:10">
       <c r="G515" t="s">
         <v>345</v>
       </c>
-      <c r="H515" s="42" t="s">
+      <c r="H515" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="I515" s="36"/>
-      <c r="J515" s="36"/>
+      <c r="I515" s="16"/>
+      <c r="J515" s="16"/>
     </row>
     <row r="516" spans="7:10">
       <c r="G516" t="s">
         <v>347</v>
       </c>
-      <c r="H516" s="42"/>
-      <c r="I516" s="36"/>
-      <c r="J516" s="36"/>
+      <c r="H516" s="36"/>
+      <c r="I516" s="16"/>
+      <c r="J516" s="16"/>
     </row>
     <row r="517" spans="7:10">
-      <c r="G517" s="54" t="s">
+      <c r="G517" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="I517" s="36"/>
-      <c r="J517" s="36"/>
-    </row>
-    <row r="518" spans="7:10">
-      <c r="G518" s="54"/>
-    </row>
-    <row r="519" spans="7:10">
-      <c r="G519" s="54" t="s">
+      <c r="I517" s="16"/>
+      <c r="J517" s="16"/>
+    </row>
+    <row r="518" spans="7:7">
+      <c r="G518" s="10"/>
+    </row>
+    <row r="519" spans="7:7">
+      <c r="G519" s="10" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="520" spans="7:10">
-      <c r="G520" s="54"/>
+    <row r="520" spans="7:7">
+      <c r="G520" s="10"/>
     </row>
     <row r="527" spans="7:10">
-      <c r="G527" s="2">
+      <c r="G527" s="50">
         <v>43353</v>
       </c>
-      <c r="H527" s="2">
+      <c r="H527" s="50">
         <v>43354</v>
       </c>
-      <c r="J527" s="2">
+      <c r="J527" s="50">
         <v>43355</v>
       </c>
     </row>
@@ -4777,45 +5370,45 @@
       <c r="G528" t="s">
         <v>350</v>
       </c>
-      <c r="H528" s="54" t="s">
+      <c r="H528" s="10" t="s">
         <v>351</v>
       </c>
       <c r="J528" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="529" spans="7:10">
-      <c r="H529" s="54"/>
+    <row r="529" spans="8:10">
+      <c r="H529" s="10"/>
       <c r="J529" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="530" spans="7:10">
-      <c r="H530" s="54"/>
-    </row>
-    <row r="531" spans="7:10">
+    <row r="530" spans="8:8">
+      <c r="H530" s="10"/>
+    </row>
+    <row r="531" spans="8:8">
       <c r="H531" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="532" spans="7:10">
+    <row r="532" spans="8:8">
       <c r="H532" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="536" spans="7:10">
-      <c r="G536" s="2">
+      <c r="G536" s="50">
         <v>43356</v>
       </c>
-      <c r="H536" s="2">
+      <c r="H536" s="50">
         <v>43357</v>
       </c>
-      <c r="J536" s="2">
+      <c r="J536" s="50">
         <v>43358</v>
       </c>
     </row>
     <row r="537" spans="7:10">
-      <c r="G537" s="54" t="s">
+      <c r="G537" s="10" t="s">
         <v>356</v>
       </c>
       <c r="H537" t="s">
@@ -4825,80 +5418,80 @@
         <v>358</v>
       </c>
     </row>
-    <row r="538" spans="7:10">
-      <c r="G538" s="54"/>
-    </row>
-    <row r="546" spans="7:12">
-      <c r="G546" s="2">
+    <row r="538" spans="7:7">
+      <c r="G538" s="10"/>
+    </row>
+    <row r="546" spans="7:10">
+      <c r="G546" s="50">
         <v>43361</v>
       </c>
-      <c r="H546" s="2">
+      <c r="H546" s="50">
         <v>43362</v>
       </c>
-      <c r="J546" s="2">
+      <c r="J546" s="50">
         <v>43363</v>
       </c>
     </row>
     <row r="547" spans="7:12">
-      <c r="G547" s="54" t="s">
+      <c r="G547" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="H547" s="54" t="s">
+      <c r="H547" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="I547" s="42" t="s">
+      <c r="I547" s="36" t="s">
         <v>361</v>
       </c>
-      <c r="J547" s="42"/>
-      <c r="K547" s="42"/>
-      <c r="L547" s="42"/>
-    </row>
-    <row r="548" spans="7:12">
-      <c r="G548" s="54"/>
-      <c r="H548" s="54"/>
-    </row>
-    <row r="549" spans="7:12">
+      <c r="J547" s="36"/>
+      <c r="K547" s="36"/>
+      <c r="L547" s="36"/>
+    </row>
+    <row r="548" spans="7:8">
+      <c r="G548" s="10"/>
+      <c r="H548" s="10"/>
+    </row>
+    <row r="549" spans="8:8">
       <c r="H549" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="550" spans="7:12">
+    <row r="550" spans="8:8">
       <c r="H550" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="553" spans="7:12">
-      <c r="G553" s="2">
+    <row r="553" spans="7:7">
+      <c r="G553" s="50">
         <v>43364</v>
       </c>
     </row>
-    <row r="554" spans="7:12">
-      <c r="G554" s="54" t="s">
+    <row r="554" spans="7:7">
+      <c r="G554" s="10" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="555" spans="7:12">
-      <c r="G555" s="54"/>
-    </row>
-    <row r="556" spans="7:12">
-      <c r="G556" s="54"/>
+    <row r="555" spans="7:7">
+      <c r="G555" s="10"/>
+    </row>
+    <row r="556" spans="7:7">
+      <c r="G556" s="10"/>
     </row>
     <row r="563" spans="7:10">
-      <c r="G563" s="2">
+      <c r="G563" s="50">
         <v>43368</v>
       </c>
-      <c r="H563" s="18">
+      <c r="H563" s="53">
         <v>43369</v>
       </c>
-      <c r="J563" s="2">
+      <c r="J563" s="50">
         <v>43370</v>
       </c>
     </row>
     <row r="564" spans="7:10">
-      <c r="G564" s="54" t="s">
+      <c r="G564" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="H564" s="36" t="s">
+      <c r="H564" s="16" t="s">
         <v>366</v>
       </c>
       <c r="J564" t="s">
@@ -4906,34 +5499,34 @@
       </c>
     </row>
     <row r="565" spans="7:10">
-      <c r="G565" s="54"/>
-      <c r="H565" s="36"/>
+      <c r="G565" s="10"/>
+      <c r="H565" s="16"/>
       <c r="J565" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="566" spans="7:10">
-      <c r="H566" s="12" t="s">
+    <row r="566" spans="8:8">
+      <c r="H566" s="38" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="567" spans="7:10">
-      <c r="H567" s="36" t="s">
+    <row r="567" spans="8:8">
+      <c r="H567" s="16" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="568" spans="7:10">
-      <c r="H568" s="36"/>
-    </row>
-    <row r="574" spans="7:10">
-      <c r="G574" s="2">
+    <row r="568" spans="8:8">
+      <c r="H568" s="16"/>
+    </row>
+    <row r="574" spans="7:8">
+      <c r="G574" s="50">
         <v>43371</v>
       </c>
-      <c r="H574" s="2">
+      <c r="H574" s="50">
         <v>43372</v>
       </c>
     </row>
-    <row r="575" spans="7:10">
+    <row r="575" spans="7:8">
       <c r="G575" t="s">
         <v>371</v>
       </c>
@@ -4941,8 +5534,8 @@
         <v>372</v>
       </c>
     </row>
-    <row r="576" spans="7:10">
-      <c r="G576" s="54" t="s">
+    <row r="576" spans="7:8">
+      <c r="G576" s="10" t="s">
         <v>373</v>
       </c>
       <c r="H576" t="s">
@@ -4950,67 +5543,155 @@
       </c>
     </row>
     <row r="577" spans="7:7">
-      <c r="G577" s="54"/>
+      <c r="G577" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="244">
-    <mergeCell ref="I483:J484"/>
-    <mergeCell ref="I485:J486"/>
-    <mergeCell ref="I488:J489"/>
-    <mergeCell ref="I501:J502"/>
-    <mergeCell ref="I503:J505"/>
-    <mergeCell ref="I513:J517"/>
-    <mergeCell ref="C87:E88"/>
-    <mergeCell ref="H98:I99"/>
-    <mergeCell ref="H100:I102"/>
-    <mergeCell ref="H103:I104"/>
-    <mergeCell ref="C150:F152"/>
-    <mergeCell ref="I167:J169"/>
-    <mergeCell ref="B178:E184"/>
-    <mergeCell ref="I183:J184"/>
-    <mergeCell ref="I185:J188"/>
-    <mergeCell ref="H567:H568"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="J153:J159"/>
-    <mergeCell ref="J160:J162"/>
-    <mergeCell ref="J386:J387"/>
-    <mergeCell ref="L298:L304"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="I9:L10"/>
-    <mergeCell ref="F31:G32"/>
-    <mergeCell ref="F33:G35"/>
-    <mergeCell ref="I43:K44"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="I60:K63"/>
-    <mergeCell ref="F70:G71"/>
-    <mergeCell ref="F72:G73"/>
-    <mergeCell ref="F74:G75"/>
-    <mergeCell ref="I70:K71"/>
-    <mergeCell ref="I72:K75"/>
-    <mergeCell ref="F87:G88"/>
-    <mergeCell ref="I203:J204"/>
-    <mergeCell ref="G222:H223"/>
-    <mergeCell ref="I221:J222"/>
-    <mergeCell ref="I230:J231"/>
-    <mergeCell ref="I241:J242"/>
-    <mergeCell ref="H490:H491"/>
-    <mergeCell ref="H492:H493"/>
-    <mergeCell ref="H494:H495"/>
-    <mergeCell ref="H504:H505"/>
-    <mergeCell ref="H513:H514"/>
-    <mergeCell ref="H515:H516"/>
-    <mergeCell ref="H528:H530"/>
-    <mergeCell ref="H547:H548"/>
-    <mergeCell ref="H564:H565"/>
-    <mergeCell ref="H388:H389"/>
-    <mergeCell ref="H394:H395"/>
-    <mergeCell ref="H435:H436"/>
-    <mergeCell ref="H460:H462"/>
-    <mergeCell ref="H463:H464"/>
-    <mergeCell ref="H471:H474"/>
-    <mergeCell ref="H475:H476"/>
-    <mergeCell ref="H485:H486"/>
-    <mergeCell ref="H488:H489"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="I166:J166"/>
+    <mergeCell ref="I170:J170"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="I182:J182"/>
+    <mergeCell ref="I220:J220"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="I223:J223"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="I229:J229"/>
+    <mergeCell ref="I232:J232"/>
+    <mergeCell ref="I239:J239"/>
+    <mergeCell ref="I240:J240"/>
+    <mergeCell ref="I264:J264"/>
+    <mergeCell ref="I287:J287"/>
+    <mergeCell ref="I290:J290"/>
+    <mergeCell ref="I313:J313"/>
+    <mergeCell ref="I317:J317"/>
+    <mergeCell ref="I345:J345"/>
+    <mergeCell ref="I409:J409"/>
+    <mergeCell ref="I432:J432"/>
+    <mergeCell ref="K435:M435"/>
+    <mergeCell ref="E449:G449"/>
+    <mergeCell ref="F458:G458"/>
+    <mergeCell ref="F459:G459"/>
+    <mergeCell ref="F470:G470"/>
+    <mergeCell ref="F471:G471"/>
+    <mergeCell ref="F472:G472"/>
+    <mergeCell ref="F477:G477"/>
+    <mergeCell ref="F478:G478"/>
+    <mergeCell ref="I487:J487"/>
+    <mergeCell ref="I490:J490"/>
+    <mergeCell ref="I547:L547"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="G144:G146"/>
+    <mergeCell ref="G150:G152"/>
+    <mergeCell ref="G153:G156"/>
+    <mergeCell ref="G157:G160"/>
+    <mergeCell ref="G161:G163"/>
+    <mergeCell ref="G168:G169"/>
+    <mergeCell ref="G192:G196"/>
+    <mergeCell ref="G210:G212"/>
+    <mergeCell ref="G214:G215"/>
+    <mergeCell ref="G230:G232"/>
+    <mergeCell ref="G240:G244"/>
+    <mergeCell ref="G256:G257"/>
+    <mergeCell ref="G266:G268"/>
+    <mergeCell ref="G269:G270"/>
+    <mergeCell ref="G271:G275"/>
+    <mergeCell ref="G276:G277"/>
+    <mergeCell ref="G278:G280"/>
+    <mergeCell ref="G288:G289"/>
+    <mergeCell ref="G290:G291"/>
+    <mergeCell ref="G298:G301"/>
+    <mergeCell ref="G314:G315"/>
+    <mergeCell ref="G323:G324"/>
+    <mergeCell ref="G325:G327"/>
+    <mergeCell ref="G335:G338"/>
+    <mergeCell ref="G339:G340"/>
+    <mergeCell ref="G346:G352"/>
+    <mergeCell ref="G353:G354"/>
+    <mergeCell ref="G366:G367"/>
+    <mergeCell ref="G368:G369"/>
+    <mergeCell ref="G375:G377"/>
+    <mergeCell ref="G396:G397"/>
+    <mergeCell ref="G402:G403"/>
+    <mergeCell ref="G404:G405"/>
+    <mergeCell ref="G406:G407"/>
+    <mergeCell ref="G415:G416"/>
+    <mergeCell ref="G417:G418"/>
+    <mergeCell ref="G433:G434"/>
+    <mergeCell ref="G436:G437"/>
+    <mergeCell ref="G486:G488"/>
+    <mergeCell ref="G489:G490"/>
+    <mergeCell ref="G513:G514"/>
+    <mergeCell ref="G517:G518"/>
+    <mergeCell ref="G519:G520"/>
+    <mergeCell ref="G537:G538"/>
+    <mergeCell ref="G547:G548"/>
+    <mergeCell ref="G554:G556"/>
+    <mergeCell ref="G564:G565"/>
     <mergeCell ref="G576:G577"/>
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="H31:H32"/>
@@ -5035,67 +5716,63 @@
     <mergeCell ref="H375:H376"/>
     <mergeCell ref="H378:H379"/>
     <mergeCell ref="H385:H387"/>
-    <mergeCell ref="G486:G488"/>
-    <mergeCell ref="G489:G490"/>
-    <mergeCell ref="G513:G514"/>
-    <mergeCell ref="G517:G518"/>
-    <mergeCell ref="G519:G520"/>
-    <mergeCell ref="G537:G538"/>
-    <mergeCell ref="G547:G548"/>
-    <mergeCell ref="G554:G556"/>
-    <mergeCell ref="G564:G565"/>
-    <mergeCell ref="G368:G369"/>
-    <mergeCell ref="G375:G377"/>
-    <mergeCell ref="G396:G397"/>
-    <mergeCell ref="G402:G403"/>
-    <mergeCell ref="G404:G405"/>
-    <mergeCell ref="G406:G407"/>
-    <mergeCell ref="G415:G416"/>
-    <mergeCell ref="G417:G418"/>
-    <mergeCell ref="G433:G434"/>
-    <mergeCell ref="G298:G301"/>
-    <mergeCell ref="G314:G315"/>
-    <mergeCell ref="G323:G324"/>
-    <mergeCell ref="G325:G327"/>
-    <mergeCell ref="G335:G338"/>
-    <mergeCell ref="G339:G340"/>
-    <mergeCell ref="G346:G352"/>
-    <mergeCell ref="G353:G354"/>
-    <mergeCell ref="G366:G367"/>
-    <mergeCell ref="I487:J487"/>
-    <mergeCell ref="I490:J490"/>
-    <mergeCell ref="I547:L547"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="G144:G146"/>
-    <mergeCell ref="G150:G152"/>
-    <mergeCell ref="G153:G156"/>
-    <mergeCell ref="G157:G160"/>
-    <mergeCell ref="G161:G163"/>
-    <mergeCell ref="G168:G169"/>
-    <mergeCell ref="G192:G196"/>
-    <mergeCell ref="G210:G212"/>
-    <mergeCell ref="G214:G215"/>
-    <mergeCell ref="G230:G232"/>
-    <mergeCell ref="G240:G244"/>
-    <mergeCell ref="G256:G257"/>
-    <mergeCell ref="G266:G268"/>
-    <mergeCell ref="G269:G270"/>
-    <mergeCell ref="G271:G275"/>
-    <mergeCell ref="G276:G277"/>
-    <mergeCell ref="G278:G280"/>
-    <mergeCell ref="G288:G289"/>
-    <mergeCell ref="G290:G291"/>
-    <mergeCell ref="K435:M435"/>
-    <mergeCell ref="E449:G449"/>
-    <mergeCell ref="F458:G458"/>
-    <mergeCell ref="F459:G459"/>
-    <mergeCell ref="F470:G470"/>
-    <mergeCell ref="F471:G471"/>
-    <mergeCell ref="F472:G472"/>
-    <mergeCell ref="F477:G477"/>
-    <mergeCell ref="F478:G478"/>
-    <mergeCell ref="G436:G437"/>
+    <mergeCell ref="H388:H389"/>
+    <mergeCell ref="H394:H395"/>
+    <mergeCell ref="H435:H436"/>
+    <mergeCell ref="H460:H462"/>
+    <mergeCell ref="H463:H464"/>
+    <mergeCell ref="H471:H474"/>
+    <mergeCell ref="H475:H476"/>
+    <mergeCell ref="H485:H486"/>
+    <mergeCell ref="H488:H489"/>
+    <mergeCell ref="H490:H491"/>
+    <mergeCell ref="H492:H493"/>
+    <mergeCell ref="H494:H495"/>
+    <mergeCell ref="H504:H505"/>
+    <mergeCell ref="H513:H514"/>
+    <mergeCell ref="H515:H516"/>
+    <mergeCell ref="H528:H530"/>
+    <mergeCell ref="H547:H548"/>
+    <mergeCell ref="H564:H565"/>
+    <mergeCell ref="H567:H568"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="J153:J159"/>
+    <mergeCell ref="J160:J162"/>
+    <mergeCell ref="J386:J387"/>
+    <mergeCell ref="L298:L304"/>
+    <mergeCell ref="I483:J484"/>
+    <mergeCell ref="I485:J486"/>
+    <mergeCell ref="I488:J489"/>
+    <mergeCell ref="I501:J502"/>
+    <mergeCell ref="I503:J505"/>
+    <mergeCell ref="I513:J517"/>
+    <mergeCell ref="C87:E88"/>
+    <mergeCell ref="H98:I99"/>
+    <mergeCell ref="H100:I102"/>
+    <mergeCell ref="H103:I104"/>
+    <mergeCell ref="C150:F152"/>
+    <mergeCell ref="I167:J169"/>
+    <mergeCell ref="B178:E184"/>
+    <mergeCell ref="I183:J184"/>
+    <mergeCell ref="I185:J188"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="I9:L10"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="F33:G35"/>
+    <mergeCell ref="I43:K44"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="I60:K63"/>
+    <mergeCell ref="F70:G71"/>
+    <mergeCell ref="F72:G73"/>
+    <mergeCell ref="F74:G75"/>
+    <mergeCell ref="I70:K71"/>
+    <mergeCell ref="I72:K75"/>
+    <mergeCell ref="F87:G88"/>
+    <mergeCell ref="I203:J204"/>
+    <mergeCell ref="G222:H223"/>
+    <mergeCell ref="I221:J222"/>
+    <mergeCell ref="I230:J231"/>
+    <mergeCell ref="I241:J242"/>
     <mergeCell ref="I433:J435"/>
     <mergeCell ref="I436:J441"/>
     <mergeCell ref="I447:J449"/>
@@ -5104,15 +5781,6 @@
     <mergeCell ref="F473:G474"/>
     <mergeCell ref="F475:G476"/>
     <mergeCell ref="I471:J476"/>
-    <mergeCell ref="I240:J240"/>
-    <mergeCell ref="I264:J264"/>
-    <mergeCell ref="I287:J287"/>
-    <mergeCell ref="I290:J290"/>
-    <mergeCell ref="I313:J313"/>
-    <mergeCell ref="I317:J317"/>
-    <mergeCell ref="I345:J345"/>
-    <mergeCell ref="I409:J409"/>
-    <mergeCell ref="I432:J432"/>
     <mergeCell ref="I243:J250"/>
     <mergeCell ref="I265:J269"/>
     <mergeCell ref="I288:J289"/>
@@ -5123,433 +5791,437 @@
     <mergeCell ref="I402:J403"/>
     <mergeCell ref="I404:J405"/>
     <mergeCell ref="I406:J408"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="I182:J182"/>
-    <mergeCell ref="I220:J220"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="I223:J223"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="I229:J229"/>
-    <mergeCell ref="I232:J232"/>
-    <mergeCell ref="I239:J239"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="I166:J166"/>
-    <mergeCell ref="I170:J170"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="I80:K80"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="I68:K68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="I69:K69"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="I79:K79"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="I59:K59"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:L14"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:S29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B4:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="4" spans="2:19">
-      <c r="B4" s="69">
+      <c r="B4" s="1">
         <v>43373</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="I4" s="44">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="I4" s="17">
         <v>43379</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="P4" s="46">
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="P4" s="21">
         <v>43380</v>
       </c>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="71"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="26"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="I5" s="36" t="s">
+      <c r="F5" s="3"/>
+      <c r="I5" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="P5" s="36" t="s">
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="P5" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="37" t="s">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="S5" s="38"/>
+      <c r="S5" s="28"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="72"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="37" t="s">
+      <c r="F6" s="3"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="S6" s="38"/>
+      <c r="S6" s="28"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="72"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="1" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="P7" s="24" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="P7" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="65"/>
-      <c r="I8" s="36" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="I8" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36" t="s">
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="P8" s="36" t="s">
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="P8" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="74"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="78"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="74"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="78"/>
-      <c r="I10" s="24" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="I10" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="P10" s="36" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="P10" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="74"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="78"/>
-      <c r="I11" s="36" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="I11" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="74"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="78"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="P12" s="36" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="P12" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="74"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="78"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="75"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="67"/>
-      <c r="P14" s="36" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="P14" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-    </row>
-    <row r="16" spans="2:19">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="44">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="17">
         <v>43381</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="36" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="I24" s="22">
+        <v>43382</v>
+      </c>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36" t="s">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="I25" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="36" t="s">
+      <c r="J25" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36" t="s">
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="I26" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="24" t="s">
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="I28" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="I29" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="J29" s="20"/>
+      <c r="K29" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+    </row>
+    <row r="30" spans="9:13">
+      <c r="I30" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+    </row>
+    <row r="31" spans="9:13">
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+    </row>
+    <row r="32" spans="9:13">
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="41">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="I10:M10"/>
     <mergeCell ref="B24:F24"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="B25:C26"/>
     <mergeCell ref="D25:F26"/>
     <mergeCell ref="B27:C28"/>
     <mergeCell ref="D27:F28"/>
-    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B15:F16"/>
     <mergeCell ref="I5:J7"/>
     <mergeCell ref="K5:M7"/>
     <mergeCell ref="I8:J9"/>
     <mergeCell ref="K8:M9"/>
     <mergeCell ref="I11:M13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
     <mergeCell ref="C8:F14"/>
     <mergeCell ref="P5:Q6"/>
     <mergeCell ref="P8:S9"/>
     <mergeCell ref="P10:S11"/>
     <mergeCell ref="P12:S13"/>
     <mergeCell ref="P14:S15"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="I26:M27"/>
+    <mergeCell ref="I30:M32"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/日计划.xlsx
+++ b/日计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417">
   <si>
     <t>完成</t>
   </si>
@@ -1228,15 +1228,46 @@
     <t>第一次使用git 更新本地文件</t>
   </si>
   <si>
+    <t>做好BT-957C发送API</t>
+  </si>
+  <si>
     <t>看完了一个github视频，又找到了小甲鱼的git视频加深学习</t>
   </si>
   <si>
+    <t>供应商也许要来</t>
+  </si>
+  <si>
     <t>学习新建github page</t>
   </si>
   <si>
     <t>新建page，可用于写博客。技术文档等</t>
   </si>
   <si>
+    <r>
+      <t>BT-957C出现了些很微妙的问题，VDD，GND TX，RX，使用AT指令调试，发现用CH340串口助手不行，使用开发板就ok。厂商反映好像是 ：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>灌电流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的问题，估计是灌电流太大，导致灌入模块，出现异常。这算哪方面的问题呢？</t>
+    </r>
+  </si>
+  <si>
     <t>penetrate</t>
   </si>
   <si>
@@ -1253,6 +1284,12 @@
   </si>
   <si>
     <t>BT-957C 测试中，与之前的BT-826差不多，但HID发送数据时，不是直接写入数据，而是 长度 + content</t>
+  </si>
+  <si>
+    <t>调试过程中，出现乱码的问题，正在反应给供应商</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT+HIDMODE=1，解决了乱码问题，但中文显示不了  </t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1302,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1289,15 +1326,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1311,14 +1340,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1331,9 +1360,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1347,22 +1391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1373,29 +1401,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1417,8 +1422,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1431,8 +1452,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1465,13 +1509,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,43 +1629,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,49 +1659,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,67 +1683,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1828,11 +1866,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1853,16 +1897,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1884,26 +1928,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1925,6 +1952,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1933,10 +1971,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1945,137 +1983,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2148,6 +2186,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2157,11 +2198,8 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2214,9 +2252,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2226,9 +2261,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2258,9 +2290,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2638,7 +2667,7 @@
   <sheetPr/>
   <dimension ref="B8:M577"/>
   <sheetViews>
-    <sheetView topLeftCell="A537" workbookViewId="0">
+    <sheetView topLeftCell="A426" workbookViewId="0">
       <selection activeCell="H575" sqref="H575"/>
     </sheetView>
   </sheetViews>
@@ -2661,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="20" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -2722,7 +2751,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="34"/>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="35" t="s">
@@ -2735,7 +2764,7 @@
     <row r="13" spans="6:12">
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="20" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="31" t="s">
@@ -2921,10 +2950,10 @@
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="6:7">
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="28"/>
+      <c r="G36" s="20"/>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" s="42"/>
@@ -2934,21 +2963,21 @@
       <c r="F41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="27"/>
+      <c r="G41" s="18"/>
       <c r="H41" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="I41" s="27" t="s">
+      <c r="I41" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J41" s="46"/>
-      <c r="K41" s="28"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="20"/>
     </row>
     <row r="42" spans="6:11">
       <c r="F42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="27"/>
+      <c r="G42" s="18"/>
       <c r="H42" s="16" t="s">
         <v>54</v>
       </c>
@@ -2962,7 +2991,7 @@
       <c r="F43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="27"/>
+      <c r="G43" s="18"/>
       <c r="H43" s="16"/>
       <c r="I43" s="34" t="s">
         <v>56</v>
@@ -2974,7 +3003,7 @@
       <c r="F44" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="27"/>
+      <c r="G44" s="18"/>
       <c r="H44" s="38" t="s">
         <v>58</v>
       </c>
@@ -3090,7 +3119,7 @@
       <c r="F67" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="47"/>
+      <c r="G67" s="46"/>
       <c r="H67" s="37" t="s">
         <v>75</v>
       </c>
@@ -3138,7 +3167,7 @@
         <v>84</v>
       </c>
       <c r="G70" s="16"/>
-      <c r="H70" s="48" t="s">
+      <c r="H70" s="47" t="s">
         <v>85</v>
       </c>
       <c r="I70" s="34" t="s">
@@ -3150,7 +3179,7 @@
     <row r="71" spans="6:11">
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
-      <c r="H71" s="48"/>
+      <c r="H71" s="47"/>
       <c r="I71" s="34"/>
       <c r="J71" s="34"/>
       <c r="K71" s="34"/>
@@ -3239,11 +3268,11 @@
       </c>
     </row>
     <row r="87" spans="3:8">
-      <c r="C87" s="49" t="s">
+      <c r="C87" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D87" s="49"/>
-      <c r="E87" s="49"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
       <c r="F87" s="34" t="s">
         <v>102</v>
       </c>
@@ -3253,9 +3282,9 @@
       </c>
     </row>
     <row r="88" spans="3:8">
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
       <c r="F88" s="34"/>
       <c r="G88" s="34"/>
       <c r="H88" t="s">
@@ -3284,10 +3313,10 @@
       <c r="F96" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="H96" s="27">
+      <c r="H96" s="18">
         <v>2.24</v>
       </c>
-      <c r="I96" s="28"/>
+      <c r="I96" s="20"/>
     </row>
     <row r="97" spans="6:9">
       <c r="F97" s="36" t="s">
@@ -3539,23 +3568,23 @@
       <c r="G146" s="16"/>
     </row>
     <row r="149" spans="7:10">
-      <c r="G149" s="50">
+      <c r="G149" s="28">
         <v>43188</v>
       </c>
-      <c r="H149" s="50">
+      <c r="H149" s="28">
         <v>43189</v>
       </c>
-      <c r="J149" s="53">
+      <c r="J149" s="51">
         <v>43190</v>
       </c>
     </row>
     <row r="150" spans="3:10">
-      <c r="C150" s="51" t="s">
+      <c r="C150" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D150" s="51"/>
-      <c r="E150" s="51"/>
-      <c r="F150" s="51"/>
+      <c r="D150" s="49"/>
+      <c r="E150" s="49"/>
+      <c r="F150" s="49"/>
       <c r="G150" s="16" t="s">
         <v>140</v>
       </c>
@@ -3567,10 +3596,10 @@
       </c>
     </row>
     <row r="151" spans="3:10">
-      <c r="C151" s="51"/>
-      <c r="D151" s="51"/>
-      <c r="E151" s="51"/>
-      <c r="F151" s="51"/>
+      <c r="C151" s="49"/>
+      <c r="D151" s="49"/>
+      <c r="E151" s="49"/>
+      <c r="F151" s="49"/>
       <c r="G151" s="16"/>
       <c r="H151" t="s">
         <v>142</v>
@@ -3580,10 +3609,10 @@
       </c>
     </row>
     <row r="152" spans="3:10">
-      <c r="C152" s="51"/>
-      <c r="D152" s="51"/>
-      <c r="E152" s="51"/>
-      <c r="F152" s="51"/>
+      <c r="C152" s="49"/>
+      <c r="D152" s="49"/>
+      <c r="E152" s="49"/>
+      <c r="F152" s="49"/>
       <c r="G152" s="16"/>
       <c r="J152" s="16"/>
     </row>
@@ -3641,16 +3670,16 @@
       <c r="G163" s="16"/>
     </row>
     <row r="166" spans="7:10">
-      <c r="G166" s="52">
+      <c r="G166" s="50">
         <v>43192</v>
       </c>
-      <c r="H166" s="53">
+      <c r="H166" s="51">
         <v>43193</v>
       </c>
       <c r="I166" s="17">
         <v>43194</v>
       </c>
-      <c r="J166" s="53"/>
+      <c r="J166" s="51"/>
     </row>
     <row r="167" spans="7:10">
       <c r="G167" s="37" t="s">
@@ -3665,7 +3694,7 @@
       <c r="J167" s="16"/>
     </row>
     <row r="168" spans="7:10">
-      <c r="G168" s="54" t="s">
+      <c r="G168" s="52" t="s">
         <v>152</v>
       </c>
       <c r="H168" s="38" t="s">
@@ -3675,7 +3704,7 @@
       <c r="J168" s="16"/>
     </row>
     <row r="169" spans="7:10">
-      <c r="G169" s="54"/>
+      <c r="G169" s="52"/>
       <c r="H169" s="16" t="s">
         <v>154</v>
       </c>
@@ -3690,7 +3719,7 @@
       <c r="J170" s="38"/>
     </row>
     <row r="175" spans="7:7">
-      <c r="G175" s="50">
+      <c r="G175" s="28">
         <v>43199</v>
       </c>
     </row>
@@ -3714,52 +3743,52 @@
       <c r="E177" s="3"/>
     </row>
     <row r="178" spans="2:5">
-      <c r="B178" s="55" t="s">
+      <c r="B178" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="C178" s="55"/>
-      <c r="D178" s="55"/>
-      <c r="E178" s="55"/>
+      <c r="C178" s="53"/>
+      <c r="D178" s="53"/>
+      <c r="E178" s="53"/>
     </row>
     <row r="179" spans="2:5">
-      <c r="B179" s="55"/>
-      <c r="C179" s="55"/>
-      <c r="D179" s="55"/>
-      <c r="E179" s="55"/>
+      <c r="B179" s="53"/>
+      <c r="C179" s="53"/>
+      <c r="D179" s="53"/>
+      <c r="E179" s="53"/>
     </row>
     <row r="180" spans="2:5">
-      <c r="B180" s="55"/>
-      <c r="C180" s="55"/>
-      <c r="D180" s="55"/>
-      <c r="E180" s="55"/>
+      <c r="B180" s="53"/>
+      <c r="C180" s="53"/>
+      <c r="D180" s="53"/>
+      <c r="E180" s="53"/>
     </row>
     <row r="181" spans="2:5">
-      <c r="B181" s="55"/>
-      <c r="C181" s="55"/>
-      <c r="D181" s="55"/>
-      <c r="E181" s="55"/>
+      <c r="B181" s="53"/>
+      <c r="C181" s="53"/>
+      <c r="D181" s="53"/>
+      <c r="E181" s="53"/>
     </row>
     <row r="182" spans="2:10">
-      <c r="B182" s="55"/>
-      <c r="C182" s="55"/>
-      <c r="D182" s="55"/>
-      <c r="E182" s="55"/>
-      <c r="G182" s="50">
+      <c r="B182" s="53"/>
+      <c r="C182" s="53"/>
+      <c r="D182" s="53"/>
+      <c r="E182" s="53"/>
+      <c r="G182" s="28">
         <v>43211</v>
       </c>
-      <c r="H182" s="53">
+      <c r="H182" s="51">
         <v>43215</v>
       </c>
       <c r="I182" s="17">
         <v>43216</v>
       </c>
-      <c r="J182" s="53"/>
+      <c r="J182" s="51"/>
     </row>
     <row r="183" spans="2:10">
-      <c r="B183" s="55"/>
-      <c r="C183" s="55"/>
-      <c r="D183" s="55"/>
-      <c r="E183" s="55"/>
+      <c r="B183" s="53"/>
+      <c r="C183" s="53"/>
+      <c r="D183" s="53"/>
+      <c r="E183" s="53"/>
       <c r="G183" t="s">
         <v>160</v>
       </c>
@@ -3772,10 +3801,10 @@
       <c r="J183" s="16"/>
     </row>
     <row r="184" spans="2:10">
-      <c r="B184" s="55"/>
-      <c r="C184" s="55"/>
-      <c r="D184" s="55"/>
-      <c r="E184" s="55"/>
+      <c r="B184" s="53"/>
+      <c r="C184" s="53"/>
+      <c r="D184" s="53"/>
+      <c r="E184" s="53"/>
       <c r="H184" s="16"/>
       <c r="I184" s="16"/>
       <c r="J184" s="16"/>
@@ -3801,10 +3830,10 @@
       <c r="J188" s="10"/>
     </row>
     <row r="191" spans="7:8">
-      <c r="G191" s="50">
+      <c r="G191" s="28">
         <v>43217</v>
       </c>
-      <c r="H191" s="53">
+      <c r="H191" s="51">
         <v>43218</v>
       </c>
     </row>
@@ -3839,13 +3868,13 @@
       <c r="H198" s="16"/>
     </row>
     <row r="202" spans="7:10">
-      <c r="G202" s="50">
+      <c r="G202" s="28">
         <v>43223</v>
       </c>
-      <c r="H202" s="50">
+      <c r="H202" s="28">
         <v>43225</v>
       </c>
-      <c r="J202" s="50">
+      <c r="J202" s="28">
         <v>43227</v>
       </c>
     </row>
@@ -3874,13 +3903,13 @@
       </c>
     </row>
     <row r="208" spans="10:10">
-      <c r="J208" s="50"/>
+      <c r="J208" s="28"/>
     </row>
     <row r="209" spans="7:8">
-      <c r="G209" s="53">
+      <c r="G209" s="51">
         <v>43231</v>
       </c>
-      <c r="H209" s="50">
+      <c r="H209" s="28">
         <v>43234</v>
       </c>
     </row>
@@ -3910,26 +3939,26 @@
       </c>
     </row>
     <row r="215" spans="7:7">
-      <c r="G215" s="47"/>
+      <c r="G215" s="46"/>
     </row>
     <row r="220" spans="7:10">
-      <c r="G220" s="56">
+      <c r="G220" s="54">
         <v>43236</v>
       </c>
-      <c r="H220" s="56">
+      <c r="H220" s="54">
         <v>43238</v>
       </c>
       <c r="I220" s="17">
         <v>43239</v>
       </c>
-      <c r="J220" s="53"/>
+      <c r="J220" s="51"/>
     </row>
     <row r="221" spans="7:10">
       <c r="G221" s="3" t="s">
         <v>175</v>
       </c>
       <c r="H221" s="3"/>
-      <c r="I221" s="57" t="s">
+      <c r="I221" s="55" t="s">
         <v>176</v>
       </c>
       <c r="J221" s="16"/>
@@ -3939,13 +3968,13 @@
         <v>177</v>
       </c>
       <c r="H222" s="16"/>
-      <c r="I222" s="57"/>
+      <c r="I222" s="55"/>
       <c r="J222" s="16"/>
     </row>
     <row r="223" spans="7:10">
       <c r="G223" s="16"/>
       <c r="H223" s="16"/>
-      <c r="I223" s="28" t="s">
+      <c r="I223" s="20" t="s">
         <v>178</v>
       </c>
       <c r="J223" s="38"/>
@@ -3957,16 +3986,16 @@
       <c r="H224" s="3"/>
     </row>
     <row r="229" spans="7:10">
-      <c r="G229" s="50">
+      <c r="G229" s="28">
         <v>43241</v>
       </c>
-      <c r="H229" s="50">
+      <c r="H229" s="28">
         <v>43243</v>
       </c>
       <c r="I229" s="17">
         <v>43244</v>
       </c>
-      <c r="J229" s="53"/>
+      <c r="J229" s="51"/>
     </row>
     <row r="230" spans="7:10">
       <c r="G230" s="10" t="s">
@@ -4001,7 +4030,7 @@
       </c>
     </row>
     <row r="238" spans="7:7">
-      <c r="G238" s="50">
+      <c r="G238" s="28">
         <v>43245</v>
       </c>
     </row>
@@ -4012,7 +4041,7 @@
       <c r="I239" s="17">
         <v>43248</v>
       </c>
-      <c r="J239" s="53"/>
+      <c r="J239" s="51"/>
     </row>
     <row r="240" spans="7:10">
       <c r="G240" s="10" t="s">
@@ -4072,10 +4101,10 @@
       <c r="J250" s="16"/>
     </row>
     <row r="254" spans="7:8">
-      <c r="G254" s="50">
+      <c r="G254" s="28">
         <v>43249</v>
       </c>
-      <c r="H254" s="50">
+      <c r="H254" s="28">
         <v>43250</v>
       </c>
     </row>
@@ -4102,13 +4131,13 @@
       <c r="G264" s="17">
         <v>43252</v>
       </c>
-      <c r="H264" s="53">
+      <c r="H264" s="51">
         <v>43253</v>
       </c>
       <c r="I264" s="17">
         <v>43255</v>
       </c>
-      <c r="J264" s="53"/>
+      <c r="J264" s="51"/>
     </row>
     <row r="265" spans="7:10">
       <c r="G265" s="3" t="s">
@@ -4190,16 +4219,16 @@
       <c r="G280" s="16"/>
     </row>
     <row r="287" spans="7:10">
-      <c r="G287" s="53">
+      <c r="G287" s="51">
         <v>43256</v>
       </c>
-      <c r="H287" s="53">
+      <c r="H287" s="51">
         <v>43257</v>
       </c>
       <c r="I287" s="21">
         <v>43258</v>
       </c>
-      <c r="J287" s="59"/>
+      <c r="J287" s="57"/>
     </row>
     <row r="288" spans="7:10">
       <c r="G288" s="16" t="s">
@@ -4226,10 +4255,10 @@
       <c r="H290" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="I290" s="27" t="s">
+      <c r="I290" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="J290" s="60"/>
+      <c r="J290" s="58"/>
     </row>
     <row r="291" spans="7:10">
       <c r="G291" s="16"/>
@@ -4244,7 +4273,7 @@
       <c r="J292" s="38"/>
     </row>
     <row r="297" spans="7:7">
-      <c r="G297" s="50">
+      <c r="G297" s="28">
         <v>43259</v>
       </c>
     </row>
@@ -4293,25 +4322,25 @@
       <c r="L309" s="42"/>
     </row>
     <row r="313" spans="7:10">
-      <c r="G313" s="50">
+      <c r="G313" s="28">
         <v>43271</v>
       </c>
-      <c r="H313" s="50">
+      <c r="H313" s="28">
         <v>43272</v>
       </c>
-      <c r="I313" s="61">
+      <c r="I313" s="22">
         <v>43273</v>
       </c>
-      <c r="J313" s="50"/>
+      <c r="J313" s="28"/>
     </row>
     <row r="314" spans="7:10">
-      <c r="G314" s="58" t="s">
+      <c r="G314" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="H314" s="58" t="s">
+      <c r="H314" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="I314" s="62" t="s">
+      <c r="I314" s="59" t="s">
         <v>214</v>
       </c>
       <c r="J314" s="3"/>
@@ -4343,13 +4372,13 @@
       </c>
     </row>
     <row r="322" spans="7:10">
-      <c r="G322" s="53">
+      <c r="G322" s="51">
         <v>43274</v>
       </c>
-      <c r="H322" s="50">
+      <c r="H322" s="28">
         <v>43276</v>
       </c>
-      <c r="J322" s="50">
+      <c r="J322" s="28">
         <v>43277</v>
       </c>
     </row>
@@ -4397,13 +4426,13 @@
       <c r="H329" s="10"/>
     </row>
     <row r="334" spans="7:10">
-      <c r="G334" s="53">
+      <c r="G334" s="51">
         <v>43278</v>
       </c>
-      <c r="H334" s="53">
+      <c r="H334" s="51">
         <v>43279</v>
       </c>
-      <c r="J334" s="50">
+      <c r="J334" s="28">
         <v>43280</v>
       </c>
     </row>
@@ -4424,19 +4453,19 @@
       <c r="H337" s="16"/>
     </row>
     <row r="338" spans="7:8">
-      <c r="G338" s="54"/>
+      <c r="G338" s="52"/>
       <c r="H338" s="16" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="339" spans="7:8">
-      <c r="G339" s="54" t="s">
+      <c r="G339" s="52" t="s">
         <v>230</v>
       </c>
       <c r="H339" s="16"/>
     </row>
     <row r="340" spans="7:8">
-      <c r="G340" s="54"/>
+      <c r="G340" s="52"/>
       <c r="H340" s="16"/>
     </row>
     <row r="341" spans="8:8">
@@ -4446,19 +4475,19 @@
       <c r="H342" s="16"/>
     </row>
     <row r="345" spans="7:10">
-      <c r="G345" s="63">
+      <c r="G345" s="60">
         <v>43281</v>
       </c>
-      <c r="H345" s="50">
+      <c r="H345" s="28">
         <v>43283</v>
       </c>
-      <c r="I345" s="61">
+      <c r="I345" s="22">
         <v>43285</v>
       </c>
-      <c r="J345" s="50"/>
+      <c r="J345" s="28"/>
     </row>
     <row r="346" spans="7:10">
-      <c r="G346" s="64" t="s">
+      <c r="G346" s="61" t="s">
         <v>231</v>
       </c>
       <c r="H346" s="10" t="s">
@@ -4470,39 +4499,39 @@
       <c r="J346" s="10"/>
     </row>
     <row r="347" spans="7:10">
-      <c r="G347" s="64"/>
+      <c r="G347" s="61"/>
       <c r="H347" s="10"/>
       <c r="I347" s="10"/>
       <c r="J347" s="10"/>
     </row>
     <row r="348" spans="7:7">
-      <c r="G348" s="64"/>
+      <c r="G348" s="61"/>
     </row>
     <row r="349" spans="7:7">
-      <c r="G349" s="64"/>
+      <c r="G349" s="61"/>
     </row>
     <row r="350" spans="7:7">
-      <c r="G350" s="64"/>
+      <c r="G350" s="61"/>
     </row>
     <row r="351" spans="7:7">
-      <c r="G351" s="64"/>
+      <c r="G351" s="61"/>
     </row>
     <row r="352" spans="7:7">
-      <c r="G352" s="64"/>
+      <c r="G352" s="61"/>
     </row>
     <row r="353" spans="7:7">
-      <c r="G353" s="64" t="s">
+      <c r="G353" s="61" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="354" spans="7:7">
-      <c r="G354" s="64"/>
+      <c r="G354" s="61"/>
     </row>
     <row r="357" spans="7:10">
-      <c r="G357" s="50">
+      <c r="G357" s="28">
         <v>43286</v>
       </c>
-      <c r="J357" s="50">
+      <c r="J357" s="28">
         <v>43288</v>
       </c>
     </row>
@@ -4523,10 +4552,10 @@
       <c r="J359" s="10"/>
     </row>
     <row r="365" spans="7:8">
-      <c r="G365" s="50">
+      <c r="G365" s="28">
         <v>43292</v>
       </c>
-      <c r="H365" s="53">
+      <c r="H365" s="51">
         <v>43293</v>
       </c>
     </row>
@@ -4553,13 +4582,13 @@
       <c r="H369" s="16"/>
     </row>
     <row r="374" spans="7:10">
-      <c r="G374" s="50">
+      <c r="G374" s="28">
         <v>43307</v>
       </c>
-      <c r="H374" s="53">
+      <c r="H374" s="51">
         <v>43308</v>
       </c>
-      <c r="J374" s="50">
+      <c r="J374" s="28">
         <v>43311</v>
       </c>
     </row>
@@ -4596,13 +4625,13 @@
       <c r="H379" s="16"/>
     </row>
     <row r="384" spans="7:10">
-      <c r="G384" s="53">
+      <c r="G384" s="51">
         <v>43312</v>
       </c>
-      <c r="H384" s="50">
+      <c r="H384" s="28">
         <v>43313</v>
       </c>
-      <c r="J384" s="50">
+      <c r="J384" s="28">
         <v>43314</v>
       </c>
     </row>
@@ -4645,13 +4674,13 @@
       <c r="H389" s="10"/>
     </row>
     <row r="393" spans="7:10">
-      <c r="G393" s="50">
+      <c r="G393" s="28">
         <v>43315</v>
       </c>
-      <c r="H393" s="50">
+      <c r="H393" s="28">
         <v>43316</v>
       </c>
-      <c r="J393" s="50">
+      <c r="J393" s="28">
         <v>43318</v>
       </c>
     </row>
@@ -4684,13 +4713,13 @@
       <c r="G397" s="10"/>
     </row>
     <row r="401" spans="7:10">
-      <c r="G401" s="50">
+      <c r="G401" s="28">
         <v>43319</v>
       </c>
-      <c r="H401" s="50">
+      <c r="H401" s="28">
         <v>43320</v>
       </c>
-      <c r="J401" s="50">
+      <c r="J401" s="28">
         <v>43321</v>
       </c>
     </row>
@@ -4749,7 +4778,7 @@
       </c>
     </row>
     <row r="414" spans="7:8">
-      <c r="G414" s="50">
+      <c r="G414" s="28">
         <v>43322</v>
       </c>
       <c r="H414" t="s">
@@ -4773,13 +4802,13 @@
       <c r="G418" s="10"/>
     </row>
     <row r="423" spans="7:10">
-      <c r="G423" s="50">
+      <c r="G423" s="28">
         <v>43325</v>
       </c>
-      <c r="H423" s="50">
+      <c r="H423" s="28">
         <v>43326</v>
       </c>
-      <c r="J423" s="50">
+      <c r="J423" s="28">
         <v>43327</v>
       </c>
     </row>
@@ -4805,21 +4834,21 @@
       </c>
     </row>
     <row r="432" spans="7:13">
-      <c r="G432" s="50">
+      <c r="G432" s="28">
         <v>43328</v>
       </c>
-      <c r="H432" s="50">
+      <c r="H432" s="28">
         <v>43329</v>
       </c>
-      <c r="I432" s="67">
+      <c r="I432" s="64">
         <v>43330</v>
       </c>
-      <c r="J432" s="65"/>
-      <c r="K432" s="68"/>
-      <c r="L432" s="66" t="s">
+      <c r="J432" s="62"/>
+      <c r="K432" s="65"/>
+      <c r="L432" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="M432" s="66" t="s">
+      <c r="M432" s="63" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4833,7 +4862,7 @@
       <c r="I433" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="J433" s="54"/>
+      <c r="J433" s="52"/>
       <c r="K433" s="38" t="s">
         <v>282</v>
       </c>
@@ -4850,7 +4879,7 @@
         <v>283</v>
       </c>
       <c r="I434" s="16"/>
-      <c r="J434" s="54"/>
+      <c r="J434" s="52"/>
       <c r="K434" s="38" t="s">
         <v>284</v>
       </c>
@@ -4911,19 +4940,19 @@
       <c r="J441" s="16"/>
     </row>
     <row r="446" spans="5:10">
-      <c r="E446" s="65">
+      <c r="E446" s="62">
         <v>43332</v>
       </c>
-      <c r="F446" s="66" t="s">
+      <c r="F446" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="G446" s="66" t="s">
+      <c r="G446" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="H446" s="50">
+      <c r="H446" s="28">
         <v>43333</v>
       </c>
-      <c r="J446" s="50">
+      <c r="J446" s="28">
         <v>43334</v>
       </c>
     </row>
@@ -4976,11 +5005,11 @@
       <c r="F458" s="17">
         <v>43335</v>
       </c>
-      <c r="G458" s="52"/>
-      <c r="H458" s="53">
+      <c r="G458" s="50"/>
+      <c r="H458" s="51">
         <v>43336</v>
       </c>
-      <c r="J458" s="50">
+      <c r="J458" s="28">
         <v>43337</v>
       </c>
     </row>
@@ -5000,7 +5029,7 @@
       <c r="F460" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="G460" s="54"/>
+      <c r="G460" s="52"/>
       <c r="H460" s="16" t="s">
         <v>298</v>
       </c>
@@ -5010,7 +5039,7 @@
     </row>
     <row r="461" spans="6:10">
       <c r="F461" s="16"/>
-      <c r="G461" s="54"/>
+      <c r="G461" s="52"/>
       <c r="H461" s="16"/>
       <c r="J461" t="s">
         <v>300</v>
@@ -5020,7 +5049,7 @@
       <c r="F462" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="G462" s="54"/>
+      <c r="G462" s="52"/>
       <c r="H462" s="16"/>
       <c r="J462" t="s">
         <v>302</v>
@@ -5028,7 +5057,7 @@
     </row>
     <row r="463" spans="6:10">
       <c r="F463" s="16"/>
-      <c r="G463" s="54"/>
+      <c r="G463" s="52"/>
       <c r="H463" s="16" t="s">
         <v>303</v>
       </c>
@@ -5048,11 +5077,11 @@
       <c r="F470" s="17">
         <v>43339</v>
       </c>
-      <c r="G470" s="53"/>
-      <c r="H470" s="53">
+      <c r="G470" s="51"/>
+      <c r="H470" s="51">
         <v>43340</v>
       </c>
-      <c r="J470" s="50">
+      <c r="J470" s="28">
         <v>43341</v>
       </c>
     </row>
@@ -5108,7 +5137,7 @@
     <row r="476" spans="6:10">
       <c r="F476" s="16"/>
       <c r="G476" s="16"/>
-      <c r="H476" s="47"/>
+      <c r="H476" s="46"/>
       <c r="I476" s="10"/>
       <c r="J476" s="10"/>
     </row>
@@ -5126,18 +5155,18 @@
         <v>315</v>
       </c>
       <c r="G478" s="38"/>
-      <c r="H478" s="47" t="s">
+      <c r="H478" s="46" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="482" spans="7:10">
-      <c r="G482" s="50">
+      <c r="G482" s="28">
         <v>43342</v>
       </c>
-      <c r="H482" s="50">
+      <c r="H482" s="28">
         <v>43343</v>
       </c>
-      <c r="J482" s="50">
+      <c r="J482" s="28">
         <v>43344</v>
       </c>
     </row>
@@ -5240,13 +5269,13 @@
       <c r="H495" s="10"/>
     </row>
     <row r="500" spans="7:10">
-      <c r="G500" s="50">
+      <c r="G500" s="28">
         <v>43346</v>
       </c>
-      <c r="H500" s="50">
+      <c r="H500" s="28">
         <v>43347</v>
       </c>
-      <c r="J500" s="50">
+      <c r="J500" s="28">
         <v>43348</v>
       </c>
     </row>
@@ -5291,13 +5320,13 @@
       <c r="J505" s="10"/>
     </row>
     <row r="512" spans="7:10">
-      <c r="G512" s="50">
+      <c r="G512" s="28">
         <v>43349</v>
       </c>
-      <c r="H512" s="50">
+      <c r="H512" s="28">
         <v>43350</v>
       </c>
-      <c r="J512" s="50">
+      <c r="J512" s="28">
         <v>43351</v>
       </c>
     </row>
@@ -5356,13 +5385,13 @@
       <c r="G520" s="10"/>
     </row>
     <row r="527" spans="7:10">
-      <c r="G527" s="50">
+      <c r="G527" s="28">
         <v>43353</v>
       </c>
-      <c r="H527" s="50">
+      <c r="H527" s="28">
         <v>43354</v>
       </c>
-      <c r="J527" s="50">
+      <c r="J527" s="28">
         <v>43355</v>
       </c>
     </row>
@@ -5397,13 +5426,13 @@
       </c>
     </row>
     <row r="536" spans="7:10">
-      <c r="G536" s="50">
+      <c r="G536" s="28">
         <v>43356</v>
       </c>
-      <c r="H536" s="50">
+      <c r="H536" s="28">
         <v>43357</v>
       </c>
-      <c r="J536" s="50">
+      <c r="J536" s="28">
         <v>43358</v>
       </c>
     </row>
@@ -5422,13 +5451,13 @@
       <c r="G538" s="10"/>
     </row>
     <row r="546" spans="7:10">
-      <c r="G546" s="50">
+      <c r="G546" s="28">
         <v>43361</v>
       </c>
-      <c r="H546" s="50">
+      <c r="H546" s="28">
         <v>43362</v>
       </c>
-      <c r="J546" s="50">
+      <c r="J546" s="28">
         <v>43363</v>
       </c>
     </row>
@@ -5461,7 +5490,7 @@
       </c>
     </row>
     <row r="553" spans="7:7">
-      <c r="G553" s="50">
+      <c r="G553" s="28">
         <v>43364</v>
       </c>
     </row>
@@ -5477,13 +5506,13 @@
       <c r="G556" s="10"/>
     </row>
     <row r="563" spans="7:10">
-      <c r="G563" s="50">
+      <c r="G563" s="28">
         <v>43368</v>
       </c>
-      <c r="H563" s="53">
+      <c r="H563" s="51">
         <v>43369</v>
       </c>
-      <c r="J563" s="50">
+      <c r="J563" s="28">
         <v>43370</v>
       </c>
     </row>
@@ -5519,10 +5548,10 @@
       <c r="H568" s="16"/>
     </row>
     <row r="574" spans="7:8">
-      <c r="G574" s="50">
+      <c r="G574" s="28">
         <v>43371</v>
       </c>
-      <c r="H574" s="50">
+      <c r="H574" s="28">
         <v>43372</v>
       </c>
     </row>
@@ -5801,13 +5830,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:S32"/>
+  <dimension ref="B4:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30:M32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="17" max="17" width="9.125"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:19">
       <c r="B4" s="1">
@@ -5827,9 +5859,9 @@
       <c r="P4" s="21">
         <v>43380</v>
       </c>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="27"/>
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="2" t="s">
@@ -5856,10 +5888,10 @@
         <v>380</v>
       </c>
       <c r="Q5" s="16"/>
-      <c r="R5" s="27" t="s">
+      <c r="R5" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="S5" s="28"/>
+      <c r="S5" s="20"/>
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="2"/>
@@ -5880,10 +5912,10 @@
       <c r="M6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
-      <c r="R6" s="27" t="s">
+      <c r="R6" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="S6" s="28"/>
+      <c r="S6" s="20"/>
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="2"/>
@@ -6054,7 +6086,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:17">
       <c r="B24" s="17">
         <v>43381</v>
       </c>
@@ -6069,8 +6101,11 @@
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
-    </row>
-    <row r="25" spans="2:13">
+      <c r="Q24" s="28">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
       <c r="B25" s="16" t="s">
         <v>388</v>
       </c>
@@ -6080,105 +6115,162 @@
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-    </row>
-    <row r="26" spans="2:13">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="P25" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+    </row>
+    <row r="26" spans="2:20">
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
-      <c r="I26" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-    </row>
-    <row r="27" spans="2:13">
+      <c r="I26" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="P26" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+    </row>
+    <row r="27" spans="2:20">
       <c r="B27" s="16" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-    </row>
-    <row r="28" spans="2:13">
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="P27" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+    </row>
+    <row r="28" spans="2:20">
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
-      <c r="I28" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-    </row>
-    <row r="29" spans="2:13">
+      <c r="I28" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+    </row>
+    <row r="29" spans="2:20">
       <c r="B29" s="3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="18"/>
       <c r="E29" s="19"/>
       <c r="F29" s="20"/>
       <c r="I29" s="18" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="J29" s="20"/>
-      <c r="K29" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-    </row>
-    <row r="30" spans="9:13">
-      <c r="I30" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-    </row>
-    <row r="31" spans="9:13">
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-    </row>
-    <row r="32" spans="9:13">
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
+      <c r="K29" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+    </row>
+    <row r="30" spans="9:20">
+      <c r="I30" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+    </row>
+    <row r="31" spans="9:20">
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+    </row>
+    <row r="32" spans="9:20">
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="P32" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+    </row>
+    <row r="33" spans="16:20">
+      <c r="P33" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="46">
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="I4:M4"/>
     <mergeCell ref="P4:S4"/>
@@ -6192,12 +6284,16 @@
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="I24:M24"/>
     <mergeCell ref="J25:M25"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P26:T26"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:M29"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="P33:T33"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B14"/>
     <mergeCell ref="C6:C7"/>
@@ -6220,6 +6316,7 @@
     <mergeCell ref="P14:S15"/>
     <mergeCell ref="I26:M27"/>
     <mergeCell ref="I30:M32"/>
+    <mergeCell ref="P27:T31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/日计划.xlsx
+++ b/日计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425">
   <si>
     <t>完成</t>
   </si>
@@ -1244,6 +1244,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>BT-957C出现了些很微妙的问题，VDD，GND TX，RX，使用AT指令调试，发现用CH340串口助手不行，使用开发板就ok。厂商反映好像是 ：</t>
     </r>
     <r>
@@ -1291,15 +1298,39 @@
   <si>
     <t xml:space="preserve">AT+HIDMODE=1，解决了乱码问题，但中文显示不了  </t>
   </si>
+  <si>
+    <t>买的电脑桌终于都到了，家里收拾了一遍，虽然是租房，也要有个可以舒舒服服的坐着学习的地方</t>
+  </si>
+  <si>
+    <t>查看BT-957C资料，是否有发送键盘字符的命令</t>
+  </si>
+  <si>
+    <t>测试BT-957C 发送键值，能发送单个，多个初步测试还哟点问题</t>
+  </si>
+  <si>
+    <t>BT957C测试记录</t>
+  </si>
+  <si>
+    <t>长码200B</t>
+  </si>
+  <si>
+    <t>间隔5s中发一次，上传速度约是40B/S</t>
+  </si>
+  <si>
+    <t>3s</t>
+  </si>
+  <si>
+    <t>发21次，收到18次，三次提示error</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1325,6 +1356,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1332,8 +1371,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1346,8 +1408,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1360,6 +1438,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1368,16 +1461,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1399,71 +1492,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1509,6 +1540,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1521,13 +1558,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,73 +1630,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1641,19 +1666,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1665,25 +1696,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1866,17 +1897,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1897,31 +1948,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1939,27 +1975,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1971,10 +2002,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1983,137 +2014,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2177,19 +2208,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2667,8 +2704,8 @@
   <sheetPr/>
   <dimension ref="B8:M577"/>
   <sheetViews>
-    <sheetView topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="H575" sqref="H575"/>
+    <sheetView topLeftCell="A558" workbookViewId="0">
+      <selection activeCell="G584" sqref="G584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2683,7 +2720,7 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:12">
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="31" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -2701,181 +2738,181 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="4:12">
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32" t="s">
+      <c r="G9" s="33"/>
+      <c r="H9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
     </row>
     <row r="10" spans="6:12">
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32" t="s">
+      <c r="G10" s="33"/>
+      <c r="H10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="6:12">
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="33" t="s">
+      <c r="G11" s="33"/>
+      <c r="H11" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="6:12">
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="34"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
     </row>
     <row r="13" spans="6:12">
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
     </row>
     <row r="14" spans="6:12">
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="32" t="s">
+      <c r="G14" s="37"/>
+      <c r="H14" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="32"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="34"/>
     </row>
     <row r="15" spans="6:12">
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="31" t="s">
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="32"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="34"/>
     </row>
     <row r="20" spans="6:11">
       <c r="F20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38" t="s">
+      <c r="G20" s="39"/>
+      <c r="H20" s="40" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="38"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="6:11">
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="38" t="s">
+      <c r="G21" s="41"/>
+      <c r="H21" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="29"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="6:11">
       <c r="F22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38" t="s">
+      <c r="G22" s="39"/>
+      <c r="H22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="I22" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="31"/>
-      <c r="K22" s="29"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="31"/>
     </row>
     <row r="23" spans="6:11">
       <c r="F23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="37"/>
+      <c r="G23" s="39"/>
       <c r="H23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="29"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="31"/>
     </row>
     <row r="24" spans="6:11">
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="41"/>
+      <c r="G24" s="43"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="29"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="31"/>
     </row>
     <row r="28" spans="6:11">
       <c r="F28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="40" t="s">
         <v>37</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -2888,11 +2925,11 @@
       <c r="E29" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="29" t="s">
+      <c r="G29" s="33"/>
+      <c r="H29" s="31" t="s">
         <v>41</v>
       </c>
       <c r="I29" s="16" t="s">
@@ -2906,7 +2943,7 @@
         <v>43</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="31" t="s">
         <v>44</v>
       </c>
       <c r="I30" s="3" t="s">
@@ -2934,14 +2971,14 @@
         <v>48</v>
       </c>
       <c r="G33" s="16"/>
-      <c r="H33" s="30" t="s">
+      <c r="H33" s="32" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="31" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2956,15 +2993,15 @@
       <c r="G36" s="20"/>
     </row>
     <row r="40" spans="6:7">
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
     </row>
     <row r="41" spans="6:11">
       <c r="F41" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G41" s="18"/>
-      <c r="H41" s="38" t="s">
+      <c r="H41" s="40" t="s">
         <v>52</v>
       </c>
       <c r="I41" s="18" t="s">
@@ -2981,11 +3018,11 @@
       <c r="H42" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="31" t="s">
+      <c r="I42" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
     </row>
     <row r="43" spans="6:11">
       <c r="F43" s="3" t="s">
@@ -2993,31 +3030,31 @@
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="16"/>
-      <c r="I43" s="34" t="s">
+      <c r="I43" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
     </row>
     <row r="44" spans="6:11">
       <c r="F44" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G44" s="18"/>
-      <c r="H44" s="38" t="s">
+      <c r="H44" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
     </row>
     <row r="45" spans="8:8">
-      <c r="H45" s="38" t="s">
+      <c r="H45" s="40" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="46" spans="8:8">
-      <c r="H46" s="38" t="s">
+      <c r="H46" s="40" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3054,7 +3091,7 @@
         <v>63</v>
       </c>
       <c r="G58" s="3"/>
-      <c r="H58" s="38" t="s">
+      <c r="H58" s="40" t="s">
         <v>64</v>
       </c>
       <c r="I58" s="3" t="s">
@@ -3064,11 +3101,11 @@
       <c r="K58" s="3"/>
     </row>
     <row r="59" spans="6:11">
-      <c r="F59" s="35" t="s">
+      <c r="F59" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="G59" s="30"/>
-      <c r="H59" s="29" t="s">
+      <c r="G59" s="32"/>
+      <c r="H59" s="31" t="s">
         <v>67</v>
       </c>
       <c r="I59" s="3" t="s">
@@ -3078,11 +3115,11 @@
       <c r="K59" s="3"/>
     </row>
     <row r="60" spans="6:11">
-      <c r="F60" s="35" t="s">
+      <c r="F60" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="30"/>
-      <c r="H60" s="43" t="s">
+      <c r="G60" s="32"/>
+      <c r="H60" s="45" t="s">
         <v>70</v>
       </c>
       <c r="I60" s="16" t="s">
@@ -3092,11 +3129,11 @@
       <c r="K60" s="16"/>
     </row>
     <row r="61" spans="6:11">
-      <c r="F61" s="34" t="s">
+      <c r="F61" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G61" s="34"/>
-      <c r="H61" s="38" t="s">
+      <c r="G61" s="36"/>
+      <c r="H61" s="40" t="s">
         <v>73</v>
       </c>
       <c r="I61" s="16"/>
@@ -3104,8 +3141,8 @@
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="6:11">
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
       <c r="K62" s="16"/>
@@ -3119,8 +3156,8 @@
       <c r="F67" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="46"/>
-      <c r="H67" s="37" t="s">
+      <c r="G67" s="48"/>
+      <c r="H67" s="39" t="s">
         <v>75</v>
       </c>
       <c r="I67" s="3" t="s">
@@ -3135,11 +3172,11 @@
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="31" t="s">
+      <c r="F68" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="29"/>
-      <c r="H68" s="37" t="s">
+      <c r="G68" s="31"/>
+      <c r="H68" s="39" t="s">
         <v>79</v>
       </c>
       <c r="I68" s="3" t="s">
@@ -3149,77 +3186,77 @@
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="6:11">
-      <c r="F69" s="31" t="s">
+      <c r="F69" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="G69" s="29"/>
-      <c r="H69" s="37" t="s">
+      <c r="G69" s="31"/>
+      <c r="H69" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="I69" s="31" t="s">
+      <c r="I69" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="J69" s="31"/>
-      <c r="K69" s="31"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
     </row>
     <row r="70" spans="6:11">
       <c r="F70" s="16" t="s">
         <v>84</v>
       </c>
       <c r="G70" s="16"/>
-      <c r="H70" s="47" t="s">
+      <c r="H70" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="I70" s="34" t="s">
+      <c r="I70" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
     </row>
     <row r="71" spans="6:11">
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
     </row>
     <row r="72" spans="6:11">
-      <c r="F72" s="34" t="s">
+      <c r="F72" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="G72" s="34"/>
-      <c r="H72" s="39" t="s">
+      <c r="G72" s="36"/>
+      <c r="H72" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="I72" s="34" t="s">
+      <c r="I72" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
     </row>
     <row r="73" spans="6:11">
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
     </row>
     <row r="74" spans="6:11">
       <c r="F74" s="16" t="s">
         <v>90</v>
       </c>
       <c r="G74" s="16"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
     </row>
     <row r="75" spans="6:11">
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
     </row>
     <row r="78" spans="7:10">
       <c r="G78" t="s">
@@ -3233,25 +3270,25 @@
       </c>
     </row>
     <row r="79" spans="6:11">
-      <c r="F79" s="36" t="s">
+      <c r="F79" s="38" t="s">
         <v>94</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I79" s="36" t="s">
+      <c r="I79" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
     </row>
     <row r="80" spans="8:11">
       <c r="H80" s="10"/>
-      <c r="I80" s="36" t="s">
+      <c r="I80" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
     </row>
     <row r="81" spans="10:10">
       <c r="J81" t="s">
@@ -3259,8 +3296,8 @@
       </c>
     </row>
     <row r="86" spans="6:8">
-      <c r="F86" s="38"/>
-      <c r="G86" s="38" t="s">
+      <c r="F86" s="40"/>
+      <c r="G86" s="40" t="s">
         <v>99</v>
       </c>
       <c r="H86" t="s">
@@ -3268,49 +3305,49 @@
       </c>
     </row>
     <row r="87" spans="3:8">
-      <c r="C87" s="48" t="s">
+      <c r="C87" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="34" t="s">
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G87" s="34"/>
+      <c r="G87" s="36"/>
       <c r="H87" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="88" spans="3:8">
-      <c r="C88" s="48"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
       <c r="H88" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="89" spans="6:7">
-      <c r="F89" s="38"/>
-      <c r="G89" s="38" t="s">
+      <c r="F89" s="40"/>
+      <c r="G89" s="40" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="90" spans="6:7">
-      <c r="F90" s="38"/>
-      <c r="G90" s="38" t="s">
+      <c r="F90" s="40"/>
+      <c r="G90" s="40" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="91" spans="6:7">
-      <c r="F91" s="38"/>
-      <c r="G91" s="38" t="s">
+      <c r="F91" s="40"/>
+      <c r="G91" s="40" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" spans="6:9">
-      <c r="F96" s="36" t="s">
+      <c r="F96" s="38" t="s">
         <v>107</v>
       </c>
       <c r="H96" s="18">
@@ -3319,7 +3356,7 @@
       <c r="I96" s="20"/>
     </row>
     <row r="97" spans="6:9">
-      <c r="F97" s="36" t="s">
+      <c r="F97" s="38" t="s">
         <v>108</v>
       </c>
       <c r="H97" s="3" t="s">
@@ -3401,7 +3438,7 @@
       <c r="H113">
         <v>3.2</v>
       </c>
-      <c r="I113" s="36">
+      <c r="I113" s="38">
         <v>3.3</v>
       </c>
     </row>
@@ -3412,10 +3449,10 @@
       <c r="H114" t="s">
         <v>115</v>
       </c>
-      <c r="I114" s="36" t="s">
+      <c r="I114" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="J114" s="36"/>
+      <c r="J114" s="38"/>
     </row>
     <row r="115" spans="7:10">
       <c r="G115" t="s">
@@ -3424,8 +3461,8 @@
       <c r="H115" t="s">
         <v>116</v>
       </c>
-      <c r="I115" s="42"/>
-      <c r="J115" s="42"/>
+      <c r="I115" s="44"/>
+      <c r="J115" s="44"/>
     </row>
     <row r="119" spans="7:9">
       <c r="G119">
@@ -3434,7 +3471,7 @@
       <c r="H119">
         <v>3.6</v>
       </c>
-      <c r="I119" s="36">
+      <c r="I119" s="38">
         <v>3.7</v>
       </c>
     </row>
@@ -3445,10 +3482,10 @@
       <c r="H120" t="s">
         <v>118</v>
       </c>
-      <c r="I120" s="36" t="s">
+      <c r="I120" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="J120" s="36"/>
+      <c r="J120" s="38"/>
     </row>
     <row r="121" spans="8:9">
       <c r="H121" t="s">
@@ -3470,10 +3507,10 @@
       <c r="H127">
         <v>3.13</v>
       </c>
-      <c r="I127" s="36">
+      <c r="I127" s="38">
         <v>3.14</v>
       </c>
-      <c r="J127" s="36"/>
+      <c r="J127" s="38"/>
     </row>
     <row r="128" spans="7:9">
       <c r="G128" s="10" t="s">
@@ -3482,14 +3519,14 @@
       <c r="H128" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="I128" s="36" t="s">
+      <c r="I128" s="38" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="129" spans="7:9">
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
-      <c r="I129" s="36" t="s">
+      <c r="I129" s="38" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3515,10 +3552,10 @@
       </c>
     </row>
     <row r="140" spans="7:10">
-      <c r="G140" s="38">
+      <c r="G140" s="40">
         <v>3.26</v>
       </c>
-      <c r="H140" s="38">
+      <c r="H140" s="40">
         <v>3.27</v>
       </c>
       <c r="J140">
@@ -3529,7 +3566,7 @@
       <c r="G141" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="H141" s="38" t="s">
+      <c r="H141" s="40" t="s">
         <v>131</v>
       </c>
       <c r="J141" t="s">
@@ -3538,7 +3575,7 @@
     </row>
     <row r="142" spans="7:10">
       <c r="G142" s="16"/>
-      <c r="H142" s="38" t="s">
+      <c r="H142" s="40" t="s">
         <v>133</v>
       </c>
       <c r="J142" t="s">
@@ -3549,7 +3586,7 @@
       <c r="G143" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H143" s="38" t="s">
+      <c r="H143" s="40" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3557,7 +3594,7 @@
       <c r="G144" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H144" s="38" t="s">
+      <c r="H144" s="40" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3568,38 +3605,38 @@
       <c r="G146" s="16"/>
     </row>
     <row r="149" spans="7:10">
-      <c r="G149" s="28">
+      <c r="G149" s="30">
         <v>43188</v>
       </c>
-      <c r="H149" s="28">
+      <c r="H149" s="30">
         <v>43189</v>
       </c>
-      <c r="J149" s="51">
+      <c r="J149" s="53">
         <v>43190</v>
       </c>
     </row>
     <row r="150" spans="3:10">
-      <c r="C150" s="49" t="s">
+      <c r="C150" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D150" s="49"/>
-      <c r="E150" s="49"/>
-      <c r="F150" s="49"/>
+      <c r="D150" s="51"/>
+      <c r="E150" s="51"/>
+      <c r="F150" s="51"/>
       <c r="G150" s="16" t="s">
         <v>140</v>
       </c>
       <c r="H150" t="s">
         <v>141</v>
       </c>
-      <c r="J150" s="38" t="s">
+      <c r="J150" s="40" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="151" spans="3:10">
-      <c r="C151" s="49"/>
-      <c r="D151" s="49"/>
-      <c r="E151" s="49"/>
-      <c r="F151" s="49"/>
+      <c r="C151" s="51"/>
+      <c r="D151" s="51"/>
+      <c r="E151" s="51"/>
+      <c r="F151" s="51"/>
       <c r="G151" s="16"/>
       <c r="H151" t="s">
         <v>142</v>
@@ -3609,10 +3646,10 @@
       </c>
     </row>
     <row r="152" spans="3:10">
-      <c r="C152" s="49"/>
-      <c r="D152" s="49"/>
-      <c r="E152" s="49"/>
-      <c r="F152" s="49"/>
+      <c r="C152" s="51"/>
+      <c r="D152" s="51"/>
+      <c r="E152" s="51"/>
+      <c r="F152" s="51"/>
       <c r="G152" s="16"/>
       <c r="J152" s="16"/>
     </row>
@@ -3670,22 +3707,22 @@
       <c r="G163" s="16"/>
     </row>
     <row r="166" spans="7:10">
-      <c r="G166" s="50">
+      <c r="G166" s="52">
         <v>43192</v>
       </c>
-      <c r="H166" s="51">
+      <c r="H166" s="53">
         <v>43193</v>
       </c>
       <c r="I166" s="17">
         <v>43194</v>
       </c>
-      <c r="J166" s="51"/>
+      <c r="J166" s="53"/>
     </row>
     <row r="167" spans="7:10">
-      <c r="G167" s="37" t="s">
+      <c r="G167" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="H167" s="38" t="s">
+      <c r="H167" s="40" t="s">
         <v>150</v>
       </c>
       <c r="I167" s="16" t="s">
@@ -3694,17 +3731,17 @@
       <c r="J167" s="16"/>
     </row>
     <row r="168" spans="7:10">
-      <c r="G168" s="52" t="s">
+      <c r="G168" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="H168" s="38" t="s">
+      <c r="H168" s="40" t="s">
         <v>153</v>
       </c>
       <c r="I168" s="16"/>
       <c r="J168" s="16"/>
     </row>
     <row r="169" spans="7:10">
-      <c r="G169" s="52"/>
+      <c r="G169" s="54"/>
       <c r="H169" s="16" t="s">
         <v>154</v>
       </c>
@@ -3716,10 +3753,10 @@
       <c r="I170" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J170" s="38"/>
+      <c r="J170" s="40"/>
     </row>
     <row r="175" spans="7:7">
-      <c r="G175" s="28">
+      <c r="G175" s="30">
         <v>43199</v>
       </c>
     </row>
@@ -3743,52 +3780,52 @@
       <c r="E177" s="3"/>
     </row>
     <row r="178" spans="2:5">
-      <c r="B178" s="53" t="s">
+      <c r="B178" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="C178" s="53"/>
-      <c r="D178" s="53"/>
-      <c r="E178" s="53"/>
+      <c r="C178" s="55"/>
+      <c r="D178" s="55"/>
+      <c r="E178" s="55"/>
     </row>
     <row r="179" spans="2:5">
-      <c r="B179" s="53"/>
-      <c r="C179" s="53"/>
-      <c r="D179" s="53"/>
-      <c r="E179" s="53"/>
+      <c r="B179" s="55"/>
+      <c r="C179" s="55"/>
+      <c r="D179" s="55"/>
+      <c r="E179" s="55"/>
     </row>
     <row r="180" spans="2:5">
-      <c r="B180" s="53"/>
-      <c r="C180" s="53"/>
-      <c r="D180" s="53"/>
-      <c r="E180" s="53"/>
+      <c r="B180" s="55"/>
+      <c r="C180" s="55"/>
+      <c r="D180" s="55"/>
+      <c r="E180" s="55"/>
     </row>
     <row r="181" spans="2:5">
-      <c r="B181" s="53"/>
-      <c r="C181" s="53"/>
-      <c r="D181" s="53"/>
-      <c r="E181" s="53"/>
+      <c r="B181" s="55"/>
+      <c r="C181" s="55"/>
+      <c r="D181" s="55"/>
+      <c r="E181" s="55"/>
     </row>
     <row r="182" spans="2:10">
-      <c r="B182" s="53"/>
-      <c r="C182" s="53"/>
-      <c r="D182" s="53"/>
-      <c r="E182" s="53"/>
-      <c r="G182" s="28">
+      <c r="B182" s="55"/>
+      <c r="C182" s="55"/>
+      <c r="D182" s="55"/>
+      <c r="E182" s="55"/>
+      <c r="G182" s="30">
         <v>43211</v>
       </c>
-      <c r="H182" s="51">
+      <c r="H182" s="53">
         <v>43215</v>
       </c>
       <c r="I182" s="17">
         <v>43216</v>
       </c>
-      <c r="J182" s="51"/>
+      <c r="J182" s="53"/>
     </row>
     <row r="183" spans="2:10">
-      <c r="B183" s="53"/>
-      <c r="C183" s="53"/>
-      <c r="D183" s="53"/>
-      <c r="E183" s="53"/>
+      <c r="B183" s="55"/>
+      <c r="C183" s="55"/>
+      <c r="D183" s="55"/>
+      <c r="E183" s="55"/>
       <c r="G183" t="s">
         <v>160</v>
       </c>
@@ -3801,10 +3838,10 @@
       <c r="J183" s="16"/>
     </row>
     <row r="184" spans="2:10">
-      <c r="B184" s="53"/>
-      <c r="C184" s="53"/>
-      <c r="D184" s="53"/>
-      <c r="E184" s="53"/>
+      <c r="B184" s="55"/>
+      <c r="C184" s="55"/>
+      <c r="D184" s="55"/>
+      <c r="E184" s="55"/>
       <c r="H184" s="16"/>
       <c r="I184" s="16"/>
       <c r="J184" s="16"/>
@@ -3830,10 +3867,10 @@
       <c r="J188" s="10"/>
     </row>
     <row r="191" spans="7:8">
-      <c r="G191" s="28">
+      <c r="G191" s="30">
         <v>43217</v>
       </c>
-      <c r="H191" s="51">
+      <c r="H191" s="53">
         <v>43218</v>
       </c>
     </row>
@@ -3868,13 +3905,13 @@
       <c r="H198" s="16"/>
     </row>
     <row r="202" spans="7:10">
-      <c r="G202" s="28">
+      <c r="G202" s="30">
         <v>43223</v>
       </c>
-      <c r="H202" s="28">
+      <c r="H202" s="30">
         <v>43225</v>
       </c>
-      <c r="J202" s="28">
+      <c r="J202" s="30">
         <v>43227</v>
       </c>
     </row>
@@ -3903,13 +3940,13 @@
       </c>
     </row>
     <row r="208" spans="10:10">
-      <c r="J208" s="28"/>
+      <c r="J208" s="30"/>
     </row>
     <row r="209" spans="7:8">
-      <c r="G209" s="51">
+      <c r="G209" s="53">
         <v>43231</v>
       </c>
-      <c r="H209" s="28">
+      <c r="H209" s="30">
         <v>43234</v>
       </c>
     </row>
@@ -3929,7 +3966,7 @@
       <c r="G212" s="16"/>
     </row>
     <row r="213" spans="7:7">
-      <c r="G213" s="38" t="s">
+      <c r="G213" s="40" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3939,26 +3976,26 @@
       </c>
     </row>
     <row r="215" spans="7:7">
-      <c r="G215" s="46"/>
+      <c r="G215" s="48"/>
     </row>
     <row r="220" spans="7:10">
-      <c r="G220" s="54">
+      <c r="G220" s="56">
         <v>43236</v>
       </c>
-      <c r="H220" s="54">
+      <c r="H220" s="56">
         <v>43238</v>
       </c>
       <c r="I220" s="17">
         <v>43239</v>
       </c>
-      <c r="J220" s="51"/>
+      <c r="J220" s="53"/>
     </row>
     <row r="221" spans="7:10">
       <c r="G221" s="3" t="s">
         <v>175</v>
       </c>
       <c r="H221" s="3"/>
-      <c r="I221" s="55" t="s">
+      <c r="I221" s="57" t="s">
         <v>176</v>
       </c>
       <c r="J221" s="16"/>
@@ -3968,7 +4005,7 @@
         <v>177</v>
       </c>
       <c r="H222" s="16"/>
-      <c r="I222" s="55"/>
+      <c r="I222" s="57"/>
       <c r="J222" s="16"/>
     </row>
     <row r="223" spans="7:10">
@@ -3977,7 +4014,7 @@
       <c r="I223" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="J223" s="38"/>
+      <c r="J223" s="40"/>
     </row>
     <row r="224" spans="7:8">
       <c r="G224" s="3" t="s">
@@ -3986,16 +4023,16 @@
       <c r="H224" s="3"/>
     </row>
     <row r="229" spans="7:10">
-      <c r="G229" s="28">
+      <c r="G229" s="30">
         <v>43241</v>
       </c>
-      <c r="H229" s="28">
+      <c r="H229" s="30">
         <v>43243</v>
       </c>
       <c r="I229" s="17">
         <v>43244</v>
       </c>
-      <c r="J229" s="51"/>
+      <c r="J229" s="53"/>
     </row>
     <row r="230" spans="7:10">
       <c r="G230" s="10" t="s">
@@ -4022,7 +4059,7 @@
       <c r="I232" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J232" s="38"/>
+      <c r="J232" s="40"/>
     </row>
     <row r="233" spans="9:9">
       <c r="I233" t="s">
@@ -4030,7 +4067,7 @@
       </c>
     </row>
     <row r="238" spans="7:7">
-      <c r="G238" s="28">
+      <c r="G238" s="30">
         <v>43245</v>
       </c>
     </row>
@@ -4041,7 +4078,7 @@
       <c r="I239" s="17">
         <v>43248</v>
       </c>
-      <c r="J239" s="51"/>
+      <c r="J239" s="53"/>
     </row>
     <row r="240" spans="7:10">
       <c r="G240" s="10" t="s">
@@ -4050,7 +4087,7 @@
       <c r="I240" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J240" s="38"/>
+      <c r="J240" s="40"/>
     </row>
     <row r="241" spans="7:10">
       <c r="G241" s="10"/>
@@ -4101,10 +4138,10 @@
       <c r="J250" s="16"/>
     </row>
     <row r="254" spans="7:8">
-      <c r="G254" s="28">
+      <c r="G254" s="30">
         <v>43249</v>
       </c>
-      <c r="H254" s="28">
+      <c r="H254" s="30">
         <v>43250</v>
       </c>
     </row>
@@ -4131,13 +4168,13 @@
       <c r="G264" s="17">
         <v>43252</v>
       </c>
-      <c r="H264" s="51">
+      <c r="H264" s="53">
         <v>43253</v>
       </c>
       <c r="I264" s="17">
         <v>43255</v>
       </c>
-      <c r="J264" s="51"/>
+      <c r="J264" s="53"/>
     </row>
     <row r="265" spans="7:10">
       <c r="G265" s="3" t="s">
@@ -4161,7 +4198,7 @@
     </row>
     <row r="267" spans="7:10">
       <c r="G267" s="16"/>
-      <c r="H267" s="38" t="s">
+      <c r="H267" s="40" t="s">
         <v>199</v>
       </c>
       <c r="I267" s="16"/>
@@ -4219,16 +4256,16 @@
       <c r="G280" s="16"/>
     </row>
     <row r="287" spans="7:10">
-      <c r="G287" s="51">
+      <c r="G287" s="53">
         <v>43256</v>
       </c>
-      <c r="H287" s="51">
+      <c r="H287" s="53">
         <v>43257</v>
       </c>
-      <c r="I287" s="21">
+      <c r="I287" s="25">
         <v>43258</v>
       </c>
-      <c r="J287" s="57"/>
+      <c r="J287" s="59"/>
     </row>
     <row r="288" spans="7:10">
       <c r="G288" s="16" t="s">
@@ -4252,28 +4289,28 @@
       <c r="G290" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H290" s="38" t="s">
+      <c r="H290" s="40" t="s">
         <v>208</v>
       </c>
       <c r="I290" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="J290" s="58"/>
+      <c r="J290" s="60"/>
     </row>
     <row r="291" spans="7:10">
       <c r="G291" s="16"/>
-      <c r="H291" s="38"/>
-      <c r="I291" s="38"/>
-      <c r="J291" s="38"/>
+      <c r="H291" s="40"/>
+      <c r="I291" s="40"/>
+      <c r="J291" s="40"/>
     </row>
     <row r="292" spans="7:10">
-      <c r="G292" s="38"/>
-      <c r="H292" s="38"/>
-      <c r="I292" s="38"/>
-      <c r="J292" s="38"/>
+      <c r="G292" s="40"/>
+      <c r="H292" s="40"/>
+      <c r="I292" s="40"/>
+      <c r="J292" s="40"/>
     </row>
     <row r="297" spans="7:7">
-      <c r="G297" s="28">
+      <c r="G297" s="30">
         <v>43259</v>
       </c>
     </row>
@@ -4307,40 +4344,40 @@
       <c r="L304" s="16"/>
     </row>
     <row r="305" spans="12:12">
-      <c r="L305" s="42"/>
+      <c r="L305" s="44"/>
     </row>
     <row r="306" spans="12:12">
-      <c r="L306" s="42"/>
+      <c r="L306" s="44"/>
     </row>
     <row r="307" spans="12:12">
-      <c r="L307" s="42"/>
+      <c r="L307" s="44"/>
     </row>
     <row r="308" spans="12:12">
-      <c r="L308" s="42"/>
+      <c r="L308" s="44"/>
     </row>
     <row r="309" spans="12:12">
-      <c r="L309" s="42"/>
+      <c r="L309" s="44"/>
     </row>
     <row r="313" spans="7:10">
-      <c r="G313" s="28">
+      <c r="G313" s="30">
         <v>43271</v>
       </c>
-      <c r="H313" s="28">
+      <c r="H313" s="30">
         <v>43272</v>
       </c>
-      <c r="I313" s="22">
+      <c r="I313" s="26">
         <v>43273</v>
       </c>
-      <c r="J313" s="28"/>
+      <c r="J313" s="30"/>
     </row>
     <row r="314" spans="7:10">
-      <c r="G314" s="56" t="s">
+      <c r="G314" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="H314" s="56" t="s">
+      <c r="H314" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="I314" s="59" t="s">
+      <c r="I314" s="61" t="s">
         <v>214</v>
       </c>
       <c r="J314" s="3"/>
@@ -4352,10 +4389,10 @@
       <c r="J315" s="3"/>
     </row>
     <row r="317" spans="7:10">
-      <c r="G317" s="38" t="s">
+      <c r="G317" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="H317" s="38" t="s">
+      <c r="H317" s="40" t="s">
         <v>216</v>
       </c>
       <c r="I317" s="3" t="s">
@@ -4372,13 +4409,13 @@
       </c>
     </row>
     <row r="322" spans="7:10">
-      <c r="G322" s="51">
+      <c r="G322" s="53">
         <v>43274</v>
       </c>
-      <c r="H322" s="28">
+      <c r="H322" s="30">
         <v>43276</v>
       </c>
-      <c r="J322" s="28">
+      <c r="J322" s="30">
         <v>43277</v>
       </c>
     </row>
@@ -4426,13 +4463,13 @@
       <c r="H329" s="10"/>
     </row>
     <row r="334" spans="7:10">
-      <c r="G334" s="51">
+      <c r="G334" s="53">
         <v>43278</v>
       </c>
-      <c r="H334" s="51">
+      <c r="H334" s="53">
         <v>43279</v>
       </c>
-      <c r="J334" s="28">
+      <c r="J334" s="30">
         <v>43280</v>
       </c>
     </row>
@@ -4453,19 +4490,19 @@
       <c r="H337" s="16"/>
     </row>
     <row r="338" spans="7:8">
-      <c r="G338" s="52"/>
+      <c r="G338" s="54"/>
       <c r="H338" s="16" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="339" spans="7:8">
-      <c r="G339" s="52" t="s">
+      <c r="G339" s="54" t="s">
         <v>230</v>
       </c>
       <c r="H339" s="16"/>
     </row>
     <row r="340" spans="7:8">
-      <c r="G340" s="52"/>
+      <c r="G340" s="54"/>
       <c r="H340" s="16"/>
     </row>
     <row r="341" spans="8:8">
@@ -4475,19 +4512,19 @@
       <c r="H342" s="16"/>
     </row>
     <row r="345" spans="7:10">
-      <c r="G345" s="60">
+      <c r="G345" s="62">
         <v>43281</v>
       </c>
-      <c r="H345" s="28">
+      <c r="H345" s="30">
         <v>43283</v>
       </c>
-      <c r="I345" s="22">
+      <c r="I345" s="26">
         <v>43285</v>
       </c>
-      <c r="J345" s="28"/>
+      <c r="J345" s="30"/>
     </row>
     <row r="346" spans="7:10">
-      <c r="G346" s="61" t="s">
+      <c r="G346" s="63" t="s">
         <v>231</v>
       </c>
       <c r="H346" s="10" t="s">
@@ -4499,39 +4536,39 @@
       <c r="J346" s="10"/>
     </row>
     <row r="347" spans="7:10">
-      <c r="G347" s="61"/>
+      <c r="G347" s="63"/>
       <c r="H347" s="10"/>
       <c r="I347" s="10"/>
       <c r="J347" s="10"/>
     </row>
     <row r="348" spans="7:7">
-      <c r="G348" s="61"/>
+      <c r="G348" s="63"/>
     </row>
     <row r="349" spans="7:7">
-      <c r="G349" s="61"/>
+      <c r="G349" s="63"/>
     </row>
     <row r="350" spans="7:7">
-      <c r="G350" s="61"/>
+      <c r="G350" s="63"/>
     </row>
     <row r="351" spans="7:7">
-      <c r="G351" s="61"/>
+      <c r="G351" s="63"/>
     </row>
     <row r="352" spans="7:7">
-      <c r="G352" s="61"/>
+      <c r="G352" s="63"/>
     </row>
     <row r="353" spans="7:7">
-      <c r="G353" s="61" t="s">
+      <c r="G353" s="63" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="354" spans="7:7">
-      <c r="G354" s="61"/>
+      <c r="G354" s="63"/>
     </row>
     <row r="357" spans="7:10">
-      <c r="G357" s="28">
+      <c r="G357" s="30">
         <v>43286</v>
       </c>
-      <c r="J357" s="28">
+      <c r="J357" s="30">
         <v>43288</v>
       </c>
     </row>
@@ -4552,10 +4589,10 @@
       <c r="J359" s="10"/>
     </row>
     <row r="365" spans="7:8">
-      <c r="G365" s="28">
+      <c r="G365" s="30">
         <v>43292</v>
       </c>
-      <c r="H365" s="51">
+      <c r="H365" s="53">
         <v>43293</v>
       </c>
     </row>
@@ -4582,13 +4619,13 @@
       <c r="H369" s="16"/>
     </row>
     <row r="374" spans="7:10">
-      <c r="G374" s="28">
+      <c r="G374" s="30">
         <v>43307</v>
       </c>
-      <c r="H374" s="51">
+      <c r="H374" s="53">
         <v>43308</v>
       </c>
-      <c r="J374" s="28">
+      <c r="J374" s="30">
         <v>43311</v>
       </c>
     </row>
@@ -4612,7 +4649,7 @@
     </row>
     <row r="377" spans="7:8">
       <c r="G377" s="10"/>
-      <c r="H377" s="38" t="s">
+      <c r="H377" s="40" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4625,18 +4662,18 @@
       <c r="H379" s="16"/>
     </row>
     <row r="384" spans="7:10">
-      <c r="G384" s="51">
+      <c r="G384" s="53">
         <v>43312</v>
       </c>
-      <c r="H384" s="28">
+      <c r="H384" s="30">
         <v>43313</v>
       </c>
-      <c r="J384" s="28">
+      <c r="J384" s="30">
         <v>43314</v>
       </c>
     </row>
     <row r="385" spans="7:10">
-      <c r="G385" s="38" t="s">
+      <c r="G385" s="40" t="s">
         <v>247</v>
       </c>
       <c r="H385" s="10" t="s">
@@ -4647,7 +4684,7 @@
       </c>
     </row>
     <row r="386" spans="7:10">
-      <c r="G386" s="38" t="s">
+      <c r="G386" s="40" t="s">
         <v>250</v>
       </c>
       <c r="H386" s="10"/>
@@ -4656,7 +4693,7 @@
       </c>
     </row>
     <row r="387" spans="7:10">
-      <c r="G387" s="38" t="s">
+      <c r="G387" s="40" t="s">
         <v>252</v>
       </c>
       <c r="H387" s="10"/>
@@ -4674,13 +4711,13 @@
       <c r="H389" s="10"/>
     </row>
     <row r="393" spans="7:10">
-      <c r="G393" s="28">
+      <c r="G393" s="30">
         <v>43315</v>
       </c>
-      <c r="H393" s="28">
+      <c r="H393" s="30">
         <v>43316</v>
       </c>
-      <c r="J393" s="28">
+      <c r="J393" s="30">
         <v>43318</v>
       </c>
     </row>
@@ -4713,13 +4750,13 @@
       <c r="G397" s="10"/>
     </row>
     <row r="401" spans="7:10">
-      <c r="G401" s="28">
+      <c r="G401" s="30">
         <v>43319</v>
       </c>
-      <c r="H401" s="28">
+      <c r="H401" s="30">
         <v>43320</v>
       </c>
-      <c r="J401" s="28">
+      <c r="J401" s="30">
         <v>43321</v>
       </c>
     </row>
@@ -4773,12 +4810,12 @@
       <c r="J408" s="10"/>
     </row>
     <row r="409" spans="9:9">
-      <c r="I409" s="36" t="s">
+      <c r="I409" s="38" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="414" spans="7:8">
-      <c r="G414" s="28">
+      <c r="G414" s="30">
         <v>43322</v>
       </c>
       <c r="H414" t="s">
@@ -4802,13 +4839,13 @@
       <c r="G418" s="10"/>
     </row>
     <row r="423" spans="7:10">
-      <c r="G423" s="28">
+      <c r="G423" s="30">
         <v>43325</v>
       </c>
-      <c r="H423" s="28">
+      <c r="H423" s="30">
         <v>43326</v>
       </c>
-      <c r="J423" s="28">
+      <c r="J423" s="30">
         <v>43327</v>
       </c>
     </row>
@@ -4834,21 +4871,21 @@
       </c>
     </row>
     <row r="432" spans="7:13">
-      <c r="G432" s="28">
+      <c r="G432" s="30">
         <v>43328</v>
       </c>
-      <c r="H432" s="28">
+      <c r="H432" s="30">
         <v>43329</v>
       </c>
-      <c r="I432" s="64">
+      <c r="I432" s="66">
         <v>43330</v>
       </c>
-      <c r="J432" s="62"/>
-      <c r="K432" s="65"/>
-      <c r="L432" s="63" t="s">
+      <c r="J432" s="64"/>
+      <c r="K432" s="67"/>
+      <c r="L432" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="M432" s="63" t="s">
+      <c r="M432" s="65" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4862,8 +4899,8 @@
       <c r="I433" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="J433" s="52"/>
-      <c r="K433" s="38" t="s">
+      <c r="J433" s="54"/>
+      <c r="K433" s="40" t="s">
         <v>282</v>
       </c>
       <c r="L433" s="3">
@@ -4879,8 +4916,8 @@
         <v>283</v>
       </c>
       <c r="I434" s="16"/>
-      <c r="J434" s="52"/>
-      <c r="K434" s="38" t="s">
+      <c r="J434" s="54"/>
+      <c r="K434" s="40" t="s">
         <v>284</v>
       </c>
       <c r="L434" s="3">
@@ -4899,11 +4936,11 @@
       </c>
       <c r="I435" s="16"/>
       <c r="J435" s="16"/>
-      <c r="K435" s="35" t="s">
+      <c r="K435" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="L435" s="35"/>
-      <c r="M435" s="35"/>
+      <c r="L435" s="37"/>
+      <c r="M435" s="37"/>
     </row>
     <row r="436" spans="7:10">
       <c r="G436" s="10" t="s">
@@ -4940,24 +4977,24 @@
       <c r="J441" s="16"/>
     </row>
     <row r="446" spans="5:10">
-      <c r="E446" s="62">
+      <c r="E446" s="64">
         <v>43332</v>
       </c>
-      <c r="F446" s="63" t="s">
+      <c r="F446" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="G446" s="63" t="s">
+      <c r="G446" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="H446" s="28">
+      <c r="H446" s="30">
         <v>43333</v>
       </c>
-      <c r="J446" s="28">
+      <c r="J446" s="30">
         <v>43334</v>
       </c>
     </row>
     <row r="447" spans="5:10">
-      <c r="E447" s="38" t="s">
+      <c r="E447" s="40" t="s">
         <v>282</v>
       </c>
       <c r="F447" s="3">
@@ -4975,7 +5012,7 @@
       <c r="J447" s="10"/>
     </row>
     <row r="448" spans="5:10">
-      <c r="E448" s="38" t="s">
+      <c r="E448" s="40" t="s">
         <v>284</v>
       </c>
       <c r="F448" s="3">
@@ -4988,11 +5025,11 @@
       <c r="J448" s="10"/>
     </row>
     <row r="449" spans="5:10">
-      <c r="E449" s="35" t="s">
+      <c r="E449" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="F449" s="35"/>
-      <c r="G449" s="35"/>
+      <c r="F449" s="37"/>
+      <c r="G449" s="37"/>
       <c r="I449" s="10"/>
       <c r="J449" s="10"/>
     </row>
@@ -5005,11 +5042,11 @@
       <c r="F458" s="17">
         <v>43335</v>
       </c>
-      <c r="G458" s="50"/>
-      <c r="H458" s="51">
+      <c r="G458" s="52"/>
+      <c r="H458" s="53">
         <v>43336</v>
       </c>
-      <c r="J458" s="28">
+      <c r="J458" s="30">
         <v>43337</v>
       </c>
     </row>
@@ -5017,8 +5054,8 @@
       <c r="F459" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G459" s="37"/>
-      <c r="H459" s="38" t="s">
+      <c r="G459" s="39"/>
+      <c r="H459" s="40" t="s">
         <v>295</v>
       </c>
       <c r="J459" t="s">
@@ -5029,7 +5066,7 @@
       <c r="F460" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="G460" s="52"/>
+      <c r="G460" s="54"/>
       <c r="H460" s="16" t="s">
         <v>298</v>
       </c>
@@ -5039,7 +5076,7 @@
     </row>
     <row r="461" spans="6:10">
       <c r="F461" s="16"/>
-      <c r="G461" s="52"/>
+      <c r="G461" s="54"/>
       <c r="H461" s="16"/>
       <c r="J461" t="s">
         <v>300</v>
@@ -5049,7 +5086,7 @@
       <c r="F462" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="G462" s="52"/>
+      <c r="G462" s="54"/>
       <c r="H462" s="16"/>
       <c r="J462" t="s">
         <v>302</v>
@@ -5057,7 +5094,7 @@
     </row>
     <row r="463" spans="6:10">
       <c r="F463" s="16"/>
-      <c r="G463" s="52"/>
+      <c r="G463" s="54"/>
       <c r="H463" s="16" t="s">
         <v>303</v>
       </c>
@@ -5069,7 +5106,7 @@
       <c r="H464" s="16"/>
     </row>
     <row r="465" spans="8:8">
-      <c r="H465" s="38" t="s">
+      <c r="H465" s="40" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5077,11 +5114,11 @@
       <c r="F470" s="17">
         <v>43339</v>
       </c>
-      <c r="G470" s="51"/>
-      <c r="H470" s="51">
+      <c r="G470" s="53"/>
+      <c r="H470" s="53">
         <v>43340</v>
       </c>
-      <c r="J470" s="28">
+      <c r="J470" s="30">
         <v>43341</v>
       </c>
     </row>
@@ -5089,7 +5126,7 @@
       <c r="F471" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G471" s="38"/>
+      <c r="G471" s="40"/>
       <c r="H471" s="16" t="s">
         <v>307</v>
       </c>
@@ -5102,7 +5139,7 @@
       <c r="F472" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G472" s="38"/>
+      <c r="G472" s="40"/>
       <c r="H472" s="16"/>
       <c r="I472" s="10"/>
       <c r="J472" s="10"/>
@@ -5137,7 +5174,7 @@
     <row r="476" spans="6:10">
       <c r="F476" s="16"/>
       <c r="G476" s="16"/>
-      <c r="H476" s="46"/>
+      <c r="H476" s="48"/>
       <c r="I476" s="10"/>
       <c r="J476" s="10"/>
     </row>
@@ -5145,8 +5182,8 @@
       <c r="F477" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G477" s="38"/>
-      <c r="H477" s="38" t="s">
+      <c r="G477" s="40"/>
+      <c r="H477" s="40" t="s">
         <v>314</v>
       </c>
     </row>
@@ -5154,19 +5191,19 @@
       <c r="F478" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="G478" s="38"/>
-      <c r="H478" s="46" t="s">
+      <c r="G478" s="40"/>
+      <c r="H478" s="48" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="482" spans="7:10">
-      <c r="G482" s="28">
+      <c r="G482" s="30">
         <v>43342</v>
       </c>
-      <c r="H482" s="28">
+      <c r="H482" s="30">
         <v>43343</v>
       </c>
-      <c r="J482" s="28">
+      <c r="J482" s="30">
         <v>43344</v>
       </c>
     </row>
@@ -5217,10 +5254,10 @@
       <c r="H487" t="s">
         <v>326</v>
       </c>
-      <c r="I487" s="36" t="s">
+      <c r="I487" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="J487" s="36"/>
+      <c r="J487" s="38"/>
     </row>
     <row r="488" spans="7:10">
       <c r="G488" s="10"/>
@@ -5245,7 +5282,7 @@
       <c r="H490" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="I490" s="36" t="s">
+      <c r="I490" s="38" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5269,13 +5306,13 @@
       <c r="H495" s="10"/>
     </row>
     <row r="500" spans="7:10">
-      <c r="G500" s="28">
+      <c r="G500" s="30">
         <v>43346</v>
       </c>
-      <c r="H500" s="28">
+      <c r="H500" s="30">
         <v>43347</v>
       </c>
-      <c r="J500" s="28">
+      <c r="J500" s="30">
         <v>43348</v>
       </c>
     </row>
@@ -5320,13 +5357,13 @@
       <c r="J505" s="10"/>
     </row>
     <row r="512" spans="7:10">
-      <c r="G512" s="28">
+      <c r="G512" s="30">
         <v>43349</v>
       </c>
-      <c r="H512" s="28">
+      <c r="H512" s="30">
         <v>43350</v>
       </c>
-      <c r="J512" s="28">
+      <c r="J512" s="30">
         <v>43351</v>
       </c>
     </row>
@@ -5352,7 +5389,7 @@
       <c r="G515" t="s">
         <v>345</v>
       </c>
-      <c r="H515" s="36" t="s">
+      <c r="H515" s="38" t="s">
         <v>346</v>
       </c>
       <c r="I515" s="16"/>
@@ -5362,7 +5399,7 @@
       <c r="G516" t="s">
         <v>347</v>
       </c>
-      <c r="H516" s="36"/>
+      <c r="H516" s="38"/>
       <c r="I516" s="16"/>
       <c r="J516" s="16"/>
     </row>
@@ -5385,13 +5422,13 @@
       <c r="G520" s="10"/>
     </row>
     <row r="527" spans="7:10">
-      <c r="G527" s="28">
+      <c r="G527" s="30">
         <v>43353</v>
       </c>
-      <c r="H527" s="28">
+      <c r="H527" s="30">
         <v>43354</v>
       </c>
-      <c r="J527" s="28">
+      <c r="J527" s="30">
         <v>43355</v>
       </c>
     </row>
@@ -5426,13 +5463,13 @@
       </c>
     </row>
     <row r="536" spans="7:10">
-      <c r="G536" s="28">
+      <c r="G536" s="30">
         <v>43356</v>
       </c>
-      <c r="H536" s="28">
+      <c r="H536" s="30">
         <v>43357</v>
       </c>
-      <c r="J536" s="28">
+      <c r="J536" s="30">
         <v>43358</v>
       </c>
     </row>
@@ -5451,13 +5488,13 @@
       <c r="G538" s="10"/>
     </row>
     <row r="546" spans="7:10">
-      <c r="G546" s="28">
+      <c r="G546" s="30">
         <v>43361</v>
       </c>
-      <c r="H546" s="28">
+      <c r="H546" s="30">
         <v>43362</v>
       </c>
-      <c r="J546" s="28">
+      <c r="J546" s="30">
         <v>43363</v>
       </c>
     </row>
@@ -5468,12 +5505,12 @@
       <c r="H547" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="I547" s="36" t="s">
+      <c r="I547" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="J547" s="36"/>
-      <c r="K547" s="36"/>
-      <c r="L547" s="36"/>
+      <c r="J547" s="38"/>
+      <c r="K547" s="38"/>
+      <c r="L547" s="38"/>
     </row>
     <row r="548" spans="7:8">
       <c r="G548" s="10"/>
@@ -5490,7 +5527,7 @@
       </c>
     </row>
     <row r="553" spans="7:7">
-      <c r="G553" s="28">
+      <c r="G553" s="30">
         <v>43364</v>
       </c>
     </row>
@@ -5506,13 +5543,13 @@
       <c r="G556" s="10"/>
     </row>
     <row r="563" spans="7:10">
-      <c r="G563" s="28">
+      <c r="G563" s="30">
         <v>43368</v>
       </c>
-      <c r="H563" s="51">
+      <c r="H563" s="53">
         <v>43369</v>
       </c>
-      <c r="J563" s="28">
+      <c r="J563" s="30">
         <v>43370</v>
       </c>
     </row>
@@ -5535,7 +5572,7 @@
       </c>
     </row>
     <row r="566" spans="8:8">
-      <c r="H566" s="38" t="s">
+      <c r="H566" s="40" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5548,10 +5585,10 @@
       <c r="H568" s="16"/>
     </row>
     <row r="574" spans="7:8">
-      <c r="G574" s="28">
+      <c r="G574" s="30">
         <v>43371</v>
       </c>
-      <c r="H574" s="28">
+      <c r="H574" s="30">
         <v>43372</v>
       </c>
     </row>
@@ -5830,14 +5867,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:T33"/>
+  <dimension ref="B4:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="3" max="3" width="9.125"/>
     <col min="17" max="17" width="9.125"/>
   </cols>
   <sheetData>
@@ -5856,12 +5894,12 @@
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="P4" s="21">
+      <c r="P4" s="25">
         <v>43380</v>
       </c>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="27"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="29"/>
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="2" t="s">
@@ -6094,14 +6132,14 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
-      <c r="I24" s="22">
+      <c r="I24" s="26">
         <v>43382</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="Q24" s="28">
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="Q24" s="30">
         <v>43383</v>
       </c>
     </row>
@@ -6124,13 +6162,13 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="P25" s="23" t="s">
+      <c r="P25" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
     </row>
     <row r="26" spans="2:20">
       <c r="B26" s="16"/>
@@ -6145,13 +6183,13 @@
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
-      <c r="P26" s="23" t="s">
+      <c r="P26" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="16" t="s">
@@ -6168,13 +6206,13 @@
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
-      <c r="P27" s="24" t="s">
+      <c r="P27" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" s="16"/>
@@ -6191,11 +6229,11 @@
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="2:20">
       <c r="B29" s="3" t="s">
@@ -6214,11 +6252,11 @@
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="9:20">
       <c r="I30" s="16" t="s">
@@ -6228,11 +6266,11 @@
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" spans="9:20">
       <c r="I31" s="16"/>
@@ -6240,11 +6278,11 @@
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
     </row>
     <row r="32" spans="9:20">
       <c r="I32" s="16"/>
@@ -6252,25 +6290,103 @@
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
-      <c r="P32" s="23" t="s">
+      <c r="P32" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
     </row>
     <row r="33" spans="16:20">
-      <c r="P33" s="23" t="s">
+      <c r="P33" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="16:20">
+      <c r="P34" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+    </row>
+    <row r="35" spans="16:20">
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="21">
+        <v>43384</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" t="s">
+        <v>421</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" t="s">
+        <v>423</v>
+      </c>
+      <c r="D47" t="s">
+        <v>424</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="52">
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="I4:M4"/>
     <mergeCell ref="P4:S4"/>
@@ -6294,6 +6410,10 @@
     <mergeCell ref="K29:M29"/>
     <mergeCell ref="P32:T32"/>
     <mergeCell ref="P33:T33"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="C46:F46"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B14"/>
     <mergeCell ref="C6:C7"/>
@@ -6317,6 +6437,8 @@
     <mergeCell ref="I26:M27"/>
     <mergeCell ref="I30:M32"/>
     <mergeCell ref="P27:T31"/>
+    <mergeCell ref="P34:T35"/>
+    <mergeCell ref="B43:F44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/日计划.xlsx
+++ b/日计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440">
   <si>
     <t>完成</t>
   </si>
@@ -1302,25 +1302,71 @@
     <t>买的电脑桌终于都到了，家里收拾了一遍，虽然是租房，也要有个可以舒舒服服的坐着学习的地方</t>
   </si>
   <si>
+    <t>BT-957C测试</t>
+  </si>
+  <si>
     <t>查看BT-957C资料，是否有发送键盘字符的命令</t>
   </si>
   <si>
+    <t>测试设备</t>
+  </si>
+  <si>
+    <t>距离</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>间隔s</t>
+  </si>
+  <si>
+    <t>发送次数</t>
+  </si>
+  <si>
+    <t>收到次数</t>
+  </si>
+  <si>
+    <t>提示失败</t>
+  </si>
+  <si>
+    <t>是否误码</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>测试BT-957C 发送键值，能发送单个，多个初步测试还哟点问题</t>
   </si>
   <si>
+    <t xml:space="preserve">手机
+</t>
+  </si>
+  <si>
+    <t>半米</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
     <t>BT957C测试记录</t>
   </si>
   <si>
     <t>长码200B</t>
   </si>
   <si>
-    <t>间隔5s中发一次，上传速度约是40B/S</t>
-  </si>
-  <si>
-    <t>3s</t>
-  </si>
-  <si>
-    <t>发21次，收到18次，三次提示error</t>
+    <t>间隔5s中发一次，上传速度约是40B/S,输出提示没问题</t>
+  </si>
+  <si>
+    <t>3s ，发21次，收到18次，三次提示error</t>
+  </si>
+  <si>
+    <t>换行位置出错</t>
+  </si>
+  <si>
+    <t>15m</t>
+  </si>
+  <si>
+    <t>初步测试 手机与蓝牙模块距离测试约70~80米，但数据出错</t>
   </si>
 </sst>
 </file>
@@ -1328,9 +1374,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1356,44 +1402,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1410,22 +1418,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1439,30 +1453,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1476,8 +1475,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1495,6 +1525,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1540,7 +1586,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,55 +1616,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,37 +1670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,43 +1682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,7 +1700,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1897,37 +1943,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1947,17 +1973,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1965,8 +1985,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1994,6 +2014,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2002,10 +2048,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2014,137 +2060,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2211,14 +2257,20 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2229,6 +2281,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2236,6 +2303,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -2413,6 +2486,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>151130</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13763625" y="5886450"/>
+          <a:ext cx="8361680" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2704,8 +2824,8 @@
   <sheetPr/>
   <dimension ref="B8:M577"/>
   <sheetViews>
-    <sheetView topLeftCell="A558" workbookViewId="0">
-      <selection activeCell="G584" sqref="G584"/>
+    <sheetView topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="G501" sqref="G501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2720,7 +2840,7 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:12">
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="40" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -2738,181 +2858,181 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="4:12">
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34" t="s">
+      <c r="G9" s="42"/>
+      <c r="H9" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
     </row>
     <row r="10" spans="6:12">
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34" t="s">
+      <c r="G10" s="42"/>
+      <c r="H10" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
     </row>
     <row r="11" spans="6:12">
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="35" t="s">
+      <c r="G11" s="42"/>
+      <c r="H11" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="6:12">
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="36"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
     </row>
     <row r="13" spans="6:12">
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
     </row>
     <row r="14" spans="6:12">
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="34" t="s">
+      <c r="G14" s="46"/>
+      <c r="H14" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="34"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="43"/>
     </row>
     <row r="15" spans="6:12">
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="33" t="s">
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="34"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="43"/>
     </row>
     <row r="20" spans="6:11">
       <c r="F20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40" t="s">
+      <c r="G20" s="48"/>
+      <c r="H20" s="49" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="40"/>
+      <c r="K20" s="49"/>
     </row>
     <row r="21" spans="6:11">
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="40" t="s">
+      <c r="G21" s="50"/>
+      <c r="H21" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="31"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="6:11">
       <c r="F22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40" t="s">
+      <c r="G22" s="48"/>
+      <c r="H22" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="31"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="6:11">
       <c r="F23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="39"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="33"/>
-      <c r="K23" s="31"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="24" spans="6:11">
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="43"/>
+      <c r="G24" s="52"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="31"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="40"/>
     </row>
     <row r="28" spans="6:11">
       <c r="F28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="49" t="s">
         <v>37</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -2925,11 +3045,11 @@
       <c r="E29" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="31" t="s">
+      <c r="G29" s="42"/>
+      <c r="H29" s="40" t="s">
         <v>41</v>
       </c>
       <c r="I29" s="16" t="s">
@@ -2943,7 +3063,7 @@
         <v>43</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="40" t="s">
         <v>44</v>
       </c>
       <c r="I30" s="3" t="s">
@@ -2971,14 +3091,14 @@
         <v>48</v>
       </c>
       <c r="G33" s="16"/>
-      <c r="H33" s="32" t="s">
+      <c r="H33" s="41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="31" t="s">
+      <c r="H34" s="40" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2993,15 +3113,15 @@
       <c r="G36" s="20"/>
     </row>
     <row r="40" spans="6:7">
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
     </row>
     <row r="41" spans="6:11">
       <c r="F41" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G41" s="18"/>
-      <c r="H41" s="40" t="s">
+      <c r="H41" s="49" t="s">
         <v>52</v>
       </c>
       <c r="I41" s="18" t="s">
@@ -3018,11 +3138,11 @@
       <c r="H42" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="33" t="s">
+      <c r="I42" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
     </row>
     <row r="43" spans="6:11">
       <c r="F43" s="3" t="s">
@@ -3030,31 +3150,31 @@
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="16"/>
-      <c r="I43" s="36" t="s">
+      <c r="I43" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
     </row>
     <row r="44" spans="6:11">
       <c r="F44" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G44" s="18"/>
-      <c r="H44" s="40" t="s">
+      <c r="H44" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
     </row>
     <row r="45" spans="8:8">
-      <c r="H45" s="40" t="s">
+      <c r="H45" s="49" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="46" spans="8:8">
-      <c r="H46" s="40" t="s">
+      <c r="H46" s="49" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3091,7 +3211,7 @@
         <v>63</v>
       </c>
       <c r="G58" s="3"/>
-      <c r="H58" s="40" t="s">
+      <c r="H58" s="49" t="s">
         <v>64</v>
       </c>
       <c r="I58" s="3" t="s">
@@ -3101,11 +3221,11 @@
       <c r="K58" s="3"/>
     </row>
     <row r="59" spans="6:11">
-      <c r="F59" s="37" t="s">
+      <c r="F59" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="G59" s="32"/>
-      <c r="H59" s="31" t="s">
+      <c r="G59" s="41"/>
+      <c r="H59" s="40" t="s">
         <v>67</v>
       </c>
       <c r="I59" s="3" t="s">
@@ -3115,11 +3235,11 @@
       <c r="K59" s="3"/>
     </row>
     <row r="60" spans="6:11">
-      <c r="F60" s="37" t="s">
+      <c r="F60" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="32"/>
-      <c r="H60" s="45" t="s">
+      <c r="G60" s="41"/>
+      <c r="H60" s="54" t="s">
         <v>70</v>
       </c>
       <c r="I60" s="16" t="s">
@@ -3129,11 +3249,11 @@
       <c r="K60" s="16"/>
     </row>
     <row r="61" spans="6:11">
-      <c r="F61" s="36" t="s">
+      <c r="F61" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="G61" s="36"/>
-      <c r="H61" s="40" t="s">
+      <c r="G61" s="45"/>
+      <c r="H61" s="49" t="s">
         <v>73</v>
       </c>
       <c r="I61" s="16"/>
@@ -3141,8 +3261,8 @@
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="6:11">
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
       <c r="K62" s="16"/>
@@ -3156,8 +3276,8 @@
       <c r="F67" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="48"/>
-      <c r="H67" s="39" t="s">
+      <c r="G67" s="57"/>
+      <c r="H67" s="48" t="s">
         <v>75</v>
       </c>
       <c r="I67" s="3" t="s">
@@ -3172,11 +3292,11 @@
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="33" t="s">
+      <c r="F68" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="31"/>
-      <c r="H68" s="39" t="s">
+      <c r="G68" s="40"/>
+      <c r="H68" s="48" t="s">
         <v>79</v>
       </c>
       <c r="I68" s="3" t="s">
@@ -3186,77 +3306,77 @@
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="6:11">
-      <c r="F69" s="33" t="s">
+      <c r="F69" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="G69" s="31"/>
-      <c r="H69" s="39" t="s">
+      <c r="G69" s="40"/>
+      <c r="H69" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="I69" s="33" t="s">
+      <c r="I69" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="J69" s="33"/>
-      <c r="K69" s="33"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
     </row>
     <row r="70" spans="6:11">
       <c r="F70" s="16" t="s">
         <v>84</v>
       </c>
       <c r="G70" s="16"/>
-      <c r="H70" s="49" t="s">
+      <c r="H70" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="I70" s="36" t="s">
+      <c r="I70" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="45"/>
     </row>
     <row r="71" spans="6:11">
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="45"/>
     </row>
     <row r="72" spans="6:11">
-      <c r="F72" s="36" t="s">
+      <c r="F72" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="G72" s="36"/>
-      <c r="H72" s="41" t="s">
+      <c r="G72" s="45"/>
+      <c r="H72" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I72" s="36" t="s">
+      <c r="I72" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="45"/>
     </row>
     <row r="73" spans="6:11">
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="45"/>
     </row>
     <row r="74" spans="6:11">
       <c r="F74" s="16" t="s">
         <v>90</v>
       </c>
       <c r="G74" s="16"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="45"/>
     </row>
     <row r="75" spans="6:11">
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+      <c r="K75" s="45"/>
     </row>
     <row r="78" spans="7:10">
       <c r="G78" t="s">
@@ -3270,25 +3390,25 @@
       </c>
     </row>
     <row r="79" spans="6:11">
-      <c r="F79" s="38" t="s">
+      <c r="F79" s="47" t="s">
         <v>94</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I79" s="38" t="s">
+      <c r="I79" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
     </row>
     <row r="80" spans="8:11">
       <c r="H80" s="10"/>
-      <c r="I80" s="38" t="s">
+      <c r="I80" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
     </row>
     <row r="81" spans="10:10">
       <c r="J81" t="s">
@@ -3296,8 +3416,8 @@
       </c>
     </row>
     <row r="86" spans="6:8">
-      <c r="F86" s="40"/>
-      <c r="G86" s="40" t="s">
+      <c r="F86" s="49"/>
+      <c r="G86" s="49" t="s">
         <v>99</v>
       </c>
       <c r="H86" t="s">
@@ -3305,49 +3425,49 @@
       </c>
     </row>
     <row r="87" spans="3:8">
-      <c r="C87" s="50" t="s">
+      <c r="C87" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D87" s="50"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="36" t="s">
+      <c r="D87" s="59"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="G87" s="36"/>
+      <c r="G87" s="45"/>
       <c r="H87" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="88" spans="3:8">
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
       <c r="H88" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="89" spans="6:7">
-      <c r="F89" s="40"/>
-      <c r="G89" s="40" t="s">
+      <c r="F89" s="49"/>
+      <c r="G89" s="49" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="90" spans="6:7">
-      <c r="F90" s="40"/>
-      <c r="G90" s="40" t="s">
+      <c r="F90" s="49"/>
+      <c r="G90" s="49" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="91" spans="6:7">
-      <c r="F91" s="40"/>
-      <c r="G91" s="40" t="s">
+      <c r="F91" s="49"/>
+      <c r="G91" s="49" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" spans="6:9">
-      <c r="F96" s="38" t="s">
+      <c r="F96" s="47" t="s">
         <v>107</v>
       </c>
       <c r="H96" s="18">
@@ -3356,7 +3476,7 @@
       <c r="I96" s="20"/>
     </row>
     <row r="97" spans="6:9">
-      <c r="F97" s="38" t="s">
+      <c r="F97" s="47" t="s">
         <v>108</v>
       </c>
       <c r="H97" s="3" t="s">
@@ -3438,7 +3558,7 @@
       <c r="H113">
         <v>3.2</v>
       </c>
-      <c r="I113" s="38">
+      <c r="I113" s="47">
         <v>3.3</v>
       </c>
     </row>
@@ -3449,10 +3569,10 @@
       <c r="H114" t="s">
         <v>115</v>
       </c>
-      <c r="I114" s="38" t="s">
+      <c r="I114" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="J114" s="38"/>
+      <c r="J114" s="47"/>
     </row>
     <row r="115" spans="7:10">
       <c r="G115" t="s">
@@ -3461,8 +3581,8 @@
       <c r="H115" t="s">
         <v>116</v>
       </c>
-      <c r="I115" s="44"/>
-      <c r="J115" s="44"/>
+      <c r="I115" s="53"/>
+      <c r="J115" s="53"/>
     </row>
     <row r="119" spans="7:9">
       <c r="G119">
@@ -3471,7 +3591,7 @@
       <c r="H119">
         <v>3.6</v>
       </c>
-      <c r="I119" s="38">
+      <c r="I119" s="47">
         <v>3.7</v>
       </c>
     </row>
@@ -3482,10 +3602,10 @@
       <c r="H120" t="s">
         <v>118</v>
       </c>
-      <c r="I120" s="38" t="s">
+      <c r="I120" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="J120" s="38"/>
+      <c r="J120" s="47"/>
     </row>
     <row r="121" spans="8:9">
       <c r="H121" t="s">
@@ -3507,10 +3627,10 @@
       <c r="H127">
         <v>3.13</v>
       </c>
-      <c r="I127" s="38">
+      <c r="I127" s="47">
         <v>3.14</v>
       </c>
-      <c r="J127" s="38"/>
+      <c r="J127" s="47"/>
     </row>
     <row r="128" spans="7:9">
       <c r="G128" s="10" t="s">
@@ -3519,14 +3639,14 @@
       <c r="H128" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="I128" s="38" t="s">
+      <c r="I128" s="47" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="129" spans="7:9">
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
-      <c r="I129" s="38" t="s">
+      <c r="I129" s="47" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3552,10 +3672,10 @@
       </c>
     </row>
     <row r="140" spans="7:10">
-      <c r="G140" s="40">
+      <c r="G140" s="49">
         <v>3.26</v>
       </c>
-      <c r="H140" s="40">
+      <c r="H140" s="49">
         <v>3.27</v>
       </c>
       <c r="J140">
@@ -3566,7 +3686,7 @@
       <c r="G141" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="H141" s="40" t="s">
+      <c r="H141" s="49" t="s">
         <v>131</v>
       </c>
       <c r="J141" t="s">
@@ -3575,7 +3695,7 @@
     </row>
     <row r="142" spans="7:10">
       <c r="G142" s="16"/>
-      <c r="H142" s="40" t="s">
+      <c r="H142" s="49" t="s">
         <v>133</v>
       </c>
       <c r="J142" t="s">
@@ -3586,7 +3706,7 @@
       <c r="G143" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H143" s="40" t="s">
+      <c r="H143" s="49" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3594,7 +3714,7 @@
       <c r="G144" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H144" s="40" t="s">
+      <c r="H144" s="49" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3605,38 +3725,38 @@
       <c r="G146" s="16"/>
     </row>
     <row r="149" spans="7:10">
-      <c r="G149" s="30">
+      <c r="G149" s="37">
         <v>43188</v>
       </c>
-      <c r="H149" s="30">
+      <c r="H149" s="37">
         <v>43189</v>
       </c>
-      <c r="J149" s="53">
+      <c r="J149" s="62">
         <v>43190</v>
       </c>
     </row>
     <row r="150" spans="3:10">
-      <c r="C150" s="51" t="s">
+      <c r="C150" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="D150" s="51"/>
-      <c r="E150" s="51"/>
-      <c r="F150" s="51"/>
+      <c r="D150" s="60"/>
+      <c r="E150" s="60"/>
+      <c r="F150" s="60"/>
       <c r="G150" s="16" t="s">
         <v>140</v>
       </c>
       <c r="H150" t="s">
         <v>141</v>
       </c>
-      <c r="J150" s="40" t="s">
+      <c r="J150" s="49" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="151" spans="3:10">
-      <c r="C151" s="51"/>
-      <c r="D151" s="51"/>
-      <c r="E151" s="51"/>
-      <c r="F151" s="51"/>
+      <c r="C151" s="60"/>
+      <c r="D151" s="60"/>
+      <c r="E151" s="60"/>
+      <c r="F151" s="60"/>
       <c r="G151" s="16"/>
       <c r="H151" t="s">
         <v>142</v>
@@ -3646,10 +3766,10 @@
       </c>
     </row>
     <row r="152" spans="3:10">
-      <c r="C152" s="51"/>
-      <c r="D152" s="51"/>
-      <c r="E152" s="51"/>
-      <c r="F152" s="51"/>
+      <c r="C152" s="60"/>
+      <c r="D152" s="60"/>
+      <c r="E152" s="60"/>
+      <c r="F152" s="60"/>
       <c r="G152" s="16"/>
       <c r="J152" s="16"/>
     </row>
@@ -3707,22 +3827,22 @@
       <c r="G163" s="16"/>
     </row>
     <row r="166" spans="7:10">
-      <c r="G166" s="52">
+      <c r="G166" s="61">
         <v>43192</v>
       </c>
-      <c r="H166" s="53">
+      <c r="H166" s="62">
         <v>43193</v>
       </c>
       <c r="I166" s="17">
         <v>43194</v>
       </c>
-      <c r="J166" s="53"/>
+      <c r="J166" s="62"/>
     </row>
     <row r="167" spans="7:10">
-      <c r="G167" s="39" t="s">
+      <c r="G167" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="H167" s="40" t="s">
+      <c r="H167" s="49" t="s">
         <v>150</v>
       </c>
       <c r="I167" s="16" t="s">
@@ -3731,17 +3851,17 @@
       <c r="J167" s="16"/>
     </row>
     <row r="168" spans="7:10">
-      <c r="G168" s="54" t="s">
+      <c r="G168" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="H168" s="40" t="s">
+      <c r="H168" s="49" t="s">
         <v>153</v>
       </c>
       <c r="I168" s="16"/>
       <c r="J168" s="16"/>
     </row>
     <row r="169" spans="7:10">
-      <c r="G169" s="54"/>
+      <c r="G169" s="63"/>
       <c r="H169" s="16" t="s">
         <v>154</v>
       </c>
@@ -3753,10 +3873,10 @@
       <c r="I170" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J170" s="40"/>
+      <c r="J170" s="49"/>
     </row>
     <row r="175" spans="7:7">
-      <c r="G175" s="30">
+      <c r="G175" s="37">
         <v>43199</v>
       </c>
     </row>
@@ -3780,52 +3900,52 @@
       <c r="E177" s="3"/>
     </row>
     <row r="178" spans="2:5">
-      <c r="B178" s="55" t="s">
+      <c r="B178" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="C178" s="55"/>
-      <c r="D178" s="55"/>
-      <c r="E178" s="55"/>
+      <c r="C178" s="64"/>
+      <c r="D178" s="64"/>
+      <c r="E178" s="64"/>
     </row>
     <row r="179" spans="2:5">
-      <c r="B179" s="55"/>
-      <c r="C179" s="55"/>
-      <c r="D179" s="55"/>
-      <c r="E179" s="55"/>
+      <c r="B179" s="64"/>
+      <c r="C179" s="64"/>
+      <c r="D179" s="64"/>
+      <c r="E179" s="64"/>
     </row>
     <row r="180" spans="2:5">
-      <c r="B180" s="55"/>
-      <c r="C180" s="55"/>
-      <c r="D180" s="55"/>
-      <c r="E180" s="55"/>
+      <c r="B180" s="64"/>
+      <c r="C180" s="64"/>
+      <c r="D180" s="64"/>
+      <c r="E180" s="64"/>
     </row>
     <row r="181" spans="2:5">
-      <c r="B181" s="55"/>
-      <c r="C181" s="55"/>
-      <c r="D181" s="55"/>
-      <c r="E181" s="55"/>
+      <c r="B181" s="64"/>
+      <c r="C181" s="64"/>
+      <c r="D181" s="64"/>
+      <c r="E181" s="64"/>
     </row>
     <row r="182" spans="2:10">
-      <c r="B182" s="55"/>
-      <c r="C182" s="55"/>
-      <c r="D182" s="55"/>
-      <c r="E182" s="55"/>
-      <c r="G182" s="30">
+      <c r="B182" s="64"/>
+      <c r="C182" s="64"/>
+      <c r="D182" s="64"/>
+      <c r="E182" s="64"/>
+      <c r="G182" s="37">
         <v>43211</v>
       </c>
-      <c r="H182" s="53">
+      <c r="H182" s="62">
         <v>43215</v>
       </c>
       <c r="I182" s="17">
         <v>43216</v>
       </c>
-      <c r="J182" s="53"/>
+      <c r="J182" s="62"/>
     </row>
     <row r="183" spans="2:10">
-      <c r="B183" s="55"/>
-      <c r="C183" s="55"/>
-      <c r="D183" s="55"/>
-      <c r="E183" s="55"/>
+      <c r="B183" s="64"/>
+      <c r="C183" s="64"/>
+      <c r="D183" s="64"/>
+      <c r="E183" s="64"/>
       <c r="G183" t="s">
         <v>160</v>
       </c>
@@ -3838,10 +3958,10 @@
       <c r="J183" s="16"/>
     </row>
     <row r="184" spans="2:10">
-      <c r="B184" s="55"/>
-      <c r="C184" s="55"/>
-      <c r="D184" s="55"/>
-      <c r="E184" s="55"/>
+      <c r="B184" s="64"/>
+      <c r="C184" s="64"/>
+      <c r="D184" s="64"/>
+      <c r="E184" s="64"/>
       <c r="H184" s="16"/>
       <c r="I184" s="16"/>
       <c r="J184" s="16"/>
@@ -3867,10 +3987,10 @@
       <c r="J188" s="10"/>
     </row>
     <row r="191" spans="7:8">
-      <c r="G191" s="30">
+      <c r="G191" s="37">
         <v>43217</v>
       </c>
-      <c r="H191" s="53">
+      <c r="H191" s="62">
         <v>43218</v>
       </c>
     </row>
@@ -3905,13 +4025,13 @@
       <c r="H198" s="16"/>
     </row>
     <row r="202" spans="7:10">
-      <c r="G202" s="30">
+      <c r="G202" s="37">
         <v>43223</v>
       </c>
-      <c r="H202" s="30">
+      <c r="H202" s="37">
         <v>43225</v>
       </c>
-      <c r="J202" s="30">
+      <c r="J202" s="37">
         <v>43227</v>
       </c>
     </row>
@@ -3940,13 +4060,13 @@
       </c>
     </row>
     <row r="208" spans="10:10">
-      <c r="J208" s="30"/>
+      <c r="J208" s="37"/>
     </row>
     <row r="209" spans="7:8">
-      <c r="G209" s="53">
+      <c r="G209" s="62">
         <v>43231</v>
       </c>
-      <c r="H209" s="30">
+      <c r="H209" s="37">
         <v>43234</v>
       </c>
     </row>
@@ -3966,7 +4086,7 @@
       <c r="G212" s="16"/>
     </row>
     <row r="213" spans="7:7">
-      <c r="G213" s="40" t="s">
+      <c r="G213" s="49" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3976,26 +4096,26 @@
       </c>
     </row>
     <row r="215" spans="7:7">
-      <c r="G215" s="48"/>
+      <c r="G215" s="57"/>
     </row>
     <row r="220" spans="7:10">
-      <c r="G220" s="56">
+      <c r="G220" s="65">
         <v>43236</v>
       </c>
-      <c r="H220" s="56">
+      <c r="H220" s="65">
         <v>43238</v>
       </c>
       <c r="I220" s="17">
         <v>43239</v>
       </c>
-      <c r="J220" s="53"/>
+      <c r="J220" s="62"/>
     </row>
     <row r="221" spans="7:10">
       <c r="G221" s="3" t="s">
         <v>175</v>
       </c>
       <c r="H221" s="3"/>
-      <c r="I221" s="57" t="s">
+      <c r="I221" s="66" t="s">
         <v>176</v>
       </c>
       <c r="J221" s="16"/>
@@ -4005,7 +4125,7 @@
         <v>177</v>
       </c>
       <c r="H222" s="16"/>
-      <c r="I222" s="57"/>
+      <c r="I222" s="66"/>
       <c r="J222" s="16"/>
     </row>
     <row r="223" spans="7:10">
@@ -4014,7 +4134,7 @@
       <c r="I223" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="J223" s="40"/>
+      <c r="J223" s="49"/>
     </row>
     <row r="224" spans="7:8">
       <c r="G224" s="3" t="s">
@@ -4023,16 +4143,16 @@
       <c r="H224" s="3"/>
     </row>
     <row r="229" spans="7:10">
-      <c r="G229" s="30">
+      <c r="G229" s="37">
         <v>43241</v>
       </c>
-      <c r="H229" s="30">
+      <c r="H229" s="37">
         <v>43243</v>
       </c>
       <c r="I229" s="17">
         <v>43244</v>
       </c>
-      <c r="J229" s="53"/>
+      <c r="J229" s="62"/>
     </row>
     <row r="230" spans="7:10">
       <c r="G230" s="10" t="s">
@@ -4059,7 +4179,7 @@
       <c r="I232" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J232" s="40"/>
+      <c r="J232" s="49"/>
     </row>
     <row r="233" spans="9:9">
       <c r="I233" t="s">
@@ -4067,7 +4187,7 @@
       </c>
     </row>
     <row r="238" spans="7:7">
-      <c r="G238" s="30">
+      <c r="G238" s="37">
         <v>43245</v>
       </c>
     </row>
@@ -4078,7 +4198,7 @@
       <c r="I239" s="17">
         <v>43248</v>
       </c>
-      <c r="J239" s="53"/>
+      <c r="J239" s="62"/>
     </row>
     <row r="240" spans="7:10">
       <c r="G240" s="10" t="s">
@@ -4087,7 +4207,7 @@
       <c r="I240" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J240" s="40"/>
+      <c r="J240" s="49"/>
     </row>
     <row r="241" spans="7:10">
       <c r="G241" s="10"/>
@@ -4138,10 +4258,10 @@
       <c r="J250" s="16"/>
     </row>
     <row r="254" spans="7:8">
-      <c r="G254" s="30">
+      <c r="G254" s="37">
         <v>43249</v>
       </c>
-      <c r="H254" s="30">
+      <c r="H254" s="37">
         <v>43250</v>
       </c>
     </row>
@@ -4168,13 +4288,13 @@
       <c r="G264" s="17">
         <v>43252</v>
       </c>
-      <c r="H264" s="53">
+      <c r="H264" s="62">
         <v>43253</v>
       </c>
       <c r="I264" s="17">
         <v>43255</v>
       </c>
-      <c r="J264" s="53"/>
+      <c r="J264" s="62"/>
     </row>
     <row r="265" spans="7:10">
       <c r="G265" s="3" t="s">
@@ -4198,7 +4318,7 @@
     </row>
     <row r="267" spans="7:10">
       <c r="G267" s="16"/>
-      <c r="H267" s="40" t="s">
+      <c r="H267" s="49" t="s">
         <v>199</v>
       </c>
       <c r="I267" s="16"/>
@@ -4256,16 +4376,16 @@
       <c r="G280" s="16"/>
     </row>
     <row r="287" spans="7:10">
-      <c r="G287" s="53">
+      <c r="G287" s="62">
         <v>43256</v>
       </c>
-      <c r="H287" s="53">
+      <c r="H287" s="62">
         <v>43257</v>
       </c>
-      <c r="I287" s="25">
+      <c r="I287" s="27">
         <v>43258</v>
       </c>
-      <c r="J287" s="59"/>
+      <c r="J287" s="68"/>
     </row>
     <row r="288" spans="7:10">
       <c r="G288" s="16" t="s">
@@ -4289,28 +4409,28 @@
       <c r="G290" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H290" s="40" t="s">
+      <c r="H290" s="49" t="s">
         <v>208</v>
       </c>
       <c r="I290" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="J290" s="60"/>
+      <c r="J290" s="69"/>
     </row>
     <row r="291" spans="7:10">
       <c r="G291" s="16"/>
-      <c r="H291" s="40"/>
-      <c r="I291" s="40"/>
-      <c r="J291" s="40"/>
+      <c r="H291" s="49"/>
+      <c r="I291" s="49"/>
+      <c r="J291" s="49"/>
     </row>
     <row r="292" spans="7:10">
-      <c r="G292" s="40"/>
-      <c r="H292" s="40"/>
-      <c r="I292" s="40"/>
-      <c r="J292" s="40"/>
+      <c r="G292" s="49"/>
+      <c r="H292" s="49"/>
+      <c r="I292" s="49"/>
+      <c r="J292" s="49"/>
     </row>
     <row r="297" spans="7:7">
-      <c r="G297" s="30">
+      <c r="G297" s="37">
         <v>43259</v>
       </c>
     </row>
@@ -4344,40 +4464,40 @@
       <c r="L304" s="16"/>
     </row>
     <row r="305" spans="12:12">
-      <c r="L305" s="44"/>
+      <c r="L305" s="53"/>
     </row>
     <row r="306" spans="12:12">
-      <c r="L306" s="44"/>
+      <c r="L306" s="53"/>
     </row>
     <row r="307" spans="12:12">
-      <c r="L307" s="44"/>
+      <c r="L307" s="53"/>
     </row>
     <row r="308" spans="12:12">
-      <c r="L308" s="44"/>
+      <c r="L308" s="53"/>
     </row>
     <row r="309" spans="12:12">
-      <c r="L309" s="44"/>
+      <c r="L309" s="53"/>
     </row>
     <row r="313" spans="7:10">
-      <c r="G313" s="30">
+      <c r="G313" s="37">
         <v>43271</v>
       </c>
-      <c r="H313" s="30">
+      <c r="H313" s="37">
         <v>43272</v>
       </c>
-      <c r="I313" s="26">
+      <c r="I313" s="28">
         <v>43273</v>
       </c>
-      <c r="J313" s="30"/>
+      <c r="J313" s="37"/>
     </row>
     <row r="314" spans="7:10">
-      <c r="G314" s="58" t="s">
+      <c r="G314" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="H314" s="58" t="s">
+      <c r="H314" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="I314" s="61" t="s">
+      <c r="I314" s="70" t="s">
         <v>214</v>
       </c>
       <c r="J314" s="3"/>
@@ -4389,10 +4509,10 @@
       <c r="J315" s="3"/>
     </row>
     <row r="317" spans="7:10">
-      <c r="G317" s="40" t="s">
+      <c r="G317" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="H317" s="40" t="s">
+      <c r="H317" s="49" t="s">
         <v>216</v>
       </c>
       <c r="I317" s="3" t="s">
@@ -4409,13 +4529,13 @@
       </c>
     </row>
     <row r="322" spans="7:10">
-      <c r="G322" s="53">
+      <c r="G322" s="62">
         <v>43274</v>
       </c>
-      <c r="H322" s="30">
+      <c r="H322" s="37">
         <v>43276</v>
       </c>
-      <c r="J322" s="30">
+      <c r="J322" s="37">
         <v>43277</v>
       </c>
     </row>
@@ -4463,13 +4583,13 @@
       <c r="H329" s="10"/>
     </row>
     <row r="334" spans="7:10">
-      <c r="G334" s="53">
+      <c r="G334" s="62">
         <v>43278</v>
       </c>
-      <c r="H334" s="53">
+      <c r="H334" s="62">
         <v>43279</v>
       </c>
-      <c r="J334" s="30">
+      <c r="J334" s="37">
         <v>43280</v>
       </c>
     </row>
@@ -4490,19 +4610,19 @@
       <c r="H337" s="16"/>
     </row>
     <row r="338" spans="7:8">
-      <c r="G338" s="54"/>
+      <c r="G338" s="63"/>
       <c r="H338" s="16" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="339" spans="7:8">
-      <c r="G339" s="54" t="s">
+      <c r="G339" s="63" t="s">
         <v>230</v>
       </c>
       <c r="H339" s="16"/>
     </row>
     <row r="340" spans="7:8">
-      <c r="G340" s="54"/>
+      <c r="G340" s="63"/>
       <c r="H340" s="16"/>
     </row>
     <row r="341" spans="8:8">
@@ -4512,19 +4632,19 @@
       <c r="H342" s="16"/>
     </row>
     <row r="345" spans="7:10">
-      <c r="G345" s="62">
+      <c r="G345" s="71">
         <v>43281</v>
       </c>
-      <c r="H345" s="30">
+      <c r="H345" s="37">
         <v>43283</v>
       </c>
-      <c r="I345" s="26">
+      <c r="I345" s="28">
         <v>43285</v>
       </c>
-      <c r="J345" s="30"/>
+      <c r="J345" s="37"/>
     </row>
     <row r="346" spans="7:10">
-      <c r="G346" s="63" t="s">
+      <c r="G346" s="72" t="s">
         <v>231</v>
       </c>
       <c r="H346" s="10" t="s">
@@ -4536,39 +4656,39 @@
       <c r="J346" s="10"/>
     </row>
     <row r="347" spans="7:10">
-      <c r="G347" s="63"/>
+      <c r="G347" s="72"/>
       <c r="H347" s="10"/>
       <c r="I347" s="10"/>
       <c r="J347" s="10"/>
     </row>
     <row r="348" spans="7:7">
-      <c r="G348" s="63"/>
+      <c r="G348" s="72"/>
     </row>
     <row r="349" spans="7:7">
-      <c r="G349" s="63"/>
+      <c r="G349" s="72"/>
     </row>
     <row r="350" spans="7:7">
-      <c r="G350" s="63"/>
+      <c r="G350" s="72"/>
     </row>
     <row r="351" spans="7:7">
-      <c r="G351" s="63"/>
+      <c r="G351" s="72"/>
     </row>
     <row r="352" spans="7:7">
-      <c r="G352" s="63"/>
+      <c r="G352" s="72"/>
     </row>
     <row r="353" spans="7:7">
-      <c r="G353" s="63" t="s">
+      <c r="G353" s="72" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="354" spans="7:7">
-      <c r="G354" s="63"/>
+      <c r="G354" s="72"/>
     </row>
     <row r="357" spans="7:10">
-      <c r="G357" s="30">
+      <c r="G357" s="37">
         <v>43286</v>
       </c>
-      <c r="J357" s="30">
+      <c r="J357" s="37">
         <v>43288</v>
       </c>
     </row>
@@ -4589,10 +4709,10 @@
       <c r="J359" s="10"/>
     </row>
     <row r="365" spans="7:8">
-      <c r="G365" s="30">
+      <c r="G365" s="37">
         <v>43292</v>
       </c>
-      <c r="H365" s="53">
+      <c r="H365" s="62">
         <v>43293</v>
       </c>
     </row>
@@ -4619,13 +4739,13 @@
       <c r="H369" s="16"/>
     </row>
     <row r="374" spans="7:10">
-      <c r="G374" s="30">
+      <c r="G374" s="37">
         <v>43307</v>
       </c>
-      <c r="H374" s="53">
+      <c r="H374" s="62">
         <v>43308</v>
       </c>
-      <c r="J374" s="30">
+      <c r="J374" s="37">
         <v>43311</v>
       </c>
     </row>
@@ -4649,7 +4769,7 @@
     </row>
     <row r="377" spans="7:8">
       <c r="G377" s="10"/>
-      <c r="H377" s="40" t="s">
+      <c r="H377" s="49" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4662,18 +4782,18 @@
       <c r="H379" s="16"/>
     </row>
     <row r="384" spans="7:10">
-      <c r="G384" s="53">
+      <c r="G384" s="62">
         <v>43312</v>
       </c>
-      <c r="H384" s="30">
+      <c r="H384" s="37">
         <v>43313</v>
       </c>
-      <c r="J384" s="30">
+      <c r="J384" s="37">
         <v>43314</v>
       </c>
     </row>
     <row r="385" spans="7:10">
-      <c r="G385" s="40" t="s">
+      <c r="G385" s="49" t="s">
         <v>247</v>
       </c>
       <c r="H385" s="10" t="s">
@@ -4684,7 +4804,7 @@
       </c>
     </row>
     <row r="386" spans="7:10">
-      <c r="G386" s="40" t="s">
+      <c r="G386" s="49" t="s">
         <v>250</v>
       </c>
       <c r="H386" s="10"/>
@@ -4693,7 +4813,7 @@
       </c>
     </row>
     <row r="387" spans="7:10">
-      <c r="G387" s="40" t="s">
+      <c r="G387" s="49" t="s">
         <v>252</v>
       </c>
       <c r="H387" s="10"/>
@@ -4711,13 +4831,13 @@
       <c r="H389" s="10"/>
     </row>
     <row r="393" spans="7:10">
-      <c r="G393" s="30">
+      <c r="G393" s="37">
         <v>43315</v>
       </c>
-      <c r="H393" s="30">
+      <c r="H393" s="37">
         <v>43316</v>
       </c>
-      <c r="J393" s="30">
+      <c r="J393" s="37">
         <v>43318</v>
       </c>
     </row>
@@ -4750,13 +4870,13 @@
       <c r="G397" s="10"/>
     </row>
     <row r="401" spans="7:10">
-      <c r="G401" s="30">
+      <c r="G401" s="37">
         <v>43319</v>
       </c>
-      <c r="H401" s="30">
+      <c r="H401" s="37">
         <v>43320</v>
       </c>
-      <c r="J401" s="30">
+      <c r="J401" s="37">
         <v>43321</v>
       </c>
     </row>
@@ -4810,12 +4930,12 @@
       <c r="J408" s="10"/>
     </row>
     <row r="409" spans="9:9">
-      <c r="I409" s="38" t="s">
+      <c r="I409" s="47" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="414" spans="7:8">
-      <c r="G414" s="30">
+      <c r="G414" s="37">
         <v>43322</v>
       </c>
       <c r="H414" t="s">
@@ -4839,13 +4959,13 @@
       <c r="G418" s="10"/>
     </row>
     <row r="423" spans="7:10">
-      <c r="G423" s="30">
+      <c r="G423" s="37">
         <v>43325</v>
       </c>
-      <c r="H423" s="30">
+      <c r="H423" s="37">
         <v>43326</v>
       </c>
-      <c r="J423" s="30">
+      <c r="J423" s="37">
         <v>43327</v>
       </c>
     </row>
@@ -4871,21 +4991,21 @@
       </c>
     </row>
     <row r="432" spans="7:13">
-      <c r="G432" s="30">
+      <c r="G432" s="37">
         <v>43328</v>
       </c>
-      <c r="H432" s="30">
+      <c r="H432" s="37">
         <v>43329</v>
       </c>
-      <c r="I432" s="66">
+      <c r="I432" s="75">
         <v>43330</v>
       </c>
-      <c r="J432" s="64"/>
-      <c r="K432" s="67"/>
-      <c r="L432" s="65" t="s">
+      <c r="J432" s="73"/>
+      <c r="K432" s="76"/>
+      <c r="L432" s="74" t="s">
         <v>277</v>
       </c>
-      <c r="M432" s="65" t="s">
+      <c r="M432" s="74" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4899,8 +5019,8 @@
       <c r="I433" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="J433" s="54"/>
-      <c r="K433" s="40" t="s">
+      <c r="J433" s="63"/>
+      <c r="K433" s="49" t="s">
         <v>282</v>
       </c>
       <c r="L433" s="3">
@@ -4916,8 +5036,8 @@
         <v>283</v>
       </c>
       <c r="I434" s="16"/>
-      <c r="J434" s="54"/>
-      <c r="K434" s="40" t="s">
+      <c r="J434" s="63"/>
+      <c r="K434" s="49" t="s">
         <v>284</v>
       </c>
       <c r="L434" s="3">
@@ -4936,11 +5056,11 @@
       </c>
       <c r="I435" s="16"/>
       <c r="J435" s="16"/>
-      <c r="K435" s="37" t="s">
+      <c r="K435" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="L435" s="37"/>
-      <c r="M435" s="37"/>
+      <c r="L435" s="46"/>
+      <c r="M435" s="46"/>
     </row>
     <row r="436" spans="7:10">
       <c r="G436" s="10" t="s">
@@ -4977,24 +5097,24 @@
       <c r="J441" s="16"/>
     </row>
     <row r="446" spans="5:10">
-      <c r="E446" s="64">
+      <c r="E446" s="73">
         <v>43332</v>
       </c>
-      <c r="F446" s="65" t="s">
+      <c r="F446" s="74" t="s">
         <v>277</v>
       </c>
-      <c r="G446" s="65" t="s">
+      <c r="G446" s="74" t="s">
         <v>278</v>
       </c>
-      <c r="H446" s="30">
+      <c r="H446" s="37">
         <v>43333</v>
       </c>
-      <c r="J446" s="30">
+      <c r="J446" s="37">
         <v>43334</v>
       </c>
     </row>
     <row r="447" spans="5:10">
-      <c r="E447" s="40" t="s">
+      <c r="E447" s="49" t="s">
         <v>282</v>
       </c>
       <c r="F447" s="3">
@@ -5012,7 +5132,7 @@
       <c r="J447" s="10"/>
     </row>
     <row r="448" spans="5:10">
-      <c r="E448" s="40" t="s">
+      <c r="E448" s="49" t="s">
         <v>284</v>
       </c>
       <c r="F448" s="3">
@@ -5025,11 +5145,11 @@
       <c r="J448" s="10"/>
     </row>
     <row r="449" spans="5:10">
-      <c r="E449" s="37" t="s">
+      <c r="E449" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="F449" s="37"/>
-      <c r="G449" s="37"/>
+      <c r="F449" s="46"/>
+      <c r="G449" s="46"/>
       <c r="I449" s="10"/>
       <c r="J449" s="10"/>
     </row>
@@ -5042,11 +5162,11 @@
       <c r="F458" s="17">
         <v>43335</v>
       </c>
-      <c r="G458" s="52"/>
-      <c r="H458" s="53">
+      <c r="G458" s="61"/>
+      <c r="H458" s="62">
         <v>43336</v>
       </c>
-      <c r="J458" s="30">
+      <c r="J458" s="37">
         <v>43337</v>
       </c>
     </row>
@@ -5054,8 +5174,8 @@
       <c r="F459" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G459" s="39"/>
-      <c r="H459" s="40" t="s">
+      <c r="G459" s="48"/>
+      <c r="H459" s="49" t="s">
         <v>295</v>
       </c>
       <c r="J459" t="s">
@@ -5066,7 +5186,7 @@
       <c r="F460" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="G460" s="54"/>
+      <c r="G460" s="63"/>
       <c r="H460" s="16" t="s">
         <v>298</v>
       </c>
@@ -5076,7 +5196,7 @@
     </row>
     <row r="461" spans="6:10">
       <c r="F461" s="16"/>
-      <c r="G461" s="54"/>
+      <c r="G461" s="63"/>
       <c r="H461" s="16"/>
       <c r="J461" t="s">
         <v>300</v>
@@ -5086,7 +5206,7 @@
       <c r="F462" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="G462" s="54"/>
+      <c r="G462" s="63"/>
       <c r="H462" s="16"/>
       <c r="J462" t="s">
         <v>302</v>
@@ -5094,7 +5214,7 @@
     </row>
     <row r="463" spans="6:10">
       <c r="F463" s="16"/>
-      <c r="G463" s="54"/>
+      <c r="G463" s="63"/>
       <c r="H463" s="16" t="s">
         <v>303</v>
       </c>
@@ -5106,7 +5226,7 @@
       <c r="H464" s="16"/>
     </row>
     <row r="465" spans="8:8">
-      <c r="H465" s="40" t="s">
+      <c r="H465" s="49" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5114,11 +5234,11 @@
       <c r="F470" s="17">
         <v>43339</v>
       </c>
-      <c r="G470" s="53"/>
-      <c r="H470" s="53">
+      <c r="G470" s="62"/>
+      <c r="H470" s="62">
         <v>43340</v>
       </c>
-      <c r="J470" s="30">
+      <c r="J470" s="37">
         <v>43341</v>
       </c>
     </row>
@@ -5126,7 +5246,7 @@
       <c r="F471" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G471" s="40"/>
+      <c r="G471" s="49"/>
       <c r="H471" s="16" t="s">
         <v>307</v>
       </c>
@@ -5139,7 +5259,7 @@
       <c r="F472" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G472" s="40"/>
+      <c r="G472" s="49"/>
       <c r="H472" s="16"/>
       <c r="I472" s="10"/>
       <c r="J472" s="10"/>
@@ -5174,7 +5294,7 @@
     <row r="476" spans="6:10">
       <c r="F476" s="16"/>
       <c r="G476" s="16"/>
-      <c r="H476" s="48"/>
+      <c r="H476" s="57"/>
       <c r="I476" s="10"/>
       <c r="J476" s="10"/>
     </row>
@@ -5182,8 +5302,8 @@
       <c r="F477" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G477" s="40"/>
-      <c r="H477" s="40" t="s">
+      <c r="G477" s="49"/>
+      <c r="H477" s="49" t="s">
         <v>314</v>
       </c>
     </row>
@@ -5191,19 +5311,19 @@
       <c r="F478" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="G478" s="40"/>
-      <c r="H478" s="48" t="s">
+      <c r="G478" s="49"/>
+      <c r="H478" s="57" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="482" spans="7:10">
-      <c r="G482" s="30">
+      <c r="G482" s="37">
         <v>43342</v>
       </c>
-      <c r="H482" s="30">
+      <c r="H482" s="37">
         <v>43343</v>
       </c>
-      <c r="J482" s="30">
+      <c r="J482" s="37">
         <v>43344</v>
       </c>
     </row>
@@ -5254,10 +5374,10 @@
       <c r="H487" t="s">
         <v>326</v>
       </c>
-      <c r="I487" s="38" t="s">
+      <c r="I487" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="J487" s="38"/>
+      <c r="J487" s="47"/>
     </row>
     <row r="488" spans="7:10">
       <c r="G488" s="10"/>
@@ -5282,7 +5402,7 @@
       <c r="H490" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="I490" s="38" t="s">
+      <c r="I490" s="47" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5306,13 +5426,13 @@
       <c r="H495" s="10"/>
     </row>
     <row r="500" spans="7:10">
-      <c r="G500" s="30">
+      <c r="G500" s="37">
         <v>43346</v>
       </c>
-      <c r="H500" s="30">
+      <c r="H500" s="37">
         <v>43347</v>
       </c>
-      <c r="J500" s="30">
+      <c r="J500" s="37">
         <v>43348</v>
       </c>
     </row>
@@ -5357,13 +5477,13 @@
       <c r="J505" s="10"/>
     </row>
     <row r="512" spans="7:10">
-      <c r="G512" s="30">
+      <c r="G512" s="37">
         <v>43349</v>
       </c>
-      <c r="H512" s="30">
+      <c r="H512" s="37">
         <v>43350</v>
       </c>
-      <c r="J512" s="30">
+      <c r="J512" s="37">
         <v>43351</v>
       </c>
     </row>
@@ -5389,7 +5509,7 @@
       <c r="G515" t="s">
         <v>345</v>
       </c>
-      <c r="H515" s="38" t="s">
+      <c r="H515" s="47" t="s">
         <v>346</v>
       </c>
       <c r="I515" s="16"/>
@@ -5399,7 +5519,7 @@
       <c r="G516" t="s">
         <v>347</v>
       </c>
-      <c r="H516" s="38"/>
+      <c r="H516" s="47"/>
       <c r="I516" s="16"/>
       <c r="J516" s="16"/>
     </row>
@@ -5422,13 +5542,13 @@
       <c r="G520" s="10"/>
     </row>
     <row r="527" spans="7:10">
-      <c r="G527" s="30">
+      <c r="G527" s="37">
         <v>43353</v>
       </c>
-      <c r="H527" s="30">
+      <c r="H527" s="37">
         <v>43354</v>
       </c>
-      <c r="J527" s="30">
+      <c r="J527" s="37">
         <v>43355</v>
       </c>
     </row>
@@ -5463,13 +5583,13 @@
       </c>
     </row>
     <row r="536" spans="7:10">
-      <c r="G536" s="30">
+      <c r="G536" s="37">
         <v>43356</v>
       </c>
-      <c r="H536" s="30">
+      <c r="H536" s="37">
         <v>43357</v>
       </c>
-      <c r="J536" s="30">
+      <c r="J536" s="37">
         <v>43358</v>
       </c>
     </row>
@@ -5488,13 +5608,13 @@
       <c r="G538" s="10"/>
     </row>
     <row r="546" spans="7:10">
-      <c r="G546" s="30">
+      <c r="G546" s="37">
         <v>43361</v>
       </c>
-      <c r="H546" s="30">
+      <c r="H546" s="37">
         <v>43362</v>
       </c>
-      <c r="J546" s="30">
+      <c r="J546" s="37">
         <v>43363</v>
       </c>
     </row>
@@ -5505,12 +5625,12 @@
       <c r="H547" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="I547" s="38" t="s">
+      <c r="I547" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="J547" s="38"/>
-      <c r="K547" s="38"/>
-      <c r="L547" s="38"/>
+      <c r="J547" s="47"/>
+      <c r="K547" s="47"/>
+      <c r="L547" s="47"/>
     </row>
     <row r="548" spans="7:8">
       <c r="G548" s="10"/>
@@ -5527,7 +5647,7 @@
       </c>
     </row>
     <row r="553" spans="7:7">
-      <c r="G553" s="30">
+      <c r="G553" s="37">
         <v>43364</v>
       </c>
     </row>
@@ -5543,13 +5663,13 @@
       <c r="G556" s="10"/>
     </row>
     <row r="563" spans="7:10">
-      <c r="G563" s="30">
+      <c r="G563" s="37">
         <v>43368</v>
       </c>
-      <c r="H563" s="53">
+      <c r="H563" s="62">
         <v>43369</v>
       </c>
-      <c r="J563" s="30">
+      <c r="J563" s="37">
         <v>43370</v>
       </c>
     </row>
@@ -5572,7 +5692,7 @@
       </c>
     </row>
     <row r="566" spans="8:8">
-      <c r="H566" s="40" t="s">
+      <c r="H566" s="49" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5585,10 +5705,10 @@
       <c r="H568" s="16"/>
     </row>
     <row r="574" spans="7:8">
-      <c r="G574" s="30">
+      <c r="G574" s="37">
         <v>43371</v>
       </c>
-      <c r="H574" s="30">
+      <c r="H574" s="37">
         <v>43372</v>
       </c>
     </row>
@@ -5867,15 +5987,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:T47"/>
+  <dimension ref="B4:AD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="S64" sqref="S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="9.125"/>
+    <col min="10" max="10" width="9.125"/>
     <col min="17" max="17" width="9.125"/>
   </cols>
   <sheetData>
@@ -5894,12 +6015,12 @@
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="P4" s="25">
+      <c r="P4" s="27">
         <v>43380</v>
       </c>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="29"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="36"/>
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="2" t="s">
@@ -6132,14 +6253,14 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
-      <c r="I24" s="26">
+      <c r="I24" s="28">
         <v>43382</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="Q24" s="30">
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="Q24" s="37">
         <v>43383</v>
       </c>
     </row>
@@ -6206,7 +6327,7 @@
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
-      <c r="P27" s="27" t="s">
+      <c r="P27" s="29" t="s">
         <v>408</v>
       </c>
       <c r="Q27" s="16"/>
@@ -6308,85 +6429,911 @@
       <c r="T33" s="3"/>
     </row>
     <row r="34" spans="16:20">
-      <c r="P34" s="23" t="s">
+      <c r="P34" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
     </row>
     <row r="35" spans="16:20">
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="21">
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+    </row>
+    <row r="41" spans="2:30">
+      <c r="B41" s="17">
         <v>43384</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="22" t="s">
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="H41" s="21">
+        <v>43385</v>
+      </c>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="U41" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="23" t="s">
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
+    </row>
+    <row r="42" spans="2:30">
+      <c r="B42" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="24" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="H42" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="U42" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" t="s">
+      <c r="V42" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="W42" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-    </row>
-    <row r="47" spans="3:4">
-      <c r="C47" t="s">
+      <c r="X42" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="D47" t="s">
+      <c r="Y42" s="23" t="s">
         <v>424</v>
       </c>
+      <c r="Z42" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA42" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB42" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC42" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD42" s="23"/>
+    </row>
+    <row r="43" spans="2:30">
+      <c r="B43" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="H43" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="J43" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="K43" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="L43" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="M43" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="N43" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="O43" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="P43" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q43" s="23"/>
+      <c r="U43" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="V43" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="W43" s="23">
+        <v>200</v>
+      </c>
+      <c r="X43" s="23">
+        <v>3</v>
+      </c>
+      <c r="Y43" s="23">
+        <v>25</v>
+      </c>
+      <c r="Z43" s="23">
+        <v>20</v>
+      </c>
+      <c r="AA43" s="23">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC43" s="23"/>
+      <c r="AD43" s="23"/>
+    </row>
+    <row r="44" spans="2:30">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="H44" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="J44" s="23">
+        <v>200</v>
+      </c>
+      <c r="K44" s="23">
+        <v>3</v>
+      </c>
+      <c r="L44" s="23">
+        <v>25</v>
+      </c>
+      <c r="M44" s="23">
+        <v>20</v>
+      </c>
+      <c r="N44" s="23">
+        <v>5</v>
+      </c>
+      <c r="O44" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="23"/>
+      <c r="X44" s="23">
+        <v>2</v>
+      </c>
+      <c r="Y44" s="23">
+        <v>34</v>
+      </c>
+      <c r="Z44" s="23">
+        <v>19</v>
+      </c>
+      <c r="AA44" s="23">
+        <v>15</v>
+      </c>
+      <c r="AB44" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC44" s="32"/>
+      <c r="AD44" s="38"/>
+    </row>
+    <row r="45" spans="2:30">
+      <c r="B45" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23">
+        <v>2</v>
+      </c>
+      <c r="L45" s="23">
+        <v>34</v>
+      </c>
+      <c r="M45" s="23">
+        <v>19</v>
+      </c>
+      <c r="N45" s="23">
+        <v>15</v>
+      </c>
+      <c r="O45" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="38"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="23">
+        <v>83</v>
+      </c>
+      <c r="Z45" s="23">
+        <v>60</v>
+      </c>
+      <c r="AA45" s="23">
+        <v>23</v>
+      </c>
+      <c r="AB45" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC45" s="32"/>
+      <c r="AD45" s="38"/>
+    </row>
+    <row r="46" spans="2:30">
+      <c r="B46" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23">
+        <v>1</v>
+      </c>
+      <c r="L46" s="23">
+        <v>83</v>
+      </c>
+      <c r="M46" s="23">
+        <v>60</v>
+      </c>
+      <c r="N46" s="23">
+        <v>23</v>
+      </c>
+      <c r="O46" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="38"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="23">
+        <v>100</v>
+      </c>
+      <c r="X46" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="Y46" s="23">
+        <v>66</v>
+      </c>
+      <c r="Z46" s="23">
+        <v>51</v>
+      </c>
+      <c r="AA46" s="23">
+        <v>15</v>
+      </c>
+      <c r="AB46" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC46" s="32"/>
+      <c r="AD46" s="38"/>
+    </row>
+    <row r="47" spans="2:30">
+      <c r="B47" s="23"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="23">
+        <v>100</v>
+      </c>
+      <c r="K47" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="L47" s="23">
+        <v>66</v>
+      </c>
+      <c r="M47" s="23">
+        <v>51</v>
+      </c>
+      <c r="N47" s="23">
+        <v>15</v>
+      </c>
+      <c r="O47" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="38"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="23">
+        <v>79</v>
+      </c>
+      <c r="Z47" s="23">
+        <v>44</v>
+      </c>
+      <c r="AA47" s="23">
+        <v>35</v>
+      </c>
+      <c r="AB47" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="38"/>
+    </row>
+    <row r="48" spans="2:30">
+      <c r="B48" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23">
+        <v>1</v>
+      </c>
+      <c r="L48" s="23">
+        <v>79</v>
+      </c>
+      <c r="M48" s="23">
+        <v>44</v>
+      </c>
+      <c r="N48" s="23">
+        <v>35</v>
+      </c>
+      <c r="O48" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="38"/>
+      <c r="U48" s="24"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="Y48" s="23">
+        <v>456</v>
+      </c>
+      <c r="Z48" s="23">
+        <v>44</v>
+      </c>
+      <c r="AA48" s="23">
+        <v>112</v>
+      </c>
+      <c r="AB48" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC48" s="32"/>
+      <c r="AD48" s="38"/>
+    </row>
+    <row r="49" spans="8:30">
+      <c r="H49" s="24"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L49" s="23">
+        <v>456</v>
+      </c>
+      <c r="M49" s="23">
+        <v>44</v>
+      </c>
+      <c r="N49" s="23">
+        <v>112</v>
+      </c>
+      <c r="O49" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="38"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="23"/>
+      <c r="X49" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="Y49" s="23">
+        <v>365</v>
+      </c>
+      <c r="Z49" s="23">
+        <v>43</v>
+      </c>
+      <c r="AA49" s="23">
+        <v>322</v>
+      </c>
+      <c r="AB49" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC49" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD49" s="23"/>
+    </row>
+    <row r="50" spans="8:30">
+      <c r="H50" s="24"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="L50" s="23">
+        <v>365</v>
+      </c>
+      <c r="M50" s="23">
+        <v>43</v>
+      </c>
+      <c r="N50" s="23">
+        <v>322</v>
+      </c>
+      <c r="O50" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="P50" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q50" s="23"/>
+      <c r="U50" s="24"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="23">
+        <v>50</v>
+      </c>
+      <c r="X50" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="Y50" s="23">
+        <v>115</v>
+      </c>
+      <c r="Z50" s="23">
+        <v>115</v>
+      </c>
+      <c r="AA50" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC50" s="32"/>
+      <c r="AD50" s="38"/>
+    </row>
+    <row r="51" spans="8:30">
+      <c r="H51" s="24"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="23">
+        <v>50</v>
+      </c>
+      <c r="K51" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="L51" s="23">
+        <v>115</v>
+      </c>
+      <c r="M51" s="23">
+        <v>115</v>
+      </c>
+      <c r="N51" s="23">
+        <v>0</v>
+      </c>
+      <c r="O51" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="38"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="31"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="Y51" s="23">
+        <v>117</v>
+      </c>
+      <c r="Z51" s="23">
+        <v>99</v>
+      </c>
+      <c r="AA51" s="23">
+        <v>18</v>
+      </c>
+      <c r="AB51" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC51" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD51" s="23"/>
+    </row>
+    <row r="52" spans="8:30">
+      <c r="H52" s="24"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="L52" s="23">
+        <v>117</v>
+      </c>
+      <c r="M52" s="23">
+        <v>99</v>
+      </c>
+      <c r="N52" s="23">
+        <v>18</v>
+      </c>
+      <c r="O52" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="P52" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q52" s="23"/>
+      <c r="U52" s="24"/>
+      <c r="V52" s="31"/>
+      <c r="W52" s="23"/>
+      <c r="X52" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="Y52" s="23">
+        <v>398</v>
+      </c>
+      <c r="Z52" s="23">
+        <v>89</v>
+      </c>
+      <c r="AA52" s="23">
+        <v>309</v>
+      </c>
+      <c r="AB52" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC52" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD52" s="23"/>
+    </row>
+    <row r="53" spans="8:30">
+      <c r="H53" s="24"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="L53" s="23">
+        <v>398</v>
+      </c>
+      <c r="M53" s="23">
+        <v>89</v>
+      </c>
+      <c r="N53" s="23">
+        <v>309</v>
+      </c>
+      <c r="O53" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="P53" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q53" s="23"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="W53" s="23">
+        <v>200</v>
+      </c>
+      <c r="X53" s="23">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="23">
+        <v>44</v>
+      </c>
+      <c r="Z53" s="23">
+        <v>20</v>
+      </c>
+      <c r="AA53" s="23">
+        <v>24</v>
+      </c>
+      <c r="AB53" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC53" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD53" s="33"/>
+    </row>
+    <row r="54" spans="8:30">
+      <c r="H54" s="24"/>
+      <c r="I54" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="J54" s="23">
+        <v>200</v>
+      </c>
+      <c r="K54" s="23">
+        <v>2</v>
+      </c>
+      <c r="L54" s="23">
+        <v>44</v>
+      </c>
+      <c r="M54" s="23">
+        <v>20</v>
+      </c>
+      <c r="N54" s="23">
+        <v>24</v>
+      </c>
+      <c r="O54" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="P54" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q54" s="33"/>
+      <c r="U54" s="24"/>
+      <c r="V54" s="31"/>
+      <c r="W54" s="23">
+        <v>100</v>
+      </c>
+      <c r="X54" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="Y54" s="23">
+        <v>93</v>
+      </c>
+      <c r="Z54" s="23">
+        <v>47</v>
+      </c>
+      <c r="AA54" s="23">
+        <v>46</v>
+      </c>
+      <c r="AB54" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC54" s="32"/>
+      <c r="AD54" s="38"/>
+    </row>
+    <row r="55" spans="8:30">
+      <c r="H55" s="24"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="23">
+        <v>100</v>
+      </c>
+      <c r="K55" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="L55" s="23">
+        <v>93</v>
+      </c>
+      <c r="M55" s="23">
+        <v>47</v>
+      </c>
+      <c r="N55" s="23">
+        <v>46</v>
+      </c>
+      <c r="O55" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="38"/>
+      <c r="U55" s="24"/>
+      <c r="V55" s="31"/>
+      <c r="W55" s="23"/>
+      <c r="X55" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="Y55" s="23">
+        <v>209</v>
+      </c>
+      <c r="Z55" s="23">
+        <v>41</v>
+      </c>
+      <c r="AA55" s="23">
+        <v>168</v>
+      </c>
+      <c r="AB55" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC55" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD55" s="33"/>
+    </row>
+    <row r="56" spans="8:30">
+      <c r="H56" s="24"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L56" s="23">
+        <v>209</v>
+      </c>
+      <c r="M56" s="23">
+        <v>41</v>
+      </c>
+      <c r="N56" s="23">
+        <v>168</v>
+      </c>
+      <c r="O56" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="P56" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q56" s="33"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="31"/>
+      <c r="W56" s="23"/>
+      <c r="X56" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="Y56" s="23">
+        <v>453</v>
+      </c>
+      <c r="Z56" s="23">
+        <v>43</v>
+      </c>
+      <c r="AA56" s="23">
+        <v>410</v>
+      </c>
+      <c r="AB56" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC56" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD56" s="23"/>
+    </row>
+    <row r="57" spans="8:30">
+      <c r="H57" s="24"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="L57" s="23">
+        <v>453</v>
+      </c>
+      <c r="M57" s="23">
+        <v>43</v>
+      </c>
+      <c r="N57" s="23">
+        <v>410</v>
+      </c>
+      <c r="O57" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="P57" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q57" s="23"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="31"/>
+      <c r="W57" s="23">
+        <v>50</v>
+      </c>
+      <c r="X57" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="Y57" s="23">
+        <v>405</v>
+      </c>
+      <c r="Z57" s="23">
+        <v>84</v>
+      </c>
+      <c r="AA57" s="23">
+        <v>321</v>
+      </c>
+      <c r="AB57" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC57" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD57" s="23"/>
+    </row>
+    <row r="58" spans="8:30">
+      <c r="H58" s="24"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="23">
+        <v>50</v>
+      </c>
+      <c r="K58" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="L58" s="23">
+        <v>405</v>
+      </c>
+      <c r="M58" s="23">
+        <v>84</v>
+      </c>
+      <c r="N58" s="23">
+        <v>321</v>
+      </c>
+      <c r="O58" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="P58" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q58" s="23"/>
+      <c r="U58" s="24"/>
+      <c r="V58" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="W58" s="34"/>
+      <c r="X58" s="34"/>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="34"/>
+      <c r="AA58" s="34"/>
+      <c r="AB58" s="34"/>
+      <c r="AC58" s="34"/>
+      <c r="AD58" s="38"/>
+    </row>
+    <row r="59" spans="8:21">
+      <c r="H59" s="24"/>
+      <c r="I59" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="38"/>
+      <c r="U59" s="39"/>
+    </row>
+    <row r="60" spans="21:21">
+      <c r="U60" s="39"/>
+    </row>
+    <row r="61" spans="21:23">
+      <c r="U61" s="39"/>
+      <c r="W61">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="21:21">
+      <c r="U62" s="39"/>
+    </row>
+    <row r="63" spans="23:23">
+      <c r="W63" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="105">
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="I4:M4"/>
     <mergeCell ref="P4:S4"/>
@@ -6411,13 +7358,65 @@
     <mergeCell ref="P32:T32"/>
     <mergeCell ref="P33:T33"/>
     <mergeCell ref="B41:F41"/>
+    <mergeCell ref="H41:Q41"/>
+    <mergeCell ref="U41:AD41"/>
     <mergeCell ref="B42:F42"/>
+    <mergeCell ref="H42:Q42"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="AC44:AD44"/>
     <mergeCell ref="B45:F45"/>
-    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="AC47:AD47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="AC49:AD49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="AC50:AD50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="AC51:AD51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="AC52:AD52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="AC53:AD53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="AC54:AD54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="AC55:AD55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="AC56:AD56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="AC57:AD57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="V58:AD58"/>
+    <mergeCell ref="I59:Q59"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H44:H59"/>
+    <mergeCell ref="I44:I53"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="U43:U58"/>
+    <mergeCell ref="V43:V52"/>
+    <mergeCell ref="V53:V57"/>
+    <mergeCell ref="W43:W45"/>
+    <mergeCell ref="W46:W49"/>
+    <mergeCell ref="W50:W52"/>
+    <mergeCell ref="W54:W56"/>
     <mergeCell ref="B25:C26"/>
     <mergeCell ref="D25:F26"/>
     <mergeCell ref="B27:C28"/>
@@ -6439,8 +7438,10 @@
     <mergeCell ref="P27:T31"/>
     <mergeCell ref="P34:T35"/>
     <mergeCell ref="B43:F44"/>
+    <mergeCell ref="C46:F47"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/日计划.xlsx
+++ b/日计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473">
   <si>
     <t>完成</t>
   </si>
@@ -1335,7 +1335,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>测试BT-957C 发送键值，能发送单个，多个初步测试还哟点问题</t>
+    <t>测试BT-957C 发送键值，能发送单个，多个初步测试还有点问题</t>
   </si>
   <si>
     <t xml:space="preserve">手机
@@ -1367,6 +1367,106 @@
   </si>
   <si>
     <t>初步测试 手机与蓝牙模块距离测试约70~80米，但数据出错</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git log </t>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>尚硅谷 git教程   git reset --hard 练习</t>
+  </si>
+  <si>
+    <t>手机测试200B，初步测试HIDDLY=18 没错</t>
+  </si>
+  <si>
+    <t>git log --pretty=oneline</t>
+  </si>
+  <si>
+    <t>熟悉 另外两个 --soft    --mixed参数</t>
+  </si>
+  <si>
+    <t>学习呼吸家A1框架</t>
+  </si>
+  <si>
+    <t>git log --oneline</t>
+  </si>
+  <si>
+    <t>学习git分支原理。</t>
+  </si>
+  <si>
+    <t>2.4G供应商，已经给出解决方案，且会提供两套USB速度程序给我们</t>
+  </si>
+  <si>
+    <t>git reflog</t>
+  </si>
+  <si>
+    <t>创建分支，开发，合并分支，以及解决冲突等</t>
+  </si>
+  <si>
+    <t>将957C周期发送改成等待OK，且HIDDLY设置到最小，查看效果。10都会有乱码（手机端）</t>
+  </si>
+  <si>
+    <t>梵尼洛芙 钻石，一不小心就给了定金5333,40分</t>
+  </si>
+  <si>
+    <t>反映IOS更新问题</t>
+  </si>
+  <si>
+    <t>婚纱照也给了剩余的钱4588</t>
+  </si>
+  <si>
+    <t>HIDDLY=1，在PC上测试，是否乱码 
+PC上8000多行，200B没出错</t>
+  </si>
+  <si>
+    <t>接下来有排还钱咯</t>
+  </si>
+  <si>
+    <t>拿了宝宝不用的蓝牙手环，自己用^-^</t>
+  </si>
+  <si>
+    <t>供应商来现场解决</t>
+  </si>
+  <si>
+    <t>2.4G修改代码后，初步没问题了，正在测试</t>
+  </si>
+  <si>
+    <t>之前测试435e的样板找不到了，现拿一个模块又有点问题，恢复不了</t>
+  </si>
+  <si>
+    <t>IOS版本已更新，延时1-4s的问题已解决</t>
+  </si>
+  <si>
+    <t>查看2.4G接收器源码，可能后续需要修改</t>
+  </si>
+  <si>
+    <t>开始弄2.4G关于编码的问题。</t>
+  </si>
+  <si>
+    <t>2.4G修改后，测试300B，4346次没错</t>
+  </si>
+  <si>
+    <t>给了826的测试给fae对比下性能，将435反应给fae，对方正在解决</t>
+  </si>
+  <si>
+    <t>2.4G丢失数据的问题，对方已经给了修改的地方</t>
+  </si>
+  <si>
+    <t>8500多次，接收方比发送方多了1个</t>
+  </si>
+  <si>
+    <t>需要查看接收器源码，可能要修改，该成发送键值的方式</t>
+  </si>
+  <si>
+    <t>重新测试，发送3926，测试软件出现错误，都是本该在0的位置换行了。记录以保存在e:\杂\测试2018-10-18</t>
+  </si>
+  <si>
+    <t>正在查看2.4G接收器源码</t>
+  </si>
+  <si>
+    <t>发送成功3493，测试软件3494，无错误   17:47</t>
   </si>
 </sst>
 </file>
@@ -1397,6 +1497,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1409,18 +1538,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1438,45 +1576,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1490,33 +1592,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1532,24 +1609,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1586,67 +1686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1670,73 +1716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1760,7 +1740,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1943,6 +2043,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1954,6 +2093,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1981,65 +2140,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2048,10 +2148,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2060,137 +2160,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2254,63 +2354,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2350,9 +2453,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2401,13 +2501,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="58" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -2518,8 +2615,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13763625" y="5886450"/>
-          <a:ext cx="8361680" cy="676275"/>
+          <a:off x="13782675" y="5886450"/>
+          <a:ext cx="8371205" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2824,8 +2921,8 @@
   <sheetPr/>
   <dimension ref="B8:M577"/>
   <sheetViews>
-    <sheetView topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="G501" sqref="G501"/>
+    <sheetView topLeftCell="A489" workbookViewId="0">
+      <selection activeCell="H518" sqref="H518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2840,7 +2937,7 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:12">
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="41" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -2858,85 +2955,85 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="4:12">
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43" t="s">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="6:12">
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43" t="s">
+      <c r="G10" s="43"/>
+      <c r="H10" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="6:12">
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="44" t="s">
+      <c r="G11" s="43"/>
+      <c r="H11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
     </row>
     <row r="12" spans="6:12">
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="45"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
     </row>
     <row r="13" spans="6:12">
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
     </row>
     <row r="14" spans="6:12">
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="43" t="s">
+      <c r="G14" s="47"/>
+      <c r="H14" s="44" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="55" t="s">
@@ -2944,12 +3041,12 @@
       </c>
       <c r="J14" s="56"/>
       <c r="K14" s="56"/>
-      <c r="L14" s="43"/>
+      <c r="L14" s="44"/>
     </row>
     <row r="15" spans="6:12">
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="42" t="s">
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="43" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="55" t="s">
@@ -2957,82 +3054,82 @@
       </c>
       <c r="J15" s="56"/>
       <c r="K15" s="56"/>
-      <c r="L15" s="43"/>
+      <c r="L15" s="44"/>
     </row>
     <row r="20" spans="6:11">
       <c r="F20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49" t="s">
+      <c r="G20" s="49"/>
+      <c r="H20" s="50" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="49"/>
+      <c r="K20" s="50"/>
     </row>
     <row r="21" spans="6:11">
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="49" t="s">
+      <c r="G21" s="51"/>
+      <c r="H21" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="40"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="41"/>
     </row>
     <row r="22" spans="6:11">
       <c r="F22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="49" t="s">
+      <c r="G22" s="49"/>
+      <c r="H22" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="42"/>
-      <c r="K22" s="40"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="41"/>
     </row>
     <row r="23" spans="6:11">
       <c r="F23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="48"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="42"/>
-      <c r="K23" s="40"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="41"/>
     </row>
     <row r="24" spans="6:11">
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="52"/>
+      <c r="G24" s="53"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="42"/>
-      <c r="K24" s="40"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="41"/>
     </row>
     <row r="28" spans="6:11">
       <c r="F28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="49" t="s">
+      <c r="H28" s="50" t="s">
         <v>37</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -3045,11 +3142,11 @@
       <c r="E29" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="40" t="s">
+      <c r="G29" s="43"/>
+      <c r="H29" s="41" t="s">
         <v>41</v>
       </c>
       <c r="I29" s="16" t="s">
@@ -3063,7 +3160,7 @@
         <v>43</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="40" t="s">
+      <c r="H30" s="41" t="s">
         <v>44</v>
       </c>
       <c r="I30" s="3" t="s">
@@ -3091,14 +3188,14 @@
         <v>48</v>
       </c>
       <c r="G33" s="16"/>
-      <c r="H33" s="41" t="s">
+      <c r="H33" s="42" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="40" t="s">
+      <c r="H34" s="41" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3113,15 +3210,15 @@
       <c r="G36" s="20"/>
     </row>
     <row r="40" spans="6:7">
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
     </row>
     <row r="41" spans="6:11">
       <c r="F41" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G41" s="18"/>
-      <c r="H41" s="49" t="s">
+      <c r="H41" s="50" t="s">
         <v>52</v>
       </c>
       <c r="I41" s="18" t="s">
@@ -3138,11 +3235,11 @@
       <c r="H42" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="42" t="s">
+      <c r="I42" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
     </row>
     <row r="43" spans="6:11">
       <c r="F43" s="3" t="s">
@@ -3150,31 +3247,31 @@
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="16"/>
-      <c r="I43" s="45" t="s">
+      <c r="I43" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
     </row>
     <row r="44" spans="6:11">
       <c r="F44" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G44" s="18"/>
-      <c r="H44" s="49" t="s">
+      <c r="H44" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
     </row>
     <row r="45" spans="8:8">
-      <c r="H45" s="49" t="s">
+      <c r="H45" s="50" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="46" spans="8:8">
-      <c r="H46" s="49" t="s">
+      <c r="H46" s="50" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3211,7 +3308,7 @@
         <v>63</v>
       </c>
       <c r="G58" s="3"/>
-      <c r="H58" s="49" t="s">
+      <c r="H58" s="50" t="s">
         <v>64</v>
       </c>
       <c r="I58" s="3" t="s">
@@ -3221,11 +3318,11 @@
       <c r="K58" s="3"/>
     </row>
     <row r="59" spans="6:11">
-      <c r="F59" s="46" t="s">
+      <c r="F59" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="G59" s="41"/>
-      <c r="H59" s="40" t="s">
+      <c r="G59" s="42"/>
+      <c r="H59" s="41" t="s">
         <v>67</v>
       </c>
       <c r="I59" s="3" t="s">
@@ -3235,10 +3332,10 @@
       <c r="K59" s="3"/>
     </row>
     <row r="60" spans="6:11">
-      <c r="F60" s="46" t="s">
+      <c r="F60" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="41"/>
+      <c r="G60" s="42"/>
       <c r="H60" s="54" t="s">
         <v>70</v>
       </c>
@@ -3249,11 +3346,11 @@
       <c r="K60" s="16"/>
     </row>
     <row r="61" spans="6:11">
-      <c r="F61" s="45" t="s">
+      <c r="F61" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="G61" s="45"/>
-      <c r="H61" s="49" t="s">
+      <c r="G61" s="46"/>
+      <c r="H61" s="50" t="s">
         <v>73</v>
       </c>
       <c r="I61" s="16"/>
@@ -3261,8 +3358,8 @@
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="6:11">
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
       <c r="K62" s="16"/>
@@ -3277,7 +3374,7 @@
         <v>74</v>
       </c>
       <c r="G67" s="57"/>
-      <c r="H67" s="48" t="s">
+      <c r="H67" s="49" t="s">
         <v>75</v>
       </c>
       <c r="I67" s="3" t="s">
@@ -3292,11 +3389,11 @@
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="42" t="s">
+      <c r="F68" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="40"/>
-      <c r="H68" s="48" t="s">
+      <c r="G68" s="41"/>
+      <c r="H68" s="49" t="s">
         <v>79</v>
       </c>
       <c r="I68" s="3" t="s">
@@ -3306,18 +3403,18 @@
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="6:11">
-      <c r="F69" s="42" t="s">
+      <c r="F69" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="G69" s="40"/>
-      <c r="H69" s="48" t="s">
+      <c r="G69" s="41"/>
+      <c r="H69" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="I69" s="42" t="s">
+      <c r="I69" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
     </row>
     <row r="70" spans="6:11">
       <c r="F70" s="16" t="s">
@@ -3327,56 +3424,56 @@
       <c r="H70" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="I70" s="45" t="s">
+      <c r="I70" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="J70" s="45"/>
-      <c r="K70" s="45"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="46"/>
     </row>
     <row r="71" spans="6:11">
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
       <c r="H71" s="58"/>
-      <c r="I71" s="45"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="45"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
     </row>
     <row r="72" spans="6:11">
-      <c r="F72" s="45" t="s">
+      <c r="F72" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="G72" s="45"/>
-      <c r="H72" s="50" t="s">
+      <c r="G72" s="46"/>
+      <c r="H72" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="I72" s="45" t="s">
+      <c r="I72" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="J72" s="45"/>
-      <c r="K72" s="45"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
     </row>
     <row r="73" spans="6:11">
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="45"/>
-      <c r="K73" s="45"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
     </row>
     <row r="74" spans="6:11">
       <c r="F74" s="16" t="s">
         <v>90</v>
       </c>
       <c r="G74" s="16"/>
-      <c r="I74" s="45"/>
-      <c r="J74" s="45"/>
-      <c r="K74" s="45"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
     </row>
     <row r="75" spans="6:11">
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="45"/>
-      <c r="K75" s="45"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
     </row>
     <row r="78" spans="7:10">
       <c r="G78" t="s">
@@ -3390,25 +3487,25 @@
       </c>
     </row>
     <row r="79" spans="6:11">
-      <c r="F79" s="47" t="s">
+      <c r="F79" s="48" t="s">
         <v>94</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I79" s="47" t="s">
+      <c r="I79" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="J79" s="47"/>
-      <c r="K79" s="47"/>
+      <c r="J79" s="48"/>
+      <c r="K79" s="48"/>
     </row>
     <row r="80" spans="8:11">
       <c r="H80" s="10"/>
-      <c r="I80" s="47" t="s">
+      <c r="I80" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="J80" s="47"/>
-      <c r="K80" s="47"/>
+      <c r="J80" s="48"/>
+      <c r="K80" s="48"/>
     </row>
     <row r="81" spans="10:10">
       <c r="J81" t="s">
@@ -3416,8 +3513,8 @@
       </c>
     </row>
     <row r="86" spans="6:8">
-      <c r="F86" s="49"/>
-      <c r="G86" s="49" t="s">
+      <c r="F86" s="50"/>
+      <c r="G86" s="50" t="s">
         <v>99</v>
       </c>
       <c r="H86" t="s">
@@ -3430,10 +3527,10 @@
       </c>
       <c r="D87" s="59"/>
       <c r="E87" s="59"/>
-      <c r="F87" s="45" t="s">
+      <c r="F87" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="G87" s="45"/>
+      <c r="G87" s="46"/>
       <c r="H87" t="s">
         <v>103</v>
       </c>
@@ -3442,32 +3539,32 @@
       <c r="C88" s="59"/>
       <c r="D88" s="59"/>
       <c r="E88" s="59"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
       <c r="H88" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="89" spans="6:7">
-      <c r="F89" s="49"/>
-      <c r="G89" s="49" t="s">
+      <c r="F89" s="50"/>
+      <c r="G89" s="50" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="90" spans="6:7">
-      <c r="F90" s="49"/>
-      <c r="G90" s="49" t="s">
+      <c r="F90" s="50"/>
+      <c r="G90" s="50" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="91" spans="6:7">
-      <c r="F91" s="49"/>
-      <c r="G91" s="49" t="s">
+      <c r="F91" s="50"/>
+      <c r="G91" s="50" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" spans="6:9">
-      <c r="F96" s="47" t="s">
+      <c r="F96" s="48" t="s">
         <v>107</v>
       </c>
       <c r="H96" s="18">
@@ -3476,7 +3573,7 @@
       <c r="I96" s="20"/>
     </row>
     <row r="97" spans="6:9">
-      <c r="F97" s="47" t="s">
+      <c r="F97" s="48" t="s">
         <v>108</v>
       </c>
       <c r="H97" s="3" t="s">
@@ -3558,7 +3655,7 @@
       <c r="H113">
         <v>3.2</v>
       </c>
-      <c r="I113" s="47">
+      <c r="I113" s="48">
         <v>3.3</v>
       </c>
     </row>
@@ -3569,10 +3666,10 @@
       <c r="H114" t="s">
         <v>115</v>
       </c>
-      <c r="I114" s="47" t="s">
+      <c r="I114" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="J114" s="47"/>
+      <c r="J114" s="48"/>
     </row>
     <row r="115" spans="7:10">
       <c r="G115" t="s">
@@ -3581,8 +3678,8 @@
       <c r="H115" t="s">
         <v>116</v>
       </c>
-      <c r="I115" s="53"/>
-      <c r="J115" s="53"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
     </row>
     <row r="119" spans="7:9">
       <c r="G119">
@@ -3591,7 +3688,7 @@
       <c r="H119">
         <v>3.6</v>
       </c>
-      <c r="I119" s="47">
+      <c r="I119" s="48">
         <v>3.7</v>
       </c>
     </row>
@@ -3602,10 +3699,10 @@
       <c r="H120" t="s">
         <v>118</v>
       </c>
-      <c r="I120" s="47" t="s">
+      <c r="I120" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="J120" s="47"/>
+      <c r="J120" s="48"/>
     </row>
     <row r="121" spans="8:9">
       <c r="H121" t="s">
@@ -3627,10 +3724,10 @@
       <c r="H127">
         <v>3.13</v>
       </c>
-      <c r="I127" s="47">
+      <c r="I127" s="48">
         <v>3.14</v>
       </c>
-      <c r="J127" s="47"/>
+      <c r="J127" s="48"/>
     </row>
     <row r="128" spans="7:9">
       <c r="G128" s="10" t="s">
@@ -3639,14 +3736,14 @@
       <c r="H128" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="I128" s="47" t="s">
+      <c r="I128" s="48" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="129" spans="7:9">
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
-      <c r="I129" s="47" t="s">
+      <c r="I129" s="48" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3672,10 +3769,10 @@
       </c>
     </row>
     <row r="140" spans="7:10">
-      <c r="G140" s="49">
+      <c r="G140" s="50">
         <v>3.26</v>
       </c>
-      <c r="H140" s="49">
+      <c r="H140" s="50">
         <v>3.27</v>
       </c>
       <c r="J140">
@@ -3686,7 +3783,7 @@
       <c r="G141" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="H141" s="49" t="s">
+      <c r="H141" s="50" t="s">
         <v>131</v>
       </c>
       <c r="J141" t="s">
@@ -3695,7 +3792,7 @@
     </row>
     <row r="142" spans="7:10">
       <c r="G142" s="16"/>
-      <c r="H142" s="49" t="s">
+      <c r="H142" s="50" t="s">
         <v>133</v>
       </c>
       <c r="J142" t="s">
@@ -3706,7 +3803,7 @@
       <c r="G143" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H143" s="49" t="s">
+      <c r="H143" s="50" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3714,7 +3811,7 @@
       <c r="G144" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H144" s="49" t="s">
+      <c r="H144" s="50" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3725,10 +3822,10 @@
       <c r="G146" s="16"/>
     </row>
     <row r="149" spans="7:10">
-      <c r="G149" s="37">
+      <c r="G149" s="29">
         <v>43188</v>
       </c>
-      <c r="H149" s="37">
+      <c r="H149" s="29">
         <v>43189</v>
       </c>
       <c r="J149" s="62">
@@ -3748,7 +3845,7 @@
       <c r="H150" t="s">
         <v>141</v>
       </c>
-      <c r="J150" s="49" t="s">
+      <c r="J150" s="50" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3839,10 +3936,10 @@
       <c r="J166" s="62"/>
     </row>
     <row r="167" spans="7:10">
-      <c r="G167" s="48" t="s">
+      <c r="G167" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="H167" s="49" t="s">
+      <c r="H167" s="50" t="s">
         <v>150</v>
       </c>
       <c r="I167" s="16" t="s">
@@ -3854,7 +3951,7 @@
       <c r="G168" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="H168" s="49" t="s">
+      <c r="H168" s="50" t="s">
         <v>153</v>
       </c>
       <c r="I168" s="16"/>
@@ -3873,10 +3970,10 @@
       <c r="I170" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J170" s="49"/>
+      <c r="J170" s="50"/>
     </row>
     <row r="175" spans="7:7">
-      <c r="G175" s="37">
+      <c r="G175" s="29">
         <v>43199</v>
       </c>
     </row>
@@ -3930,7 +4027,7 @@
       <c r="C182" s="64"/>
       <c r="D182" s="64"/>
       <c r="E182" s="64"/>
-      <c r="G182" s="37">
+      <c r="G182" s="29">
         <v>43211</v>
       </c>
       <c r="H182" s="62">
@@ -3987,7 +4084,7 @@
       <c r="J188" s="10"/>
     </row>
     <row r="191" spans="7:8">
-      <c r="G191" s="37">
+      <c r="G191" s="29">
         <v>43217</v>
       </c>
       <c r="H191" s="62">
@@ -4025,13 +4122,13 @@
       <c r="H198" s="16"/>
     </row>
     <row r="202" spans="7:10">
-      <c r="G202" s="37">
+      <c r="G202" s="29">
         <v>43223</v>
       </c>
-      <c r="H202" s="37">
+      <c r="H202" s="29">
         <v>43225</v>
       </c>
-      <c r="J202" s="37">
+      <c r="J202" s="29">
         <v>43227</v>
       </c>
     </row>
@@ -4060,13 +4157,13 @@
       </c>
     </row>
     <row r="208" spans="10:10">
-      <c r="J208" s="37"/>
+      <c r="J208" s="29"/>
     </row>
     <row r="209" spans="7:8">
       <c r="G209" s="62">
         <v>43231</v>
       </c>
-      <c r="H209" s="37">
+      <c r="H209" s="29">
         <v>43234</v>
       </c>
     </row>
@@ -4086,7 +4183,7 @@
       <c r="G212" s="16"/>
     </row>
     <row r="213" spans="7:7">
-      <c r="G213" s="49" t="s">
+      <c r="G213" s="50" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4134,7 +4231,7 @@
       <c r="I223" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="J223" s="49"/>
+      <c r="J223" s="50"/>
     </row>
     <row r="224" spans="7:8">
       <c r="G224" s="3" t="s">
@@ -4143,10 +4240,10 @@
       <c r="H224" s="3"/>
     </row>
     <row r="229" spans="7:10">
-      <c r="G229" s="37">
+      <c r="G229" s="29">
         <v>43241</v>
       </c>
-      <c r="H229" s="37">
+      <c r="H229" s="29">
         <v>43243</v>
       </c>
       <c r="I229" s="17">
@@ -4179,7 +4276,7 @@
       <c r="I232" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J232" s="49"/>
+      <c r="J232" s="50"/>
     </row>
     <row r="233" spans="9:9">
       <c r="I233" t="s">
@@ -4187,7 +4284,7 @@
       </c>
     </row>
     <row r="238" spans="7:7">
-      <c r="G238" s="37">
+      <c r="G238" s="29">
         <v>43245</v>
       </c>
     </row>
@@ -4207,7 +4304,7 @@
       <c r="I240" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J240" s="49"/>
+      <c r="J240" s="50"/>
     </row>
     <row r="241" spans="7:10">
       <c r="G241" s="10"/>
@@ -4258,10 +4355,10 @@
       <c r="J250" s="16"/>
     </row>
     <row r="254" spans="7:8">
-      <c r="G254" s="37">
+      <c r="G254" s="29">
         <v>43249</v>
       </c>
-      <c r="H254" s="37">
+      <c r="H254" s="29">
         <v>43250</v>
       </c>
     </row>
@@ -4318,7 +4415,7 @@
     </row>
     <row r="267" spans="7:10">
       <c r="G267" s="16"/>
-      <c r="H267" s="49" t="s">
+      <c r="H267" s="50" t="s">
         <v>199</v>
       </c>
       <c r="I267" s="16"/>
@@ -4382,7 +4479,7 @@
       <c r="H287" s="62">
         <v>43257</v>
       </c>
-      <c r="I287" s="27">
+      <c r="I287" s="22">
         <v>43258</v>
       </c>
       <c r="J287" s="68"/>
@@ -4409,7 +4506,7 @@
       <c r="G290" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H290" s="49" t="s">
+      <c r="H290" s="50" t="s">
         <v>208</v>
       </c>
       <c r="I290" s="18" t="s">
@@ -4419,18 +4516,18 @@
     </row>
     <row r="291" spans="7:10">
       <c r="G291" s="16"/>
-      <c r="H291" s="49"/>
-      <c r="I291" s="49"/>
-      <c r="J291" s="49"/>
+      <c r="H291" s="50"/>
+      <c r="I291" s="50"/>
+      <c r="J291" s="50"/>
     </row>
     <row r="292" spans="7:10">
-      <c r="G292" s="49"/>
-      <c r="H292" s="49"/>
-      <c r="I292" s="49"/>
-      <c r="J292" s="49"/>
+      <c r="G292" s="50"/>
+      <c r="H292" s="50"/>
+      <c r="I292" s="50"/>
+      <c r="J292" s="50"/>
     </row>
     <row r="297" spans="7:7">
-      <c r="G297" s="37">
+      <c r="G297" s="29">
         <v>43259</v>
       </c>
     </row>
@@ -4464,31 +4561,31 @@
       <c r="L304" s="16"/>
     </row>
     <row r="305" spans="12:12">
-      <c r="L305" s="53"/>
+      <c r="L305" s="30"/>
     </row>
     <row r="306" spans="12:12">
-      <c r="L306" s="53"/>
+      <c r="L306" s="30"/>
     </row>
     <row r="307" spans="12:12">
-      <c r="L307" s="53"/>
+      <c r="L307" s="30"/>
     </row>
     <row r="308" spans="12:12">
-      <c r="L308" s="53"/>
+      <c r="L308" s="30"/>
     </row>
     <row r="309" spans="12:12">
-      <c r="L309" s="53"/>
+      <c r="L309" s="30"/>
     </row>
     <row r="313" spans="7:10">
-      <c r="G313" s="37">
+      <c r="G313" s="29">
         <v>43271</v>
       </c>
-      <c r="H313" s="37">
+      <c r="H313" s="29">
         <v>43272</v>
       </c>
-      <c r="I313" s="28">
+      <c r="I313" s="23">
         <v>43273</v>
       </c>
-      <c r="J313" s="37"/>
+      <c r="J313" s="29"/>
     </row>
     <row r="314" spans="7:10">
       <c r="G314" s="67" t="s">
@@ -4497,7 +4594,7 @@
       <c r="H314" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="I314" s="70" t="s">
+      <c r="I314" s="21" t="s">
         <v>214</v>
       </c>
       <c r="J314" s="3"/>
@@ -4509,10 +4606,10 @@
       <c r="J315" s="3"/>
     </row>
     <row r="317" spans="7:10">
-      <c r="G317" s="49" t="s">
+      <c r="G317" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="H317" s="49" t="s">
+      <c r="H317" s="50" t="s">
         <v>216</v>
       </c>
       <c r="I317" s="3" t="s">
@@ -4532,10 +4629,10 @@
       <c r="G322" s="62">
         <v>43274</v>
       </c>
-      <c r="H322" s="37">
+      <c r="H322" s="29">
         <v>43276</v>
       </c>
-      <c r="J322" s="37">
+      <c r="J322" s="29">
         <v>43277</v>
       </c>
     </row>
@@ -4589,7 +4686,7 @@
       <c r="H334" s="62">
         <v>43279</v>
       </c>
-      <c r="J334" s="37">
+      <c r="J334" s="29">
         <v>43280</v>
       </c>
     </row>
@@ -4632,19 +4729,19 @@
       <c r="H342" s="16"/>
     </row>
     <row r="345" spans="7:10">
-      <c r="G345" s="71">
+      <c r="G345" s="70">
         <v>43281</v>
       </c>
-      <c r="H345" s="37">
+      <c r="H345" s="29">
         <v>43283</v>
       </c>
-      <c r="I345" s="28">
+      <c r="I345" s="23">
         <v>43285</v>
       </c>
-      <c r="J345" s="37"/>
+      <c r="J345" s="29"/>
     </row>
     <row r="346" spans="7:10">
-      <c r="G346" s="72" t="s">
+      <c r="G346" s="71" t="s">
         <v>231</v>
       </c>
       <c r="H346" s="10" t="s">
@@ -4656,39 +4753,39 @@
       <c r="J346" s="10"/>
     </row>
     <row r="347" spans="7:10">
-      <c r="G347" s="72"/>
+      <c r="G347" s="71"/>
       <c r="H347" s="10"/>
       <c r="I347" s="10"/>
       <c r="J347" s="10"/>
     </row>
     <row r="348" spans="7:7">
-      <c r="G348" s="72"/>
+      <c r="G348" s="71"/>
     </row>
     <row r="349" spans="7:7">
-      <c r="G349" s="72"/>
+      <c r="G349" s="71"/>
     </row>
     <row r="350" spans="7:7">
-      <c r="G350" s="72"/>
+      <c r="G350" s="71"/>
     </row>
     <row r="351" spans="7:7">
-      <c r="G351" s="72"/>
+      <c r="G351" s="71"/>
     </row>
     <row r="352" spans="7:7">
-      <c r="G352" s="72"/>
+      <c r="G352" s="71"/>
     </row>
     <row r="353" spans="7:7">
-      <c r="G353" s="72" t="s">
+      <c r="G353" s="71" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="354" spans="7:7">
-      <c r="G354" s="72"/>
+      <c r="G354" s="71"/>
     </row>
     <row r="357" spans="7:10">
-      <c r="G357" s="37">
+      <c r="G357" s="29">
         <v>43286</v>
       </c>
-      <c r="J357" s="37">
+      <c r="J357" s="29">
         <v>43288</v>
       </c>
     </row>
@@ -4709,7 +4806,7 @@
       <c r="J359" s="10"/>
     </row>
     <row r="365" spans="7:8">
-      <c r="G365" s="37">
+      <c r="G365" s="29">
         <v>43292</v>
       </c>
       <c r="H365" s="62">
@@ -4739,13 +4836,13 @@
       <c r="H369" s="16"/>
     </row>
     <row r="374" spans="7:10">
-      <c r="G374" s="37">
+      <c r="G374" s="29">
         <v>43307</v>
       </c>
       <c r="H374" s="62">
         <v>43308</v>
       </c>
-      <c r="J374" s="37">
+      <c r="J374" s="29">
         <v>43311</v>
       </c>
     </row>
@@ -4769,7 +4866,7 @@
     </row>
     <row r="377" spans="7:8">
       <c r="G377" s="10"/>
-      <c r="H377" s="49" t="s">
+      <c r="H377" s="50" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4785,15 +4882,15 @@
       <c r="G384" s="62">
         <v>43312</v>
       </c>
-      <c r="H384" s="37">
+      <c r="H384" s="29">
         <v>43313</v>
       </c>
-      <c r="J384" s="37">
+      <c r="J384" s="29">
         <v>43314</v>
       </c>
     </row>
     <row r="385" spans="7:10">
-      <c r="G385" s="49" t="s">
+      <c r="G385" s="50" t="s">
         <v>247</v>
       </c>
       <c r="H385" s="10" t="s">
@@ -4804,7 +4901,7 @@
       </c>
     </row>
     <row r="386" spans="7:10">
-      <c r="G386" s="49" t="s">
+      <c r="G386" s="50" t="s">
         <v>250</v>
       </c>
       <c r="H386" s="10"/>
@@ -4813,7 +4910,7 @@
       </c>
     </row>
     <row r="387" spans="7:10">
-      <c r="G387" s="49" t="s">
+      <c r="G387" s="50" t="s">
         <v>252</v>
       </c>
       <c r="H387" s="10"/>
@@ -4831,13 +4928,13 @@
       <c r="H389" s="10"/>
     </row>
     <row r="393" spans="7:10">
-      <c r="G393" s="37">
+      <c r="G393" s="29">
         <v>43315</v>
       </c>
-      <c r="H393" s="37">
+      <c r="H393" s="29">
         <v>43316</v>
       </c>
-      <c r="J393" s="37">
+      <c r="J393" s="29">
         <v>43318</v>
       </c>
     </row>
@@ -4870,13 +4967,13 @@
       <c r="G397" s="10"/>
     </row>
     <row r="401" spans="7:10">
-      <c r="G401" s="37">
+      <c r="G401" s="29">
         <v>43319</v>
       </c>
-      <c r="H401" s="37">
+      <c r="H401" s="29">
         <v>43320</v>
       </c>
-      <c r="J401" s="37">
+      <c r="J401" s="29">
         <v>43321</v>
       </c>
     </row>
@@ -4930,12 +5027,12 @@
       <c r="J408" s="10"/>
     </row>
     <row r="409" spans="9:9">
-      <c r="I409" s="47" t="s">
+      <c r="I409" s="48" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="414" spans="7:8">
-      <c r="G414" s="37">
+      <c r="G414" s="29">
         <v>43322</v>
       </c>
       <c r="H414" t="s">
@@ -4959,13 +5056,13 @@
       <c r="G418" s="10"/>
     </row>
     <row r="423" spans="7:10">
-      <c r="G423" s="37">
+      <c r="G423" s="29">
         <v>43325</v>
       </c>
-      <c r="H423" s="37">
+      <c r="H423" s="29">
         <v>43326</v>
       </c>
-      <c r="J423" s="37">
+      <c r="J423" s="29">
         <v>43327</v>
       </c>
     </row>
@@ -4991,21 +5088,21 @@
       </c>
     </row>
     <row r="432" spans="7:13">
-      <c r="G432" s="37">
+      <c r="G432" s="29">
         <v>43328</v>
       </c>
-      <c r="H432" s="37">
+      <c r="H432" s="29">
         <v>43329</v>
       </c>
-      <c r="I432" s="75">
+      <c r="I432" s="74">
         <v>43330</v>
       </c>
-      <c r="J432" s="73"/>
-      <c r="K432" s="76"/>
-      <c r="L432" s="74" t="s">
+      <c r="J432" s="72"/>
+      <c r="K432" s="75"/>
+      <c r="L432" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="M432" s="74" t="s">
+      <c r="M432" s="73" t="s">
         <v>278</v>
       </c>
     </row>
@@ -5020,7 +5117,7 @@
         <v>281</v>
       </c>
       <c r="J433" s="63"/>
-      <c r="K433" s="49" t="s">
+      <c r="K433" s="50" t="s">
         <v>282</v>
       </c>
       <c r="L433" s="3">
@@ -5037,7 +5134,7 @@
       </c>
       <c r="I434" s="16"/>
       <c r="J434" s="63"/>
-      <c r="K434" s="49" t="s">
+      <c r="K434" s="50" t="s">
         <v>284</v>
       </c>
       <c r="L434" s="3">
@@ -5056,11 +5153,11 @@
       </c>
       <c r="I435" s="16"/>
       <c r="J435" s="16"/>
-      <c r="K435" s="46" t="s">
+      <c r="K435" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="L435" s="46"/>
-      <c r="M435" s="46"/>
+      <c r="L435" s="47"/>
+      <c r="M435" s="47"/>
     </row>
     <row r="436" spans="7:10">
       <c r="G436" s="10" t="s">
@@ -5097,24 +5194,24 @@
       <c r="J441" s="16"/>
     </row>
     <row r="446" spans="5:10">
-      <c r="E446" s="73">
+      <c r="E446" s="72">
         <v>43332</v>
       </c>
-      <c r="F446" s="74" t="s">
+      <c r="F446" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="G446" s="74" t="s">
+      <c r="G446" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="H446" s="37">
+      <c r="H446" s="29">
         <v>43333</v>
       </c>
-      <c r="J446" s="37">
+      <c r="J446" s="29">
         <v>43334</v>
       </c>
     </row>
     <row r="447" spans="5:10">
-      <c r="E447" s="49" t="s">
+      <c r="E447" s="50" t="s">
         <v>282</v>
       </c>
       <c r="F447" s="3">
@@ -5132,7 +5229,7 @@
       <c r="J447" s="10"/>
     </row>
     <row r="448" spans="5:10">
-      <c r="E448" s="49" t="s">
+      <c r="E448" s="50" t="s">
         <v>284</v>
       </c>
       <c r="F448" s="3">
@@ -5145,11 +5242,11 @@
       <c r="J448" s="10"/>
     </row>
     <row r="449" spans="5:10">
-      <c r="E449" s="46" t="s">
+      <c r="E449" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="F449" s="46"/>
-      <c r="G449" s="46"/>
+      <c r="F449" s="47"/>
+      <c r="G449" s="47"/>
       <c r="I449" s="10"/>
       <c r="J449" s="10"/>
     </row>
@@ -5166,7 +5263,7 @@
       <c r="H458" s="62">
         <v>43336</v>
       </c>
-      <c r="J458" s="37">
+      <c r="J458" s="29">
         <v>43337</v>
       </c>
     </row>
@@ -5174,8 +5271,8 @@
       <c r="F459" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G459" s="48"/>
-      <c r="H459" s="49" t="s">
+      <c r="G459" s="49"/>
+      <c r="H459" s="50" t="s">
         <v>295</v>
       </c>
       <c r="J459" t="s">
@@ -5226,7 +5323,7 @@
       <c r="H464" s="16"/>
     </row>
     <row r="465" spans="8:8">
-      <c r="H465" s="49" t="s">
+      <c r="H465" s="50" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5238,7 +5335,7 @@
       <c r="H470" s="62">
         <v>43340</v>
       </c>
-      <c r="J470" s="37">
+      <c r="J470" s="29">
         <v>43341</v>
       </c>
     </row>
@@ -5246,7 +5343,7 @@
       <c r="F471" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G471" s="49"/>
+      <c r="G471" s="50"/>
       <c r="H471" s="16" t="s">
         <v>307</v>
       </c>
@@ -5259,7 +5356,7 @@
       <c r="F472" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G472" s="49"/>
+      <c r="G472" s="50"/>
       <c r="H472" s="16"/>
       <c r="I472" s="10"/>
       <c r="J472" s="10"/>
@@ -5302,8 +5399,8 @@
       <c r="F477" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G477" s="49"/>
-      <c r="H477" s="49" t="s">
+      <c r="G477" s="50"/>
+      <c r="H477" s="50" t="s">
         <v>314</v>
       </c>
     </row>
@@ -5311,19 +5408,19 @@
       <c r="F478" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="G478" s="49"/>
+      <c r="G478" s="50"/>
       <c r="H478" s="57" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="482" spans="7:10">
-      <c r="G482" s="37">
+      <c r="G482" s="29">
         <v>43342</v>
       </c>
-      <c r="H482" s="37">
+      <c r="H482" s="29">
         <v>43343</v>
       </c>
-      <c r="J482" s="37">
+      <c r="J482" s="29">
         <v>43344</v>
       </c>
     </row>
@@ -5374,10 +5471,10 @@
       <c r="H487" t="s">
         <v>326</v>
       </c>
-      <c r="I487" s="47" t="s">
+      <c r="I487" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="J487" s="47"/>
+      <c r="J487" s="48"/>
     </row>
     <row r="488" spans="7:10">
       <c r="G488" s="10"/>
@@ -5402,7 +5499,7 @@
       <c r="H490" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="I490" s="47" t="s">
+      <c r="I490" s="48" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5426,13 +5523,13 @@
       <c r="H495" s="10"/>
     </row>
     <row r="500" spans="7:10">
-      <c r="G500" s="37">
+      <c r="G500" s="29">
         <v>43346</v>
       </c>
-      <c r="H500" s="37">
+      <c r="H500" s="29">
         <v>43347</v>
       </c>
-      <c r="J500" s="37">
+      <c r="J500" s="29">
         <v>43348</v>
       </c>
     </row>
@@ -5477,13 +5574,13 @@
       <c r="J505" s="10"/>
     </row>
     <row r="512" spans="7:10">
-      <c r="G512" s="37">
+      <c r="G512" s="29">
         <v>43349</v>
       </c>
-      <c r="H512" s="37">
+      <c r="H512" s="29">
         <v>43350</v>
       </c>
-      <c r="J512" s="37">
+      <c r="J512" s="29">
         <v>43351</v>
       </c>
     </row>
@@ -5509,7 +5606,7 @@
       <c r="G515" t="s">
         <v>345</v>
       </c>
-      <c r="H515" s="47" t="s">
+      <c r="H515" s="10" t="s">
         <v>346</v>
       </c>
       <c r="I515" s="16"/>
@@ -5519,7 +5616,7 @@
       <c r="G516" t="s">
         <v>347</v>
       </c>
-      <c r="H516" s="47"/>
+      <c r="H516" s="10"/>
       <c r="I516" s="16"/>
       <c r="J516" s="16"/>
     </row>
@@ -5542,13 +5639,13 @@
       <c r="G520" s="10"/>
     </row>
     <row r="527" spans="7:10">
-      <c r="G527" s="37">
+      <c r="G527" s="29">
         <v>43353</v>
       </c>
-      <c r="H527" s="37">
+      <c r="H527" s="29">
         <v>43354</v>
       </c>
-      <c r="J527" s="37">
+      <c r="J527" s="29">
         <v>43355</v>
       </c>
     </row>
@@ -5583,13 +5680,13 @@
       </c>
     </row>
     <row r="536" spans="7:10">
-      <c r="G536" s="37">
+      <c r="G536" s="29">
         <v>43356</v>
       </c>
-      <c r="H536" s="37">
+      <c r="H536" s="29">
         <v>43357</v>
       </c>
-      <c r="J536" s="37">
+      <c r="J536" s="29">
         <v>43358</v>
       </c>
     </row>
@@ -5608,13 +5705,13 @@
       <c r="G538" s="10"/>
     </row>
     <row r="546" spans="7:10">
-      <c r="G546" s="37">
+      <c r="G546" s="29">
         <v>43361</v>
       </c>
-      <c r="H546" s="37">
+      <c r="H546" s="29">
         <v>43362</v>
       </c>
-      <c r="J546" s="37">
+      <c r="J546" s="29">
         <v>43363</v>
       </c>
     </row>
@@ -5625,12 +5722,12 @@
       <c r="H547" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="I547" s="47" t="s">
+      <c r="I547" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="J547" s="47"/>
-      <c r="K547" s="47"/>
-      <c r="L547" s="47"/>
+      <c r="J547" s="48"/>
+      <c r="K547" s="48"/>
+      <c r="L547" s="48"/>
     </row>
     <row r="548" spans="7:8">
       <c r="G548" s="10"/>
@@ -5647,7 +5744,7 @@
       </c>
     </row>
     <row r="553" spans="7:7">
-      <c r="G553" s="37">
+      <c r="G553" s="29">
         <v>43364</v>
       </c>
     </row>
@@ -5663,13 +5760,13 @@
       <c r="G556" s="10"/>
     </row>
     <row r="563" spans="7:10">
-      <c r="G563" s="37">
+      <c r="G563" s="29">
         <v>43368</v>
       </c>
       <c r="H563" s="62">
         <v>43369</v>
       </c>
-      <c r="J563" s="37">
+      <c r="J563" s="29">
         <v>43370</v>
       </c>
     </row>
@@ -5692,7 +5789,7 @@
       </c>
     </row>
     <row r="566" spans="8:8">
-      <c r="H566" s="49" t="s">
+      <c r="H566" s="50" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5705,10 +5802,10 @@
       <c r="H568" s="16"/>
     </row>
     <row r="574" spans="7:8">
-      <c r="G574" s="37">
+      <c r="G574" s="29">
         <v>43371</v>
       </c>
-      <c r="H574" s="37">
+      <c r="H574" s="29">
         <v>43372</v>
       </c>
     </row>
@@ -5987,17 +6084,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:AD63"/>
+  <dimension ref="B4:AD96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="S64" sqref="S64"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="T90" sqref="T90:W91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="9.125"/>
     <col min="10" max="10" width="9.125"/>
+    <col min="12" max="12" width="9.125"/>
     <col min="17" max="17" width="9.125"/>
+    <col min="20" max="21" width="9.125"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:19">
@@ -6015,12 +6114,12 @@
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="P4" s="27">
+      <c r="P4" s="22">
         <v>43380</v>
       </c>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="36"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="28"/>
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="2" t="s">
@@ -6253,14 +6352,14 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
-      <c r="I24" s="28">
+      <c r="I24" s="23">
         <v>43382</v>
       </c>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="Q24" s="37">
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="Q24" s="29">
         <v>43383</v>
       </c>
     </row>
@@ -6327,7 +6426,7 @@
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
-      <c r="P27" s="29" t="s">
+      <c r="P27" s="24" t="s">
         <v>408</v>
       </c>
       <c r="Q27" s="16"/>
@@ -6452,30 +6551,30 @@
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
-      <c r="H41" s="21">
+      <c r="H41" s="17">
         <v>43385</v>
       </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="U41" s="22" t="s">
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="U41" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="30"/>
-      <c r="AA41" s="30"/>
-      <c r="AB41" s="30"/>
-      <c r="AC41" s="30"/>
-      <c r="AD41" s="30"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
     </row>
     <row r="42" spans="2:30">
       <c r="B42" s="3" t="s">
@@ -6485,46 +6584,46 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="H42" s="22" t="s">
+      <c r="H42" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="U42" s="23" t="s">
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="U42" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="V42" s="23" t="s">
+      <c r="V42" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="W42" s="23" t="s">
+      <c r="W42" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="X42" s="23" t="s">
+      <c r="X42" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="Y42" s="23" t="s">
+      <c r="Y42" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="Z42" s="23" t="s">
+      <c r="Z42" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="AA42" s="23" t="s">
+      <c r="AA42" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="AB42" s="23" t="s">
+      <c r="AB42" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="AC42" s="23" t="s">
+      <c r="AC42" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="AD42" s="23"/>
+      <c r="AD42" s="3"/>
     </row>
     <row r="43" spans="2:30">
       <c r="B43" s="16" t="s">
@@ -6534,60 +6633,60 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="H43" s="23" t="s">
+      <c r="H43" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I43" s="23" t="s">
+      <c r="I43" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="J43" s="23" t="s">
+      <c r="J43" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="K43" s="23" t="s">
+      <c r="K43" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="L43" s="23" t="s">
+      <c r="L43" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="M43" s="23" t="s">
+      <c r="M43" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="N43" s="23" t="s">
+      <c r="N43" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="O43" s="23" t="s">
+      <c r="O43" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="P43" s="23" t="s">
+      <c r="P43" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="Q43" s="23"/>
-      <c r="U43" s="24" t="s">
+      <c r="Q43" s="3"/>
+      <c r="U43" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="V43" s="31" t="s">
+      <c r="V43" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="W43" s="23">
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="23">
+      <c r="X43" s="3">
         <v>3</v>
       </c>
-      <c r="Y43" s="23">
+      <c r="Y43" s="3">
         <v>25</v>
       </c>
-      <c r="Z43" s="23">
+      <c r="Z43" s="3">
         <v>20</v>
       </c>
-      <c r="AA43" s="23">
+      <c r="AA43" s="3">
         <v>5</v>
       </c>
-      <c r="AB43" s="23" t="s">
+      <c r="AB43" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC43" s="23"/>
-      <c r="AD43" s="23"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
     </row>
     <row r="44" spans="2:30">
       <c r="B44" s="16"/>
@@ -6595,745 +6694,1080 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-      <c r="H44" s="24" t="s">
+      <c r="H44" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="I44" s="31" t="s">
+      <c r="I44" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="23">
+      <c r="K44" s="3">
         <v>3</v>
       </c>
-      <c r="L44" s="23">
+      <c r="L44" s="3">
         <v>25</v>
       </c>
-      <c r="M44" s="23">
+      <c r="M44" s="3">
         <v>20</v>
       </c>
-      <c r="N44" s="23">
+      <c r="N44" s="3">
         <v>5</v>
       </c>
-      <c r="O44" s="23" t="s">
+      <c r="O44" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="23"/>
-      <c r="X44" s="23">
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3">
         <v>2</v>
       </c>
-      <c r="Y44" s="23">
+      <c r="Y44" s="3">
         <v>34</v>
       </c>
-      <c r="Z44" s="23">
+      <c r="Z44" s="3">
         <v>19</v>
       </c>
-      <c r="AA44" s="23">
+      <c r="AA44" s="3">
         <v>15</v>
       </c>
-      <c r="AB44" s="23" t="s">
+      <c r="AB44" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC44" s="32"/>
-      <c r="AD44" s="38"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="20"/>
     </row>
     <row r="45" spans="2:30">
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3">
         <v>2</v>
       </c>
-      <c r="L45" s="23">
+      <c r="L45" s="3">
         <v>34</v>
       </c>
-      <c r="M45" s="23">
+      <c r="M45" s="3">
         <v>19</v>
       </c>
-      <c r="N45" s="23">
+      <c r="N45" s="3">
         <v>15</v>
       </c>
-      <c r="O45" s="23" t="s">
+      <c r="O45" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="38"/>
-      <c r="U45" s="24"/>
-      <c r="V45" s="31"/>
-      <c r="W45" s="23"/>
-      <c r="X45" s="23">
+      <c r="P45" s="18"/>
+      <c r="Q45" s="20"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3">
         <v>1</v>
       </c>
-      <c r="Y45" s="23">
+      <c r="Y45" s="3">
         <v>83</v>
       </c>
-      <c r="Z45" s="23">
+      <c r="Z45" s="3">
         <v>60</v>
       </c>
-      <c r="AA45" s="23">
+      <c r="AA45" s="3">
         <v>23</v>
       </c>
-      <c r="AB45" s="23" t="s">
+      <c r="AB45" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC45" s="32"/>
-      <c r="AD45" s="38"/>
+      <c r="AC45" s="18"/>
+      <c r="AD45" s="20"/>
     </row>
     <row r="46" spans="2:30">
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23">
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3">
         <v>1</v>
       </c>
-      <c r="L46" s="23">
+      <c r="L46" s="3">
         <v>83</v>
       </c>
-      <c r="M46" s="23">
+      <c r="M46" s="3">
         <v>60</v>
       </c>
-      <c r="N46" s="23">
+      <c r="N46" s="3">
         <v>23</v>
       </c>
-      <c r="O46" s="23" t="s">
+      <c r="O46" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="38"/>
-      <c r="U46" s="24"/>
-      <c r="V46" s="31"/>
-      <c r="W46" s="23">
+      <c r="P46" s="18"/>
+      <c r="Q46" s="20"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="3">
         <v>100</v>
       </c>
-      <c r="X46" s="23">
+      <c r="X46" s="3">
         <v>1.5</v>
       </c>
-      <c r="Y46" s="23">
+      <c r="Y46" s="3">
         <v>66</v>
       </c>
-      <c r="Z46" s="23">
+      <c r="Z46" s="3">
         <v>51</v>
       </c>
-      <c r="AA46" s="23">
+      <c r="AA46" s="3">
         <v>15</v>
       </c>
-      <c r="AB46" s="23" t="s">
+      <c r="AB46" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC46" s="32"/>
-      <c r="AD46" s="38"/>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="20"/>
     </row>
     <row r="47" spans="2:30">
-      <c r="B47" s="23"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="23">
+      <c r="B47" s="3"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K47" s="3">
         <v>1.5</v>
       </c>
-      <c r="L47" s="23">
+      <c r="L47" s="3">
         <v>66</v>
       </c>
-      <c r="M47" s="23">
+      <c r="M47" s="3">
         <v>51</v>
       </c>
-      <c r="N47" s="23">
+      <c r="N47" s="3">
         <v>15</v>
       </c>
-      <c r="O47" s="23" t="s">
+      <c r="O47" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="38"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="31"/>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23">
+      <c r="P47" s="18"/>
+      <c r="Q47" s="20"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3">
         <v>1</v>
       </c>
-      <c r="Y47" s="23">
+      <c r="Y47" s="3">
         <v>79</v>
       </c>
-      <c r="Z47" s="23">
+      <c r="Z47" s="3">
         <v>44</v>
       </c>
-      <c r="AA47" s="23">
+      <c r="AA47" s="3">
         <v>35</v>
       </c>
-      <c r="AB47" s="23" t="s">
+      <c r="AB47" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC47" s="32"/>
-      <c r="AD47" s="38"/>
+      <c r="AC47" s="18"/>
+      <c r="AD47" s="20"/>
     </row>
     <row r="48" spans="2:30">
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23">
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3">
         <v>1</v>
       </c>
-      <c r="L48" s="23">
+      <c r="L48" s="3">
         <v>79</v>
       </c>
-      <c r="M48" s="23">
+      <c r="M48" s="3">
         <v>44</v>
       </c>
-      <c r="N48" s="23">
+      <c r="N48" s="3">
         <v>35</v>
       </c>
-      <c r="O48" s="23" t="s">
+      <c r="O48" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="38"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="31"/>
-      <c r="W48" s="23"/>
-      <c r="X48" s="23">
+      <c r="P48" s="18"/>
+      <c r="Q48" s="20"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3">
         <v>0.5</v>
       </c>
-      <c r="Y48" s="23">
+      <c r="Y48" s="3">
         <v>456</v>
       </c>
-      <c r="Z48" s="23">
+      <c r="Z48" s="3">
         <v>44</v>
       </c>
-      <c r="AA48" s="23">
+      <c r="AA48" s="3">
         <v>112</v>
       </c>
-      <c r="AB48" s="23" t="s">
+      <c r="AB48" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC48" s="32"/>
-      <c r="AD48" s="38"/>
+      <c r="AC48" s="18"/>
+      <c r="AD48" s="20"/>
     </row>
     <row r="49" spans="8:30">
-      <c r="H49" s="24"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23">
+      <c r="H49" s="16"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3">
         <v>0.5</v>
       </c>
-      <c r="L49" s="23">
+      <c r="L49" s="3">
         <v>456</v>
       </c>
-      <c r="M49" s="23">
+      <c r="M49" s="3">
         <v>44</v>
       </c>
-      <c r="N49" s="23">
+      <c r="N49" s="3">
         <v>112</v>
       </c>
-      <c r="O49" s="23" t="s">
+      <c r="O49" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="38"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="31"/>
-      <c r="W49" s="23"/>
-      <c r="X49" s="23">
+      <c r="P49" s="18"/>
+      <c r="Q49" s="20"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3">
         <v>0.2</v>
       </c>
-      <c r="Y49" s="23">
+      <c r="Y49" s="3">
         <v>365</v>
       </c>
-      <c r="Z49" s="23">
+      <c r="Z49" s="3">
         <v>43</v>
       </c>
-      <c r="AA49" s="23">
+      <c r="AA49" s="3">
         <v>322</v>
       </c>
-      <c r="AB49" s="23" t="s">
+      <c r="AB49" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC49" s="23" t="s">
+      <c r="AC49" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="AD49" s="23"/>
+      <c r="AD49" s="3"/>
     </row>
     <row r="50" spans="8:30">
-      <c r="H50" s="24"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23">
+      <c r="H50" s="16"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3">
         <v>0.2</v>
       </c>
-      <c r="L50" s="23">
+      <c r="L50" s="3">
         <v>365</v>
       </c>
-      <c r="M50" s="23">
+      <c r="M50" s="3">
         <v>43</v>
       </c>
-      <c r="N50" s="23">
+      <c r="N50" s="3">
         <v>322</v>
       </c>
-      <c r="O50" s="23" t="s">
+      <c r="O50" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P50" s="23" t="s">
+      <c r="P50" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="Q50" s="23"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="31"/>
-      <c r="W50" s="23">
+      <c r="Q50" s="3"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="3">
         <v>50</v>
       </c>
-      <c r="X50" s="23">
+      <c r="X50" s="3">
         <v>1.5</v>
       </c>
-      <c r="Y50" s="23">
+      <c r="Y50" s="3">
         <v>115</v>
       </c>
-      <c r="Z50" s="23">
+      <c r="Z50" s="3">
         <v>115</v>
       </c>
-      <c r="AA50" s="23">
+      <c r="AA50" s="3">
         <v>0</v>
       </c>
-      <c r="AB50" s="23" t="s">
+      <c r="AB50" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC50" s="32"/>
-      <c r="AD50" s="38"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="20"/>
     </row>
     <row r="51" spans="8:30">
-      <c r="H51" s="24"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="23">
+      <c r="H51" s="16"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="3">
         <v>50</v>
       </c>
-      <c r="K51" s="23">
+      <c r="K51" s="3">
         <v>1.5</v>
       </c>
-      <c r="L51" s="23">
+      <c r="L51" s="3">
         <v>115</v>
       </c>
-      <c r="M51" s="23">
+      <c r="M51" s="3">
         <v>115</v>
       </c>
-      <c r="N51" s="23">
+      <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="23" t="s">
+      <c r="O51" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="38"/>
-      <c r="U51" s="24"/>
-      <c r="V51" s="31"/>
-      <c r="W51" s="23"/>
-      <c r="X51" s="23">
+      <c r="P51" s="18"/>
+      <c r="Q51" s="20"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3">
         <v>0.8</v>
       </c>
-      <c r="Y51" s="23">
+      <c r="Y51" s="3">
         <v>117</v>
       </c>
-      <c r="Z51" s="23">
+      <c r="Z51" s="3">
         <v>99</v>
       </c>
-      <c r="AA51" s="23">
+      <c r="AA51" s="3">
         <v>18</v>
       </c>
-      <c r="AB51" s="23" t="s">
+      <c r="AB51" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC51" s="23" t="s">
+      <c r="AC51" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="AD51" s="23"/>
+      <c r="AD51" s="3"/>
     </row>
     <row r="52" spans="8:30">
-      <c r="H52" s="24"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23">
+      <c r="H52" s="16"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3">
         <v>0.8</v>
       </c>
-      <c r="L52" s="23">
+      <c r="L52" s="3">
         <v>117</v>
       </c>
-      <c r="M52" s="23">
+      <c r="M52" s="3">
         <v>99</v>
       </c>
-      <c r="N52" s="23">
+      <c r="N52" s="3">
         <v>18</v>
       </c>
-      <c r="O52" s="23" t="s">
+      <c r="O52" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P52" s="23" t="s">
+      <c r="P52" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="Q52" s="23"/>
-      <c r="U52" s="24"/>
-      <c r="V52" s="31"/>
-      <c r="W52" s="23"/>
-      <c r="X52" s="23">
+      <c r="Q52" s="3"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3">
         <v>0.2</v>
       </c>
-      <c r="Y52" s="23">
+      <c r="Y52" s="3">
         <v>398</v>
       </c>
-      <c r="Z52" s="23">
+      <c r="Z52" s="3">
         <v>89</v>
       </c>
-      <c r="AA52" s="23">
+      <c r="AA52" s="3">
         <v>309</v>
       </c>
-      <c r="AB52" s="23" t="s">
+      <c r="AB52" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC52" s="23" t="s">
+      <c r="AC52" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="AD52" s="23"/>
+      <c r="AD52" s="3"/>
     </row>
     <row r="53" spans="8:30">
-      <c r="H53" s="24"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23">
+      <c r="H53" s="16"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3">
         <v>0.2</v>
       </c>
-      <c r="L53" s="23">
+      <c r="L53" s="3">
         <v>398</v>
       </c>
-      <c r="M53" s="23">
+      <c r="M53" s="3">
         <v>89</v>
       </c>
-      <c r="N53" s="23">
+      <c r="N53" s="3">
         <v>309</v>
       </c>
-      <c r="O53" s="23" t="s">
+      <c r="O53" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P53" s="23" t="s">
+      <c r="P53" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="Q53" s="23"/>
-      <c r="U53" s="24"/>
-      <c r="V53" s="31" t="s">
+      <c r="Q53" s="3"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="W53" s="23">
+      <c r="W53" s="3">
         <v>200</v>
       </c>
-      <c r="X53" s="23">
+      <c r="X53" s="3">
         <v>2</v>
       </c>
-      <c r="Y53" s="23">
+      <c r="Y53" s="3">
         <v>44</v>
       </c>
-      <c r="Z53" s="23">
+      <c r="Z53" s="3">
         <v>20</v>
       </c>
-      <c r="AA53" s="23">
+      <c r="AA53" s="3">
         <v>24</v>
       </c>
-      <c r="AB53" s="23" t="s">
+      <c r="AB53" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC53" s="33" t="s">
+      <c r="AC53" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="AD53" s="33"/>
+      <c r="AD53" s="25"/>
     </row>
     <row r="54" spans="8:30">
-      <c r="H54" s="24"/>
-      <c r="I54" s="31" t="s">
+      <c r="H54" s="16"/>
+      <c r="I54" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="23">
+      <c r="K54" s="3">
         <v>2</v>
       </c>
-      <c r="L54" s="23">
+      <c r="L54" s="3">
         <v>44</v>
       </c>
-      <c r="M54" s="23">
+      <c r="M54" s="3">
         <v>20</v>
       </c>
-      <c r="N54" s="23">
+      <c r="N54" s="3">
         <v>24</v>
       </c>
-      <c r="O54" s="23" t="s">
+      <c r="O54" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P54" s="33" t="s">
+      <c r="P54" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="Q54" s="33"/>
-      <c r="U54" s="24"/>
-      <c r="V54" s="31"/>
-      <c r="W54" s="23">
+      <c r="Q54" s="25"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="3">
         <v>100</v>
       </c>
-      <c r="X54" s="23">
+      <c r="X54" s="3">
         <v>1.5</v>
       </c>
-      <c r="Y54" s="23">
+      <c r="Y54" s="3">
         <v>93</v>
       </c>
-      <c r="Z54" s="23">
+      <c r="Z54" s="3">
         <v>47</v>
       </c>
-      <c r="AA54" s="23">
+      <c r="AA54" s="3">
         <v>46</v>
       </c>
-      <c r="AB54" s="23" t="s">
+      <c r="AB54" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC54" s="32"/>
-      <c r="AD54" s="38"/>
+      <c r="AC54" s="18"/>
+      <c r="AD54" s="20"/>
     </row>
     <row r="55" spans="8:30">
-      <c r="H55" s="24"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="23">
+      <c r="H55" s="16"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="3">
         <v>100</v>
       </c>
-      <c r="K55" s="23">
+      <c r="K55" s="3">
         <v>1.5</v>
       </c>
-      <c r="L55" s="23">
+      <c r="L55" s="3">
         <v>93</v>
       </c>
-      <c r="M55" s="23">
+      <c r="M55" s="3">
         <v>47</v>
       </c>
-      <c r="N55" s="23">
+      <c r="N55" s="3">
         <v>46</v>
       </c>
-      <c r="O55" s="23" t="s">
+      <c r="O55" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="38"/>
-      <c r="U55" s="24"/>
-      <c r="V55" s="31"/>
-      <c r="W55" s="23"/>
-      <c r="X55" s="23">
+      <c r="P55" s="18"/>
+      <c r="Q55" s="20"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3">
         <v>0.5</v>
       </c>
-      <c r="Y55" s="23">
+      <c r="Y55" s="3">
         <v>209</v>
       </c>
-      <c r="Z55" s="23">
+      <c r="Z55" s="3">
         <v>41</v>
       </c>
-      <c r="AA55" s="23">
+      <c r="AA55" s="3">
         <v>168</v>
       </c>
-      <c r="AB55" s="23" t="s">
+      <c r="AB55" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC55" s="33" t="s">
+      <c r="AC55" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="AD55" s="33"/>
+      <c r="AD55" s="25"/>
     </row>
     <row r="56" spans="8:30">
-      <c r="H56" s="24"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23">
+      <c r="H56" s="16"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3">
         <v>0.5</v>
       </c>
-      <c r="L56" s="23">
+      <c r="L56" s="3">
         <v>209</v>
       </c>
-      <c r="M56" s="23">
+      <c r="M56" s="3">
         <v>41</v>
       </c>
-      <c r="N56" s="23">
+      <c r="N56" s="3">
         <v>168</v>
       </c>
-      <c r="O56" s="23" t="s">
+      <c r="O56" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P56" s="33" t="s">
+      <c r="P56" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="Q56" s="33"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="31"/>
-      <c r="W56" s="23"/>
-      <c r="X56" s="23">
+      <c r="Q56" s="25"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3">
         <v>0.2</v>
       </c>
-      <c r="Y56" s="23">
+      <c r="Y56" s="3">
         <v>453</v>
       </c>
-      <c r="Z56" s="23">
+      <c r="Z56" s="3">
         <v>43</v>
       </c>
-      <c r="AA56" s="23">
+      <c r="AA56" s="3">
         <v>410</v>
       </c>
-      <c r="AB56" s="23" t="s">
+      <c r="AB56" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC56" s="23" t="s">
+      <c r="AC56" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="AD56" s="23"/>
+      <c r="AD56" s="3"/>
     </row>
     <row r="57" spans="8:30">
-      <c r="H57" s="24"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23">
+      <c r="H57" s="16"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3">
         <v>0.2</v>
       </c>
-      <c r="L57" s="23">
+      <c r="L57" s="3">
         <v>453</v>
       </c>
-      <c r="M57" s="23">
+      <c r="M57" s="3">
         <v>43</v>
       </c>
-      <c r="N57" s="23">
+      <c r="N57" s="3">
         <v>410</v>
       </c>
-      <c r="O57" s="23" t="s">
+      <c r="O57" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P57" s="23" t="s">
+      <c r="P57" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="Q57" s="23"/>
-      <c r="U57" s="24"/>
-      <c r="V57" s="31"/>
-      <c r="W57" s="23">
+      <c r="Q57" s="3"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="3">
         <v>50</v>
       </c>
-      <c r="X57" s="23">
+      <c r="X57" s="3">
         <v>0.2</v>
       </c>
-      <c r="Y57" s="23">
+      <c r="Y57" s="3">
         <v>405</v>
       </c>
-      <c r="Z57" s="23">
+      <c r="Z57" s="3">
         <v>84</v>
       </c>
-      <c r="AA57" s="23">
+      <c r="AA57" s="3">
         <v>321</v>
       </c>
-      <c r="AB57" s="23" t="s">
+      <c r="AB57" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC57" s="23" t="s">
+      <c r="AC57" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="AD57" s="23"/>
+      <c r="AD57" s="3"/>
     </row>
     <row r="58" spans="8:30">
-      <c r="H58" s="24"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="23">
+      <c r="H58" s="16"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="3">
         <v>50</v>
       </c>
-      <c r="K58" s="23">
+      <c r="K58" s="3">
         <v>0.2</v>
       </c>
-      <c r="L58" s="23">
+      <c r="L58" s="3">
         <v>405</v>
       </c>
-      <c r="M58" s="23">
+      <c r="M58" s="3">
         <v>84</v>
       </c>
-      <c r="N58" s="23">
+      <c r="N58" s="3">
         <v>321</v>
       </c>
-      <c r="O58" s="23" t="s">
+      <c r="O58" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P58" s="23" t="s">
+      <c r="P58" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="Q58" s="23"/>
-      <c r="U58" s="24"/>
-      <c r="V58" s="34" t="s">
+      <c r="Q58" s="3"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="W58" s="34"/>
-      <c r="X58" s="34"/>
-      <c r="Y58" s="34"/>
-      <c r="Z58" s="34"/>
-      <c r="AA58" s="34"/>
-      <c r="AB58" s="34"/>
-      <c r="AC58" s="34"/>
-      <c r="AD58" s="38"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="19"/>
+      <c r="Z58" s="19"/>
+      <c r="AA58" s="19"/>
+      <c r="AB58" s="19"/>
+      <c r="AC58" s="19"/>
+      <c r="AD58" s="20"/>
     </row>
     <row r="59" spans="8:21">
-      <c r="H59" s="24"/>
-      <c r="I59" s="34" t="s">
+      <c r="H59" s="16"/>
+      <c r="I59" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="34"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="38"/>
-      <c r="U59" s="39"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="20"/>
+      <c r="U59" s="30"/>
     </row>
     <row r="60" spans="21:21">
-      <c r="U60" s="39"/>
+      <c r="U60" s="30"/>
     </row>
     <row r="61" spans="21:23">
-      <c r="U61" s="39"/>
+      <c r="U61" s="30"/>
       <c r="W61">
         <v>45</v>
       </c>
     </row>
     <row r="62" spans="21:21">
-      <c r="U62" s="39"/>
+      <c r="U62" s="30"/>
     </row>
     <row r="63" spans="23:23">
-      <c r="W63" s="39"/>
-    </row>
+      <c r="W63" s="30"/>
+    </row>
+    <row r="64" spans="2:21">
+      <c r="B64" s="17">
+        <v>43386</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="J64" s="26">
+        <v>43387</v>
+      </c>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
+      <c r="U64" s="29">
+        <v>43388</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21">
+      <c r="B65" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="J65" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="U65" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21">
+      <c r="B66" s="16"/>
+      <c r="C66" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="J66" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32"/>
+      <c r="U66" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24">
+      <c r="B67" s="16"/>
+      <c r="C67" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="J67" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
+      <c r="U67" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+    </row>
+    <row r="68" spans="2:24">
+      <c r="B68" s="16"/>
+      <c r="C68" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="J68" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+    </row>
+    <row r="69" spans="2:21">
+      <c r="B69" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="J69" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
+      <c r="U69" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="J70" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="32"/>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="J71" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="J72" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="K72" s="32"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="32"/>
+      <c r="N72" s="32"/>
+    </row>
+    <row r="80" spans="2:23">
+      <c r="B80" s="17">
+        <v>43389</v>
+      </c>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="T80" s="34">
+        <v>43391</v>
+      </c>
+      <c r="U80" s="34"/>
+      <c r="V80" s="34"/>
+      <c r="W80" s="34"/>
+    </row>
+    <row r="81" spans="2:23">
+      <c r="B81" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="K81" s="34">
+        <v>43390</v>
+      </c>
+      <c r="L81" s="34"/>
+      <c r="M81" s="34"/>
+      <c r="N81" s="34"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
+      <c r="T81" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="U81" s="36"/>
+      <c r="V81" s="36"/>
+      <c r="W81" s="36"/>
+    </row>
+    <row r="82" spans="2:23">
+      <c r="B82" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="31"/>
+      <c r="K82" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="T82" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="U82" s="36"/>
+      <c r="V82" s="36"/>
+      <c r="W82" s="36"/>
+    </row>
+    <row r="83" spans="2:23">
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="31"/>
+      <c r="K83" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="T83" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="U83" s="36"/>
+      <c r="V83" s="36"/>
+      <c r="W83" s="36"/>
+    </row>
+    <row r="84" spans="2:23">
+      <c r="B84" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="31"/>
+      <c r="K84" s="35" t="s">
+        <v>467</v>
+      </c>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="T84" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="U84" s="36"/>
+      <c r="V84" s="36"/>
+      <c r="W84" s="36"/>
+    </row>
+    <row r="85" spans="2:23">
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="31"/>
+      <c r="K85" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="T85" s="37"/>
+      <c r="U85" s="38"/>
+      <c r="V85" s="38"/>
+      <c r="W85" s="39"/>
+    </row>
+    <row r="86" spans="20:23">
+      <c r="T86" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="U86" s="40"/>
+      <c r="V86" s="40"/>
+      <c r="W86" s="40"/>
+    </row>
+    <row r="87" spans="20:23">
+      <c r="T87" s="40"/>
+      <c r="U87" s="40"/>
+      <c r="V87" s="40"/>
+      <c r="W87" s="40"/>
+    </row>
+    <row r="88" spans="20:23">
+      <c r="T88" s="40"/>
+      <c r="U88" s="40"/>
+      <c r="V88" s="40"/>
+      <c r="W88" s="40"/>
+    </row>
+    <row r="89" spans="20:23">
+      <c r="T89" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="U89" s="38"/>
+      <c r="V89" s="38"/>
+      <c r="W89" s="39"/>
+    </row>
+    <row r="90" spans="20:23">
+      <c r="T90" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="U90" s="40"/>
+      <c r="V90" s="40"/>
+      <c r="W90" s="40"/>
+    </row>
+    <row r="91" spans="20:23">
+      <c r="T91" s="40"/>
+      <c r="U91" s="40"/>
+      <c r="V91" s="40"/>
+      <c r="W91" s="40"/>
+    </row>
+    <row r="96" ht="22" customHeight="1"/>
   </sheetData>
-  <mergeCells count="105">
+  <mergeCells count="137">
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="I4:M4"/>
     <mergeCell ref="P4:S4"/>
@@ -7398,9 +7832,34 @@
     <mergeCell ref="P58:Q58"/>
     <mergeCell ref="V58:AD58"/>
     <mergeCell ref="I59:Q59"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="J64:N64"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="J66:N66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="J70:N70"/>
+    <mergeCell ref="J71:N71"/>
+    <mergeCell ref="J72:N72"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="T80:W80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="K81:P81"/>
+    <mergeCell ref="K82:P82"/>
+    <mergeCell ref="K83:P83"/>
+    <mergeCell ref="K84:P84"/>
+    <mergeCell ref="K85:P85"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="T89:W89"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B14"/>
     <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B65:B68"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="H44:H59"/>
@@ -7439,6 +7898,13 @@
     <mergeCell ref="P34:T35"/>
     <mergeCell ref="B43:F44"/>
     <mergeCell ref="C46:F47"/>
+    <mergeCell ref="B69:F70"/>
+    <mergeCell ref="B71:F72"/>
+    <mergeCell ref="U67:X68"/>
+    <mergeCell ref="B82:F83"/>
+    <mergeCell ref="B84:F85"/>
+    <mergeCell ref="T86:W88"/>
+    <mergeCell ref="T90:W91"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/日计划.xlsx
+++ b/日计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501">
   <si>
     <t>完成</t>
   </si>
@@ -1467,6 +1467,90 @@
   </si>
   <si>
     <t>发送成功3493，测试软件3494，无错误   17:47</t>
+  </si>
+  <si>
+    <t>了解git fetch   pull</t>
+  </si>
+  <si>
+    <t>深',GBK-&gt;key[5]={5,1,9,6,4} -&gt; key[] 转换为想对应的键值  5(0x5d) 1(0x59) 9(0x61) 6(0x5e) 4(0x5c)</t>
+  </si>
+  <si>
+    <t>今天去拍了婚纱照，宝宝说我全场最帅</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 继续测试100B，观察性能如何</t>
+  </si>
+  <si>
+    <t>100B  9356次发送，没问题</t>
+  </si>
+  <si>
+    <t>增加发送端记录，出现错误时，方便分析</t>
+  </si>
+  <si>
+    <t>扫码枪发送键值，其他国家的键盘 一律采用GBK编码</t>
+  </si>
+  <si>
+    <t>300B 共发送5083次，成功5082，失败1次。但接收方成功5083次。其中第955条数据是错的，前面多了个0.但发送方记录失败的是第4009次发送。详细报告保存在e:\杂\测试2018-10-19</t>
+  </si>
+  <si>
+    <t>美式键盘</t>
+  </si>
+  <si>
+    <t>ascii</t>
+  </si>
+  <si>
+    <t>key[0] key[2]</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>0x40 gbk[0],0x40 gbk[1],0x40 gbk[2],0x40 gbk[3],0x40 gbk[4]</t>
+  </si>
+  <si>
+    <t>其他字符</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>条码后段，应该是0的位置，成了换行</t>
+  </si>
+  <si>
+    <t>条码前多了个0</t>
+  </si>
+  <si>
+    <t>上传了三码的第一个项目2.4G扫描枪到github</t>
+  </si>
+  <si>
+    <t>收到了提示失败的数据</t>
+  </si>
+  <si>
+    <t>2.4G，中文上传是使用发送USB键值   例如深圳ALT+51694   ALT+56282</t>
+  </si>
+  <si>
+    <t>2.4G功能最近比较急，要重视</t>
+  </si>
+  <si>
+    <t>wifi样机装机，发现长码出现问题，需要排查，发现是初始化FIFO较小</t>
+  </si>
+  <si>
+    <t>2.4G 参照供应商的方法  已经可以实现更新</t>
+  </si>
+  <si>
+    <t>2.4G接收器端，正在修改键值部分，明天可以开始测试.</t>
+  </si>
+  <si>
+    <t>出现初次扫码没有返回的现象</t>
+  </si>
+  <si>
+    <t>完善代码裸机</t>
+  </si>
+  <si>
+    <t>需要增加连接不上重新进行设置的模式</t>
+  </si>
+  <si>
+    <t>编写了wifi样机，安卓app的使用方法。</t>
   </si>
 </sst>
 </file>
@@ -1510,98 +1594,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1620,6 +1613,73 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1645,6 +1705,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1662,7 +1746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,19 +1758,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1704,6 +1806,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1716,7 +1860,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1734,84 +1938,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1819,48 +1945,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2045,39 +2129,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2099,11 +2164,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2111,8 +2189,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2132,11 +2210,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2148,10 +2232,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2160,36 +2244,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2199,98 +2283,98 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2387,137 +2471,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2615,7 +2684,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13782675" y="5886450"/>
+          <a:off x="13801725" y="5886450"/>
           <a:ext cx="8371205" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2921,8 +2990,8 @@
   <sheetPr/>
   <dimension ref="B8:M577"/>
   <sheetViews>
-    <sheetView topLeftCell="A489" workbookViewId="0">
-      <selection activeCell="H518" sqref="H518"/>
+    <sheetView topLeftCell="A550" workbookViewId="0">
+      <selection activeCell="J537" sqref="J537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2937,7 +3006,7 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:12">
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="39" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -2955,181 +3024,181 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="4:12">
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44" t="s">
+      <c r="G9" s="41"/>
+      <c r="H9" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
     </row>
     <row r="10" spans="6:12">
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44" t="s">
+      <c r="G10" s="41"/>
+      <c r="H10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
     </row>
     <row r="11" spans="6:12">
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="45" t="s">
+      <c r="G11" s="41"/>
+      <c r="H11" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
     </row>
     <row r="12" spans="6:12">
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="46"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
     </row>
     <row r="13" spans="6:12">
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
     </row>
     <row r="14" spans="6:12">
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="44" t="s">
+      <c r="G14" s="38"/>
+      <c r="H14" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="44"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="42"/>
     </row>
     <row r="15" spans="6:12">
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="43" t="s">
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="44"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="20" spans="6:11">
       <c r="F20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50" t="s">
+      <c r="G20" s="46"/>
+      <c r="H20" s="37" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="50"/>
+      <c r="K20" s="37"/>
     </row>
     <row r="21" spans="6:11">
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="50" t="s">
+      <c r="G21" s="47"/>
+      <c r="H21" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="39"/>
     </row>
     <row r="22" spans="6:11">
       <c r="F22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50" t="s">
+      <c r="G22" s="46"/>
+      <c r="H22" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="43"/>
-      <c r="K22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="39"/>
     </row>
     <row r="23" spans="6:11">
       <c r="F23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="49"/>
+      <c r="G23" s="46"/>
       <c r="H23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="43"/>
-      <c r="K23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="39"/>
     </row>
     <row r="24" spans="6:11">
-      <c r="F24" s="52" t="s">
+      <c r="F24" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="53"/>
+      <c r="G24" s="49"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="43" t="s">
+      <c r="I24" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="43"/>
-      <c r="K24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="39"/>
     </row>
     <row r="28" spans="6:11">
       <c r="F28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="37" t="s">
         <v>37</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -3142,11 +3211,11 @@
       <c r="E29" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="41" t="s">
+      <c r="G29" s="41"/>
+      <c r="H29" s="39" t="s">
         <v>41</v>
       </c>
       <c r="I29" s="16" t="s">
@@ -3160,7 +3229,7 @@
         <v>43</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="41" t="s">
+      <c r="H30" s="39" t="s">
         <v>44</v>
       </c>
       <c r="I30" s="3" t="s">
@@ -3188,14 +3257,14 @@
         <v>48</v>
       </c>
       <c r="G33" s="16"/>
-      <c r="H33" s="42" t="s">
+      <c r="H33" s="40" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="41" t="s">
+      <c r="H34" s="39" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3218,7 +3287,7 @@
         <v>51</v>
       </c>
       <c r="G41" s="18"/>
-      <c r="H41" s="50" t="s">
+      <c r="H41" s="37" t="s">
         <v>52</v>
       </c>
       <c r="I41" s="18" t="s">
@@ -3235,11 +3304,11 @@
       <c r="H42" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="43" t="s">
+      <c r="I42" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
     </row>
     <row r="43" spans="6:11">
       <c r="F43" s="3" t="s">
@@ -3247,31 +3316,31 @@
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="16"/>
-      <c r="I43" s="46" t="s">
+      <c r="I43" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
     </row>
     <row r="44" spans="6:11">
       <c r="F44" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G44" s="18"/>
-      <c r="H44" s="50" t="s">
+      <c r="H44" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
     </row>
     <row r="45" spans="8:8">
-      <c r="H45" s="50" t="s">
+      <c r="H45" s="37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="46" spans="8:8">
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="37" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3308,7 +3377,7 @@
         <v>63</v>
       </c>
       <c r="G58" s="3"/>
-      <c r="H58" s="50" t="s">
+      <c r="H58" s="37" t="s">
         <v>64</v>
       </c>
       <c r="I58" s="3" t="s">
@@ -3318,11 +3387,11 @@
       <c r="K58" s="3"/>
     </row>
     <row r="59" spans="6:11">
-      <c r="F59" s="47" t="s">
+      <c r="F59" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G59" s="42"/>
-      <c r="H59" s="41" t="s">
+      <c r="G59" s="40"/>
+      <c r="H59" s="39" t="s">
         <v>67</v>
       </c>
       <c r="I59" s="3" t="s">
@@ -3332,11 +3401,11 @@
       <c r="K59" s="3"/>
     </row>
     <row r="60" spans="6:11">
-      <c r="F60" s="47" t="s">
+      <c r="F60" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="42"/>
-      <c r="H60" s="54" t="s">
+      <c r="G60" s="40"/>
+      <c r="H60" s="50" t="s">
         <v>70</v>
       </c>
       <c r="I60" s="16" t="s">
@@ -3346,11 +3415,11 @@
       <c r="K60" s="16"/>
     </row>
     <row r="61" spans="6:11">
-      <c r="F61" s="46" t="s">
+      <c r="F61" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G61" s="46"/>
-      <c r="H61" s="50" t="s">
+      <c r="G61" s="44"/>
+      <c r="H61" s="37" t="s">
         <v>73</v>
       </c>
       <c r="I61" s="16"/>
@@ -3358,8 +3427,8 @@
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="6:11">
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
       <c r="K62" s="16"/>
@@ -3373,8 +3442,8 @@
       <c r="F67" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="57"/>
-      <c r="H67" s="49" t="s">
+      <c r="G67" s="53"/>
+      <c r="H67" s="46" t="s">
         <v>75</v>
       </c>
       <c r="I67" s="3" t="s">
@@ -3389,11 +3458,11 @@
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="43" t="s">
+      <c r="F68" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="41"/>
-      <c r="H68" s="49" t="s">
+      <c r="G68" s="39"/>
+      <c r="H68" s="46" t="s">
         <v>79</v>
       </c>
       <c r="I68" s="3" t="s">
@@ -3403,77 +3472,77 @@
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="6:11">
-      <c r="F69" s="43" t="s">
+      <c r="F69" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="G69" s="41"/>
-      <c r="H69" s="49" t="s">
+      <c r="G69" s="39"/>
+      <c r="H69" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="I69" s="43" t="s">
+      <c r="I69" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
     </row>
     <row r="70" spans="6:11">
       <c r="F70" s="16" t="s">
         <v>84</v>
       </c>
       <c r="G70" s="16"/>
-      <c r="H70" s="58" t="s">
+      <c r="H70" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="I70" s="46" t="s">
+      <c r="I70" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="J70" s="46"/>
-      <c r="K70" s="46"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
     </row>
     <row r="71" spans="6:11">
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="46"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
     </row>
     <row r="72" spans="6:11">
-      <c r="F72" s="46" t="s">
+      <c r="F72" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="G72" s="46"/>
-      <c r="H72" s="51" t="s">
+      <c r="G72" s="44"/>
+      <c r="H72" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="I72" s="46" t="s">
+      <c r="I72" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="J72" s="46"/>
-      <c r="K72" s="46"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
     </row>
     <row r="73" spans="6:11">
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="46"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
     </row>
     <row r="74" spans="6:11">
       <c r="F74" s="16" t="s">
         <v>90</v>
       </c>
       <c r="G74" s="16"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="46"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
     </row>
     <row r="75" spans="6:11">
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="46"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
     </row>
     <row r="78" spans="7:10">
       <c r="G78" t="s">
@@ -3487,25 +3556,25 @@
       </c>
     </row>
     <row r="79" spans="6:11">
-      <c r="F79" s="48" t="s">
+      <c r="F79" s="45" t="s">
         <v>94</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I79" s="48" t="s">
+      <c r="I79" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="J79" s="48"/>
-      <c r="K79" s="48"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="45"/>
     </row>
     <row r="80" spans="8:11">
       <c r="H80" s="10"/>
-      <c r="I80" s="48" t="s">
+      <c r="I80" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="J80" s="48"/>
-      <c r="K80" s="48"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="45"/>
     </row>
     <row r="81" spans="10:10">
       <c r="J81" t="s">
@@ -3513,8 +3582,8 @@
       </c>
     </row>
     <row r="86" spans="6:8">
-      <c r="F86" s="50"/>
-      <c r="G86" s="50" t="s">
+      <c r="F86" s="37"/>
+      <c r="G86" s="37" t="s">
         <v>99</v>
       </c>
       <c r="H86" t="s">
@@ -3522,49 +3591,49 @@
       </c>
     </row>
     <row r="87" spans="3:8">
-      <c r="C87" s="59" t="s">
+      <c r="C87" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="46" t="s">
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="G87" s="46"/>
+      <c r="G87" s="44"/>
       <c r="H87" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="88" spans="3:8">
-      <c r="C88" s="59"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="46"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
       <c r="H88" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="89" spans="6:7">
-      <c r="F89" s="50"/>
-      <c r="G89" s="50" t="s">
+      <c r="F89" s="37"/>
+      <c r="G89" s="37" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="90" spans="6:7">
-      <c r="F90" s="50"/>
-      <c r="G90" s="50" t="s">
+      <c r="F90" s="37"/>
+      <c r="G90" s="37" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="91" spans="6:7">
-      <c r="F91" s="50"/>
-      <c r="G91" s="50" t="s">
+      <c r="F91" s="37"/>
+      <c r="G91" s="37" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" spans="6:9">
-      <c r="F96" s="48" t="s">
+      <c r="F96" s="45" t="s">
         <v>107</v>
       </c>
       <c r="H96" s="18">
@@ -3573,7 +3642,7 @@
       <c r="I96" s="20"/>
     </row>
     <row r="97" spans="6:9">
-      <c r="F97" s="48" t="s">
+      <c r="F97" s="45" t="s">
         <v>108</v>
       </c>
       <c r="H97" s="3" t="s">
@@ -3655,7 +3724,7 @@
       <c r="H113">
         <v>3.2</v>
       </c>
-      <c r="I113" s="48">
+      <c r="I113" s="45">
         <v>3.3</v>
       </c>
     </row>
@@ -3666,10 +3735,10 @@
       <c r="H114" t="s">
         <v>115</v>
       </c>
-      <c r="I114" s="48" t="s">
+      <c r="I114" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="J114" s="48"/>
+      <c r="J114" s="45"/>
     </row>
     <row r="115" spans="7:10">
       <c r="G115" t="s">
@@ -3688,7 +3757,7 @@
       <c r="H119">
         <v>3.6</v>
       </c>
-      <c r="I119" s="48">
+      <c r="I119" s="45">
         <v>3.7</v>
       </c>
     </row>
@@ -3699,10 +3768,10 @@
       <c r="H120" t="s">
         <v>118</v>
       </c>
-      <c r="I120" s="48" t="s">
+      <c r="I120" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="J120" s="48"/>
+      <c r="J120" s="45"/>
     </row>
     <row r="121" spans="8:9">
       <c r="H121" t="s">
@@ -3724,10 +3793,10 @@
       <c r="H127">
         <v>3.13</v>
       </c>
-      <c r="I127" s="48">
+      <c r="I127" s="45">
         <v>3.14</v>
       </c>
-      <c r="J127" s="48"/>
+      <c r="J127" s="45"/>
     </row>
     <row r="128" spans="7:9">
       <c r="G128" s="10" t="s">
@@ -3736,14 +3805,14 @@
       <c r="H128" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="I128" s="48" t="s">
+      <c r="I128" s="45" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="129" spans="7:9">
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
-      <c r="I129" s="48" t="s">
+      <c r="I129" s="45" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3769,10 +3838,10 @@
       </c>
     </row>
     <row r="140" spans="7:10">
-      <c r="G140" s="50">
+      <c r="G140" s="37">
         <v>3.26</v>
       </c>
-      <c r="H140" s="50">
+      <c r="H140" s="37">
         <v>3.27</v>
       </c>
       <c r="J140">
@@ -3783,7 +3852,7 @@
       <c r="G141" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="H141" s="50" t="s">
+      <c r="H141" s="37" t="s">
         <v>131</v>
       </c>
       <c r="J141" t="s">
@@ -3792,7 +3861,7 @@
     </row>
     <row r="142" spans="7:10">
       <c r="G142" s="16"/>
-      <c r="H142" s="50" t="s">
+      <c r="H142" s="37" t="s">
         <v>133</v>
       </c>
       <c r="J142" t="s">
@@ -3803,7 +3872,7 @@
       <c r="G143" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H143" s="50" t="s">
+      <c r="H143" s="37" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3811,7 +3880,7 @@
       <c r="G144" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H144" s="50" t="s">
+      <c r="H144" s="37" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3828,32 +3897,32 @@
       <c r="H149" s="29">
         <v>43189</v>
       </c>
-      <c r="J149" s="62">
+      <c r="J149" s="58">
         <v>43190</v>
       </c>
     </row>
     <row r="150" spans="3:10">
-      <c r="C150" s="60" t="s">
+      <c r="C150" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="D150" s="60"/>
-      <c r="E150" s="60"/>
-      <c r="F150" s="60"/>
+      <c r="D150" s="56"/>
+      <c r="E150" s="56"/>
+      <c r="F150" s="56"/>
       <c r="G150" s="16" t="s">
         <v>140</v>
       </c>
       <c r="H150" t="s">
         <v>141</v>
       </c>
-      <c r="J150" s="50" t="s">
+      <c r="J150" s="37" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="151" spans="3:10">
-      <c r="C151" s="60"/>
-      <c r="D151" s="60"/>
-      <c r="E151" s="60"/>
-      <c r="F151" s="60"/>
+      <c r="C151" s="56"/>
+      <c r="D151" s="56"/>
+      <c r="E151" s="56"/>
+      <c r="F151" s="56"/>
       <c r="G151" s="16"/>
       <c r="H151" t="s">
         <v>142</v>
@@ -3863,10 +3932,10 @@
       </c>
     </row>
     <row r="152" spans="3:10">
-      <c r="C152" s="60"/>
-      <c r="D152" s="60"/>
-      <c r="E152" s="60"/>
-      <c r="F152" s="60"/>
+      <c r="C152" s="56"/>
+      <c r="D152" s="56"/>
+      <c r="E152" s="56"/>
+      <c r="F152" s="56"/>
       <c r="G152" s="16"/>
       <c r="J152" s="16"/>
     </row>
@@ -3924,22 +3993,22 @@
       <c r="G163" s="16"/>
     </row>
     <row r="166" spans="7:10">
-      <c r="G166" s="61">
+      <c r="G166" s="57">
         <v>43192</v>
       </c>
-      <c r="H166" s="62">
+      <c r="H166" s="58">
         <v>43193</v>
       </c>
       <c r="I166" s="17">
         <v>43194</v>
       </c>
-      <c r="J166" s="62"/>
+      <c r="J166" s="58"/>
     </row>
     <row r="167" spans="7:10">
-      <c r="G167" s="49" t="s">
+      <c r="G167" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="H167" s="50" t="s">
+      <c r="H167" s="37" t="s">
         <v>150</v>
       </c>
       <c r="I167" s="16" t="s">
@@ -3948,17 +4017,17 @@
       <c r="J167" s="16"/>
     </row>
     <row r="168" spans="7:10">
-      <c r="G168" s="63" t="s">
+      <c r="G168" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="H168" s="50" t="s">
+      <c r="H168" s="37" t="s">
         <v>153</v>
       </c>
       <c r="I168" s="16"/>
       <c r="J168" s="16"/>
     </row>
     <row r="169" spans="7:10">
-      <c r="G169" s="63"/>
+      <c r="G169" s="59"/>
       <c r="H169" s="16" t="s">
         <v>154</v>
       </c>
@@ -3970,7 +4039,7 @@
       <c r="I170" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J170" s="50"/>
+      <c r="J170" s="37"/>
     </row>
     <row r="175" spans="7:7">
       <c r="G175" s="29">
@@ -3997,52 +4066,52 @@
       <c r="E177" s="3"/>
     </row>
     <row r="178" spans="2:5">
-      <c r="B178" s="64" t="s">
+      <c r="B178" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C178" s="64"/>
-      <c r="D178" s="64"/>
-      <c r="E178" s="64"/>
+      <c r="C178" s="33"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="33"/>
     </row>
     <row r="179" spans="2:5">
-      <c r="B179" s="64"/>
-      <c r="C179" s="64"/>
-      <c r="D179" s="64"/>
-      <c r="E179" s="64"/>
+      <c r="B179" s="33"/>
+      <c r="C179" s="33"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="33"/>
     </row>
     <row r="180" spans="2:5">
-      <c r="B180" s="64"/>
-      <c r="C180" s="64"/>
-      <c r="D180" s="64"/>
-      <c r="E180" s="64"/>
+      <c r="B180" s="33"/>
+      <c r="C180" s="33"/>
+      <c r="D180" s="33"/>
+      <c r="E180" s="33"/>
     </row>
     <row r="181" spans="2:5">
-      <c r="B181" s="64"/>
-      <c r="C181" s="64"/>
-      <c r="D181" s="64"/>
-      <c r="E181" s="64"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
     </row>
     <row r="182" spans="2:10">
-      <c r="B182" s="64"/>
-      <c r="C182" s="64"/>
-      <c r="D182" s="64"/>
-      <c r="E182" s="64"/>
+      <c r="B182" s="33"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="33"/>
+      <c r="E182" s="33"/>
       <c r="G182" s="29">
         <v>43211</v>
       </c>
-      <c r="H182" s="62">
+      <c r="H182" s="58">
         <v>43215</v>
       </c>
       <c r="I182" s="17">
         <v>43216</v>
       </c>
-      <c r="J182" s="62"/>
+      <c r="J182" s="58"/>
     </row>
     <row r="183" spans="2:10">
-      <c r="B183" s="64"/>
-      <c r="C183" s="64"/>
-      <c r="D183" s="64"/>
-      <c r="E183" s="64"/>
+      <c r="B183" s="33"/>
+      <c r="C183" s="33"/>
+      <c r="D183" s="33"/>
+      <c r="E183" s="33"/>
       <c r="G183" t="s">
         <v>160</v>
       </c>
@@ -4055,10 +4124,10 @@
       <c r="J183" s="16"/>
     </row>
     <row r="184" spans="2:10">
-      <c r="B184" s="64"/>
-      <c r="C184" s="64"/>
-      <c r="D184" s="64"/>
-      <c r="E184" s="64"/>
+      <c r="B184" s="33"/>
+      <c r="C184" s="33"/>
+      <c r="D184" s="33"/>
+      <c r="E184" s="33"/>
       <c r="H184" s="16"/>
       <c r="I184" s="16"/>
       <c r="J184" s="16"/>
@@ -4087,7 +4156,7 @@
       <c r="G191" s="29">
         <v>43217</v>
       </c>
-      <c r="H191" s="62">
+      <c r="H191" s="58">
         <v>43218</v>
       </c>
     </row>
@@ -4160,7 +4229,7 @@
       <c r="J208" s="29"/>
     </row>
     <row r="209" spans="7:8">
-      <c r="G209" s="62">
+      <c r="G209" s="58">
         <v>43231</v>
       </c>
       <c r="H209" s="29">
@@ -4183,7 +4252,7 @@
       <c r="G212" s="16"/>
     </row>
     <row r="213" spans="7:7">
-      <c r="G213" s="50" t="s">
+      <c r="G213" s="37" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4193,26 +4262,26 @@
       </c>
     </row>
     <row r="215" spans="7:7">
-      <c r="G215" s="57"/>
+      <c r="G215" s="53"/>
     </row>
     <row r="220" spans="7:10">
-      <c r="G220" s="65">
+      <c r="G220" s="60">
         <v>43236</v>
       </c>
-      <c r="H220" s="65">
+      <c r="H220" s="60">
         <v>43238</v>
       </c>
       <c r="I220" s="17">
         <v>43239</v>
       </c>
-      <c r="J220" s="62"/>
+      <c r="J220" s="58"/>
     </row>
     <row r="221" spans="7:10">
       <c r="G221" s="3" t="s">
         <v>175</v>
       </c>
       <c r="H221" s="3"/>
-      <c r="I221" s="66" t="s">
+      <c r="I221" s="61" t="s">
         <v>176</v>
       </c>
       <c r="J221" s="16"/>
@@ -4222,7 +4291,7 @@
         <v>177</v>
       </c>
       <c r="H222" s="16"/>
-      <c r="I222" s="66"/>
+      <c r="I222" s="61"/>
       <c r="J222" s="16"/>
     </row>
     <row r="223" spans="7:10">
@@ -4231,7 +4300,7 @@
       <c r="I223" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="J223" s="50"/>
+      <c r="J223" s="37"/>
     </row>
     <row r="224" spans="7:8">
       <c r="G224" s="3" t="s">
@@ -4249,7 +4318,7 @@
       <c r="I229" s="17">
         <v>43244</v>
       </c>
-      <c r="J229" s="62"/>
+      <c r="J229" s="58"/>
     </row>
     <row r="230" spans="7:10">
       <c r="G230" s="10" t="s">
@@ -4276,7 +4345,7 @@
       <c r="I232" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J232" s="50"/>
+      <c r="J232" s="37"/>
     </row>
     <row r="233" spans="9:9">
       <c r="I233" t="s">
@@ -4295,7 +4364,7 @@
       <c r="I239" s="17">
         <v>43248</v>
       </c>
-      <c r="J239" s="62"/>
+      <c r="J239" s="58"/>
     </row>
     <row r="240" spans="7:10">
       <c r="G240" s="10" t="s">
@@ -4304,7 +4373,7 @@
       <c r="I240" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J240" s="50"/>
+      <c r="J240" s="37"/>
     </row>
     <row r="241" spans="7:10">
       <c r="G241" s="10"/>
@@ -4385,13 +4454,13 @@
       <c r="G264" s="17">
         <v>43252</v>
       </c>
-      <c r="H264" s="62">
+      <c r="H264" s="58">
         <v>43253</v>
       </c>
       <c r="I264" s="17">
         <v>43255</v>
       </c>
-      <c r="J264" s="62"/>
+      <c r="J264" s="58"/>
     </row>
     <row r="265" spans="7:10">
       <c r="G265" s="3" t="s">
@@ -4415,7 +4484,7 @@
     </row>
     <row r="267" spans="7:10">
       <c r="G267" s="16"/>
-      <c r="H267" s="50" t="s">
+      <c r="H267" s="37" t="s">
         <v>199</v>
       </c>
       <c r="I267" s="16"/>
@@ -4473,16 +4542,16 @@
       <c r="G280" s="16"/>
     </row>
     <row r="287" spans="7:10">
-      <c r="G287" s="62">
+      <c r="G287" s="58">
         <v>43256</v>
       </c>
-      <c r="H287" s="62">
+      <c r="H287" s="58">
         <v>43257</v>
       </c>
       <c r="I287" s="22">
         <v>43258</v>
       </c>
-      <c r="J287" s="68"/>
+      <c r="J287" s="63"/>
     </row>
     <row r="288" spans="7:10">
       <c r="G288" s="16" t="s">
@@ -4506,25 +4575,25 @@
       <c r="G290" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H290" s="50" t="s">
+      <c r="H290" s="37" t="s">
         <v>208</v>
       </c>
       <c r="I290" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="J290" s="69"/>
+      <c r="J290" s="64"/>
     </row>
     <row r="291" spans="7:10">
       <c r="G291" s="16"/>
-      <c r="H291" s="50"/>
-      <c r="I291" s="50"/>
-      <c r="J291" s="50"/>
+      <c r="H291" s="37"/>
+      <c r="I291" s="37"/>
+      <c r="J291" s="37"/>
     </row>
     <row r="292" spans="7:10">
-      <c r="G292" s="50"/>
-      <c r="H292" s="50"/>
-      <c r="I292" s="50"/>
-      <c r="J292" s="50"/>
+      <c r="G292" s="37"/>
+      <c r="H292" s="37"/>
+      <c r="I292" s="37"/>
+      <c r="J292" s="37"/>
     </row>
     <row r="297" spans="7:7">
       <c r="G297" s="29">
@@ -4588,10 +4657,10 @@
       <c r="J313" s="29"/>
     </row>
     <row r="314" spans="7:10">
-      <c r="G314" s="67" t="s">
+      <c r="G314" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="H314" s="67" t="s">
+      <c r="H314" s="62" t="s">
         <v>213</v>
       </c>
       <c r="I314" s="21" t="s">
@@ -4606,10 +4675,10 @@
       <c r="J315" s="3"/>
     </row>
     <row r="317" spans="7:10">
-      <c r="G317" s="50" t="s">
+      <c r="G317" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="H317" s="50" t="s">
+      <c r="H317" s="37" t="s">
         <v>216</v>
       </c>
       <c r="I317" s="3" t="s">
@@ -4626,7 +4695,7 @@
       </c>
     </row>
     <row r="322" spans="7:10">
-      <c r="G322" s="62">
+      <c r="G322" s="58">
         <v>43274</v>
       </c>
       <c r="H322" s="29">
@@ -4680,10 +4749,10 @@
       <c r="H329" s="10"/>
     </row>
     <row r="334" spans="7:10">
-      <c r="G334" s="62">
+      <c r="G334" s="58">
         <v>43278</v>
       </c>
-      <c r="H334" s="62">
+      <c r="H334" s="58">
         <v>43279</v>
       </c>
       <c r="J334" s="29">
@@ -4707,19 +4776,19 @@
       <c r="H337" s="16"/>
     </row>
     <row r="338" spans="7:8">
-      <c r="G338" s="63"/>
+      <c r="G338" s="59"/>
       <c r="H338" s="16" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="339" spans="7:8">
-      <c r="G339" s="63" t="s">
+      <c r="G339" s="59" t="s">
         <v>230</v>
       </c>
       <c r="H339" s="16"/>
     </row>
     <row r="340" spans="7:8">
-      <c r="G340" s="63"/>
+      <c r="G340" s="59"/>
       <c r="H340" s="16"/>
     </row>
     <row r="341" spans="8:8">
@@ -4729,7 +4798,7 @@
       <c r="H342" s="16"/>
     </row>
     <row r="345" spans="7:10">
-      <c r="G345" s="70">
+      <c r="G345" s="65">
         <v>43281</v>
       </c>
       <c r="H345" s="29">
@@ -4741,7 +4810,7 @@
       <c r="J345" s="29"/>
     </row>
     <row r="346" spans="7:10">
-      <c r="G346" s="71" t="s">
+      <c r="G346" s="66" t="s">
         <v>231</v>
       </c>
       <c r="H346" s="10" t="s">
@@ -4753,33 +4822,33 @@
       <c r="J346" s="10"/>
     </row>
     <row r="347" spans="7:10">
-      <c r="G347" s="71"/>
+      <c r="G347" s="66"/>
       <c r="H347" s="10"/>
       <c r="I347" s="10"/>
       <c r="J347" s="10"/>
     </row>
     <row r="348" spans="7:7">
-      <c r="G348" s="71"/>
+      <c r="G348" s="66"/>
     </row>
     <row r="349" spans="7:7">
-      <c r="G349" s="71"/>
+      <c r="G349" s="66"/>
     </row>
     <row r="350" spans="7:7">
-      <c r="G350" s="71"/>
+      <c r="G350" s="66"/>
     </row>
     <row r="351" spans="7:7">
-      <c r="G351" s="71"/>
+      <c r="G351" s="66"/>
     </row>
     <row r="352" spans="7:7">
-      <c r="G352" s="71"/>
+      <c r="G352" s="66"/>
     </row>
     <row r="353" spans="7:7">
-      <c r="G353" s="71" t="s">
+      <c r="G353" s="66" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="354" spans="7:7">
-      <c r="G354" s="71"/>
+      <c r="G354" s="66"/>
     </row>
     <row r="357" spans="7:10">
       <c r="G357" s="29">
@@ -4809,7 +4878,7 @@
       <c r="G365" s="29">
         <v>43292</v>
       </c>
-      <c r="H365" s="62">
+      <c r="H365" s="58">
         <v>43293</v>
       </c>
     </row>
@@ -4839,7 +4908,7 @@
       <c r="G374" s="29">
         <v>43307</v>
       </c>
-      <c r="H374" s="62">
+      <c r="H374" s="58">
         <v>43308</v>
       </c>
       <c r="J374" s="29">
@@ -4866,7 +4935,7 @@
     </row>
     <row r="377" spans="7:8">
       <c r="G377" s="10"/>
-      <c r="H377" s="50" t="s">
+      <c r="H377" s="37" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4879,7 +4948,7 @@
       <c r="H379" s="16"/>
     </row>
     <row r="384" spans="7:10">
-      <c r="G384" s="62">
+      <c r="G384" s="58">
         <v>43312</v>
       </c>
       <c r="H384" s="29">
@@ -4890,7 +4959,7 @@
       </c>
     </row>
     <row r="385" spans="7:10">
-      <c r="G385" s="50" t="s">
+      <c r="G385" s="37" t="s">
         <v>247</v>
       </c>
       <c r="H385" s="10" t="s">
@@ -4901,7 +4970,7 @@
       </c>
     </row>
     <row r="386" spans="7:10">
-      <c r="G386" s="50" t="s">
+      <c r="G386" s="37" t="s">
         <v>250</v>
       </c>
       <c r="H386" s="10"/>
@@ -4910,7 +4979,7 @@
       </c>
     </row>
     <row r="387" spans="7:10">
-      <c r="G387" s="50" t="s">
+      <c r="G387" s="37" t="s">
         <v>252</v>
       </c>
       <c r="H387" s="10"/>
@@ -5027,7 +5096,7 @@
       <c r="J408" s="10"/>
     </row>
     <row r="409" spans="9:9">
-      <c r="I409" s="48" t="s">
+      <c r="I409" s="45" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5094,15 +5163,15 @@
       <c r="H432" s="29">
         <v>43329</v>
       </c>
-      <c r="I432" s="74">
+      <c r="I432" s="68">
         <v>43330</v>
       </c>
-      <c r="J432" s="72"/>
-      <c r="K432" s="75"/>
-      <c r="L432" s="73" t="s">
+      <c r="J432" s="67"/>
+      <c r="K432" s="69"/>
+      <c r="L432" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="M432" s="73" t="s">
+      <c r="M432" s="32" t="s">
         <v>278</v>
       </c>
     </row>
@@ -5116,8 +5185,8 @@
       <c r="I433" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="J433" s="63"/>
-      <c r="K433" s="50" t="s">
+      <c r="J433" s="59"/>
+      <c r="K433" s="37" t="s">
         <v>282</v>
       </c>
       <c r="L433" s="3">
@@ -5133,8 +5202,8 @@
         <v>283</v>
       </c>
       <c r="I434" s="16"/>
-      <c r="J434" s="63"/>
-      <c r="K434" s="50" t="s">
+      <c r="J434" s="59"/>
+      <c r="K434" s="37" t="s">
         <v>284</v>
       </c>
       <c r="L434" s="3">
@@ -5153,11 +5222,11 @@
       </c>
       <c r="I435" s="16"/>
       <c r="J435" s="16"/>
-      <c r="K435" s="47" t="s">
+      <c r="K435" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="L435" s="47"/>
-      <c r="M435" s="47"/>
+      <c r="L435" s="38"/>
+      <c r="M435" s="38"/>
     </row>
     <row r="436" spans="7:10">
       <c r="G436" s="10" t="s">
@@ -5194,13 +5263,13 @@
       <c r="J441" s="16"/>
     </row>
     <row r="446" spans="5:10">
-      <c r="E446" s="72">
+      <c r="E446" s="67">
         <v>43332</v>
       </c>
-      <c r="F446" s="73" t="s">
+      <c r="F446" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="G446" s="73" t="s">
+      <c r="G446" s="32" t="s">
         <v>278</v>
       </c>
       <c r="H446" s="29">
@@ -5211,7 +5280,7 @@
       </c>
     </row>
     <row r="447" spans="5:10">
-      <c r="E447" s="50" t="s">
+      <c r="E447" s="37" t="s">
         <v>282</v>
       </c>
       <c r="F447" s="3">
@@ -5229,7 +5298,7 @@
       <c r="J447" s="10"/>
     </row>
     <row r="448" spans="5:10">
-      <c r="E448" s="50" t="s">
+      <c r="E448" s="37" t="s">
         <v>284</v>
       </c>
       <c r="F448" s="3">
@@ -5242,11 +5311,11 @@
       <c r="J448" s="10"/>
     </row>
     <row r="449" spans="5:10">
-      <c r="E449" s="47" t="s">
+      <c r="E449" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="F449" s="47"/>
-      <c r="G449" s="47"/>
+      <c r="F449" s="38"/>
+      <c r="G449" s="38"/>
       <c r="I449" s="10"/>
       <c r="J449" s="10"/>
     </row>
@@ -5259,8 +5328,8 @@
       <c r="F458" s="17">
         <v>43335</v>
       </c>
-      <c r="G458" s="61"/>
-      <c r="H458" s="62">
+      <c r="G458" s="57"/>
+      <c r="H458" s="58">
         <v>43336</v>
       </c>
       <c r="J458" s="29">
@@ -5271,8 +5340,8 @@
       <c r="F459" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G459" s="49"/>
-      <c r="H459" s="50" t="s">
+      <c r="G459" s="46"/>
+      <c r="H459" s="37" t="s">
         <v>295</v>
       </c>
       <c r="J459" t="s">
@@ -5283,7 +5352,7 @@
       <c r="F460" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="G460" s="63"/>
+      <c r="G460" s="59"/>
       <c r="H460" s="16" t="s">
         <v>298</v>
       </c>
@@ -5293,7 +5362,7 @@
     </row>
     <row r="461" spans="6:10">
       <c r="F461" s="16"/>
-      <c r="G461" s="63"/>
+      <c r="G461" s="59"/>
       <c r="H461" s="16"/>
       <c r="J461" t="s">
         <v>300</v>
@@ -5303,7 +5372,7 @@
       <c r="F462" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="G462" s="63"/>
+      <c r="G462" s="59"/>
       <c r="H462" s="16"/>
       <c r="J462" t="s">
         <v>302</v>
@@ -5311,7 +5380,7 @@
     </row>
     <row r="463" spans="6:10">
       <c r="F463" s="16"/>
-      <c r="G463" s="63"/>
+      <c r="G463" s="59"/>
       <c r="H463" s="16" t="s">
         <v>303</v>
       </c>
@@ -5323,7 +5392,7 @@
       <c r="H464" s="16"/>
     </row>
     <row r="465" spans="8:8">
-      <c r="H465" s="50" t="s">
+      <c r="H465" s="37" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5331,8 +5400,8 @@
       <c r="F470" s="17">
         <v>43339</v>
       </c>
-      <c r="G470" s="62"/>
-      <c r="H470" s="62">
+      <c r="G470" s="58"/>
+      <c r="H470" s="58">
         <v>43340</v>
       </c>
       <c r="J470" s="29">
@@ -5343,7 +5412,7 @@
       <c r="F471" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G471" s="50"/>
+      <c r="G471" s="37"/>
       <c r="H471" s="16" t="s">
         <v>307</v>
       </c>
@@ -5356,7 +5425,7 @@
       <c r="F472" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G472" s="50"/>
+      <c r="G472" s="37"/>
       <c r="H472" s="16"/>
       <c r="I472" s="10"/>
       <c r="J472" s="10"/>
@@ -5391,7 +5460,7 @@
     <row r="476" spans="6:10">
       <c r="F476" s="16"/>
       <c r="G476" s="16"/>
-      <c r="H476" s="57"/>
+      <c r="H476" s="53"/>
       <c r="I476" s="10"/>
       <c r="J476" s="10"/>
     </row>
@@ -5399,8 +5468,8 @@
       <c r="F477" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G477" s="50"/>
-      <c r="H477" s="50" t="s">
+      <c r="G477" s="37"/>
+      <c r="H477" s="37" t="s">
         <v>314</v>
       </c>
     </row>
@@ -5408,8 +5477,8 @@
       <c r="F478" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="G478" s="50"/>
-      <c r="H478" s="57" t="s">
+      <c r="G478" s="37"/>
+      <c r="H478" s="53" t="s">
         <v>316</v>
       </c>
     </row>
@@ -5471,10 +5540,10 @@
       <c r="H487" t="s">
         <v>326</v>
       </c>
-      <c r="I487" s="48" t="s">
+      <c r="I487" s="45" t="s">
         <v>327</v>
       </c>
-      <c r="J487" s="48"/>
+      <c r="J487" s="45"/>
     </row>
     <row r="488" spans="7:10">
       <c r="G488" s="10"/>
@@ -5499,7 +5568,7 @@
       <c r="H490" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="I490" s="48" t="s">
+      <c r="I490" s="45" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5722,12 +5791,12 @@
       <c r="H547" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="I547" s="48" t="s">
+      <c r="I547" s="45" t="s">
         <v>361</v>
       </c>
-      <c r="J547" s="48"/>
-      <c r="K547" s="48"/>
-      <c r="L547" s="48"/>
+      <c r="J547" s="45"/>
+      <c r="K547" s="45"/>
+      <c r="L547" s="45"/>
     </row>
     <row r="548" spans="7:8">
       <c r="G548" s="10"/>
@@ -5763,7 +5832,7 @@
       <c r="G563" s="29">
         <v>43368</v>
       </c>
-      <c r="H563" s="62">
+      <c r="H563" s="58">
         <v>43369</v>
       </c>
       <c r="J563" s="29">
@@ -5789,7 +5858,7 @@
       </c>
     </row>
     <row r="566" spans="8:8">
-      <c r="H566" s="50" t="s">
+      <c r="H566" s="37" t="s">
         <v>369</v>
       </c>
     </row>
@@ -6084,17 +6153,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:AD96"/>
+  <dimension ref="B4:AD122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="T90" sqref="T90:W91"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K123" sqref="K123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="9.125"/>
-    <col min="10" max="10" width="9.125"/>
-    <col min="12" max="12" width="9.125"/>
+    <col min="2" max="3" width="9.125"/>
+    <col min="10" max="12" width="9.125"/>
     <col min="17" max="17" width="9.125"/>
     <col min="20" max="21" width="9.125"/>
   </cols>
@@ -7460,13 +7528,13 @@
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="J65" s="32" t="s">
+      <c r="J65" s="34" t="s">
         <v>442</v>
       </c>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
       <c r="U65" t="s">
         <v>443</v>
       </c>
@@ -7479,13 +7547,13 @@
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="J66" s="32" t="s">
+      <c r="J66" s="34" t="s">
         <v>445</v>
       </c>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="32"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
       <c r="U66" t="s">
         <v>446</v>
       </c>
@@ -7498,13 +7566,13 @@
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="J67" s="32" t="s">
+      <c r="J67" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="K67" s="32"/>
-      <c r="L67" s="32"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="32"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="34"/>
       <c r="U67" s="10" t="s">
         <v>449</v>
       </c>
@@ -7520,13 +7588,13 @@
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="J68" s="32" t="s">
+      <c r="J68" s="34" t="s">
         <v>451</v>
       </c>
-      <c r="K68" s="32"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="32"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="34"/>
       <c r="U68" s="10"/>
       <c r="V68" s="10"/>
       <c r="W68" s="10"/>
@@ -7540,13 +7608,13 @@
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
-      <c r="J69" s="32" t="s">
+      <c r="J69" s="34" t="s">
         <v>453</v>
       </c>
-      <c r="K69" s="32"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
       <c r="U69" t="s">
         <v>454</v>
       </c>
@@ -7557,13 +7625,13 @@
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
-      <c r="J70" s="32" t="s">
+      <c r="J70" s="34" t="s">
         <v>455</v>
       </c>
-      <c r="K70" s="32"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="32"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
     </row>
     <row r="71" spans="2:14">
       <c r="B71" s="16" t="s">
@@ -7573,13 +7641,13 @@
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
-      <c r="J71" s="33" t="s">
+      <c r="J71" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="K71" s="33"/>
-      <c r="L71" s="33"/>
-      <c r="M71" s="33"/>
-      <c r="N71" s="33"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
     </row>
     <row r="72" spans="2:14">
       <c r="B72" s="16"/>
@@ -7587,13 +7655,13 @@
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
-      <c r="J72" s="32" t="s">
+      <c r="J72" s="34" t="s">
         <v>458</v>
       </c>
-      <c r="K72" s="32"/>
-      <c r="L72" s="32"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="32"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="34"/>
     </row>
     <row r="80" spans="2:23">
       <c r="B80" s="17">
@@ -7603,12 +7671,12 @@
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
-      <c r="T80" s="34">
+      <c r="T80" s="17">
         <v>43391</v>
       </c>
-      <c r="U80" s="34"/>
-      <c r="V80" s="34"/>
-      <c r="W80" s="34"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="17"/>
     </row>
     <row r="81" spans="2:23">
       <c r="B81" s="3" t="s">
@@ -7618,20 +7686,20 @@
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
-      <c r="K81" s="34">
+      <c r="K81" s="17">
         <v>43390</v>
       </c>
-      <c r="L81" s="34"/>
-      <c r="M81" s="34"/>
-      <c r="N81" s="34"/>
-      <c r="O81" s="34"/>
-      <c r="P81" s="34"/>
-      <c r="T81" s="36" t="s">
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="T81" s="37" t="s">
         <v>460</v>
       </c>
-      <c r="U81" s="36"/>
-      <c r="V81" s="36"/>
-      <c r="W81" s="36"/>
+      <c r="U81" s="37"/>
+      <c r="V81" s="37"/>
+      <c r="W81" s="37"/>
     </row>
     <row r="82" spans="2:23">
       <c r="B82" s="16" t="s">
@@ -7642,20 +7710,20 @@
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
       <c r="G82" s="31"/>
-      <c r="K82" s="35" t="s">
+      <c r="K82" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
-      <c r="T82" s="36" t="s">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="T82" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="U82" s="36"/>
-      <c r="V82" s="36"/>
-      <c r="W82" s="36"/>
+      <c r="U82" s="37"/>
+      <c r="V82" s="37"/>
+      <c r="W82" s="37"/>
     </row>
     <row r="83" spans="2:23">
       <c r="B83" s="16"/>
@@ -7664,20 +7732,20 @@
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
       <c r="G83" s="31"/>
-      <c r="K83" s="35" t="s">
+      <c r="K83" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="L83" s="35"/>
-      <c r="M83" s="35"/>
-      <c r="N83" s="35"/>
-      <c r="O83" s="35"/>
-      <c r="P83" s="35"/>
-      <c r="T83" s="36" t="s">
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="T83" s="37" t="s">
         <v>465</v>
       </c>
-      <c r="U83" s="36"/>
-      <c r="V83" s="36"/>
-      <c r="W83" s="36"/>
+      <c r="U83" s="37"/>
+      <c r="V83" s="37"/>
+      <c r="W83" s="37"/>
     </row>
     <row r="84" spans="2:23">
       <c r="B84" s="16" t="s">
@@ -7688,20 +7756,20 @@
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
       <c r="G84" s="31"/>
-      <c r="K84" s="35" t="s">
+      <c r="K84" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="L84" s="35"/>
-      <c r="M84" s="35"/>
-      <c r="N84" s="35"/>
-      <c r="O84" s="35"/>
-      <c r="P84" s="35"/>
-      <c r="T84" s="36" t="s">
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="T84" s="37" t="s">
         <v>468</v>
       </c>
-      <c r="U84" s="36"/>
-      <c r="V84" s="36"/>
-      <c r="W84" s="36"/>
+      <c r="U84" s="37"/>
+      <c r="V84" s="37"/>
+      <c r="W84" s="37"/>
     </row>
     <row r="85" spans="2:23">
       <c r="B85" s="16"/>
@@ -7710,64 +7778,292 @@
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
       <c r="G85" s="31"/>
-      <c r="K85" s="35" t="s">
+      <c r="K85" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="L85" s="35"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35"/>
-      <c r="P85" s="35"/>
-      <c r="T85" s="37"/>
-      <c r="U85" s="38"/>
-      <c r="V85" s="38"/>
-      <c r="W85" s="39"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="T85" s="18"/>
+      <c r="U85" s="19"/>
+      <c r="V85" s="19"/>
+      <c r="W85" s="20"/>
     </row>
     <row r="86" spans="20:23">
-      <c r="T86" s="40" t="s">
+      <c r="T86" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="U86" s="40"/>
-      <c r="V86" s="40"/>
-      <c r="W86" s="40"/>
+      <c r="U86" s="16"/>
+      <c r="V86" s="16"/>
+      <c r="W86" s="16"/>
     </row>
     <row r="87" spans="20:23">
-      <c r="T87" s="40"/>
-      <c r="U87" s="40"/>
-      <c r="V87" s="40"/>
-      <c r="W87" s="40"/>
+      <c r="T87" s="16"/>
+      <c r="U87" s="16"/>
+      <c r="V87" s="16"/>
+      <c r="W87" s="16"/>
     </row>
     <row r="88" spans="20:23">
-      <c r="T88" s="40"/>
-      <c r="U88" s="40"/>
-      <c r="V88" s="40"/>
-      <c r="W88" s="40"/>
+      <c r="T88" s="16"/>
+      <c r="U88" s="16"/>
+      <c r="V88" s="16"/>
+      <c r="W88" s="16"/>
     </row>
     <row r="89" spans="20:23">
-      <c r="T89" s="37" t="s">
+      <c r="T89" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="U89" s="38"/>
-      <c r="V89" s="38"/>
-      <c r="W89" s="39"/>
+      <c r="U89" s="19"/>
+      <c r="V89" s="19"/>
+      <c r="W89" s="20"/>
     </row>
     <row r="90" spans="20:23">
-      <c r="T90" s="40" t="s">
+      <c r="T90" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="U90" s="40"/>
-      <c r="V90" s="40"/>
-      <c r="W90" s="40"/>
+      <c r="U90" s="16"/>
+      <c r="V90" s="16"/>
+      <c r="W90" s="16"/>
     </row>
     <row r="91" spans="20:23">
-      <c r="T91" s="40"/>
-      <c r="U91" s="40"/>
-      <c r="V91" s="40"/>
-      <c r="W91" s="40"/>
+      <c r="T91" s="16"/>
+      <c r="U91" s="16"/>
+      <c r="V91" s="16"/>
+      <c r="W91" s="16"/>
     </row>
     <row r="96" ht="22" customHeight="1"/>
+    <row r="97" spans="2:23">
+      <c r="B97" s="17">
+        <v>43392</v>
+      </c>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="K97" s="29">
+        <v>43393</v>
+      </c>
+      <c r="T97" s="17">
+        <v>43394</v>
+      </c>
+      <c r="U97" s="17"/>
+      <c r="V97" s="17"/>
+      <c r="W97" s="17"/>
+    </row>
+    <row r="98" spans="2:23">
+      <c r="B98" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="K98" s="70" t="s">
+        <v>474</v>
+      </c>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="T98" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="U98" s="38"/>
+      <c r="V98" s="38"/>
+      <c r="W98" s="38"/>
+    </row>
+    <row r="99" spans="2:16">
+      <c r="B99" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="K101" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+    </row>
+    <row r="103" spans="2:13">
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="K103" t="s">
+        <v>481</v>
+      </c>
+      <c r="L103" t="s">
+        <v>482</v>
+      </c>
+      <c r="M103" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13">
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="L104" t="s">
+        <v>484</v>
+      </c>
+      <c r="M104" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12">
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="L105" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="31"/>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="32"/>
+      <c r="C107" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="30"/>
+      <c r="K107" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" s="32"/>
+      <c r="C108" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+    </row>
+    <row r="116" spans="3:11">
+      <c r="C116" s="29">
+        <v>43395</v>
+      </c>
+      <c r="K116" s="29">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="117" spans="3:15">
+      <c r="C117" t="s">
+        <v>493</v>
+      </c>
+      <c r="K117" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="L117" s="36"/>
+      <c r="M117" s="36"/>
+      <c r="N117" s="36"/>
+      <c r="O117" s="36"/>
+    </row>
+    <row r="118" spans="3:15">
+      <c r="C118" t="s">
+        <v>495</v>
+      </c>
+      <c r="K118" s="36"/>
+      <c r="L118" s="36"/>
+      <c r="M118" s="36"/>
+      <c r="N118" s="36"/>
+      <c r="O118" s="36"/>
+    </row>
+    <row r="119" spans="3:11">
+      <c r="C119" t="s">
+        <v>496</v>
+      </c>
+      <c r="K119" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="120" spans="11:11">
+      <c r="K120" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="121" spans="11:11">
+      <c r="K121" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="122" spans="11:11">
+      <c r="K122" t="s">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="152">
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="I4:M4"/>
     <mergeCell ref="P4:S4"/>
@@ -7856,10 +8152,21 @@
     <mergeCell ref="K85:P85"/>
     <mergeCell ref="T85:W85"/>
     <mergeCell ref="T89:W89"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="T97:W97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="T98:W98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="C108:F108"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B14"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B106:B108"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="H44:H59"/>
@@ -7905,6 +8212,10 @@
     <mergeCell ref="B84:F85"/>
     <mergeCell ref="T86:W88"/>
     <mergeCell ref="T90:W91"/>
+    <mergeCell ref="B102:F105"/>
+    <mergeCell ref="B109:F110"/>
+    <mergeCell ref="K98:P99"/>
+    <mergeCell ref="K117:O118"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/日计划.xlsx
+++ b/日计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作记录1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="505">
   <si>
     <t>完成</t>
   </si>
@@ -1552,18 +1552,28 @@
   <si>
     <t>编写了wifi样机，安卓app的使用方法。</t>
   </si>
+  <si>
+    <t>今天虽然没有4点钟起来，但是也进步了，5点半起床。坚持</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blbl看了尚硅谷的git团队协作教程。Pull request这些。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉得有必要深入学习下java，当做拓展自己，而且java也一直很火。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看eclipse怎么使用内置的Git进行管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1593,151 +1603,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1768,188 +1640,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2126,524 +1818,286 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FF0000"/>
+      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2655,7 +2109,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -2677,7 +2131,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2982,12 +2436,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:M577"/>
   <sheetViews>
     <sheetView topLeftCell="A550" workbookViewId="0">
@@ -3006,545 +2460,545 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:12">
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="20" t="s">
+      <c r="G8" s="25"/>
+      <c r="H8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" spans="4:12">
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42" t="s">
+      <c r="G9" s="26"/>
+      <c r="H9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-    </row>
-    <row r="10" spans="6:12">
-      <c r="F10" s="41" t="s">
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+    </row>
+    <row r="10" spans="4:12">
+      <c r="F10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-    </row>
-    <row r="11" spans="6:12">
-      <c r="F11" s="41" t="s">
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+    </row>
+    <row r="11" spans="4:12">
+      <c r="F11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="43" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-    </row>
-    <row r="12" spans="6:12">
-      <c r="F12" s="44" t="s">
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="4:12">
+      <c r="F12" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="20" t="s">
+      <c r="G12" s="63"/>
+      <c r="H12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-    </row>
-    <row r="13" spans="6:12">
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="20" t="s">
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="4:12">
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-    </row>
-    <row r="14" spans="6:12">
-      <c r="F14" s="38" t="s">
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="4:12">
+      <c r="F14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="42" t="s">
+      <c r="G14" s="27"/>
+      <c r="H14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="51" t="s">
+      <c r="I14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="42"/>
-    </row>
-    <row r="15" spans="6:12">
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="41" t="s">
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="4:12">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="51" t="s">
+      <c r="I15" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="42"/>
-    </row>
-    <row r="20" spans="6:11">
-      <c r="F20" s="3" t="s">
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="20" spans="5:11">
+      <c r="F20" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="37" t="s">
+      <c r="G20" s="31"/>
+      <c r="H20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="37"/>
-    </row>
-    <row r="21" spans="6:11">
-      <c r="F21" s="41" t="s">
+      <c r="J20" s="25"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="5:11">
+      <c r="F21" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="37" t="s">
+      <c r="G21" s="33"/>
+      <c r="H21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="41"/>
-      <c r="K21" s="39"/>
-    </row>
-    <row r="22" spans="6:11">
-      <c r="F22" s="3" t="s">
+      <c r="J21" s="26"/>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="5:11">
+      <c r="F22" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="37" t="s">
+      <c r="G22" s="31"/>
+      <c r="H22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="39"/>
-    </row>
-    <row r="23" spans="6:11">
-      <c r="F23" s="3" t="s">
+      <c r="J22" s="26"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="5:11">
+      <c r="F23" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="16" t="s">
+      <c r="G23" s="31"/>
+      <c r="H23" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="41"/>
-      <c r="K23" s="39"/>
-    </row>
-    <row r="24" spans="6:11">
-      <c r="F24" s="48" t="s">
+      <c r="J23" s="26"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="5:11">
+      <c r="F24" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="41" t="s">
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="39"/>
-    </row>
-    <row r="28" spans="6:11">
-      <c r="F28" s="3" t="s">
+      <c r="J24" s="26"/>
+      <c r="K24" s="34"/>
+    </row>
+    <row r="28" spans="5:11">
+      <c r="F28" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="37" t="s">
+      <c r="G28" s="25"/>
+      <c r="H28" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
     </row>
     <row r="29" spans="5:11">
       <c r="E29" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="41" t="s">
+      <c r="F29" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="39" t="s">
+      <c r="G29" s="26"/>
+      <c r="H29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I29" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="6:11">
-      <c r="F30" s="3" t="s">
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+    </row>
+    <row r="30" spans="5:11">
+      <c r="F30" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="39" t="s">
+      <c r="G30" s="25"/>
+      <c r="H30" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="6:8">
-      <c r="F31" s="16" t="s">
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+    </row>
+    <row r="31" spans="5:11">
+      <c r="F31" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16" t="s">
+      <c r="G31" s="37"/>
+      <c r="H31" s="37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="6:8">
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="6:8">
-      <c r="F33" s="16" t="s">
+    <row r="32" spans="5:11">
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+    </row>
+    <row r="33" spans="6:11">
+      <c r="F33" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="40" t="s">
+      <c r="G33" s="37"/>
+      <c r="H33" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="6:8">
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="39" t="s">
+    <row r="34" spans="6:11">
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="6:7">
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-    </row>
-    <row r="36" spans="6:7">
-      <c r="F36" s="18" t="s">
+    <row r="35" spans="6:11">
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+    </row>
+    <row r="36" spans="6:11">
+      <c r="F36" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="40" spans="6:7">
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
+      <c r="G36" s="39"/>
+    </row>
+    <row r="40" spans="6:11">
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="6:11">
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="37" t="s">
+      <c r="G41" s="38"/>
+      <c r="H41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I41" s="18" t="s">
+      <c r="I41" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="J41" s="19"/>
-      <c r="K41" s="20"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="39"/>
     </row>
     <row r="42" spans="6:11">
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="16" t="s">
+      <c r="G42" s="38"/>
+      <c r="H42" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="41" t="s">
+      <c r="I42" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
     </row>
     <row r="43" spans="6:11">
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="18"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="44" t="s">
+      <c r="G43" s="38"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
     </row>
     <row r="44" spans="6:11">
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="18"/>
-      <c r="H44" s="37" t="s">
+      <c r="G44" s="38"/>
+      <c r="H44" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-    </row>
-    <row r="45" spans="8:8">
-      <c r="H45" s="37" t="s">
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+    </row>
+    <row r="45" spans="6:11">
+      <c r="H45" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="8:8">
-      <c r="H46" s="37" t="s">
+    <row r="46" spans="6:11">
+      <c r="H46" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="8:8">
-      <c r="H47" s="16" t="s">
+    <row r="47" spans="6:11">
+      <c r="H47" s="37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="8:8">
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" spans="8:8">
-      <c r="H49" s="16"/>
-    </row>
-    <row r="50" spans="8:8">
-      <c r="H50" s="16"/>
-    </row>
-    <row r="51" spans="8:8">
-      <c r="H51" s="16"/>
-    </row>
-    <row r="52" spans="8:8">
-      <c r="H52" s="16" t="s">
+    <row r="48" spans="6:11">
+      <c r="H48" s="37"/>
+    </row>
+    <row r="49" spans="6:11">
+      <c r="H49" s="37"/>
+    </row>
+    <row r="50" spans="6:11">
+      <c r="H50" s="37"/>
+    </row>
+    <row r="51" spans="6:11">
+      <c r="H51" s="37"/>
+    </row>
+    <row r="52" spans="6:11">
+      <c r="H52" s="37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="8:8">
-      <c r="H53" s="16"/>
-    </row>
-    <row r="54" spans="8:8">
-      <c r="H54" s="16"/>
+    <row r="53" spans="6:11">
+      <c r="H53" s="37"/>
+    </row>
+    <row r="54" spans="6:11">
+      <c r="H54" s="37"/>
     </row>
     <row r="58" spans="6:11">
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="37" t="s">
+      <c r="G58" s="25"/>
+      <c r="H58" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
     </row>
     <row r="59" spans="6:11">
-      <c r="F59" s="38" t="s">
+      <c r="F59" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G59" s="40"/>
-      <c r="H59" s="39" t="s">
+      <c r="G59" s="41"/>
+      <c r="H59" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
     </row>
     <row r="60" spans="6:11">
-      <c r="F60" s="38" t="s">
+      <c r="F60" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="40"/>
-      <c r="H60" s="50" t="s">
+      <c r="G60" s="41"/>
+      <c r="H60" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I60" s="16" t="s">
+      <c r="I60" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
     </row>
     <row r="61" spans="6:11">
-      <c r="F61" s="44" t="s">
+      <c r="F61" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="G61" s="44"/>
-      <c r="H61" s="37" t="s">
+      <c r="G61" s="63"/>
+      <c r="H61" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
     </row>
     <row r="62" spans="6:11">
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-    </row>
-    <row r="63" spans="9:11">
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-    </row>
-    <row r="67" spans="6:11">
-      <c r="F67" s="16" t="s">
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+    </row>
+    <row r="63" spans="6:11">
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+    </row>
+    <row r="67" spans="3:11">
+      <c r="F67" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="53"/>
-      <c r="H67" s="46" t="s">
+      <c r="G67" s="42"/>
+      <c r="H67" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
     </row>
     <row r="68" spans="3:11">
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="41" t="s">
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="39"/>
-      <c r="H68" s="46" t="s">
+      <c r="G68" s="34"/>
+      <c r="H68" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="I68" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="6:11">
-      <c r="F69" s="41" t="s">
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+    </row>
+    <row r="69" spans="3:11">
+      <c r="F69" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G69" s="39"/>
-      <c r="H69" s="46" t="s">
+      <c r="G69" s="34"/>
+      <c r="H69" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I69" s="41" t="s">
+      <c r="I69" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
-    </row>
-    <row r="70" spans="6:11">
-      <c r="F70" s="16" t="s">
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+    </row>
+    <row r="70" spans="3:11">
+      <c r="F70" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G70" s="16"/>
-      <c r="H70" s="54" t="s">
+      <c r="G70" s="37"/>
+      <c r="H70" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="I70" s="44" t="s">
+      <c r="I70" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="J70" s="44"/>
-      <c r="K70" s="44"/>
-    </row>
-    <row r="71" spans="6:11">
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44"/>
-    </row>
-    <row r="72" spans="6:11">
-      <c r="F72" s="44" t="s">
+      <c r="J70" s="63"/>
+      <c r="K70" s="63"/>
+    </row>
+    <row r="71" spans="3:11">
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="63"/>
+      <c r="K71" s="63"/>
+    </row>
+    <row r="72" spans="3:11">
+      <c r="F72" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="G72" s="44"/>
-      <c r="H72" s="47" t="s">
+      <c r="G72" s="63"/>
+      <c r="H72" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="I72" s="44" t="s">
+      <c r="I72" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="J72" s="44"/>
-      <c r="K72" s="44"/>
-    </row>
-    <row r="73" spans="6:11">
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="44"/>
-      <c r="K73" s="44"/>
-    </row>
-    <row r="74" spans="6:11">
-      <c r="F74" s="16" t="s">
+      <c r="J72" s="63"/>
+      <c r="K72" s="63"/>
+    </row>
+    <row r="73" spans="3:11">
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="63"/>
+      <c r="K73" s="63"/>
+    </row>
+    <row r="74" spans="3:11">
+      <c r="F74" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="G74" s="16"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="44"/>
-    </row>
-    <row r="75" spans="6:11">
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="44"/>
-      <c r="K75" s="44"/>
-    </row>
-    <row r="78" spans="7:10">
+      <c r="G74" s="37"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="63"/>
+    </row>
+    <row r="75" spans="3:11">
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+    </row>
+    <row r="78" spans="3:11">
       <c r="G78" t="s">
         <v>91</v>
       </c>
@@ -3555,178 +3009,182 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="6:11">
-      <c r="F79" s="45" t="s">
+    <row r="79" spans="3:11">
+      <c r="F79" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="H79" s="10" t="s">
+      <c r="G79" s="44"/>
+      <c r="H79" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="I79" s="45" t="s">
+      <c r="I79" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="J79" s="45"/>
-      <c r="K79" s="45"/>
-    </row>
-    <row r="80" spans="8:11">
-      <c r="H80" s="10"/>
-      <c r="I80" s="45" t="s">
+      <c r="J79" s="43"/>
+      <c r="K79" s="43"/>
+    </row>
+    <row r="80" spans="3:11">
+      <c r="H80" s="55"/>
+      <c r="I80" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="J80" s="45"/>
-      <c r="K80" s="45"/>
-    </row>
-    <row r="81" spans="10:10">
+      <c r="J80" s="43"/>
+      <c r="K80" s="43"/>
+    </row>
+    <row r="81" spans="3:10">
       <c r="J81" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="6:8">
-      <c r="F86" s="37"/>
-      <c r="G86" s="37" t="s">
+    <row r="86" spans="3:10">
+      <c r="F86" s="8"/>
+      <c r="G86" s="8" t="s">
         <v>99</v>
       </c>
       <c r="H86" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="3:8">
-      <c r="C87" s="55" t="s">
+    <row r="87" spans="3:10">
+      <c r="C87" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="D87" s="55"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="44" t="s">
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="G87" s="44"/>
+      <c r="G87" s="63"/>
       <c r="H87" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="3:8">
-      <c r="C88" s="55"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
+    <row r="88" spans="3:10">
+      <c r="C88" s="60"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="63"/>
       <c r="H88" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="6:7">
-      <c r="F89" s="37"/>
-      <c r="G89" s="37" t="s">
+    <row r="89" spans="3:10">
+      <c r="F89" s="8"/>
+      <c r="G89" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="6:7">
-      <c r="F90" s="37"/>
-      <c r="G90" s="37" t="s">
+    <row r="90" spans="3:10">
+      <c r="F90" s="8"/>
+      <c r="G90" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="6:7">
-      <c r="F91" s="37"/>
-      <c r="G91" s="37" t="s">
+    <row r="91" spans="3:10">
+      <c r="F91" s="8"/>
+      <c r="G91" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="6:9">
-      <c r="F96" s="45" t="s">
+    <row r="96" spans="3:10">
+      <c r="F96" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="H96" s="18">
-        <v>2.24</v>
-      </c>
-      <c r="I96" s="20"/>
-    </row>
-    <row r="97" spans="6:9">
-      <c r="F97" s="45" t="s">
+      <c r="G96" s="44"/>
+      <c r="H96" s="38">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I96" s="39"/>
+    </row>
+    <row r="97" spans="6:10">
+      <c r="F97" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="G97" s="44"/>
+      <c r="H97" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="8:9">
-      <c r="H98" s="16" t="s">
+      <c r="I97" s="25"/>
+    </row>
+    <row r="98" spans="6:10">
+      <c r="H98" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="I98" s="16"/>
-    </row>
-    <row r="99" spans="8:9">
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-    </row>
-    <row r="100" spans="8:9">
-      <c r="H100" s="16" t="s">
+      <c r="I98" s="37"/>
+    </row>
+    <row r="99" spans="6:10">
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
+    </row>
+    <row r="100" spans="6:10">
+      <c r="H100" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="I100" s="16"/>
-    </row>
-    <row r="101" spans="8:9">
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-    </row>
-    <row r="102" spans="8:9">
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-    </row>
-    <row r="103" spans="8:9">
-      <c r="H103" s="16" t="s">
+      <c r="I100" s="37"/>
+    </row>
+    <row r="101" spans="6:10">
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+    </row>
+    <row r="102" spans="6:10">
+      <c r="H102" s="37"/>
+      <c r="I102" s="37"/>
+    </row>
+    <row r="103" spans="6:10">
+      <c r="H103" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="I103" s="16"/>
-    </row>
-    <row r="104" spans="8:9">
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-    </row>
-    <row r="108" spans="7:10">
+      <c r="I103" s="37"/>
+    </row>
+    <row r="104" spans="6:10">
+      <c r="H104" s="37"/>
+      <c r="I104" s="37"/>
+    </row>
+    <row r="108" spans="6:10">
       <c r="G108">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H108">
         <v>2.27</v>
       </c>
-      <c r="I108" s="3">
-        <v>2.28</v>
-      </c>
-      <c r="J108" s="3"/>
-    </row>
-    <row r="109" spans="7:10">
+      <c r="I108" s="25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J108" s="25"/>
+    </row>
+    <row r="109" spans="6:10">
       <c r="G109" t="s">
         <v>113</v>
       </c>
       <c r="H109" t="s">
         <v>114</v>
       </c>
-      <c r="I109" s="3" t="s">
+      <c r="I109" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="J109" s="3"/>
-    </row>
-    <row r="110" spans="8:10">
+      <c r="J109" s="25"/>
+    </row>
+    <row r="110" spans="6:10">
       <c r="H110" t="s">
         <v>113</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="I110" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="J110" s="3"/>
-    </row>
-    <row r="113" spans="7:9">
+      <c r="J110" s="25"/>
+    </row>
+    <row r="113" spans="7:10">
       <c r="G113">
         <v>3.1</v>
       </c>
       <c r="H113">
         <v>3.2</v>
       </c>
-      <c r="I113" s="45">
+      <c r="I113" s="43">
         <v>3.3</v>
       </c>
+      <c r="J113" s="44"/>
     </row>
     <row r="114" spans="7:10">
       <c r="G114" t="s">
@@ -3735,10 +3193,10 @@
       <c r="H114" t="s">
         <v>115</v>
       </c>
-      <c r="I114" s="45" t="s">
+      <c r="I114" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="J114" s="45"/>
+      <c r="J114" s="43"/>
     </row>
     <row r="115" spans="7:10">
       <c r="G115" t="s">
@@ -3747,19 +3205,20 @@
       <c r="H115" t="s">
         <v>116</v>
       </c>
-      <c r="I115" s="30"/>
-      <c r="J115" s="30"/>
-    </row>
-    <row r="119" spans="7:9">
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+    </row>
+    <row r="119" spans="7:10">
       <c r="G119">
         <v>3.5</v>
       </c>
       <c r="H119">
         <v>3.6</v>
       </c>
-      <c r="I119" s="45">
+      <c r="I119" s="43">
         <v>3.7</v>
       </c>
+      <c r="J119" s="44"/>
     </row>
     <row r="120" spans="7:10">
       <c r="G120" t="s">
@@ -3768,12 +3227,12 @@
       <c r="H120" t="s">
         <v>118</v>
       </c>
-      <c r="I120" s="45" t="s">
+      <c r="I120" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="J120" s="45"/>
-    </row>
-    <row r="121" spans="8:9">
+      <c r="J120" s="43"/>
+    </row>
+    <row r="121" spans="7:10">
       <c r="H121" t="s">
         <v>120</v>
       </c>
@@ -3781,7 +3240,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="9:9">
+    <row r="122" spans="7:10">
       <c r="I122" t="s">
         <v>122</v>
       </c>
@@ -3793,35 +3252,37 @@
       <c r="H127">
         <v>3.13</v>
       </c>
-      <c r="I127" s="45">
+      <c r="I127" s="43">
         <v>3.14</v>
       </c>
-      <c r="J127" s="45"/>
-    </row>
-    <row r="128" spans="7:9">
-      <c r="G128" s="10" t="s">
+      <c r="J127" s="43"/>
+    </row>
+    <row r="128" spans="7:10">
+      <c r="G128" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="H128" s="10" t="s">
+      <c r="H128" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="I128" s="45" t="s">
+      <c r="I128" s="43" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="129" spans="7:9">
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="45" t="s">
+      <c r="J128" s="44"/>
+    </row>
+    <row r="129" spans="7:10">
+      <c r="G129" s="55"/>
+      <c r="H129" s="55"/>
+      <c r="I129" s="43" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="130" spans="7:7">
+      <c r="J129" s="44"/>
+    </row>
+    <row r="130" spans="7:10">
       <c r="G130" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="135" spans="7:8">
+    <row r="135" spans="7:10">
       <c r="G135">
         <v>3.21</v>
       </c>
@@ -3829,7 +3290,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="136" spans="7:8">
+    <row r="136" spans="7:10">
       <c r="G136" t="s">
         <v>128</v>
       </c>
@@ -3838,10 +3299,10 @@
       </c>
     </row>
     <row r="140" spans="7:10">
-      <c r="G140" s="37">
+      <c r="G140" s="8">
         <v>3.26</v>
       </c>
-      <c r="H140" s="37">
+      <c r="H140" s="8">
         <v>3.27</v>
       </c>
       <c r="J140">
@@ -3849,10 +3310,10 @@
       </c>
     </row>
     <row r="141" spans="7:10">
-      <c r="G141" s="16" t="s">
+      <c r="G141" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="H141" s="37" t="s">
+      <c r="H141" s="8" t="s">
         <v>131</v>
       </c>
       <c r="J141" t="s">
@@ -3860,344 +3321,344 @@
       </c>
     </row>
     <row r="142" spans="7:10">
-      <c r="G142" s="16"/>
-      <c r="H142" s="37" t="s">
+      <c r="G142" s="37"/>
+      <c r="H142" s="8" t="s">
         <v>133</v>
       </c>
       <c r="J142" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="7:8">
-      <c r="G143" s="3" t="s">
+    <row r="143" spans="7:10">
+      <c r="G143" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H143" s="37" t="s">
+      <c r="H143" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="144" spans="7:8">
-      <c r="G144" s="16" t="s">
+    <row r="144" spans="7:10">
+      <c r="G144" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="H144" s="37" t="s">
+      <c r="H144" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="145" spans="7:7">
-      <c r="G145" s="16"/>
-    </row>
-    <row r="146" spans="7:7">
-      <c r="G146" s="16"/>
-    </row>
-    <row r="149" spans="7:10">
-      <c r="G149" s="29">
+    <row r="145" spans="3:10">
+      <c r="G145" s="37"/>
+    </row>
+    <row r="146" spans="3:10">
+      <c r="G146" s="37"/>
+    </row>
+    <row r="149" spans="3:10">
+      <c r="G149" s="4">
         <v>43188</v>
       </c>
-      <c r="H149" s="29">
+      <c r="H149" s="4">
         <v>43189</v>
       </c>
-      <c r="J149" s="58">
+      <c r="J149" s="20">
         <v>43190</v>
       </c>
     </row>
     <row r="150" spans="3:10">
-      <c r="C150" s="56" t="s">
+      <c r="C150" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="D150" s="56"/>
-      <c r="E150" s="56"/>
-      <c r="F150" s="56"/>
-      <c r="G150" s="16" t="s">
+      <c r="D150" s="61"/>
+      <c r="E150" s="61"/>
+      <c r="F150" s="61"/>
+      <c r="G150" s="37" t="s">
         <v>140</v>
       </c>
       <c r="H150" t="s">
         <v>141</v>
       </c>
-      <c r="J150" s="37" t="s">
+      <c r="J150" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="151" spans="3:10">
-      <c r="C151" s="56"/>
-      <c r="D151" s="56"/>
-      <c r="E151" s="56"/>
-      <c r="F151" s="56"/>
-      <c r="G151" s="16"/>
+      <c r="C151" s="61"/>
+      <c r="D151" s="61"/>
+      <c r="E151" s="61"/>
+      <c r="F151" s="61"/>
+      <c r="G151" s="37"/>
       <c r="H151" t="s">
         <v>142</v>
       </c>
-      <c r="J151" s="16" t="s">
+      <c r="J151" s="37" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="152" spans="3:10">
-      <c r="C152" s="56"/>
-      <c r="D152" s="56"/>
-      <c r="E152" s="56"/>
-      <c r="F152" s="56"/>
-      <c r="G152" s="16"/>
-      <c r="J152" s="16"/>
-    </row>
-    <row r="153" spans="7:10">
-      <c r="G153" s="16" t="s">
+      <c r="C152" s="61"/>
+      <c r="D152" s="61"/>
+      <c r="E152" s="61"/>
+      <c r="F152" s="61"/>
+      <c r="G152" s="37"/>
+      <c r="J152" s="37"/>
+    </row>
+    <row r="153" spans="3:10">
+      <c r="G153" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="J153" s="16" t="s">
+      <c r="J153" s="37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="7:10">
-      <c r="G154" s="16"/>
-      <c r="J154" s="16"/>
-    </row>
-    <row r="155" spans="7:10">
-      <c r="G155" s="16"/>
-      <c r="J155" s="16"/>
-    </row>
-    <row r="156" spans="7:10">
-      <c r="G156" s="16"/>
-      <c r="J156" s="16"/>
-    </row>
-    <row r="157" spans="7:10">
-      <c r="G157" s="16" t="s">
+    <row r="154" spans="3:10">
+      <c r="G154" s="37"/>
+      <c r="J154" s="37"/>
+    </row>
+    <row r="155" spans="3:10">
+      <c r="G155" s="37"/>
+      <c r="J155" s="37"/>
+    </row>
+    <row r="156" spans="3:10">
+      <c r="G156" s="37"/>
+      <c r="J156" s="37"/>
+    </row>
+    <row r="157" spans="3:10">
+      <c r="G157" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="J157" s="16"/>
-    </row>
-    <row r="158" spans="7:10">
-      <c r="G158" s="16"/>
-      <c r="J158" s="16"/>
-    </row>
-    <row r="159" spans="7:10">
-      <c r="G159" s="16"/>
-      <c r="J159" s="16"/>
-    </row>
-    <row r="160" spans="7:10">
-      <c r="G160" s="16"/>
-      <c r="J160" s="16" t="s">
+      <c r="J157" s="37"/>
+    </row>
+    <row r="158" spans="3:10">
+      <c r="G158" s="37"/>
+      <c r="J158" s="37"/>
+    </row>
+    <row r="159" spans="3:10">
+      <c r="G159" s="37"/>
+      <c r="J159" s="37"/>
+    </row>
+    <row r="160" spans="3:10">
+      <c r="G160" s="37"/>
+      <c r="J160" s="37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="7:10">
-      <c r="G161" s="16" t="s">
+    <row r="161" spans="2:10">
+      <c r="G161" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="J161" s="16"/>
-    </row>
-    <row r="162" spans="7:10">
-      <c r="G162" s="16"/>
-      <c r="J162" s="16"/>
-    </row>
-    <row r="163" spans="7:7">
-      <c r="G163" s="16"/>
-    </row>
-    <row r="166" spans="7:10">
-      <c r="G166" s="57">
+      <c r="J161" s="37"/>
+    </row>
+    <row r="162" spans="2:10">
+      <c r="G162" s="37"/>
+      <c r="J162" s="37"/>
+    </row>
+    <row r="163" spans="2:10">
+      <c r="G163" s="37"/>
+    </row>
+    <row r="166" spans="2:10">
+      <c r="G166" s="19">
         <v>43192</v>
       </c>
-      <c r="H166" s="58">
+      <c r="H166" s="20">
         <v>43193</v>
       </c>
-      <c r="I166" s="17">
+      <c r="I166" s="45">
         <v>43194</v>
       </c>
-      <c r="J166" s="58"/>
-    </row>
-    <row r="167" spans="7:10">
-      <c r="G167" s="46" t="s">
+      <c r="J166" s="46"/>
+    </row>
+    <row r="167" spans="2:10">
+      <c r="G167" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="H167" s="37" t="s">
+      <c r="H167" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="I167" s="16" t="s">
+      <c r="I167" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="J167" s="16"/>
-    </row>
-    <row r="168" spans="7:10">
-      <c r="G168" s="59" t="s">
+      <c r="J167" s="37"/>
+    </row>
+    <row r="168" spans="2:10">
+      <c r="G168" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="H168" s="37" t="s">
+      <c r="H168" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I168" s="16"/>
-      <c r="J168" s="16"/>
-    </row>
-    <row r="169" spans="7:10">
-      <c r="G169" s="59"/>
-      <c r="H169" s="16" t="s">
+      <c r="I168" s="37"/>
+      <c r="J168" s="37"/>
+    </row>
+    <row r="169" spans="2:10">
+      <c r="G169" s="56"/>
+      <c r="H169" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="I169" s="16"/>
-      <c r="J169" s="16"/>
-    </row>
-    <row r="170" spans="8:10">
-      <c r="H170" s="16"/>
-      <c r="I170" s="3" t="s">
+      <c r="I169" s="37"/>
+      <c r="J169" s="37"/>
+    </row>
+    <row r="170" spans="2:10">
+      <c r="H170" s="37"/>
+      <c r="I170" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="J170" s="37"/>
-    </row>
-    <row r="175" spans="7:7">
-      <c r="G175" s="29">
+      <c r="J170" s="32"/>
+    </row>
+    <row r="175" spans="2:10">
+      <c r="G175" s="4">
         <v>43199</v>
       </c>
     </row>
-    <row r="176" spans="2:7">
-      <c r="B176" s="3" t="s">
+    <row r="176" spans="2:10">
+      <c r="B176" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="25"/>
+      <c r="E176" s="25"/>
       <c r="G176" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="177" spans="2:5">
-      <c r="B177" s="3" t="s">
+    <row r="177" spans="2:10">
+      <c r="B177" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-    </row>
-    <row r="178" spans="2:5">
-      <c r="B178" s="33" t="s">
+      <c r="C177" s="25"/>
+      <c r="D177" s="25"/>
+      <c r="E177" s="25"/>
+    </row>
+    <row r="178" spans="2:10">
+      <c r="B178" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="C178" s="33"/>
-      <c r="D178" s="33"/>
-      <c r="E178" s="33"/>
-    </row>
-    <row r="179" spans="2:5">
-      <c r="B179" s="33"/>
-      <c r="C179" s="33"/>
-      <c r="D179" s="33"/>
-      <c r="E179" s="33"/>
-    </row>
-    <row r="180" spans="2:5">
-      <c r="B180" s="33"/>
-      <c r="C180" s="33"/>
-      <c r="D180" s="33"/>
-      <c r="E180" s="33"/>
-    </row>
-    <row r="181" spans="2:5">
-      <c r="B181" s="33"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
+      <c r="C178" s="62"/>
+      <c r="D178" s="62"/>
+      <c r="E178" s="62"/>
+    </row>
+    <row r="179" spans="2:10">
+      <c r="B179" s="62"/>
+      <c r="C179" s="62"/>
+      <c r="D179" s="62"/>
+      <c r="E179" s="62"/>
+    </row>
+    <row r="180" spans="2:10">
+      <c r="B180" s="62"/>
+      <c r="C180" s="62"/>
+      <c r="D180" s="62"/>
+      <c r="E180" s="62"/>
+    </row>
+    <row r="181" spans="2:10">
+      <c r="B181" s="62"/>
+      <c r="C181" s="62"/>
+      <c r="D181" s="62"/>
+      <c r="E181" s="62"/>
     </row>
     <row r="182" spans="2:10">
-      <c r="B182" s="33"/>
-      <c r="C182" s="33"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="33"/>
-      <c r="G182" s="29">
+      <c r="B182" s="62"/>
+      <c r="C182" s="62"/>
+      <c r="D182" s="62"/>
+      <c r="E182" s="62"/>
+      <c r="G182" s="4">
         <v>43211</v>
       </c>
-      <c r="H182" s="58">
+      <c r="H182" s="20">
         <v>43215</v>
       </c>
-      <c r="I182" s="17">
+      <c r="I182" s="45">
         <v>43216</v>
       </c>
-      <c r="J182" s="58"/>
+      <c r="J182" s="46"/>
     </row>
     <row r="183" spans="2:10">
-      <c r="B183" s="33"/>
-      <c r="C183" s="33"/>
-      <c r="D183" s="33"/>
-      <c r="E183" s="33"/>
+      <c r="B183" s="62"/>
+      <c r="C183" s="62"/>
+      <c r="D183" s="62"/>
+      <c r="E183" s="62"/>
       <c r="G183" t="s">
         <v>160</v>
       </c>
-      <c r="H183" s="16" t="s">
+      <c r="H183" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="I183" s="16" t="s">
+      <c r="I183" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="J183" s="16"/>
+      <c r="J183" s="37"/>
     </row>
     <row r="184" spans="2:10">
-      <c r="B184" s="33"/>
-      <c r="C184" s="33"/>
-      <c r="D184" s="33"/>
-      <c r="E184" s="33"/>
-      <c r="H184" s="16"/>
-      <c r="I184" s="16"/>
-      <c r="J184" s="16"/>
-    </row>
-    <row r="185" spans="8:10">
-      <c r="H185" s="16"/>
-      <c r="I185" s="10" t="s">
+      <c r="B184" s="62"/>
+      <c r="C184" s="62"/>
+      <c r="D184" s="62"/>
+      <c r="E184" s="62"/>
+      <c r="H184" s="37"/>
+      <c r="I184" s="37"/>
+      <c r="J184" s="37"/>
+    </row>
+    <row r="185" spans="2:10">
+      <c r="H185" s="37"/>
+      <c r="I185" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="J185" s="10"/>
-    </row>
-    <row r="186" spans="8:10">
-      <c r="H186" s="16"/>
-      <c r="I186" s="10"/>
-      <c r="J186" s="10"/>
-    </row>
-    <row r="187" spans="9:10">
-      <c r="I187" s="10"/>
-      <c r="J187" s="10"/>
-    </row>
-    <row r="188" spans="9:10">
-      <c r="I188" s="10"/>
-      <c r="J188" s="10"/>
-    </row>
-    <row r="191" spans="7:8">
-      <c r="G191" s="29">
+      <c r="J185" s="55"/>
+    </row>
+    <row r="186" spans="2:10">
+      <c r="H186" s="37"/>
+      <c r="I186" s="55"/>
+      <c r="J186" s="55"/>
+    </row>
+    <row r="187" spans="2:10">
+      <c r="I187" s="55"/>
+      <c r="J187" s="55"/>
+    </row>
+    <row r="188" spans="2:10">
+      <c r="I188" s="55"/>
+      <c r="J188" s="55"/>
+    </row>
+    <row r="191" spans="2:10">
+      <c r="G191" s="4">
         <v>43217</v>
       </c>
-      <c r="H191" s="58">
+      <c r="H191" s="20">
         <v>43218</v>
       </c>
     </row>
-    <row r="192" spans="7:8">
-      <c r="G192" s="10" t="s">
+    <row r="192" spans="2:10">
+      <c r="G192" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="H192" s="16" t="s">
+      <c r="H192" s="37" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="193" spans="7:8">
-      <c r="G193" s="10"/>
-      <c r="H193" s="16"/>
-    </row>
-    <row r="194" spans="7:8">
-      <c r="G194" s="10"/>
-      <c r="H194" s="16"/>
-    </row>
-    <row r="195" spans="7:8">
-      <c r="G195" s="10"/>
-      <c r="H195" s="16"/>
-    </row>
-    <row r="196" spans="7:8">
-      <c r="G196" s="10"/>
-      <c r="H196" s="16"/>
-    </row>
-    <row r="197" spans="8:8">
-      <c r="H197" s="16"/>
-    </row>
-    <row r="198" spans="8:8">
-      <c r="H198" s="16"/>
+    <row r="193" spans="7:10">
+      <c r="G193" s="55"/>
+      <c r="H193" s="37"/>
+    </row>
+    <row r="194" spans="7:10">
+      <c r="G194" s="55"/>
+      <c r="H194" s="37"/>
+    </row>
+    <row r="195" spans="7:10">
+      <c r="G195" s="55"/>
+      <c r="H195" s="37"/>
+    </row>
+    <row r="196" spans="7:10">
+      <c r="G196" s="55"/>
+      <c r="H196" s="37"/>
+    </row>
+    <row r="197" spans="7:10">
+      <c r="H197" s="37"/>
+    </row>
+    <row r="198" spans="7:10">
+      <c r="H198" s="37"/>
     </row>
     <row r="202" spans="7:10">
-      <c r="G202" s="29">
+      <c r="G202" s="4">
         <v>43223</v>
       </c>
-      <c r="H202" s="29">
+      <c r="H202" s="4">
         <v>43225</v>
       </c>
-      <c r="J202" s="29">
+      <c r="J202" s="4">
         <v>43227</v>
       </c>
     </row>
@@ -4208,152 +3669,152 @@
       <c r="H203" t="s">
         <v>167</v>
       </c>
-      <c r="I203" s="10" t="s">
+      <c r="I203" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="J203" s="10"/>
+      <c r="J203" s="55"/>
     </row>
     <row r="204" spans="7:10">
       <c r="G204" t="s">
         <v>169</v>
       </c>
-      <c r="I204" s="10"/>
-      <c r="J204" s="10"/>
-    </row>
-    <row r="205" spans="10:10">
+      <c r="I204" s="55"/>
+      <c r="J204" s="55"/>
+    </row>
+    <row r="205" spans="7:10">
       <c r="J205" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="208" spans="10:10">
-      <c r="J208" s="29"/>
-    </row>
-    <row r="209" spans="7:8">
-      <c r="G209" s="58">
+    <row r="208" spans="7:10">
+      <c r="J208" s="4"/>
+    </row>
+    <row r="209" spans="7:10">
+      <c r="G209" s="20">
         <v>43231</v>
       </c>
-      <c r="H209" s="29">
+      <c r="H209" s="4">
         <v>43234</v>
       </c>
     </row>
-    <row r="210" spans="7:8">
-      <c r="G210" s="16" t="s">
+    <row r="210" spans="7:10">
+      <c r="G210" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="H210" s="10" t="s">
+      <c r="H210" s="55" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="211" spans="7:8">
-      <c r="G211" s="16"/>
-      <c r="H211" s="10"/>
-    </row>
-    <row r="212" spans="7:7">
-      <c r="G212" s="16"/>
-    </row>
-    <row r="213" spans="7:7">
-      <c r="G213" s="37" t="s">
+    <row r="211" spans="7:10">
+      <c r="G211" s="37"/>
+      <c r="H211" s="55"/>
+    </row>
+    <row r="212" spans="7:10">
+      <c r="G212" s="37"/>
+    </row>
+    <row r="213" spans="7:10">
+      <c r="G213" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="214" spans="7:7">
-      <c r="G214" s="16" t="s">
+    <row r="214" spans="7:10">
+      <c r="G214" s="37" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="215" spans="7:7">
-      <c r="G215" s="53"/>
+    <row r="215" spans="7:10">
+      <c r="G215" s="42"/>
     </row>
     <row r="220" spans="7:10">
-      <c r="G220" s="60">
+      <c r="G220" s="21">
         <v>43236</v>
       </c>
-      <c r="H220" s="60">
+      <c r="H220" s="21">
         <v>43238</v>
       </c>
-      <c r="I220" s="17">
+      <c r="I220" s="45">
         <v>43239</v>
       </c>
-      <c r="J220" s="58"/>
+      <c r="J220" s="46"/>
     </row>
     <row r="221" spans="7:10">
-      <c r="G221" s="3" t="s">
+      <c r="G221" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="H221" s="3"/>
-      <c r="I221" s="61" t="s">
+      <c r="H221" s="25"/>
+      <c r="I221" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="J221" s="16"/>
+      <c r="J221" s="37"/>
     </row>
     <row r="222" spans="7:10">
-      <c r="G222" s="16" t="s">
+      <c r="G222" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="H222" s="16"/>
-      <c r="I222" s="61"/>
-      <c r="J222" s="16"/>
+      <c r="H222" s="37"/>
+      <c r="I222" s="64"/>
+      <c r="J222" s="37"/>
     </row>
     <row r="223" spans="7:10">
-      <c r="G223" s="16"/>
-      <c r="H223" s="16"/>
-      <c r="I223" s="20" t="s">
+      <c r="G223" s="37"/>
+      <c r="H223" s="37"/>
+      <c r="I223" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="J223" s="37"/>
-    </row>
-    <row r="224" spans="7:8">
-      <c r="G224" s="3" t="s">
+      <c r="J223" s="32"/>
+    </row>
+    <row r="224" spans="7:10">
+      <c r="G224" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="H224" s="3"/>
+      <c r="H224" s="25"/>
     </row>
     <row r="229" spans="7:10">
-      <c r="G229" s="29">
+      <c r="G229" s="4">
         <v>43241</v>
       </c>
-      <c r="H229" s="29">
+      <c r="H229" s="4">
         <v>43243</v>
       </c>
-      <c r="I229" s="17">
+      <c r="I229" s="45">
         <v>43244</v>
       </c>
-      <c r="J229" s="58"/>
+      <c r="J229" s="46"/>
     </row>
     <row r="230" spans="7:10">
-      <c r="G230" s="10" t="s">
+      <c r="G230" s="55" t="s">
         <v>180</v>
       </c>
       <c r="H230" t="s">
         <v>181</v>
       </c>
-      <c r="I230" s="16" t="s">
+      <c r="I230" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="J230" s="16"/>
+      <c r="J230" s="37"/>
     </row>
     <row r="231" spans="7:10">
-      <c r="G231" s="10"/>
+      <c r="G231" s="55"/>
       <c r="H231" t="s">
         <v>183</v>
       </c>
-      <c r="I231" s="16"/>
-      <c r="J231" s="16"/>
+      <c r="I231" s="37"/>
+      <c r="J231" s="37"/>
     </row>
     <row r="232" spans="7:10">
-      <c r="G232" s="10"/>
-      <c r="I232" s="3" t="s">
+      <c r="G232" s="55"/>
+      <c r="I232" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="J232" s="37"/>
-    </row>
-    <row r="233" spans="9:9">
+      <c r="J232" s="32"/>
+    </row>
+    <row r="233" spans="7:10">
       <c r="I233" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="238" spans="7:7">
-      <c r="G238" s="29">
+    <row r="238" spans="7:10">
+      <c r="G238" s="4">
         <v>43245</v>
       </c>
     </row>
@@ -4361,77 +3822,77 @@
       <c r="G239" t="s">
         <v>186</v>
       </c>
-      <c r="I239" s="17">
+      <c r="I239" s="45">
         <v>43248</v>
       </c>
-      <c r="J239" s="58"/>
+      <c r="J239" s="46"/>
     </row>
     <row r="240" spans="7:10">
-      <c r="G240" s="10" t="s">
+      <c r="G240" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="I240" s="3" t="s">
+      <c r="I240" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="J240" s="37"/>
+      <c r="J240" s="32"/>
     </row>
     <row r="241" spans="7:10">
-      <c r="G241" s="10"/>
-      <c r="I241" s="16" t="s">
+      <c r="G241" s="55"/>
+      <c r="I241" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="J241" s="16"/>
+      <c r="J241" s="37"/>
     </row>
     <row r="242" spans="7:10">
-      <c r="G242" s="10"/>
-      <c r="I242" s="16"/>
-      <c r="J242" s="16"/>
+      <c r="G242" s="55"/>
+      <c r="I242" s="37"/>
+      <c r="J242" s="37"/>
     </row>
     <row r="243" spans="7:10">
-      <c r="G243" s="10"/>
-      <c r="I243" s="16" t="s">
+      <c r="G243" s="55"/>
+      <c r="I243" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="J243" s="16"/>
+      <c r="J243" s="37"/>
     </row>
     <row r="244" spans="7:10">
-      <c r="G244" s="10"/>
-      <c r="I244" s="16"/>
-      <c r="J244" s="16"/>
-    </row>
-    <row r="245" spans="9:10">
-      <c r="I245" s="16"/>
-      <c r="J245" s="16"/>
-    </row>
-    <row r="246" spans="9:10">
-      <c r="I246" s="16"/>
-      <c r="J246" s="16"/>
-    </row>
-    <row r="247" spans="9:10">
-      <c r="I247" s="16"/>
-      <c r="J247" s="16"/>
-    </row>
-    <row r="248" spans="9:10">
-      <c r="I248" s="16"/>
-      <c r="J248" s="16"/>
-    </row>
-    <row r="249" spans="9:10">
-      <c r="I249" s="16"/>
-      <c r="J249" s="16"/>
-    </row>
-    <row r="250" spans="9:10">
-      <c r="I250" s="16"/>
-      <c r="J250" s="16"/>
-    </row>
-    <row r="254" spans="7:8">
-      <c r="G254" s="29">
+      <c r="G244" s="55"/>
+      <c r="I244" s="37"/>
+      <c r="J244" s="37"/>
+    </row>
+    <row r="245" spans="7:10">
+      <c r="I245" s="37"/>
+      <c r="J245" s="37"/>
+    </row>
+    <row r="246" spans="7:10">
+      <c r="I246" s="37"/>
+      <c r="J246" s="37"/>
+    </row>
+    <row r="247" spans="7:10">
+      <c r="I247" s="37"/>
+      <c r="J247" s="37"/>
+    </row>
+    <row r="248" spans="7:10">
+      <c r="I248" s="37"/>
+      <c r="J248" s="37"/>
+    </row>
+    <row r="249" spans="7:10">
+      <c r="I249" s="37"/>
+      <c r="J249" s="37"/>
+    </row>
+    <row r="250" spans="7:10">
+      <c r="I250" s="37"/>
+      <c r="J250" s="37"/>
+    </row>
+    <row r="254" spans="7:10">
+      <c r="G254" s="4">
         <v>43249</v>
       </c>
-      <c r="H254" s="29">
+      <c r="H254" s="4">
         <v>43250</v>
       </c>
     </row>
-    <row r="255" spans="7:8">
+    <row r="255" spans="7:10">
       <c r="G255" t="s">
         <v>191</v>
       </c>
@@ -4439,254 +3900,254 @@
         <v>192</v>
       </c>
     </row>
-    <row r="256" spans="7:8">
-      <c r="G256" s="10" t="s">
+    <row r="256" spans="7:10">
+      <c r="G256" s="55" t="s">
         <v>193</v>
       </c>
       <c r="H256" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="257" spans="7:7">
-      <c r="G257" s="10"/>
+    <row r="257" spans="7:10">
+      <c r="G257" s="55"/>
     </row>
     <row r="264" spans="7:10">
-      <c r="G264" s="17">
+      <c r="G264" s="2">
         <v>43252</v>
       </c>
-      <c r="H264" s="58">
+      <c r="H264" s="20">
         <v>43253</v>
       </c>
-      <c r="I264" s="17">
+      <c r="I264" s="45">
         <v>43255</v>
       </c>
-      <c r="J264" s="58"/>
+      <c r="J264" s="46"/>
     </row>
     <row r="265" spans="7:10">
-      <c r="G265" s="3" t="s">
+      <c r="G265" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H265" s="16" t="s">
+      <c r="H265" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="I265" s="16" t="s">
+      <c r="I265" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="J265" s="16"/>
+      <c r="J265" s="37"/>
     </row>
     <row r="266" spans="7:10">
-      <c r="G266" s="16" t="s">
+      <c r="G266" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="H266" s="16"/>
-      <c r="I266" s="16"/>
-      <c r="J266" s="16"/>
+      <c r="H266" s="37"/>
+      <c r="I266" s="37"/>
+      <c r="J266" s="37"/>
     </row>
     <row r="267" spans="7:10">
-      <c r="G267" s="16"/>
-      <c r="H267" s="37" t="s">
+      <c r="G267" s="37"/>
+      <c r="H267" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="I267" s="16"/>
-      <c r="J267" s="16"/>
+      <c r="I267" s="37"/>
+      <c r="J267" s="37"/>
     </row>
     <row r="268" spans="7:10">
-      <c r="G268" s="16"/>
-      <c r="I268" s="16"/>
-      <c r="J268" s="16"/>
+      <c r="G268" s="37"/>
+      <c r="I268" s="37"/>
+      <c r="J268" s="37"/>
     </row>
     <row r="269" spans="7:10">
-      <c r="G269" s="16" t="s">
+      <c r="G269" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="I269" s="16"/>
-      <c r="J269" s="16"/>
-    </row>
-    <row r="270" spans="7:7">
-      <c r="G270" s="16"/>
-    </row>
-    <row r="271" spans="7:7">
-      <c r="G271" s="16" t="s">
+      <c r="I269" s="37"/>
+      <c r="J269" s="37"/>
+    </row>
+    <row r="270" spans="7:10">
+      <c r="G270" s="37"/>
+    </row>
+    <row r="271" spans="7:10">
+      <c r="G271" s="37" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="272" spans="7:7">
-      <c r="G272" s="16"/>
-    </row>
-    <row r="273" spans="7:7">
-      <c r="G273" s="16"/>
-    </row>
-    <row r="274" spans="7:7">
-      <c r="G274" s="16"/>
-    </row>
-    <row r="275" spans="7:7">
-      <c r="G275" s="16"/>
-    </row>
-    <row r="276" spans="7:7">
-      <c r="G276" s="16" t="s">
+    <row r="272" spans="7:10">
+      <c r="G272" s="37"/>
+    </row>
+    <row r="273" spans="7:10">
+      <c r="G273" s="37"/>
+    </row>
+    <row r="274" spans="7:10">
+      <c r="G274" s="37"/>
+    </row>
+    <row r="275" spans="7:10">
+      <c r="G275" s="37"/>
+    </row>
+    <row r="276" spans="7:10">
+      <c r="G276" s="37" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="277" spans="7:7">
-      <c r="G277" s="16"/>
-    </row>
-    <row r="278" spans="7:7">
-      <c r="G278" s="16" t="s">
+    <row r="277" spans="7:10">
+      <c r="G277" s="37"/>
+    </row>
+    <row r="278" spans="7:10">
+      <c r="G278" s="37" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="279" spans="7:7">
-      <c r="G279" s="16"/>
-    </row>
-    <row r="280" spans="7:7">
-      <c r="G280" s="16"/>
+    <row r="279" spans="7:10">
+      <c r="G279" s="37"/>
+    </row>
+    <row r="280" spans="7:10">
+      <c r="G280" s="37"/>
     </row>
     <row r="287" spans="7:10">
-      <c r="G287" s="58">
+      <c r="G287" s="20">
         <v>43256</v>
       </c>
-      <c r="H287" s="58">
+      <c r="H287" s="20">
         <v>43257</v>
       </c>
-      <c r="I287" s="22">
+      <c r="I287" s="47">
         <v>43258</v>
       </c>
-      <c r="J287" s="63"/>
+      <c r="J287" s="48"/>
     </row>
     <row r="288" spans="7:10">
-      <c r="G288" s="16" t="s">
+      <c r="G288" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="H288" s="16" t="s">
+      <c r="H288" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="I288" s="5" t="s">
+      <c r="I288" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="J288" s="7"/>
-    </row>
-    <row r="289" spans="7:10">
-      <c r="G289" s="16"/>
-      <c r="H289" s="16"/>
-      <c r="I289" s="13"/>
-      <c r="J289" s="15"/>
-    </row>
-    <row r="290" spans="7:10">
-      <c r="G290" s="16" t="s">
+      <c r="J288" s="66"/>
+    </row>
+    <row r="289" spans="7:12">
+      <c r="G289" s="37"/>
+      <c r="H289" s="37"/>
+      <c r="I289" s="67"/>
+      <c r="J289" s="68"/>
+    </row>
+    <row r="290" spans="7:12">
+      <c r="G290" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="H290" s="37" t="s">
+      <c r="H290" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="I290" s="18" t="s">
+      <c r="I290" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="J290" s="64"/>
-    </row>
-    <row r="291" spans="7:10">
-      <c r="G291" s="16"/>
-      <c r="H291" s="37"/>
-      <c r="I291" s="37"/>
-      <c r="J291" s="37"/>
-    </row>
-    <row r="292" spans="7:10">
-      <c r="G292" s="37"/>
-      <c r="H292" s="37"/>
-      <c r="I292" s="37"/>
-      <c r="J292" s="37"/>
-    </row>
-    <row r="297" spans="7:7">
-      <c r="G297" s="29">
+      <c r="J290" s="49"/>
+    </row>
+    <row r="291" spans="7:12">
+      <c r="G291" s="37"/>
+      <c r="H291" s="8"/>
+      <c r="I291" s="8"/>
+      <c r="J291" s="8"/>
+    </row>
+    <row r="292" spans="7:12">
+      <c r="G292" s="8"/>
+      <c r="H292" s="8"/>
+      <c r="I292" s="8"/>
+      <c r="J292" s="8"/>
+    </row>
+    <row r="297" spans="7:12">
+      <c r="G297" s="4">
         <v>43259</v>
       </c>
     </row>
     <row r="298" spans="7:12">
-      <c r="G298" s="10" t="s">
+      <c r="G298" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="L298" s="16" t="s">
+      <c r="L298" s="37" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="299" spans="7:12">
-      <c r="G299" s="10"/>
-      <c r="L299" s="16"/>
+      <c r="G299" s="55"/>
+      <c r="L299" s="37"/>
     </row>
     <row r="300" spans="7:12">
-      <c r="G300" s="10"/>
-      <c r="L300" s="16"/>
+      <c r="G300" s="55"/>
+      <c r="L300" s="37"/>
     </row>
     <row r="301" spans="7:12">
-      <c r="G301" s="10"/>
-      <c r="L301" s="16"/>
-    </row>
-    <row r="302" spans="12:12">
-      <c r="L302" s="16"/>
-    </row>
-    <row r="303" spans="12:12">
-      <c r="L303" s="16"/>
-    </row>
-    <row r="304" spans="12:12">
-      <c r="L304" s="16"/>
-    </row>
-    <row r="305" spans="12:12">
-      <c r="L305" s="30"/>
-    </row>
-    <row r="306" spans="12:12">
-      <c r="L306" s="30"/>
-    </row>
-    <row r="307" spans="12:12">
-      <c r="L307" s="30"/>
-    </row>
-    <row r="308" spans="12:12">
-      <c r="L308" s="30"/>
-    </row>
-    <row r="309" spans="12:12">
-      <c r="L309" s="30"/>
-    </row>
-    <row r="313" spans="7:10">
-      <c r="G313" s="29">
+      <c r="G301" s="55"/>
+      <c r="L301" s="37"/>
+    </row>
+    <row r="302" spans="7:12">
+      <c r="L302" s="37"/>
+    </row>
+    <row r="303" spans="7:12">
+      <c r="L303" s="37"/>
+    </row>
+    <row r="304" spans="7:12">
+      <c r="L304" s="37"/>
+    </row>
+    <row r="305" spans="7:12">
+      <c r="L305" s="5"/>
+    </row>
+    <row r="306" spans="7:12">
+      <c r="L306" s="5"/>
+    </row>
+    <row r="307" spans="7:12">
+      <c r="L307" s="5"/>
+    </row>
+    <row r="308" spans="7:12">
+      <c r="L308" s="5"/>
+    </row>
+    <row r="309" spans="7:12">
+      <c r="L309" s="5"/>
+    </row>
+    <row r="313" spans="7:12">
+      <c r="G313" s="4">
         <v>43271</v>
       </c>
-      <c r="H313" s="29">
+      <c r="H313" s="4">
         <v>43272</v>
       </c>
-      <c r="I313" s="23">
+      <c r="I313" s="50">
         <v>43273</v>
       </c>
-      <c r="J313" s="29"/>
-    </row>
-    <row r="314" spans="7:10">
-      <c r="G314" s="62" t="s">
+      <c r="J313" s="51"/>
+    </row>
+    <row r="314" spans="7:12">
+      <c r="G314" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="H314" s="62" t="s">
+      <c r="H314" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="I314" s="21" t="s">
+      <c r="I314" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="J314" s="3"/>
-    </row>
-    <row r="315" spans="7:10">
-      <c r="G315" s="16"/>
-      <c r="H315" s="16"/>
-      <c r="I315" s="3"/>
-      <c r="J315" s="3"/>
-    </row>
-    <row r="317" spans="7:10">
-      <c r="G317" s="37" t="s">
+      <c r="J314" s="25"/>
+    </row>
+    <row r="315" spans="7:12">
+      <c r="G315" s="37"/>
+      <c r="H315" s="37"/>
+      <c r="I315" s="25"/>
+      <c r="J315" s="25"/>
+    </row>
+    <row r="317" spans="7:12">
+      <c r="G317" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="H317" s="37" t="s">
+      <c r="H317" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="I317" s="3" t="s">
+      <c r="I317" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="J317" s="3"/>
-    </row>
-    <row r="318" spans="7:9">
+      <c r="J317" s="25"/>
+    </row>
+    <row r="318" spans="7:12">
       <c r="G318" t="s">
         <v>218</v>
       </c>
@@ -4695,166 +4156,166 @@
       </c>
     </row>
     <row r="322" spans="7:10">
-      <c r="G322" s="58">
+      <c r="G322" s="20">
         <v>43274</v>
       </c>
-      <c r="H322" s="29">
+      <c r="H322" s="4">
         <v>43276</v>
       </c>
-      <c r="J322" s="29">
+      <c r="J322" s="4">
         <v>43277</v>
       </c>
     </row>
     <row r="323" spans="7:10">
-      <c r="G323" s="16" t="s">
+      <c r="G323" s="37" t="s">
         <v>220</v>
       </c>
       <c r="H323" t="s">
         <v>221</v>
       </c>
-      <c r="I323" s="10" t="s">
+      <c r="I323" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="J323" s="10"/>
+      <c r="J323" s="55"/>
     </row>
     <row r="324" spans="7:10">
-      <c r="G324" s="16"/>
+      <c r="G324" s="37"/>
       <c r="H324" t="s">
         <v>223</v>
       </c>
-      <c r="I324" s="10"/>
-      <c r="J324" s="10"/>
-    </row>
-    <row r="325" spans="7:8">
-      <c r="G325" s="16" t="s">
+      <c r="I324" s="55"/>
+      <c r="J324" s="55"/>
+    </row>
+    <row r="325" spans="7:10">
+      <c r="G325" s="37" t="s">
         <v>224</v>
       </c>
       <c r="H325" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="326" spans="7:7">
-      <c r="G326" s="16"/>
-    </row>
-    <row r="327" spans="7:8">
-      <c r="G327" s="16"/>
-      <c r="H327" s="10" t="s">
+    <row r="326" spans="7:10">
+      <c r="G326" s="37"/>
+    </row>
+    <row r="327" spans="7:10">
+      <c r="G327" s="37"/>
+      <c r="H327" s="55" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="328" spans="8:8">
-      <c r="H328" s="10"/>
-    </row>
-    <row r="329" spans="8:8">
-      <c r="H329" s="10"/>
+    <row r="328" spans="7:10">
+      <c r="H328" s="55"/>
+    </row>
+    <row r="329" spans="7:10">
+      <c r="H329" s="55"/>
     </row>
     <row r="334" spans="7:10">
-      <c r="G334" s="58">
+      <c r="G334" s="20">
         <v>43278</v>
       </c>
-      <c r="H334" s="58">
+      <c r="H334" s="20">
         <v>43279</v>
       </c>
-      <c r="J334" s="29">
+      <c r="J334" s="4">
         <v>43280</v>
       </c>
     </row>
-    <row r="335" spans="7:8">
-      <c r="G335" s="16" t="s">
+    <row r="335" spans="7:10">
+      <c r="G335" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="H335" s="16" t="s">
+      <c r="H335" s="37" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="336" spans="7:8">
-      <c r="G336" s="16"/>
-      <c r="H336" s="16"/>
-    </row>
-    <row r="337" spans="7:8">
-      <c r="G337" s="16"/>
-      <c r="H337" s="16"/>
-    </row>
-    <row r="338" spans="7:8">
-      <c r="G338" s="59"/>
-      <c r="H338" s="16" t="s">
+    <row r="336" spans="7:10">
+      <c r="G336" s="37"/>
+      <c r="H336" s="37"/>
+    </row>
+    <row r="337" spans="7:10">
+      <c r="G337" s="37"/>
+      <c r="H337" s="37"/>
+    </row>
+    <row r="338" spans="7:10">
+      <c r="G338" s="56"/>
+      <c r="H338" s="37" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="339" spans="7:8">
-      <c r="G339" s="59" t="s">
+    <row r="339" spans="7:10">
+      <c r="G339" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="H339" s="16"/>
-    </row>
-    <row r="340" spans="7:8">
-      <c r="G340" s="59"/>
-      <c r="H340" s="16"/>
-    </row>
-    <row r="341" spans="8:8">
-      <c r="H341" s="16"/>
-    </row>
-    <row r="342" spans="8:8">
-      <c r="H342" s="16"/>
+      <c r="H339" s="37"/>
+    </row>
+    <row r="340" spans="7:10">
+      <c r="G340" s="56"/>
+      <c r="H340" s="37"/>
+    </row>
+    <row r="341" spans="7:10">
+      <c r="H341" s="37"/>
+    </row>
+    <row r="342" spans="7:10">
+      <c r="H342" s="37"/>
     </row>
     <row r="345" spans="7:10">
-      <c r="G345" s="65">
+      <c r="G345" s="22">
         <v>43281</v>
       </c>
-      <c r="H345" s="29">
+      <c r="H345" s="4">
         <v>43283</v>
       </c>
-      <c r="I345" s="23">
+      <c r="I345" s="50">
         <v>43285</v>
       </c>
-      <c r="J345" s="29"/>
+      <c r="J345" s="51"/>
     </row>
     <row r="346" spans="7:10">
-      <c r="G346" s="66" t="s">
+      <c r="G346" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="H346" s="10" t="s">
+      <c r="H346" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="I346" s="10" t="s">
+      <c r="I346" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="J346" s="10"/>
+      <c r="J346" s="55"/>
     </row>
     <row r="347" spans="7:10">
-      <c r="G347" s="66"/>
-      <c r="H347" s="10"/>
-      <c r="I347" s="10"/>
-      <c r="J347" s="10"/>
-    </row>
-    <row r="348" spans="7:7">
-      <c r="G348" s="66"/>
-    </row>
-    <row r="349" spans="7:7">
-      <c r="G349" s="66"/>
-    </row>
-    <row r="350" spans="7:7">
-      <c r="G350" s="66"/>
-    </row>
-    <row r="351" spans="7:7">
-      <c r="G351" s="66"/>
-    </row>
-    <row r="352" spans="7:7">
-      <c r="G352" s="66"/>
-    </row>
-    <row r="353" spans="7:7">
-      <c r="G353" s="66" t="s">
+      <c r="G347" s="58"/>
+      <c r="H347" s="55"/>
+      <c r="I347" s="55"/>
+      <c r="J347" s="55"/>
+    </row>
+    <row r="348" spans="7:10">
+      <c r="G348" s="58"/>
+    </row>
+    <row r="349" spans="7:10">
+      <c r="G349" s="58"/>
+    </row>
+    <row r="350" spans="7:10">
+      <c r="G350" s="58"/>
+    </row>
+    <row r="351" spans="7:10">
+      <c r="G351" s="58"/>
+    </row>
+    <row r="352" spans="7:10">
+      <c r="G352" s="58"/>
+    </row>
+    <row r="353" spans="7:10">
+      <c r="G353" s="58" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="354" spans="7:7">
-      <c r="G354" s="66"/>
+    <row r="354" spans="7:10">
+      <c r="G354" s="58"/>
     </row>
     <row r="357" spans="7:10">
-      <c r="G357" s="29">
+      <c r="G357" s="4">
         <v>43286</v>
       </c>
-      <c r="J357" s="29">
+      <c r="J357" s="4">
         <v>43288</v>
       </c>
     </row>
@@ -4862,64 +4323,64 @@
       <c r="G358" t="s">
         <v>235</v>
       </c>
-      <c r="I358" s="10" t="s">
+      <c r="I358" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="J358" s="10"/>
+      <c r="J358" s="55"/>
     </row>
     <row r="359" spans="7:10">
       <c r="G359" t="s">
         <v>237</v>
       </c>
-      <c r="I359" s="10"/>
-      <c r="J359" s="10"/>
-    </row>
-    <row r="365" spans="7:8">
-      <c r="G365" s="29">
+      <c r="I359" s="55"/>
+      <c r="J359" s="55"/>
+    </row>
+    <row r="365" spans="7:10">
+      <c r="G365" s="4">
         <v>43292</v>
       </c>
-      <c r="H365" s="58">
+      <c r="H365" s="20">
         <v>43293</v>
       </c>
     </row>
-    <row r="366" spans="7:8">
-      <c r="G366" s="10" t="s">
+    <row r="366" spans="7:10">
+      <c r="G366" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="H366" s="16" t="s">
+      <c r="H366" s="37" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="367" spans="7:8">
-      <c r="G367" s="10"/>
-      <c r="H367" s="16"/>
-    </row>
-    <row r="368" spans="7:8">
-      <c r="G368" s="10" t="s">
+    <row r="367" spans="7:10">
+      <c r="G367" s="55"/>
+      <c r="H367" s="37"/>
+    </row>
+    <row r="368" spans="7:10">
+      <c r="G368" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="H368" s="16"/>
-    </row>
-    <row r="369" spans="7:8">
-      <c r="G369" s="10"/>
-      <c r="H369" s="16"/>
+      <c r="H368" s="37"/>
+    </row>
+    <row r="369" spans="7:10">
+      <c r="G369" s="55"/>
+      <c r="H369" s="37"/>
     </row>
     <row r="374" spans="7:10">
-      <c r="G374" s="29">
+      <c r="G374" s="4">
         <v>43307</v>
       </c>
-      <c r="H374" s="58">
+      <c r="H374" s="20">
         <v>43308</v>
       </c>
-      <c r="J374" s="29">
+      <c r="J374" s="4">
         <v>43311</v>
       </c>
     </row>
     <row r="375" spans="7:10">
-      <c r="G375" s="10" t="s">
+      <c r="G375" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="H375" s="16" t="s">
+      <c r="H375" s="37" t="s">
         <v>242</v>
       </c>
       <c r="J375" t="s">
@@ -4927,42 +4388,42 @@
       </c>
     </row>
     <row r="376" spans="7:10">
-      <c r="G376" s="10"/>
-      <c r="H376" s="16"/>
+      <c r="G376" s="55"/>
+      <c r="H376" s="37"/>
       <c r="J376" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="377" spans="7:8">
-      <c r="G377" s="10"/>
-      <c r="H377" s="37" t="s">
+    <row r="377" spans="7:10">
+      <c r="G377" s="55"/>
+      <c r="H377" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="378" spans="8:8">
-      <c r="H378" s="16" t="s">
+    <row r="378" spans="7:10">
+      <c r="H378" s="37" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="379" spans="8:8">
-      <c r="H379" s="16"/>
+    <row r="379" spans="7:10">
+      <c r="H379" s="37"/>
     </row>
     <row r="384" spans="7:10">
-      <c r="G384" s="58">
+      <c r="G384" s="20">
         <v>43312</v>
       </c>
-      <c r="H384" s="29">
+      <c r="H384" s="4">
         <v>43313</v>
       </c>
-      <c r="J384" s="29">
+      <c r="J384" s="4">
         <v>43314</v>
       </c>
     </row>
     <row r="385" spans="7:10">
-      <c r="G385" s="37" t="s">
+      <c r="G385" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H385" s="10" t="s">
+      <c r="H385" s="55" t="s">
         <v>248</v>
       </c>
       <c r="J385" t="s">
@@ -4970,40 +4431,40 @@
       </c>
     </row>
     <row r="386" spans="7:10">
-      <c r="G386" s="37" t="s">
+      <c r="G386" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="H386" s="10"/>
-      <c r="J386" s="10" t="s">
+      <c r="H386" s="55"/>
+      <c r="J386" s="55" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="387" spans="7:10">
-      <c r="G387" s="37" t="s">
+      <c r="G387" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="H387" s="10"/>
-      <c r="J387" s="10"/>
-    </row>
-    <row r="388" spans="8:10">
-      <c r="H388" s="10" t="s">
+      <c r="H387" s="55"/>
+      <c r="J387" s="55"/>
+    </row>
+    <row r="388" spans="7:10">
+      <c r="H388" s="55" t="s">
         <v>253</v>
       </c>
       <c r="J388" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="389" spans="8:8">
-      <c r="H389" s="10"/>
+    <row r="389" spans="7:10">
+      <c r="H389" s="55"/>
     </row>
     <row r="393" spans="7:10">
-      <c r="G393" s="29">
+      <c r="G393" s="4">
         <v>43315</v>
       </c>
-      <c r="H393" s="29">
+      <c r="H393" s="4">
         <v>43316</v>
       </c>
-      <c r="J393" s="29">
+      <c r="J393" s="4">
         <v>43318</v>
       </c>
     </row>
@@ -5011,131 +4472,132 @@
       <c r="G394" t="s">
         <v>255</v>
       </c>
-      <c r="H394" s="10" t="s">
+      <c r="H394" s="55" t="s">
         <v>256</v>
       </c>
       <c r="J394" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="395" spans="7:8">
+    <row r="395" spans="7:10">
       <c r="G395" t="s">
         <v>258</v>
       </c>
-      <c r="H395" s="10"/>
-    </row>
-    <row r="396" spans="7:8">
-      <c r="G396" s="10" t="s">
+      <c r="H395" s="55"/>
+    </row>
+    <row r="396" spans="7:10">
+      <c r="G396" s="55" t="s">
         <v>259</v>
       </c>
       <c r="H396" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="397" spans="7:7">
-      <c r="G397" s="10"/>
+    <row r="397" spans="7:10">
+      <c r="G397" s="55"/>
     </row>
     <row r="401" spans="7:10">
-      <c r="G401" s="29">
+      <c r="G401" s="4">
         <v>43319</v>
       </c>
-      <c r="H401" s="29">
+      <c r="H401" s="4">
         <v>43320</v>
       </c>
-      <c r="J401" s="29">
+      <c r="J401" s="4">
         <v>43321</v>
       </c>
     </row>
     <row r="402" spans="7:10">
-      <c r="G402" s="10" t="s">
+      <c r="G402" s="55" t="s">
         <v>261</v>
       </c>
       <c r="H402" t="s">
         <v>262</v>
       </c>
-      <c r="I402" s="10" t="s">
+      <c r="I402" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="J402" s="10"/>
+      <c r="J402" s="55"/>
     </row>
     <row r="403" spans="7:10">
-      <c r="G403" s="10"/>
-      <c r="I403" s="10"/>
-      <c r="J403" s="10"/>
+      <c r="G403" s="55"/>
+      <c r="I403" s="55"/>
+      <c r="J403" s="55"/>
     </row>
     <row r="404" spans="7:10">
-      <c r="G404" s="10" t="s">
+      <c r="G404" s="55" t="s">
         <v>264</v>
       </c>
-      <c r="I404" s="10" t="s">
+      <c r="I404" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="J404" s="10"/>
+      <c r="J404" s="55"/>
     </row>
     <row r="405" spans="7:10">
-      <c r="G405" s="10"/>
-      <c r="I405" s="10"/>
-      <c r="J405" s="10"/>
+      <c r="G405" s="55"/>
+      <c r="I405" s="55"/>
+      <c r="J405" s="55"/>
     </row>
     <row r="406" spans="7:10">
-      <c r="G406" s="10" t="s">
+      <c r="G406" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="I406" s="10" t="s">
+      <c r="I406" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="J406" s="10"/>
+      <c r="J406" s="55"/>
     </row>
     <row r="407" spans="7:10">
-      <c r="G407" s="10"/>
-      <c r="I407" s="10"/>
-      <c r="J407" s="10"/>
-    </row>
-    <row r="408" spans="9:10">
-      <c r="I408" s="10"/>
-      <c r="J408" s="10"/>
-    </row>
-    <row r="409" spans="9:9">
-      <c r="I409" s="45" t="s">
+      <c r="G407" s="55"/>
+      <c r="I407" s="55"/>
+      <c r="J407" s="55"/>
+    </row>
+    <row r="408" spans="7:10">
+      <c r="I408" s="55"/>
+      <c r="J408" s="55"/>
+    </row>
+    <row r="409" spans="7:10">
+      <c r="I409" s="43" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="414" spans="7:8">
-      <c r="G414" s="29">
+      <c r="J409" s="44"/>
+    </row>
+    <row r="414" spans="7:10">
+      <c r="G414" s="4">
         <v>43322</v>
       </c>
       <c r="H414" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="415" spans="7:7">
-      <c r="G415" s="10" t="s">
+    <row r="415" spans="7:10">
+      <c r="G415" s="55" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="416" spans="7:7">
-      <c r="G416" s="10"/>
-    </row>
-    <row r="417" spans="7:7">
-      <c r="G417" s="10" t="s">
+    <row r="416" spans="7:10">
+      <c r="G416" s="55"/>
+    </row>
+    <row r="417" spans="7:13">
+      <c r="G417" s="55" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="418" spans="7:7">
-      <c r="G418" s="10"/>
-    </row>
-    <row r="423" spans="7:10">
-      <c r="G423" s="29">
+    <row r="418" spans="7:13">
+      <c r="G418" s="55"/>
+    </row>
+    <row r="423" spans="7:13">
+      <c r="G423" s="4">
         <v>43325</v>
       </c>
-      <c r="H423" s="29">
+      <c r="H423" s="4">
         <v>43326</v>
       </c>
-      <c r="J423" s="29">
+      <c r="J423" s="4">
         <v>43327</v>
       </c>
     </row>
-    <row r="424" spans="7:10">
+    <row r="424" spans="7:13">
       <c r="G424" t="s">
         <v>272</v>
       </c>
@@ -5146,350 +4608,350 @@
         <v>274</v>
       </c>
     </row>
-    <row r="425" spans="8:8">
+    <row r="425" spans="7:13">
       <c r="H425" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="426" spans="8:8">
+    <row r="426" spans="7:13">
       <c r="H426" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="432" spans="7:13">
-      <c r="G432" s="29">
+      <c r="G432" s="4">
         <v>43328</v>
       </c>
-      <c r="H432" s="29">
+      <c r="H432" s="4">
         <v>43329</v>
       </c>
-      <c r="I432" s="68">
+      <c r="I432" s="52">
         <v>43330</v>
       </c>
-      <c r="J432" s="67"/>
-      <c r="K432" s="69"/>
-      <c r="L432" s="32" t="s">
+      <c r="J432" s="53"/>
+      <c r="K432" s="24"/>
+      <c r="L432" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="M432" s="32" t="s">
+      <c r="M432" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="433" spans="7:13">
-      <c r="G433" s="10" t="s">
+    <row r="433" spans="5:13">
+      <c r="G433" s="55" t="s">
         <v>279</v>
       </c>
       <c r="H433" t="s">
         <v>280</v>
       </c>
-      <c r="I433" s="16" t="s">
+      <c r="I433" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="J433" s="59"/>
-      <c r="K433" s="37" t="s">
+      <c r="J433" s="56"/>
+      <c r="K433" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="L433" s="3">
+      <c r="L433" s="1">
         <v>1790015</v>
       </c>
-      <c r="M433" s="3">
+      <c r="M433" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="434" spans="7:13">
-      <c r="G434" s="10"/>
+    <row r="434" spans="5:13">
+      <c r="G434" s="55"/>
       <c r="H434" t="s">
         <v>283</v>
       </c>
-      <c r="I434" s="16"/>
-      <c r="J434" s="59"/>
-      <c r="K434" s="37" t="s">
+      <c r="I434" s="37"/>
+      <c r="J434" s="56"/>
+      <c r="K434" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="L434" s="3">
+      <c r="L434" s="1">
         <v>1790609</v>
       </c>
-      <c r="M434" s="3">
+      <c r="M434" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="435" spans="7:13">
+    <row r="435" spans="5:13">
       <c r="G435" t="s">
         <v>285</v>
       </c>
-      <c r="H435" s="10" t="s">
+      <c r="H435" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="I435" s="16"/>
-      <c r="J435" s="16"/>
-      <c r="K435" s="38" t="s">
+      <c r="I435" s="37"/>
+      <c r="J435" s="37"/>
+      <c r="K435" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="L435" s="38"/>
-      <c r="M435" s="38"/>
-    </row>
-    <row r="436" spans="7:10">
-      <c r="G436" s="10" t="s">
+      <c r="L435" s="27"/>
+      <c r="M435" s="27"/>
+    </row>
+    <row r="436" spans="5:13">
+      <c r="G436" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="H436" s="10"/>
-      <c r="I436" s="16" t="s">
+      <c r="H436" s="55"/>
+      <c r="I436" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="J436" s="16"/>
-    </row>
-    <row r="437" spans="7:10">
-      <c r="G437" s="10"/>
+      <c r="J436" s="37"/>
+    </row>
+    <row r="437" spans="5:13">
+      <c r="G437" s="55"/>
       <c r="H437" t="s">
         <v>290</v>
       </c>
-      <c r="I437" s="16"/>
-      <c r="J437" s="16"/>
-    </row>
-    <row r="438" spans="9:10">
-      <c r="I438" s="16"/>
-      <c r="J438" s="16"/>
-    </row>
-    <row r="439" spans="9:10">
-      <c r="I439" s="16"/>
-      <c r="J439" s="16"/>
-    </row>
-    <row r="440" spans="9:10">
-      <c r="I440" s="16"/>
-      <c r="J440" s="16"/>
-    </row>
-    <row r="441" spans="9:10">
-      <c r="I441" s="16"/>
-      <c r="J441" s="16"/>
-    </row>
-    <row r="446" spans="5:10">
-      <c r="E446" s="67">
+      <c r="I437" s="37"/>
+      <c r="J437" s="37"/>
+    </row>
+    <row r="438" spans="5:13">
+      <c r="I438" s="37"/>
+      <c r="J438" s="37"/>
+    </row>
+    <row r="439" spans="5:13">
+      <c r="I439" s="37"/>
+      <c r="J439" s="37"/>
+    </row>
+    <row r="440" spans="5:13">
+      <c r="I440" s="37"/>
+      <c r="J440" s="37"/>
+    </row>
+    <row r="441" spans="5:13">
+      <c r="I441" s="37"/>
+      <c r="J441" s="37"/>
+    </row>
+    <row r="446" spans="5:13">
+      <c r="E446" s="23">
         <v>43332</v>
       </c>
-      <c r="F446" s="32" t="s">
+      <c r="F446" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G446" s="32" t="s">
+      <c r="G446" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H446" s="29">
+      <c r="H446" s="4">
         <v>43333</v>
       </c>
-      <c r="J446" s="29">
+      <c r="J446" s="4">
         <v>43334</v>
       </c>
     </row>
-    <row r="447" spans="5:10">
-      <c r="E447" s="37" t="s">
+    <row r="447" spans="5:13">
+      <c r="E447" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="F447" s="3">
+      <c r="F447" s="1">
         <v>2287467</v>
       </c>
-      <c r="G447" s="3">
+      <c r="G447" s="1">
         <v>122</v>
       </c>
       <c r="H447" t="s">
         <v>291</v>
       </c>
-      <c r="I447" s="10" t="s">
+      <c r="I447" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="J447" s="10"/>
-    </row>
-    <row r="448" spans="5:10">
-      <c r="E448" s="37" t="s">
+      <c r="J447" s="55"/>
+    </row>
+    <row r="448" spans="5:13">
+      <c r="E448" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="F448" s="3">
+      <c r="F448" s="1">
         <v>2287003</v>
       </c>
-      <c r="G448" s="3">
+      <c r="G448" s="1">
         <v>56</v>
       </c>
-      <c r="I448" s="10"/>
-      <c r="J448" s="10"/>
+      <c r="I448" s="55"/>
+      <c r="J448" s="55"/>
     </row>
     <row r="449" spans="5:10">
-      <c r="E449" s="38" t="s">
+      <c r="E449" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="F449" s="38"/>
-      <c r="G449" s="38"/>
-      <c r="I449" s="10"/>
-      <c r="J449" s="10"/>
-    </row>
-    <row r="451" spans="5:5">
+      <c r="F449" s="27"/>
+      <c r="G449" s="27"/>
+      <c r="I449" s="55"/>
+      <c r="J449" s="55"/>
+    </row>
+    <row r="451" spans="5:10">
       <c r="E451" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="458" spans="6:10">
-      <c r="F458" s="17">
+    <row r="458" spans="5:10">
+      <c r="F458" s="45">
         <v>43335</v>
       </c>
-      <c r="G458" s="57"/>
-      <c r="H458" s="58">
+      <c r="G458" s="54"/>
+      <c r="H458" s="20">
         <v>43336</v>
       </c>
-      <c r="J458" s="29">
+      <c r="J458" s="4">
         <v>43337</v>
       </c>
     </row>
-    <row r="459" spans="6:10">
-      <c r="F459" s="3" t="s">
+    <row r="459" spans="5:10">
+      <c r="F459" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="G459" s="46"/>
-      <c r="H459" s="37" t="s">
+      <c r="G459" s="31"/>
+      <c r="H459" s="8" t="s">
         <v>295</v>
       </c>
       <c r="J459" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="460" spans="6:10">
-      <c r="F460" s="16" t="s">
+    <row r="460" spans="5:10">
+      <c r="F460" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="G460" s="59"/>
-      <c r="H460" s="16" t="s">
+      <c r="G460" s="56"/>
+      <c r="H460" s="37" t="s">
         <v>298</v>
       </c>
       <c r="J460" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="461" spans="6:10">
-      <c r="F461" s="16"/>
-      <c r="G461" s="59"/>
-      <c r="H461" s="16"/>
+    <row r="461" spans="5:10">
+      <c r="F461" s="37"/>
+      <c r="G461" s="56"/>
+      <c r="H461" s="37"/>
       <c r="J461" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="462" spans="6:10">
-      <c r="F462" s="16" t="s">
+    <row r="462" spans="5:10">
+      <c r="F462" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="G462" s="59"/>
-      <c r="H462" s="16"/>
+      <c r="G462" s="56"/>
+      <c r="H462" s="37"/>
       <c r="J462" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="463" spans="6:10">
-      <c r="F463" s="16"/>
-      <c r="G463" s="59"/>
-      <c r="H463" s="16" t="s">
+    <row r="463" spans="5:10">
+      <c r="F463" s="37"/>
+      <c r="G463" s="56"/>
+      <c r="H463" s="37" t="s">
         <v>303</v>
       </c>
       <c r="J463" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="464" spans="8:8">
-      <c r="H464" s="16"/>
-    </row>
-    <row r="465" spans="8:8">
-      <c r="H465" s="37" t="s">
+    <row r="464" spans="5:10">
+      <c r="H464" s="37"/>
+    </row>
+    <row r="465" spans="6:10">
+      <c r="H465" s="8" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="470" spans="6:10">
-      <c r="F470" s="17">
+      <c r="F470" s="45">
         <v>43339</v>
       </c>
-      <c r="G470" s="58"/>
-      <c r="H470" s="58">
+      <c r="G470" s="46"/>
+      <c r="H470" s="20">
         <v>43340</v>
       </c>
-      <c r="J470" s="29">
+      <c r="J470" s="4">
         <v>43341</v>
       </c>
     </row>
     <row r="471" spans="6:10">
-      <c r="F471" s="3" t="s">
+      <c r="F471" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="G471" s="37"/>
-      <c r="H471" s="16" t="s">
+      <c r="G471" s="32"/>
+      <c r="H471" s="37" t="s">
         <v>307</v>
       </c>
-      <c r="I471" s="10" t="s">
+      <c r="I471" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="J471" s="10"/>
+      <c r="J471" s="55"/>
     </row>
     <row r="472" spans="6:10">
-      <c r="F472" s="3" t="s">
+      <c r="F472" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="G472" s="37"/>
-      <c r="H472" s="16"/>
-      <c r="I472" s="10"/>
-      <c r="J472" s="10"/>
+      <c r="G472" s="32"/>
+      <c r="H472" s="37"/>
+      <c r="I472" s="55"/>
+      <c r="J472" s="55"/>
     </row>
     <row r="473" spans="6:10">
-      <c r="F473" s="16" t="s">
+      <c r="F473" s="37" t="s">
         <v>310</v>
       </c>
-      <c r="G473" s="16"/>
-      <c r="H473" s="16"/>
-      <c r="I473" s="10"/>
-      <c r="J473" s="10"/>
+      <c r="G473" s="37"/>
+      <c r="H473" s="37"/>
+      <c r="I473" s="55"/>
+      <c r="J473" s="55"/>
     </row>
     <row r="474" spans="6:10">
-      <c r="F474" s="16"/>
-      <c r="G474" s="16"/>
-      <c r="H474" s="16"/>
-      <c r="I474" s="10"/>
-      <c r="J474" s="10"/>
+      <c r="F474" s="37"/>
+      <c r="G474" s="37"/>
+      <c r="H474" s="37"/>
+      <c r="I474" s="55"/>
+      <c r="J474" s="55"/>
     </row>
     <row r="475" spans="6:10">
-      <c r="F475" s="16" t="s">
+      <c r="F475" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="G475" s="16"/>
-      <c r="H475" s="16" t="s">
+      <c r="G475" s="37"/>
+      <c r="H475" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="I475" s="10"/>
-      <c r="J475" s="10"/>
+      <c r="I475" s="55"/>
+      <c r="J475" s="55"/>
     </row>
     <row r="476" spans="6:10">
-      <c r="F476" s="16"/>
-      <c r="G476" s="16"/>
-      <c r="H476" s="53"/>
-      <c r="I476" s="10"/>
-      <c r="J476" s="10"/>
-    </row>
-    <row r="477" spans="6:8">
-      <c r="F477" s="3" t="s">
+      <c r="F476" s="37"/>
+      <c r="G476" s="37"/>
+      <c r="H476" s="42"/>
+      <c r="I476" s="55"/>
+      <c r="J476" s="55"/>
+    </row>
+    <row r="477" spans="6:10">
+      <c r="F477" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="G477" s="37"/>
-      <c r="H477" s="37" t="s">
+      <c r="G477" s="32"/>
+      <c r="H477" s="8" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="478" ht="27" spans="6:8">
-      <c r="F478" s="3" t="s">
+    <row r="478" spans="6:10" ht="27">
+      <c r="F478" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="G478" s="37"/>
-      <c r="H478" s="53" t="s">
+      <c r="G478" s="32"/>
+      <c r="H478" s="18" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="482" spans="7:10">
-      <c r="G482" s="29">
+      <c r="G482" s="4">
         <v>43342</v>
       </c>
-      <c r="H482" s="29">
+      <c r="H482" s="4">
         <v>43343</v>
       </c>
-      <c r="J482" s="29">
+      <c r="J482" s="4">
         <v>43344</v>
       </c>
     </row>
@@ -5500,10 +4962,10 @@
       <c r="H483" t="s">
         <v>318</v>
       </c>
-      <c r="I483" s="10" t="s">
+      <c r="I483" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="J483" s="10"/>
+      <c r="J483" s="55"/>
     </row>
     <row r="484" spans="7:10">
       <c r="G484" t="s">
@@ -5512,93 +4974,94 @@
       <c r="H484" t="s">
         <v>321</v>
       </c>
-      <c r="I484" s="10"/>
-      <c r="J484" s="10"/>
+      <c r="I484" s="55"/>
+      <c r="J484" s="55"/>
     </row>
     <row r="485" spans="7:10">
       <c r="G485" t="s">
         <v>322</v>
       </c>
-      <c r="H485" s="10" t="s">
+      <c r="H485" s="55" t="s">
         <v>323</v>
       </c>
-      <c r="I485" s="10" t="s">
+      <c r="I485" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="J485" s="10"/>
+      <c r="J485" s="55"/>
     </row>
     <row r="486" spans="7:10">
-      <c r="G486" s="10" t="s">
+      <c r="G486" s="55" t="s">
         <v>325</v>
       </c>
-      <c r="H486" s="10"/>
-      <c r="I486" s="10"/>
-      <c r="J486" s="10"/>
+      <c r="H486" s="55"/>
+      <c r="I486" s="55"/>
+      <c r="J486" s="55"/>
     </row>
     <row r="487" spans="7:10">
-      <c r="G487" s="10"/>
+      <c r="G487" s="55"/>
       <c r="H487" t="s">
         <v>326</v>
       </c>
-      <c r="I487" s="45" t="s">
+      <c r="I487" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="J487" s="45"/>
+      <c r="J487" s="43"/>
     </row>
     <row r="488" spans="7:10">
-      <c r="G488" s="10"/>
-      <c r="H488" s="10" t="s">
+      <c r="G488" s="55"/>
+      <c r="H488" s="55" t="s">
         <v>328</v>
       </c>
-      <c r="I488" s="10" t="s">
+      <c r="I488" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="J488" s="10"/>
+      <c r="J488" s="55"/>
     </row>
     <row r="489" spans="7:10">
-      <c r="G489" s="10" t="s">
+      <c r="G489" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="H489" s="10"/>
-      <c r="I489" s="10"/>
-      <c r="J489" s="10"/>
-    </row>
-    <row r="490" spans="7:9">
-      <c r="G490" s="10"/>
-      <c r="H490" s="10" t="s">
+      <c r="H489" s="55"/>
+      <c r="I489" s="55"/>
+      <c r="J489" s="55"/>
+    </row>
+    <row r="490" spans="7:10">
+      <c r="G490" s="55"/>
+      <c r="H490" s="55" t="s">
         <v>331</v>
       </c>
-      <c r="I490" s="45" t="s">
+      <c r="I490" s="43" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="491" spans="8:8">
-      <c r="H491" s="10"/>
-    </row>
-    <row r="492" spans="8:8">
-      <c r="H492" s="10" t="s">
+      <c r="J490" s="44"/>
+    </row>
+    <row r="491" spans="7:10">
+      <c r="H491" s="55"/>
+    </row>
+    <row r="492" spans="7:10">
+      <c r="H492" s="55" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="493" spans="8:8">
-      <c r="H493" s="10"/>
-    </row>
-    <row r="494" spans="8:8">
-      <c r="H494" s="10" t="s">
+    <row r="493" spans="7:10">
+      <c r="H493" s="55"/>
+    </row>
+    <row r="494" spans="7:10">
+      <c r="H494" s="55" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="495" spans="8:8">
-      <c r="H495" s="10"/>
+    <row r="495" spans="7:10">
+      <c r="H495" s="55"/>
     </row>
     <row r="500" spans="7:10">
-      <c r="G500" s="29">
+      <c r="G500" s="4">
         <v>43346</v>
       </c>
-      <c r="H500" s="29">
+      <c r="H500" s="4">
         <v>43347</v>
       </c>
-      <c r="J500" s="29">
+      <c r="J500" s="4">
         <v>43348</v>
       </c>
     </row>
@@ -5609,112 +5072,112 @@
       <c r="H501" t="s">
         <v>336</v>
       </c>
-      <c r="I501" s="10" t="s">
+      <c r="I501" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="J501" s="10"/>
-    </row>
-    <row r="502" spans="8:10">
+      <c r="J501" s="55"/>
+    </row>
+    <row r="502" spans="7:10">
       <c r="H502" t="s">
         <v>338</v>
       </c>
-      <c r="I502" s="10"/>
-      <c r="J502" s="10"/>
-    </row>
-    <row r="503" spans="8:10">
+      <c r="I502" s="55"/>
+      <c r="J502" s="55"/>
+    </row>
+    <row r="503" spans="7:10">
       <c r="H503" t="s">
         <v>339</v>
       </c>
-      <c r="I503" s="10" t="s">
+      <c r="I503" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="J503" s="10"/>
-    </row>
-    <row r="504" spans="8:10">
-      <c r="H504" s="10" t="s">
+      <c r="J503" s="55"/>
+    </row>
+    <row r="504" spans="7:10">
+      <c r="H504" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="I504" s="10"/>
-      <c r="J504" s="10"/>
-    </row>
-    <row r="505" spans="8:10">
-      <c r="H505" s="10"/>
-      <c r="I505" s="10"/>
-      <c r="J505" s="10"/>
+      <c r="I504" s="55"/>
+      <c r="J504" s="55"/>
+    </row>
+    <row r="505" spans="7:10">
+      <c r="H505" s="55"/>
+      <c r="I505" s="55"/>
+      <c r="J505" s="55"/>
     </row>
     <row r="512" spans="7:10">
-      <c r="G512" s="29">
+      <c r="G512" s="4">
         <v>43349</v>
       </c>
-      <c r="H512" s="29">
+      <c r="H512" s="4">
         <v>43350</v>
       </c>
-      <c r="J512" s="29">
+      <c r="J512" s="4">
         <v>43351</v>
       </c>
     </row>
     <row r="513" spans="7:10">
-      <c r="G513" s="10" t="s">
+      <c r="G513" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="H513" s="10" t="s">
+      <c r="H513" s="55" t="s">
         <v>343</v>
       </c>
-      <c r="I513" s="16" t="s">
+      <c r="I513" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="J513" s="16"/>
+      <c r="J513" s="37"/>
     </row>
     <row r="514" spans="7:10">
-      <c r="G514" s="10"/>
-      <c r="H514" s="10"/>
-      <c r="I514" s="16"/>
-      <c r="J514" s="16"/>
+      <c r="G514" s="55"/>
+      <c r="H514" s="55"/>
+      <c r="I514" s="37"/>
+      <c r="J514" s="37"/>
     </row>
     <row r="515" spans="7:10">
       <c r="G515" t="s">
         <v>345</v>
       </c>
-      <c r="H515" s="10" t="s">
+      <c r="H515" s="55" t="s">
         <v>346</v>
       </c>
-      <c r="I515" s="16"/>
-      <c r="J515" s="16"/>
+      <c r="I515" s="37"/>
+      <c r="J515" s="37"/>
     </row>
     <row r="516" spans="7:10">
       <c r="G516" t="s">
         <v>347</v>
       </c>
-      <c r="H516" s="10"/>
-      <c r="I516" s="16"/>
-      <c r="J516" s="16"/>
+      <c r="H516" s="55"/>
+      <c r="I516" s="37"/>
+      <c r="J516" s="37"/>
     </row>
     <row r="517" spans="7:10">
-      <c r="G517" s="10" t="s">
+      <c r="G517" s="55" t="s">
         <v>348</v>
       </c>
-      <c r="I517" s="16"/>
-      <c r="J517" s="16"/>
-    </row>
-    <row r="518" spans="7:7">
-      <c r="G518" s="10"/>
-    </row>
-    <row r="519" spans="7:7">
-      <c r="G519" s="10" t="s">
+      <c r="I517" s="37"/>
+      <c r="J517" s="37"/>
+    </row>
+    <row r="518" spans="7:10">
+      <c r="G518" s="55"/>
+    </row>
+    <row r="519" spans="7:10">
+      <c r="G519" s="55" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="520" spans="7:7">
-      <c r="G520" s="10"/>
+    <row r="520" spans="7:10">
+      <c r="G520" s="55"/>
     </row>
     <row r="527" spans="7:10">
-      <c r="G527" s="29">
+      <c r="G527" s="4">
         <v>43353</v>
       </c>
-      <c r="H527" s="29">
+      <c r="H527" s="4">
         <v>43354</v>
       </c>
-      <c r="J527" s="29">
+      <c r="J527" s="4">
         <v>43355</v>
       </c>
     </row>
@@ -5722,45 +5185,45 @@
       <c r="G528" t="s">
         <v>350</v>
       </c>
-      <c r="H528" s="10" t="s">
+      <c r="H528" s="55" t="s">
         <v>351</v>
       </c>
       <c r="J528" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="529" spans="8:10">
-      <c r="H529" s="10"/>
+    <row r="529" spans="7:10">
+      <c r="H529" s="55"/>
       <c r="J529" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="530" spans="8:8">
-      <c r="H530" s="10"/>
-    </row>
-    <row r="531" spans="8:8">
+    <row r="530" spans="7:10">
+      <c r="H530" s="55"/>
+    </row>
+    <row r="531" spans="7:10">
       <c r="H531" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="532" spans="8:8">
+    <row r="532" spans="7:10">
       <c r="H532" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="536" spans="7:10">
-      <c r="G536" s="29">
+      <c r="G536" s="4">
         <v>43356</v>
       </c>
-      <c r="H536" s="29">
+      <c r="H536" s="4">
         <v>43357</v>
       </c>
-      <c r="J536" s="29">
+      <c r="J536" s="4">
         <v>43358</v>
       </c>
     </row>
     <row r="537" spans="7:10">
-      <c r="G537" s="10" t="s">
+      <c r="G537" s="55" t="s">
         <v>356</v>
       </c>
       <c r="H537" t="s">
@@ -5770,80 +5233,80 @@
         <v>358</v>
       </c>
     </row>
-    <row r="538" spans="7:7">
-      <c r="G538" s="10"/>
-    </row>
-    <row r="546" spans="7:10">
-      <c r="G546" s="29">
+    <row r="538" spans="7:10">
+      <c r="G538" s="55"/>
+    </row>
+    <row r="546" spans="7:12">
+      <c r="G546" s="4">
         <v>43361</v>
       </c>
-      <c r="H546" s="29">
+      <c r="H546" s="4">
         <v>43362</v>
       </c>
-      <c r="J546" s="29">
+      <c r="J546" s="4">
         <v>43363</v>
       </c>
     </row>
     <row r="547" spans="7:12">
-      <c r="G547" s="10" t="s">
+      <c r="G547" s="55" t="s">
         <v>359</v>
       </c>
-      <c r="H547" s="10" t="s">
+      <c r="H547" s="55" t="s">
         <v>360</v>
       </c>
-      <c r="I547" s="45" t="s">
+      <c r="I547" s="43" t="s">
         <v>361</v>
       </c>
-      <c r="J547" s="45"/>
-      <c r="K547" s="45"/>
-      <c r="L547" s="45"/>
-    </row>
-    <row r="548" spans="7:8">
-      <c r="G548" s="10"/>
-      <c r="H548" s="10"/>
-    </row>
-    <row r="549" spans="8:8">
+      <c r="J547" s="43"/>
+      <c r="K547" s="43"/>
+      <c r="L547" s="43"/>
+    </row>
+    <row r="548" spans="7:12">
+      <c r="G548" s="55"/>
+      <c r="H548" s="55"/>
+    </row>
+    <row r="549" spans="7:12">
       <c r="H549" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="550" spans="8:8">
+    <row r="550" spans="7:12">
       <c r="H550" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="553" spans="7:7">
-      <c r="G553" s="29">
+    <row r="553" spans="7:12">
+      <c r="G553" s="4">
         <v>43364</v>
       </c>
     </row>
-    <row r="554" spans="7:7">
-      <c r="G554" s="10" t="s">
+    <row r="554" spans="7:12">
+      <c r="G554" s="55" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="555" spans="7:7">
-      <c r="G555" s="10"/>
-    </row>
-    <row r="556" spans="7:7">
-      <c r="G556" s="10"/>
+    <row r="555" spans="7:12">
+      <c r="G555" s="55"/>
+    </row>
+    <row r="556" spans="7:12">
+      <c r="G556" s="55"/>
     </row>
     <row r="563" spans="7:10">
-      <c r="G563" s="29">
+      <c r="G563" s="4">
         <v>43368</v>
       </c>
-      <c r="H563" s="58">
+      <c r="H563" s="20">
         <v>43369</v>
       </c>
-      <c r="J563" s="29">
+      <c r="J563" s="4">
         <v>43370</v>
       </c>
     </row>
     <row r="564" spans="7:10">
-      <c r="G564" s="10" t="s">
+      <c r="G564" s="55" t="s">
         <v>365</v>
       </c>
-      <c r="H564" s="16" t="s">
+      <c r="H564" s="37" t="s">
         <v>366</v>
       </c>
       <c r="J564" t="s">
@@ -5851,34 +5314,34 @@
       </c>
     </row>
     <row r="565" spans="7:10">
-      <c r="G565" s="10"/>
-      <c r="H565" s="16"/>
+      <c r="G565" s="55"/>
+      <c r="H565" s="37"/>
       <c r="J565" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="566" spans="8:8">
-      <c r="H566" s="37" t="s">
+    <row r="566" spans="7:10">
+      <c r="H566" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="567" spans="8:8">
-      <c r="H567" s="16" t="s">
+    <row r="567" spans="7:10">
+      <c r="H567" s="37" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="568" spans="8:8">
-      <c r="H568" s="16"/>
-    </row>
-    <row r="574" spans="7:8">
-      <c r="G574" s="29">
+    <row r="568" spans="7:10">
+      <c r="H568" s="37"/>
+    </row>
+    <row r="574" spans="7:10">
+      <c r="G574" s="4">
         <v>43371</v>
       </c>
-      <c r="H574" s="29">
+      <c r="H574" s="4">
         <v>43372</v>
       </c>
     </row>
-    <row r="575" spans="7:8">
+    <row r="575" spans="7:10">
       <c r="G575" t="s">
         <v>371</v>
       </c>
@@ -5886,8 +5349,8 @@
         <v>372</v>
       </c>
     </row>
-    <row r="576" spans="7:8">
-      <c r="G576" s="10" t="s">
+    <row r="576" spans="7:10">
+      <c r="G576" s="55" t="s">
         <v>373</v>
       </c>
       <c r="H576" t="s">
@@ -5895,103 +5358,113 @@
       </c>
     </row>
     <row r="577" spans="7:7">
-      <c r="G577" s="10"/>
+      <c r="G577" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="244">
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="I59:K59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="I68:K68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="I69:K69"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="I79:K79"/>
-    <mergeCell ref="I80:K80"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="I166:J166"/>
-    <mergeCell ref="I170:J170"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="I182:J182"/>
-    <mergeCell ref="I220:J220"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="I223:J223"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="I229:J229"/>
-    <mergeCell ref="I232:J232"/>
-    <mergeCell ref="I239:J239"/>
-    <mergeCell ref="I240:J240"/>
-    <mergeCell ref="I264:J264"/>
-    <mergeCell ref="I287:J287"/>
-    <mergeCell ref="I290:J290"/>
-    <mergeCell ref="I313:J313"/>
-    <mergeCell ref="I317:J317"/>
-    <mergeCell ref="I345:J345"/>
-    <mergeCell ref="I409:J409"/>
-    <mergeCell ref="I432:J432"/>
-    <mergeCell ref="K435:M435"/>
-    <mergeCell ref="E449:G449"/>
-    <mergeCell ref="F458:G458"/>
-    <mergeCell ref="F459:G459"/>
-    <mergeCell ref="F470:G470"/>
-    <mergeCell ref="F471:G471"/>
-    <mergeCell ref="F472:G472"/>
-    <mergeCell ref="F477:G477"/>
-    <mergeCell ref="F478:G478"/>
+    <mergeCell ref="C87:E88"/>
+    <mergeCell ref="H98:I99"/>
+    <mergeCell ref="H100:I102"/>
+    <mergeCell ref="H103:I104"/>
+    <mergeCell ref="C150:F152"/>
+    <mergeCell ref="I167:J169"/>
+    <mergeCell ref="B178:E184"/>
+    <mergeCell ref="I183:J184"/>
+    <mergeCell ref="I185:J188"/>
+    <mergeCell ref="F87:G88"/>
+    <mergeCell ref="H567:H568"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="J153:J159"/>
+    <mergeCell ref="J160:J162"/>
+    <mergeCell ref="J386:J387"/>
+    <mergeCell ref="L298:L304"/>
+    <mergeCell ref="I483:J484"/>
+    <mergeCell ref="I485:J486"/>
+    <mergeCell ref="I488:J489"/>
+    <mergeCell ref="I501:J502"/>
+    <mergeCell ref="I503:J505"/>
+    <mergeCell ref="I513:J517"/>
+    <mergeCell ref="I203:J204"/>
+    <mergeCell ref="G222:H223"/>
+    <mergeCell ref="I221:J222"/>
+    <mergeCell ref="I230:J231"/>
+    <mergeCell ref="I241:J242"/>
+    <mergeCell ref="I433:J435"/>
+    <mergeCell ref="I436:J441"/>
+    <mergeCell ref="I447:J449"/>
+    <mergeCell ref="F460:G461"/>
+    <mergeCell ref="F462:G463"/>
+    <mergeCell ref="F473:G474"/>
+    <mergeCell ref="F475:G476"/>
+    <mergeCell ref="H490:H491"/>
+    <mergeCell ref="H492:H493"/>
+    <mergeCell ref="H494:H495"/>
+    <mergeCell ref="H504:H505"/>
+    <mergeCell ref="H513:H514"/>
+    <mergeCell ref="H515:H516"/>
+    <mergeCell ref="H528:H530"/>
+    <mergeCell ref="H547:H548"/>
+    <mergeCell ref="H564:H565"/>
+    <mergeCell ref="H388:H389"/>
+    <mergeCell ref="H394:H395"/>
+    <mergeCell ref="H435:H436"/>
+    <mergeCell ref="H460:H462"/>
+    <mergeCell ref="H463:H464"/>
+    <mergeCell ref="H471:H474"/>
+    <mergeCell ref="H475:H476"/>
+    <mergeCell ref="H485:H486"/>
+    <mergeCell ref="H488:H489"/>
+    <mergeCell ref="G576:G577"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="H169:H170"/>
+    <mergeCell ref="H183:H186"/>
+    <mergeCell ref="H192:H198"/>
+    <mergeCell ref="H210:H211"/>
+    <mergeCell ref="H265:H266"/>
+    <mergeCell ref="H288:H289"/>
+    <mergeCell ref="H314:H315"/>
+    <mergeCell ref="H327:H329"/>
+    <mergeCell ref="H335:H337"/>
+    <mergeCell ref="H338:H342"/>
+    <mergeCell ref="H346:H347"/>
+    <mergeCell ref="H366:H369"/>
+    <mergeCell ref="H375:H376"/>
+    <mergeCell ref="H378:H379"/>
+    <mergeCell ref="H385:H387"/>
+    <mergeCell ref="G486:G488"/>
+    <mergeCell ref="G489:G490"/>
+    <mergeCell ref="G513:G514"/>
+    <mergeCell ref="G517:G518"/>
+    <mergeCell ref="G519:G520"/>
+    <mergeCell ref="G537:G538"/>
+    <mergeCell ref="G547:G548"/>
+    <mergeCell ref="G554:G556"/>
+    <mergeCell ref="G564:G565"/>
+    <mergeCell ref="G368:G369"/>
+    <mergeCell ref="G375:G377"/>
+    <mergeCell ref="G396:G397"/>
+    <mergeCell ref="G402:G403"/>
+    <mergeCell ref="G404:G405"/>
+    <mergeCell ref="G406:G407"/>
+    <mergeCell ref="G415:G416"/>
+    <mergeCell ref="G417:G418"/>
+    <mergeCell ref="G433:G434"/>
+    <mergeCell ref="G298:G301"/>
+    <mergeCell ref="G314:G315"/>
+    <mergeCell ref="G323:G324"/>
+    <mergeCell ref="G325:G327"/>
+    <mergeCell ref="G335:G338"/>
+    <mergeCell ref="G339:G340"/>
+    <mergeCell ref="G346:G352"/>
+    <mergeCell ref="G353:G354"/>
+    <mergeCell ref="G366:G367"/>
     <mergeCell ref="I487:J487"/>
     <mergeCell ref="I490:J490"/>
     <mergeCell ref="I547:L547"/>
@@ -6016,123 +5489,26 @@
     <mergeCell ref="G278:G280"/>
     <mergeCell ref="G288:G289"/>
     <mergeCell ref="G290:G291"/>
-    <mergeCell ref="G298:G301"/>
-    <mergeCell ref="G314:G315"/>
-    <mergeCell ref="G323:G324"/>
-    <mergeCell ref="G325:G327"/>
-    <mergeCell ref="G335:G338"/>
-    <mergeCell ref="G339:G340"/>
-    <mergeCell ref="G346:G352"/>
-    <mergeCell ref="G353:G354"/>
-    <mergeCell ref="G366:G367"/>
-    <mergeCell ref="G368:G369"/>
-    <mergeCell ref="G375:G377"/>
-    <mergeCell ref="G396:G397"/>
-    <mergeCell ref="G402:G403"/>
-    <mergeCell ref="G404:G405"/>
-    <mergeCell ref="G406:G407"/>
-    <mergeCell ref="G415:G416"/>
-    <mergeCell ref="G417:G418"/>
-    <mergeCell ref="G433:G434"/>
+    <mergeCell ref="K435:M435"/>
+    <mergeCell ref="E449:G449"/>
+    <mergeCell ref="F458:G458"/>
+    <mergeCell ref="F459:G459"/>
+    <mergeCell ref="F470:G470"/>
+    <mergeCell ref="F471:G471"/>
+    <mergeCell ref="F472:G472"/>
+    <mergeCell ref="F477:G477"/>
+    <mergeCell ref="F478:G478"/>
     <mergeCell ref="G436:G437"/>
-    <mergeCell ref="G486:G488"/>
-    <mergeCell ref="G489:G490"/>
-    <mergeCell ref="G513:G514"/>
-    <mergeCell ref="G517:G518"/>
-    <mergeCell ref="G519:G520"/>
-    <mergeCell ref="G537:G538"/>
-    <mergeCell ref="G547:G548"/>
-    <mergeCell ref="G554:G556"/>
-    <mergeCell ref="G564:G565"/>
-    <mergeCell ref="G576:G577"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="H169:H170"/>
-    <mergeCell ref="H183:H186"/>
-    <mergeCell ref="H192:H198"/>
-    <mergeCell ref="H210:H211"/>
-    <mergeCell ref="H265:H266"/>
-    <mergeCell ref="H288:H289"/>
-    <mergeCell ref="H314:H315"/>
-    <mergeCell ref="H327:H329"/>
-    <mergeCell ref="H335:H337"/>
-    <mergeCell ref="H338:H342"/>
-    <mergeCell ref="H346:H347"/>
-    <mergeCell ref="H366:H369"/>
-    <mergeCell ref="H375:H376"/>
-    <mergeCell ref="H378:H379"/>
-    <mergeCell ref="H385:H387"/>
-    <mergeCell ref="H388:H389"/>
-    <mergeCell ref="H394:H395"/>
-    <mergeCell ref="H435:H436"/>
-    <mergeCell ref="H460:H462"/>
-    <mergeCell ref="H463:H464"/>
-    <mergeCell ref="H471:H474"/>
-    <mergeCell ref="H475:H476"/>
-    <mergeCell ref="H485:H486"/>
-    <mergeCell ref="H488:H489"/>
-    <mergeCell ref="H490:H491"/>
-    <mergeCell ref="H492:H493"/>
-    <mergeCell ref="H494:H495"/>
-    <mergeCell ref="H504:H505"/>
-    <mergeCell ref="H513:H514"/>
-    <mergeCell ref="H515:H516"/>
-    <mergeCell ref="H528:H530"/>
-    <mergeCell ref="H547:H548"/>
-    <mergeCell ref="H564:H565"/>
-    <mergeCell ref="H567:H568"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="J153:J159"/>
-    <mergeCell ref="J160:J162"/>
-    <mergeCell ref="J386:J387"/>
-    <mergeCell ref="L298:L304"/>
-    <mergeCell ref="I483:J484"/>
-    <mergeCell ref="I485:J486"/>
-    <mergeCell ref="I488:J489"/>
-    <mergeCell ref="I501:J502"/>
-    <mergeCell ref="I503:J505"/>
-    <mergeCell ref="I513:J517"/>
-    <mergeCell ref="C87:E88"/>
-    <mergeCell ref="H98:I99"/>
-    <mergeCell ref="H100:I102"/>
-    <mergeCell ref="H103:I104"/>
-    <mergeCell ref="C150:F152"/>
-    <mergeCell ref="I167:J169"/>
-    <mergeCell ref="B178:E184"/>
-    <mergeCell ref="I183:J184"/>
-    <mergeCell ref="I185:J188"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="I9:L10"/>
-    <mergeCell ref="F31:G32"/>
-    <mergeCell ref="F33:G35"/>
-    <mergeCell ref="I43:K44"/>
-    <mergeCell ref="F61:G62"/>
-    <mergeCell ref="I60:K63"/>
-    <mergeCell ref="F70:G71"/>
-    <mergeCell ref="F72:G73"/>
-    <mergeCell ref="F74:G75"/>
-    <mergeCell ref="I70:K71"/>
-    <mergeCell ref="I72:K75"/>
-    <mergeCell ref="F87:G88"/>
-    <mergeCell ref="I203:J204"/>
-    <mergeCell ref="G222:H223"/>
-    <mergeCell ref="I221:J222"/>
-    <mergeCell ref="I230:J231"/>
-    <mergeCell ref="I241:J242"/>
-    <mergeCell ref="I433:J435"/>
-    <mergeCell ref="I436:J441"/>
-    <mergeCell ref="I447:J449"/>
-    <mergeCell ref="F460:G461"/>
-    <mergeCell ref="F462:G463"/>
-    <mergeCell ref="F473:G474"/>
-    <mergeCell ref="F475:G476"/>
     <mergeCell ref="I471:J476"/>
+    <mergeCell ref="I240:J240"/>
+    <mergeCell ref="I264:J264"/>
+    <mergeCell ref="I287:J287"/>
+    <mergeCell ref="I290:J290"/>
+    <mergeCell ref="I313:J313"/>
+    <mergeCell ref="I317:J317"/>
+    <mergeCell ref="I345:J345"/>
+    <mergeCell ref="I409:J409"/>
+    <mergeCell ref="I432:J432"/>
     <mergeCell ref="I243:J250"/>
     <mergeCell ref="I265:J269"/>
     <mergeCell ref="I288:J289"/>
@@ -6143,24 +5519,111 @@
     <mergeCell ref="I402:J403"/>
     <mergeCell ref="I404:J405"/>
     <mergeCell ref="I406:J408"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="I182:J182"/>
+    <mergeCell ref="I220:J220"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="I223:J223"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="I229:J229"/>
+    <mergeCell ref="I232:J232"/>
+    <mergeCell ref="I239:J239"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="I166:J166"/>
+    <mergeCell ref="I170:J170"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="F61:G62"/>
+    <mergeCell ref="I60:K63"/>
+    <mergeCell ref="F70:G71"/>
+    <mergeCell ref="F72:G73"/>
+    <mergeCell ref="F74:G75"/>
+    <mergeCell ref="I70:K71"/>
+    <mergeCell ref="I72:K75"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="I43:K44"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="F33:G35"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="I9:L10"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B4:AD122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:AD133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K123" sqref="K123"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.125"/>
     <col min="10" max="12" width="9.125"/>
     <col min="17" max="17" width="9.125"/>
@@ -6168,1764 +5631,1764 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:19">
-      <c r="B4" s="1">
+      <c r="B4" s="70">
         <v>43373</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="I4" s="17">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="I4" s="45">
         <v>43379</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="P4" s="22">
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="P4" s="47">
         <v>43380</v>
       </c>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="28"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="72"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="78" t="s">
         <v>375</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="I5" s="16" t="s">
+      <c r="F5" s="25"/>
+      <c r="I5" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16" t="s">
+      <c r="J5" s="37"/>
+      <c r="K5" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="P5" s="16" t="s">
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="P5" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="18" t="s">
+      <c r="Q5" s="37"/>
+      <c r="R5" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="S5" s="20"/>
+      <c r="S5" s="39"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="18" t="s">
+      <c r="F6" s="25"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="S6" s="20"/>
+      <c r="S6" s="39"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="P7" s="3" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="P7" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="79" t="s">
         <v>389</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="65" t="s">
         <v>390</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="I8" s="16" t="s">
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="66"/>
+      <c r="I8" s="37" t="s">
         <v>391</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16" t="s">
+      <c r="J8" s="37"/>
+      <c r="K8" s="37" t="s">
         <v>392</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="P8" s="16" t="s">
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="P8" s="37" t="s">
         <v>393</v>
       </c>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="84"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="I10" s="3" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="84"/>
+      <c r="I10" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="P10" s="16" t="s">
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="P10" s="37" t="s">
         <v>395</v>
       </c>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="I11" s="16" t="s">
+      <c r="B11" s="80"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="84"/>
+      <c r="I11" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="P12" s="16" t="s">
+      <c r="B12" s="80"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="84"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="P12" s="37" t="s">
         <v>397</v>
       </c>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="84"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="P14" s="16" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="68"/>
+      <c r="P14" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="37" t="s">
         <v>399</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="24" spans="2:17">
-      <c r="B24" s="17">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="45">
         <v>43381</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="I24" s="23">
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="I24" s="50">
         <v>43382</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="Q24" s="29">
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="Q24" s="4">
         <v>43383</v>
       </c>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16" t="s">
+      <c r="C25" s="37"/>
+      <c r="D25" s="37" t="s">
         <v>400</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="I25" s="3" t="s">
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="I25" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="P25" s="3" t="s">
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="P25" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="I26" s="16" t="s">
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="I26" s="37" t="s">
         <v>404</v>
       </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="P26" s="3" t="s">
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="P26" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="37" t="s">
         <v>406</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16" t="s">
+      <c r="C27" s="37"/>
+      <c r="D27" s="37" t="s">
         <v>407</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="P27" s="24" t="s">
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="P27" s="86" t="s">
         <v>408</v>
       </c>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="I28" s="3" t="s">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="I28" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3" t="s">
+      <c r="J28" s="25"/>
+      <c r="K28" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="I29" s="18" t="s">
+      <c r="C29" s="25"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="39"/>
+      <c r="I29" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="39"/>
+      <c r="K29" s="25" t="s">
         <v>413</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-    </row>
-    <row r="30" spans="9:20">
-      <c r="I30" s="16" t="s">
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="I30" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-    </row>
-    <row r="31" spans="9:20">
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-    </row>
-    <row r="32" spans="9:20">
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="P32" s="3" t="s">
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="P32" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-    </row>
-    <row r="33" spans="16:20">
-      <c r="P33" s="3" t="s">
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+    </row>
+    <row r="33" spans="2:30">
+      <c r="P33" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-    </row>
-    <row r="34" spans="16:20">
-      <c r="P34" s="16" t="s">
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+    </row>
+    <row r="34" spans="2:30">
+      <c r="P34" s="37" t="s">
         <v>417</v>
       </c>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-    </row>
-    <row r="35" spans="16:20">
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+    </row>
+    <row r="35" spans="2:30">
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
     </row>
     <row r="41" spans="2:30">
-      <c r="B41" s="17">
+      <c r="B41" s="45">
         <v>43384</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="H41" s="17">
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="H41" s="45">
         <v>43385</v>
       </c>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="U41" s="21" t="s">
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="U41" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
-      <c r="AD41" s="21"/>
+      <c r="V41" s="69"/>
+      <c r="W41" s="69"/>
+      <c r="X41" s="69"/>
+      <c r="Y41" s="69"/>
+      <c r="Z41" s="69"/>
+      <c r="AA41" s="69"/>
+      <c r="AB41" s="69"/>
+      <c r="AC41" s="69"/>
+      <c r="AD41" s="69"/>
     </row>
     <row r="42" spans="2:30">
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="H42" s="21" t="s">
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="H42" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="U42" s="3" t="s">
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="69"/>
+      <c r="U42" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="V42" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="W42" s="3" t="s">
+      <c r="W42" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="X42" s="3" t="s">
+      <c r="X42" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="Y42" s="3" t="s">
+      <c r="Y42" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="Z42" s="3" t="s">
+      <c r="Z42" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="AA42" s="3" t="s">
+      <c r="AA42" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="AB42" s="3" t="s">
+      <c r="AB42" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="AC42" s="3" t="s">
+      <c r="AC42" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="AD42" s="3"/>
+      <c r="AD42" s="25"/>
     </row>
     <row r="43" spans="2:30">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="37" t="s">
         <v>429</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="H43" s="3" t="s">
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="H43" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="M43" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="N43" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="O43" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="P43" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="Q43" s="3"/>
-      <c r="U43" s="16" t="s">
+      <c r="Q43" s="25"/>
+      <c r="U43" s="37" t="s">
         <v>430</v>
       </c>
-      <c r="V43" s="20" t="s">
+      <c r="V43" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="W43" s="3">
+      <c r="W43" s="25">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="X43" s="1">
         <v>3</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="1">
         <v>25</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="1">
         <v>20</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AA43" s="1">
         <v>5</v>
       </c>
-      <c r="AB43" s="3" t="s">
+      <c r="AB43" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
     </row>
     <row r="44" spans="2:30">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="H44" s="16" t="s">
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="H44" s="37" t="s">
         <v>430</v>
       </c>
-      <c r="I44" s="20" t="s">
+      <c r="I44" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="25">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="1">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="1">
         <v>25</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="1">
         <v>20</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="1">
         <v>5</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="O44" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3">
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="1">
         <v>2</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="1">
         <v>34</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="1">
         <v>19</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="1">
         <v>15</v>
       </c>
-      <c r="AB44" s="3" t="s">
+      <c r="AB44" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC44" s="18"/>
-      <c r="AD44" s="20"/>
+      <c r="AC44" s="38"/>
+      <c r="AD44" s="39"/>
     </row>
     <row r="45" spans="2:30">
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3">
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="1">
         <v>2</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="1">
         <v>34</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="1">
         <v>19</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="1">
         <v>15</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="20"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3">
+      <c r="P45" s="38"/>
+      <c r="Q45" s="39"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="1">
         <v>1</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="1">
         <v>83</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="1">
         <v>60</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AA45" s="1">
         <v>23</v>
       </c>
-      <c r="AB45" s="3" t="s">
+      <c r="AB45" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC45" s="18"/>
-      <c r="AD45" s="20"/>
+      <c r="AC45" s="38"/>
+      <c r="AD45" s="39"/>
     </row>
     <row r="46" spans="2:30">
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="37" t="s">
         <v>435</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3">
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="1">
         <v>1</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="1">
         <v>83</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="1">
         <v>60</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="1">
         <v>23</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="O46" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="20"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="3">
+      <c r="P46" s="38"/>
+      <c r="Q46" s="39"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="25">
         <v>100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="X46" s="1">
         <v>1.5</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="1">
         <v>66</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="1">
         <v>51</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AA46" s="1">
         <v>15</v>
       </c>
-      <c r="AB46" s="3" t="s">
+      <c r="AB46" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC46" s="18"/>
-      <c r="AD46" s="20"/>
+      <c r="AC46" s="38"/>
+      <c r="AD46" s="39"/>
     </row>
     <row r="47" spans="2:30">
-      <c r="B47" s="3"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="3">
+      <c r="B47" s="25"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="25">
         <v>100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="1">
         <v>1.5</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="1">
         <v>66</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="1">
         <v>51</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="1">
         <v>15</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="O47" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="20"/>
-      <c r="U47" s="16"/>
-      <c r="V47" s="20"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3">
+      <c r="P47" s="38"/>
+      <c r="Q47" s="39"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="1">
         <v>1</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="1">
         <v>79</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="1">
         <v>44</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AA47" s="1">
         <v>35</v>
       </c>
-      <c r="AB47" s="3" t="s">
+      <c r="AB47" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC47" s="18"/>
-      <c r="AD47" s="20"/>
+      <c r="AC47" s="38"/>
+      <c r="AD47" s="39"/>
     </row>
     <row r="48" spans="2:30">
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="37" t="s">
         <v>436</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3">
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="1">
         <v>1</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="1">
         <v>79</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="1">
         <v>44</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="1">
         <v>35</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="O48" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="20"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3">
+      <c r="P48" s="38"/>
+      <c r="Q48" s="39"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="1">
         <v>0.5</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="1">
         <v>456</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="1">
         <v>44</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="1">
         <v>112</v>
       </c>
-      <c r="AB48" s="3" t="s">
+      <c r="AB48" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC48" s="18"/>
-      <c r="AD48" s="20"/>
-    </row>
-    <row r="49" spans="8:30">
-      <c r="H49" s="16"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3">
+      <c r="AC48" s="38"/>
+      <c r="AD48" s="39"/>
+    </row>
+    <row r="49" spans="2:30">
+      <c r="H49" s="37"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="1">
         <v>0.5</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="1">
         <v>456</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="1">
         <v>44</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="1">
         <v>112</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="O49" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="20"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3">
+      <c r="P49" s="38"/>
+      <c r="Q49" s="39"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="1">
         <v>0.2</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="1">
         <v>365</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="1">
         <v>43</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="1">
         <v>322</v>
       </c>
-      <c r="AB49" s="3" t="s">
+      <c r="AB49" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC49" s="3" t="s">
+      <c r="AC49" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="AD49" s="3"/>
-    </row>
-    <row r="50" spans="8:30">
-      <c r="H50" s="16"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3">
+      <c r="AD49" s="25"/>
+    </row>
+    <row r="50" spans="2:30">
+      <c r="H50" s="37"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="1">
         <v>0.2</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="1">
         <v>365</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="1">
         <v>43</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50" s="1">
         <v>322</v>
       </c>
-      <c r="O50" s="3" t="s">
+      <c r="O50" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P50" s="3" t="s">
+      <c r="P50" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="Q50" s="3"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="3">
+      <c r="Q50" s="25"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="25">
         <v>50</v>
       </c>
-      <c r="X50" s="3">
+      <c r="X50" s="1">
         <v>1.5</v>
       </c>
-      <c r="Y50" s="3">
+      <c r="Y50" s="1">
         <v>115</v>
       </c>
-      <c r="Z50" s="3">
+      <c r="Z50" s="1">
         <v>115</v>
       </c>
-      <c r="AA50" s="3">
+      <c r="AA50" s="1">
         <v>0</v>
       </c>
-      <c r="AB50" s="3" t="s">
+      <c r="AB50" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC50" s="18"/>
-      <c r="AD50" s="20"/>
-    </row>
-    <row r="51" spans="8:30">
-      <c r="H51" s="16"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="3">
+      <c r="AC50" s="38"/>
+      <c r="AD50" s="39"/>
+    </row>
+    <row r="51" spans="2:30">
+      <c r="H51" s="37"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="25">
         <v>50</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="1">
         <v>1.5</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="1">
         <v>115</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="1">
         <v>115</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="1">
         <v>0</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="O51" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="20"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3">
+      <c r="P51" s="38"/>
+      <c r="Q51" s="39"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="1">
         <v>0.8</v>
       </c>
-      <c r="Y51" s="3">
+      <c r="Y51" s="1">
         <v>117</v>
       </c>
-      <c r="Z51" s="3">
+      <c r="Z51" s="1">
         <v>99</v>
       </c>
-      <c r="AA51" s="3">
+      <c r="AA51" s="1">
         <v>18</v>
       </c>
-      <c r="AB51" s="3" t="s">
+      <c r="AB51" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC51" s="3" t="s">
+      <c r="AC51" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="AD51" s="3"/>
-    </row>
-    <row r="52" spans="8:30">
-      <c r="H52" s="16"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3">
+      <c r="AD51" s="25"/>
+    </row>
+    <row r="52" spans="2:30">
+      <c r="H52" s="37"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="1">
         <v>0.8</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="1">
         <v>117</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="1">
         <v>99</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="1">
         <v>18</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="O52" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P52" s="3" t="s">
+      <c r="P52" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="Q52" s="3"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3">
+      <c r="Q52" s="25"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="25"/>
+      <c r="X52" s="1">
         <v>0.2</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="1">
         <v>398</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="1">
         <v>89</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="1">
         <v>309</v>
       </c>
-      <c r="AB52" s="3" t="s">
+      <c r="AB52" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC52" s="3" t="s">
+      <c r="AC52" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="AD52" s="3"/>
-    </row>
-    <row r="53" spans="8:30">
-      <c r="H53" s="16"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3">
+      <c r="AD52" s="25"/>
+    </row>
+    <row r="53" spans="2:30">
+      <c r="H53" s="37"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="1">
         <v>0.2</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="1">
         <v>398</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M53" s="1">
         <v>89</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N53" s="1">
         <v>309</v>
       </c>
-      <c r="O53" s="3" t="s">
+      <c r="O53" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P53" s="3" t="s">
+      <c r="P53" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="Q53" s="3"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="20" t="s">
+      <c r="Q53" s="25"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="W53" s="3">
+      <c r="W53" s="1">
         <v>200</v>
       </c>
-      <c r="X53" s="3">
+      <c r="X53" s="1">
         <v>2</v>
       </c>
-      <c r="Y53" s="3">
+      <c r="Y53" s="1">
         <v>44</v>
       </c>
-      <c r="Z53" s="3">
+      <c r="Z53" s="1">
         <v>20</v>
       </c>
-      <c r="AA53" s="3">
+      <c r="AA53" s="1">
         <v>24</v>
       </c>
-      <c r="AB53" s="3" t="s">
+      <c r="AB53" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC53" s="25" t="s">
+      <c r="AC53" s="73" t="s">
         <v>437</v>
       </c>
-      <c r="AD53" s="25"/>
-    </row>
-    <row r="54" spans="8:30">
-      <c r="H54" s="16"/>
-      <c r="I54" s="20" t="s">
+      <c r="AD53" s="73"/>
+    </row>
+    <row r="54" spans="2:30">
+      <c r="H54" s="37"/>
+      <c r="I54" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="1">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="1">
         <v>2</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="1">
         <v>44</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="1">
         <v>20</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="1">
         <v>24</v>
       </c>
-      <c r="O54" s="3" t="s">
+      <c r="O54" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P54" s="25" t="s">
+      <c r="P54" s="73" t="s">
         <v>437</v>
       </c>
-      <c r="Q54" s="25"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="3">
+      <c r="Q54" s="73"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="25">
         <v>100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="X54" s="1">
         <v>1.5</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="1">
         <v>93</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="1">
         <v>47</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AA54" s="1">
         <v>46</v>
       </c>
-      <c r="AB54" s="3" t="s">
+      <c r="AB54" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC54" s="18"/>
-      <c r="AD54" s="20"/>
-    </row>
-    <row r="55" spans="8:30">
-      <c r="H55" s="16"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="3">
+      <c r="AC54" s="38"/>
+      <c r="AD54" s="39"/>
+    </row>
+    <row r="55" spans="2:30">
+      <c r="H55" s="37"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="25">
         <v>100</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="1">
         <v>1.5</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="1">
         <v>93</v>
       </c>
-      <c r="M55" s="3">
+      <c r="M55" s="1">
         <v>47</v>
       </c>
-      <c r="N55" s="3">
+      <c r="N55" s="1">
         <v>46</v>
       </c>
-      <c r="O55" s="3" t="s">
+      <c r="O55" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="20"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="20"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3">
+      <c r="P55" s="38"/>
+      <c r="Q55" s="39"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="25"/>
+      <c r="X55" s="1">
         <v>0.5</v>
       </c>
-      <c r="Y55" s="3">
+      <c r="Y55" s="1">
         <v>209</v>
       </c>
-      <c r="Z55" s="3">
+      <c r="Z55" s="1">
         <v>41</v>
       </c>
-      <c r="AA55" s="3">
+      <c r="AA55" s="1">
         <v>168</v>
       </c>
-      <c r="AB55" s="3" t="s">
+      <c r="AB55" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC55" s="25" t="s">
+      <c r="AC55" s="73" t="s">
         <v>437</v>
       </c>
-      <c r="AD55" s="25"/>
-    </row>
-    <row r="56" spans="8:30">
-      <c r="H56" s="16"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3">
+      <c r="AD55" s="73"/>
+    </row>
+    <row r="56" spans="2:30">
+      <c r="H56" s="37"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="1">
         <v>0.5</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="1">
         <v>209</v>
       </c>
-      <c r="M56" s="3">
+      <c r="M56" s="1">
         <v>41</v>
       </c>
-      <c r="N56" s="3">
+      <c r="N56" s="1">
         <v>168</v>
       </c>
-      <c r="O56" s="3" t="s">
+      <c r="O56" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P56" s="25" t="s">
+      <c r="P56" s="73" t="s">
         <v>437</v>
       </c>
-      <c r="Q56" s="25"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="20"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3">
+      <c r="Q56" s="73"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="25"/>
+      <c r="X56" s="1">
         <v>0.2</v>
       </c>
-      <c r="Y56" s="3">
+      <c r="Y56" s="1">
         <v>453</v>
       </c>
-      <c r="Z56" s="3">
+      <c r="Z56" s="1">
         <v>43</v>
       </c>
-      <c r="AA56" s="3">
+      <c r="AA56" s="1">
         <v>410</v>
       </c>
-      <c r="AB56" s="3" t="s">
+      <c r="AB56" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC56" s="3" t="s">
+      <c r="AC56" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="8:30">
-      <c r="H57" s="16"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3">
+      <c r="AD56" s="25"/>
+    </row>
+    <row r="57" spans="2:30">
+      <c r="H57" s="37"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="1">
         <v>0.2</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="1">
         <v>453</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="1">
         <v>43</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="1">
         <v>410</v>
       </c>
-      <c r="O57" s="3" t="s">
+      <c r="O57" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P57" s="3" t="s">
+      <c r="P57" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="Q57" s="3"/>
-      <c r="U57" s="16"/>
-      <c r="V57" s="20"/>
-      <c r="W57" s="3">
+      <c r="Q57" s="25"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="39"/>
+      <c r="W57" s="1">
         <v>50</v>
       </c>
-      <c r="X57" s="3">
+      <c r="X57" s="1">
         <v>0.2</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="1">
         <v>405</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="1">
         <v>84</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="1">
         <v>321</v>
       </c>
-      <c r="AB57" s="3" t="s">
+      <c r="AB57" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC57" s="3" t="s">
+      <c r="AC57" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="AD57" s="3"/>
-    </row>
-    <row r="58" spans="8:30">
-      <c r="H58" s="16"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="3">
+      <c r="AD57" s="25"/>
+    </row>
+    <row r="58" spans="2:30">
+      <c r="H58" s="37"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="1">
         <v>50</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="1">
         <v>0.2</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="1">
         <v>405</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="1">
         <v>84</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="1">
         <v>321</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="O58" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="Q58" s="3"/>
-      <c r="U58" s="16"/>
-      <c r="V58" s="19" t="s">
+      <c r="Q58" s="25"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="40" t="s">
         <v>439</v>
       </c>
-      <c r="W58" s="19"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="19"/>
-      <c r="Z58" s="19"/>
-      <c r="AA58" s="19"/>
-      <c r="AB58" s="19"/>
-      <c r="AC58" s="19"/>
-      <c r="AD58" s="20"/>
-    </row>
-    <row r="59" spans="8:21">
-      <c r="H59" s="16"/>
-      <c r="I59" s="19" t="s">
+      <c r="W58" s="40"/>
+      <c r="X58" s="40"/>
+      <c r="Y58" s="40"/>
+      <c r="Z58" s="40"/>
+      <c r="AA58" s="40"/>
+      <c r="AB58" s="40"/>
+      <c r="AC58" s="40"/>
+      <c r="AD58" s="39"/>
+    </row>
+    <row r="59" spans="2:30">
+      <c r="H59" s="37"/>
+      <c r="I59" s="40" t="s">
         <v>439</v>
       </c>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="20"/>
-      <c r="U59" s="30"/>
-    </row>
-    <row r="60" spans="21:21">
-      <c r="U60" s="30"/>
-    </row>
-    <row r="61" spans="21:23">
-      <c r="U61" s="30"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="39"/>
+      <c r="U59" s="5"/>
+    </row>
+    <row r="60" spans="2:30">
+      <c r="U60" s="5"/>
+    </row>
+    <row r="61" spans="2:30">
+      <c r="U61" s="5"/>
       <c r="W61">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="21:21">
-      <c r="U62" s="30"/>
-    </row>
-    <row r="63" spans="23:23">
-      <c r="W63" s="30"/>
-    </row>
-    <row r="64" spans="2:21">
-      <c r="B64" s="17">
+    <row r="62" spans="2:30">
+      <c r="U62" s="5"/>
+    </row>
+    <row r="63" spans="2:30">
+      <c r="W63" s="5"/>
+    </row>
+    <row r="64" spans="2:30">
+      <c r="B64" s="45">
         <v>43386</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="J64" s="26">
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="J64" s="74">
         <v>43387</v>
       </c>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="U64" s="29">
+      <c r="K64" s="74"/>
+      <c r="L64" s="74"/>
+      <c r="M64" s="74"/>
+      <c r="N64" s="74"/>
+      <c r="U64" s="4">
         <v>43388</v>
       </c>
     </row>
-    <row r="65" spans="2:21">
-      <c r="B65" s="16" t="s">
+    <row r="65" spans="2:24">
+      <c r="B65" s="37" t="s">
         <v>440</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="J65" s="34" t="s">
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="J65" s="75" t="s">
         <v>442</v>
       </c>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
+      <c r="K65" s="75"/>
+      <c r="L65" s="75"/>
+      <c r="M65" s="75"/>
+      <c r="N65" s="75"/>
       <c r="U65" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="66" spans="2:21">
-      <c r="B66" s="16"/>
-      <c r="C66" s="3" t="s">
+    <row r="66" spans="2:24">
+      <c r="B66" s="37"/>
+      <c r="C66" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="J66" s="34" t="s">
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="J66" s="75" t="s">
         <v>445</v>
       </c>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
+      <c r="K66" s="75"/>
+      <c r="L66" s="75"/>
+      <c r="M66" s="75"/>
+      <c r="N66" s="75"/>
       <c r="U66" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="67" spans="2:24">
-      <c r="B67" s="16"/>
-      <c r="C67" s="3" t="s">
+      <c r="B67" s="37"/>
+      <c r="C67" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="J67" s="34" t="s">
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="J67" s="75" t="s">
         <v>448</v>
       </c>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="34"/>
-      <c r="U67" s="10" t="s">
+      <c r="K67" s="75"/>
+      <c r="L67" s="75"/>
+      <c r="M67" s="75"/>
+      <c r="N67" s="75"/>
+      <c r="U67" s="55" t="s">
         <v>449</v>
       </c>
-      <c r="V67" s="10"/>
-      <c r="W67" s="10"/>
-      <c r="X67" s="10"/>
+      <c r="V67" s="55"/>
+      <c r="W67" s="55"/>
+      <c r="X67" s="55"/>
     </row>
     <row r="68" spans="2:24">
-      <c r="B68" s="16"/>
-      <c r="C68" s="3" t="s">
+      <c r="B68" s="37"/>
+      <c r="C68" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="J68" s="34" t="s">
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="J68" s="75" t="s">
         <v>451</v>
       </c>
-      <c r="K68" s="34"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="34"/>
-      <c r="N68" s="34"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-    </row>
-    <row r="69" spans="2:21">
-      <c r="B69" s="16" t="s">
+      <c r="K68" s="75"/>
+      <c r="L68" s="75"/>
+      <c r="M68" s="75"/>
+      <c r="N68" s="75"/>
+      <c r="U68" s="55"/>
+      <c r="V68" s="55"/>
+      <c r="W68" s="55"/>
+      <c r="X68" s="55"/>
+    </row>
+    <row r="69" spans="2:24">
+      <c r="B69" s="37" t="s">
         <v>452</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="J69" s="34" t="s">
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="J69" s="75" t="s">
         <v>453</v>
       </c>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="34"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="75"/>
+      <c r="N69" s="75"/>
       <c r="U69" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="70" spans="2:14">
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="J70" s="34" t="s">
+    <row r="70" spans="2:24">
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="J70" s="75" t="s">
         <v>455</v>
       </c>
-      <c r="K70" s="34"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="34"/>
-    </row>
-    <row r="71" spans="2:14">
-      <c r="B71" s="16" t="s">
+      <c r="K70" s="75"/>
+      <c r="L70" s="75"/>
+      <c r="M70" s="75"/>
+      <c r="N70" s="75"/>
+    </row>
+    <row r="71" spans="2:24">
+      <c r="B71" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="J71" s="35" t="s">
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="J71" s="76" t="s">
         <v>457</v>
       </c>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-    </row>
-    <row r="72" spans="2:14">
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="J72" s="34" t="s">
+      <c r="K71" s="76"/>
+      <c r="L71" s="76"/>
+      <c r="M71" s="76"/>
+      <c r="N71" s="76"/>
+    </row>
+    <row r="72" spans="2:24">
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="J72" s="75" t="s">
         <v>458</v>
       </c>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="34"/>
-    </row>
-    <row r="80" spans="2:23">
-      <c r="B80" s="17">
+      <c r="K72" s="75"/>
+      <c r="L72" s="75"/>
+      <c r="M72" s="75"/>
+      <c r="N72" s="75"/>
+    </row>
+    <row r="80" spans="2:24">
+      <c r="B80" s="45">
         <v>43389</v>
       </c>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="T80" s="17">
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="T80" s="45">
         <v>43391</v>
       </c>
-      <c r="U80" s="17"/>
-      <c r="V80" s="17"/>
-      <c r="W80" s="17"/>
+      <c r="U80" s="45"/>
+      <c r="V80" s="45"/>
+      <c r="W80" s="45"/>
     </row>
     <row r="81" spans="2:23">
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="K81" s="17">
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="K81" s="45">
         <v>43390</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="T81" s="37" t="s">
+      <c r="L81" s="45"/>
+      <c r="M81" s="45"/>
+      <c r="N81" s="45"/>
+      <c r="O81" s="45"/>
+      <c r="P81" s="45"/>
+      <c r="T81" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="U81" s="37"/>
-      <c r="V81" s="37"/>
-      <c r="W81" s="37"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="8"/>
     </row>
     <row r="82" spans="2:23">
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="31"/>
-      <c r="K82" s="3" t="s">
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="6"/>
+      <c r="K82" s="25" t="s">
         <v>462</v>
       </c>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="T82" s="37" t="s">
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="T82" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="U82" s="37"/>
-      <c r="V82" s="37"/>
-      <c r="W82" s="37"/>
+      <c r="U82" s="8"/>
+      <c r="V82" s="8"/>
+      <c r="W82" s="8"/>
     </row>
     <row r="83" spans="2:23">
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="31"/>
-      <c r="K83" s="3" t="s">
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="6"/>
+      <c r="K83" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="T83" s="37" t="s">
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="T83" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="U83" s="37"/>
-      <c r="V83" s="37"/>
-      <c r="W83" s="37"/>
+      <c r="U83" s="8"/>
+      <c r="V83" s="8"/>
+      <c r="W83" s="8"/>
     </row>
     <row r="84" spans="2:23">
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="37" t="s">
         <v>466</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="31"/>
-      <c r="K84" s="3" t="s">
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="6"/>
+      <c r="K84" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-      <c r="T84" s="37" t="s">
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="T84" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="U84" s="37"/>
-      <c r="V84" s="37"/>
-      <c r="W84" s="37"/>
+      <c r="U84" s="8"/>
+      <c r="V84" s="8"/>
+      <c r="W84" s="8"/>
     </row>
     <row r="85" spans="2:23">
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="31"/>
-      <c r="K85" s="3" t="s">
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="6"/>
+      <c r="K85" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-      <c r="T85" s="18"/>
-      <c r="U85" s="19"/>
-      <c r="V85" s="19"/>
-      <c r="W85" s="20"/>
-    </row>
-    <row r="86" spans="20:23">
-      <c r="T86" s="16" t="s">
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
+      <c r="T85" s="38"/>
+      <c r="U85" s="40"/>
+      <c r="V85" s="40"/>
+      <c r="W85" s="39"/>
+    </row>
+    <row r="86" spans="2:23">
+      <c r="T86" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="U86" s="16"/>
-      <c r="V86" s="16"/>
-      <c r="W86" s="16"/>
-    </row>
-    <row r="87" spans="20:23">
-      <c r="T87" s="16"/>
-      <c r="U87" s="16"/>
-      <c r="V87" s="16"/>
-      <c r="W87" s="16"/>
-    </row>
-    <row r="88" spans="20:23">
-      <c r="T88" s="16"/>
-      <c r="U88" s="16"/>
-      <c r="V88" s="16"/>
-      <c r="W88" s="16"/>
-    </row>
-    <row r="89" spans="20:23">
-      <c r="T89" s="18" t="s">
+      <c r="U86" s="37"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="37"/>
+    </row>
+    <row r="87" spans="2:23">
+      <c r="T87" s="37"/>
+      <c r="U87" s="37"/>
+      <c r="V87" s="37"/>
+      <c r="W87" s="37"/>
+    </row>
+    <row r="88" spans="2:23">
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="37"/>
+      <c r="W88" s="37"/>
+    </row>
+    <row r="89" spans="2:23">
+      <c r="T89" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="U89" s="19"/>
-      <c r="V89" s="19"/>
-      <c r="W89" s="20"/>
-    </row>
-    <row r="90" spans="20:23">
-      <c r="T90" s="16" t="s">
+      <c r="U89" s="40"/>
+      <c r="V89" s="40"/>
+      <c r="W89" s="39"/>
+    </row>
+    <row r="90" spans="2:23">
+      <c r="T90" s="37" t="s">
         <v>472</v>
       </c>
-      <c r="U90" s="16"/>
-      <c r="V90" s="16"/>
-      <c r="W90" s="16"/>
-    </row>
-    <row r="91" spans="20:23">
-      <c r="T91" s="16"/>
-      <c r="U91" s="16"/>
-      <c r="V91" s="16"/>
-      <c r="W91" s="16"/>
-    </row>
-    <row r="96" ht="22" customHeight="1"/>
+      <c r="U90" s="37"/>
+      <c r="V90" s="37"/>
+      <c r="W90" s="37"/>
+    </row>
+    <row r="91" spans="2:23">
+      <c r="T91" s="37"/>
+      <c r="U91" s="37"/>
+      <c r="V91" s="37"/>
+      <c r="W91" s="37"/>
+    </row>
+    <row r="96" spans="2:23" ht="21.95" customHeight="1"/>
     <row r="97" spans="2:23">
-      <c r="B97" s="17">
+      <c r="B97" s="45">
         <v>43392</v>
       </c>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="K97" s="29">
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="45"/>
+      <c r="K97" s="4">
         <v>43393</v>
       </c>
-      <c r="T97" s="17">
+      <c r="T97" s="45">
         <v>43394</v>
       </c>
-      <c r="U97" s="17"/>
-      <c r="V97" s="17"/>
-      <c r="W97" s="17"/>
+      <c r="U97" s="45"/>
+      <c r="V97" s="45"/>
+      <c r="W97" s="45"/>
     </row>
     <row r="98" spans="2:23">
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="K98" s="70" t="s">
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="K98" s="87" t="s">
         <v>474</v>
       </c>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="10"/>
-      <c r="O98" s="10"/>
-      <c r="P98" s="10"/>
-      <c r="T98" s="38" t="s">
+      <c r="L98" s="55"/>
+      <c r="M98" s="55"/>
+      <c r="N98" s="55"/>
+      <c r="O98" s="55"/>
+      <c r="P98" s="55"/>
+      <c r="T98" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="U98" s="38"/>
-      <c r="V98" s="38"/>
-      <c r="W98" s="38"/>
-    </row>
-    <row r="99" spans="2:16">
-      <c r="B99" s="3" t="s">
+      <c r="U98" s="27"/>
+      <c r="V98" s="27"/>
+      <c r="W98" s="27"/>
+    </row>
+    <row r="99" spans="2:23">
+      <c r="B99" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="K99" s="10"/>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="10"/>
-      <c r="O99" s="10"/>
-      <c r="P99" s="10"/>
-    </row>
-    <row r="100" spans="2:6">
-      <c r="B100" s="3" t="s">
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="K99" s="55"/>
+      <c r="L99" s="55"/>
+      <c r="M99" s="55"/>
+      <c r="N99" s="55"/>
+      <c r="O99" s="55"/>
+      <c r="P99" s="55"/>
+    </row>
+    <row r="100" spans="2:23">
+      <c r="B100" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="2:11">
-      <c r="B101" s="3" t="s">
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+    </row>
+    <row r="101" spans="2:23">
+      <c r="B101" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
       <c r="K101" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="102" spans="2:6">
-      <c r="B102" s="16" t="s">
+    <row r="102" spans="2:23">
+      <c r="B102" s="37" t="s">
         <v>480</v>
       </c>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-    </row>
-    <row r="103" spans="2:13">
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+    </row>
+    <row r="103" spans="2:23">
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
+      <c r="F103" s="37"/>
       <c r="K103" t="s">
         <v>481</v>
       </c>
@@ -7936,12 +7399,12 @@
         <v>483</v>
       </c>
     </row>
-    <row r="104" spans="2:13">
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
+    <row r="104" spans="2:23">
+      <c r="B104" s="37"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
       <c r="L104" t="s">
         <v>484</v>
       </c>
@@ -7949,97 +7412,97 @@
         <v>485</v>
       </c>
     </row>
-    <row r="105" spans="2:12">
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
+    <row r="105" spans="2:23">
+      <c r="B105" s="37"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="37"/>
       <c r="L105" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="106" spans="2:7">
-      <c r="B106" s="32" t="s">
+    <row r="106" spans="2:23">
+      <c r="B106" s="77" t="s">
         <v>487</v>
       </c>
-      <c r="C106" s="33" t="s">
+      <c r="C106" s="62" t="s">
         <v>488</v>
       </c>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="31"/>
-    </row>
-    <row r="107" spans="2:11">
-      <c r="B107" s="32"/>
-      <c r="C107" s="32" t="s">
+      <c r="D106" s="62"/>
+      <c r="E106" s="62"/>
+      <c r="F106" s="62"/>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="2:23">
+      <c r="B107" s="77"/>
+      <c r="C107" s="77" t="s">
         <v>489</v>
       </c>
-      <c r="D107" s="32"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="32"/>
-      <c r="G107" s="30"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="5"/>
       <c r="K107" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="108" spans="2:6">
-      <c r="B108" s="32"/>
-      <c r="C108" s="32" t="s">
+    <row r="108" spans="2:23">
+      <c r="B108" s="77"/>
+      <c r="C108" s="77" t="s">
         <v>491</v>
       </c>
-      <c r="D108" s="32"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="32"/>
-    </row>
-    <row r="109" spans="2:6">
-      <c r="B109" s="10" t="s">
+      <c r="D108" s="77"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77"/>
+    </row>
+    <row r="109" spans="2:23">
+      <c r="B109" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-    </row>
-    <row r="110" spans="2:6">
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-    </row>
-    <row r="116" spans="3:11">
-      <c r="C116" s="29">
+      <c r="C109" s="55"/>
+      <c r="D109" s="55"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55"/>
+    </row>
+    <row r="110" spans="2:23">
+      <c r="B110" s="55"/>
+      <c r="C110" s="55"/>
+      <c r="D110" s="55"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="55"/>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="C116" s="4">
         <v>43395</v>
       </c>
-      <c r="K116" s="29">
+      <c r="K116" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="117" spans="3:15">
+    <row r="117" spans="1:15">
       <c r="C117" t="s">
         <v>493</v>
       </c>
-      <c r="K117" s="36" t="s">
+      <c r="K117" s="55" t="s">
         <v>494</v>
       </c>
-      <c r="L117" s="36"/>
-      <c r="M117" s="36"/>
-      <c r="N117" s="36"/>
-      <c r="O117" s="36"/>
-    </row>
-    <row r="118" spans="3:15">
+      <c r="L117" s="55"/>
+      <c r="M117" s="55"/>
+      <c r="N117" s="55"/>
+      <c r="O117" s="55"/>
+    </row>
+    <row r="118" spans="1:15">
       <c r="C118" t="s">
         <v>495</v>
       </c>
-      <c r="K118" s="36"/>
-      <c r="L118" s="36"/>
-      <c r="M118" s="36"/>
-      <c r="N118" s="36"/>
-      <c r="O118" s="36"/>
-    </row>
-    <row r="119" spans="3:11">
+      <c r="K118" s="55"/>
+      <c r="L118" s="55"/>
+      <c r="M118" s="55"/>
+      <c r="N118" s="55"/>
+      <c r="O118" s="55"/>
+    </row>
+    <row r="119" spans="1:15">
       <c r="C119" t="s">
         <v>496</v>
       </c>
@@ -8047,100 +7510,131 @@
         <v>497</v>
       </c>
     </row>
-    <row r="120" spans="11:11">
+    <row r="120" spans="1:15">
       <c r="K120" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="121" spans="11:11">
+    <row r="121" spans="1:15">
       <c r="K121" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="122" spans="11:11">
+    <row r="122" spans="1:15">
       <c r="K122" t="s">
         <v>500</v>
       </c>
     </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="45">
+        <v>43397</v>
+      </c>
+      <c r="B126" s="45"/>
+      <c r="C126" s="45"/>
+      <c r="D126" s="45"/>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="B127" s="37"/>
+      <c r="C127" s="37"/>
+      <c r="D127" s="37"/>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="37"/>
+      <c r="B128" s="37"/>
+      <c r="C128" s="37"/>
+      <c r="D128" s="37"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="B129" s="37"/>
+      <c r="C129" s="37"/>
+      <c r="D129" s="37"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="37"/>
+      <c r="B130" s="37"/>
+      <c r="C130" s="37"/>
+      <c r="D130" s="37"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="B131" s="37"/>
+      <c r="C131" s="37"/>
+      <c r="D131" s="37"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="B132" s="37"/>
+      <c r="C132" s="37"/>
+      <c r="D132" s="37"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="37"/>
+      <c r="B133" s="37"/>
+      <c r="C133" s="37"/>
+      <c r="D133" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="152">
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="H41:Q41"/>
-    <mergeCell ref="U41:AD41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="H42:Q42"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="AC46:AD46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="AC47:AD47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="AC48:AD48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="AC49:AD49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="AC50:AD50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="AC51:AD51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="AC52:AD52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="AC53:AD53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="AC54:AD54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="AC55:AD55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="AC56:AD56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="AC57:AD57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="V58:AD58"/>
-    <mergeCell ref="I59:Q59"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="J64:N64"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="J65:N65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="J66:N66"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="J70:N70"/>
-    <mergeCell ref="J71:N71"/>
+  <mergeCells count="157">
+    <mergeCell ref="A127:D128"/>
+    <mergeCell ref="A129:D130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A132:D133"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="U67:X68"/>
+    <mergeCell ref="B82:F83"/>
+    <mergeCell ref="B84:F85"/>
+    <mergeCell ref="T86:W88"/>
+    <mergeCell ref="T90:W91"/>
+    <mergeCell ref="B102:F105"/>
+    <mergeCell ref="B109:F110"/>
+    <mergeCell ref="K98:P99"/>
+    <mergeCell ref="K117:O118"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:M9"/>
+    <mergeCell ref="I11:M13"/>
+    <mergeCell ref="C8:F14"/>
+    <mergeCell ref="P5:Q6"/>
+    <mergeCell ref="P8:S9"/>
+    <mergeCell ref="P10:S11"/>
+    <mergeCell ref="P12:S13"/>
+    <mergeCell ref="P14:S15"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="B15:F16"/>
+    <mergeCell ref="B43:F44"/>
+    <mergeCell ref="C46:F47"/>
+    <mergeCell ref="B69:F70"/>
+    <mergeCell ref="B71:F72"/>
+    <mergeCell ref="T89:W89"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="T97:W97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="T98:W98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="C106:F106"/>
     <mergeCell ref="J72:N72"/>
     <mergeCell ref="B80:F80"/>
     <mergeCell ref="T80:W80"/>
@@ -8151,24 +7645,24 @@
     <mergeCell ref="K84:P84"/>
     <mergeCell ref="K85:P85"/>
     <mergeCell ref="T85:W85"/>
-    <mergeCell ref="T89:W89"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="T97:W97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="T98:W98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="C106:F106"/>
-    <mergeCell ref="C107:F107"/>
-    <mergeCell ref="C108:F108"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="J66:N66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="J70:N70"/>
+    <mergeCell ref="J71:N71"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="AC57:AD57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="V58:AD58"/>
+    <mergeCell ref="I59:Q59"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="J64:N64"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="J65:N65"/>
     <mergeCell ref="H44:H59"/>
     <mergeCell ref="I44:I53"/>
     <mergeCell ref="I54:I58"/>
@@ -8183,42 +7677,74 @@
     <mergeCell ref="W46:W49"/>
     <mergeCell ref="W50:W52"/>
     <mergeCell ref="W54:W56"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D25:F26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="B15:F16"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="K5:M7"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:M9"/>
-    <mergeCell ref="I11:M13"/>
-    <mergeCell ref="C8:F14"/>
-    <mergeCell ref="P5:Q6"/>
-    <mergeCell ref="P8:S9"/>
-    <mergeCell ref="P10:S11"/>
-    <mergeCell ref="P12:S13"/>
-    <mergeCell ref="P14:S15"/>
-    <mergeCell ref="I26:M27"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="AC52:AD52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="AC53:AD53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="AC54:AD54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="AC55:AD55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="AC56:AD56"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="AC49:AD49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="AC50:AD50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="AC51:AD51"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="AC47:AD47"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="H41:Q41"/>
+    <mergeCell ref="U41:AD41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="H42:Q42"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="AC43:AD43"/>
     <mergeCell ref="I30:M32"/>
     <mergeCell ref="P27:T31"/>
     <mergeCell ref="P34:T35"/>
-    <mergeCell ref="B43:F44"/>
-    <mergeCell ref="C46:F47"/>
-    <mergeCell ref="B69:F70"/>
-    <mergeCell ref="B71:F72"/>
-    <mergeCell ref="U67:X68"/>
-    <mergeCell ref="B82:F83"/>
-    <mergeCell ref="B84:F85"/>
-    <mergeCell ref="T86:W88"/>
-    <mergeCell ref="T90:W91"/>
-    <mergeCell ref="B102:F105"/>
-    <mergeCell ref="B109:F110"/>
-    <mergeCell ref="K98:P99"/>
-    <mergeCell ref="K117:O118"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="I26:M27"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="K5:M7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/日计划.xlsx
+++ b/日计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作记录1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510">
   <si>
     <t>完成</t>
   </si>
@@ -1554,26 +1554,43 @@
   </si>
   <si>
     <t>今天虽然没有4点钟起来，但是也进步了，5点半起床。坚持</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>blbl看了尚硅谷的git团队协作教程。Pull request这些。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看eclipse怎么使用内置的Git进行管理</t>
   </si>
   <si>
     <t>觉得有必要深入学习下java，当做拓展自己，而且java也一直很火。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看eclipse怎么使用内置的Git进行管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wifi样机修复了问题，数组越界，且第一次收发数据响应较慢的调整</t>
+  </si>
+  <si>
+    <t>已经上传SVN</t>
+  </si>
+  <si>
+    <t>与江辉讨论键值的接收处理，已有方案</t>
+  </si>
+  <si>
+    <t>今天原来是程序员节，1024.刚好今天5：30就起床修炼。巧了</t>
+  </si>
+  <si>
+    <t>初步确认键值策略，等待与江辉测试。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1603,13 +1620,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1640,8 +1795,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1818,25 +2153,342 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1849,9 +2501,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1867,8 +2534,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1876,228 +2543,131 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF0000"/>
+      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2109,7 +2679,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -2131,14 +2701,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13801725" y="5886450"/>
+          <a:off x="13820775" y="5886450"/>
           <a:ext cx="8371205" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2436,12 +3006,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B8:M577"/>
   <sheetViews>
     <sheetView topLeftCell="A550" workbookViewId="0">
@@ -2460,545 +3030,545 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:12">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="4:12">
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="41"/>
+      <c r="H9" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-    </row>
-    <row r="10" spans="4:12">
-      <c r="F10" s="26" t="s">
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+    </row>
+    <row r="10" spans="6:12">
+      <c r="F10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="12" t="s">
+      <c r="G10" s="41"/>
+      <c r="H10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-    </row>
-    <row r="11" spans="4:12">
-      <c r="F11" s="26" t="s">
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+    </row>
+    <row r="11" spans="6:12">
+      <c r="F11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="13" t="s">
+      <c r="G11" s="41"/>
+      <c r="H11" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="4:12">
-      <c r="F12" s="63" t="s">
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+    </row>
+    <row r="12" spans="6:12">
+      <c r="F12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="44"/>
+      <c r="H12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-    </row>
-    <row r="13" spans="4:12">
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="3" t="s">
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+    </row>
+    <row r="13" spans="6:12">
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="4:12">
-      <c r="F14" s="27" t="s">
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+    </row>
+    <row r="14" spans="6:12">
+      <c r="F14" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="12" t="s">
+      <c r="G14" s="37"/>
+      <c r="H14" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
-    </row>
-    <row r="15" spans="4:12">
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="11" t="s">
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="42"/>
+    </row>
+    <row r="15" spans="6:12">
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
-    </row>
-    <row r="20" spans="5:11">
-      <c r="F20" s="25" t="s">
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="42"/>
+    </row>
+    <row r="20" spans="6:11">
+      <c r="F20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="8" t="s">
+      <c r="G20" s="45"/>
+      <c r="H20" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="32"/>
-    </row>
-    <row r="21" spans="5:11">
-      <c r="F21" s="26" t="s">
+      <c r="J20" s="3"/>
+      <c r="K20" s="36"/>
+    </row>
+    <row r="21" spans="6:11">
+      <c r="F21" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="8" t="s">
+      <c r="G21" s="46"/>
+      <c r="H21" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="34"/>
-    </row>
-    <row r="22" spans="5:11">
-      <c r="F22" s="25" t="s">
+      <c r="J21" s="41"/>
+      <c r="K21" s="39"/>
+    </row>
+    <row r="22" spans="6:11">
+      <c r="F22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="8" t="s">
+      <c r="G22" s="45"/>
+      <c r="H22" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="34"/>
-    </row>
-    <row r="23" spans="5:11">
-      <c r="F23" s="25" t="s">
+      <c r="J22" s="41"/>
+      <c r="K22" s="39"/>
+    </row>
+    <row r="23" spans="6:11">
+      <c r="F23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="37" t="s">
+      <c r="G23" s="45"/>
+      <c r="H23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="34"/>
-    </row>
-    <row r="24" spans="5:11">
-      <c r="F24" s="35" t="s">
+      <c r="J23" s="41"/>
+      <c r="K23" s="39"/>
+    </row>
+    <row r="24" spans="6:11">
+      <c r="F24" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="26" t="s">
+      <c r="G24" s="48"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="34"/>
-    </row>
-    <row r="28" spans="5:11">
-      <c r="F28" s="25" t="s">
+      <c r="J24" s="41"/>
+      <c r="K24" s="39"/>
+    </row>
+    <row r="28" spans="6:11">
+      <c r="F28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="8" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="5:11">
       <c r="E29" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="9" t="s">
+      <c r="G29" s="41"/>
+      <c r="H29" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="37" t="s">
+      <c r="I29" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-    </row>
-    <row r="30" spans="5:11">
-      <c r="F30" s="25" t="s">
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="6:11">
+      <c r="F30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="9" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="25" t="s">
+      <c r="I30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-    </row>
-    <row r="31" spans="5:11">
-      <c r="F31" s="37" t="s">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="6:8">
+      <c r="F31" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37" t="s">
+      <c r="G31" s="16"/>
+      <c r="H31" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="5:11">
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-    </row>
-    <row r="33" spans="6:11">
-      <c r="F33" s="37" t="s">
+    <row r="32" spans="6:8">
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="10" t="s">
+      <c r="G33" s="16"/>
+      <c r="H33" s="40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="6:11">
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="9" t="s">
+    <row r="34" spans="6:8">
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="6:11">
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-    </row>
-    <row r="36" spans="6:11">
-      <c r="F36" s="38" t="s">
+    <row r="35" spans="6:7">
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="6:7">
+      <c r="F36" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="39"/>
-    </row>
-    <row r="40" spans="6:11">
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="40" spans="6:7">
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
     </row>
     <row r="41" spans="6:11">
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="38"/>
-      <c r="H41" s="8" t="s">
+      <c r="G41" s="18"/>
+      <c r="H41" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="I41" s="38" t="s">
+      <c r="I41" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J41" s="40"/>
-      <c r="K41" s="39"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="20"/>
     </row>
     <row r="42" spans="6:11">
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="38"/>
-      <c r="H42" s="37" t="s">
+      <c r="G42" s="18"/>
+      <c r="H42" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="26" t="s">
+      <c r="I42" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
     </row>
     <row r="43" spans="6:11">
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="38"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="63" t="s">
+      <c r="G43" s="18"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
     </row>
     <row r="44" spans="6:11">
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="38"/>
-      <c r="H44" s="8" t="s">
+      <c r="G44" s="18"/>
+      <c r="H44" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-    </row>
-    <row r="45" spans="6:11">
-      <c r="H45" s="8" t="s">
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+    </row>
+    <row r="45" spans="8:8">
+      <c r="H45" s="36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="6:11">
-      <c r="H46" s="8" t="s">
+    <row r="46" spans="8:8">
+      <c r="H46" s="36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="6:11">
-      <c r="H47" s="37" t="s">
+    <row r="47" spans="8:8">
+      <c r="H47" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="6:11">
-      <c r="H48" s="37"/>
-    </row>
-    <row r="49" spans="6:11">
-      <c r="H49" s="37"/>
-    </row>
-    <row r="50" spans="6:11">
-      <c r="H50" s="37"/>
-    </row>
-    <row r="51" spans="6:11">
-      <c r="H51" s="37"/>
-    </row>
-    <row r="52" spans="6:11">
-      <c r="H52" s="37" t="s">
+    <row r="48" spans="8:8">
+      <c r="H48" s="16"/>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="H52" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="6:11">
-      <c r="H53" s="37"/>
-    </row>
-    <row r="54" spans="6:11">
-      <c r="H54" s="37"/>
+    <row r="53" spans="8:8">
+      <c r="H53" s="16"/>
+    </row>
+    <row r="54" spans="8:8">
+      <c r="H54" s="16"/>
     </row>
     <row r="58" spans="6:11">
-      <c r="F58" s="25" t="s">
+      <c r="F58" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G58" s="25"/>
-      <c r="H58" s="8" t="s">
+      <c r="G58" s="3"/>
+      <c r="H58" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I58" s="25" t="s">
+      <c r="I58" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
     </row>
     <row r="59" spans="6:11">
-      <c r="F59" s="27" t="s">
+      <c r="F59" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="G59" s="41"/>
-      <c r="H59" s="9" t="s">
+      <c r="G59" s="40"/>
+      <c r="H59" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I59" s="25" t="s">
+      <c r="I59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
     </row>
     <row r="60" spans="6:11">
-      <c r="F60" s="27" t="s">
+      <c r="F60" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="41"/>
-      <c r="H60" s="17" t="s">
+      <c r="G60" s="40"/>
+      <c r="H60" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="I60" s="37" t="s">
+      <c r="I60" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
     </row>
     <row r="61" spans="6:11">
-      <c r="F61" s="63" t="s">
+      <c r="F61" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G61" s="63"/>
-      <c r="H61" s="8" t="s">
+      <c r="G61" s="44"/>
+      <c r="H61" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
     </row>
     <row r="62" spans="6:11">
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-    </row>
-    <row r="63" spans="6:11">
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-    </row>
-    <row r="67" spans="3:11">
-      <c r="F67" s="37" t="s">
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+    </row>
+    <row r="63" spans="9:11">
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+    </row>
+    <row r="67" spans="6:11">
+      <c r="F67" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="42"/>
-      <c r="H67" s="15" t="s">
+      <c r="G67" s="52"/>
+      <c r="H67" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="I67" s="25" t="s">
+      <c r="I67" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
     </row>
     <row r="68" spans="3:11">
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="26" t="s">
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="34"/>
-      <c r="H68" s="15" t="s">
+      <c r="G68" s="39"/>
+      <c r="H68" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="I68" s="25" t="s">
+      <c r="I68" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-    </row>
-    <row r="69" spans="3:11">
-      <c r="F69" s="26" t="s">
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="6:11">
+      <c r="F69" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="G69" s="34"/>
-      <c r="H69" s="15" t="s">
+      <c r="G69" s="39"/>
+      <c r="H69" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="I69" s="26" t="s">
+      <c r="I69" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-    </row>
-    <row r="70" spans="3:11">
-      <c r="F70" s="37" t="s">
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
+    </row>
+    <row r="70" spans="6:11">
+      <c r="F70" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G70" s="37"/>
-      <c r="H70" s="59" t="s">
+      <c r="G70" s="16"/>
+      <c r="H70" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="I70" s="63" t="s">
+      <c r="I70" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="J70" s="63"/>
-      <c r="K70" s="63"/>
-    </row>
-    <row r="71" spans="3:11">
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="63"/>
-      <c r="J71" s="63"/>
-      <c r="K71" s="63"/>
-    </row>
-    <row r="72" spans="3:11">
-      <c r="F72" s="63" t="s">
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
+    </row>
+    <row r="71" spans="6:11">
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+    </row>
+    <row r="72" spans="6:11">
+      <c r="F72" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="G72" s="63"/>
-      <c r="H72" s="16" t="s">
+      <c r="G72" s="44"/>
+      <c r="H72" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I72" s="63" t="s">
+      <c r="I72" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="J72" s="63"/>
-      <c r="K72" s="63"/>
-    </row>
-    <row r="73" spans="3:11">
-      <c r="F73" s="63"/>
-      <c r="G73" s="63"/>
-      <c r="I73" s="63"/>
-      <c r="J73" s="63"/>
-      <c r="K73" s="63"/>
-    </row>
-    <row r="74" spans="3:11">
-      <c r="F74" s="37" t="s">
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+    </row>
+    <row r="73" spans="6:11">
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+    </row>
+    <row r="74" spans="6:11">
+      <c r="F74" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="G74" s="37"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="63"/>
-      <c r="K74" s="63"/>
-    </row>
-    <row r="75" spans="3:11">
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
-    </row>
-    <row r="78" spans="3:11">
+      <c r="G74" s="16"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+    </row>
+    <row r="75" spans="6:11">
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
+    </row>
+    <row r="78" spans="7:10">
       <c r="G78" t="s">
         <v>91</v>
       </c>
@@ -3009,182 +3579,178 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="3:11">
-      <c r="F79" s="43" t="s">
+    <row r="79" spans="6:11">
+      <c r="F79" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="G79" s="44"/>
-      <c r="H79" s="55" t="s">
+      <c r="H79" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I79" s="43" t="s">
+      <c r="I79" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="J79" s="43"/>
-      <c r="K79" s="43"/>
-    </row>
-    <row r="80" spans="3:11">
-      <c r="H80" s="55"/>
-      <c r="I80" s="43" t="s">
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+    </row>
+    <row r="80" spans="8:11">
+      <c r="H80" s="10"/>
+      <c r="I80" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="J80" s="43"/>
-      <c r="K80" s="43"/>
-    </row>
-    <row r="81" spans="3:10">
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+    </row>
+    <row r="81" spans="10:10">
       <c r="J81" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="3:10">
-      <c r="F86" s="8"/>
-      <c r="G86" s="8" t="s">
+    <row r="86" spans="6:8">
+      <c r="F86" s="36"/>
+      <c r="G86" s="36" t="s">
         <v>99</v>
       </c>
       <c r="H86" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="3:10">
-      <c r="C87" s="60" t="s">
+    <row r="87" spans="3:8">
+      <c r="C87" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="D87" s="60"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="63" t="s">
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="G87" s="63"/>
+      <c r="G87" s="44"/>
       <c r="H87" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="3:10">
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="63"/>
+    <row r="88" spans="3:8">
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
       <c r="H88" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="3:10">
-      <c r="F89" s="8"/>
-      <c r="G89" s="8" t="s">
+    <row r="89" spans="6:7">
+      <c r="F89" s="36"/>
+      <c r="G89" s="36" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="3:10">
-      <c r="F90" s="8"/>
-      <c r="G90" s="8" t="s">
+    <row r="90" spans="6:7">
+      <c r="F90" s="36"/>
+      <c r="G90" s="36" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="3:10">
-      <c r="F91" s="8"/>
-      <c r="G91" s="8" t="s">
+    <row r="91" spans="6:7">
+      <c r="F91" s="36"/>
+      <c r="G91" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="3:10">
-      <c r="F96" s="43" t="s">
+    <row r="96" spans="6:9">
+      <c r="F96" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="G96" s="44"/>
-      <c r="H96" s="38">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I96" s="39"/>
-    </row>
-    <row r="97" spans="6:10">
-      <c r="F97" s="43" t="s">
+      <c r="H96" s="18">
+        <v>2.24</v>
+      </c>
+      <c r="I96" s="20"/>
+    </row>
+    <row r="97" spans="6:9">
+      <c r="F97" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="G97" s="44"/>
-      <c r="H97" s="25" t="s">
+      <c r="H97" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I97" s="25"/>
-    </row>
-    <row r="98" spans="6:10">
-      <c r="H98" s="37" t="s">
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="8:9">
+      <c r="H98" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="I98" s="37"/>
-    </row>
-    <row r="99" spans="6:10">
-      <c r="H99" s="37"/>
-      <c r="I99" s="37"/>
-    </row>
-    <row r="100" spans="6:10">
-      <c r="H100" s="37" t="s">
+      <c r="I98" s="16"/>
+    </row>
+    <row r="99" spans="8:9">
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+    </row>
+    <row r="100" spans="8:9">
+      <c r="H100" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="I100" s="37"/>
-    </row>
-    <row r="101" spans="6:10">
-      <c r="H101" s="37"/>
-      <c r="I101" s="37"/>
-    </row>
-    <row r="102" spans="6:10">
-      <c r="H102" s="37"/>
-      <c r="I102" s="37"/>
-    </row>
-    <row r="103" spans="6:10">
-      <c r="H103" s="37" t="s">
+      <c r="I100" s="16"/>
+    </row>
+    <row r="101" spans="8:9">
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+    </row>
+    <row r="102" spans="8:9">
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+    </row>
+    <row r="103" spans="8:9">
+      <c r="H103" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I103" s="37"/>
-    </row>
-    <row r="104" spans="6:10">
-      <c r="H104" s="37"/>
-      <c r="I104" s="37"/>
-    </row>
-    <row r="108" spans="6:10">
+      <c r="I103" s="16"/>
+    </row>
+    <row r="104" spans="8:9">
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+    </row>
+    <row r="108" spans="7:10">
       <c r="G108">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="H108">
         <v>2.27</v>
       </c>
-      <c r="I108" s="25">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="J108" s="25"/>
-    </row>
-    <row r="109" spans="6:10">
+      <c r="I108" s="3">
+        <v>2.28</v>
+      </c>
+      <c r="J108" s="3"/>
+    </row>
+    <row r="109" spans="7:10">
       <c r="G109" t="s">
         <v>113</v>
       </c>
       <c r="H109" t="s">
         <v>114</v>
       </c>
-      <c r="I109" s="25" t="s">
+      <c r="I109" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J109" s="25"/>
-    </row>
-    <row r="110" spans="6:10">
+      <c r="J109" s="3"/>
+    </row>
+    <row r="110" spans="8:10">
       <c r="H110" t="s">
         <v>113</v>
       </c>
-      <c r="I110" s="25" t="s">
+      <c r="I110" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J110" s="25"/>
-    </row>
-    <row r="113" spans="7:10">
+      <c r="J110" s="3"/>
+    </row>
+    <row r="113" spans="7:9">
       <c r="G113">
         <v>3.1</v>
       </c>
       <c r="H113">
         <v>3.2</v>
       </c>
-      <c r="I113" s="43">
+      <c r="I113" s="38">
         <v>3.3</v>
       </c>
-      <c r="J113" s="44"/>
     </row>
     <row r="114" spans="7:10">
       <c r="G114" t="s">
@@ -3193,10 +3759,10 @@
       <c r="H114" t="s">
         <v>115</v>
       </c>
-      <c r="I114" s="43" t="s">
+      <c r="I114" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="J114" s="43"/>
+      <c r="J114" s="38"/>
     </row>
     <row r="115" spans="7:10">
       <c r="G115" t="s">
@@ -3205,20 +3771,19 @@
       <c r="H115" t="s">
         <v>116</v>
       </c>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
-    </row>
-    <row r="119" spans="7:10">
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
+    </row>
+    <row r="119" spans="7:9">
       <c r="G119">
         <v>3.5</v>
       </c>
       <c r="H119">
         <v>3.6</v>
       </c>
-      <c r="I119" s="43">
+      <c r="I119" s="38">
         <v>3.7</v>
       </c>
-      <c r="J119" s="44"/>
     </row>
     <row r="120" spans="7:10">
       <c r="G120" t="s">
@@ -3227,12 +3792,12 @@
       <c r="H120" t="s">
         <v>118</v>
       </c>
-      <c r="I120" s="43" t="s">
+      <c r="I120" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="J120" s="43"/>
-    </row>
-    <row r="121" spans="7:10">
+      <c r="J120" s="38"/>
+    </row>
+    <row r="121" spans="8:9">
       <c r="H121" t="s">
         <v>120</v>
       </c>
@@ -3240,7 +3805,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="7:10">
+    <row r="122" spans="9:9">
       <c r="I122" t="s">
         <v>122</v>
       </c>
@@ -3252,37 +3817,35 @@
       <c r="H127">
         <v>3.13</v>
       </c>
-      <c r="I127" s="43">
+      <c r="I127" s="38">
         <v>3.14</v>
       </c>
-      <c r="J127" s="43"/>
-    </row>
-    <row r="128" spans="7:10">
-      <c r="G128" s="55" t="s">
+      <c r="J127" s="38"/>
+    </row>
+    <row r="128" spans="7:9">
+      <c r="G128" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H128" s="55" t="s">
+      <c r="H128" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="I128" s="43" t="s">
+      <c r="I128" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="J128" s="44"/>
-    </row>
-    <row r="129" spans="7:10">
-      <c r="G129" s="55"/>
-      <c r="H129" s="55"/>
-      <c r="I129" s="43" t="s">
+    </row>
+    <row r="129" spans="7:9">
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="J129" s="44"/>
-    </row>
-    <row r="130" spans="7:10">
+    </row>
+    <row r="130" spans="7:7">
       <c r="G130" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="135" spans="7:10">
+    <row r="135" spans="7:8">
       <c r="G135">
         <v>3.21</v>
       </c>
@@ -3290,7 +3853,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="136" spans="7:10">
+    <row r="136" spans="7:8">
       <c r="G136" t="s">
         <v>128</v>
       </c>
@@ -3299,10 +3862,10 @@
       </c>
     </row>
     <row r="140" spans="7:10">
-      <c r="G140" s="8">
+      <c r="G140" s="36">
         <v>3.26</v>
       </c>
-      <c r="H140" s="8">
+      <c r="H140" s="36">
         <v>3.27</v>
       </c>
       <c r="J140">
@@ -3310,10 +3873,10 @@
       </c>
     </row>
     <row r="141" spans="7:10">
-      <c r="G141" s="37" t="s">
+      <c r="G141" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="H141" s="8" t="s">
+      <c r="H141" s="36" t="s">
         <v>131</v>
       </c>
       <c r="J141" t="s">
@@ -3321,344 +3884,344 @@
       </c>
     </row>
     <row r="142" spans="7:10">
-      <c r="G142" s="37"/>
-      <c r="H142" s="8" t="s">
+      <c r="G142" s="16"/>
+      <c r="H142" s="36" t="s">
         <v>133</v>
       </c>
       <c r="J142" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="7:10">
-      <c r="G143" s="1" t="s">
+    <row r="143" spans="7:8">
+      <c r="G143" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H143" s="8" t="s">
+      <c r="H143" s="36" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="144" spans="7:10">
-      <c r="G144" s="37" t="s">
+    <row r="144" spans="7:8">
+      <c r="G144" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H144" s="8" t="s">
+      <c r="H144" s="36" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="145" spans="3:10">
-      <c r="G145" s="37"/>
-    </row>
-    <row r="146" spans="3:10">
-      <c r="G146" s="37"/>
-    </row>
-    <row r="149" spans="3:10">
-      <c r="G149" s="4">
+    <row r="145" spans="7:7">
+      <c r="G145" s="16"/>
+    </row>
+    <row r="146" spans="7:7">
+      <c r="G146" s="16"/>
+    </row>
+    <row r="149" spans="7:10">
+      <c r="G149" s="29">
         <v>43188</v>
       </c>
-      <c r="H149" s="4">
+      <c r="H149" s="29">
         <v>43189</v>
       </c>
-      <c r="J149" s="20">
+      <c r="J149" s="57">
         <v>43190</v>
       </c>
     </row>
     <row r="150" spans="3:10">
-      <c r="C150" s="61" t="s">
+      <c r="C150" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="D150" s="61"/>
-      <c r="E150" s="61"/>
-      <c r="F150" s="61"/>
-      <c r="G150" s="37" t="s">
+      <c r="D150" s="55"/>
+      <c r="E150" s="55"/>
+      <c r="F150" s="55"/>
+      <c r="G150" s="16" t="s">
         <v>140</v>
       </c>
       <c r="H150" t="s">
         <v>141</v>
       </c>
-      <c r="J150" s="8" t="s">
+      <c r="J150" s="36" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="151" spans="3:10">
-      <c r="C151" s="61"/>
-      <c r="D151" s="61"/>
-      <c r="E151" s="61"/>
-      <c r="F151" s="61"/>
-      <c r="G151" s="37"/>
+      <c r="C151" s="55"/>
+      <c r="D151" s="55"/>
+      <c r="E151" s="55"/>
+      <c r="F151" s="55"/>
+      <c r="G151" s="16"/>
       <c r="H151" t="s">
         <v>142</v>
       </c>
-      <c r="J151" s="37" t="s">
+      <c r="J151" s="16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="152" spans="3:10">
-      <c r="C152" s="61"/>
-      <c r="D152" s="61"/>
-      <c r="E152" s="61"/>
-      <c r="F152" s="61"/>
-      <c r="G152" s="37"/>
-      <c r="J152" s="37"/>
-    </row>
-    <row r="153" spans="3:10">
-      <c r="G153" s="37" t="s">
+      <c r="C152" s="55"/>
+      <c r="D152" s="55"/>
+      <c r="E152" s="55"/>
+      <c r="F152" s="55"/>
+      <c r="G152" s="16"/>
+      <c r="J152" s="16"/>
+    </row>
+    <row r="153" spans="7:10">
+      <c r="G153" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="J153" s="37" t="s">
+      <c r="J153" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="3:10">
-      <c r="G154" s="37"/>
-      <c r="J154" s="37"/>
-    </row>
-    <row r="155" spans="3:10">
-      <c r="G155" s="37"/>
-      <c r="J155" s="37"/>
-    </row>
-    <row r="156" spans="3:10">
-      <c r="G156" s="37"/>
-      <c r="J156" s="37"/>
-    </row>
-    <row r="157" spans="3:10">
-      <c r="G157" s="37" t="s">
+    <row r="154" spans="7:10">
+      <c r="G154" s="16"/>
+      <c r="J154" s="16"/>
+    </row>
+    <row r="155" spans="7:10">
+      <c r="G155" s="16"/>
+      <c r="J155" s="16"/>
+    </row>
+    <row r="156" spans="7:10">
+      <c r="G156" s="16"/>
+      <c r="J156" s="16"/>
+    </row>
+    <row r="157" spans="7:10">
+      <c r="G157" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="J157" s="37"/>
-    </row>
-    <row r="158" spans="3:10">
-      <c r="G158" s="37"/>
-      <c r="J158" s="37"/>
-    </row>
-    <row r="159" spans="3:10">
-      <c r="G159" s="37"/>
-      <c r="J159" s="37"/>
-    </row>
-    <row r="160" spans="3:10">
-      <c r="G160" s="37"/>
-      <c r="J160" s="37" t="s">
+      <c r="J157" s="16"/>
+    </row>
+    <row r="158" spans="7:10">
+      <c r="G158" s="16"/>
+      <c r="J158" s="16"/>
+    </row>
+    <row r="159" spans="7:10">
+      <c r="G159" s="16"/>
+      <c r="J159" s="16"/>
+    </row>
+    <row r="160" spans="7:10">
+      <c r="G160" s="16"/>
+      <c r="J160" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="2:10">
-      <c r="G161" s="37" t="s">
+    <row r="161" spans="7:10">
+      <c r="G161" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="J161" s="37"/>
-    </row>
-    <row r="162" spans="2:10">
-      <c r="G162" s="37"/>
-      <c r="J162" s="37"/>
-    </row>
-    <row r="163" spans="2:10">
-      <c r="G163" s="37"/>
-    </row>
-    <row r="166" spans="2:10">
-      <c r="G166" s="19">
+      <c r="J161" s="16"/>
+    </row>
+    <row r="162" spans="7:10">
+      <c r="G162" s="16"/>
+      <c r="J162" s="16"/>
+    </row>
+    <row r="163" spans="7:7">
+      <c r="G163" s="16"/>
+    </row>
+    <row r="166" spans="7:10">
+      <c r="G166" s="56">
         <v>43192</v>
       </c>
-      <c r="H166" s="20">
+      <c r="H166" s="57">
         <v>43193</v>
       </c>
-      <c r="I166" s="45">
+      <c r="I166" s="17">
         <v>43194</v>
       </c>
-      <c r="J166" s="46"/>
-    </row>
-    <row r="167" spans="2:10">
-      <c r="G167" s="15" t="s">
+      <c r="J166" s="57"/>
+    </row>
+    <row r="167" spans="7:10">
+      <c r="G167" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="H167" s="8" t="s">
+      <c r="H167" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="I167" s="37" t="s">
+      <c r="I167" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="J167" s="37"/>
-    </row>
-    <row r="168" spans="2:10">
-      <c r="G168" s="56" t="s">
+      <c r="J167" s="16"/>
+    </row>
+    <row r="168" spans="7:10">
+      <c r="G168" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="H168" s="8" t="s">
+      <c r="H168" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="I168" s="37"/>
-      <c r="J168" s="37"/>
-    </row>
-    <row r="169" spans="2:10">
-      <c r="G169" s="56"/>
-      <c r="H169" s="37" t="s">
+      <c r="I168" s="16"/>
+      <c r="J168" s="16"/>
+    </row>
+    <row r="169" spans="7:10">
+      <c r="G169" s="58"/>
+      <c r="H169" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="I169" s="37"/>
-      <c r="J169" s="37"/>
-    </row>
-    <row r="170" spans="2:10">
-      <c r="H170" s="37"/>
-      <c r="I170" s="25" t="s">
+      <c r="I169" s="16"/>
+      <c r="J169" s="16"/>
+    </row>
+    <row r="170" spans="8:10">
+      <c r="H170" s="16"/>
+      <c r="I170" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J170" s="32"/>
-    </row>
-    <row r="175" spans="2:10">
-      <c r="G175" s="4">
+      <c r="J170" s="36"/>
+    </row>
+    <row r="175" spans="7:7">
+      <c r="G175" s="29">
         <v>43199</v>
       </c>
     </row>
-    <row r="176" spans="2:10">
-      <c r="B176" s="25" t="s">
+    <row r="176" spans="2:7">
+      <c r="B176" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C176" s="25"/>
-      <c r="D176" s="25"/>
-      <c r="E176" s="25"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
       <c r="G176" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="177" spans="2:10">
-      <c r="B177" s="25" t="s">
+    <row r="177" spans="2:5">
+      <c r="B177" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C177" s="25"/>
-      <c r="D177" s="25"/>
-      <c r="E177" s="25"/>
-    </row>
-    <row r="178" spans="2:10">
-      <c r="B178" s="62" t="s">
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C178" s="62"/>
-      <c r="D178" s="62"/>
-      <c r="E178" s="62"/>
-    </row>
-    <row r="179" spans="2:10">
-      <c r="B179" s="62"/>
-      <c r="C179" s="62"/>
-      <c r="D179" s="62"/>
-      <c r="E179" s="62"/>
-    </row>
-    <row r="180" spans="2:10">
-      <c r="B180" s="62"/>
-      <c r="C180" s="62"/>
-      <c r="D180" s="62"/>
-      <c r="E180" s="62"/>
-    </row>
-    <row r="181" spans="2:10">
-      <c r="B181" s="62"/>
-      <c r="C181" s="62"/>
-      <c r="D181" s="62"/>
-      <c r="E181" s="62"/>
+      <c r="C178" s="33"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="33"/>
+    </row>
+    <row r="179" spans="2:5">
+      <c r="B179" s="33"/>
+      <c r="C179" s="33"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="33"/>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="B180" s="33"/>
+      <c r="C180" s="33"/>
+      <c r="D180" s="33"/>
+      <c r="E180" s="33"/>
+    </row>
+    <row r="181" spans="2:5">
+      <c r="B181" s="33"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
     </row>
     <row r="182" spans="2:10">
-      <c r="B182" s="62"/>
-      <c r="C182" s="62"/>
-      <c r="D182" s="62"/>
-      <c r="E182" s="62"/>
-      <c r="G182" s="4">
+      <c r="B182" s="33"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="33"/>
+      <c r="E182" s="33"/>
+      <c r="G182" s="29">
         <v>43211</v>
       </c>
-      <c r="H182" s="20">
+      <c r="H182" s="57">
         <v>43215</v>
       </c>
-      <c r="I182" s="45">
+      <c r="I182" s="17">
         <v>43216</v>
       </c>
-      <c r="J182" s="46"/>
+      <c r="J182" s="57"/>
     </row>
     <row r="183" spans="2:10">
-      <c r="B183" s="62"/>
-      <c r="C183" s="62"/>
-      <c r="D183" s="62"/>
-      <c r="E183" s="62"/>
+      <c r="B183" s="33"/>
+      <c r="C183" s="33"/>
+      <c r="D183" s="33"/>
+      <c r="E183" s="33"/>
       <c r="G183" t="s">
         <v>160</v>
       </c>
-      <c r="H183" s="37" t="s">
+      <c r="H183" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="I183" s="37" t="s">
+      <c r="I183" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="J183" s="37"/>
+      <c r="J183" s="16"/>
     </row>
     <row r="184" spans="2:10">
-      <c r="B184" s="62"/>
-      <c r="C184" s="62"/>
-      <c r="D184" s="62"/>
-      <c r="E184" s="62"/>
-      <c r="H184" s="37"/>
-      <c r="I184" s="37"/>
-      <c r="J184" s="37"/>
-    </row>
-    <row r="185" spans="2:10">
-      <c r="H185" s="37"/>
-      <c r="I185" s="55" t="s">
+      <c r="B184" s="33"/>
+      <c r="C184" s="33"/>
+      <c r="D184" s="33"/>
+      <c r="E184" s="33"/>
+      <c r="H184" s="16"/>
+      <c r="I184" s="16"/>
+      <c r="J184" s="16"/>
+    </row>
+    <row r="185" spans="8:10">
+      <c r="H185" s="16"/>
+      <c r="I185" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="J185" s="55"/>
-    </row>
-    <row r="186" spans="2:10">
-      <c r="H186" s="37"/>
-      <c r="I186" s="55"/>
-      <c r="J186" s="55"/>
-    </row>
-    <row r="187" spans="2:10">
-      <c r="I187" s="55"/>
-      <c r="J187" s="55"/>
-    </row>
-    <row r="188" spans="2:10">
-      <c r="I188" s="55"/>
-      <c r="J188" s="55"/>
-    </row>
-    <row r="191" spans="2:10">
-      <c r="G191" s="4">
+      <c r="J185" s="10"/>
+    </row>
+    <row r="186" spans="8:10">
+      <c r="H186" s="16"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="10"/>
+    </row>
+    <row r="187" spans="9:10">
+      <c r="I187" s="10"/>
+      <c r="J187" s="10"/>
+    </row>
+    <row r="188" spans="9:10">
+      <c r="I188" s="10"/>
+      <c r="J188" s="10"/>
+    </row>
+    <row r="191" spans="7:8">
+      <c r="G191" s="29">
         <v>43217</v>
       </c>
-      <c r="H191" s="20">
+      <c r="H191" s="57">
         <v>43218</v>
       </c>
     </row>
-    <row r="192" spans="2:10">
-      <c r="G192" s="55" t="s">
+    <row r="192" spans="7:8">
+      <c r="G192" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="H192" s="37" t="s">
+      <c r="H192" s="16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="193" spans="7:10">
-      <c r="G193" s="55"/>
-      <c r="H193" s="37"/>
-    </row>
-    <row r="194" spans="7:10">
-      <c r="G194" s="55"/>
-      <c r="H194" s="37"/>
-    </row>
-    <row r="195" spans="7:10">
-      <c r="G195" s="55"/>
-      <c r="H195" s="37"/>
-    </row>
-    <row r="196" spans="7:10">
-      <c r="G196" s="55"/>
-      <c r="H196" s="37"/>
-    </row>
-    <row r="197" spans="7:10">
-      <c r="H197" s="37"/>
-    </row>
-    <row r="198" spans="7:10">
-      <c r="H198" s="37"/>
+    <row r="193" spans="7:8">
+      <c r="G193" s="10"/>
+      <c r="H193" s="16"/>
+    </row>
+    <row r="194" spans="7:8">
+      <c r="G194" s="10"/>
+      <c r="H194" s="16"/>
+    </row>
+    <row r="195" spans="7:8">
+      <c r="G195" s="10"/>
+      <c r="H195" s="16"/>
+    </row>
+    <row r="196" spans="7:8">
+      <c r="G196" s="10"/>
+      <c r="H196" s="16"/>
+    </row>
+    <row r="197" spans="8:8">
+      <c r="H197" s="16"/>
+    </row>
+    <row r="198" spans="8:8">
+      <c r="H198" s="16"/>
     </row>
     <row r="202" spans="7:10">
-      <c r="G202" s="4">
+      <c r="G202" s="29">
         <v>43223</v>
       </c>
-      <c r="H202" s="4">
+      <c r="H202" s="29">
         <v>43225</v>
       </c>
-      <c r="J202" s="4">
+      <c r="J202" s="29">
         <v>43227</v>
       </c>
     </row>
@@ -3669,152 +4232,152 @@
       <c r="H203" t="s">
         <v>167</v>
       </c>
-      <c r="I203" s="55" t="s">
+      <c r="I203" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="J203" s="55"/>
+      <c r="J203" s="10"/>
     </row>
     <row r="204" spans="7:10">
       <c r="G204" t="s">
         <v>169</v>
       </c>
-      <c r="I204" s="55"/>
-      <c r="J204" s="55"/>
-    </row>
-    <row r="205" spans="7:10">
+      <c r="I204" s="10"/>
+      <c r="J204" s="10"/>
+    </row>
+    <row r="205" spans="10:10">
       <c r="J205" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="208" spans="7:10">
-      <c r="J208" s="4"/>
-    </row>
-    <row r="209" spans="7:10">
-      <c r="G209" s="20">
+    <row r="208" spans="10:10">
+      <c r="J208" s="29"/>
+    </row>
+    <row r="209" spans="7:8">
+      <c r="G209" s="57">
         <v>43231</v>
       </c>
-      <c r="H209" s="4">
+      <c r="H209" s="29">
         <v>43234</v>
       </c>
     </row>
-    <row r="210" spans="7:10">
-      <c r="G210" s="37" t="s">
+    <row r="210" spans="7:8">
+      <c r="G210" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="H210" s="55" t="s">
+      <c r="H210" s="10" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="211" spans="7:10">
-      <c r="G211" s="37"/>
-      <c r="H211" s="55"/>
-    </row>
-    <row r="212" spans="7:10">
-      <c r="G212" s="37"/>
-    </row>
-    <row r="213" spans="7:10">
-      <c r="G213" s="8" t="s">
+    <row r="211" spans="7:8">
+      <c r="G211" s="16"/>
+      <c r="H211" s="10"/>
+    </row>
+    <row r="212" spans="7:7">
+      <c r="G212" s="16"/>
+    </row>
+    <row r="213" spans="7:7">
+      <c r="G213" s="36" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="214" spans="7:10">
-      <c r="G214" s="37" t="s">
+    <row r="214" spans="7:7">
+      <c r="G214" s="16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="215" spans="7:10">
-      <c r="G215" s="42"/>
+    <row r="215" spans="7:7">
+      <c r="G215" s="52"/>
     </row>
     <row r="220" spans="7:10">
-      <c r="G220" s="21">
+      <c r="G220" s="59">
         <v>43236</v>
       </c>
-      <c r="H220" s="21">
+      <c r="H220" s="59">
         <v>43238</v>
       </c>
-      <c r="I220" s="45">
+      <c r="I220" s="17">
         <v>43239</v>
       </c>
-      <c r="J220" s="46"/>
+      <c r="J220" s="57"/>
     </row>
     <row r="221" spans="7:10">
-      <c r="G221" s="25" t="s">
+      <c r="G221" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H221" s="25"/>
-      <c r="I221" s="64" t="s">
+      <c r="H221" s="3"/>
+      <c r="I221" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="J221" s="37"/>
+      <c r="J221" s="16"/>
     </row>
     <row r="222" spans="7:10">
-      <c r="G222" s="37" t="s">
+      <c r="G222" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="H222" s="37"/>
-      <c r="I222" s="64"/>
-      <c r="J222" s="37"/>
+      <c r="H222" s="16"/>
+      <c r="I222" s="60"/>
+      <c r="J222" s="16"/>
     </row>
     <row r="223" spans="7:10">
-      <c r="G223" s="37"/>
-      <c r="H223" s="37"/>
-      <c r="I223" s="39" t="s">
+      <c r="G223" s="16"/>
+      <c r="H223" s="16"/>
+      <c r="I223" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="J223" s="32"/>
-    </row>
-    <row r="224" spans="7:10">
-      <c r="G224" s="25" t="s">
+      <c r="J223" s="36"/>
+    </row>
+    <row r="224" spans="7:8">
+      <c r="G224" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H224" s="25"/>
+      <c r="H224" s="3"/>
     </row>
     <row r="229" spans="7:10">
-      <c r="G229" s="4">
+      <c r="G229" s="29">
         <v>43241</v>
       </c>
-      <c r="H229" s="4">
+      <c r="H229" s="29">
         <v>43243</v>
       </c>
-      <c r="I229" s="45">
+      <c r="I229" s="17">
         <v>43244</v>
       </c>
-      <c r="J229" s="46"/>
+      <c r="J229" s="57"/>
     </row>
     <row r="230" spans="7:10">
-      <c r="G230" s="55" t="s">
+      <c r="G230" s="10" t="s">
         <v>180</v>
       </c>
       <c r="H230" t="s">
         <v>181</v>
       </c>
-      <c r="I230" s="37" t="s">
+      <c r="I230" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="J230" s="37"/>
+      <c r="J230" s="16"/>
     </row>
     <row r="231" spans="7:10">
-      <c r="G231" s="55"/>
+      <c r="G231" s="10"/>
       <c r="H231" t="s">
         <v>183</v>
       </c>
-      <c r="I231" s="37"/>
-      <c r="J231" s="37"/>
+      <c r="I231" s="16"/>
+      <c r="J231" s="16"/>
     </row>
     <row r="232" spans="7:10">
-      <c r="G232" s="55"/>
-      <c r="I232" s="25" t="s">
+      <c r="G232" s="10"/>
+      <c r="I232" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J232" s="32"/>
-    </row>
-    <row r="233" spans="7:10">
+      <c r="J232" s="36"/>
+    </row>
+    <row r="233" spans="9:9">
       <c r="I233" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="238" spans="7:10">
-      <c r="G238" s="4">
+    <row r="238" spans="7:7">
+      <c r="G238" s="29">
         <v>43245</v>
       </c>
     </row>
@@ -3822,77 +4385,77 @@
       <c r="G239" t="s">
         <v>186</v>
       </c>
-      <c r="I239" s="45">
+      <c r="I239" s="17">
         <v>43248</v>
       </c>
-      <c r="J239" s="46"/>
+      <c r="J239" s="57"/>
     </row>
     <row r="240" spans="7:10">
-      <c r="G240" s="55" t="s">
+      <c r="G240" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="I240" s="25" t="s">
+      <c r="I240" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J240" s="32"/>
+      <c r="J240" s="36"/>
     </row>
     <row r="241" spans="7:10">
-      <c r="G241" s="55"/>
-      <c r="I241" s="37" t="s">
+      <c r="G241" s="10"/>
+      <c r="I241" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="J241" s="37"/>
+      <c r="J241" s="16"/>
     </row>
     <row r="242" spans="7:10">
-      <c r="G242" s="55"/>
-      <c r="I242" s="37"/>
-      <c r="J242" s="37"/>
+      <c r="G242" s="10"/>
+      <c r="I242" s="16"/>
+      <c r="J242" s="16"/>
     </row>
     <row r="243" spans="7:10">
-      <c r="G243" s="55"/>
-      <c r="I243" s="37" t="s">
+      <c r="G243" s="10"/>
+      <c r="I243" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="J243" s="37"/>
+      <c r="J243" s="16"/>
     </row>
     <row r="244" spans="7:10">
-      <c r="G244" s="55"/>
-      <c r="I244" s="37"/>
-      <c r="J244" s="37"/>
-    </row>
-    <row r="245" spans="7:10">
-      <c r="I245" s="37"/>
-      <c r="J245" s="37"/>
-    </row>
-    <row r="246" spans="7:10">
-      <c r="I246" s="37"/>
-      <c r="J246" s="37"/>
-    </row>
-    <row r="247" spans="7:10">
-      <c r="I247" s="37"/>
-      <c r="J247" s="37"/>
-    </row>
-    <row r="248" spans="7:10">
-      <c r="I248" s="37"/>
-      <c r="J248" s="37"/>
-    </row>
-    <row r="249" spans="7:10">
-      <c r="I249" s="37"/>
-      <c r="J249" s="37"/>
-    </row>
-    <row r="250" spans="7:10">
-      <c r="I250" s="37"/>
-      <c r="J250" s="37"/>
-    </row>
-    <row r="254" spans="7:10">
-      <c r="G254" s="4">
+      <c r="G244" s="10"/>
+      <c r="I244" s="16"/>
+      <c r="J244" s="16"/>
+    </row>
+    <row r="245" spans="9:10">
+      <c r="I245" s="16"/>
+      <c r="J245" s="16"/>
+    </row>
+    <row r="246" spans="9:10">
+      <c r="I246" s="16"/>
+      <c r="J246" s="16"/>
+    </row>
+    <row r="247" spans="9:10">
+      <c r="I247" s="16"/>
+      <c r="J247" s="16"/>
+    </row>
+    <row r="248" spans="9:10">
+      <c r="I248" s="16"/>
+      <c r="J248" s="16"/>
+    </row>
+    <row r="249" spans="9:10">
+      <c r="I249" s="16"/>
+      <c r="J249" s="16"/>
+    </row>
+    <row r="250" spans="9:10">
+      <c r="I250" s="16"/>
+      <c r="J250" s="16"/>
+    </row>
+    <row r="254" spans="7:8">
+      <c r="G254" s="29">
         <v>43249</v>
       </c>
-      <c r="H254" s="4">
+      <c r="H254" s="29">
         <v>43250</v>
       </c>
     </row>
-    <row r="255" spans="7:10">
+    <row r="255" spans="7:8">
       <c r="G255" t="s">
         <v>191</v>
       </c>
@@ -3900,254 +4463,254 @@
         <v>192</v>
       </c>
     </row>
-    <row r="256" spans="7:10">
-      <c r="G256" s="55" t="s">
+    <row r="256" spans="7:8">
+      <c r="G256" s="10" t="s">
         <v>193</v>
       </c>
       <c r="H256" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="257" spans="7:10">
-      <c r="G257" s="55"/>
+    <row r="257" spans="7:7">
+      <c r="G257" s="10"/>
     </row>
     <row r="264" spans="7:10">
-      <c r="G264" s="2">
+      <c r="G264" s="17">
         <v>43252</v>
       </c>
-      <c r="H264" s="20">
+      <c r="H264" s="57">
         <v>43253</v>
       </c>
-      <c r="I264" s="45">
+      <c r="I264" s="17">
         <v>43255</v>
       </c>
-      <c r="J264" s="46"/>
+      <c r="J264" s="57"/>
     </row>
     <row r="265" spans="7:10">
-      <c r="G265" s="1" t="s">
+      <c r="G265" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H265" s="37" t="s">
+      <c r="H265" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="I265" s="37" t="s">
+      <c r="I265" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="J265" s="37"/>
+      <c r="J265" s="16"/>
     </row>
     <row r="266" spans="7:10">
-      <c r="G266" s="37" t="s">
+      <c r="G266" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="H266" s="37"/>
-      <c r="I266" s="37"/>
-      <c r="J266" s="37"/>
+      <c r="H266" s="16"/>
+      <c r="I266" s="16"/>
+      <c r="J266" s="16"/>
     </row>
     <row r="267" spans="7:10">
-      <c r="G267" s="37"/>
-      <c r="H267" s="8" t="s">
+      <c r="G267" s="16"/>
+      <c r="H267" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="I267" s="37"/>
-      <c r="J267" s="37"/>
+      <c r="I267" s="16"/>
+      <c r="J267" s="16"/>
     </row>
     <row r="268" spans="7:10">
-      <c r="G268" s="37"/>
-      <c r="I268" s="37"/>
-      <c r="J268" s="37"/>
+      <c r="G268" s="16"/>
+      <c r="I268" s="16"/>
+      <c r="J268" s="16"/>
     </row>
     <row r="269" spans="7:10">
-      <c r="G269" s="37" t="s">
+      <c r="G269" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="I269" s="37"/>
-      <c r="J269" s="37"/>
-    </row>
-    <row r="270" spans="7:10">
-      <c r="G270" s="37"/>
-    </row>
-    <row r="271" spans="7:10">
-      <c r="G271" s="37" t="s">
+      <c r="I269" s="16"/>
+      <c r="J269" s="16"/>
+    </row>
+    <row r="270" spans="7:7">
+      <c r="G270" s="16"/>
+    </row>
+    <row r="271" spans="7:7">
+      <c r="G271" s="16" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="272" spans="7:10">
-      <c r="G272" s="37"/>
-    </row>
-    <row r="273" spans="7:10">
-      <c r="G273" s="37"/>
-    </row>
-    <row r="274" spans="7:10">
-      <c r="G274" s="37"/>
-    </row>
-    <row r="275" spans="7:10">
-      <c r="G275" s="37"/>
-    </row>
-    <row r="276" spans="7:10">
-      <c r="G276" s="37" t="s">
+    <row r="272" spans="7:7">
+      <c r="G272" s="16"/>
+    </row>
+    <row r="273" spans="7:7">
+      <c r="G273" s="16"/>
+    </row>
+    <row r="274" spans="7:7">
+      <c r="G274" s="16"/>
+    </row>
+    <row r="275" spans="7:7">
+      <c r="G275" s="16"/>
+    </row>
+    <row r="276" spans="7:7">
+      <c r="G276" s="16" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="277" spans="7:10">
-      <c r="G277" s="37"/>
-    </row>
-    <row r="278" spans="7:10">
-      <c r="G278" s="37" t="s">
+    <row r="277" spans="7:7">
+      <c r="G277" s="16"/>
+    </row>
+    <row r="278" spans="7:7">
+      <c r="G278" s="16" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="279" spans="7:10">
-      <c r="G279" s="37"/>
-    </row>
-    <row r="280" spans="7:10">
-      <c r="G280" s="37"/>
+    <row r="279" spans="7:7">
+      <c r="G279" s="16"/>
+    </row>
+    <row r="280" spans="7:7">
+      <c r="G280" s="16"/>
     </row>
     <row r="287" spans="7:10">
-      <c r="G287" s="20">
+      <c r="G287" s="57">
         <v>43256</v>
       </c>
-      <c r="H287" s="20">
+      <c r="H287" s="57">
         <v>43257</v>
       </c>
-      <c r="I287" s="47">
+      <c r="I287" s="22">
         <v>43258</v>
       </c>
-      <c r="J287" s="48"/>
+      <c r="J287" s="62"/>
     </row>
     <row r="288" spans="7:10">
-      <c r="G288" s="37" t="s">
+      <c r="G288" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="H288" s="37" t="s">
+      <c r="H288" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="I288" s="65" t="s">
+      <c r="I288" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J288" s="66"/>
-    </row>
-    <row r="289" spans="7:12">
-      <c r="G289" s="37"/>
-      <c r="H289" s="37"/>
-      <c r="I289" s="67"/>
-      <c r="J289" s="68"/>
-    </row>
-    <row r="290" spans="7:12">
-      <c r="G290" s="37" t="s">
+      <c r="J288" s="7"/>
+    </row>
+    <row r="289" spans="7:10">
+      <c r="G289" s="16"/>
+      <c r="H289" s="16"/>
+      <c r="I289" s="13"/>
+      <c r="J289" s="15"/>
+    </row>
+    <row r="290" spans="7:10">
+      <c r="G290" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H290" s="8" t="s">
+      <c r="H290" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="I290" s="38" t="s">
+      <c r="I290" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="J290" s="49"/>
-    </row>
-    <row r="291" spans="7:12">
-      <c r="G291" s="37"/>
-      <c r="H291" s="8"/>
-      <c r="I291" s="8"/>
-      <c r="J291" s="8"/>
-    </row>
-    <row r="292" spans="7:12">
-      <c r="G292" s="8"/>
-      <c r="H292" s="8"/>
-      <c r="I292" s="8"/>
-      <c r="J292" s="8"/>
-    </row>
-    <row r="297" spans="7:12">
-      <c r="G297" s="4">
+      <c r="J290" s="63"/>
+    </row>
+    <row r="291" spans="7:10">
+      <c r="G291" s="16"/>
+      <c r="H291" s="36"/>
+      <c r="I291" s="36"/>
+      <c r="J291" s="36"/>
+    </row>
+    <row r="292" spans="7:10">
+      <c r="G292" s="36"/>
+      <c r="H292" s="36"/>
+      <c r="I292" s="36"/>
+      <c r="J292" s="36"/>
+    </row>
+    <row r="297" spans="7:7">
+      <c r="G297" s="29">
         <v>43259</v>
       </c>
     </row>
     <row r="298" spans="7:12">
-      <c r="G298" s="55" t="s">
+      <c r="G298" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="L298" s="37" t="s">
+      <c r="L298" s="16" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="299" spans="7:12">
-      <c r="G299" s="55"/>
-      <c r="L299" s="37"/>
+      <c r="G299" s="10"/>
+      <c r="L299" s="16"/>
     </row>
     <row r="300" spans="7:12">
-      <c r="G300" s="55"/>
-      <c r="L300" s="37"/>
+      <c r="G300" s="10"/>
+      <c r="L300" s="16"/>
     </row>
     <row r="301" spans="7:12">
-      <c r="G301" s="55"/>
-      <c r="L301" s="37"/>
-    </row>
-    <row r="302" spans="7:12">
-      <c r="L302" s="37"/>
-    </row>
-    <row r="303" spans="7:12">
-      <c r="L303" s="37"/>
-    </row>
-    <row r="304" spans="7:12">
-      <c r="L304" s="37"/>
-    </row>
-    <row r="305" spans="7:12">
-      <c r="L305" s="5"/>
-    </row>
-    <row r="306" spans="7:12">
-      <c r="L306" s="5"/>
-    </row>
-    <row r="307" spans="7:12">
-      <c r="L307" s="5"/>
-    </row>
-    <row r="308" spans="7:12">
-      <c r="L308" s="5"/>
-    </row>
-    <row r="309" spans="7:12">
-      <c r="L309" s="5"/>
-    </row>
-    <row r="313" spans="7:12">
-      <c r="G313" s="4">
+      <c r="G301" s="10"/>
+      <c r="L301" s="16"/>
+    </row>
+    <row r="302" spans="12:12">
+      <c r="L302" s="16"/>
+    </row>
+    <row r="303" spans="12:12">
+      <c r="L303" s="16"/>
+    </row>
+    <row r="304" spans="12:12">
+      <c r="L304" s="16"/>
+    </row>
+    <row r="305" spans="12:12">
+      <c r="L305" s="30"/>
+    </row>
+    <row r="306" spans="12:12">
+      <c r="L306" s="30"/>
+    </row>
+    <row r="307" spans="12:12">
+      <c r="L307" s="30"/>
+    </row>
+    <row r="308" spans="12:12">
+      <c r="L308" s="30"/>
+    </row>
+    <row r="309" spans="12:12">
+      <c r="L309" s="30"/>
+    </row>
+    <row r="313" spans="7:10">
+      <c r="G313" s="29">
         <v>43271</v>
       </c>
-      <c r="H313" s="4">
+      <c r="H313" s="29">
         <v>43272</v>
       </c>
-      <c r="I313" s="50">
+      <c r="I313" s="23">
         <v>43273</v>
       </c>
-      <c r="J313" s="51"/>
-    </row>
-    <row r="314" spans="7:12">
-      <c r="G314" s="57" t="s">
+      <c r="J313" s="29"/>
+    </row>
+    <row r="314" spans="7:10">
+      <c r="G314" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="H314" s="57" t="s">
+      <c r="H314" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="I314" s="69" t="s">
+      <c r="I314" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="J314" s="25"/>
-    </row>
-    <row r="315" spans="7:12">
-      <c r="G315" s="37"/>
-      <c r="H315" s="37"/>
-      <c r="I315" s="25"/>
-      <c r="J315" s="25"/>
-    </row>
-    <row r="317" spans="7:12">
-      <c r="G317" s="8" t="s">
+      <c r="J314" s="3"/>
+    </row>
+    <row r="315" spans="7:10">
+      <c r="G315" s="16"/>
+      <c r="H315" s="16"/>
+      <c r="I315" s="3"/>
+      <c r="J315" s="3"/>
+    </row>
+    <row r="317" spans="7:10">
+      <c r="G317" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="H317" s="8" t="s">
+      <c r="H317" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="I317" s="25" t="s">
+      <c r="I317" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="J317" s="25"/>
-    </row>
-    <row r="318" spans="7:12">
+      <c r="J317" s="3"/>
+    </row>
+    <row r="318" spans="7:9">
       <c r="G318" t="s">
         <v>218</v>
       </c>
@@ -4156,166 +4719,166 @@
       </c>
     </row>
     <row r="322" spans="7:10">
-      <c r="G322" s="20">
+      <c r="G322" s="57">
         <v>43274</v>
       </c>
-      <c r="H322" s="4">
+      <c r="H322" s="29">
         <v>43276</v>
       </c>
-      <c r="J322" s="4">
+      <c r="J322" s="29">
         <v>43277</v>
       </c>
     </row>
     <row r="323" spans="7:10">
-      <c r="G323" s="37" t="s">
+      <c r="G323" s="16" t="s">
         <v>220</v>
       </c>
       <c r="H323" t="s">
         <v>221</v>
       </c>
-      <c r="I323" s="55" t="s">
+      <c r="I323" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="J323" s="55"/>
+      <c r="J323" s="10"/>
     </row>
     <row r="324" spans="7:10">
-      <c r="G324" s="37"/>
+      <c r="G324" s="16"/>
       <c r="H324" t="s">
         <v>223</v>
       </c>
-      <c r="I324" s="55"/>
-      <c r="J324" s="55"/>
-    </row>
-    <row r="325" spans="7:10">
-      <c r="G325" s="37" t="s">
+      <c r="I324" s="10"/>
+      <c r="J324" s="10"/>
+    </row>
+    <row r="325" spans="7:8">
+      <c r="G325" s="16" t="s">
         <v>224</v>
       </c>
       <c r="H325" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="326" spans="7:10">
-      <c r="G326" s="37"/>
-    </row>
-    <row r="327" spans="7:10">
-      <c r="G327" s="37"/>
-      <c r="H327" s="55" t="s">
+    <row r="326" spans="7:7">
+      <c r="G326" s="16"/>
+    </row>
+    <row r="327" spans="7:8">
+      <c r="G327" s="16"/>
+      <c r="H327" s="10" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="328" spans="7:10">
-      <c r="H328" s="55"/>
-    </row>
-    <row r="329" spans="7:10">
-      <c r="H329" s="55"/>
+    <row r="328" spans="8:8">
+      <c r="H328" s="10"/>
+    </row>
+    <row r="329" spans="8:8">
+      <c r="H329" s="10"/>
     </row>
     <row r="334" spans="7:10">
-      <c r="G334" s="20">
+      <c r="G334" s="57">
         <v>43278</v>
       </c>
-      <c r="H334" s="20">
+      <c r="H334" s="57">
         <v>43279</v>
       </c>
-      <c r="J334" s="4">
+      <c r="J334" s="29">
         <v>43280</v>
       </c>
     </row>
-    <row r="335" spans="7:10">
-      <c r="G335" s="37" t="s">
+    <row r="335" spans="7:8">
+      <c r="G335" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="H335" s="37" t="s">
+      <c r="H335" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="336" spans="7:10">
-      <c r="G336" s="37"/>
-      <c r="H336" s="37"/>
-    </row>
-    <row r="337" spans="7:10">
-      <c r="G337" s="37"/>
-      <c r="H337" s="37"/>
-    </row>
-    <row r="338" spans="7:10">
-      <c r="G338" s="56"/>
-      <c r="H338" s="37" t="s">
+    <row r="336" spans="7:8">
+      <c r="G336" s="16"/>
+      <c r="H336" s="16"/>
+    </row>
+    <row r="337" spans="7:8">
+      <c r="G337" s="16"/>
+      <c r="H337" s="16"/>
+    </row>
+    <row r="338" spans="7:8">
+      <c r="G338" s="58"/>
+      <c r="H338" s="16" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="339" spans="7:10">
-      <c r="G339" s="56" t="s">
+    <row r="339" spans="7:8">
+      <c r="G339" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="H339" s="37"/>
-    </row>
-    <row r="340" spans="7:10">
-      <c r="G340" s="56"/>
-      <c r="H340" s="37"/>
-    </row>
-    <row r="341" spans="7:10">
-      <c r="H341" s="37"/>
-    </row>
-    <row r="342" spans="7:10">
-      <c r="H342" s="37"/>
+      <c r="H339" s="16"/>
+    </row>
+    <row r="340" spans="7:8">
+      <c r="G340" s="58"/>
+      <c r="H340" s="16"/>
+    </row>
+    <row r="341" spans="8:8">
+      <c r="H341" s="16"/>
+    </row>
+    <row r="342" spans="8:8">
+      <c r="H342" s="16"/>
     </row>
     <row r="345" spans="7:10">
-      <c r="G345" s="22">
+      <c r="G345" s="64">
         <v>43281</v>
       </c>
-      <c r="H345" s="4">
+      <c r="H345" s="29">
         <v>43283</v>
       </c>
-      <c r="I345" s="50">
+      <c r="I345" s="23">
         <v>43285</v>
       </c>
-      <c r="J345" s="51"/>
+      <c r="J345" s="29"/>
     </row>
     <row r="346" spans="7:10">
-      <c r="G346" s="58" t="s">
+      <c r="G346" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="H346" s="55" t="s">
+      <c r="H346" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="I346" s="55" t="s">
+      <c r="I346" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="J346" s="55"/>
+      <c r="J346" s="10"/>
     </row>
     <row r="347" spans="7:10">
-      <c r="G347" s="58"/>
-      <c r="H347" s="55"/>
-      <c r="I347" s="55"/>
-      <c r="J347" s="55"/>
-    </row>
-    <row r="348" spans="7:10">
-      <c r="G348" s="58"/>
-    </row>
-    <row r="349" spans="7:10">
-      <c r="G349" s="58"/>
-    </row>
-    <row r="350" spans="7:10">
-      <c r="G350" s="58"/>
-    </row>
-    <row r="351" spans="7:10">
-      <c r="G351" s="58"/>
-    </row>
-    <row r="352" spans="7:10">
-      <c r="G352" s="58"/>
-    </row>
-    <row r="353" spans="7:10">
-      <c r="G353" s="58" t="s">
+      <c r="G347" s="65"/>
+      <c r="H347" s="10"/>
+      <c r="I347" s="10"/>
+      <c r="J347" s="10"/>
+    </row>
+    <row r="348" spans="7:7">
+      <c r="G348" s="65"/>
+    </row>
+    <row r="349" spans="7:7">
+      <c r="G349" s="65"/>
+    </row>
+    <row r="350" spans="7:7">
+      <c r="G350" s="65"/>
+    </row>
+    <row r="351" spans="7:7">
+      <c r="G351" s="65"/>
+    </row>
+    <row r="352" spans="7:7">
+      <c r="G352" s="65"/>
+    </row>
+    <row r="353" spans="7:7">
+      <c r="G353" s="65" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="354" spans="7:10">
-      <c r="G354" s="58"/>
+    <row r="354" spans="7:7">
+      <c r="G354" s="65"/>
     </row>
     <row r="357" spans="7:10">
-      <c r="G357" s="4">
+      <c r="G357" s="29">
         <v>43286</v>
       </c>
-      <c r="J357" s="4">
+      <c r="J357" s="29">
         <v>43288</v>
       </c>
     </row>
@@ -4323,64 +4886,64 @@
       <c r="G358" t="s">
         <v>235</v>
       </c>
-      <c r="I358" s="55" t="s">
+      <c r="I358" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="J358" s="55"/>
+      <c r="J358" s="10"/>
     </row>
     <row r="359" spans="7:10">
       <c r="G359" t="s">
         <v>237</v>
       </c>
-      <c r="I359" s="55"/>
-      <c r="J359" s="55"/>
-    </row>
-    <row r="365" spans="7:10">
-      <c r="G365" s="4">
+      <c r="I359" s="10"/>
+      <c r="J359" s="10"/>
+    </row>
+    <row r="365" spans="7:8">
+      <c r="G365" s="29">
         <v>43292</v>
       </c>
-      <c r="H365" s="20">
+      <c r="H365" s="57">
         <v>43293</v>
       </c>
     </row>
-    <row r="366" spans="7:10">
-      <c r="G366" s="55" t="s">
+    <row r="366" spans="7:8">
+      <c r="G366" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="H366" s="37" t="s">
+      <c r="H366" s="16" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="367" spans="7:10">
-      <c r="G367" s="55"/>
-      <c r="H367" s="37"/>
-    </row>
-    <row r="368" spans="7:10">
-      <c r="G368" s="55" t="s">
+    <row r="367" spans="7:8">
+      <c r="G367" s="10"/>
+      <c r="H367" s="16"/>
+    </row>
+    <row r="368" spans="7:8">
+      <c r="G368" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="H368" s="37"/>
-    </row>
-    <row r="369" spans="7:10">
-      <c r="G369" s="55"/>
-      <c r="H369" s="37"/>
+      <c r="H368" s="16"/>
+    </row>
+    <row r="369" spans="7:8">
+      <c r="G369" s="10"/>
+      <c r="H369" s="16"/>
     </row>
     <row r="374" spans="7:10">
-      <c r="G374" s="4">
+      <c r="G374" s="29">
         <v>43307</v>
       </c>
-      <c r="H374" s="20">
+      <c r="H374" s="57">
         <v>43308</v>
       </c>
-      <c r="J374" s="4">
+      <c r="J374" s="29">
         <v>43311</v>
       </c>
     </row>
     <row r="375" spans="7:10">
-      <c r="G375" s="55" t="s">
+      <c r="G375" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="H375" s="37" t="s">
+      <c r="H375" s="16" t="s">
         <v>242</v>
       </c>
       <c r="J375" t="s">
@@ -4388,42 +4951,42 @@
       </c>
     </row>
     <row r="376" spans="7:10">
-      <c r="G376" s="55"/>
-      <c r="H376" s="37"/>
+      <c r="G376" s="10"/>
+      <c r="H376" s="16"/>
       <c r="J376" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="377" spans="7:10">
-      <c r="G377" s="55"/>
-      <c r="H377" s="8" t="s">
+    <row r="377" spans="7:8">
+      <c r="G377" s="10"/>
+      <c r="H377" s="36" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="378" spans="7:10">
-      <c r="H378" s="37" t="s">
+    <row r="378" spans="8:8">
+      <c r="H378" s="16" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="379" spans="7:10">
-      <c r="H379" s="37"/>
+    <row r="379" spans="8:8">
+      <c r="H379" s="16"/>
     </row>
     <row r="384" spans="7:10">
-      <c r="G384" s="20">
+      <c r="G384" s="57">
         <v>43312</v>
       </c>
-      <c r="H384" s="4">
+      <c r="H384" s="29">
         <v>43313</v>
       </c>
-      <c r="J384" s="4">
+      <c r="J384" s="29">
         <v>43314</v>
       </c>
     </row>
     <row r="385" spans="7:10">
-      <c r="G385" s="8" t="s">
+      <c r="G385" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="H385" s="55" t="s">
+      <c r="H385" s="10" t="s">
         <v>248</v>
       </c>
       <c r="J385" t="s">
@@ -4431,40 +4994,40 @@
       </c>
     </row>
     <row r="386" spans="7:10">
-      <c r="G386" s="8" t="s">
+      <c r="G386" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="H386" s="55"/>
-      <c r="J386" s="55" t="s">
+      <c r="H386" s="10"/>
+      <c r="J386" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="387" spans="7:10">
-      <c r="G387" s="8" t="s">
+      <c r="G387" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="H387" s="55"/>
-      <c r="J387" s="55"/>
-    </row>
-    <row r="388" spans="7:10">
-      <c r="H388" s="55" t="s">
+      <c r="H387" s="10"/>
+      <c r="J387" s="10"/>
+    </row>
+    <row r="388" spans="8:10">
+      <c r="H388" s="10" t="s">
         <v>253</v>
       </c>
       <c r="J388" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="389" spans="7:10">
-      <c r="H389" s="55"/>
+    <row r="389" spans="8:8">
+      <c r="H389" s="10"/>
     </row>
     <row r="393" spans="7:10">
-      <c r="G393" s="4">
+      <c r="G393" s="29">
         <v>43315</v>
       </c>
-      <c r="H393" s="4">
+      <c r="H393" s="29">
         <v>43316</v>
       </c>
-      <c r="J393" s="4">
+      <c r="J393" s="29">
         <v>43318</v>
       </c>
     </row>
@@ -4472,132 +5035,131 @@
       <c r="G394" t="s">
         <v>255</v>
       </c>
-      <c r="H394" s="55" t="s">
+      <c r="H394" s="10" t="s">
         <v>256</v>
       </c>
       <c r="J394" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="395" spans="7:10">
+    <row r="395" spans="7:8">
       <c r="G395" t="s">
         <v>258</v>
       </c>
-      <c r="H395" s="55"/>
-    </row>
-    <row r="396" spans="7:10">
-      <c r="G396" s="55" t="s">
+      <c r="H395" s="10"/>
+    </row>
+    <row r="396" spans="7:8">
+      <c r="G396" s="10" t="s">
         <v>259</v>
       </c>
       <c r="H396" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="397" spans="7:10">
-      <c r="G397" s="55"/>
+    <row r="397" spans="7:7">
+      <c r="G397" s="10"/>
     </row>
     <row r="401" spans="7:10">
-      <c r="G401" s="4">
+      <c r="G401" s="29">
         <v>43319</v>
       </c>
-      <c r="H401" s="4">
+      <c r="H401" s="29">
         <v>43320</v>
       </c>
-      <c r="J401" s="4">
+      <c r="J401" s="29">
         <v>43321</v>
       </c>
     </row>
     <row r="402" spans="7:10">
-      <c r="G402" s="55" t="s">
+      <c r="G402" s="10" t="s">
         <v>261</v>
       </c>
       <c r="H402" t="s">
         <v>262</v>
       </c>
-      <c r="I402" s="55" t="s">
+      <c r="I402" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="J402" s="55"/>
+      <c r="J402" s="10"/>
     </row>
     <row r="403" spans="7:10">
-      <c r="G403" s="55"/>
-      <c r="I403" s="55"/>
-      <c r="J403" s="55"/>
+      <c r="G403" s="10"/>
+      <c r="I403" s="10"/>
+      <c r="J403" s="10"/>
     </row>
     <row r="404" spans="7:10">
-      <c r="G404" s="55" t="s">
+      <c r="G404" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="I404" s="55" t="s">
+      <c r="I404" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="J404" s="55"/>
+      <c r="J404" s="10"/>
     </row>
     <row r="405" spans="7:10">
-      <c r="G405" s="55"/>
-      <c r="I405" s="55"/>
-      <c r="J405" s="55"/>
+      <c r="G405" s="10"/>
+      <c r="I405" s="10"/>
+      <c r="J405" s="10"/>
     </row>
     <row r="406" spans="7:10">
-      <c r="G406" s="55" t="s">
+      <c r="G406" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="I406" s="55" t="s">
+      <c r="I406" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="J406" s="55"/>
+      <c r="J406" s="10"/>
     </row>
     <row r="407" spans="7:10">
-      <c r="G407" s="55"/>
-      <c r="I407" s="55"/>
-      <c r="J407" s="55"/>
-    </row>
-    <row r="408" spans="7:10">
-      <c r="I408" s="55"/>
-      <c r="J408" s="55"/>
-    </row>
-    <row r="409" spans="7:10">
-      <c r="I409" s="43" t="s">
+      <c r="G407" s="10"/>
+      <c r="I407" s="10"/>
+      <c r="J407" s="10"/>
+    </row>
+    <row r="408" spans="9:10">
+      <c r="I408" s="10"/>
+      <c r="J408" s="10"/>
+    </row>
+    <row r="409" spans="9:9">
+      <c r="I409" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="J409" s="44"/>
-    </row>
-    <row r="414" spans="7:10">
-      <c r="G414" s="4">
+    </row>
+    <row r="414" spans="7:8">
+      <c r="G414" s="29">
         <v>43322</v>
       </c>
       <c r="H414" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="415" spans="7:10">
-      <c r="G415" s="55" t="s">
+    <row r="415" spans="7:7">
+      <c r="G415" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="416" spans="7:10">
-      <c r="G416" s="55"/>
-    </row>
-    <row r="417" spans="7:13">
-      <c r="G417" s="55" t="s">
+    <row r="416" spans="7:7">
+      <c r="G416" s="10"/>
+    </row>
+    <row r="417" spans="7:7">
+      <c r="G417" s="10" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="418" spans="7:13">
-      <c r="G418" s="55"/>
-    </row>
-    <row r="423" spans="7:13">
-      <c r="G423" s="4">
+    <row r="418" spans="7:7">
+      <c r="G418" s="10"/>
+    </row>
+    <row r="423" spans="7:10">
+      <c r="G423" s="29">
         <v>43325</v>
       </c>
-      <c r="H423" s="4">
+      <c r="H423" s="29">
         <v>43326</v>
       </c>
-      <c r="J423" s="4">
+      <c r="J423" s="29">
         <v>43327</v>
       </c>
     </row>
-    <row r="424" spans="7:13">
+    <row r="424" spans="7:10">
       <c r="G424" t="s">
         <v>272</v>
       </c>
@@ -4608,350 +5170,350 @@
         <v>274</v>
       </c>
     </row>
-    <row r="425" spans="7:13">
+    <row r="425" spans="8:8">
       <c r="H425" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="426" spans="7:13">
+    <row r="426" spans="8:8">
       <c r="H426" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="432" spans="7:13">
-      <c r="G432" s="4">
+      <c r="G432" s="29">
         <v>43328</v>
       </c>
-      <c r="H432" s="4">
+      <c r="H432" s="29">
         <v>43329</v>
       </c>
-      <c r="I432" s="52">
+      <c r="I432" s="67">
         <v>43330</v>
       </c>
-      <c r="J432" s="53"/>
-      <c r="K432" s="24"/>
-      <c r="L432" s="7" t="s">
+      <c r="J432" s="66"/>
+      <c r="K432" s="68"/>
+      <c r="L432" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="M432" s="7" t="s">
+      <c r="M432" s="32" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="433" spans="5:13">
-      <c r="G433" s="55" t="s">
+    <row r="433" spans="7:13">
+      <c r="G433" s="10" t="s">
         <v>279</v>
       </c>
       <c r="H433" t="s">
         <v>280</v>
       </c>
-      <c r="I433" s="37" t="s">
+      <c r="I433" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="J433" s="56"/>
-      <c r="K433" s="8" t="s">
+      <c r="J433" s="58"/>
+      <c r="K433" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="L433" s="1">
+      <c r="L433" s="3">
         <v>1790015</v>
       </c>
-      <c r="M433" s="1">
+      <c r="M433" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="434" spans="5:13">
-      <c r="G434" s="55"/>
+    <row r="434" spans="7:13">
+      <c r="G434" s="10"/>
       <c r="H434" t="s">
         <v>283</v>
       </c>
-      <c r="I434" s="37"/>
-      <c r="J434" s="56"/>
-      <c r="K434" s="8" t="s">
+      <c r="I434" s="16"/>
+      <c r="J434" s="58"/>
+      <c r="K434" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="L434" s="1">
+      <c r="L434" s="3">
         <v>1790609</v>
       </c>
-      <c r="M434" s="1">
+      <c r="M434" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="435" spans="5:13">
+    <row r="435" spans="7:13">
       <c r="G435" t="s">
         <v>285</v>
       </c>
-      <c r="H435" s="55" t="s">
+      <c r="H435" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="I435" s="37"/>
-      <c r="J435" s="37"/>
-      <c r="K435" s="27" t="s">
+      <c r="I435" s="16"/>
+      <c r="J435" s="16"/>
+      <c r="K435" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="L435" s="27"/>
-      <c r="M435" s="27"/>
-    </row>
-    <row r="436" spans="5:13">
-      <c r="G436" s="55" t="s">
+      <c r="L435" s="37"/>
+      <c r="M435" s="37"/>
+    </row>
+    <row r="436" spans="7:10">
+      <c r="G436" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="H436" s="55"/>
-      <c r="I436" s="37" t="s">
+      <c r="H436" s="10"/>
+      <c r="I436" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J436" s="37"/>
-    </row>
-    <row r="437" spans="5:13">
-      <c r="G437" s="55"/>
+      <c r="J436" s="16"/>
+    </row>
+    <row r="437" spans="7:10">
+      <c r="G437" s="10"/>
       <c r="H437" t="s">
         <v>290</v>
       </c>
-      <c r="I437" s="37"/>
-      <c r="J437" s="37"/>
-    </row>
-    <row r="438" spans="5:13">
-      <c r="I438" s="37"/>
-      <c r="J438" s="37"/>
-    </row>
-    <row r="439" spans="5:13">
-      <c r="I439" s="37"/>
-      <c r="J439" s="37"/>
-    </row>
-    <row r="440" spans="5:13">
-      <c r="I440" s="37"/>
-      <c r="J440" s="37"/>
-    </row>
-    <row r="441" spans="5:13">
-      <c r="I441" s="37"/>
-      <c r="J441" s="37"/>
-    </row>
-    <row r="446" spans="5:13">
-      <c r="E446" s="23">
+      <c r="I437" s="16"/>
+      <c r="J437" s="16"/>
+    </row>
+    <row r="438" spans="9:10">
+      <c r="I438" s="16"/>
+      <c r="J438" s="16"/>
+    </row>
+    <row r="439" spans="9:10">
+      <c r="I439" s="16"/>
+      <c r="J439" s="16"/>
+    </row>
+    <row r="440" spans="9:10">
+      <c r="I440" s="16"/>
+      <c r="J440" s="16"/>
+    </row>
+    <row r="441" spans="9:10">
+      <c r="I441" s="16"/>
+      <c r="J441" s="16"/>
+    </row>
+    <row r="446" spans="5:10">
+      <c r="E446" s="66">
         <v>43332</v>
       </c>
-      <c r="F446" s="7" t="s">
+      <c r="F446" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="G446" s="7" t="s">
+      <c r="G446" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="H446" s="4">
+      <c r="H446" s="29">
         <v>43333</v>
       </c>
-      <c r="J446" s="4">
+      <c r="J446" s="29">
         <v>43334</v>
       </c>
     </row>
-    <row r="447" spans="5:13">
-      <c r="E447" s="8" t="s">
+    <row r="447" spans="5:10">
+      <c r="E447" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="F447" s="1">
+      <c r="F447" s="3">
         <v>2287467</v>
       </c>
-      <c r="G447" s="1">
+      <c r="G447" s="3">
         <v>122</v>
       </c>
       <c r="H447" t="s">
         <v>291</v>
       </c>
-      <c r="I447" s="55" t="s">
+      <c r="I447" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="J447" s="55"/>
-    </row>
-    <row r="448" spans="5:13">
-      <c r="E448" s="8" t="s">
+      <c r="J447" s="10"/>
+    </row>
+    <row r="448" spans="5:10">
+      <c r="E448" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="F448" s="1">
+      <c r="F448" s="3">
         <v>2287003</v>
       </c>
-      <c r="G448" s="1">
+      <c r="G448" s="3">
         <v>56</v>
       </c>
-      <c r="I448" s="55"/>
-      <c r="J448" s="55"/>
+      <c r="I448" s="10"/>
+      <c r="J448" s="10"/>
     </row>
     <row r="449" spans="5:10">
-      <c r="E449" s="27" t="s">
+      <c r="E449" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="F449" s="27"/>
-      <c r="G449" s="27"/>
-      <c r="I449" s="55"/>
-      <c r="J449" s="55"/>
-    </row>
-    <row r="451" spans="5:10">
+      <c r="F449" s="37"/>
+      <c r="G449" s="37"/>
+      <c r="I449" s="10"/>
+      <c r="J449" s="10"/>
+    </row>
+    <row r="451" spans="5:5">
       <c r="E451" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="458" spans="5:10">
-      <c r="F458" s="45">
+    <row r="458" spans="6:10">
+      <c r="F458" s="17">
         <v>43335</v>
       </c>
-      <c r="G458" s="54"/>
-      <c r="H458" s="20">
+      <c r="G458" s="56"/>
+      <c r="H458" s="57">
         <v>43336</v>
       </c>
-      <c r="J458" s="4">
+      <c r="J458" s="29">
         <v>43337</v>
       </c>
     </row>
-    <row r="459" spans="5:10">
-      <c r="F459" s="25" t="s">
+    <row r="459" spans="6:10">
+      <c r="F459" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G459" s="31"/>
-      <c r="H459" s="8" t="s">
+      <c r="G459" s="45"/>
+      <c r="H459" s="36" t="s">
         <v>295</v>
       </c>
       <c r="J459" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="460" spans="5:10">
-      <c r="F460" s="37" t="s">
+    <row r="460" spans="6:10">
+      <c r="F460" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="G460" s="56"/>
-      <c r="H460" s="37" t="s">
+      <c r="G460" s="58"/>
+      <c r="H460" s="16" t="s">
         <v>298</v>
       </c>
       <c r="J460" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="461" spans="5:10">
-      <c r="F461" s="37"/>
-      <c r="G461" s="56"/>
-      <c r="H461" s="37"/>
+    <row r="461" spans="6:10">
+      <c r="F461" s="16"/>
+      <c r="G461" s="58"/>
+      <c r="H461" s="16"/>
       <c r="J461" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="462" spans="5:10">
-      <c r="F462" s="37" t="s">
+    <row r="462" spans="6:10">
+      <c r="F462" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="G462" s="56"/>
-      <c r="H462" s="37"/>
+      <c r="G462" s="58"/>
+      <c r="H462" s="16"/>
       <c r="J462" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="463" spans="5:10">
-      <c r="F463" s="37"/>
-      <c r="G463" s="56"/>
-      <c r="H463" s="37" t="s">
+    <row r="463" spans="6:10">
+      <c r="F463" s="16"/>
+      <c r="G463" s="58"/>
+      <c r="H463" s="16" t="s">
         <v>303</v>
       </c>
       <c r="J463" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="464" spans="5:10">
-      <c r="H464" s="37"/>
-    </row>
-    <row r="465" spans="6:10">
-      <c r="H465" s="8" t="s">
+    <row r="464" spans="8:8">
+      <c r="H464" s="16"/>
+    </row>
+    <row r="465" spans="8:8">
+      <c r="H465" s="36" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="470" spans="6:10">
-      <c r="F470" s="45">
+      <c r="F470" s="17">
         <v>43339</v>
       </c>
-      <c r="G470" s="46"/>
-      <c r="H470" s="20">
+      <c r="G470" s="57"/>
+      <c r="H470" s="57">
         <v>43340</v>
       </c>
-      <c r="J470" s="4">
+      <c r="J470" s="29">
         <v>43341</v>
       </c>
     </row>
     <row r="471" spans="6:10">
-      <c r="F471" s="25" t="s">
+      <c r="F471" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G471" s="32"/>
-      <c r="H471" s="37" t="s">
+      <c r="G471" s="36"/>
+      <c r="H471" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="I471" s="55" t="s">
+      <c r="I471" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="J471" s="55"/>
+      <c r="J471" s="10"/>
     </row>
     <row r="472" spans="6:10">
-      <c r="F472" s="25" t="s">
+      <c r="F472" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G472" s="32"/>
-      <c r="H472" s="37"/>
-      <c r="I472" s="55"/>
-      <c r="J472" s="55"/>
+      <c r="G472" s="36"/>
+      <c r="H472" s="16"/>
+      <c r="I472" s="10"/>
+      <c r="J472" s="10"/>
     </row>
     <row r="473" spans="6:10">
-      <c r="F473" s="37" t="s">
+      <c r="F473" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="G473" s="37"/>
-      <c r="H473" s="37"/>
-      <c r="I473" s="55"/>
-      <c r="J473" s="55"/>
+      <c r="G473" s="16"/>
+      <c r="H473" s="16"/>
+      <c r="I473" s="10"/>
+      <c r="J473" s="10"/>
     </row>
     <row r="474" spans="6:10">
-      <c r="F474" s="37"/>
-      <c r="G474" s="37"/>
-      <c r="H474" s="37"/>
-      <c r="I474" s="55"/>
-      <c r="J474" s="55"/>
+      <c r="F474" s="16"/>
+      <c r="G474" s="16"/>
+      <c r="H474" s="16"/>
+      <c r="I474" s="10"/>
+      <c r="J474" s="10"/>
     </row>
     <row r="475" spans="6:10">
-      <c r="F475" s="37" t="s">
+      <c r="F475" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="G475" s="37"/>
-      <c r="H475" s="37" t="s">
+      <c r="G475" s="16"/>
+      <c r="H475" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="I475" s="55"/>
-      <c r="J475" s="55"/>
+      <c r="I475" s="10"/>
+      <c r="J475" s="10"/>
     </row>
     <row r="476" spans="6:10">
-      <c r="F476" s="37"/>
-      <c r="G476" s="37"/>
-      <c r="H476" s="42"/>
-      <c r="I476" s="55"/>
-      <c r="J476" s="55"/>
-    </row>
-    <row r="477" spans="6:10">
-      <c r="F477" s="25" t="s">
+      <c r="F476" s="16"/>
+      <c r="G476" s="16"/>
+      <c r="H476" s="52"/>
+      <c r="I476" s="10"/>
+      <c r="J476" s="10"/>
+    </row>
+    <row r="477" spans="6:8">
+      <c r="F477" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G477" s="32"/>
-      <c r="H477" s="8" t="s">
+      <c r="G477" s="36"/>
+      <c r="H477" s="36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="478" spans="6:10" ht="27">
-      <c r="F478" s="25" t="s">
+    <row r="478" ht="27" spans="6:8">
+      <c r="F478" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="G478" s="32"/>
-      <c r="H478" s="18" t="s">
+      <c r="G478" s="36"/>
+      <c r="H478" s="52" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="482" spans="7:10">
-      <c r="G482" s="4">
+      <c r="G482" s="29">
         <v>43342</v>
       </c>
-      <c r="H482" s="4">
+      <c r="H482" s="29">
         <v>43343</v>
       </c>
-      <c r="J482" s="4">
+      <c r="J482" s="29">
         <v>43344</v>
       </c>
     </row>
@@ -4962,10 +5524,10 @@
       <c r="H483" t="s">
         <v>318</v>
       </c>
-      <c r="I483" s="55" t="s">
+      <c r="I483" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="J483" s="55"/>
+      <c r="J483" s="10"/>
     </row>
     <row r="484" spans="7:10">
       <c r="G484" t="s">
@@ -4974,94 +5536,93 @@
       <c r="H484" t="s">
         <v>321</v>
       </c>
-      <c r="I484" s="55"/>
-      <c r="J484" s="55"/>
+      <c r="I484" s="10"/>
+      <c r="J484" s="10"/>
     </row>
     <row r="485" spans="7:10">
       <c r="G485" t="s">
         <v>322</v>
       </c>
-      <c r="H485" s="55" t="s">
+      <c r="H485" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="I485" s="55" t="s">
+      <c r="I485" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="J485" s="55"/>
+      <c r="J485" s="10"/>
     </row>
     <row r="486" spans="7:10">
-      <c r="G486" s="55" t="s">
+      <c r="G486" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="H486" s="55"/>
-      <c r="I486" s="55"/>
-      <c r="J486" s="55"/>
+      <c r="H486" s="10"/>
+      <c r="I486" s="10"/>
+      <c r="J486" s="10"/>
     </row>
     <row r="487" spans="7:10">
-      <c r="G487" s="55"/>
+      <c r="G487" s="10"/>
       <c r="H487" t="s">
         <v>326</v>
       </c>
-      <c r="I487" s="43" t="s">
+      <c r="I487" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="J487" s="43"/>
+      <c r="J487" s="38"/>
     </row>
     <row r="488" spans="7:10">
-      <c r="G488" s="55"/>
-      <c r="H488" s="55" t="s">
+      <c r="G488" s="10"/>
+      <c r="H488" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="I488" s="55" t="s">
+      <c r="I488" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="J488" s="55"/>
+      <c r="J488" s="10"/>
     </row>
     <row r="489" spans="7:10">
-      <c r="G489" s="55" t="s">
+      <c r="G489" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="H489" s="55"/>
-      <c r="I489" s="55"/>
-      <c r="J489" s="55"/>
-    </row>
-    <row r="490" spans="7:10">
-      <c r="G490" s="55"/>
-      <c r="H490" s="55" t="s">
+      <c r="H489" s="10"/>
+      <c r="I489" s="10"/>
+      <c r="J489" s="10"/>
+    </row>
+    <row r="490" spans="7:9">
+      <c r="G490" s="10"/>
+      <c r="H490" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="I490" s="43" t="s">
+      <c r="I490" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="J490" s="44"/>
-    </row>
-    <row r="491" spans="7:10">
-      <c r="H491" s="55"/>
-    </row>
-    <row r="492" spans="7:10">
-      <c r="H492" s="55" t="s">
+    </row>
+    <row r="491" spans="8:8">
+      <c r="H491" s="10"/>
+    </row>
+    <row r="492" spans="8:8">
+      <c r="H492" s="10" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="493" spans="7:10">
-      <c r="H493" s="55"/>
-    </row>
-    <row r="494" spans="7:10">
-      <c r="H494" s="55" t="s">
+    <row r="493" spans="8:8">
+      <c r="H493" s="10"/>
+    </row>
+    <row r="494" spans="8:8">
+      <c r="H494" s="10" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="495" spans="7:10">
-      <c r="H495" s="55"/>
+    <row r="495" spans="8:8">
+      <c r="H495" s="10"/>
     </row>
     <row r="500" spans="7:10">
-      <c r="G500" s="4">
+      <c r="G500" s="29">
         <v>43346</v>
       </c>
-      <c r="H500" s="4">
+      <c r="H500" s="29">
         <v>43347</v>
       </c>
-      <c r="J500" s="4">
+      <c r="J500" s="29">
         <v>43348</v>
       </c>
     </row>
@@ -5072,112 +5633,112 @@
       <c r="H501" t="s">
         <v>336</v>
       </c>
-      <c r="I501" s="55" t="s">
+      <c r="I501" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="J501" s="55"/>
-    </row>
-    <row r="502" spans="7:10">
+      <c r="J501" s="10"/>
+    </row>
+    <row r="502" spans="8:10">
       <c r="H502" t="s">
         <v>338</v>
       </c>
-      <c r="I502" s="55"/>
-      <c r="J502" s="55"/>
-    </row>
-    <row r="503" spans="7:10">
+      <c r="I502" s="10"/>
+      <c r="J502" s="10"/>
+    </row>
+    <row r="503" spans="8:10">
       <c r="H503" t="s">
         <v>339</v>
       </c>
-      <c r="I503" s="55" t="s">
+      <c r="I503" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="J503" s="55"/>
-    </row>
-    <row r="504" spans="7:10">
-      <c r="H504" s="55" t="s">
+      <c r="J503" s="10"/>
+    </row>
+    <row r="504" spans="8:10">
+      <c r="H504" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="I504" s="55"/>
-      <c r="J504" s="55"/>
-    </row>
-    <row r="505" spans="7:10">
-      <c r="H505" s="55"/>
-      <c r="I505" s="55"/>
-      <c r="J505" s="55"/>
+      <c r="I504" s="10"/>
+      <c r="J504" s="10"/>
+    </row>
+    <row r="505" spans="8:10">
+      <c r="H505" s="10"/>
+      <c r="I505" s="10"/>
+      <c r="J505" s="10"/>
     </row>
     <row r="512" spans="7:10">
-      <c r="G512" s="4">
+      <c r="G512" s="29">
         <v>43349</v>
       </c>
-      <c r="H512" s="4">
+      <c r="H512" s="29">
         <v>43350</v>
       </c>
-      <c r="J512" s="4">
+      <c r="J512" s="29">
         <v>43351</v>
       </c>
     </row>
     <row r="513" spans="7:10">
-      <c r="G513" s="55" t="s">
+      <c r="G513" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="H513" s="55" t="s">
+      <c r="H513" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="I513" s="37" t="s">
+      <c r="I513" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="J513" s="37"/>
+      <c r="J513" s="16"/>
     </row>
     <row r="514" spans="7:10">
-      <c r="G514" s="55"/>
-      <c r="H514" s="55"/>
-      <c r="I514" s="37"/>
-      <c r="J514" s="37"/>
+      <c r="G514" s="10"/>
+      <c r="H514" s="10"/>
+      <c r="I514" s="16"/>
+      <c r="J514" s="16"/>
     </row>
     <row r="515" spans="7:10">
       <c r="G515" t="s">
         <v>345</v>
       </c>
-      <c r="H515" s="55" t="s">
+      <c r="H515" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="I515" s="37"/>
-      <c r="J515" s="37"/>
+      <c r="I515" s="16"/>
+      <c r="J515" s="16"/>
     </row>
     <row r="516" spans="7:10">
       <c r="G516" t="s">
         <v>347</v>
       </c>
-      <c r="H516" s="55"/>
-      <c r="I516" s="37"/>
-      <c r="J516" s="37"/>
+      <c r="H516" s="10"/>
+      <c r="I516" s="16"/>
+      <c r="J516" s="16"/>
     </row>
     <row r="517" spans="7:10">
-      <c r="G517" s="55" t="s">
+      <c r="G517" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="I517" s="37"/>
-      <c r="J517" s="37"/>
-    </row>
-    <row r="518" spans="7:10">
-      <c r="G518" s="55"/>
-    </row>
-    <row r="519" spans="7:10">
-      <c r="G519" s="55" t="s">
+      <c r="I517" s="16"/>
+      <c r="J517" s="16"/>
+    </row>
+    <row r="518" spans="7:7">
+      <c r="G518" s="10"/>
+    </row>
+    <row r="519" spans="7:7">
+      <c r="G519" s="10" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="520" spans="7:10">
-      <c r="G520" s="55"/>
+    <row r="520" spans="7:7">
+      <c r="G520" s="10"/>
     </row>
     <row r="527" spans="7:10">
-      <c r="G527" s="4">
+      <c r="G527" s="29">
         <v>43353</v>
       </c>
-      <c r="H527" s="4">
+      <c r="H527" s="29">
         <v>43354</v>
       </c>
-      <c r="J527" s="4">
+      <c r="J527" s="29">
         <v>43355</v>
       </c>
     </row>
@@ -5185,45 +5746,45 @@
       <c r="G528" t="s">
         <v>350</v>
       </c>
-      <c r="H528" s="55" t="s">
+      <c r="H528" s="10" t="s">
         <v>351</v>
       </c>
       <c r="J528" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="529" spans="7:10">
-      <c r="H529" s="55"/>
+    <row r="529" spans="8:10">
+      <c r="H529" s="10"/>
       <c r="J529" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="530" spans="7:10">
-      <c r="H530" s="55"/>
-    </row>
-    <row r="531" spans="7:10">
+    <row r="530" spans="8:8">
+      <c r="H530" s="10"/>
+    </row>
+    <row r="531" spans="8:8">
       <c r="H531" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="532" spans="7:10">
+    <row r="532" spans="8:8">
       <c r="H532" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="536" spans="7:10">
-      <c r="G536" s="4">
+      <c r="G536" s="29">
         <v>43356</v>
       </c>
-      <c r="H536" s="4">
+      <c r="H536" s="29">
         <v>43357</v>
       </c>
-      <c r="J536" s="4">
+      <c r="J536" s="29">
         <v>43358</v>
       </c>
     </row>
     <row r="537" spans="7:10">
-      <c r="G537" s="55" t="s">
+      <c r="G537" s="10" t="s">
         <v>356</v>
       </c>
       <c r="H537" t="s">
@@ -5233,80 +5794,80 @@
         <v>358</v>
       </c>
     </row>
-    <row r="538" spans="7:10">
-      <c r="G538" s="55"/>
-    </row>
-    <row r="546" spans="7:12">
-      <c r="G546" s="4">
+    <row r="538" spans="7:7">
+      <c r="G538" s="10"/>
+    </row>
+    <row r="546" spans="7:10">
+      <c r="G546" s="29">
         <v>43361</v>
       </c>
-      <c r="H546" s="4">
+      <c r="H546" s="29">
         <v>43362</v>
       </c>
-      <c r="J546" s="4">
+      <c r="J546" s="29">
         <v>43363</v>
       </c>
     </row>
     <row r="547" spans="7:12">
-      <c r="G547" s="55" t="s">
+      <c r="G547" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="H547" s="55" t="s">
+      <c r="H547" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="I547" s="43" t="s">
+      <c r="I547" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="J547" s="43"/>
-      <c r="K547" s="43"/>
-      <c r="L547" s="43"/>
-    </row>
-    <row r="548" spans="7:12">
-      <c r="G548" s="55"/>
-      <c r="H548" s="55"/>
-    </row>
-    <row r="549" spans="7:12">
+      <c r="J547" s="38"/>
+      <c r="K547" s="38"/>
+      <c r="L547" s="38"/>
+    </row>
+    <row r="548" spans="7:8">
+      <c r="G548" s="10"/>
+      <c r="H548" s="10"/>
+    </row>
+    <row r="549" spans="8:8">
       <c r="H549" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="550" spans="7:12">
+    <row r="550" spans="8:8">
       <c r="H550" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="553" spans="7:12">
-      <c r="G553" s="4">
+    <row r="553" spans="7:7">
+      <c r="G553" s="29">
         <v>43364</v>
       </c>
     </row>
-    <row r="554" spans="7:12">
-      <c r="G554" s="55" t="s">
+    <row r="554" spans="7:7">
+      <c r="G554" s="10" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="555" spans="7:12">
-      <c r="G555" s="55"/>
-    </row>
-    <row r="556" spans="7:12">
-      <c r="G556" s="55"/>
+    <row r="555" spans="7:7">
+      <c r="G555" s="10"/>
+    </row>
+    <row r="556" spans="7:7">
+      <c r="G556" s="10"/>
     </row>
     <row r="563" spans="7:10">
-      <c r="G563" s="4">
+      <c r="G563" s="29">
         <v>43368</v>
       </c>
-      <c r="H563" s="20">
+      <c r="H563" s="57">
         <v>43369</v>
       </c>
-      <c r="J563" s="4">
+      <c r="J563" s="29">
         <v>43370</v>
       </c>
     </row>
     <row r="564" spans="7:10">
-      <c r="G564" s="55" t="s">
+      <c r="G564" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="H564" s="37" t="s">
+      <c r="H564" s="16" t="s">
         <v>366</v>
       </c>
       <c r="J564" t="s">
@@ -5314,34 +5875,34 @@
       </c>
     </row>
     <row r="565" spans="7:10">
-      <c r="G565" s="55"/>
-      <c r="H565" s="37"/>
+      <c r="G565" s="10"/>
+      <c r="H565" s="16"/>
       <c r="J565" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="566" spans="7:10">
-      <c r="H566" s="8" t="s">
+    <row r="566" spans="8:8">
+      <c r="H566" s="36" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="567" spans="7:10">
-      <c r="H567" s="37" t="s">
+    <row r="567" spans="8:8">
+      <c r="H567" s="16" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="568" spans="7:10">
-      <c r="H568" s="37"/>
-    </row>
-    <row r="574" spans="7:10">
-      <c r="G574" s="4">
+    <row r="568" spans="8:8">
+      <c r="H568" s="16"/>
+    </row>
+    <row r="574" spans="7:8">
+      <c r="G574" s="29">
         <v>43371</v>
       </c>
-      <c r="H574" s="4">
+      <c r="H574" s="29">
         <v>43372</v>
       </c>
     </row>
-    <row r="575" spans="7:10">
+    <row r="575" spans="7:8">
       <c r="G575" t="s">
         <v>371</v>
       </c>
@@ -5349,8 +5910,8 @@
         <v>372</v>
       </c>
     </row>
-    <row r="576" spans="7:10">
-      <c r="G576" s="55" t="s">
+    <row r="576" spans="7:8">
+      <c r="G576" s="10" t="s">
         <v>373</v>
       </c>
       <c r="H576" t="s">
@@ -5358,62 +5919,155 @@
       </c>
     </row>
     <row r="577" spans="7:7">
-      <c r="G577" s="55"/>
+      <c r="G577" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="244">
-    <mergeCell ref="C87:E88"/>
-    <mergeCell ref="H98:I99"/>
-    <mergeCell ref="H100:I102"/>
-    <mergeCell ref="H103:I104"/>
-    <mergeCell ref="C150:F152"/>
-    <mergeCell ref="I167:J169"/>
-    <mergeCell ref="B178:E184"/>
-    <mergeCell ref="I183:J184"/>
-    <mergeCell ref="I185:J188"/>
-    <mergeCell ref="F87:G88"/>
-    <mergeCell ref="H567:H568"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="J153:J159"/>
-    <mergeCell ref="J160:J162"/>
-    <mergeCell ref="J386:J387"/>
-    <mergeCell ref="L298:L304"/>
-    <mergeCell ref="I483:J484"/>
-    <mergeCell ref="I485:J486"/>
-    <mergeCell ref="I488:J489"/>
-    <mergeCell ref="I501:J502"/>
-    <mergeCell ref="I503:J505"/>
-    <mergeCell ref="I513:J517"/>
-    <mergeCell ref="I203:J204"/>
-    <mergeCell ref="G222:H223"/>
-    <mergeCell ref="I221:J222"/>
-    <mergeCell ref="I230:J231"/>
-    <mergeCell ref="I241:J242"/>
-    <mergeCell ref="I433:J435"/>
-    <mergeCell ref="I436:J441"/>
-    <mergeCell ref="I447:J449"/>
-    <mergeCell ref="F460:G461"/>
-    <mergeCell ref="F462:G463"/>
-    <mergeCell ref="F473:G474"/>
-    <mergeCell ref="F475:G476"/>
-    <mergeCell ref="H490:H491"/>
-    <mergeCell ref="H492:H493"/>
-    <mergeCell ref="H494:H495"/>
-    <mergeCell ref="H504:H505"/>
-    <mergeCell ref="H513:H514"/>
-    <mergeCell ref="H515:H516"/>
-    <mergeCell ref="H528:H530"/>
-    <mergeCell ref="H547:H548"/>
-    <mergeCell ref="H564:H565"/>
-    <mergeCell ref="H388:H389"/>
-    <mergeCell ref="H394:H395"/>
-    <mergeCell ref="H435:H436"/>
-    <mergeCell ref="H460:H462"/>
-    <mergeCell ref="H463:H464"/>
-    <mergeCell ref="H471:H474"/>
-    <mergeCell ref="H475:H476"/>
-    <mergeCell ref="H485:H486"/>
-    <mergeCell ref="H488:H489"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="I166:J166"/>
+    <mergeCell ref="I170:J170"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="I182:J182"/>
+    <mergeCell ref="I220:J220"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="I223:J223"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="I229:J229"/>
+    <mergeCell ref="I232:J232"/>
+    <mergeCell ref="I239:J239"/>
+    <mergeCell ref="I240:J240"/>
+    <mergeCell ref="I264:J264"/>
+    <mergeCell ref="I287:J287"/>
+    <mergeCell ref="I290:J290"/>
+    <mergeCell ref="I313:J313"/>
+    <mergeCell ref="I317:J317"/>
+    <mergeCell ref="I345:J345"/>
+    <mergeCell ref="I409:J409"/>
+    <mergeCell ref="I432:J432"/>
+    <mergeCell ref="K435:M435"/>
+    <mergeCell ref="E449:G449"/>
+    <mergeCell ref="F458:G458"/>
+    <mergeCell ref="F459:G459"/>
+    <mergeCell ref="F470:G470"/>
+    <mergeCell ref="F471:G471"/>
+    <mergeCell ref="F472:G472"/>
+    <mergeCell ref="F477:G477"/>
+    <mergeCell ref="F478:G478"/>
+    <mergeCell ref="I487:J487"/>
+    <mergeCell ref="I490:J490"/>
+    <mergeCell ref="I547:L547"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="G144:G146"/>
+    <mergeCell ref="G150:G152"/>
+    <mergeCell ref="G153:G156"/>
+    <mergeCell ref="G157:G160"/>
+    <mergeCell ref="G161:G163"/>
+    <mergeCell ref="G168:G169"/>
+    <mergeCell ref="G192:G196"/>
+    <mergeCell ref="G210:G212"/>
+    <mergeCell ref="G214:G215"/>
+    <mergeCell ref="G230:G232"/>
+    <mergeCell ref="G240:G244"/>
+    <mergeCell ref="G256:G257"/>
+    <mergeCell ref="G266:G268"/>
+    <mergeCell ref="G269:G270"/>
+    <mergeCell ref="G271:G275"/>
+    <mergeCell ref="G276:G277"/>
+    <mergeCell ref="G278:G280"/>
+    <mergeCell ref="G288:G289"/>
+    <mergeCell ref="G290:G291"/>
+    <mergeCell ref="G298:G301"/>
+    <mergeCell ref="G314:G315"/>
+    <mergeCell ref="G323:G324"/>
+    <mergeCell ref="G325:G327"/>
+    <mergeCell ref="G335:G338"/>
+    <mergeCell ref="G339:G340"/>
+    <mergeCell ref="G346:G352"/>
+    <mergeCell ref="G353:G354"/>
+    <mergeCell ref="G366:G367"/>
+    <mergeCell ref="G368:G369"/>
+    <mergeCell ref="G375:G377"/>
+    <mergeCell ref="G396:G397"/>
+    <mergeCell ref="G402:G403"/>
+    <mergeCell ref="G404:G405"/>
+    <mergeCell ref="G406:G407"/>
+    <mergeCell ref="G415:G416"/>
+    <mergeCell ref="G417:G418"/>
+    <mergeCell ref="G433:G434"/>
+    <mergeCell ref="G436:G437"/>
+    <mergeCell ref="G486:G488"/>
+    <mergeCell ref="G489:G490"/>
+    <mergeCell ref="G513:G514"/>
+    <mergeCell ref="G517:G518"/>
+    <mergeCell ref="G519:G520"/>
+    <mergeCell ref="G537:G538"/>
+    <mergeCell ref="G547:G548"/>
+    <mergeCell ref="G554:G556"/>
+    <mergeCell ref="G564:G565"/>
     <mergeCell ref="G576:G577"/>
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="H31:H32"/>
@@ -5438,77 +6092,59 @@
     <mergeCell ref="H375:H376"/>
     <mergeCell ref="H378:H379"/>
     <mergeCell ref="H385:H387"/>
-    <mergeCell ref="G486:G488"/>
-    <mergeCell ref="G489:G490"/>
-    <mergeCell ref="G513:G514"/>
-    <mergeCell ref="G517:G518"/>
-    <mergeCell ref="G519:G520"/>
-    <mergeCell ref="G537:G538"/>
-    <mergeCell ref="G547:G548"/>
-    <mergeCell ref="G554:G556"/>
-    <mergeCell ref="G564:G565"/>
-    <mergeCell ref="G368:G369"/>
-    <mergeCell ref="G375:G377"/>
-    <mergeCell ref="G396:G397"/>
-    <mergeCell ref="G402:G403"/>
-    <mergeCell ref="G404:G405"/>
-    <mergeCell ref="G406:G407"/>
-    <mergeCell ref="G415:G416"/>
-    <mergeCell ref="G417:G418"/>
-    <mergeCell ref="G433:G434"/>
-    <mergeCell ref="G298:G301"/>
-    <mergeCell ref="G314:G315"/>
-    <mergeCell ref="G323:G324"/>
-    <mergeCell ref="G325:G327"/>
-    <mergeCell ref="G335:G338"/>
-    <mergeCell ref="G339:G340"/>
-    <mergeCell ref="G346:G352"/>
-    <mergeCell ref="G353:G354"/>
-    <mergeCell ref="G366:G367"/>
-    <mergeCell ref="I487:J487"/>
-    <mergeCell ref="I490:J490"/>
-    <mergeCell ref="I547:L547"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="G144:G146"/>
-    <mergeCell ref="G150:G152"/>
-    <mergeCell ref="G153:G156"/>
-    <mergeCell ref="G157:G160"/>
-    <mergeCell ref="G161:G163"/>
-    <mergeCell ref="G168:G169"/>
-    <mergeCell ref="G192:G196"/>
-    <mergeCell ref="G210:G212"/>
-    <mergeCell ref="G214:G215"/>
-    <mergeCell ref="G230:G232"/>
-    <mergeCell ref="G240:G244"/>
-    <mergeCell ref="G256:G257"/>
-    <mergeCell ref="G266:G268"/>
-    <mergeCell ref="G269:G270"/>
-    <mergeCell ref="G271:G275"/>
-    <mergeCell ref="G276:G277"/>
-    <mergeCell ref="G278:G280"/>
-    <mergeCell ref="G288:G289"/>
-    <mergeCell ref="G290:G291"/>
-    <mergeCell ref="K435:M435"/>
-    <mergeCell ref="E449:G449"/>
-    <mergeCell ref="F458:G458"/>
-    <mergeCell ref="F459:G459"/>
-    <mergeCell ref="F470:G470"/>
-    <mergeCell ref="F471:G471"/>
-    <mergeCell ref="F472:G472"/>
-    <mergeCell ref="F477:G477"/>
-    <mergeCell ref="F478:G478"/>
-    <mergeCell ref="G436:G437"/>
+    <mergeCell ref="H388:H389"/>
+    <mergeCell ref="H394:H395"/>
+    <mergeCell ref="H435:H436"/>
+    <mergeCell ref="H460:H462"/>
+    <mergeCell ref="H463:H464"/>
+    <mergeCell ref="H471:H474"/>
+    <mergeCell ref="H475:H476"/>
+    <mergeCell ref="H485:H486"/>
+    <mergeCell ref="H488:H489"/>
+    <mergeCell ref="H490:H491"/>
+    <mergeCell ref="H492:H493"/>
+    <mergeCell ref="H494:H495"/>
+    <mergeCell ref="H504:H505"/>
+    <mergeCell ref="H513:H514"/>
+    <mergeCell ref="H515:H516"/>
+    <mergeCell ref="H528:H530"/>
+    <mergeCell ref="H547:H548"/>
+    <mergeCell ref="H564:H565"/>
+    <mergeCell ref="H567:H568"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="J153:J159"/>
+    <mergeCell ref="J160:J162"/>
+    <mergeCell ref="J386:J387"/>
+    <mergeCell ref="L298:L304"/>
+    <mergeCell ref="C87:E88"/>
+    <mergeCell ref="H98:I99"/>
+    <mergeCell ref="H100:I102"/>
+    <mergeCell ref="H103:I104"/>
+    <mergeCell ref="C150:F152"/>
+    <mergeCell ref="I167:J169"/>
+    <mergeCell ref="B178:E184"/>
+    <mergeCell ref="I183:J184"/>
+    <mergeCell ref="I185:J188"/>
+    <mergeCell ref="F87:G88"/>
+    <mergeCell ref="I483:J484"/>
+    <mergeCell ref="I485:J486"/>
+    <mergeCell ref="I488:J489"/>
+    <mergeCell ref="I501:J502"/>
+    <mergeCell ref="I503:J505"/>
+    <mergeCell ref="I513:J517"/>
+    <mergeCell ref="I203:J204"/>
+    <mergeCell ref="G222:H223"/>
+    <mergeCell ref="I221:J222"/>
+    <mergeCell ref="I230:J231"/>
+    <mergeCell ref="I241:J242"/>
+    <mergeCell ref="I433:J435"/>
+    <mergeCell ref="I436:J441"/>
+    <mergeCell ref="I447:J449"/>
+    <mergeCell ref="F460:G461"/>
+    <mergeCell ref="F462:G463"/>
+    <mergeCell ref="F473:G474"/>
+    <mergeCell ref="F475:G476"/>
     <mergeCell ref="I471:J476"/>
-    <mergeCell ref="I240:J240"/>
-    <mergeCell ref="I264:J264"/>
-    <mergeCell ref="I287:J287"/>
-    <mergeCell ref="I290:J290"/>
-    <mergeCell ref="I313:J313"/>
-    <mergeCell ref="I317:J317"/>
-    <mergeCell ref="I345:J345"/>
-    <mergeCell ref="I409:J409"/>
-    <mergeCell ref="I432:J432"/>
     <mergeCell ref="I243:J250"/>
     <mergeCell ref="I265:J269"/>
     <mergeCell ref="I288:J289"/>
@@ -5519,43 +6155,6 @@
     <mergeCell ref="I402:J403"/>
     <mergeCell ref="I404:J405"/>
     <mergeCell ref="I406:J408"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="I182:J182"/>
-    <mergeCell ref="I220:J220"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="I223:J223"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="I229:J229"/>
-    <mergeCell ref="I232:J232"/>
-    <mergeCell ref="I239:J239"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="I166:J166"/>
-    <mergeCell ref="I170:J170"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="I80:K80"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="I68:K68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="I69:K69"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="I79:K79"/>
     <mergeCell ref="F61:G62"/>
     <mergeCell ref="I60:K63"/>
     <mergeCell ref="F70:G71"/>
@@ -5563,67 +6162,30 @@
     <mergeCell ref="F74:G75"/>
     <mergeCell ref="I70:K71"/>
     <mergeCell ref="I72:K75"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="I59:K59"/>
     <mergeCell ref="I43:K44"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="F36:G36"/>
     <mergeCell ref="F31:G32"/>
     <mergeCell ref="F33:G35"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:L14"/>
     <mergeCell ref="F12:G13"/>
     <mergeCell ref="I9:L10"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AD133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A4:AD142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="3" width="9.125"/>
     <col min="10" max="12" width="9.125"/>
     <col min="17" max="17" width="9.125"/>
@@ -5631,1764 +6193,1764 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:19">
-      <c r="B4" s="70">
+      <c r="B4" s="1">
         <v>43373</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="I4" s="45">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="I4" s="17">
         <v>43379</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="P4" s="47">
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="P4" s="22">
         <v>43380</v>
       </c>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="72"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="28"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="I5" s="37" t="s">
+      <c r="F5" s="3"/>
+      <c r="I5" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="P5" s="37" t="s">
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="P5" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="38" t="s">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="S5" s="39"/>
+      <c r="S5" s="20"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="78"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="38" t="s">
+      <c r="F6" s="3"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="S6" s="39"/>
+      <c r="S6" s="20"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="78"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="1" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="P7" s="25" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="P7" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="66"/>
-      <c r="I8" s="37" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="I8" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37" t="s">
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="P8" s="37" t="s">
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="P8" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="80"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="84"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="80"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="84"/>
-      <c r="I10" s="25" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="I10" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="P10" s="37" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="P10" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="80"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="84"/>
-      <c r="I11" s="37" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="I11" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="80"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="84"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="P12" s="37" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="P12" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="80"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="84"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="81"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="68"/>
-      <c r="P14" s="37" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="P14" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-    </row>
-    <row r="16" spans="2:19">
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-    </row>
-    <row r="24" spans="2:20">
-      <c r="B24" s="45">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="17">
         <v>43381</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="I24" s="50">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="I24" s="23">
         <v>43382</v>
       </c>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="Q24" s="4">
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="Q24" s="29">
         <v>43383</v>
       </c>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="I25" s="1" t="s">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="I25" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="P25" s="25" t="s">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="P25" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="I26" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="P26" s="25" t="s">
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="P26" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="P27" s="86" t="s">
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="P27" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="I28" s="25" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="I28" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25" t="s">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="39"/>
-      <c r="I29" s="38" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="I29" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="J29" s="39"/>
-      <c r="K29" s="25" t="s">
+      <c r="J29" s="20"/>
+      <c r="K29" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-    </row>
-    <row r="30" spans="2:20">
-      <c r="I30" s="37" t="s">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+    </row>
+    <row r="30" spans="9:20">
+      <c r="I30" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-    </row>
-    <row r="31" spans="2:20">
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-    </row>
-    <row r="32" spans="2:20">
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="P32" s="25" t="s">
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+    </row>
+    <row r="31" spans="9:20">
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+    </row>
+    <row r="32" spans="9:20">
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="P32" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-    </row>
-    <row r="33" spans="2:30">
-      <c r="P33" s="25" t="s">
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+    </row>
+    <row r="33" spans="16:20">
+      <c r="P33" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-    </row>
-    <row r="34" spans="2:30">
-      <c r="P34" s="37" t="s">
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="16:20">
+      <c r="P34" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-    </row>
-    <row r="35" spans="2:30">
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+    </row>
+    <row r="35" spans="16:20">
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
     </row>
     <row r="41" spans="2:30">
-      <c r="B41" s="45">
+      <c r="B41" s="17">
         <v>43384</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="H41" s="45">
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="H41" s="17">
         <v>43385</v>
       </c>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="U41" s="69" t="s">
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="U41" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="V41" s="69"/>
-      <c r="W41" s="69"/>
-      <c r="X41" s="69"/>
-      <c r="Y41" s="69"/>
-      <c r="Z41" s="69"/>
-      <c r="AA41" s="69"/>
-      <c r="AB41" s="69"/>
-      <c r="AC41" s="69"/>
-      <c r="AD41" s="69"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
     </row>
     <row r="42" spans="2:30">
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="H42" s="69" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="H42" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="69"/>
-      <c r="U42" s="1" t="s">
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="U42" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="V42" s="1" t="s">
+      <c r="V42" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="W42" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="X42" s="1" t="s">
+      <c r="X42" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="Y42" s="1" t="s">
+      <c r="Y42" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="Z42" s="1" t="s">
+      <c r="Z42" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="AA42" s="1" t="s">
+      <c r="AA42" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="AB42" s="1" t="s">
+      <c r="AB42" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="AC42" s="25" t="s">
+      <c r="AC42" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="AD42" s="25"/>
+      <c r="AD42" s="3"/>
     </row>
     <row r="43" spans="2:30">
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="H43" s="1" t="s">
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="H43" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="N43" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="O43" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="P43" s="25" t="s">
+      <c r="P43" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="Q43" s="25"/>
-      <c r="U43" s="37" t="s">
+      <c r="Q43" s="3"/>
+      <c r="U43" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="V43" s="39" t="s">
+      <c r="V43" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="W43" s="25">
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="1">
+      <c r="X43" s="3">
         <v>3</v>
       </c>
-      <c r="Y43" s="1">
+      <c r="Y43" s="3">
         <v>25</v>
       </c>
-      <c r="Z43" s="1">
+      <c r="Z43" s="3">
         <v>20</v>
       </c>
-      <c r="AA43" s="1">
+      <c r="AA43" s="3">
         <v>5</v>
       </c>
-      <c r="AB43" s="1" t="s">
+      <c r="AB43" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC43" s="25"/>
-      <c r="AD43" s="25"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
     </row>
     <row r="44" spans="2:30">
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="H44" s="37" t="s">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="H44" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="I44" s="39" t="s">
+      <c r="I44" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="J44" s="25">
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="3">
         <v>3</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44" s="3">
         <v>25</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="3">
         <v>20</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N44" s="3">
         <v>5</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="O44" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="39"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="1">
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3">
         <v>2</v>
       </c>
-      <c r="Y44" s="1">
+      <c r="Y44" s="3">
         <v>34</v>
       </c>
-      <c r="Z44" s="1">
+      <c r="Z44" s="3">
         <v>19</v>
       </c>
-      <c r="AA44" s="1">
+      <c r="AA44" s="3">
         <v>15</v>
       </c>
-      <c r="AB44" s="1" t="s">
+      <c r="AB44" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC44" s="38"/>
-      <c r="AD44" s="39"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="20"/>
     </row>
     <row r="45" spans="2:30">
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="1">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3">
         <v>2</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45" s="3">
         <v>34</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45" s="3">
         <v>19</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45" s="3">
         <v>15</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="O45" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="39"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="25"/>
-      <c r="X45" s="1">
+      <c r="P45" s="18"/>
+      <c r="Q45" s="20"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3">
         <v>1</v>
       </c>
-      <c r="Y45" s="1">
+      <c r="Y45" s="3">
         <v>83</v>
       </c>
-      <c r="Z45" s="1">
+      <c r="Z45" s="3">
         <v>60</v>
       </c>
-      <c r="AA45" s="1">
+      <c r="AA45" s="3">
         <v>23</v>
       </c>
-      <c r="AB45" s="1" t="s">
+      <c r="AB45" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC45" s="38"/>
-      <c r="AD45" s="39"/>
+      <c r="AC45" s="18"/>
+      <c r="AD45" s="20"/>
     </row>
     <row r="46" spans="2:30">
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="1">
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3">
         <v>1</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46" s="3">
         <v>83</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46" s="3">
         <v>60</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46" s="3">
         <v>23</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="O46" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="39"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="39"/>
-      <c r="W46" s="25">
+      <c r="P46" s="18"/>
+      <c r="Q46" s="20"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="3">
         <v>100</v>
       </c>
-      <c r="X46" s="1">
+      <c r="X46" s="3">
         <v>1.5</v>
       </c>
-      <c r="Y46" s="1">
+      <c r="Y46" s="3">
         <v>66</v>
       </c>
-      <c r="Z46" s="1">
+      <c r="Z46" s="3">
         <v>51</v>
       </c>
-      <c r="AA46" s="1">
+      <c r="AA46" s="3">
         <v>15</v>
       </c>
-      <c r="AB46" s="1" t="s">
+      <c r="AB46" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC46" s="38"/>
-      <c r="AD46" s="39"/>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="20"/>
     </row>
     <row r="47" spans="2:30">
-      <c r="B47" s="25"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="3">
         <v>1.5</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47" s="3">
         <v>66</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47" s="3">
         <v>51</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47" s="3">
         <v>15</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="O47" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="39"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="25"/>
-      <c r="X47" s="1">
+      <c r="P47" s="18"/>
+      <c r="Q47" s="20"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3">
         <v>1</v>
       </c>
-      <c r="Y47" s="1">
+      <c r="Y47" s="3">
         <v>79</v>
       </c>
-      <c r="Z47" s="1">
+      <c r="Z47" s="3">
         <v>44</v>
       </c>
-      <c r="AA47" s="1">
+      <c r="AA47" s="3">
         <v>35</v>
       </c>
-      <c r="AB47" s="1" t="s">
+      <c r="AB47" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC47" s="38"/>
-      <c r="AD47" s="39"/>
+      <c r="AC47" s="18"/>
+      <c r="AD47" s="20"/>
     </row>
     <row r="48" spans="2:30">
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="1">
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3">
         <v>1</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48" s="3">
         <v>79</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48" s="3">
         <v>44</v>
       </c>
-      <c r="N48" s="1">
+      <c r="N48" s="3">
         <v>35</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="O48" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="39"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="39"/>
-      <c r="W48" s="25"/>
-      <c r="X48" s="1">
+      <c r="P48" s="18"/>
+      <c r="Q48" s="20"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3">
         <v>0.5</v>
       </c>
-      <c r="Y48" s="1">
+      <c r="Y48" s="3">
         <v>456</v>
       </c>
-      <c r="Z48" s="1">
+      <c r="Z48" s="3">
         <v>44</v>
       </c>
-      <c r="AA48" s="1">
+      <c r="AA48" s="3">
         <v>112</v>
       </c>
-      <c r="AB48" s="1" t="s">
+      <c r="AB48" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC48" s="38"/>
-      <c r="AD48" s="39"/>
-    </row>
-    <row r="49" spans="2:30">
-      <c r="H49" s="37"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="1">
+      <c r="AC48" s="18"/>
+      <c r="AD48" s="20"/>
+    </row>
+    <row r="49" spans="8:30">
+      <c r="H49" s="16"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3">
         <v>0.5</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49" s="3">
         <v>456</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49" s="3">
         <v>44</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N49" s="3">
         <v>112</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="O49" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="39"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="25"/>
-      <c r="X49" s="1">
+      <c r="P49" s="18"/>
+      <c r="Q49" s="20"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3">
         <v>0.2</v>
       </c>
-      <c r="Y49" s="1">
+      <c r="Y49" s="3">
         <v>365</v>
       </c>
-      <c r="Z49" s="1">
+      <c r="Z49" s="3">
         <v>43</v>
       </c>
-      <c r="AA49" s="1">
+      <c r="AA49" s="3">
         <v>322</v>
       </c>
-      <c r="AB49" s="1" t="s">
+      <c r="AB49" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC49" s="25" t="s">
+      <c r="AC49" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="AD49" s="25"/>
-    </row>
-    <row r="50" spans="2:30">
-      <c r="H50" s="37"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="1">
+      <c r="AD49" s="3"/>
+    </row>
+    <row r="50" spans="8:30">
+      <c r="H50" s="16"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3">
         <v>0.2</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L50" s="3">
         <v>365</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50" s="3">
         <v>43</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N50" s="3">
         <v>322</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="O50" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P50" s="25" t="s">
+      <c r="P50" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="Q50" s="25"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="25">
+      <c r="Q50" s="3"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="3">
         <v>50</v>
       </c>
-      <c r="X50" s="1">
+      <c r="X50" s="3">
         <v>1.5</v>
       </c>
-      <c r="Y50" s="1">
+      <c r="Y50" s="3">
         <v>115</v>
       </c>
-      <c r="Z50" s="1">
+      <c r="Z50" s="3">
         <v>115</v>
       </c>
-      <c r="AA50" s="1">
+      <c r="AA50" s="3">
         <v>0</v>
       </c>
-      <c r="AB50" s="1" t="s">
+      <c r="AB50" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC50" s="38"/>
-      <c r="AD50" s="39"/>
-    </row>
-    <row r="51" spans="2:30">
-      <c r="H51" s="37"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="25">
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="20"/>
+    </row>
+    <row r="51" spans="8:30">
+      <c r="H51" s="16"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="3">
         <v>50</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="3">
         <v>1.5</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L51" s="3">
         <v>115</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51" s="3">
         <v>115</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="O51" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="39"/>
-      <c r="U51" s="37"/>
-      <c r="V51" s="39"/>
-      <c r="W51" s="25"/>
-      <c r="X51" s="1">
+      <c r="P51" s="18"/>
+      <c r="Q51" s="20"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3">
         <v>0.8</v>
       </c>
-      <c r="Y51" s="1">
+      <c r="Y51" s="3">
         <v>117</v>
       </c>
-      <c r="Z51" s="1">
+      <c r="Z51" s="3">
         <v>99</v>
       </c>
-      <c r="AA51" s="1">
+      <c r="AA51" s="3">
         <v>18</v>
       </c>
-      <c r="AB51" s="1" t="s">
+      <c r="AB51" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC51" s="25" t="s">
+      <c r="AC51" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="AD51" s="25"/>
-    </row>
-    <row r="52" spans="2:30">
-      <c r="H52" s="37"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="1">
+      <c r="AD51" s="3"/>
+    </row>
+    <row r="52" spans="8:30">
+      <c r="H52" s="16"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3">
         <v>0.8</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52" s="3">
         <v>117</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52" s="3">
         <v>99</v>
       </c>
-      <c r="N52" s="1">
+      <c r="N52" s="3">
         <v>18</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="O52" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P52" s="25" t="s">
+      <c r="P52" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="Q52" s="25"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="25"/>
-      <c r="X52" s="1">
+      <c r="Q52" s="3"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3">
         <v>0.2</v>
       </c>
-      <c r="Y52" s="1">
+      <c r="Y52" s="3">
         <v>398</v>
       </c>
-      <c r="Z52" s="1">
+      <c r="Z52" s="3">
         <v>89</v>
       </c>
-      <c r="AA52" s="1">
+      <c r="AA52" s="3">
         <v>309</v>
       </c>
-      <c r="AB52" s="1" t="s">
+      <c r="AB52" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC52" s="25" t="s">
+      <c r="AC52" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="AD52" s="25"/>
-    </row>
-    <row r="53" spans="2:30">
-      <c r="H53" s="37"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="1">
+      <c r="AD52" s="3"/>
+    </row>
+    <row r="53" spans="8:30">
+      <c r="H53" s="16"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3">
         <v>0.2</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L53" s="3">
         <v>398</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53" s="3">
         <v>89</v>
       </c>
-      <c r="N53" s="1">
+      <c r="N53" s="3">
         <v>309</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="O53" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P53" s="25" t="s">
+      <c r="P53" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="Q53" s="25"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="39" t="s">
+      <c r="Q53" s="3"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="W53" s="1">
+      <c r="W53" s="3">
         <v>200</v>
       </c>
-      <c r="X53" s="1">
+      <c r="X53" s="3">
         <v>2</v>
       </c>
-      <c r="Y53" s="1">
+      <c r="Y53" s="3">
         <v>44</v>
       </c>
-      <c r="Z53" s="1">
+      <c r="Z53" s="3">
         <v>20</v>
       </c>
-      <c r="AA53" s="1">
+      <c r="AA53" s="3">
         <v>24</v>
       </c>
-      <c r="AB53" s="1" t="s">
+      <c r="AB53" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC53" s="73" t="s">
+      <c r="AC53" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="AD53" s="73"/>
-    </row>
-    <row r="54" spans="2:30">
-      <c r="H54" s="37"/>
-      <c r="I54" s="39" t="s">
+      <c r="AD53" s="25"/>
+    </row>
+    <row r="54" spans="8:30">
+      <c r="H54" s="16"/>
+      <c r="I54" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54" s="3">
         <v>2</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L54" s="3">
         <v>44</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54" s="3">
         <v>20</v>
       </c>
-      <c r="N54" s="1">
+      <c r="N54" s="3">
         <v>24</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="O54" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P54" s="73" t="s">
+      <c r="P54" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="Q54" s="73"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="25">
+      <c r="Q54" s="25"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="3">
         <v>100</v>
       </c>
-      <c r="X54" s="1">
+      <c r="X54" s="3">
         <v>1.5</v>
       </c>
-      <c r="Y54" s="1">
+      <c r="Y54" s="3">
         <v>93</v>
       </c>
-      <c r="Z54" s="1">
+      <c r="Z54" s="3">
         <v>47</v>
       </c>
-      <c r="AA54" s="1">
+      <c r="AA54" s="3">
         <v>46</v>
       </c>
-      <c r="AB54" s="1" t="s">
+      <c r="AB54" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC54" s="38"/>
-      <c r="AD54" s="39"/>
-    </row>
-    <row r="55" spans="2:30">
-      <c r="H55" s="37"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="25">
+      <c r="AC54" s="18"/>
+      <c r="AD54" s="20"/>
+    </row>
+    <row r="55" spans="8:30">
+      <c r="H55" s="16"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="3">
         <v>100</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55" s="3">
         <v>1.5</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L55" s="3">
         <v>93</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M55" s="3">
         <v>47</v>
       </c>
-      <c r="N55" s="1">
+      <c r="N55" s="3">
         <v>46</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="O55" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="39"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="25"/>
-      <c r="X55" s="1">
+      <c r="P55" s="18"/>
+      <c r="Q55" s="20"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3">
         <v>0.5</v>
       </c>
-      <c r="Y55" s="1">
+      <c r="Y55" s="3">
         <v>209</v>
       </c>
-      <c r="Z55" s="1">
+      <c r="Z55" s="3">
         <v>41</v>
       </c>
-      <c r="AA55" s="1">
+      <c r="AA55" s="3">
         <v>168</v>
       </c>
-      <c r="AB55" s="1" t="s">
+      <c r="AB55" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC55" s="73" t="s">
+      <c r="AC55" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="AD55" s="73"/>
-    </row>
-    <row r="56" spans="2:30">
-      <c r="H56" s="37"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="1">
+      <c r="AD55" s="25"/>
+    </row>
+    <row r="56" spans="8:30">
+      <c r="H56" s="16"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3">
         <v>0.5</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L56" s="3">
         <v>209</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56" s="3">
         <v>41</v>
       </c>
-      <c r="N56" s="1">
+      <c r="N56" s="3">
         <v>168</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="O56" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P56" s="73" t="s">
+      <c r="P56" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="Q56" s="73"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="39"/>
-      <c r="W56" s="25"/>
-      <c r="X56" s="1">
+      <c r="Q56" s="25"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3">
         <v>0.2</v>
       </c>
-      <c r="Y56" s="1">
+      <c r="Y56" s="3">
         <v>453</v>
       </c>
-      <c r="Z56" s="1">
+      <c r="Z56" s="3">
         <v>43</v>
       </c>
-      <c r="AA56" s="1">
+      <c r="AA56" s="3">
         <v>410</v>
       </c>
-      <c r="AB56" s="1" t="s">
+      <c r="AB56" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC56" s="25" t="s">
+      <c r="AC56" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="AD56" s="25"/>
-    </row>
-    <row r="57" spans="2:30">
-      <c r="H57" s="37"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="1">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="8:30">
+      <c r="H57" s="16"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3">
         <v>0.2</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L57" s="3">
         <v>453</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57" s="3">
         <v>43</v>
       </c>
-      <c r="N57" s="1">
+      <c r="N57" s="3">
         <v>410</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="O57" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P57" s="25" t="s">
+      <c r="P57" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="Q57" s="25"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="39"/>
-      <c r="W57" s="1">
+      <c r="Q57" s="3"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="3">
         <v>50</v>
       </c>
-      <c r="X57" s="1">
+      <c r="X57" s="3">
         <v>0.2</v>
       </c>
-      <c r="Y57" s="1">
+      <c r="Y57" s="3">
         <v>405</v>
       </c>
-      <c r="Z57" s="1">
+      <c r="Z57" s="3">
         <v>84</v>
       </c>
-      <c r="AA57" s="1">
+      <c r="AA57" s="3">
         <v>321</v>
       </c>
-      <c r="AB57" s="1" t="s">
+      <c r="AB57" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC57" s="25" t="s">
+      <c r="AC57" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="AD57" s="25"/>
-    </row>
-    <row r="58" spans="2:30">
-      <c r="H58" s="37"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="1">
+      <c r="AD57" s="3"/>
+    </row>
+    <row r="58" spans="8:30">
+      <c r="H58" s="16"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="3">
         <v>50</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58" s="3">
         <v>0.2</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L58" s="3">
         <v>405</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58" s="3">
         <v>84</v>
       </c>
-      <c r="N58" s="1">
+      <c r="N58" s="3">
         <v>321</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="O58" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P58" s="25" t="s">
+      <c r="P58" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="Q58" s="25"/>
-      <c r="U58" s="37"/>
-      <c r="V58" s="40" t="s">
+      <c r="Q58" s="3"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="W58" s="40"/>
-      <c r="X58" s="40"/>
-      <c r="Y58" s="40"/>
-      <c r="Z58" s="40"/>
-      <c r="AA58" s="40"/>
-      <c r="AB58" s="40"/>
-      <c r="AC58" s="40"/>
-      <c r="AD58" s="39"/>
-    </row>
-    <row r="59" spans="2:30">
-      <c r="H59" s="37"/>
-      <c r="I59" s="40" t="s">
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="19"/>
+      <c r="Z58" s="19"/>
+      <c r="AA58" s="19"/>
+      <c r="AB58" s="19"/>
+      <c r="AC58" s="19"/>
+      <c r="AD58" s="20"/>
+    </row>
+    <row r="59" spans="8:21">
+      <c r="H59" s="16"/>
+      <c r="I59" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="J59" s="40"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="39"/>
-      <c r="U59" s="5"/>
-    </row>
-    <row r="60" spans="2:30">
-      <c r="U60" s="5"/>
-    </row>
-    <row r="61" spans="2:30">
-      <c r="U61" s="5"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="20"/>
+      <c r="U59" s="30"/>
+    </row>
+    <row r="60" spans="21:21">
+      <c r="U60" s="30"/>
+    </row>
+    <row r="61" spans="21:23">
+      <c r="U61" s="30"/>
       <c r="W61">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="2:30">
-      <c r="U62" s="5"/>
-    </row>
-    <row r="63" spans="2:30">
-      <c r="W63" s="5"/>
-    </row>
-    <row r="64" spans="2:30">
-      <c r="B64" s="45">
+    <row r="62" spans="21:21">
+      <c r="U62" s="30"/>
+    </row>
+    <row r="63" spans="23:23">
+      <c r="W63" s="30"/>
+    </row>
+    <row r="64" spans="2:21">
+      <c r="B64" s="17">
         <v>43386</v>
       </c>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="J64" s="74">
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="J64" s="26">
         <v>43387</v>
       </c>
-      <c r="K64" s="74"/>
-      <c r="L64" s="74"/>
-      <c r="M64" s="74"/>
-      <c r="N64" s="74"/>
-      <c r="U64" s="4">
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
+      <c r="U64" s="29">
         <v>43388</v>
       </c>
     </row>
-    <row r="65" spans="2:24">
-      <c r="B65" s="37" t="s">
+    <row r="65" spans="2:21">
+      <c r="B65" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="J65" s="75" t="s">
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="J65" s="34" t="s">
         <v>442</v>
       </c>
-      <c r="K65" s="75"/>
-      <c r="L65" s="75"/>
-      <c r="M65" s="75"/>
-      <c r="N65" s="75"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
       <c r="U65" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="66" spans="2:24">
-      <c r="B66" s="37"/>
-      <c r="C66" s="25" t="s">
+    <row r="66" spans="2:21">
+      <c r="B66" s="16"/>
+      <c r="C66" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="J66" s="75" t="s">
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="J66" s="34" t="s">
         <v>445</v>
       </c>
-      <c r="K66" s="75"/>
-      <c r="L66" s="75"/>
-      <c r="M66" s="75"/>
-      <c r="N66" s="75"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
       <c r="U66" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="67" spans="2:24">
-      <c r="B67" s="37"/>
-      <c r="C67" s="25" t="s">
+      <c r="B67" s="16"/>
+      <c r="C67" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="J67" s="75" t="s">
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="J67" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="K67" s="75"/>
-      <c r="L67" s="75"/>
-      <c r="M67" s="75"/>
-      <c r="N67" s="75"/>
-      <c r="U67" s="55" t="s">
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="34"/>
+      <c r="U67" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="V67" s="55"/>
-      <c r="W67" s="55"/>
-      <c r="X67" s="55"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
     </row>
     <row r="68" spans="2:24">
-      <c r="B68" s="37"/>
-      <c r="C68" s="25" t="s">
+      <c r="B68" s="16"/>
+      <c r="C68" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="J68" s="75" t="s">
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="J68" s="34" t="s">
         <v>451</v>
       </c>
-      <c r="K68" s="75"/>
-      <c r="L68" s="75"/>
-      <c r="M68" s="75"/>
-      <c r="N68" s="75"/>
-      <c r="U68" s="55"/>
-      <c r="V68" s="55"/>
-      <c r="W68" s="55"/>
-      <c r="X68" s="55"/>
-    </row>
-    <row r="69" spans="2:24">
-      <c r="B69" s="37" t="s">
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="34"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+    </row>
+    <row r="69" spans="2:21">
+      <c r="B69" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="J69" s="75" t="s">
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="J69" s="34" t="s">
         <v>453</v>
       </c>
-      <c r="K69" s="75"/>
-      <c r="L69" s="75"/>
-      <c r="M69" s="75"/>
-      <c r="N69" s="75"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
       <c r="U69" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="70" spans="2:24">
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="J70" s="75" t="s">
+    <row r="70" spans="2:14">
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="J70" s="34" t="s">
         <v>455</v>
       </c>
-      <c r="K70" s="75"/>
-      <c r="L70" s="75"/>
-      <c r="M70" s="75"/>
-      <c r="N70" s="75"/>
-    </row>
-    <row r="71" spans="2:24">
-      <c r="B71" s="37" t="s">
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="J71" s="76" t="s">
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="J71" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="K71" s="76"/>
-      <c r="L71" s="76"/>
-      <c r="M71" s="76"/>
-      <c r="N71" s="76"/>
-    </row>
-    <row r="72" spans="2:24">
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="J72" s="75" t="s">
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="J72" s="34" t="s">
         <v>458</v>
       </c>
-      <c r="K72" s="75"/>
-      <c r="L72" s="75"/>
-      <c r="M72" s="75"/>
-      <c r="N72" s="75"/>
-    </row>
-    <row r="80" spans="2:24">
-      <c r="B80" s="45">
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="34"/>
+    </row>
+    <row r="80" spans="2:23">
+      <c r="B80" s="17">
         <v>43389</v>
       </c>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
-      <c r="T80" s="45">
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="T80" s="17">
         <v>43391</v>
       </c>
-      <c r="U80" s="45"/>
-      <c r="V80" s="45"/>
-      <c r="W80" s="45"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="17"/>
     </row>
     <row r="81" spans="2:23">
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="K81" s="45">
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="K81" s="17">
         <v>43390</v>
       </c>
-      <c r="L81" s="45"/>
-      <c r="M81" s="45"/>
-      <c r="N81" s="45"/>
-      <c r="O81" s="45"/>
-      <c r="P81" s="45"/>
-      <c r="T81" s="8" t="s">
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="T81" s="36" t="s">
         <v>460</v>
       </c>
-      <c r="U81" s="8"/>
-      <c r="V81" s="8"/>
-      <c r="W81" s="8"/>
+      <c r="U81" s="36"/>
+      <c r="V81" s="36"/>
+      <c r="W81" s="36"/>
     </row>
     <row r="82" spans="2:23">
-      <c r="B82" s="37" t="s">
+      <c r="B82" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="6"/>
-      <c r="K82" s="25" t="s">
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="31"/>
+      <c r="K82" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="L82" s="25"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="25"/>
-      <c r="O82" s="25"/>
-      <c r="P82" s="25"/>
-      <c r="T82" s="8" t="s">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="T82" s="36" t="s">
         <v>463</v>
       </c>
-      <c r="U82" s="8"/>
-      <c r="V82" s="8"/>
-      <c r="W82" s="8"/>
+      <c r="U82" s="36"/>
+      <c r="V82" s="36"/>
+      <c r="W82" s="36"/>
     </row>
     <row r="83" spans="2:23">
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="6"/>
-      <c r="K83" s="25" t="s">
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="31"/>
+      <c r="K83" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="L83" s="25"/>
-      <c r="M83" s="25"/>
-      <c r="N83" s="25"/>
-      <c r="O83" s="25"/>
-      <c r="P83" s="25"/>
-      <c r="T83" s="8" t="s">
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="T83" s="36" t="s">
         <v>465</v>
       </c>
-      <c r="U83" s="8"/>
-      <c r="V83" s="8"/>
-      <c r="W83" s="8"/>
+      <c r="U83" s="36"/>
+      <c r="V83" s="36"/>
+      <c r="W83" s="36"/>
     </row>
     <row r="84" spans="2:23">
-      <c r="B84" s="37" t="s">
+      <c r="B84" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="6"/>
-      <c r="K84" s="25" t="s">
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="31"/>
+      <c r="K84" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-      <c r="T84" s="8" t="s">
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="T84" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="U84" s="8"/>
-      <c r="V84" s="8"/>
-      <c r="W84" s="8"/>
+      <c r="U84" s="36"/>
+      <c r="V84" s="36"/>
+      <c r="W84" s="36"/>
     </row>
     <row r="85" spans="2:23">
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="6"/>
-      <c r="K85" s="25" t="s">
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="31"/>
+      <c r="K85" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="L85" s="25"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="25"/>
-      <c r="O85" s="25"/>
-      <c r="P85" s="25"/>
-      <c r="T85" s="38"/>
-      <c r="U85" s="40"/>
-      <c r="V85" s="40"/>
-      <c r="W85" s="39"/>
-    </row>
-    <row r="86" spans="2:23">
-      <c r="T86" s="37" t="s">
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="T85" s="18"/>
+      <c r="U85" s="19"/>
+      <c r="V85" s="19"/>
+      <c r="W85" s="20"/>
+    </row>
+    <row r="86" spans="20:23">
+      <c r="T86" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="U86" s="37"/>
-      <c r="V86" s="37"/>
-      <c r="W86" s="37"/>
-    </row>
-    <row r="87" spans="2:23">
-      <c r="T87" s="37"/>
-      <c r="U87" s="37"/>
-      <c r="V87" s="37"/>
-      <c r="W87" s="37"/>
-    </row>
-    <row r="88" spans="2:23">
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="37"/>
-      <c r="W88" s="37"/>
-    </row>
-    <row r="89" spans="2:23">
-      <c r="T89" s="38" t="s">
+      <c r="U86" s="16"/>
+      <c r="V86" s="16"/>
+      <c r="W86" s="16"/>
+    </row>
+    <row r="87" spans="20:23">
+      <c r="T87" s="16"/>
+      <c r="U87" s="16"/>
+      <c r="V87" s="16"/>
+      <c r="W87" s="16"/>
+    </row>
+    <row r="88" spans="20:23">
+      <c r="T88" s="16"/>
+      <c r="U88" s="16"/>
+      <c r="V88" s="16"/>
+      <c r="W88" s="16"/>
+    </row>
+    <row r="89" spans="20:23">
+      <c r="T89" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="U89" s="40"/>
-      <c r="V89" s="40"/>
-      <c r="W89" s="39"/>
-    </row>
-    <row r="90" spans="2:23">
-      <c r="T90" s="37" t="s">
+      <c r="U89" s="19"/>
+      <c r="V89" s="19"/>
+      <c r="W89" s="20"/>
+    </row>
+    <row r="90" spans="20:23">
+      <c r="T90" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="U90" s="37"/>
-      <c r="V90" s="37"/>
-      <c r="W90" s="37"/>
-    </row>
-    <row r="91" spans="2:23">
-      <c r="T91" s="37"/>
-      <c r="U91" s="37"/>
-      <c r="V91" s="37"/>
-      <c r="W91" s="37"/>
-    </row>
-    <row r="96" spans="2:23" ht="21.95" customHeight="1"/>
+      <c r="U90" s="16"/>
+      <c r="V90" s="16"/>
+      <c r="W90" s="16"/>
+    </row>
+    <row r="91" spans="20:23">
+      <c r="T91" s="16"/>
+      <c r="U91" s="16"/>
+      <c r="V91" s="16"/>
+      <c r="W91" s="16"/>
+    </row>
+    <row r="96" ht="21.95" customHeight="1"/>
     <row r="97" spans="2:23">
-      <c r="B97" s="45">
+      <c r="B97" s="17">
         <v>43392</v>
       </c>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="45"/>
-      <c r="K97" s="4">
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="K97" s="29">
         <v>43393</v>
       </c>
-      <c r="T97" s="45">
+      <c r="T97" s="17">
         <v>43394</v>
       </c>
-      <c r="U97" s="45"/>
-      <c r="V97" s="45"/>
-      <c r="W97" s="45"/>
+      <c r="U97" s="17"/>
+      <c r="V97" s="17"/>
+      <c r="W97" s="17"/>
     </row>
     <row r="98" spans="2:23">
-      <c r="B98" s="25" t="s">
+      <c r="B98" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="K98" s="87" t="s">
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="K98" s="69" t="s">
         <v>474</v>
       </c>
-      <c r="L98" s="55"/>
-      <c r="M98" s="55"/>
-      <c r="N98" s="55"/>
-      <c r="O98" s="55"/>
-      <c r="P98" s="55"/>
-      <c r="T98" s="27" t="s">
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="T98" s="37" t="s">
         <v>475</v>
       </c>
-      <c r="U98" s="27"/>
-      <c r="V98" s="27"/>
-      <c r="W98" s="27"/>
-    </row>
-    <row r="99" spans="2:23">
-      <c r="B99" s="25" t="s">
+      <c r="U98" s="37"/>
+      <c r="V98" s="37"/>
+      <c r="W98" s="37"/>
+    </row>
+    <row r="99" spans="2:16">
+      <c r="B99" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="K99" s="55"/>
-      <c r="L99" s="55"/>
-      <c r="M99" s="55"/>
-      <c r="N99" s="55"/>
-      <c r="O99" s="55"/>
-      <c r="P99" s="55"/>
-    </row>
-    <row r="100" spans="2:23">
-      <c r="B100" s="25" t="s">
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-    </row>
-    <row r="101" spans="2:23">
-      <c r="B101" s="25" t="s">
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
       <c r="K101" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="102" spans="2:23">
-      <c r="B102" s="37" t="s">
+    <row r="102" spans="2:6">
+      <c r="B102" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-    </row>
-    <row r="103" spans="2:23">
-      <c r="B103" s="37"/>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+    </row>
+    <row r="103" spans="2:13">
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
       <c r="K103" t="s">
         <v>481</v>
       </c>
@@ -7399,12 +7961,12 @@
         <v>483</v>
       </c>
     </row>
-    <row r="104" spans="2:23">
-      <c r="B104" s="37"/>
-      <c r="C104" s="37"/>
-      <c r="D104" s="37"/>
-      <c r="E104" s="37"/>
-      <c r="F104" s="37"/>
+    <row r="104" spans="2:13">
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
       <c r="L104" t="s">
         <v>484</v>
       </c>
@@ -7412,97 +7974,97 @@
         <v>485</v>
       </c>
     </row>
-    <row r="105" spans="2:23">
-      <c r="B105" s="37"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="37"/>
-      <c r="F105" s="37"/>
+    <row r="105" spans="2:12">
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
       <c r="L105" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="106" spans="2:23">
-      <c r="B106" s="77" t="s">
+    <row r="106" spans="2:7">
+      <c r="B106" s="32" t="s">
         <v>487</v>
       </c>
-      <c r="C106" s="62" t="s">
+      <c r="C106" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="D106" s="62"/>
-      <c r="E106" s="62"/>
-      <c r="F106" s="62"/>
-      <c r="G106" s="6"/>
-    </row>
-    <row r="107" spans="2:23">
-      <c r="B107" s="77"/>
-      <c r="C107" s="77" t="s">
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="31"/>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="32"/>
+      <c r="C107" s="32" t="s">
         <v>489</v>
       </c>
-      <c r="D107" s="77"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77"/>
-      <c r="G107" s="5"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="30"/>
       <c r="K107" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="108" spans="2:23">
-      <c r="B108" s="77"/>
-      <c r="C108" s="77" t="s">
+    <row r="108" spans="2:6">
+      <c r="B108" s="32"/>
+      <c r="C108" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-    </row>
-    <row r="109" spans="2:23">
-      <c r="B109" s="55" t="s">
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="C109" s="55"/>
-      <c r="D109" s="55"/>
-      <c r="E109" s="55"/>
-      <c r="F109" s="55"/>
-    </row>
-    <row r="110" spans="2:23">
-      <c r="B110" s="55"/>
-      <c r="C110" s="55"/>
-      <c r="D110" s="55"/>
-      <c r="E110" s="55"/>
-      <c r="F110" s="55"/>
-    </row>
-    <row r="116" spans="1:15">
-      <c r="C116" s="4">
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+    </row>
+    <row r="116" spans="3:11">
+      <c r="C116" s="29">
         <v>43395</v>
       </c>
-      <c r="K116" s="4">
+      <c r="K116" s="29">
         <v>43396</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="3:15">
       <c r="C117" t="s">
         <v>493</v>
       </c>
-      <c r="K117" s="55" t="s">
+      <c r="K117" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="L117" s="55"/>
-      <c r="M117" s="55"/>
-      <c r="N117" s="55"/>
-      <c r="O117" s="55"/>
-    </row>
-    <row r="118" spans="1:15">
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10"/>
+      <c r="O117" s="10"/>
+    </row>
+    <row r="118" spans="3:15">
       <c r="C118" t="s">
         <v>495</v>
       </c>
-      <c r="K118" s="55"/>
-      <c r="L118" s="55"/>
-      <c r="M118" s="55"/>
-      <c r="N118" s="55"/>
-      <c r="O118" s="55"/>
-    </row>
-    <row r="119" spans="1:15">
+      <c r="K118" s="10"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
+      <c r="N118" s="10"/>
+      <c r="O118" s="10"/>
+    </row>
+    <row r="119" spans="3:11">
       <c r="C119" t="s">
         <v>496</v>
       </c>
@@ -7510,86 +8072,252 @@
         <v>497</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="11:11">
       <c r="K120" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="11:11">
       <c r="K121" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="11:11">
       <c r="K122" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
-      <c r="A126" s="45">
+    <row r="126" spans="1:4">
+      <c r="A126" s="17">
         <v>43397</v>
       </c>
-      <c r="B126" s="45"/>
-      <c r="C126" s="45"/>
-      <c r="D126" s="45"/>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="A127" s="37" t="s">
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="B127" s="37"/>
-      <c r="C127" s="37"/>
-      <c r="D127" s="37"/>
-    </row>
-    <row r="128" spans="1:15">
-      <c r="A128" s="37"/>
-      <c r="B128" s="37"/>
-      <c r="C128" s="37"/>
-      <c r="D128" s="37"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="16"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="37" t="s">
+      <c r="A129" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="B129" s="37"/>
-      <c r="C129" s="37"/>
-      <c r="D129" s="37"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="37"/>
-      <c r="B130" s="37"/>
-      <c r="C130" s="37"/>
-      <c r="D130" s="37"/>
+      <c r="A130" s="16"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="37" t="s">
+      <c r="A131" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="B131" s="37"/>
-      <c r="C131" s="37"/>
-      <c r="D131" s="37"/>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="37" t="s">
-        <v>503</v>
-      </c>
-      <c r="B132" s="37"/>
-      <c r="C132" s="37"/>
-      <c r="D132" s="37"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="37"/>
-      <c r="B133" s="37"/>
-      <c r="C133" s="37"/>
-      <c r="D133" s="37"/>
+      <c r="A133" s="16"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="10"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="B142" s="38"/>
+      <c r="C142" s="38"/>
+      <c r="D142" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="160">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="H41:Q41"/>
+    <mergeCell ref="U41:AD41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="H42:Q42"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="AC47:AD47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="AC49:AD49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="AC50:AD50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="AC51:AD51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="AC52:AD52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="AC53:AD53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="AC54:AD54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="AC55:AD55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="AC56:AD56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="AC57:AD57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="V58:AD58"/>
+    <mergeCell ref="I59:Q59"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="J64:N64"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="J66:N66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="J70:N70"/>
+    <mergeCell ref="J71:N71"/>
+    <mergeCell ref="J72:N72"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="T80:W80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="K81:P81"/>
+    <mergeCell ref="K82:P82"/>
+    <mergeCell ref="K83:P83"/>
+    <mergeCell ref="K84:P84"/>
+    <mergeCell ref="K85:P85"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="T89:W89"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="T97:W97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="T98:W98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H44:H59"/>
+    <mergeCell ref="I44:I53"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="U43:U58"/>
+    <mergeCell ref="V43:V52"/>
+    <mergeCell ref="V53:V57"/>
+    <mergeCell ref="W43:W45"/>
+    <mergeCell ref="W46:W49"/>
+    <mergeCell ref="W50:W52"/>
+    <mergeCell ref="W54:W56"/>
     <mergeCell ref="A127:D128"/>
     <mergeCell ref="A129:D130"/>
-    <mergeCell ref="A131:D131"/>
     <mergeCell ref="A132:D133"/>
-    <mergeCell ref="A126:D126"/>
     <mergeCell ref="U67:X68"/>
     <mergeCell ref="B82:F83"/>
     <mergeCell ref="B84:F85"/>
@@ -7608,15 +8336,6 @@
     <mergeCell ref="P10:S11"/>
     <mergeCell ref="P12:S13"/>
     <mergeCell ref="P14:S15"/>
-    <mergeCell ref="C107:F107"/>
-    <mergeCell ref="C108:F108"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
     <mergeCell ref="B25:C26"/>
     <mergeCell ref="D25:F26"/>
     <mergeCell ref="B27:C28"/>
@@ -7626,125 +8345,17 @@
     <mergeCell ref="C46:F47"/>
     <mergeCell ref="B69:F70"/>
     <mergeCell ref="B71:F72"/>
-    <mergeCell ref="T89:W89"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="T97:W97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="T98:W98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="C106:F106"/>
-    <mergeCell ref="J72:N72"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="T80:W80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="K81:P81"/>
-    <mergeCell ref="K82:P82"/>
-    <mergeCell ref="K83:P83"/>
-    <mergeCell ref="K84:P84"/>
-    <mergeCell ref="K85:P85"/>
-    <mergeCell ref="T85:W85"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="J66:N66"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="J70:N70"/>
-    <mergeCell ref="J71:N71"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="AC57:AD57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="V58:AD58"/>
-    <mergeCell ref="I59:Q59"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="J64:N64"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="J65:N65"/>
-    <mergeCell ref="H44:H59"/>
-    <mergeCell ref="I44:I53"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="U43:U58"/>
-    <mergeCell ref="V43:V52"/>
-    <mergeCell ref="V53:V57"/>
-    <mergeCell ref="W43:W45"/>
-    <mergeCell ref="W46:W49"/>
-    <mergeCell ref="W50:W52"/>
-    <mergeCell ref="W54:W56"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="AC52:AD52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="AC53:AD53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="AC54:AD54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="AC55:AD55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="AC56:AD56"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="AC48:AD48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="AC49:AD49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="AC50:AD50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="AC51:AD51"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="AC46:AD46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="AC47:AD47"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="H41:Q41"/>
-    <mergeCell ref="U41:AD41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="H42:Q42"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="AC43:AD43"/>
     <mergeCell ref="I30:M32"/>
     <mergeCell ref="P27:T31"/>
     <mergeCell ref="P34:T35"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:M29"/>
     <mergeCell ref="I26:M27"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P7:S7"/>
     <mergeCell ref="I5:J7"/>
     <mergeCell ref="K5:M7"/>
+    <mergeCell ref="A134:D135"/>
+    <mergeCell ref="A140:D141"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/日计划.xlsx
+++ b/日计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作记录1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="514">
   <si>
     <t>完成</t>
   </si>
@@ -1579,18 +1579,28 @@
   <si>
     <t>初步确认键值策略，等待与江辉测试。</t>
   </si>
+  <si>
+    <t>早上好，现在是4:53</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了集成环境怎么使用git</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习git工作流，具体是项目的开发，运行，修复的各种分支</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚硅谷找到了一个想学的linux教程，已经mark</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1620,151 +1630,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1795,188 +1667,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2153,521 +1845,286 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FF0000"/>
+      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2679,7 +2136,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -2701,7 +2158,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2718,6 +2175,44 @@
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>118384</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>38817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>524972</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>9783</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8405134" y="21891888"/>
+          <a:ext cx="4502338" cy="2624359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3006,12 +2501,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:M577"/>
   <sheetViews>
     <sheetView topLeftCell="A550" workbookViewId="0">
@@ -3030,545 +2525,545 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:12">
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="20" t="s">
+      <c r="G8" s="25"/>
+      <c r="H8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" spans="4:12">
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42" t="s">
+      <c r="G9" s="26"/>
+      <c r="H9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-    </row>
-    <row r="10" spans="6:12">
-      <c r="F10" s="41" t="s">
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+    </row>
+    <row r="10" spans="4:12">
+      <c r="F10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-    </row>
-    <row r="11" spans="6:12">
-      <c r="F11" s="41" t="s">
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+    </row>
+    <row r="11" spans="4:12">
+      <c r="F11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="43" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-    </row>
-    <row r="12" spans="6:12">
-      <c r="F12" s="44" t="s">
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="4:12">
+      <c r="F12" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="20" t="s">
+      <c r="G12" s="63"/>
+      <c r="H12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-    </row>
-    <row r="13" spans="6:12">
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="20" t="s">
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="4:12">
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-    </row>
-    <row r="14" spans="6:12">
-      <c r="F14" s="37" t="s">
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="4:12">
+      <c r="F14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="42" t="s">
+      <c r="G14" s="27"/>
+      <c r="H14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="42"/>
-    </row>
-    <row r="15" spans="6:12">
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="41" t="s">
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="4:12">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="42"/>
-    </row>
-    <row r="20" spans="6:11">
-      <c r="F20" s="3" t="s">
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="20" spans="5:11">
+      <c r="F20" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="36" t="s">
+      <c r="G20" s="31"/>
+      <c r="H20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="36"/>
-    </row>
-    <row r="21" spans="6:11">
-      <c r="F21" s="41" t="s">
+      <c r="J20" s="25"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="5:11">
+      <c r="F21" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="36" t="s">
+      <c r="G21" s="33"/>
+      <c r="H21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="41"/>
-      <c r="K21" s="39"/>
-    </row>
-    <row r="22" spans="6:11">
-      <c r="F22" s="3" t="s">
+      <c r="J21" s="26"/>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="5:11">
+      <c r="F22" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="36" t="s">
+      <c r="G22" s="31"/>
+      <c r="H22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="39"/>
-    </row>
-    <row r="23" spans="6:11">
-      <c r="F23" s="3" t="s">
+      <c r="J22" s="26"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="5:11">
+      <c r="F23" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="16" t="s">
+      <c r="G23" s="31"/>
+      <c r="H23" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="41"/>
-      <c r="K23" s="39"/>
-    </row>
-    <row r="24" spans="6:11">
-      <c r="F24" s="47" t="s">
+      <c r="J23" s="26"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="5:11">
+      <c r="F24" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="41" t="s">
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="39"/>
-    </row>
-    <row r="28" spans="6:11">
-      <c r="F28" s="3" t="s">
+      <c r="J24" s="26"/>
+      <c r="K24" s="34"/>
+    </row>
+    <row r="28" spans="5:11">
+      <c r="F28" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="36" t="s">
+      <c r="G28" s="25"/>
+      <c r="H28" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
     </row>
     <row r="29" spans="5:11">
       <c r="E29" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="41" t="s">
+      <c r="F29" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="39" t="s">
+      <c r="G29" s="26"/>
+      <c r="H29" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I29" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="6:11">
-      <c r="F30" s="3" t="s">
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+    </row>
+    <row r="30" spans="5:11">
+      <c r="F30" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="39" t="s">
+      <c r="G30" s="25"/>
+      <c r="H30" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="6:8">
-      <c r="F31" s="16" t="s">
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+    </row>
+    <row r="31" spans="5:11">
+      <c r="F31" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16" t="s">
+      <c r="G31" s="37"/>
+      <c r="H31" s="37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="6:8">
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="6:8">
-      <c r="F33" s="16" t="s">
+    <row r="32" spans="5:11">
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+    </row>
+    <row r="33" spans="6:11">
+      <c r="F33" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="40" t="s">
+      <c r="G33" s="37"/>
+      <c r="H33" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="6:8">
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="39" t="s">
+    <row r="34" spans="6:11">
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="6:7">
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-    </row>
-    <row r="36" spans="6:7">
-      <c r="F36" s="18" t="s">
+    <row r="35" spans="6:11">
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+    </row>
+    <row r="36" spans="6:11">
+      <c r="F36" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="40" spans="6:7">
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
+      <c r="G36" s="39"/>
+    </row>
+    <row r="40" spans="6:11">
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="6:11">
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="36" t="s">
+      <c r="G41" s="38"/>
+      <c r="H41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I41" s="18" t="s">
+      <c r="I41" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="J41" s="19"/>
-      <c r="K41" s="20"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="39"/>
     </row>
     <row r="42" spans="6:11">
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="16" t="s">
+      <c r="G42" s="38"/>
+      <c r="H42" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="41" t="s">
+      <c r="I42" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
     </row>
     <row r="43" spans="6:11">
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="18"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="44" t="s">
+      <c r="G43" s="38"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
     </row>
     <row r="44" spans="6:11">
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="18"/>
-      <c r="H44" s="36" t="s">
+      <c r="G44" s="38"/>
+      <c r="H44" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-    </row>
-    <row r="45" spans="8:8">
-      <c r="H45" s="36" t="s">
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+    </row>
+    <row r="45" spans="6:11">
+      <c r="H45" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="8:8">
-      <c r="H46" s="36" t="s">
+    <row r="46" spans="6:11">
+      <c r="H46" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="8:8">
-      <c r="H47" s="16" t="s">
+    <row r="47" spans="6:11">
+      <c r="H47" s="37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="8:8">
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" spans="8:8">
-      <c r="H49" s="16"/>
-    </row>
-    <row r="50" spans="8:8">
-      <c r="H50" s="16"/>
-    </row>
-    <row r="51" spans="8:8">
-      <c r="H51" s="16"/>
-    </row>
-    <row r="52" spans="8:8">
-      <c r="H52" s="16" t="s">
+    <row r="48" spans="6:11">
+      <c r="H48" s="37"/>
+    </row>
+    <row r="49" spans="6:11">
+      <c r="H49" s="37"/>
+    </row>
+    <row r="50" spans="6:11">
+      <c r="H50" s="37"/>
+    </row>
+    <row r="51" spans="6:11">
+      <c r="H51" s="37"/>
+    </row>
+    <row r="52" spans="6:11">
+      <c r="H52" s="37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="8:8">
-      <c r="H53" s="16"/>
-    </row>
-    <row r="54" spans="8:8">
-      <c r="H54" s="16"/>
+    <row r="53" spans="6:11">
+      <c r="H53" s="37"/>
+    </row>
+    <row r="54" spans="6:11">
+      <c r="H54" s="37"/>
     </row>
     <row r="58" spans="6:11">
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="36" t="s">
+      <c r="G58" s="25"/>
+      <c r="H58" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
     </row>
     <row r="59" spans="6:11">
-      <c r="F59" s="37" t="s">
+      <c r="F59" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G59" s="40"/>
-      <c r="H59" s="39" t="s">
+      <c r="G59" s="41"/>
+      <c r="H59" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
     </row>
     <row r="60" spans="6:11">
-      <c r="F60" s="37" t="s">
+      <c r="F60" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="40"/>
-      <c r="H60" s="49" t="s">
+      <c r="G60" s="41"/>
+      <c r="H60" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I60" s="16" t="s">
+      <c r="I60" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
     </row>
     <row r="61" spans="6:11">
-      <c r="F61" s="44" t="s">
+      <c r="F61" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="G61" s="44"/>
-      <c r="H61" s="36" t="s">
+      <c r="G61" s="63"/>
+      <c r="H61" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
     </row>
     <row r="62" spans="6:11">
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-    </row>
-    <row r="63" spans="9:11">
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-    </row>
-    <row r="67" spans="6:11">
-      <c r="F67" s="16" t="s">
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+    </row>
+    <row r="63" spans="6:11">
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+    </row>
+    <row r="67" spans="3:11">
+      <c r="F67" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="52"/>
-      <c r="H67" s="45" t="s">
+      <c r="G67" s="42"/>
+      <c r="H67" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
     </row>
     <row r="68" spans="3:11">
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="41" t="s">
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="39"/>
-      <c r="H68" s="45" t="s">
+      <c r="G68" s="34"/>
+      <c r="H68" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="I68" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="6:11">
-      <c r="F69" s="41" t="s">
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+    </row>
+    <row r="69" spans="3:11">
+      <c r="F69" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G69" s="39"/>
-      <c r="H69" s="45" t="s">
+      <c r="G69" s="34"/>
+      <c r="H69" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I69" s="41" t="s">
+      <c r="I69" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
-    </row>
-    <row r="70" spans="6:11">
-      <c r="F70" s="16" t="s">
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+    </row>
+    <row r="70" spans="3:11">
+      <c r="F70" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G70" s="16"/>
-      <c r="H70" s="53" t="s">
+      <c r="G70" s="37"/>
+      <c r="H70" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="I70" s="44" t="s">
+      <c r="I70" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="J70" s="44"/>
-      <c r="K70" s="44"/>
-    </row>
-    <row r="71" spans="6:11">
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44"/>
-    </row>
-    <row r="72" spans="6:11">
-      <c r="F72" s="44" t="s">
+      <c r="J70" s="63"/>
+      <c r="K70" s="63"/>
+    </row>
+    <row r="71" spans="3:11">
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="63"/>
+      <c r="K71" s="63"/>
+    </row>
+    <row r="72" spans="3:11">
+      <c r="F72" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="G72" s="44"/>
-      <c r="H72" s="46" t="s">
+      <c r="G72" s="63"/>
+      <c r="H72" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="I72" s="44" t="s">
+      <c r="I72" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="J72" s="44"/>
-      <c r="K72" s="44"/>
-    </row>
-    <row r="73" spans="6:11">
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="44"/>
-      <c r="K73" s="44"/>
-    </row>
-    <row r="74" spans="6:11">
-      <c r="F74" s="16" t="s">
+      <c r="J72" s="63"/>
+      <c r="K72" s="63"/>
+    </row>
+    <row r="73" spans="3:11">
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="63"/>
+      <c r="K73" s="63"/>
+    </row>
+    <row r="74" spans="3:11">
+      <c r="F74" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="G74" s="16"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="44"/>
-    </row>
-    <row r="75" spans="6:11">
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="44"/>
-      <c r="K75" s="44"/>
-    </row>
-    <row r="78" spans="7:10">
+      <c r="G74" s="37"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="63"/>
+    </row>
+    <row r="75" spans="3:11">
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+    </row>
+    <row r="78" spans="3:11">
       <c r="G78" t="s">
         <v>91</v>
       </c>
@@ -3579,178 +3074,182 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="6:11">
-      <c r="F79" s="38" t="s">
+    <row r="79" spans="3:11">
+      <c r="F79" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="H79" s="10" t="s">
+      <c r="G79" s="44"/>
+      <c r="H79" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="I79" s="38" t="s">
+      <c r="I79" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38"/>
-    </row>
-    <row r="80" spans="8:11">
-      <c r="H80" s="10"/>
-      <c r="I80" s="38" t="s">
+      <c r="J79" s="43"/>
+      <c r="K79" s="43"/>
+    </row>
+    <row r="80" spans="3:11">
+      <c r="H80" s="55"/>
+      <c r="I80" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38"/>
-    </row>
-    <row r="81" spans="10:10">
+      <c r="J80" s="43"/>
+      <c r="K80" s="43"/>
+    </row>
+    <row r="81" spans="3:10">
       <c r="J81" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="6:8">
-      <c r="F86" s="36"/>
-      <c r="G86" s="36" t="s">
+    <row r="86" spans="3:10">
+      <c r="F86" s="8"/>
+      <c r="G86" s="8" t="s">
         <v>99</v>
       </c>
       <c r="H86" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="3:8">
-      <c r="C87" s="54" t="s">
+    <row r="87" spans="3:10">
+      <c r="C87" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="44" t="s">
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="G87" s="44"/>
+      <c r="G87" s="63"/>
       <c r="H87" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="3:8">
-      <c r="C88" s="54"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
+    <row r="88" spans="3:10">
+      <c r="C88" s="60"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="63"/>
       <c r="H88" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="6:7">
-      <c r="F89" s="36"/>
-      <c r="G89" s="36" t="s">
+    <row r="89" spans="3:10">
+      <c r="F89" s="8"/>
+      <c r="G89" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="6:7">
-      <c r="F90" s="36"/>
-      <c r="G90" s="36" t="s">
+    <row r="90" spans="3:10">
+      <c r="F90" s="8"/>
+      <c r="G90" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="6:7">
-      <c r="F91" s="36"/>
-      <c r="G91" s="36" t="s">
+    <row r="91" spans="3:10">
+      <c r="F91" s="8"/>
+      <c r="G91" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="6:9">
-      <c r="F96" s="38" t="s">
+    <row r="96" spans="3:10">
+      <c r="F96" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="H96" s="18">
-        <v>2.24</v>
-      </c>
-      <c r="I96" s="20"/>
-    </row>
-    <row r="97" spans="6:9">
-      <c r="F97" s="38" t="s">
+      <c r="G96" s="44"/>
+      <c r="H96" s="38">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I96" s="39"/>
+    </row>
+    <row r="97" spans="6:10">
+      <c r="F97" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="G97" s="44"/>
+      <c r="H97" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="8:9">
-      <c r="H98" s="16" t="s">
+      <c r="I97" s="25"/>
+    </row>
+    <row r="98" spans="6:10">
+      <c r="H98" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="I98" s="16"/>
-    </row>
-    <row r="99" spans="8:9">
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-    </row>
-    <row r="100" spans="8:9">
-      <c r="H100" s="16" t="s">
+      <c r="I98" s="37"/>
+    </row>
+    <row r="99" spans="6:10">
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
+    </row>
+    <row r="100" spans="6:10">
+      <c r="H100" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="I100" s="16"/>
-    </row>
-    <row r="101" spans="8:9">
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-    </row>
-    <row r="102" spans="8:9">
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-    </row>
-    <row r="103" spans="8:9">
-      <c r="H103" s="16" t="s">
+      <c r="I100" s="37"/>
+    </row>
+    <row r="101" spans="6:10">
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+    </row>
+    <row r="102" spans="6:10">
+      <c r="H102" s="37"/>
+      <c r="I102" s="37"/>
+    </row>
+    <row r="103" spans="6:10">
+      <c r="H103" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="I103" s="16"/>
-    </row>
-    <row r="104" spans="8:9">
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-    </row>
-    <row r="108" spans="7:10">
+      <c r="I103" s="37"/>
+    </row>
+    <row r="104" spans="6:10">
+      <c r="H104" s="37"/>
+      <c r="I104" s="37"/>
+    </row>
+    <row r="108" spans="6:10">
       <c r="G108">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H108">
         <v>2.27</v>
       </c>
-      <c r="I108" s="3">
-        <v>2.28</v>
-      </c>
-      <c r="J108" s="3"/>
-    </row>
-    <row r="109" spans="7:10">
+      <c r="I108" s="25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J108" s="25"/>
+    </row>
+    <row r="109" spans="6:10">
       <c r="G109" t="s">
         <v>113</v>
       </c>
       <c r="H109" t="s">
         <v>114</v>
       </c>
-      <c r="I109" s="3" t="s">
+      <c r="I109" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="J109" s="3"/>
-    </row>
-    <row r="110" spans="8:10">
+      <c r="J109" s="25"/>
+    </row>
+    <row r="110" spans="6:10">
       <c r="H110" t="s">
         <v>113</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="I110" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="J110" s="3"/>
-    </row>
-    <row r="113" spans="7:9">
+      <c r="J110" s="25"/>
+    </row>
+    <row r="113" spans="7:10">
       <c r="G113">
         <v>3.1</v>
       </c>
       <c r="H113">
         <v>3.2</v>
       </c>
-      <c r="I113" s="38">
+      <c r="I113" s="43">
         <v>3.3</v>
       </c>
+      <c r="J113" s="44"/>
     </row>
     <row r="114" spans="7:10">
       <c r="G114" t="s">
@@ -3759,10 +3258,10 @@
       <c r="H114" t="s">
         <v>115</v>
       </c>
-      <c r="I114" s="38" t="s">
+      <c r="I114" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="J114" s="38"/>
+      <c r="J114" s="43"/>
     </row>
     <row r="115" spans="7:10">
       <c r="G115" t="s">
@@ -3771,19 +3270,20 @@
       <c r="H115" t="s">
         <v>116</v>
       </c>
-      <c r="I115" s="30"/>
-      <c r="J115" s="30"/>
-    </row>
-    <row r="119" spans="7:9">
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+    </row>
+    <row r="119" spans="7:10">
       <c r="G119">
         <v>3.5</v>
       </c>
       <c r="H119">
         <v>3.6</v>
       </c>
-      <c r="I119" s="38">
+      <c r="I119" s="43">
         <v>3.7</v>
       </c>
+      <c r="J119" s="44"/>
     </row>
     <row r="120" spans="7:10">
       <c r="G120" t="s">
@@ -3792,12 +3292,12 @@
       <c r="H120" t="s">
         <v>118</v>
       </c>
-      <c r="I120" s="38" t="s">
+      <c r="I120" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="J120" s="38"/>
-    </row>
-    <row r="121" spans="8:9">
+      <c r="J120" s="43"/>
+    </row>
+    <row r="121" spans="7:10">
       <c r="H121" t="s">
         <v>120</v>
       </c>
@@ -3805,7 +3305,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="9:9">
+    <row r="122" spans="7:10">
       <c r="I122" t="s">
         <v>122</v>
       </c>
@@ -3817,35 +3317,37 @@
       <c r="H127">
         <v>3.13</v>
       </c>
-      <c r="I127" s="38">
+      <c r="I127" s="43">
         <v>3.14</v>
       </c>
-      <c r="J127" s="38"/>
-    </row>
-    <row r="128" spans="7:9">
-      <c r="G128" s="10" t="s">
+      <c r="J127" s="43"/>
+    </row>
+    <row r="128" spans="7:10">
+      <c r="G128" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="H128" s="10" t="s">
+      <c r="H128" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="I128" s="38" t="s">
+      <c r="I128" s="43" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="129" spans="7:9">
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="38" t="s">
+      <c r="J128" s="44"/>
+    </row>
+    <row r="129" spans="7:10">
+      <c r="G129" s="55"/>
+      <c r="H129" s="55"/>
+      <c r="I129" s="43" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="130" spans="7:7">
+      <c r="J129" s="44"/>
+    </row>
+    <row r="130" spans="7:10">
       <c r="G130" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="135" spans="7:8">
+    <row r="135" spans="7:10">
       <c r="G135">
         <v>3.21</v>
       </c>
@@ -3853,7 +3355,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="136" spans="7:8">
+    <row r="136" spans="7:10">
       <c r="G136" t="s">
         <v>128</v>
       </c>
@@ -3862,10 +3364,10 @@
       </c>
     </row>
     <row r="140" spans="7:10">
-      <c r="G140" s="36">
+      <c r="G140" s="8">
         <v>3.26</v>
       </c>
-      <c r="H140" s="36">
+      <c r="H140" s="8">
         <v>3.27</v>
       </c>
       <c r="J140">
@@ -3873,10 +3375,10 @@
       </c>
     </row>
     <row r="141" spans="7:10">
-      <c r="G141" s="16" t="s">
+      <c r="G141" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="H141" s="36" t="s">
+      <c r="H141" s="8" t="s">
         <v>131</v>
       </c>
       <c r="J141" t="s">
@@ -3884,344 +3386,344 @@
       </c>
     </row>
     <row r="142" spans="7:10">
-      <c r="G142" s="16"/>
-      <c r="H142" s="36" t="s">
+      <c r="G142" s="37"/>
+      <c r="H142" s="8" t="s">
         <v>133</v>
       </c>
       <c r="J142" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="7:8">
-      <c r="G143" s="3" t="s">
+    <row r="143" spans="7:10">
+      <c r="G143" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H143" s="36" t="s">
+      <c r="H143" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="144" spans="7:8">
-      <c r="G144" s="16" t="s">
+    <row r="144" spans="7:10">
+      <c r="G144" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="H144" s="36" t="s">
+      <c r="H144" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="145" spans="7:7">
-      <c r="G145" s="16"/>
-    </row>
-    <row r="146" spans="7:7">
-      <c r="G146" s="16"/>
-    </row>
-    <row r="149" spans="7:10">
-      <c r="G149" s="29">
+    <row r="145" spans="3:10">
+      <c r="G145" s="37"/>
+    </row>
+    <row r="146" spans="3:10">
+      <c r="G146" s="37"/>
+    </row>
+    <row r="149" spans="3:10">
+      <c r="G149" s="4">
         <v>43188</v>
       </c>
-      <c r="H149" s="29">
+      <c r="H149" s="4">
         <v>43189</v>
       </c>
-      <c r="J149" s="57">
+      <c r="J149" s="20">
         <v>43190</v>
       </c>
     </row>
     <row r="150" spans="3:10">
-      <c r="C150" s="55" t="s">
+      <c r="C150" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="D150" s="55"/>
-      <c r="E150" s="55"/>
-      <c r="F150" s="55"/>
-      <c r="G150" s="16" t="s">
+      <c r="D150" s="61"/>
+      <c r="E150" s="61"/>
+      <c r="F150" s="61"/>
+      <c r="G150" s="37" t="s">
         <v>140</v>
       </c>
       <c r="H150" t="s">
         <v>141</v>
       </c>
-      <c r="J150" s="36" t="s">
+      <c r="J150" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="151" spans="3:10">
-      <c r="C151" s="55"/>
-      <c r="D151" s="55"/>
-      <c r="E151" s="55"/>
-      <c r="F151" s="55"/>
-      <c r="G151" s="16"/>
+      <c r="C151" s="61"/>
+      <c r="D151" s="61"/>
+      <c r="E151" s="61"/>
+      <c r="F151" s="61"/>
+      <c r="G151" s="37"/>
       <c r="H151" t="s">
         <v>142</v>
       </c>
-      <c r="J151" s="16" t="s">
+      <c r="J151" s="37" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="152" spans="3:10">
-      <c r="C152" s="55"/>
-      <c r="D152" s="55"/>
-      <c r="E152" s="55"/>
-      <c r="F152" s="55"/>
-      <c r="G152" s="16"/>
-      <c r="J152" s="16"/>
-    </row>
-    <row r="153" spans="7:10">
-      <c r="G153" s="16" t="s">
+      <c r="C152" s="61"/>
+      <c r="D152" s="61"/>
+      <c r="E152" s="61"/>
+      <c r="F152" s="61"/>
+      <c r="G152" s="37"/>
+      <c r="J152" s="37"/>
+    </row>
+    <row r="153" spans="3:10">
+      <c r="G153" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="J153" s="16" t="s">
+      <c r="J153" s="37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="7:10">
-      <c r="G154" s="16"/>
-      <c r="J154" s="16"/>
-    </row>
-    <row r="155" spans="7:10">
-      <c r="G155" s="16"/>
-      <c r="J155" s="16"/>
-    </row>
-    <row r="156" spans="7:10">
-      <c r="G156" s="16"/>
-      <c r="J156" s="16"/>
-    </row>
-    <row r="157" spans="7:10">
-      <c r="G157" s="16" t="s">
+    <row r="154" spans="3:10">
+      <c r="G154" s="37"/>
+      <c r="J154" s="37"/>
+    </row>
+    <row r="155" spans="3:10">
+      <c r="G155" s="37"/>
+      <c r="J155" s="37"/>
+    </row>
+    <row r="156" spans="3:10">
+      <c r="G156" s="37"/>
+      <c r="J156" s="37"/>
+    </row>
+    <row r="157" spans="3:10">
+      <c r="G157" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="J157" s="16"/>
-    </row>
-    <row r="158" spans="7:10">
-      <c r="G158" s="16"/>
-      <c r="J158" s="16"/>
-    </row>
-    <row r="159" spans="7:10">
-      <c r="G159" s="16"/>
-      <c r="J159" s="16"/>
-    </row>
-    <row r="160" spans="7:10">
-      <c r="G160" s="16"/>
-      <c r="J160" s="16" t="s">
+      <c r="J157" s="37"/>
+    </row>
+    <row r="158" spans="3:10">
+      <c r="G158" s="37"/>
+      <c r="J158" s="37"/>
+    </row>
+    <row r="159" spans="3:10">
+      <c r="G159" s="37"/>
+      <c r="J159" s="37"/>
+    </row>
+    <row r="160" spans="3:10">
+      <c r="G160" s="37"/>
+      <c r="J160" s="37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="7:10">
-      <c r="G161" s="16" t="s">
+    <row r="161" spans="2:10">
+      <c r="G161" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="J161" s="16"/>
-    </row>
-    <row r="162" spans="7:10">
-      <c r="G162" s="16"/>
-      <c r="J162" s="16"/>
-    </row>
-    <row r="163" spans="7:7">
-      <c r="G163" s="16"/>
-    </row>
-    <row r="166" spans="7:10">
-      <c r="G166" s="56">
+      <c r="J161" s="37"/>
+    </row>
+    <row r="162" spans="2:10">
+      <c r="G162" s="37"/>
+      <c r="J162" s="37"/>
+    </row>
+    <row r="163" spans="2:10">
+      <c r="G163" s="37"/>
+    </row>
+    <row r="166" spans="2:10">
+      <c r="G166" s="19">
         <v>43192</v>
       </c>
-      <c r="H166" s="57">
+      <c r="H166" s="20">
         <v>43193</v>
       </c>
-      <c r="I166" s="17">
+      <c r="I166" s="45">
         <v>43194</v>
       </c>
-      <c r="J166" s="57"/>
-    </row>
-    <row r="167" spans="7:10">
-      <c r="G167" s="45" t="s">
+      <c r="J166" s="46"/>
+    </row>
+    <row r="167" spans="2:10">
+      <c r="G167" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="H167" s="36" t="s">
+      <c r="H167" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="I167" s="16" t="s">
+      <c r="I167" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="J167" s="16"/>
-    </row>
-    <row r="168" spans="7:10">
-      <c r="G168" s="58" t="s">
+      <c r="J167" s="37"/>
+    </row>
+    <row r="168" spans="2:10">
+      <c r="G168" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="H168" s="36" t="s">
+      <c r="H168" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I168" s="16"/>
-      <c r="J168" s="16"/>
-    </row>
-    <row r="169" spans="7:10">
-      <c r="G169" s="58"/>
-      <c r="H169" s="16" t="s">
+      <c r="I168" s="37"/>
+      <c r="J168" s="37"/>
+    </row>
+    <row r="169" spans="2:10">
+      <c r="G169" s="56"/>
+      <c r="H169" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="I169" s="16"/>
-      <c r="J169" s="16"/>
-    </row>
-    <row r="170" spans="8:10">
-      <c r="H170" s="16"/>
-      <c r="I170" s="3" t="s">
+      <c r="I169" s="37"/>
+      <c r="J169" s="37"/>
+    </row>
+    <row r="170" spans="2:10">
+      <c r="H170" s="37"/>
+      <c r="I170" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="J170" s="36"/>
-    </row>
-    <row r="175" spans="7:7">
-      <c r="G175" s="29">
+      <c r="J170" s="32"/>
+    </row>
+    <row r="175" spans="2:10">
+      <c r="G175" s="4">
         <v>43199</v>
       </c>
     </row>
-    <row r="176" spans="2:7">
-      <c r="B176" s="3" t="s">
+    <row r="176" spans="2:10">
+      <c r="B176" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="25"/>
+      <c r="E176" s="25"/>
       <c r="G176" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="177" spans="2:5">
-      <c r="B177" s="3" t="s">
+    <row r="177" spans="2:10">
+      <c r="B177" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-    </row>
-    <row r="178" spans="2:5">
-      <c r="B178" s="33" t="s">
+      <c r="C177" s="25"/>
+      <c r="D177" s="25"/>
+      <c r="E177" s="25"/>
+    </row>
+    <row r="178" spans="2:10">
+      <c r="B178" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="C178" s="33"/>
-      <c r="D178" s="33"/>
-      <c r="E178" s="33"/>
-    </row>
-    <row r="179" spans="2:5">
-      <c r="B179" s="33"/>
-      <c r="C179" s="33"/>
-      <c r="D179" s="33"/>
-      <c r="E179" s="33"/>
-    </row>
-    <row r="180" spans="2:5">
-      <c r="B180" s="33"/>
-      <c r="C180" s="33"/>
-      <c r="D180" s="33"/>
-      <c r="E180" s="33"/>
-    </row>
-    <row r="181" spans="2:5">
-      <c r="B181" s="33"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
+      <c r="C178" s="62"/>
+      <c r="D178" s="62"/>
+      <c r="E178" s="62"/>
+    </row>
+    <row r="179" spans="2:10">
+      <c r="B179" s="62"/>
+      <c r="C179" s="62"/>
+      <c r="D179" s="62"/>
+      <c r="E179" s="62"/>
+    </row>
+    <row r="180" spans="2:10">
+      <c r="B180" s="62"/>
+      <c r="C180" s="62"/>
+      <c r="D180" s="62"/>
+      <c r="E180" s="62"/>
+    </row>
+    <row r="181" spans="2:10">
+      <c r="B181" s="62"/>
+      <c r="C181" s="62"/>
+      <c r="D181" s="62"/>
+      <c r="E181" s="62"/>
     </row>
     <row r="182" spans="2:10">
-      <c r="B182" s="33"/>
-      <c r="C182" s="33"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="33"/>
-      <c r="G182" s="29">
+      <c r="B182" s="62"/>
+      <c r="C182" s="62"/>
+      <c r="D182" s="62"/>
+      <c r="E182" s="62"/>
+      <c r="G182" s="4">
         <v>43211</v>
       </c>
-      <c r="H182" s="57">
+      <c r="H182" s="20">
         <v>43215</v>
       </c>
-      <c r="I182" s="17">
+      <c r="I182" s="45">
         <v>43216</v>
       </c>
-      <c r="J182" s="57"/>
+      <c r="J182" s="46"/>
     </row>
     <row r="183" spans="2:10">
-      <c r="B183" s="33"/>
-      <c r="C183" s="33"/>
-      <c r="D183" s="33"/>
-      <c r="E183" s="33"/>
+      <c r="B183" s="62"/>
+      <c r="C183" s="62"/>
+      <c r="D183" s="62"/>
+      <c r="E183" s="62"/>
       <c r="G183" t="s">
         <v>160</v>
       </c>
-      <c r="H183" s="16" t="s">
+      <c r="H183" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="I183" s="16" t="s">
+      <c r="I183" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="J183" s="16"/>
+      <c r="J183" s="37"/>
     </row>
     <row r="184" spans="2:10">
-      <c r="B184" s="33"/>
-      <c r="C184" s="33"/>
-      <c r="D184" s="33"/>
-      <c r="E184" s="33"/>
-      <c r="H184" s="16"/>
-      <c r="I184" s="16"/>
-      <c r="J184" s="16"/>
-    </row>
-    <row r="185" spans="8:10">
-      <c r="H185" s="16"/>
-      <c r="I185" s="10" t="s">
+      <c r="B184" s="62"/>
+      <c r="C184" s="62"/>
+      <c r="D184" s="62"/>
+      <c r="E184" s="62"/>
+      <c r="H184" s="37"/>
+      <c r="I184" s="37"/>
+      <c r="J184" s="37"/>
+    </row>
+    <row r="185" spans="2:10">
+      <c r="H185" s="37"/>
+      <c r="I185" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="J185" s="10"/>
-    </row>
-    <row r="186" spans="8:10">
-      <c r="H186" s="16"/>
-      <c r="I186" s="10"/>
-      <c r="J186" s="10"/>
-    </row>
-    <row r="187" spans="9:10">
-      <c r="I187" s="10"/>
-      <c r="J187" s="10"/>
-    </row>
-    <row r="188" spans="9:10">
-      <c r="I188" s="10"/>
-      <c r="J188" s="10"/>
-    </row>
-    <row r="191" spans="7:8">
-      <c r="G191" s="29">
+      <c r="J185" s="55"/>
+    </row>
+    <row r="186" spans="2:10">
+      <c r="H186" s="37"/>
+      <c r="I186" s="55"/>
+      <c r="J186" s="55"/>
+    </row>
+    <row r="187" spans="2:10">
+      <c r="I187" s="55"/>
+      <c r="J187" s="55"/>
+    </row>
+    <row r="188" spans="2:10">
+      <c r="I188" s="55"/>
+      <c r="J188" s="55"/>
+    </row>
+    <row r="191" spans="2:10">
+      <c r="G191" s="4">
         <v>43217</v>
       </c>
-      <c r="H191" s="57">
+      <c r="H191" s="20">
         <v>43218</v>
       </c>
     </row>
-    <row r="192" spans="7:8">
-      <c r="G192" s="10" t="s">
+    <row r="192" spans="2:10">
+      <c r="G192" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="H192" s="16" t="s">
+      <c r="H192" s="37" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="193" spans="7:8">
-      <c r="G193" s="10"/>
-      <c r="H193" s="16"/>
-    </row>
-    <row r="194" spans="7:8">
-      <c r="G194" s="10"/>
-      <c r="H194" s="16"/>
-    </row>
-    <row r="195" spans="7:8">
-      <c r="G195" s="10"/>
-      <c r="H195" s="16"/>
-    </row>
-    <row r="196" spans="7:8">
-      <c r="G196" s="10"/>
-      <c r="H196" s="16"/>
-    </row>
-    <row r="197" spans="8:8">
-      <c r="H197" s="16"/>
-    </row>
-    <row r="198" spans="8:8">
-      <c r="H198" s="16"/>
+    <row r="193" spans="7:10">
+      <c r="G193" s="55"/>
+      <c r="H193" s="37"/>
+    </row>
+    <row r="194" spans="7:10">
+      <c r="G194" s="55"/>
+      <c r="H194" s="37"/>
+    </row>
+    <row r="195" spans="7:10">
+      <c r="G195" s="55"/>
+      <c r="H195" s="37"/>
+    </row>
+    <row r="196" spans="7:10">
+      <c r="G196" s="55"/>
+      <c r="H196" s="37"/>
+    </row>
+    <row r="197" spans="7:10">
+      <c r="H197" s="37"/>
+    </row>
+    <row r="198" spans="7:10">
+      <c r="H198" s="37"/>
     </row>
     <row r="202" spans="7:10">
-      <c r="G202" s="29">
+      <c r="G202" s="4">
         <v>43223</v>
       </c>
-      <c r="H202" s="29">
+      <c r="H202" s="4">
         <v>43225</v>
       </c>
-      <c r="J202" s="29">
+      <c r="J202" s="4">
         <v>43227</v>
       </c>
     </row>
@@ -4232,152 +3734,152 @@
       <c r="H203" t="s">
         <v>167</v>
       </c>
-      <c r="I203" s="10" t="s">
+      <c r="I203" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="J203" s="10"/>
+      <c r="J203" s="55"/>
     </row>
     <row r="204" spans="7:10">
       <c r="G204" t="s">
         <v>169</v>
       </c>
-      <c r="I204" s="10"/>
-      <c r="J204" s="10"/>
-    </row>
-    <row r="205" spans="10:10">
+      <c r="I204" s="55"/>
+      <c r="J204" s="55"/>
+    </row>
+    <row r="205" spans="7:10">
       <c r="J205" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="208" spans="10:10">
-      <c r="J208" s="29"/>
-    </row>
-    <row r="209" spans="7:8">
-      <c r="G209" s="57">
+    <row r="208" spans="7:10">
+      <c r="J208" s="4"/>
+    </row>
+    <row r="209" spans="7:10">
+      <c r="G209" s="20">
         <v>43231</v>
       </c>
-      <c r="H209" s="29">
+      <c r="H209" s="4">
         <v>43234</v>
       </c>
     </row>
-    <row r="210" spans="7:8">
-      <c r="G210" s="16" t="s">
+    <row r="210" spans="7:10">
+      <c r="G210" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="H210" s="10" t="s">
+      <c r="H210" s="55" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="211" spans="7:8">
-      <c r="G211" s="16"/>
-      <c r="H211" s="10"/>
-    </row>
-    <row r="212" spans="7:7">
-      <c r="G212" s="16"/>
-    </row>
-    <row r="213" spans="7:7">
-      <c r="G213" s="36" t="s">
+    <row r="211" spans="7:10">
+      <c r="G211" s="37"/>
+      <c r="H211" s="55"/>
+    </row>
+    <row r="212" spans="7:10">
+      <c r="G212" s="37"/>
+    </row>
+    <row r="213" spans="7:10">
+      <c r="G213" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="214" spans="7:7">
-      <c r="G214" s="16" t="s">
+    <row r="214" spans="7:10">
+      <c r="G214" s="37" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="215" spans="7:7">
-      <c r="G215" s="52"/>
+    <row r="215" spans="7:10">
+      <c r="G215" s="42"/>
     </row>
     <row r="220" spans="7:10">
-      <c r="G220" s="59">
+      <c r="G220" s="21">
         <v>43236</v>
       </c>
-      <c r="H220" s="59">
+      <c r="H220" s="21">
         <v>43238</v>
       </c>
-      <c r="I220" s="17">
+      <c r="I220" s="45">
         <v>43239</v>
       </c>
-      <c r="J220" s="57"/>
+      <c r="J220" s="46"/>
     </row>
     <row r="221" spans="7:10">
-      <c r="G221" s="3" t="s">
+      <c r="G221" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="H221" s="3"/>
-      <c r="I221" s="60" t="s">
+      <c r="H221" s="25"/>
+      <c r="I221" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="J221" s="16"/>
+      <c r="J221" s="37"/>
     </row>
     <row r="222" spans="7:10">
-      <c r="G222" s="16" t="s">
+      <c r="G222" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="H222" s="16"/>
-      <c r="I222" s="60"/>
-      <c r="J222" s="16"/>
+      <c r="H222" s="37"/>
+      <c r="I222" s="64"/>
+      <c r="J222" s="37"/>
     </row>
     <row r="223" spans="7:10">
-      <c r="G223" s="16"/>
-      <c r="H223" s="16"/>
-      <c r="I223" s="20" t="s">
+      <c r="G223" s="37"/>
+      <c r="H223" s="37"/>
+      <c r="I223" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="J223" s="36"/>
-    </row>
-    <row r="224" spans="7:8">
-      <c r="G224" s="3" t="s">
+      <c r="J223" s="32"/>
+    </row>
+    <row r="224" spans="7:10">
+      <c r="G224" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="H224" s="3"/>
+      <c r="H224" s="25"/>
     </row>
     <row r="229" spans="7:10">
-      <c r="G229" s="29">
+      <c r="G229" s="4">
         <v>43241</v>
       </c>
-      <c r="H229" s="29">
+      <c r="H229" s="4">
         <v>43243</v>
       </c>
-      <c r="I229" s="17">
+      <c r="I229" s="45">
         <v>43244</v>
       </c>
-      <c r="J229" s="57"/>
+      <c r="J229" s="46"/>
     </row>
     <row r="230" spans="7:10">
-      <c r="G230" s="10" t="s">
+      <c r="G230" s="55" t="s">
         <v>180</v>
       </c>
       <c r="H230" t="s">
         <v>181</v>
       </c>
-      <c r="I230" s="16" t="s">
+      <c r="I230" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="J230" s="16"/>
+      <c r="J230" s="37"/>
     </row>
     <row r="231" spans="7:10">
-      <c r="G231" s="10"/>
+      <c r="G231" s="55"/>
       <c r="H231" t="s">
         <v>183</v>
       </c>
-      <c r="I231" s="16"/>
-      <c r="J231" s="16"/>
+      <c r="I231" s="37"/>
+      <c r="J231" s="37"/>
     </row>
     <row r="232" spans="7:10">
-      <c r="G232" s="10"/>
-      <c r="I232" s="3" t="s">
+      <c r="G232" s="55"/>
+      <c r="I232" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="J232" s="36"/>
-    </row>
-    <row r="233" spans="9:9">
+      <c r="J232" s="32"/>
+    </row>
+    <row r="233" spans="7:10">
       <c r="I233" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="238" spans="7:7">
-      <c r="G238" s="29">
+    <row r="238" spans="7:10">
+      <c r="G238" s="4">
         <v>43245</v>
       </c>
     </row>
@@ -4385,77 +3887,77 @@
       <c r="G239" t="s">
         <v>186</v>
       </c>
-      <c r="I239" s="17">
+      <c r="I239" s="45">
         <v>43248</v>
       </c>
-      <c r="J239" s="57"/>
+      <c r="J239" s="46"/>
     </row>
     <row r="240" spans="7:10">
-      <c r="G240" s="10" t="s">
+      <c r="G240" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="I240" s="3" t="s">
+      <c r="I240" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="J240" s="36"/>
+      <c r="J240" s="32"/>
     </row>
     <row r="241" spans="7:10">
-      <c r="G241" s="10"/>
-      <c r="I241" s="16" t="s">
+      <c r="G241" s="55"/>
+      <c r="I241" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="J241" s="16"/>
+      <c r="J241" s="37"/>
     </row>
     <row r="242" spans="7:10">
-      <c r="G242" s="10"/>
-      <c r="I242" s="16"/>
-      <c r="J242" s="16"/>
+      <c r="G242" s="55"/>
+      <c r="I242" s="37"/>
+      <c r="J242" s="37"/>
     </row>
     <row r="243" spans="7:10">
-      <c r="G243" s="10"/>
-      <c r="I243" s="16" t="s">
+      <c r="G243" s="55"/>
+      <c r="I243" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="J243" s="16"/>
+      <c r="J243" s="37"/>
     </row>
     <row r="244" spans="7:10">
-      <c r="G244" s="10"/>
-      <c r="I244" s="16"/>
-      <c r="J244" s="16"/>
-    </row>
-    <row r="245" spans="9:10">
-      <c r="I245" s="16"/>
-      <c r="J245" s="16"/>
-    </row>
-    <row r="246" spans="9:10">
-      <c r="I246" s="16"/>
-      <c r="J246" s="16"/>
-    </row>
-    <row r="247" spans="9:10">
-      <c r="I247" s="16"/>
-      <c r="J247" s="16"/>
-    </row>
-    <row r="248" spans="9:10">
-      <c r="I248" s="16"/>
-      <c r="J248" s="16"/>
-    </row>
-    <row r="249" spans="9:10">
-      <c r="I249" s="16"/>
-      <c r="J249" s="16"/>
-    </row>
-    <row r="250" spans="9:10">
-      <c r="I250" s="16"/>
-      <c r="J250" s="16"/>
-    </row>
-    <row r="254" spans="7:8">
-      <c r="G254" s="29">
+      <c r="G244" s="55"/>
+      <c r="I244" s="37"/>
+      <c r="J244" s="37"/>
+    </row>
+    <row r="245" spans="7:10">
+      <c r="I245" s="37"/>
+      <c r="J245" s="37"/>
+    </row>
+    <row r="246" spans="7:10">
+      <c r="I246" s="37"/>
+      <c r="J246" s="37"/>
+    </row>
+    <row r="247" spans="7:10">
+      <c r="I247" s="37"/>
+      <c r="J247" s="37"/>
+    </row>
+    <row r="248" spans="7:10">
+      <c r="I248" s="37"/>
+      <c r="J248" s="37"/>
+    </row>
+    <row r="249" spans="7:10">
+      <c r="I249" s="37"/>
+      <c r="J249" s="37"/>
+    </row>
+    <row r="250" spans="7:10">
+      <c r="I250" s="37"/>
+      <c r="J250" s="37"/>
+    </row>
+    <row r="254" spans="7:10">
+      <c r="G254" s="4">
         <v>43249</v>
       </c>
-      <c r="H254" s="29">
+      <c r="H254" s="4">
         <v>43250</v>
       </c>
     </row>
-    <row r="255" spans="7:8">
+    <row r="255" spans="7:10">
       <c r="G255" t="s">
         <v>191</v>
       </c>
@@ -4463,254 +3965,254 @@
         <v>192</v>
       </c>
     </row>
-    <row r="256" spans="7:8">
-      <c r="G256" s="10" t="s">
+    <row r="256" spans="7:10">
+      <c r="G256" s="55" t="s">
         <v>193</v>
       </c>
       <c r="H256" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="257" spans="7:7">
-      <c r="G257" s="10"/>
+    <row r="257" spans="7:10">
+      <c r="G257" s="55"/>
     </row>
     <row r="264" spans="7:10">
-      <c r="G264" s="17">
+      <c r="G264" s="2">
         <v>43252</v>
       </c>
-      <c r="H264" s="57">
+      <c r="H264" s="20">
         <v>43253</v>
       </c>
-      <c r="I264" s="17">
+      <c r="I264" s="45">
         <v>43255</v>
       </c>
-      <c r="J264" s="57"/>
+      <c r="J264" s="46"/>
     </row>
     <row r="265" spans="7:10">
-      <c r="G265" s="3" t="s">
+      <c r="G265" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H265" s="16" t="s">
+      <c r="H265" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="I265" s="16" t="s">
+      <c r="I265" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="J265" s="16"/>
+      <c r="J265" s="37"/>
     </row>
     <row r="266" spans="7:10">
-      <c r="G266" s="16" t="s">
+      <c r="G266" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="H266" s="16"/>
-      <c r="I266" s="16"/>
-      <c r="J266" s="16"/>
+      <c r="H266" s="37"/>
+      <c r="I266" s="37"/>
+      <c r="J266" s="37"/>
     </row>
     <row r="267" spans="7:10">
-      <c r="G267" s="16"/>
-      <c r="H267" s="36" t="s">
+      <c r="G267" s="37"/>
+      <c r="H267" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="I267" s="16"/>
-      <c r="J267" s="16"/>
+      <c r="I267" s="37"/>
+      <c r="J267" s="37"/>
     </row>
     <row r="268" spans="7:10">
-      <c r="G268" s="16"/>
-      <c r="I268" s="16"/>
-      <c r="J268" s="16"/>
+      <c r="G268" s="37"/>
+      <c r="I268" s="37"/>
+      <c r="J268" s="37"/>
     </row>
     <row r="269" spans="7:10">
-      <c r="G269" s="16" t="s">
+      <c r="G269" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="I269" s="16"/>
-      <c r="J269" s="16"/>
-    </row>
-    <row r="270" spans="7:7">
-      <c r="G270" s="16"/>
-    </row>
-    <row r="271" spans="7:7">
-      <c r="G271" s="16" t="s">
+      <c r="I269" s="37"/>
+      <c r="J269" s="37"/>
+    </row>
+    <row r="270" spans="7:10">
+      <c r="G270" s="37"/>
+    </row>
+    <row r="271" spans="7:10">
+      <c r="G271" s="37" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="272" spans="7:7">
-      <c r="G272" s="16"/>
-    </row>
-    <row r="273" spans="7:7">
-      <c r="G273" s="16"/>
-    </row>
-    <row r="274" spans="7:7">
-      <c r="G274" s="16"/>
-    </row>
-    <row r="275" spans="7:7">
-      <c r="G275" s="16"/>
-    </row>
-    <row r="276" spans="7:7">
-      <c r="G276" s="16" t="s">
+    <row r="272" spans="7:10">
+      <c r="G272" s="37"/>
+    </row>
+    <row r="273" spans="7:10">
+      <c r="G273" s="37"/>
+    </row>
+    <row r="274" spans="7:10">
+      <c r="G274" s="37"/>
+    </row>
+    <row r="275" spans="7:10">
+      <c r="G275" s="37"/>
+    </row>
+    <row r="276" spans="7:10">
+      <c r="G276" s="37" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="277" spans="7:7">
-      <c r="G277" s="16"/>
-    </row>
-    <row r="278" spans="7:7">
-      <c r="G278" s="16" t="s">
+    <row r="277" spans="7:10">
+      <c r="G277" s="37"/>
+    </row>
+    <row r="278" spans="7:10">
+      <c r="G278" s="37" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="279" spans="7:7">
-      <c r="G279" s="16"/>
-    </row>
-    <row r="280" spans="7:7">
-      <c r="G280" s="16"/>
+    <row r="279" spans="7:10">
+      <c r="G279" s="37"/>
+    </row>
+    <row r="280" spans="7:10">
+      <c r="G280" s="37"/>
     </row>
     <row r="287" spans="7:10">
-      <c r="G287" s="57">
+      <c r="G287" s="20">
         <v>43256</v>
       </c>
-      <c r="H287" s="57">
+      <c r="H287" s="20">
         <v>43257</v>
       </c>
-      <c r="I287" s="22">
+      <c r="I287" s="47">
         <v>43258</v>
       </c>
-      <c r="J287" s="62"/>
+      <c r="J287" s="48"/>
     </row>
     <row r="288" spans="7:10">
-      <c r="G288" s="16" t="s">
+      <c r="G288" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="H288" s="16" t="s">
+      <c r="H288" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="I288" s="5" t="s">
+      <c r="I288" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="J288" s="7"/>
-    </row>
-    <row r="289" spans="7:10">
-      <c r="G289" s="16"/>
-      <c r="H289" s="16"/>
-      <c r="I289" s="13"/>
-      <c r="J289" s="15"/>
-    </row>
-    <row r="290" spans="7:10">
-      <c r="G290" s="16" t="s">
+      <c r="J288" s="66"/>
+    </row>
+    <row r="289" spans="7:12">
+      <c r="G289" s="37"/>
+      <c r="H289" s="37"/>
+      <c r="I289" s="67"/>
+      <c r="J289" s="68"/>
+    </row>
+    <row r="290" spans="7:12">
+      <c r="G290" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="H290" s="36" t="s">
+      <c r="H290" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="I290" s="18" t="s">
+      <c r="I290" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="J290" s="63"/>
-    </row>
-    <row r="291" spans="7:10">
-      <c r="G291" s="16"/>
-      <c r="H291" s="36"/>
-      <c r="I291" s="36"/>
-      <c r="J291" s="36"/>
-    </row>
-    <row r="292" spans="7:10">
-      <c r="G292" s="36"/>
-      <c r="H292" s="36"/>
-      <c r="I292" s="36"/>
-      <c r="J292" s="36"/>
-    </row>
-    <row r="297" spans="7:7">
-      <c r="G297" s="29">
+      <c r="J290" s="49"/>
+    </row>
+    <row r="291" spans="7:12">
+      <c r="G291" s="37"/>
+      <c r="H291" s="8"/>
+      <c r="I291" s="8"/>
+      <c r="J291" s="8"/>
+    </row>
+    <row r="292" spans="7:12">
+      <c r="G292" s="8"/>
+      <c r="H292" s="8"/>
+      <c r="I292" s="8"/>
+      <c r="J292" s="8"/>
+    </row>
+    <row r="297" spans="7:12">
+      <c r="G297" s="4">
         <v>43259</v>
       </c>
     </row>
     <row r="298" spans="7:12">
-      <c r="G298" s="10" t="s">
+      <c r="G298" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="L298" s="16" t="s">
+      <c r="L298" s="37" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="299" spans="7:12">
-      <c r="G299" s="10"/>
-      <c r="L299" s="16"/>
+      <c r="G299" s="55"/>
+      <c r="L299" s="37"/>
     </row>
     <row r="300" spans="7:12">
-      <c r="G300" s="10"/>
-      <c r="L300" s="16"/>
+      <c r="G300" s="55"/>
+      <c r="L300" s="37"/>
     </row>
     <row r="301" spans="7:12">
-      <c r="G301" s="10"/>
-      <c r="L301" s="16"/>
-    </row>
-    <row r="302" spans="12:12">
-      <c r="L302" s="16"/>
-    </row>
-    <row r="303" spans="12:12">
-      <c r="L303" s="16"/>
-    </row>
-    <row r="304" spans="12:12">
-      <c r="L304" s="16"/>
-    </row>
-    <row r="305" spans="12:12">
-      <c r="L305" s="30"/>
-    </row>
-    <row r="306" spans="12:12">
-      <c r="L306" s="30"/>
-    </row>
-    <row r="307" spans="12:12">
-      <c r="L307" s="30"/>
-    </row>
-    <row r="308" spans="12:12">
-      <c r="L308" s="30"/>
-    </row>
-    <row r="309" spans="12:12">
-      <c r="L309" s="30"/>
-    </row>
-    <row r="313" spans="7:10">
-      <c r="G313" s="29">
+      <c r="G301" s="55"/>
+      <c r="L301" s="37"/>
+    </row>
+    <row r="302" spans="7:12">
+      <c r="L302" s="37"/>
+    </row>
+    <row r="303" spans="7:12">
+      <c r="L303" s="37"/>
+    </row>
+    <row r="304" spans="7:12">
+      <c r="L304" s="37"/>
+    </row>
+    <row r="305" spans="7:12">
+      <c r="L305" s="5"/>
+    </row>
+    <row r="306" spans="7:12">
+      <c r="L306" s="5"/>
+    </row>
+    <row r="307" spans="7:12">
+      <c r="L307" s="5"/>
+    </row>
+    <row r="308" spans="7:12">
+      <c r="L308" s="5"/>
+    </row>
+    <row r="309" spans="7:12">
+      <c r="L309" s="5"/>
+    </row>
+    <row r="313" spans="7:12">
+      <c r="G313" s="4">
         <v>43271</v>
       </c>
-      <c r="H313" s="29">
+      <c r="H313" s="4">
         <v>43272</v>
       </c>
-      <c r="I313" s="23">
+      <c r="I313" s="50">
         <v>43273</v>
       </c>
-      <c r="J313" s="29"/>
-    </row>
-    <row r="314" spans="7:10">
-      <c r="G314" s="61" t="s">
+      <c r="J313" s="51"/>
+    </row>
+    <row r="314" spans="7:12">
+      <c r="G314" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="H314" s="61" t="s">
+      <c r="H314" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="I314" s="21" t="s">
+      <c r="I314" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="J314" s="3"/>
-    </row>
-    <row r="315" spans="7:10">
-      <c r="G315" s="16"/>
-      <c r="H315" s="16"/>
-      <c r="I315" s="3"/>
-      <c r="J315" s="3"/>
-    </row>
-    <row r="317" spans="7:10">
-      <c r="G317" s="36" t="s">
+      <c r="J314" s="25"/>
+    </row>
+    <row r="315" spans="7:12">
+      <c r="G315" s="37"/>
+      <c r="H315" s="37"/>
+      <c r="I315" s="25"/>
+      <c r="J315" s="25"/>
+    </row>
+    <row r="317" spans="7:12">
+      <c r="G317" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="H317" s="36" t="s">
+      <c r="H317" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="I317" s="3" t="s">
+      <c r="I317" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="J317" s="3"/>
-    </row>
-    <row r="318" spans="7:9">
+      <c r="J317" s="25"/>
+    </row>
+    <row r="318" spans="7:12">
       <c r="G318" t="s">
         <v>218</v>
       </c>
@@ -4719,166 +4221,166 @@
       </c>
     </row>
     <row r="322" spans="7:10">
-      <c r="G322" s="57">
+      <c r="G322" s="20">
         <v>43274</v>
       </c>
-      <c r="H322" s="29">
+      <c r="H322" s="4">
         <v>43276</v>
       </c>
-      <c r="J322" s="29">
+      <c r="J322" s="4">
         <v>43277</v>
       </c>
     </row>
     <row r="323" spans="7:10">
-      <c r="G323" s="16" t="s">
+      <c r="G323" s="37" t="s">
         <v>220</v>
       </c>
       <c r="H323" t="s">
         <v>221</v>
       </c>
-      <c r="I323" s="10" t="s">
+      <c r="I323" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="J323" s="10"/>
+      <c r="J323" s="55"/>
     </row>
     <row r="324" spans="7:10">
-      <c r="G324" s="16"/>
+      <c r="G324" s="37"/>
       <c r="H324" t="s">
         <v>223</v>
       </c>
-      <c r="I324" s="10"/>
-      <c r="J324" s="10"/>
-    </row>
-    <row r="325" spans="7:8">
-      <c r="G325" s="16" t="s">
+      <c r="I324" s="55"/>
+      <c r="J324" s="55"/>
+    </row>
+    <row r="325" spans="7:10">
+      <c r="G325" s="37" t="s">
         <v>224</v>
       </c>
       <c r="H325" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="326" spans="7:7">
-      <c r="G326" s="16"/>
-    </row>
-    <row r="327" spans="7:8">
-      <c r="G327" s="16"/>
-      <c r="H327" s="10" t="s">
+    <row r="326" spans="7:10">
+      <c r="G326" s="37"/>
+    </row>
+    <row r="327" spans="7:10">
+      <c r="G327" s="37"/>
+      <c r="H327" s="55" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="328" spans="8:8">
-      <c r="H328" s="10"/>
-    </row>
-    <row r="329" spans="8:8">
-      <c r="H329" s="10"/>
+    <row r="328" spans="7:10">
+      <c r="H328" s="55"/>
+    </row>
+    <row r="329" spans="7:10">
+      <c r="H329" s="55"/>
     </row>
     <row r="334" spans="7:10">
-      <c r="G334" s="57">
+      <c r="G334" s="20">
         <v>43278</v>
       </c>
-      <c r="H334" s="57">
+      <c r="H334" s="20">
         <v>43279</v>
       </c>
-      <c r="J334" s="29">
+      <c r="J334" s="4">
         <v>43280</v>
       </c>
     </row>
-    <row r="335" spans="7:8">
-      <c r="G335" s="16" t="s">
+    <row r="335" spans="7:10">
+      <c r="G335" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="H335" s="16" t="s">
+      <c r="H335" s="37" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="336" spans="7:8">
-      <c r="G336" s="16"/>
-      <c r="H336" s="16"/>
-    </row>
-    <row r="337" spans="7:8">
-      <c r="G337" s="16"/>
-      <c r="H337" s="16"/>
-    </row>
-    <row r="338" spans="7:8">
-      <c r="G338" s="58"/>
-      <c r="H338" s="16" t="s">
+    <row r="336" spans="7:10">
+      <c r="G336" s="37"/>
+      <c r="H336" s="37"/>
+    </row>
+    <row r="337" spans="7:10">
+      <c r="G337" s="37"/>
+      <c r="H337" s="37"/>
+    </row>
+    <row r="338" spans="7:10">
+      <c r="G338" s="56"/>
+      <c r="H338" s="37" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="339" spans="7:8">
-      <c r="G339" s="58" t="s">
+    <row r="339" spans="7:10">
+      <c r="G339" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="H339" s="16"/>
-    </row>
-    <row r="340" spans="7:8">
-      <c r="G340" s="58"/>
-      <c r="H340" s="16"/>
-    </row>
-    <row r="341" spans="8:8">
-      <c r="H341" s="16"/>
-    </row>
-    <row r="342" spans="8:8">
-      <c r="H342" s="16"/>
+      <c r="H339" s="37"/>
+    </row>
+    <row r="340" spans="7:10">
+      <c r="G340" s="56"/>
+      <c r="H340" s="37"/>
+    </row>
+    <row r="341" spans="7:10">
+      <c r="H341" s="37"/>
+    </row>
+    <row r="342" spans="7:10">
+      <c r="H342" s="37"/>
     </row>
     <row r="345" spans="7:10">
-      <c r="G345" s="64">
+      <c r="G345" s="22">
         <v>43281</v>
       </c>
-      <c r="H345" s="29">
+      <c r="H345" s="4">
         <v>43283</v>
       </c>
-      <c r="I345" s="23">
+      <c r="I345" s="50">
         <v>43285</v>
       </c>
-      <c r="J345" s="29"/>
+      <c r="J345" s="51"/>
     </row>
     <row r="346" spans="7:10">
-      <c r="G346" s="65" t="s">
+      <c r="G346" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="H346" s="10" t="s">
+      <c r="H346" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="I346" s="10" t="s">
+      <c r="I346" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="J346" s="10"/>
+      <c r="J346" s="55"/>
     </row>
     <row r="347" spans="7:10">
-      <c r="G347" s="65"/>
-      <c r="H347" s="10"/>
-      <c r="I347" s="10"/>
-      <c r="J347" s="10"/>
-    </row>
-    <row r="348" spans="7:7">
-      <c r="G348" s="65"/>
-    </row>
-    <row r="349" spans="7:7">
-      <c r="G349" s="65"/>
-    </row>
-    <row r="350" spans="7:7">
-      <c r="G350" s="65"/>
-    </row>
-    <row r="351" spans="7:7">
-      <c r="G351" s="65"/>
-    </row>
-    <row r="352" spans="7:7">
-      <c r="G352" s="65"/>
-    </row>
-    <row r="353" spans="7:7">
-      <c r="G353" s="65" t="s">
+      <c r="G347" s="58"/>
+      <c r="H347" s="55"/>
+      <c r="I347" s="55"/>
+      <c r="J347" s="55"/>
+    </row>
+    <row r="348" spans="7:10">
+      <c r="G348" s="58"/>
+    </row>
+    <row r="349" spans="7:10">
+      <c r="G349" s="58"/>
+    </row>
+    <row r="350" spans="7:10">
+      <c r="G350" s="58"/>
+    </row>
+    <row r="351" spans="7:10">
+      <c r="G351" s="58"/>
+    </row>
+    <row r="352" spans="7:10">
+      <c r="G352" s="58"/>
+    </row>
+    <row r="353" spans="7:10">
+      <c r="G353" s="58" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="354" spans="7:7">
-      <c r="G354" s="65"/>
+    <row r="354" spans="7:10">
+      <c r="G354" s="58"/>
     </row>
     <row r="357" spans="7:10">
-      <c r="G357" s="29">
+      <c r="G357" s="4">
         <v>43286</v>
       </c>
-      <c r="J357" s="29">
+      <c r="J357" s="4">
         <v>43288</v>
       </c>
     </row>
@@ -4886,64 +4388,64 @@
       <c r="G358" t="s">
         <v>235</v>
       </c>
-      <c r="I358" s="10" t="s">
+      <c r="I358" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="J358" s="10"/>
+      <c r="J358" s="55"/>
     </row>
     <row r="359" spans="7:10">
       <c r="G359" t="s">
         <v>237</v>
       </c>
-      <c r="I359" s="10"/>
-      <c r="J359" s="10"/>
-    </row>
-    <row r="365" spans="7:8">
-      <c r="G365" s="29">
+      <c r="I359" s="55"/>
+      <c r="J359" s="55"/>
+    </row>
+    <row r="365" spans="7:10">
+      <c r="G365" s="4">
         <v>43292</v>
       </c>
-      <c r="H365" s="57">
+      <c r="H365" s="20">
         <v>43293</v>
       </c>
     </row>
-    <row r="366" spans="7:8">
-      <c r="G366" s="10" t="s">
+    <row r="366" spans="7:10">
+      <c r="G366" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="H366" s="16" t="s">
+      <c r="H366" s="37" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="367" spans="7:8">
-      <c r="G367" s="10"/>
-      <c r="H367" s="16"/>
-    </row>
-    <row r="368" spans="7:8">
-      <c r="G368" s="10" t="s">
+    <row r="367" spans="7:10">
+      <c r="G367" s="55"/>
+      <c r="H367" s="37"/>
+    </row>
+    <row r="368" spans="7:10">
+      <c r="G368" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="H368" s="16"/>
-    </row>
-    <row r="369" spans="7:8">
-      <c r="G369" s="10"/>
-      <c r="H369" s="16"/>
+      <c r="H368" s="37"/>
+    </row>
+    <row r="369" spans="7:10">
+      <c r="G369" s="55"/>
+      <c r="H369" s="37"/>
     </row>
     <row r="374" spans="7:10">
-      <c r="G374" s="29">
+      <c r="G374" s="4">
         <v>43307</v>
       </c>
-      <c r="H374" s="57">
+      <c r="H374" s="20">
         <v>43308</v>
       </c>
-      <c r="J374" s="29">
+      <c r="J374" s="4">
         <v>43311</v>
       </c>
     </row>
     <row r="375" spans="7:10">
-      <c r="G375" s="10" t="s">
+      <c r="G375" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="H375" s="16" t="s">
+      <c r="H375" s="37" t="s">
         <v>242</v>
       </c>
       <c r="J375" t="s">
@@ -4951,42 +4453,42 @@
       </c>
     </row>
     <row r="376" spans="7:10">
-      <c r="G376" s="10"/>
-      <c r="H376" s="16"/>
+      <c r="G376" s="55"/>
+      <c r="H376" s="37"/>
       <c r="J376" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="377" spans="7:8">
-      <c r="G377" s="10"/>
-      <c r="H377" s="36" t="s">
+    <row r="377" spans="7:10">
+      <c r="G377" s="55"/>
+      <c r="H377" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="378" spans="8:8">
-      <c r="H378" s="16" t="s">
+    <row r="378" spans="7:10">
+      <c r="H378" s="37" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="379" spans="8:8">
-      <c r="H379" s="16"/>
+    <row r="379" spans="7:10">
+      <c r="H379" s="37"/>
     </row>
     <row r="384" spans="7:10">
-      <c r="G384" s="57">
+      <c r="G384" s="20">
         <v>43312</v>
       </c>
-      <c r="H384" s="29">
+      <c r="H384" s="4">
         <v>43313</v>
       </c>
-      <c r="J384" s="29">
+      <c r="J384" s="4">
         <v>43314</v>
       </c>
     </row>
     <row r="385" spans="7:10">
-      <c r="G385" s="36" t="s">
+      <c r="G385" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H385" s="10" t="s">
+      <c r="H385" s="55" t="s">
         <v>248</v>
       </c>
       <c r="J385" t="s">
@@ -4994,40 +4496,40 @@
       </c>
     </row>
     <row r="386" spans="7:10">
-      <c r="G386" s="36" t="s">
+      <c r="G386" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="H386" s="10"/>
-      <c r="J386" s="10" t="s">
+      <c r="H386" s="55"/>
+      <c r="J386" s="55" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="387" spans="7:10">
-      <c r="G387" s="36" t="s">
+      <c r="G387" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="H387" s="10"/>
-      <c r="J387" s="10"/>
-    </row>
-    <row r="388" spans="8:10">
-      <c r="H388" s="10" t="s">
+      <c r="H387" s="55"/>
+      <c r="J387" s="55"/>
+    </row>
+    <row r="388" spans="7:10">
+      <c r="H388" s="55" t="s">
         <v>253</v>
       </c>
       <c r="J388" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="389" spans="8:8">
-      <c r="H389" s="10"/>
+    <row r="389" spans="7:10">
+      <c r="H389" s="55"/>
     </row>
     <row r="393" spans="7:10">
-      <c r="G393" s="29">
+      <c r="G393" s="4">
         <v>43315</v>
       </c>
-      <c r="H393" s="29">
+      <c r="H393" s="4">
         <v>43316</v>
       </c>
-      <c r="J393" s="29">
+      <c r="J393" s="4">
         <v>43318</v>
       </c>
     </row>
@@ -5035,131 +4537,132 @@
       <c r="G394" t="s">
         <v>255</v>
       </c>
-      <c r="H394" s="10" t="s">
+      <c r="H394" s="55" t="s">
         <v>256</v>
       </c>
       <c r="J394" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="395" spans="7:8">
+    <row r="395" spans="7:10">
       <c r="G395" t="s">
         <v>258</v>
       </c>
-      <c r="H395" s="10"/>
-    </row>
-    <row r="396" spans="7:8">
-      <c r="G396" s="10" t="s">
+      <c r="H395" s="55"/>
+    </row>
+    <row r="396" spans="7:10">
+      <c r="G396" s="55" t="s">
         <v>259</v>
       </c>
       <c r="H396" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="397" spans="7:7">
-      <c r="G397" s="10"/>
+    <row r="397" spans="7:10">
+      <c r="G397" s="55"/>
     </row>
     <row r="401" spans="7:10">
-      <c r="G401" s="29">
+      <c r="G401" s="4">
         <v>43319</v>
       </c>
-      <c r="H401" s="29">
+      <c r="H401" s="4">
         <v>43320</v>
       </c>
-      <c r="J401" s="29">
+      <c r="J401" s="4">
         <v>43321</v>
       </c>
     </row>
     <row r="402" spans="7:10">
-      <c r="G402" s="10" t="s">
+      <c r="G402" s="55" t="s">
         <v>261</v>
       </c>
       <c r="H402" t="s">
         <v>262</v>
       </c>
-      <c r="I402" s="10" t="s">
+      <c r="I402" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="J402" s="10"/>
+      <c r="J402" s="55"/>
     </row>
     <row r="403" spans="7:10">
-      <c r="G403" s="10"/>
-      <c r="I403" s="10"/>
-      <c r="J403" s="10"/>
+      <c r="G403" s="55"/>
+      <c r="I403" s="55"/>
+      <c r="J403" s="55"/>
     </row>
     <row r="404" spans="7:10">
-      <c r="G404" s="10" t="s">
+      <c r="G404" s="55" t="s">
         <v>264</v>
       </c>
-      <c r="I404" s="10" t="s">
+      <c r="I404" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="J404" s="10"/>
+      <c r="J404" s="55"/>
     </row>
     <row r="405" spans="7:10">
-      <c r="G405" s="10"/>
-      <c r="I405" s="10"/>
-      <c r="J405" s="10"/>
+      <c r="G405" s="55"/>
+      <c r="I405" s="55"/>
+      <c r="J405" s="55"/>
     </row>
     <row r="406" spans="7:10">
-      <c r="G406" s="10" t="s">
+      <c r="G406" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="I406" s="10" t="s">
+      <c r="I406" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="J406" s="10"/>
+      <c r="J406" s="55"/>
     </row>
     <row r="407" spans="7:10">
-      <c r="G407" s="10"/>
-      <c r="I407" s="10"/>
-      <c r="J407" s="10"/>
-    </row>
-    <row r="408" spans="9:10">
-      <c r="I408" s="10"/>
-      <c r="J408" s="10"/>
-    </row>
-    <row r="409" spans="9:9">
-      <c r="I409" s="38" t="s">
+      <c r="G407" s="55"/>
+      <c r="I407" s="55"/>
+      <c r="J407" s="55"/>
+    </row>
+    <row r="408" spans="7:10">
+      <c r="I408" s="55"/>
+      <c r="J408" s="55"/>
+    </row>
+    <row r="409" spans="7:10">
+      <c r="I409" s="43" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="414" spans="7:8">
-      <c r="G414" s="29">
+      <c r="J409" s="44"/>
+    </row>
+    <row r="414" spans="7:10">
+      <c r="G414" s="4">
         <v>43322</v>
       </c>
       <c r="H414" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="415" spans="7:7">
-      <c r="G415" s="10" t="s">
+    <row r="415" spans="7:10">
+      <c r="G415" s="55" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="416" spans="7:7">
-      <c r="G416" s="10"/>
-    </row>
-    <row r="417" spans="7:7">
-      <c r="G417" s="10" t="s">
+    <row r="416" spans="7:10">
+      <c r="G416" s="55"/>
+    </row>
+    <row r="417" spans="7:13">
+      <c r="G417" s="55" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="418" spans="7:7">
-      <c r="G418" s="10"/>
-    </row>
-    <row r="423" spans="7:10">
-      <c r="G423" s="29">
+    <row r="418" spans="7:13">
+      <c r="G418" s="55"/>
+    </row>
+    <row r="423" spans="7:13">
+      <c r="G423" s="4">
         <v>43325</v>
       </c>
-      <c r="H423" s="29">
+      <c r="H423" s="4">
         <v>43326</v>
       </c>
-      <c r="J423" s="29">
+      <c r="J423" s="4">
         <v>43327</v>
       </c>
     </row>
-    <row r="424" spans="7:10">
+    <row r="424" spans="7:13">
       <c r="G424" t="s">
         <v>272</v>
       </c>
@@ -5170,350 +4673,350 @@
         <v>274</v>
       </c>
     </row>
-    <row r="425" spans="8:8">
+    <row r="425" spans="7:13">
       <c r="H425" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="426" spans="8:8">
+    <row r="426" spans="7:13">
       <c r="H426" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="432" spans="7:13">
-      <c r="G432" s="29">
+      <c r="G432" s="4">
         <v>43328</v>
       </c>
-      <c r="H432" s="29">
+      <c r="H432" s="4">
         <v>43329</v>
       </c>
-      <c r="I432" s="67">
+      <c r="I432" s="52">
         <v>43330</v>
       </c>
-      <c r="J432" s="66"/>
-      <c r="K432" s="68"/>
-      <c r="L432" s="32" t="s">
+      <c r="J432" s="53"/>
+      <c r="K432" s="24"/>
+      <c r="L432" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="M432" s="32" t="s">
+      <c r="M432" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="433" spans="7:13">
-      <c r="G433" s="10" t="s">
+    <row r="433" spans="5:13">
+      <c r="G433" s="55" t="s">
         <v>279</v>
       </c>
       <c r="H433" t="s">
         <v>280</v>
       </c>
-      <c r="I433" s="16" t="s">
+      <c r="I433" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="J433" s="58"/>
-      <c r="K433" s="36" t="s">
+      <c r="J433" s="56"/>
+      <c r="K433" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="L433" s="3">
+      <c r="L433" s="1">
         <v>1790015</v>
       </c>
-      <c r="M433" s="3">
+      <c r="M433" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="434" spans="7:13">
-      <c r="G434" s="10"/>
+    <row r="434" spans="5:13">
+      <c r="G434" s="55"/>
       <c r="H434" t="s">
         <v>283</v>
       </c>
-      <c r="I434" s="16"/>
-      <c r="J434" s="58"/>
-      <c r="K434" s="36" t="s">
+      <c r="I434" s="37"/>
+      <c r="J434" s="56"/>
+      <c r="K434" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="L434" s="3">
+      <c r="L434" s="1">
         <v>1790609</v>
       </c>
-      <c r="M434" s="3">
+      <c r="M434" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="435" spans="7:13">
+    <row r="435" spans="5:13">
       <c r="G435" t="s">
         <v>285</v>
       </c>
-      <c r="H435" s="10" t="s">
+      <c r="H435" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="I435" s="16"/>
-      <c r="J435" s="16"/>
-      <c r="K435" s="37" t="s">
+      <c r="I435" s="37"/>
+      <c r="J435" s="37"/>
+      <c r="K435" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="L435" s="37"/>
-      <c r="M435" s="37"/>
-    </row>
-    <row r="436" spans="7:10">
-      <c r="G436" s="10" t="s">
+      <c r="L435" s="27"/>
+      <c r="M435" s="27"/>
+    </row>
+    <row r="436" spans="5:13">
+      <c r="G436" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="H436" s="10"/>
-      <c r="I436" s="16" t="s">
+      <c r="H436" s="55"/>
+      <c r="I436" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="J436" s="16"/>
-    </row>
-    <row r="437" spans="7:10">
-      <c r="G437" s="10"/>
+      <c r="J436" s="37"/>
+    </row>
+    <row r="437" spans="5:13">
+      <c r="G437" s="55"/>
       <c r="H437" t="s">
         <v>290</v>
       </c>
-      <c r="I437" s="16"/>
-      <c r="J437" s="16"/>
-    </row>
-    <row r="438" spans="9:10">
-      <c r="I438" s="16"/>
-      <c r="J438" s="16"/>
-    </row>
-    <row r="439" spans="9:10">
-      <c r="I439" s="16"/>
-      <c r="J439" s="16"/>
-    </row>
-    <row r="440" spans="9:10">
-      <c r="I440" s="16"/>
-      <c r="J440" s="16"/>
-    </row>
-    <row r="441" spans="9:10">
-      <c r="I441" s="16"/>
-      <c r="J441" s="16"/>
-    </row>
-    <row r="446" spans="5:10">
-      <c r="E446" s="66">
+      <c r="I437" s="37"/>
+      <c r="J437" s="37"/>
+    </row>
+    <row r="438" spans="5:13">
+      <c r="I438" s="37"/>
+      <c r="J438" s="37"/>
+    </row>
+    <row r="439" spans="5:13">
+      <c r="I439" s="37"/>
+      <c r="J439" s="37"/>
+    </row>
+    <row r="440" spans="5:13">
+      <c r="I440" s="37"/>
+      <c r="J440" s="37"/>
+    </row>
+    <row r="441" spans="5:13">
+      <c r="I441" s="37"/>
+      <c r="J441" s="37"/>
+    </row>
+    <row r="446" spans="5:13">
+      <c r="E446" s="23">
         <v>43332</v>
       </c>
-      <c r="F446" s="32" t="s">
+      <c r="F446" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G446" s="32" t="s">
+      <c r="G446" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H446" s="29">
+      <c r="H446" s="4">
         <v>43333</v>
       </c>
-      <c r="J446" s="29">
+      <c r="J446" s="4">
         <v>43334</v>
       </c>
     </row>
-    <row r="447" spans="5:10">
-      <c r="E447" s="36" t="s">
+    <row r="447" spans="5:13">
+      <c r="E447" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="F447" s="3">
+      <c r="F447" s="1">
         <v>2287467</v>
       </c>
-      <c r="G447" s="3">
+      <c r="G447" s="1">
         <v>122</v>
       </c>
       <c r="H447" t="s">
         <v>291</v>
       </c>
-      <c r="I447" s="10" t="s">
+      <c r="I447" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="J447" s="10"/>
-    </row>
-    <row r="448" spans="5:10">
-      <c r="E448" s="36" t="s">
+      <c r="J447" s="55"/>
+    </row>
+    <row r="448" spans="5:13">
+      <c r="E448" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="F448" s="3">
+      <c r="F448" s="1">
         <v>2287003</v>
       </c>
-      <c r="G448" s="3">
+      <c r="G448" s="1">
         <v>56</v>
       </c>
-      <c r="I448" s="10"/>
-      <c r="J448" s="10"/>
+      <c r="I448" s="55"/>
+      <c r="J448" s="55"/>
     </row>
     <row r="449" spans="5:10">
-      <c r="E449" s="37" t="s">
+      <c r="E449" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="F449" s="37"/>
-      <c r="G449" s="37"/>
-      <c r="I449" s="10"/>
-      <c r="J449" s="10"/>
-    </row>
-    <row r="451" spans="5:5">
+      <c r="F449" s="27"/>
+      <c r="G449" s="27"/>
+      <c r="I449" s="55"/>
+      <c r="J449" s="55"/>
+    </row>
+    <row r="451" spans="5:10">
       <c r="E451" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="458" spans="6:10">
-      <c r="F458" s="17">
+    <row r="458" spans="5:10">
+      <c r="F458" s="45">
         <v>43335</v>
       </c>
-      <c r="G458" s="56"/>
-      <c r="H458" s="57">
+      <c r="G458" s="54"/>
+      <c r="H458" s="20">
         <v>43336</v>
       </c>
-      <c r="J458" s="29">
+      <c r="J458" s="4">
         <v>43337</v>
       </c>
     </row>
-    <row r="459" spans="6:10">
-      <c r="F459" s="3" t="s">
+    <row r="459" spans="5:10">
+      <c r="F459" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="G459" s="45"/>
-      <c r="H459" s="36" t="s">
+      <c r="G459" s="31"/>
+      <c r="H459" s="8" t="s">
         <v>295</v>
       </c>
       <c r="J459" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="460" spans="6:10">
-      <c r="F460" s="16" t="s">
+    <row r="460" spans="5:10">
+      <c r="F460" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="G460" s="58"/>
-      <c r="H460" s="16" t="s">
+      <c r="G460" s="56"/>
+      <c r="H460" s="37" t="s">
         <v>298</v>
       </c>
       <c r="J460" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="461" spans="6:10">
-      <c r="F461" s="16"/>
-      <c r="G461" s="58"/>
-      <c r="H461" s="16"/>
+    <row r="461" spans="5:10">
+      <c r="F461" s="37"/>
+      <c r="G461" s="56"/>
+      <c r="H461" s="37"/>
       <c r="J461" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="462" spans="6:10">
-      <c r="F462" s="16" t="s">
+    <row r="462" spans="5:10">
+      <c r="F462" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="G462" s="58"/>
-      <c r="H462" s="16"/>
+      <c r="G462" s="56"/>
+      <c r="H462" s="37"/>
       <c r="J462" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="463" spans="6:10">
-      <c r="F463" s="16"/>
-      <c r="G463" s="58"/>
-      <c r="H463" s="16" t="s">
+    <row r="463" spans="5:10">
+      <c r="F463" s="37"/>
+      <c r="G463" s="56"/>
+      <c r="H463" s="37" t="s">
         <v>303</v>
       </c>
       <c r="J463" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="464" spans="8:8">
-      <c r="H464" s="16"/>
-    </row>
-    <row r="465" spans="8:8">
-      <c r="H465" s="36" t="s">
+    <row r="464" spans="5:10">
+      <c r="H464" s="37"/>
+    </row>
+    <row r="465" spans="6:10">
+      <c r="H465" s="8" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="470" spans="6:10">
-      <c r="F470" s="17">
+      <c r="F470" s="45">
         <v>43339</v>
       </c>
-      <c r="G470" s="57"/>
-      <c r="H470" s="57">
+      <c r="G470" s="46"/>
+      <c r="H470" s="20">
         <v>43340</v>
       </c>
-      <c r="J470" s="29">
+      <c r="J470" s="4">
         <v>43341</v>
       </c>
     </row>
     <row r="471" spans="6:10">
-      <c r="F471" s="3" t="s">
+      <c r="F471" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="G471" s="36"/>
-      <c r="H471" s="16" t="s">
+      <c r="G471" s="32"/>
+      <c r="H471" s="37" t="s">
         <v>307</v>
       </c>
-      <c r="I471" s="10" t="s">
+      <c r="I471" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="J471" s="10"/>
+      <c r="J471" s="55"/>
     </row>
     <row r="472" spans="6:10">
-      <c r="F472" s="3" t="s">
+      <c r="F472" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="G472" s="36"/>
-      <c r="H472" s="16"/>
-      <c r="I472" s="10"/>
-      <c r="J472" s="10"/>
+      <c r="G472" s="32"/>
+      <c r="H472" s="37"/>
+      <c r="I472" s="55"/>
+      <c r="J472" s="55"/>
     </row>
     <row r="473" spans="6:10">
-      <c r="F473" s="16" t="s">
+      <c r="F473" s="37" t="s">
         <v>310</v>
       </c>
-      <c r="G473" s="16"/>
-      <c r="H473" s="16"/>
-      <c r="I473" s="10"/>
-      <c r="J473" s="10"/>
+      <c r="G473" s="37"/>
+      <c r="H473" s="37"/>
+      <c r="I473" s="55"/>
+      <c r="J473" s="55"/>
     </row>
     <row r="474" spans="6:10">
-      <c r="F474" s="16"/>
-      <c r="G474" s="16"/>
-      <c r="H474" s="16"/>
-      <c r="I474" s="10"/>
-      <c r="J474" s="10"/>
+      <c r="F474" s="37"/>
+      <c r="G474" s="37"/>
+      <c r="H474" s="37"/>
+      <c r="I474" s="55"/>
+      <c r="J474" s="55"/>
     </row>
     <row r="475" spans="6:10">
-      <c r="F475" s="16" t="s">
+      <c r="F475" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="G475" s="16"/>
-      <c r="H475" s="16" t="s">
+      <c r="G475" s="37"/>
+      <c r="H475" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="I475" s="10"/>
-      <c r="J475" s="10"/>
+      <c r="I475" s="55"/>
+      <c r="J475" s="55"/>
     </row>
     <row r="476" spans="6:10">
-      <c r="F476" s="16"/>
-      <c r="G476" s="16"/>
-      <c r="H476" s="52"/>
-      <c r="I476" s="10"/>
-      <c r="J476" s="10"/>
-    </row>
-    <row r="477" spans="6:8">
-      <c r="F477" s="3" t="s">
+      <c r="F476" s="37"/>
+      <c r="G476" s="37"/>
+      <c r="H476" s="42"/>
+      <c r="I476" s="55"/>
+      <c r="J476" s="55"/>
+    </row>
+    <row r="477" spans="6:10">
+      <c r="F477" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="G477" s="36"/>
-      <c r="H477" s="36" t="s">
+      <c r="G477" s="32"/>
+      <c r="H477" s="8" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="478" ht="27" spans="6:8">
-      <c r="F478" s="3" t="s">
+    <row r="478" spans="6:10" ht="27">
+      <c r="F478" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="G478" s="36"/>
-      <c r="H478" s="52" t="s">
+      <c r="G478" s="32"/>
+      <c r="H478" s="18" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="482" spans="7:10">
-      <c r="G482" s="29">
+      <c r="G482" s="4">
         <v>43342</v>
       </c>
-      <c r="H482" s="29">
+      <c r="H482" s="4">
         <v>43343</v>
       </c>
-      <c r="J482" s="29">
+      <c r="J482" s="4">
         <v>43344</v>
       </c>
     </row>
@@ -5524,10 +5027,10 @@
       <c r="H483" t="s">
         <v>318</v>
       </c>
-      <c r="I483" s="10" t="s">
+      <c r="I483" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="J483" s="10"/>
+      <c r="J483" s="55"/>
     </row>
     <row r="484" spans="7:10">
       <c r="G484" t="s">
@@ -5536,93 +5039,94 @@
       <c r="H484" t="s">
         <v>321</v>
       </c>
-      <c r="I484" s="10"/>
-      <c r="J484" s="10"/>
+      <c r="I484" s="55"/>
+      <c r="J484" s="55"/>
     </row>
     <row r="485" spans="7:10">
       <c r="G485" t="s">
         <v>322</v>
       </c>
-      <c r="H485" s="10" t="s">
+      <c r="H485" s="55" t="s">
         <v>323</v>
       </c>
-      <c r="I485" s="10" t="s">
+      <c r="I485" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="J485" s="10"/>
+      <c r="J485" s="55"/>
     </row>
     <row r="486" spans="7:10">
-      <c r="G486" s="10" t="s">
+      <c r="G486" s="55" t="s">
         <v>325</v>
       </c>
-      <c r="H486" s="10"/>
-      <c r="I486" s="10"/>
-      <c r="J486" s="10"/>
+      <c r="H486" s="55"/>
+      <c r="I486" s="55"/>
+      <c r="J486" s="55"/>
     </row>
     <row r="487" spans="7:10">
-      <c r="G487" s="10"/>
+      <c r="G487" s="55"/>
       <c r="H487" t="s">
         <v>326</v>
       </c>
-      <c r="I487" s="38" t="s">
+      <c r="I487" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="J487" s="38"/>
+      <c r="J487" s="43"/>
     </row>
     <row r="488" spans="7:10">
-      <c r="G488" s="10"/>
-      <c r="H488" s="10" t="s">
+      <c r="G488" s="55"/>
+      <c r="H488" s="55" t="s">
         <v>328</v>
       </c>
-      <c r="I488" s="10" t="s">
+      <c r="I488" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="J488" s="10"/>
+      <c r="J488" s="55"/>
     </row>
     <row r="489" spans="7:10">
-      <c r="G489" s="10" t="s">
+      <c r="G489" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="H489" s="10"/>
-      <c r="I489" s="10"/>
-      <c r="J489" s="10"/>
-    </row>
-    <row r="490" spans="7:9">
-      <c r="G490" s="10"/>
-      <c r="H490" s="10" t="s">
+      <c r="H489" s="55"/>
+      <c r="I489" s="55"/>
+      <c r="J489" s="55"/>
+    </row>
+    <row r="490" spans="7:10">
+      <c r="G490" s="55"/>
+      <c r="H490" s="55" t="s">
         <v>331</v>
       </c>
-      <c r="I490" s="38" t="s">
+      <c r="I490" s="43" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="491" spans="8:8">
-      <c r="H491" s="10"/>
-    </row>
-    <row r="492" spans="8:8">
-      <c r="H492" s="10" t="s">
+      <c r="J490" s="44"/>
+    </row>
+    <row r="491" spans="7:10">
+      <c r="H491" s="55"/>
+    </row>
+    <row r="492" spans="7:10">
+      <c r="H492" s="55" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="493" spans="8:8">
-      <c r="H493" s="10"/>
-    </row>
-    <row r="494" spans="8:8">
-      <c r="H494" s="10" t="s">
+    <row r="493" spans="7:10">
+      <c r="H493" s="55"/>
+    </row>
+    <row r="494" spans="7:10">
+      <c r="H494" s="55" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="495" spans="8:8">
-      <c r="H495" s="10"/>
+    <row r="495" spans="7:10">
+      <c r="H495" s="55"/>
     </row>
     <row r="500" spans="7:10">
-      <c r="G500" s="29">
+      <c r="G500" s="4">
         <v>43346</v>
       </c>
-      <c r="H500" s="29">
+      <c r="H500" s="4">
         <v>43347</v>
       </c>
-      <c r="J500" s="29">
+      <c r="J500" s="4">
         <v>43348</v>
       </c>
     </row>
@@ -5633,112 +5137,112 @@
       <c r="H501" t="s">
         <v>336</v>
       </c>
-      <c r="I501" s="10" t="s">
+      <c r="I501" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="J501" s="10"/>
-    </row>
-    <row r="502" spans="8:10">
+      <c r="J501" s="55"/>
+    </row>
+    <row r="502" spans="7:10">
       <c r="H502" t="s">
         <v>338</v>
       </c>
-      <c r="I502" s="10"/>
-      <c r="J502" s="10"/>
-    </row>
-    <row r="503" spans="8:10">
+      <c r="I502" s="55"/>
+      <c r="J502" s="55"/>
+    </row>
+    <row r="503" spans="7:10">
       <c r="H503" t="s">
         <v>339</v>
       </c>
-      <c r="I503" s="10" t="s">
+      <c r="I503" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="J503" s="10"/>
-    </row>
-    <row r="504" spans="8:10">
-      <c r="H504" s="10" t="s">
+      <c r="J503" s="55"/>
+    </row>
+    <row r="504" spans="7:10">
+      <c r="H504" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="I504" s="10"/>
-      <c r="J504" s="10"/>
-    </row>
-    <row r="505" spans="8:10">
-      <c r="H505" s="10"/>
-      <c r="I505" s="10"/>
-      <c r="J505" s="10"/>
+      <c r="I504" s="55"/>
+      <c r="J504" s="55"/>
+    </row>
+    <row r="505" spans="7:10">
+      <c r="H505" s="55"/>
+      <c r="I505" s="55"/>
+      <c r="J505" s="55"/>
     </row>
     <row r="512" spans="7:10">
-      <c r="G512" s="29">
+      <c r="G512" s="4">
         <v>43349</v>
       </c>
-      <c r="H512" s="29">
+      <c r="H512" s="4">
         <v>43350</v>
       </c>
-      <c r="J512" s="29">
+      <c r="J512" s="4">
         <v>43351</v>
       </c>
     </row>
     <row r="513" spans="7:10">
-      <c r="G513" s="10" t="s">
+      <c r="G513" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="H513" s="10" t="s">
+      <c r="H513" s="55" t="s">
         <v>343</v>
       </c>
-      <c r="I513" s="16" t="s">
+      <c r="I513" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="J513" s="16"/>
+      <c r="J513" s="37"/>
     </row>
     <row r="514" spans="7:10">
-      <c r="G514" s="10"/>
-      <c r="H514" s="10"/>
-      <c r="I514" s="16"/>
-      <c r="J514" s="16"/>
+      <c r="G514" s="55"/>
+      <c r="H514" s="55"/>
+      <c r="I514" s="37"/>
+      <c r="J514" s="37"/>
     </row>
     <row r="515" spans="7:10">
       <c r="G515" t="s">
         <v>345</v>
       </c>
-      <c r="H515" s="10" t="s">
+      <c r="H515" s="55" t="s">
         <v>346</v>
       </c>
-      <c r="I515" s="16"/>
-      <c r="J515" s="16"/>
+      <c r="I515" s="37"/>
+      <c r="J515" s="37"/>
     </row>
     <row r="516" spans="7:10">
       <c r="G516" t="s">
         <v>347</v>
       </c>
-      <c r="H516" s="10"/>
-      <c r="I516" s="16"/>
-      <c r="J516" s="16"/>
+      <c r="H516" s="55"/>
+      <c r="I516" s="37"/>
+      <c r="J516" s="37"/>
     </row>
     <row r="517" spans="7:10">
-      <c r="G517" s="10" t="s">
+      <c r="G517" s="55" t="s">
         <v>348</v>
       </c>
-      <c r="I517" s="16"/>
-      <c r="J517" s="16"/>
-    </row>
-    <row r="518" spans="7:7">
-      <c r="G518" s="10"/>
-    </row>
-    <row r="519" spans="7:7">
-      <c r="G519" s="10" t="s">
+      <c r="I517" s="37"/>
+      <c r="J517" s="37"/>
+    </row>
+    <row r="518" spans="7:10">
+      <c r="G518" s="55"/>
+    </row>
+    <row r="519" spans="7:10">
+      <c r="G519" s="55" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="520" spans="7:7">
-      <c r="G520" s="10"/>
+    <row r="520" spans="7:10">
+      <c r="G520" s="55"/>
     </row>
     <row r="527" spans="7:10">
-      <c r="G527" s="29">
+      <c r="G527" s="4">
         <v>43353</v>
       </c>
-      <c r="H527" s="29">
+      <c r="H527" s="4">
         <v>43354</v>
       </c>
-      <c r="J527" s="29">
+      <c r="J527" s="4">
         <v>43355</v>
       </c>
     </row>
@@ -5746,45 +5250,45 @@
       <c r="G528" t="s">
         <v>350</v>
       </c>
-      <c r="H528" s="10" t="s">
+      <c r="H528" s="55" t="s">
         <v>351</v>
       </c>
       <c r="J528" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="529" spans="8:10">
-      <c r="H529" s="10"/>
+    <row r="529" spans="7:10">
+      <c r="H529" s="55"/>
       <c r="J529" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="530" spans="8:8">
-      <c r="H530" s="10"/>
-    </row>
-    <row r="531" spans="8:8">
+    <row r="530" spans="7:10">
+      <c r="H530" s="55"/>
+    </row>
+    <row r="531" spans="7:10">
       <c r="H531" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="532" spans="8:8">
+    <row r="532" spans="7:10">
       <c r="H532" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="536" spans="7:10">
-      <c r="G536" s="29">
+      <c r="G536" s="4">
         <v>43356</v>
       </c>
-      <c r="H536" s="29">
+      <c r="H536" s="4">
         <v>43357</v>
       </c>
-      <c r="J536" s="29">
+      <c r="J536" s="4">
         <v>43358</v>
       </c>
     </row>
     <row r="537" spans="7:10">
-      <c r="G537" s="10" t="s">
+      <c r="G537" s="55" t="s">
         <v>356</v>
       </c>
       <c r="H537" t="s">
@@ -5794,80 +5298,80 @@
         <v>358</v>
       </c>
     </row>
-    <row r="538" spans="7:7">
-      <c r="G538" s="10"/>
-    </row>
-    <row r="546" spans="7:10">
-      <c r="G546" s="29">
+    <row r="538" spans="7:10">
+      <c r="G538" s="55"/>
+    </row>
+    <row r="546" spans="7:12">
+      <c r="G546" s="4">
         <v>43361</v>
       </c>
-      <c r="H546" s="29">
+      <c r="H546" s="4">
         <v>43362</v>
       </c>
-      <c r="J546" s="29">
+      <c r="J546" s="4">
         <v>43363</v>
       </c>
     </row>
     <row r="547" spans="7:12">
-      <c r="G547" s="10" t="s">
+      <c r="G547" s="55" t="s">
         <v>359</v>
       </c>
-      <c r="H547" s="10" t="s">
+      <c r="H547" s="55" t="s">
         <v>360</v>
       </c>
-      <c r="I547" s="38" t="s">
+      <c r="I547" s="43" t="s">
         <v>361</v>
       </c>
-      <c r="J547" s="38"/>
-      <c r="K547" s="38"/>
-      <c r="L547" s="38"/>
-    </row>
-    <row r="548" spans="7:8">
-      <c r="G548" s="10"/>
-      <c r="H548" s="10"/>
-    </row>
-    <row r="549" spans="8:8">
+      <c r="J547" s="43"/>
+      <c r="K547" s="43"/>
+      <c r="L547" s="43"/>
+    </row>
+    <row r="548" spans="7:12">
+      <c r="G548" s="55"/>
+      <c r="H548" s="55"/>
+    </row>
+    <row r="549" spans="7:12">
       <c r="H549" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="550" spans="8:8">
+    <row r="550" spans="7:12">
       <c r="H550" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="553" spans="7:7">
-      <c r="G553" s="29">
+    <row r="553" spans="7:12">
+      <c r="G553" s="4">
         <v>43364</v>
       </c>
     </row>
-    <row r="554" spans="7:7">
-      <c r="G554" s="10" t="s">
+    <row r="554" spans="7:12">
+      <c r="G554" s="55" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="555" spans="7:7">
-      <c r="G555" s="10"/>
-    </row>
-    <row r="556" spans="7:7">
-      <c r="G556" s="10"/>
+    <row r="555" spans="7:12">
+      <c r="G555" s="55"/>
+    </row>
+    <row r="556" spans="7:12">
+      <c r="G556" s="55"/>
     </row>
     <row r="563" spans="7:10">
-      <c r="G563" s="29">
+      <c r="G563" s="4">
         <v>43368</v>
       </c>
-      <c r="H563" s="57">
+      <c r="H563" s="20">
         <v>43369</v>
       </c>
-      <c r="J563" s="29">
+      <c r="J563" s="4">
         <v>43370</v>
       </c>
     </row>
     <row r="564" spans="7:10">
-      <c r="G564" s="10" t="s">
+      <c r="G564" s="55" t="s">
         <v>365</v>
       </c>
-      <c r="H564" s="16" t="s">
+      <c r="H564" s="37" t="s">
         <v>366</v>
       </c>
       <c r="J564" t="s">
@@ -5875,34 +5379,34 @@
       </c>
     </row>
     <row r="565" spans="7:10">
-      <c r="G565" s="10"/>
-      <c r="H565" s="16"/>
+      <c r="G565" s="55"/>
+      <c r="H565" s="37"/>
       <c r="J565" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="566" spans="8:8">
-      <c r="H566" s="36" t="s">
+    <row r="566" spans="7:10">
+      <c r="H566" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="567" spans="8:8">
-      <c r="H567" s="16" t="s">
+    <row r="567" spans="7:10">
+      <c r="H567" s="37" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="568" spans="8:8">
-      <c r="H568" s="16"/>
-    </row>
-    <row r="574" spans="7:8">
-      <c r="G574" s="29">
+    <row r="568" spans="7:10">
+      <c r="H568" s="37"/>
+    </row>
+    <row r="574" spans="7:10">
+      <c r="G574" s="4">
         <v>43371</v>
       </c>
-      <c r="H574" s="29">
+      <c r="H574" s="4">
         <v>43372</v>
       </c>
     </row>
-    <row r="575" spans="7:8">
+    <row r="575" spans="7:10">
       <c r="G575" t="s">
         <v>371</v>
       </c>
@@ -5910,8 +5414,8 @@
         <v>372</v>
       </c>
     </row>
-    <row r="576" spans="7:8">
-      <c r="G576" s="10" t="s">
+    <row r="576" spans="7:10">
+      <c r="G576" s="55" t="s">
         <v>373</v>
       </c>
       <c r="H576" t="s">
@@ -5919,103 +5423,103 @@
       </c>
     </row>
     <row r="577" spans="7:7">
-      <c r="G577" s="10"/>
+      <c r="G577" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="244">
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="I59:K59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="I68:K68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="I69:K69"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="I79:K79"/>
-    <mergeCell ref="I80:K80"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="I166:J166"/>
-    <mergeCell ref="I170:J170"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="I182:J182"/>
-    <mergeCell ref="I220:J220"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="I223:J223"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="I229:J229"/>
-    <mergeCell ref="I232:J232"/>
-    <mergeCell ref="I239:J239"/>
-    <mergeCell ref="I240:J240"/>
-    <mergeCell ref="I264:J264"/>
-    <mergeCell ref="I287:J287"/>
-    <mergeCell ref="I290:J290"/>
-    <mergeCell ref="I313:J313"/>
-    <mergeCell ref="I317:J317"/>
-    <mergeCell ref="I345:J345"/>
-    <mergeCell ref="I409:J409"/>
-    <mergeCell ref="I432:J432"/>
-    <mergeCell ref="K435:M435"/>
-    <mergeCell ref="E449:G449"/>
-    <mergeCell ref="F458:G458"/>
-    <mergeCell ref="F459:G459"/>
-    <mergeCell ref="F470:G470"/>
-    <mergeCell ref="F471:G471"/>
-    <mergeCell ref="F472:G472"/>
-    <mergeCell ref="F477:G477"/>
-    <mergeCell ref="F478:G478"/>
+    <mergeCell ref="H567:H568"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="J153:J159"/>
+    <mergeCell ref="J160:J162"/>
+    <mergeCell ref="J386:J387"/>
+    <mergeCell ref="L298:L304"/>
+    <mergeCell ref="C87:E88"/>
+    <mergeCell ref="H98:I99"/>
+    <mergeCell ref="H100:I102"/>
+    <mergeCell ref="H103:I104"/>
+    <mergeCell ref="C150:F152"/>
+    <mergeCell ref="I167:J169"/>
+    <mergeCell ref="B178:E184"/>
+    <mergeCell ref="I183:J184"/>
+    <mergeCell ref="I185:J188"/>
+    <mergeCell ref="F87:G88"/>
+    <mergeCell ref="I483:J484"/>
+    <mergeCell ref="I485:J486"/>
+    <mergeCell ref="I488:J489"/>
+    <mergeCell ref="I501:J502"/>
+    <mergeCell ref="I503:J505"/>
+    <mergeCell ref="I513:J517"/>
+    <mergeCell ref="I203:J204"/>
+    <mergeCell ref="G222:H223"/>
+    <mergeCell ref="H490:H491"/>
+    <mergeCell ref="H492:H493"/>
+    <mergeCell ref="H494:H495"/>
+    <mergeCell ref="H504:H505"/>
+    <mergeCell ref="H513:H514"/>
+    <mergeCell ref="H515:H516"/>
+    <mergeCell ref="H528:H530"/>
+    <mergeCell ref="H547:H548"/>
+    <mergeCell ref="H564:H565"/>
+    <mergeCell ref="H388:H389"/>
+    <mergeCell ref="H394:H395"/>
+    <mergeCell ref="H435:H436"/>
+    <mergeCell ref="H460:H462"/>
+    <mergeCell ref="H463:H464"/>
+    <mergeCell ref="H471:H474"/>
+    <mergeCell ref="H475:H476"/>
+    <mergeCell ref="H485:H486"/>
+    <mergeCell ref="H488:H489"/>
+    <mergeCell ref="G576:G577"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="H169:H170"/>
+    <mergeCell ref="H183:H186"/>
+    <mergeCell ref="H192:H198"/>
+    <mergeCell ref="H210:H211"/>
+    <mergeCell ref="H265:H266"/>
+    <mergeCell ref="H288:H289"/>
+    <mergeCell ref="H314:H315"/>
+    <mergeCell ref="H327:H329"/>
+    <mergeCell ref="H335:H337"/>
+    <mergeCell ref="H338:H342"/>
+    <mergeCell ref="H346:H347"/>
+    <mergeCell ref="H366:H369"/>
+    <mergeCell ref="H375:H376"/>
+    <mergeCell ref="H378:H379"/>
+    <mergeCell ref="H385:H387"/>
+    <mergeCell ref="G486:G488"/>
+    <mergeCell ref="G489:G490"/>
+    <mergeCell ref="G513:G514"/>
+    <mergeCell ref="G517:G518"/>
+    <mergeCell ref="G519:G520"/>
+    <mergeCell ref="G537:G538"/>
+    <mergeCell ref="G547:G548"/>
+    <mergeCell ref="G554:G556"/>
+    <mergeCell ref="G564:G565"/>
+    <mergeCell ref="G368:G369"/>
+    <mergeCell ref="G375:G377"/>
+    <mergeCell ref="G396:G397"/>
+    <mergeCell ref="G402:G403"/>
+    <mergeCell ref="G404:G405"/>
+    <mergeCell ref="G406:G407"/>
+    <mergeCell ref="G415:G416"/>
+    <mergeCell ref="G417:G418"/>
+    <mergeCell ref="G433:G434"/>
+    <mergeCell ref="G298:G301"/>
+    <mergeCell ref="G314:G315"/>
+    <mergeCell ref="G323:G324"/>
+    <mergeCell ref="G325:G327"/>
+    <mergeCell ref="G335:G338"/>
+    <mergeCell ref="G339:G340"/>
+    <mergeCell ref="G346:G352"/>
+    <mergeCell ref="G353:G354"/>
+    <mergeCell ref="G366:G367"/>
     <mergeCell ref="I487:J487"/>
     <mergeCell ref="I490:J490"/>
     <mergeCell ref="I547:L547"/>
@@ -6040,103 +5544,16 @@
     <mergeCell ref="G278:G280"/>
     <mergeCell ref="G288:G289"/>
     <mergeCell ref="G290:G291"/>
-    <mergeCell ref="G298:G301"/>
-    <mergeCell ref="G314:G315"/>
-    <mergeCell ref="G323:G324"/>
-    <mergeCell ref="G325:G327"/>
-    <mergeCell ref="G335:G338"/>
-    <mergeCell ref="G339:G340"/>
-    <mergeCell ref="G346:G352"/>
-    <mergeCell ref="G353:G354"/>
-    <mergeCell ref="G366:G367"/>
-    <mergeCell ref="G368:G369"/>
-    <mergeCell ref="G375:G377"/>
-    <mergeCell ref="G396:G397"/>
-    <mergeCell ref="G402:G403"/>
-    <mergeCell ref="G404:G405"/>
-    <mergeCell ref="G406:G407"/>
-    <mergeCell ref="G415:G416"/>
-    <mergeCell ref="G417:G418"/>
-    <mergeCell ref="G433:G434"/>
+    <mergeCell ref="K435:M435"/>
+    <mergeCell ref="E449:G449"/>
+    <mergeCell ref="F458:G458"/>
+    <mergeCell ref="F459:G459"/>
+    <mergeCell ref="F470:G470"/>
+    <mergeCell ref="F471:G471"/>
+    <mergeCell ref="F472:G472"/>
+    <mergeCell ref="F477:G477"/>
+    <mergeCell ref="F478:G478"/>
     <mergeCell ref="G436:G437"/>
-    <mergeCell ref="G486:G488"/>
-    <mergeCell ref="G489:G490"/>
-    <mergeCell ref="G513:G514"/>
-    <mergeCell ref="G517:G518"/>
-    <mergeCell ref="G519:G520"/>
-    <mergeCell ref="G537:G538"/>
-    <mergeCell ref="G547:G548"/>
-    <mergeCell ref="G554:G556"/>
-    <mergeCell ref="G564:G565"/>
-    <mergeCell ref="G576:G577"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="H169:H170"/>
-    <mergeCell ref="H183:H186"/>
-    <mergeCell ref="H192:H198"/>
-    <mergeCell ref="H210:H211"/>
-    <mergeCell ref="H265:H266"/>
-    <mergeCell ref="H288:H289"/>
-    <mergeCell ref="H314:H315"/>
-    <mergeCell ref="H327:H329"/>
-    <mergeCell ref="H335:H337"/>
-    <mergeCell ref="H338:H342"/>
-    <mergeCell ref="H346:H347"/>
-    <mergeCell ref="H366:H369"/>
-    <mergeCell ref="H375:H376"/>
-    <mergeCell ref="H378:H379"/>
-    <mergeCell ref="H385:H387"/>
-    <mergeCell ref="H388:H389"/>
-    <mergeCell ref="H394:H395"/>
-    <mergeCell ref="H435:H436"/>
-    <mergeCell ref="H460:H462"/>
-    <mergeCell ref="H463:H464"/>
-    <mergeCell ref="H471:H474"/>
-    <mergeCell ref="H475:H476"/>
-    <mergeCell ref="H485:H486"/>
-    <mergeCell ref="H488:H489"/>
-    <mergeCell ref="H490:H491"/>
-    <mergeCell ref="H492:H493"/>
-    <mergeCell ref="H494:H495"/>
-    <mergeCell ref="H504:H505"/>
-    <mergeCell ref="H513:H514"/>
-    <mergeCell ref="H515:H516"/>
-    <mergeCell ref="H528:H530"/>
-    <mergeCell ref="H547:H548"/>
-    <mergeCell ref="H564:H565"/>
-    <mergeCell ref="H567:H568"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="J153:J159"/>
-    <mergeCell ref="J160:J162"/>
-    <mergeCell ref="J386:J387"/>
-    <mergeCell ref="L298:L304"/>
-    <mergeCell ref="C87:E88"/>
-    <mergeCell ref="H98:I99"/>
-    <mergeCell ref="H100:I102"/>
-    <mergeCell ref="H103:I104"/>
-    <mergeCell ref="C150:F152"/>
-    <mergeCell ref="I167:J169"/>
-    <mergeCell ref="B178:E184"/>
-    <mergeCell ref="I183:J184"/>
-    <mergeCell ref="I185:J188"/>
-    <mergeCell ref="F87:G88"/>
-    <mergeCell ref="I483:J484"/>
-    <mergeCell ref="I485:J486"/>
-    <mergeCell ref="I488:J489"/>
-    <mergeCell ref="I501:J502"/>
-    <mergeCell ref="I503:J505"/>
-    <mergeCell ref="I513:J517"/>
-    <mergeCell ref="I203:J204"/>
-    <mergeCell ref="G222:H223"/>
-    <mergeCell ref="I221:J222"/>
-    <mergeCell ref="I230:J231"/>
-    <mergeCell ref="I241:J242"/>
     <mergeCell ref="I433:J435"/>
     <mergeCell ref="I436:J441"/>
     <mergeCell ref="I447:J449"/>
@@ -6145,6 +5562,16 @@
     <mergeCell ref="F473:G474"/>
     <mergeCell ref="F475:G476"/>
     <mergeCell ref="I471:J476"/>
+    <mergeCell ref="I240:J240"/>
+    <mergeCell ref="I264:J264"/>
+    <mergeCell ref="I287:J287"/>
+    <mergeCell ref="I290:J290"/>
+    <mergeCell ref="I313:J313"/>
+    <mergeCell ref="I317:J317"/>
+    <mergeCell ref="I345:J345"/>
+    <mergeCell ref="I409:J409"/>
+    <mergeCell ref="I432:J432"/>
+    <mergeCell ref="I241:J242"/>
     <mergeCell ref="I243:J250"/>
     <mergeCell ref="I265:J269"/>
     <mergeCell ref="I288:J289"/>
@@ -6155,6 +5582,45 @@
     <mergeCell ref="I402:J403"/>
     <mergeCell ref="I404:J405"/>
     <mergeCell ref="I406:J408"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="I182:J182"/>
+    <mergeCell ref="I220:J220"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="I223:J223"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="I229:J229"/>
+    <mergeCell ref="I232:J232"/>
+    <mergeCell ref="I239:J239"/>
+    <mergeCell ref="I221:J222"/>
+    <mergeCell ref="I230:J231"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="I166:J166"/>
+    <mergeCell ref="I170:J170"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="I79:K79"/>
     <mergeCell ref="F61:G62"/>
     <mergeCell ref="I60:K63"/>
     <mergeCell ref="F70:G71"/>
@@ -6162,1795 +5628,1833 @@
     <mergeCell ref="F74:G75"/>
     <mergeCell ref="I70:K71"/>
     <mergeCell ref="I72:K75"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="I59:K59"/>
     <mergeCell ref="I43:K44"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="F31:G32"/>
     <mergeCell ref="F33:G35"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:L14"/>
     <mergeCell ref="F12:G13"/>
     <mergeCell ref="I9:L10"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AD142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="I142" sqref="I142"/>
+    <sheetView tabSelected="1" topLeftCell="E116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K135" sqref="K135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="3" width="9.125"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9.125"/>
     <col min="17" max="17" width="9.125"/>
     <col min="20" max="21" width="9.125"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:19">
-      <c r="B4" s="1">
+      <c r="B4" s="70">
         <v>43373</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="I4" s="17">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="I4" s="45">
         <v>43379</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="P4" s="22">
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="P4" s="47">
         <v>43380</v>
       </c>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="28"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="72"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="78" t="s">
         <v>375</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="I5" s="16" t="s">
+      <c r="F5" s="25"/>
+      <c r="I5" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16" t="s">
+      <c r="J5" s="37"/>
+      <c r="K5" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="P5" s="16" t="s">
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="P5" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="18" t="s">
+      <c r="Q5" s="37"/>
+      <c r="R5" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="S5" s="20"/>
+      <c r="S5" s="39"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="18" t="s">
+      <c r="F6" s="25"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="S6" s="20"/>
+      <c r="S6" s="39"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="P7" s="3" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="P7" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="79" t="s">
         <v>389</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="65" t="s">
         <v>390</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="I8" s="16" t="s">
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="66"/>
+      <c r="I8" s="37" t="s">
         <v>391</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16" t="s">
+      <c r="J8" s="37"/>
+      <c r="K8" s="37" t="s">
         <v>392</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="P8" s="16" t="s">
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="P8" s="37" t="s">
         <v>393</v>
       </c>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="85"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="I10" s="3" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="85"/>
+      <c r="I10" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="P10" s="16" t="s">
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="P10" s="37" t="s">
         <v>395</v>
       </c>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="I11" s="16" t="s">
+      <c r="B11" s="80"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="85"/>
+      <c r="I11" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="P12" s="16" t="s">
+      <c r="B12" s="80"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="85"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="P12" s="37" t="s">
         <v>397</v>
       </c>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="85"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="P14" s="16" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="68"/>
+      <c r="P14" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="37" t="s">
         <v>399</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="24" spans="2:17">
-      <c r="B24" s="17">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="45">
         <v>43381</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="I24" s="23">
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="I24" s="50">
         <v>43382</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="Q24" s="29">
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="Q24" s="4">
         <v>43383</v>
       </c>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16" t="s">
+      <c r="C25" s="37"/>
+      <c r="D25" s="37" t="s">
         <v>400</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="I25" s="3" t="s">
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="I25" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="P25" s="3" t="s">
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="P25" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="I26" s="16" t="s">
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="I26" s="37" t="s">
         <v>404</v>
       </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="P26" s="3" t="s">
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="P26" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="37" t="s">
         <v>406</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16" t="s">
+      <c r="C27" s="37"/>
+      <c r="D27" s="37" t="s">
         <v>407</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="P27" s="24" t="s">
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="P27" s="87" t="s">
         <v>408</v>
       </c>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="I28" s="3" t="s">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="I28" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3" t="s">
+      <c r="J28" s="25"/>
+      <c r="K28" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="I29" s="18" t="s">
+      <c r="C29" s="25"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="39"/>
+      <c r="I29" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="39"/>
+      <c r="K29" s="25" t="s">
         <v>413</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-    </row>
-    <row r="30" spans="9:20">
-      <c r="I30" s="16" t="s">
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="I30" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-    </row>
-    <row r="31" spans="9:20">
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-    </row>
-    <row r="32" spans="9:20">
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="P32" s="3" t="s">
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="P32" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-    </row>
-    <row r="33" spans="16:20">
-      <c r="P33" s="3" t="s">
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+    </row>
+    <row r="33" spans="2:30">
+      <c r="P33" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-    </row>
-    <row r="34" spans="16:20">
-      <c r="P34" s="16" t="s">
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+    </row>
+    <row r="34" spans="2:30">
+      <c r="P34" s="37" t="s">
         <v>417</v>
       </c>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-    </row>
-    <row r="35" spans="16:20">
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+    </row>
+    <row r="35" spans="2:30">
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
     </row>
     <row r="41" spans="2:30">
-      <c r="B41" s="17">
+      <c r="B41" s="45">
         <v>43384</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="H41" s="17">
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="H41" s="45">
         <v>43385</v>
       </c>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="U41" s="21" t="s">
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="U41" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
-      <c r="AD41" s="21"/>
+      <c r="V41" s="69"/>
+      <c r="W41" s="69"/>
+      <c r="X41" s="69"/>
+      <c r="Y41" s="69"/>
+      <c r="Z41" s="69"/>
+      <c r="AA41" s="69"/>
+      <c r="AB41" s="69"/>
+      <c r="AC41" s="69"/>
+      <c r="AD41" s="69"/>
     </row>
     <row r="42" spans="2:30">
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="H42" s="21" t="s">
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="H42" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="U42" s="3" t="s">
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="69"/>
+      <c r="U42" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="V42" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="W42" s="3" t="s">
+      <c r="W42" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="X42" s="3" t="s">
+      <c r="X42" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="Y42" s="3" t="s">
+      <c r="Y42" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="Z42" s="3" t="s">
+      <c r="Z42" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="AA42" s="3" t="s">
+      <c r="AA42" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="AB42" s="3" t="s">
+      <c r="AB42" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="AC42" s="3" t="s">
+      <c r="AC42" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="AD42" s="3"/>
+      <c r="AD42" s="25"/>
     </row>
     <row r="43" spans="2:30">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="37" t="s">
         <v>429</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="H43" s="3" t="s">
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="H43" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="M43" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="N43" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="O43" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="P43" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="Q43" s="3"/>
-      <c r="U43" s="16" t="s">
+      <c r="Q43" s="25"/>
+      <c r="U43" s="37" t="s">
         <v>430</v>
       </c>
-      <c r="V43" s="20" t="s">
+      <c r="V43" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="W43" s="3">
+      <c r="W43" s="25">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="X43" s="1">
         <v>3</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="1">
         <v>25</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="1">
         <v>20</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AA43" s="1">
         <v>5</v>
       </c>
-      <c r="AB43" s="3" t="s">
+      <c r="AB43" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
     </row>
     <row r="44" spans="2:30">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="H44" s="16" t="s">
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="H44" s="37" t="s">
         <v>430</v>
       </c>
-      <c r="I44" s="20" t="s">
+      <c r="I44" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="25">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="1">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="1">
         <v>25</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="1">
         <v>20</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="1">
         <v>5</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="O44" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3">
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="1">
         <v>2</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="1">
         <v>34</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="1">
         <v>19</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="1">
         <v>15</v>
       </c>
-      <c r="AB44" s="3" t="s">
+      <c r="AB44" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC44" s="18"/>
-      <c r="AD44" s="20"/>
+      <c r="AC44" s="38"/>
+      <c r="AD44" s="39"/>
     </row>
     <row r="45" spans="2:30">
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3">
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="1">
         <v>2</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="1">
         <v>34</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="1">
         <v>19</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="1">
         <v>15</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="20"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3">
+      <c r="P45" s="38"/>
+      <c r="Q45" s="39"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="1">
         <v>1</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="1">
         <v>83</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="1">
         <v>60</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AA45" s="1">
         <v>23</v>
       </c>
-      <c r="AB45" s="3" t="s">
+      <c r="AB45" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC45" s="18"/>
-      <c r="AD45" s="20"/>
+      <c r="AC45" s="38"/>
+      <c r="AD45" s="39"/>
     </row>
     <row r="46" spans="2:30">
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="37" t="s">
         <v>435</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3">
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="1">
         <v>1</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="1">
         <v>83</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="1">
         <v>60</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="1">
         <v>23</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="O46" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="20"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="3">
+      <c r="P46" s="38"/>
+      <c r="Q46" s="39"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="25">
         <v>100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="X46" s="1">
         <v>1.5</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="1">
         <v>66</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="1">
         <v>51</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AA46" s="1">
         <v>15</v>
       </c>
-      <c r="AB46" s="3" t="s">
+      <c r="AB46" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC46" s="18"/>
-      <c r="AD46" s="20"/>
+      <c r="AC46" s="38"/>
+      <c r="AD46" s="39"/>
     </row>
     <row r="47" spans="2:30">
-      <c r="B47" s="3"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="3">
+      <c r="B47" s="25"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="25">
         <v>100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="1">
         <v>1.5</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="1">
         <v>66</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="1">
         <v>51</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="1">
         <v>15</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="O47" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="20"/>
-      <c r="U47" s="16"/>
-      <c r="V47" s="20"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3">
+      <c r="P47" s="38"/>
+      <c r="Q47" s="39"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="1">
         <v>1</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="1">
         <v>79</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="1">
         <v>44</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AA47" s="1">
         <v>35</v>
       </c>
-      <c r="AB47" s="3" t="s">
+      <c r="AB47" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC47" s="18"/>
-      <c r="AD47" s="20"/>
+      <c r="AC47" s="38"/>
+      <c r="AD47" s="39"/>
     </row>
     <row r="48" spans="2:30">
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="37" t="s">
         <v>436</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3">
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="1">
         <v>1</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="1">
         <v>79</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="1">
         <v>44</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="1">
         <v>35</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="O48" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="20"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3">
+      <c r="P48" s="38"/>
+      <c r="Q48" s="39"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="1">
         <v>0.5</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="1">
         <v>456</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="1">
         <v>44</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="1">
         <v>112</v>
       </c>
-      <c r="AB48" s="3" t="s">
+      <c r="AB48" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC48" s="18"/>
-      <c r="AD48" s="20"/>
-    </row>
-    <row r="49" spans="8:30">
-      <c r="H49" s="16"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3">
+      <c r="AC48" s="38"/>
+      <c r="AD48" s="39"/>
+    </row>
+    <row r="49" spans="2:30">
+      <c r="H49" s="37"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="1">
         <v>0.5</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="1">
         <v>456</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="1">
         <v>44</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="1">
         <v>112</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="O49" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="20"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3">
+      <c r="P49" s="38"/>
+      <c r="Q49" s="39"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="1">
         <v>0.2</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="1">
         <v>365</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="1">
         <v>43</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="1">
         <v>322</v>
       </c>
-      <c r="AB49" s="3" t="s">
+      <c r="AB49" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC49" s="3" t="s">
+      <c r="AC49" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="AD49" s="3"/>
-    </row>
-    <row r="50" spans="8:30">
-      <c r="H50" s="16"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3">
+      <c r="AD49" s="25"/>
+    </row>
+    <row r="50" spans="2:30">
+      <c r="H50" s="37"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="1">
         <v>0.2</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="1">
         <v>365</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="1">
         <v>43</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50" s="1">
         <v>322</v>
       </c>
-      <c r="O50" s="3" t="s">
+      <c r="O50" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P50" s="3" t="s">
+      <c r="P50" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="Q50" s="3"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="3">
+      <c r="Q50" s="25"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="25">
         <v>50</v>
       </c>
-      <c r="X50" s="3">
+      <c r="X50" s="1">
         <v>1.5</v>
       </c>
-      <c r="Y50" s="3">
+      <c r="Y50" s="1">
         <v>115</v>
       </c>
-      <c r="Z50" s="3">
+      <c r="Z50" s="1">
         <v>115</v>
       </c>
-      <c r="AA50" s="3">
+      <c r="AA50" s="1">
         <v>0</v>
       </c>
-      <c r="AB50" s="3" t="s">
+      <c r="AB50" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC50" s="18"/>
-      <c r="AD50" s="20"/>
-    </row>
-    <row r="51" spans="8:30">
-      <c r="H51" s="16"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="3">
+      <c r="AC50" s="38"/>
+      <c r="AD50" s="39"/>
+    </row>
+    <row r="51" spans="2:30">
+      <c r="H51" s="37"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="25">
         <v>50</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="1">
         <v>1.5</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="1">
         <v>115</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="1">
         <v>115</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="1">
         <v>0</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="O51" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="20"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3">
+      <c r="P51" s="38"/>
+      <c r="Q51" s="39"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="1">
         <v>0.8</v>
       </c>
-      <c r="Y51" s="3">
+      <c r="Y51" s="1">
         <v>117</v>
       </c>
-      <c r="Z51" s="3">
+      <c r="Z51" s="1">
         <v>99</v>
       </c>
-      <c r="AA51" s="3">
+      <c r="AA51" s="1">
         <v>18</v>
       </c>
-      <c r="AB51" s="3" t="s">
+      <c r="AB51" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC51" s="3" t="s">
+      <c r="AC51" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="AD51" s="3"/>
-    </row>
-    <row r="52" spans="8:30">
-      <c r="H52" s="16"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3">
+      <c r="AD51" s="25"/>
+    </row>
+    <row r="52" spans="2:30">
+      <c r="H52" s="37"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="1">
         <v>0.8</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="1">
         <v>117</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="1">
         <v>99</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="1">
         <v>18</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="O52" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P52" s="3" t="s">
+      <c r="P52" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="Q52" s="3"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3">
+      <c r="Q52" s="25"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="25"/>
+      <c r="X52" s="1">
         <v>0.2</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="1">
         <v>398</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="1">
         <v>89</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="1">
         <v>309</v>
       </c>
-      <c r="AB52" s="3" t="s">
+      <c r="AB52" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC52" s="3" t="s">
+      <c r="AC52" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="AD52" s="3"/>
-    </row>
-    <row r="53" spans="8:30">
-      <c r="H53" s="16"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3">
+      <c r="AD52" s="25"/>
+    </row>
+    <row r="53" spans="2:30">
+      <c r="H53" s="37"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="1">
         <v>0.2</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="1">
         <v>398</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M53" s="1">
         <v>89</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N53" s="1">
         <v>309</v>
       </c>
-      <c r="O53" s="3" t="s">
+      <c r="O53" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P53" s="3" t="s">
+      <c r="P53" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="Q53" s="3"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="20" t="s">
+      <c r="Q53" s="25"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="W53" s="3">
+      <c r="W53" s="1">
         <v>200</v>
       </c>
-      <c r="X53" s="3">
+      <c r="X53" s="1">
         <v>2</v>
       </c>
-      <c r="Y53" s="3">
+      <c r="Y53" s="1">
         <v>44</v>
       </c>
-      <c r="Z53" s="3">
+      <c r="Z53" s="1">
         <v>20</v>
       </c>
-      <c r="AA53" s="3">
+      <c r="AA53" s="1">
         <v>24</v>
       </c>
-      <c r="AB53" s="3" t="s">
+      <c r="AB53" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC53" s="25" t="s">
+      <c r="AC53" s="73" t="s">
         <v>437</v>
       </c>
-      <c r="AD53" s="25"/>
-    </row>
-    <row r="54" spans="8:30">
-      <c r="H54" s="16"/>
-      <c r="I54" s="20" t="s">
+      <c r="AD53" s="73"/>
+    </row>
+    <row r="54" spans="2:30">
+      <c r="H54" s="37"/>
+      <c r="I54" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="1">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="1">
         <v>2</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="1">
         <v>44</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="1">
         <v>20</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="1">
         <v>24</v>
       </c>
-      <c r="O54" s="3" t="s">
+      <c r="O54" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P54" s="25" t="s">
+      <c r="P54" s="73" t="s">
         <v>437</v>
       </c>
-      <c r="Q54" s="25"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="3">
+      <c r="Q54" s="73"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="25">
         <v>100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="X54" s="1">
         <v>1.5</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="1">
         <v>93</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="1">
         <v>47</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AA54" s="1">
         <v>46</v>
       </c>
-      <c r="AB54" s="3" t="s">
+      <c r="AB54" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC54" s="18"/>
-      <c r="AD54" s="20"/>
-    </row>
-    <row r="55" spans="8:30">
-      <c r="H55" s="16"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="3">
+      <c r="AC54" s="38"/>
+      <c r="AD54" s="39"/>
+    </row>
+    <row r="55" spans="2:30">
+      <c r="H55" s="37"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="25">
         <v>100</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="1">
         <v>1.5</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="1">
         <v>93</v>
       </c>
-      <c r="M55" s="3">
+      <c r="M55" s="1">
         <v>47</v>
       </c>
-      <c r="N55" s="3">
+      <c r="N55" s="1">
         <v>46</v>
       </c>
-      <c r="O55" s="3" t="s">
+      <c r="O55" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="20"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="20"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3">
+      <c r="P55" s="38"/>
+      <c r="Q55" s="39"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="25"/>
+      <c r="X55" s="1">
         <v>0.5</v>
       </c>
-      <c r="Y55" s="3">
+      <c r="Y55" s="1">
         <v>209</v>
       </c>
-      <c r="Z55" s="3">
+      <c r="Z55" s="1">
         <v>41</v>
       </c>
-      <c r="AA55" s="3">
+      <c r="AA55" s="1">
         <v>168</v>
       </c>
-      <c r="AB55" s="3" t="s">
+      <c r="AB55" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC55" s="25" t="s">
+      <c r="AC55" s="73" t="s">
         <v>437</v>
       </c>
-      <c r="AD55" s="25"/>
-    </row>
-    <row r="56" spans="8:30">
-      <c r="H56" s="16"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3">
+      <c r="AD55" s="73"/>
+    </row>
+    <row r="56" spans="2:30">
+      <c r="H56" s="37"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="1">
         <v>0.5</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="1">
         <v>209</v>
       </c>
-      <c r="M56" s="3">
+      <c r="M56" s="1">
         <v>41</v>
       </c>
-      <c r="N56" s="3">
+      <c r="N56" s="1">
         <v>168</v>
       </c>
-      <c r="O56" s="3" t="s">
+      <c r="O56" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P56" s="25" t="s">
+      <c r="P56" s="73" t="s">
         <v>437</v>
       </c>
-      <c r="Q56" s="25"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="20"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3">
+      <c r="Q56" s="73"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="25"/>
+      <c r="X56" s="1">
         <v>0.2</v>
       </c>
-      <c r="Y56" s="3">
+      <c r="Y56" s="1">
         <v>453</v>
       </c>
-      <c r="Z56" s="3">
+      <c r="Z56" s="1">
         <v>43</v>
       </c>
-      <c r="AA56" s="3">
+      <c r="AA56" s="1">
         <v>410</v>
       </c>
-      <c r="AB56" s="3" t="s">
+      <c r="AB56" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC56" s="3" t="s">
+      <c r="AC56" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="8:30">
-      <c r="H57" s="16"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3">
+      <c r="AD56" s="25"/>
+    </row>
+    <row r="57" spans="2:30">
+      <c r="H57" s="37"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="1">
         <v>0.2</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="1">
         <v>453</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="1">
         <v>43</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="1">
         <v>410</v>
       </c>
-      <c r="O57" s="3" t="s">
+      <c r="O57" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P57" s="3" t="s">
+      <c r="P57" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="Q57" s="3"/>
-      <c r="U57" s="16"/>
-      <c r="V57" s="20"/>
-      <c r="W57" s="3">
+      <c r="Q57" s="25"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="39"/>
+      <c r="W57" s="1">
         <v>50</v>
       </c>
-      <c r="X57" s="3">
+      <c r="X57" s="1">
         <v>0.2</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="1">
         <v>405</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="1">
         <v>84</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="1">
         <v>321</v>
       </c>
-      <c r="AB57" s="3" t="s">
+      <c r="AB57" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AC57" s="3" t="s">
+      <c r="AC57" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="AD57" s="3"/>
-    </row>
-    <row r="58" spans="8:30">
-      <c r="H58" s="16"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="3">
+      <c r="AD57" s="25"/>
+    </row>
+    <row r="58" spans="2:30">
+      <c r="H58" s="37"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="1">
         <v>50</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="1">
         <v>0.2</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="1">
         <v>405</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="1">
         <v>84</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="1">
         <v>321</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="O58" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="Q58" s="3"/>
-      <c r="U58" s="16"/>
-      <c r="V58" s="19" t="s">
+      <c r="Q58" s="25"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="40" t="s">
         <v>439</v>
       </c>
-      <c r="W58" s="19"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="19"/>
-      <c r="Z58" s="19"/>
-      <c r="AA58" s="19"/>
-      <c r="AB58" s="19"/>
-      <c r="AC58" s="19"/>
-      <c r="AD58" s="20"/>
-    </row>
-    <row r="59" spans="8:21">
-      <c r="H59" s="16"/>
-      <c r="I59" s="19" t="s">
+      <c r="W58" s="40"/>
+      <c r="X58" s="40"/>
+      <c r="Y58" s="40"/>
+      <c r="Z58" s="40"/>
+      <c r="AA58" s="40"/>
+      <c r="AB58" s="40"/>
+      <c r="AC58" s="40"/>
+      <c r="AD58" s="39"/>
+    </row>
+    <row r="59" spans="2:30">
+      <c r="H59" s="37"/>
+      <c r="I59" s="40" t="s">
         <v>439</v>
       </c>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="20"/>
-      <c r="U59" s="30"/>
-    </row>
-    <row r="60" spans="21:21">
-      <c r="U60" s="30"/>
-    </row>
-    <row r="61" spans="21:23">
-      <c r="U61" s="30"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="39"/>
+      <c r="U59" s="5"/>
+    </row>
+    <row r="60" spans="2:30">
+      <c r="U60" s="5"/>
+    </row>
+    <row r="61" spans="2:30">
+      <c r="U61" s="5"/>
       <c r="W61">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="21:21">
-      <c r="U62" s="30"/>
-    </row>
-    <row r="63" spans="23:23">
-      <c r="W63" s="30"/>
-    </row>
-    <row r="64" spans="2:21">
-      <c r="B64" s="17">
+    <row r="62" spans="2:30">
+      <c r="U62" s="5"/>
+    </row>
+    <row r="63" spans="2:30">
+      <c r="W63" s="5"/>
+    </row>
+    <row r="64" spans="2:30">
+      <c r="B64" s="45">
         <v>43386</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="J64" s="26">
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="J64" s="74">
         <v>43387</v>
       </c>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="U64" s="29">
+      <c r="K64" s="74"/>
+      <c r="L64" s="74"/>
+      <c r="M64" s="74"/>
+      <c r="N64" s="74"/>
+      <c r="U64" s="4">
         <v>43388</v>
       </c>
     </row>
-    <row r="65" spans="2:21">
-      <c r="B65" s="16" t="s">
+    <row r="65" spans="2:24">
+      <c r="B65" s="37" t="s">
         <v>440</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="J65" s="34" t="s">
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="J65" s="75" t="s">
         <v>442</v>
       </c>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
+      <c r="K65" s="75"/>
+      <c r="L65" s="75"/>
+      <c r="M65" s="75"/>
+      <c r="N65" s="75"/>
       <c r="U65" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="66" spans="2:21">
-      <c r="B66" s="16"/>
-      <c r="C66" s="3" t="s">
+    <row r="66" spans="2:24">
+      <c r="B66" s="37"/>
+      <c r="C66" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="J66" s="34" t="s">
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="J66" s="75" t="s">
         <v>445</v>
       </c>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
+      <c r="K66" s="75"/>
+      <c r="L66" s="75"/>
+      <c r="M66" s="75"/>
+      <c r="N66" s="75"/>
       <c r="U66" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="67" spans="2:24">
-      <c r="B67" s="16"/>
-      <c r="C67" s="3" t="s">
+      <c r="B67" s="37"/>
+      <c r="C67" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="J67" s="34" t="s">
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="J67" s="75" t="s">
         <v>448</v>
       </c>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="34"/>
-      <c r="U67" s="10" t="s">
+      <c r="K67" s="75"/>
+      <c r="L67" s="75"/>
+      <c r="M67" s="75"/>
+      <c r="N67" s="75"/>
+      <c r="U67" s="55" t="s">
         <v>449</v>
       </c>
-      <c r="V67" s="10"/>
-      <c r="W67" s="10"/>
-      <c r="X67" s="10"/>
+      <c r="V67" s="55"/>
+      <c r="W67" s="55"/>
+      <c r="X67" s="55"/>
     </row>
     <row r="68" spans="2:24">
-      <c r="B68" s="16"/>
-      <c r="C68" s="3" t="s">
+      <c r="B68" s="37"/>
+      <c r="C68" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="J68" s="34" t="s">
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="J68" s="75" t="s">
         <v>451</v>
       </c>
-      <c r="K68" s="34"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="34"/>
-      <c r="N68" s="34"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-    </row>
-    <row r="69" spans="2:21">
-      <c r="B69" s="16" t="s">
+      <c r="K68" s="75"/>
+      <c r="L68" s="75"/>
+      <c r="M68" s="75"/>
+      <c r="N68" s="75"/>
+      <c r="U68" s="55"/>
+      <c r="V68" s="55"/>
+      <c r="W68" s="55"/>
+      <c r="X68" s="55"/>
+    </row>
+    <row r="69" spans="2:24">
+      <c r="B69" s="37" t="s">
         <v>452</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="J69" s="34" t="s">
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="J69" s="75" t="s">
         <v>453</v>
       </c>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="34"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="75"/>
+      <c r="N69" s="75"/>
       <c r="U69" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="70" spans="2:14">
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="J70" s="34" t="s">
+    <row r="70" spans="2:24">
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="J70" s="75" t="s">
         <v>455</v>
       </c>
-      <c r="K70" s="34"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="34"/>
-    </row>
-    <row r="71" spans="2:14">
-      <c r="B71" s="16" t="s">
+      <c r="K70" s="75"/>
+      <c r="L70" s="75"/>
+      <c r="M70" s="75"/>
+      <c r="N70" s="75"/>
+    </row>
+    <row r="71" spans="2:24">
+      <c r="B71" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="J71" s="35" t="s">
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="J71" s="76" t="s">
         <v>457</v>
       </c>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-    </row>
-    <row r="72" spans="2:14">
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="J72" s="34" t="s">
+      <c r="K71" s="76"/>
+      <c r="L71" s="76"/>
+      <c r="M71" s="76"/>
+      <c r="N71" s="76"/>
+    </row>
+    <row r="72" spans="2:24">
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="J72" s="75" t="s">
         <v>458</v>
       </c>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="34"/>
-    </row>
-    <row r="80" spans="2:23">
-      <c r="B80" s="17">
+      <c r="K72" s="75"/>
+      <c r="L72" s="75"/>
+      <c r="M72" s="75"/>
+      <c r="N72" s="75"/>
+    </row>
+    <row r="80" spans="2:24">
+      <c r="B80" s="45">
         <v>43389</v>
       </c>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="T80" s="17">
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="T80" s="45">
         <v>43391</v>
       </c>
-      <c r="U80" s="17"/>
-      <c r="V80" s="17"/>
-      <c r="W80" s="17"/>
+      <c r="U80" s="45"/>
+      <c r="V80" s="45"/>
+      <c r="W80" s="45"/>
     </row>
     <row r="81" spans="2:23">
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="K81" s="17">
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="K81" s="45">
         <v>43390</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="T81" s="36" t="s">
+      <c r="L81" s="45"/>
+      <c r="M81" s="45"/>
+      <c r="N81" s="45"/>
+      <c r="O81" s="45"/>
+      <c r="P81" s="45"/>
+      <c r="T81" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="U81" s="36"/>
-      <c r="V81" s="36"/>
-      <c r="W81" s="36"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="8"/>
     </row>
     <row r="82" spans="2:23">
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="31"/>
-      <c r="K82" s="3" t="s">
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="6"/>
+      <c r="K82" s="25" t="s">
         <v>462</v>
       </c>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="T82" s="36" t="s">
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="T82" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="U82" s="36"/>
-      <c r="V82" s="36"/>
-      <c r="W82" s="36"/>
+      <c r="U82" s="8"/>
+      <c r="V82" s="8"/>
+      <c r="W82" s="8"/>
     </row>
     <row r="83" spans="2:23">
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="31"/>
-      <c r="K83" s="3" t="s">
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="6"/>
+      <c r="K83" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="T83" s="36" t="s">
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="T83" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="U83" s="36"/>
-      <c r="V83" s="36"/>
-      <c r="W83" s="36"/>
+      <c r="U83" s="8"/>
+      <c r="V83" s="8"/>
+      <c r="W83" s="8"/>
     </row>
     <row r="84" spans="2:23">
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="37" t="s">
         <v>466</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="31"/>
-      <c r="K84" s="3" t="s">
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="6"/>
+      <c r="K84" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-      <c r="T84" s="36" t="s">
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="T84" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="U84" s="36"/>
-      <c r="V84" s="36"/>
-      <c r="W84" s="36"/>
+      <c r="U84" s="8"/>
+      <c r="V84" s="8"/>
+      <c r="W84" s="8"/>
     </row>
     <row r="85" spans="2:23">
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="31"/>
-      <c r="K85" s="3" t="s">
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="6"/>
+      <c r="K85" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-      <c r="T85" s="18"/>
-      <c r="U85" s="19"/>
-      <c r="V85" s="19"/>
-      <c r="W85" s="20"/>
-    </row>
-    <row r="86" spans="20:23">
-      <c r="T86" s="16" t="s">
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
+      <c r="T85" s="38"/>
+      <c r="U85" s="40"/>
+      <c r="V85" s="40"/>
+      <c r="W85" s="39"/>
+    </row>
+    <row r="86" spans="2:23">
+      <c r="T86" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="U86" s="16"/>
-      <c r="V86" s="16"/>
-      <c r="W86" s="16"/>
-    </row>
-    <row r="87" spans="20:23">
-      <c r="T87" s="16"/>
-      <c r="U87" s="16"/>
-      <c r="V87" s="16"/>
-      <c r="W87" s="16"/>
-    </row>
-    <row r="88" spans="20:23">
-      <c r="T88" s="16"/>
-      <c r="U88" s="16"/>
-      <c r="V88" s="16"/>
-      <c r="W88" s="16"/>
-    </row>
-    <row r="89" spans="20:23">
-      <c r="T89" s="18" t="s">
+      <c r="U86" s="37"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="37"/>
+    </row>
+    <row r="87" spans="2:23">
+      <c r="T87" s="37"/>
+      <c r="U87" s="37"/>
+      <c r="V87" s="37"/>
+      <c r="W87" s="37"/>
+    </row>
+    <row r="88" spans="2:23">
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="37"/>
+      <c r="W88" s="37"/>
+    </row>
+    <row r="89" spans="2:23">
+      <c r="T89" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="U89" s="19"/>
-      <c r="V89" s="19"/>
-      <c r="W89" s="20"/>
-    </row>
-    <row r="90" spans="20:23">
-      <c r="T90" s="16" t="s">
+      <c r="U89" s="40"/>
+      <c r="V89" s="40"/>
+      <c r="W89" s="39"/>
+    </row>
+    <row r="90" spans="2:23">
+      <c r="T90" s="37" t="s">
         <v>472</v>
       </c>
-      <c r="U90" s="16"/>
-      <c r="V90" s="16"/>
-      <c r="W90" s="16"/>
-    </row>
-    <row r="91" spans="20:23">
-      <c r="T91" s="16"/>
-      <c r="U91" s="16"/>
-      <c r="V91" s="16"/>
-      <c r="W91" s="16"/>
-    </row>
-    <row r="96" ht="21.95" customHeight="1"/>
+      <c r="U90" s="37"/>
+      <c r="V90" s="37"/>
+      <c r="W90" s="37"/>
+    </row>
+    <row r="91" spans="2:23">
+      <c r="T91" s="37"/>
+      <c r="U91" s="37"/>
+      <c r="V91" s="37"/>
+      <c r="W91" s="37"/>
+    </row>
+    <row r="96" spans="2:23" ht="21.95" customHeight="1"/>
     <row r="97" spans="2:23">
-      <c r="B97" s="17">
+      <c r="B97" s="45">
         <v>43392</v>
       </c>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="K97" s="29">
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="45"/>
+      <c r="K97" s="4">
         <v>43393</v>
       </c>
-      <c r="T97" s="17">
+      <c r="T97" s="45">
         <v>43394</v>
       </c>
-      <c r="U97" s="17"/>
-      <c r="V97" s="17"/>
-      <c r="W97" s="17"/>
+      <c r="U97" s="45"/>
+      <c r="V97" s="45"/>
+      <c r="W97" s="45"/>
     </row>
     <row r="98" spans="2:23">
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="K98" s="69" t="s">
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="K98" s="82" t="s">
         <v>474</v>
       </c>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="10"/>
-      <c r="O98" s="10"/>
-      <c r="P98" s="10"/>
-      <c r="T98" s="37" t="s">
+      <c r="L98" s="55"/>
+      <c r="M98" s="55"/>
+      <c r="N98" s="55"/>
+      <c r="O98" s="55"/>
+      <c r="P98" s="55"/>
+      <c r="T98" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="U98" s="37"/>
-      <c r="V98" s="37"/>
-      <c r="W98" s="37"/>
-    </row>
-    <row r="99" spans="2:16">
-      <c r="B99" s="3" t="s">
+      <c r="U98" s="27"/>
+      <c r="V98" s="27"/>
+      <c r="W98" s="27"/>
+    </row>
+    <row r="99" spans="2:23">
+      <c r="B99" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="K99" s="10"/>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="10"/>
-      <c r="O99" s="10"/>
-      <c r="P99" s="10"/>
-    </row>
-    <row r="100" spans="2:6">
-      <c r="B100" s="3" t="s">
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="K99" s="55"/>
+      <c r="L99" s="55"/>
+      <c r="M99" s="55"/>
+      <c r="N99" s="55"/>
+      <c r="O99" s="55"/>
+      <c r="P99" s="55"/>
+    </row>
+    <row r="100" spans="2:23">
+      <c r="B100" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="2:11">
-      <c r="B101" s="3" t="s">
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+    </row>
+    <row r="101" spans="2:23">
+      <c r="B101" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
       <c r="K101" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="102" spans="2:6">
-      <c r="B102" s="16" t="s">
+    <row r="102" spans="2:23">
+      <c r="B102" s="37" t="s">
         <v>480</v>
       </c>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-    </row>
-    <row r="103" spans="2:13">
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+    </row>
+    <row r="103" spans="2:23">
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
+      <c r="F103" s="37"/>
       <c r="K103" t="s">
         <v>481</v>
       </c>
@@ -7961,12 +7465,12 @@
         <v>483</v>
       </c>
     </row>
-    <row r="104" spans="2:13">
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
+    <row r="104" spans="2:23">
+      <c r="B104" s="37"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
       <c r="L104" t="s">
         <v>484</v>
       </c>
@@ -7974,97 +7478,97 @@
         <v>485</v>
       </c>
     </row>
-    <row r="105" spans="2:12">
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
+    <row r="105" spans="2:23">
+      <c r="B105" s="37"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="37"/>
       <c r="L105" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="106" spans="2:7">
-      <c r="B106" s="32" t="s">
+    <row r="106" spans="2:23">
+      <c r="B106" s="77" t="s">
         <v>487</v>
       </c>
-      <c r="C106" s="33" t="s">
+      <c r="C106" s="62" t="s">
         <v>488</v>
       </c>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="31"/>
-    </row>
-    <row r="107" spans="2:11">
-      <c r="B107" s="32"/>
-      <c r="C107" s="32" t="s">
+      <c r="D106" s="62"/>
+      <c r="E106" s="62"/>
+      <c r="F106" s="62"/>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="2:23">
+      <c r="B107" s="77"/>
+      <c r="C107" s="77" t="s">
         <v>489</v>
       </c>
-      <c r="D107" s="32"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="32"/>
-      <c r="G107" s="30"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="5"/>
       <c r="K107" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="108" spans="2:6">
-      <c r="B108" s="32"/>
-      <c r="C108" s="32" t="s">
+    <row r="108" spans="2:23">
+      <c r="B108" s="77"/>
+      <c r="C108" s="77" t="s">
         <v>491</v>
       </c>
-      <c r="D108" s="32"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="32"/>
-    </row>
-    <row r="109" spans="2:6">
-      <c r="B109" s="10" t="s">
+      <c r="D108" s="77"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77"/>
+    </row>
+    <row r="109" spans="2:23">
+      <c r="B109" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-    </row>
-    <row r="110" spans="2:6">
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-    </row>
-    <row r="116" spans="3:11">
-      <c r="C116" s="29">
+      <c r="C109" s="55"/>
+      <c r="D109" s="55"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55"/>
+    </row>
+    <row r="110" spans="2:23">
+      <c r="B110" s="55"/>
+      <c r="C110" s="55"/>
+      <c r="D110" s="55"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="55"/>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="C116" s="4">
         <v>43395</v>
       </c>
-      <c r="K116" s="29">
+      <c r="K116" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="117" spans="3:15">
+    <row r="117" spans="1:15">
       <c r="C117" t="s">
         <v>493</v>
       </c>
-      <c r="K117" s="10" t="s">
+      <c r="K117" s="55" t="s">
         <v>494</v>
       </c>
-      <c r="L117" s="10"/>
-      <c r="M117" s="10"/>
-      <c r="N117" s="10"/>
-      <c r="O117" s="10"/>
-    </row>
-    <row r="118" spans="3:15">
+      <c r="L117" s="55"/>
+      <c r="M117" s="55"/>
+      <c r="N117" s="55"/>
+      <c r="O117" s="55"/>
+    </row>
+    <row r="118" spans="1:15">
       <c r="C118" t="s">
         <v>495</v>
       </c>
-      <c r="K118" s="10"/>
-      <c r="L118" s="10"/>
-      <c r="M118" s="10"/>
-      <c r="N118" s="10"/>
-      <c r="O118" s="10"/>
-    </row>
-    <row r="119" spans="3:11">
+      <c r="K118" s="55"/>
+      <c r="L118" s="55"/>
+      <c r="M118" s="55"/>
+      <c r="N118" s="55"/>
+      <c r="O118" s="55"/>
+    </row>
+    <row r="119" spans="1:15">
       <c r="C119" t="s">
         <v>496</v>
       </c>
@@ -8072,223 +7576,165 @@
         <v>497</v>
       </c>
     </row>
-    <row r="120" spans="11:11">
+    <row r="120" spans="1:15">
       <c r="K120" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="121" spans="11:11">
+    <row r="121" spans="1:15">
       <c r="K121" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="122" spans="11:11">
+    <row r="122" spans="1:15">
       <c r="K122" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="17">
+    <row r="126" spans="1:15">
+      <c r="A126" s="45">
         <v>43397</v>
       </c>
-      <c r="B126" s="17"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="16" t="s">
+      <c r="B126" s="45"/>
+      <c r="C126" s="45"/>
+      <c r="D126" s="45"/>
+      <c r="G126" s="4">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="37" t="s">
         <v>501</v>
       </c>
-      <c r="B127" s="16"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="16"/>
-      <c r="B128" s="16"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="16" t="s">
+      <c r="B127" s="37"/>
+      <c r="C127" s="37"/>
+      <c r="D127" s="37"/>
+      <c r="G127" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="37"/>
+      <c r="B128" s="37"/>
+      <c r="C128" s="37"/>
+      <c r="D128" s="37"/>
+      <c r="G128" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="37" t="s">
         <v>502</v>
       </c>
-      <c r="B129" s="16"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="16"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="16" t="s">
+      <c r="B129" s="37"/>
+      <c r="C129" s="37"/>
+      <c r="D129" s="37"/>
+      <c r="G129" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="37"/>
+      <c r="B130" s="37"/>
+      <c r="C130" s="37"/>
+      <c r="D130" s="37"/>
+      <c r="G130" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="37" t="s">
         <v>503</v>
       </c>
-      <c r="B131" s="16"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="16" t="s">
+      <c r="B131" s="37"/>
+      <c r="C131" s="37"/>
+      <c r="D131" s="37"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="B132" s="16"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="16"/>
-      <c r="B133" s="16"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="10" t="s">
+      <c r="B132" s="37"/>
+      <c r="C132" s="37"/>
+      <c r="D132" s="37"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="37"/>
+      <c r="B133" s="37"/>
+      <c r="C133" s="37"/>
+      <c r="D133" s="37"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="55" t="s">
         <v>505</v>
       </c>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B134" s="55"/>
+      <c r="C134" s="55"/>
+      <c r="D134" s="55"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="55"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="55"/>
+      <c r="D135" s="55"/>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="10" t="s">
+    <row r="140" spans="1:7">
+      <c r="A140" s="55" t="s">
         <v>508</v>
       </c>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="38" t="s">
+      <c r="B140" s="55"/>
+      <c r="C140" s="55"/>
+      <c r="D140" s="55"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="55"/>
+      <c r="B141" s="55"/>
+      <c r="C141" s="55"/>
+      <c r="D141" s="55"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="43" t="s">
         <v>509</v>
       </c>
-      <c r="B142" s="38"/>
-      <c r="C142" s="38"/>
-      <c r="D142" s="38"/>
+      <c r="B142" s="43"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="160">
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="H41:Q41"/>
-    <mergeCell ref="U41:AD41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="H42:Q42"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="AC46:AD46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="AC47:AD47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="AC48:AD48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="AC49:AD49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="AC50:AD50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="AC51:AD51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="AC52:AD52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="AC53:AD53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="AC54:AD54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="AC55:AD55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="AC56:AD56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="AC57:AD57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="V58:AD58"/>
-    <mergeCell ref="I59:Q59"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="J64:N64"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="J65:N65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="J66:N66"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="J70:N70"/>
-    <mergeCell ref="J71:N71"/>
-    <mergeCell ref="J72:N72"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="T80:W80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="K81:P81"/>
-    <mergeCell ref="K82:P82"/>
-    <mergeCell ref="K83:P83"/>
-    <mergeCell ref="K84:P84"/>
-    <mergeCell ref="K85:P85"/>
-    <mergeCell ref="T85:W85"/>
-    <mergeCell ref="T89:W89"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="T97:W97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="T98:W98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:M9"/>
+    <mergeCell ref="I11:M13"/>
+    <mergeCell ref="C8:F14"/>
+    <mergeCell ref="P5:Q6"/>
+    <mergeCell ref="P8:S9"/>
+    <mergeCell ref="P10:S11"/>
+    <mergeCell ref="P12:S13"/>
+    <mergeCell ref="P14:S15"/>
+    <mergeCell ref="B15:F16"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="K5:M7"/>
+    <mergeCell ref="U67:X68"/>
+    <mergeCell ref="B82:F83"/>
+    <mergeCell ref="B84:F85"/>
+    <mergeCell ref="T86:W88"/>
+    <mergeCell ref="T90:W91"/>
+    <mergeCell ref="B102:F105"/>
+    <mergeCell ref="B109:F110"/>
+    <mergeCell ref="K98:P99"/>
+    <mergeCell ref="K117:O118"/>
+    <mergeCell ref="B69:F70"/>
+    <mergeCell ref="B71:F72"/>
     <mergeCell ref="C107:F107"/>
     <mergeCell ref="C108:F108"/>
     <mergeCell ref="A126:D126"/>
@@ -8301,6 +7747,54 @@
     <mergeCell ref="B106:B108"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A127:D128"/>
+    <mergeCell ref="A129:D130"/>
+    <mergeCell ref="A132:D133"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="B43:F44"/>
+    <mergeCell ref="C46:F47"/>
+    <mergeCell ref="A134:D135"/>
+    <mergeCell ref="A140:D141"/>
+    <mergeCell ref="T89:W89"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="T97:W97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="T98:W98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="J72:N72"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="T80:W80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="K81:P81"/>
+    <mergeCell ref="K82:P82"/>
+    <mergeCell ref="K83:P83"/>
+    <mergeCell ref="K84:P84"/>
+    <mergeCell ref="K85:P85"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="J66:N66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="J70:N70"/>
+    <mergeCell ref="J71:N71"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="AC57:AD57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="V58:AD58"/>
+    <mergeCell ref="I59:Q59"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="J64:N64"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="J65:N65"/>
     <mergeCell ref="H44:H59"/>
     <mergeCell ref="I44:I53"/>
     <mergeCell ref="I54:I58"/>
@@ -8315,47 +7809,72 @@
     <mergeCell ref="W46:W49"/>
     <mergeCell ref="W50:W52"/>
     <mergeCell ref="W54:W56"/>
-    <mergeCell ref="A127:D128"/>
-    <mergeCell ref="A129:D130"/>
-    <mergeCell ref="A132:D133"/>
-    <mergeCell ref="U67:X68"/>
-    <mergeCell ref="B82:F83"/>
-    <mergeCell ref="B84:F85"/>
-    <mergeCell ref="T86:W88"/>
-    <mergeCell ref="T90:W91"/>
-    <mergeCell ref="B102:F105"/>
-    <mergeCell ref="B109:F110"/>
-    <mergeCell ref="K98:P99"/>
-    <mergeCell ref="K117:O118"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:M9"/>
-    <mergeCell ref="I11:M13"/>
-    <mergeCell ref="C8:F14"/>
-    <mergeCell ref="P5:Q6"/>
-    <mergeCell ref="P8:S9"/>
-    <mergeCell ref="P10:S11"/>
-    <mergeCell ref="P12:S13"/>
-    <mergeCell ref="P14:S15"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D25:F26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="B15:F16"/>
-    <mergeCell ref="B43:F44"/>
-    <mergeCell ref="C46:F47"/>
-    <mergeCell ref="B69:F70"/>
-    <mergeCell ref="B71:F72"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="AC52:AD52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="AC53:AD53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="AC54:AD54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="AC55:AD55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="AC56:AD56"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="AC49:AD49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="AC50:AD50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="AC51:AD51"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="AC47:AD47"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="H41:Q41"/>
+    <mergeCell ref="U41:AD41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="H42:Q42"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="AC43:AD43"/>
     <mergeCell ref="I30:M32"/>
     <mergeCell ref="P27:T31"/>
     <mergeCell ref="P34:T35"/>
     <mergeCell ref="I26:M27"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="K5:M7"/>
-    <mergeCell ref="A134:D135"/>
-    <mergeCell ref="A140:D141"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P7:S7"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/日计划.xlsx
+++ b/日计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作记录1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517">
   <si>
     <t>完成</t>
   </si>
@@ -1556,18 +1556,39 @@
     <t>今天虽然没有4点钟起来，但是也进步了，5点半起床。坚持</t>
   </si>
   <si>
+    <t>早上好，现在是4:53</t>
+  </si>
+  <si>
+    <t>学习了集成环境怎么使用git</t>
+  </si>
+  <si>
     <t>blbl看了尚硅谷的git团队协作教程。Pull request这些。</t>
   </si>
   <si>
+    <t>学习git工作流，具体是项目的开发，运行，修复的各种分支</t>
+  </si>
+  <si>
+    <t>尚硅谷找到了一个想学的linux教程，已经mark</t>
+  </si>
+  <si>
     <t>查看eclipse怎么使用内置的Git进行管理</t>
   </si>
   <si>
+    <t>初步出了发送键值的测试。但发送两个键值就调用一次USB发送，太慢。</t>
+  </si>
+  <si>
     <t>觉得有必要深入学习下java，当做拓展自己，而且java也一直很火。</t>
   </si>
   <si>
+    <t>将其修改成将键值填充到缓冲区，一次性发送，再调用USB上传的方式，效果有了质的提升</t>
+  </si>
+  <si>
     <t>wifi样机修复了问题，数组越界，且第一次收发数据响应较慢的调整</t>
   </si>
   <si>
+    <t>经过讨论，为了提高效率，将发送键值改成发送编码的方式，但接收方需要增加解码。需要测试接收端能否有足够资源</t>
+  </si>
+  <si>
     <t>已经上传SVN</t>
   </si>
   <si>
@@ -1578,29 +1599,19 @@
   </si>
   <si>
     <t>初步确认键值策略，等待与江辉测试。</t>
-  </si>
-  <si>
-    <t>早上好，现在是4:53</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习了集成环境怎么使用git</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习git工作流，具体是项目的开发，运行，修复的各种分支</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>尚硅谷找到了一个想学的linux教程，已经mark</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1630,13 +1641,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1667,8 +1816,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1845,25 +2174,342 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1876,9 +2522,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1897,234 +2567,140 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF0000"/>
+      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2136,7 +2712,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -2158,14 +2734,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13820775" y="5886450"/>
+          <a:off x="13839825" y="5886450"/>
           <a:ext cx="8371205" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2200,15 +2776,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8405134" y="21891888"/>
-          <a:ext cx="4502338" cy="2624359"/>
+          <a:off x="8433435" y="21234400"/>
+          <a:ext cx="4530725" cy="2542540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2501,12 +3077,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B8:M577"/>
   <sheetViews>
     <sheetView topLeftCell="A550" workbookViewId="0">
@@ -2525,545 +3101,545 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:12">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="4:12">
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="13" t="s">
+      <c r="G9" s="45"/>
+      <c r="H9" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-    </row>
-    <row r="10" spans="4:12">
-      <c r="F10" s="26" t="s">
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+    </row>
+    <row r="10" spans="6:12">
+      <c r="F10" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="13" t="s">
+      <c r="G10" s="45"/>
+      <c r="H10" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-    </row>
-    <row r="11" spans="4:12">
-      <c r="F11" s="26" t="s">
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+    </row>
+    <row r="11" spans="6:12">
+      <c r="F11" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="14" t="s">
+      <c r="G11" s="45"/>
+      <c r="H11" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="4:12">
-      <c r="F12" s="63" t="s">
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+    </row>
+    <row r="12" spans="6:12">
+      <c r="F12" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="48"/>
+      <c r="H12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-    </row>
-    <row r="13" spans="4:12">
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="3" t="s">
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+    </row>
+    <row r="13" spans="6:12">
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="4:12">
-      <c r="F14" s="27" t="s">
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+    </row>
+    <row r="14" spans="6:12">
+      <c r="F14" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="13" t="s">
+      <c r="G14" s="39"/>
+      <c r="H14" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
-    </row>
-    <row r="15" spans="4:12">
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="12" t="s">
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" spans="6:12">
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
-    </row>
-    <row r="20" spans="5:11">
-      <c r="F20" s="25" t="s">
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="20" spans="6:11">
+      <c r="F20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="8" t="s">
+      <c r="G20" s="49"/>
+      <c r="H20" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="32"/>
-    </row>
-    <row r="21" spans="5:11">
-      <c r="F21" s="26" t="s">
+      <c r="J20" s="3"/>
+      <c r="K20" s="38"/>
+    </row>
+    <row r="21" spans="6:11">
+      <c r="F21" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="8" t="s">
+      <c r="G21" s="50"/>
+      <c r="H21" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="34"/>
-    </row>
-    <row r="22" spans="5:11">
-      <c r="F22" s="25" t="s">
+      <c r="J21" s="45"/>
+      <c r="K21" s="43"/>
+    </row>
+    <row r="22" spans="6:11">
+      <c r="F22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="8" t="s">
+      <c r="G22" s="49"/>
+      <c r="H22" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="34"/>
-    </row>
-    <row r="23" spans="5:11">
-      <c r="F23" s="25" t="s">
+      <c r="J22" s="45"/>
+      <c r="K22" s="43"/>
+    </row>
+    <row r="23" spans="6:11">
+      <c r="F23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="37" t="s">
+      <c r="G23" s="49"/>
+      <c r="H23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="34"/>
-    </row>
-    <row r="24" spans="5:11">
-      <c r="F24" s="35" t="s">
+      <c r="J23" s="45"/>
+      <c r="K23" s="43"/>
+    </row>
+    <row r="24" spans="6:11">
+      <c r="F24" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="26" t="s">
+      <c r="G24" s="52"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="34"/>
-    </row>
-    <row r="28" spans="5:11">
-      <c r="F28" s="25" t="s">
+      <c r="J24" s="45"/>
+      <c r="K24" s="43"/>
+    </row>
+    <row r="28" spans="6:11">
+      <c r="F28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="8" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="5:11">
       <c r="E29" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="10" t="s">
+      <c r="G29" s="45"/>
+      <c r="H29" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="37" t="s">
+      <c r="I29" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-    </row>
-    <row r="30" spans="5:11">
-      <c r="F30" s="25" t="s">
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="6:11">
+      <c r="F30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="10" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="25" t="s">
+      <c r="I30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-    </row>
-    <row r="31" spans="5:11">
-      <c r="F31" s="37" t="s">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="6:8">
+      <c r="F31" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37" t="s">
+      <c r="G31" s="16"/>
+      <c r="H31" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="5:11">
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-    </row>
-    <row r="33" spans="6:11">
-      <c r="F33" s="37" t="s">
+    <row r="32" spans="6:8">
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="11" t="s">
+      <c r="G33" s="16"/>
+      <c r="H33" s="44" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="6:11">
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="10" t="s">
+    <row r="34" spans="6:8">
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="6:11">
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-    </row>
-    <row r="36" spans="6:11">
-      <c r="F36" s="38" t="s">
+    <row r="35" spans="6:7">
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="6:7">
+      <c r="F36" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="39"/>
-    </row>
-    <row r="40" spans="6:11">
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="40" spans="6:7">
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
     </row>
     <row r="41" spans="6:11">
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="38"/>
-      <c r="H41" s="8" t="s">
+      <c r="G41" s="18"/>
+      <c r="H41" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="I41" s="38" t="s">
+      <c r="I41" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J41" s="40"/>
-      <c r="K41" s="39"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="20"/>
     </row>
     <row r="42" spans="6:11">
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="38"/>
-      <c r="H42" s="37" t="s">
+      <c r="G42" s="18"/>
+      <c r="H42" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="26" t="s">
+      <c r="I42" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
     </row>
     <row r="43" spans="6:11">
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="38"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="63" t="s">
+      <c r="G43" s="18"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
     </row>
     <row r="44" spans="6:11">
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="38"/>
-      <c r="H44" s="8" t="s">
+      <c r="G44" s="18"/>
+      <c r="H44" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-    </row>
-    <row r="45" spans="6:11">
-      <c r="H45" s="8" t="s">
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+    </row>
+    <row r="45" spans="8:8">
+      <c r="H45" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="6:11">
-      <c r="H46" s="8" t="s">
+    <row r="46" spans="8:8">
+      <c r="H46" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="6:11">
-      <c r="H47" s="37" t="s">
+    <row r="47" spans="8:8">
+      <c r="H47" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="6:11">
-      <c r="H48" s="37"/>
-    </row>
-    <row r="49" spans="6:11">
-      <c r="H49" s="37"/>
-    </row>
-    <row r="50" spans="6:11">
-      <c r="H50" s="37"/>
-    </row>
-    <row r="51" spans="6:11">
-      <c r="H51" s="37"/>
-    </row>
-    <row r="52" spans="6:11">
-      <c r="H52" s="37" t="s">
+    <row r="48" spans="8:8">
+      <c r="H48" s="16"/>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="H52" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="6:11">
-      <c r="H53" s="37"/>
-    </row>
-    <row r="54" spans="6:11">
-      <c r="H54" s="37"/>
+    <row r="53" spans="8:8">
+      <c r="H53" s="16"/>
+    </row>
+    <row r="54" spans="8:8">
+      <c r="H54" s="16"/>
     </row>
     <row r="58" spans="6:11">
-      <c r="F58" s="25" t="s">
+      <c r="F58" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G58" s="25"/>
-      <c r="H58" s="8" t="s">
+      <c r="G58" s="3"/>
+      <c r="H58" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I58" s="25" t="s">
+      <c r="I58" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
     </row>
     <row r="59" spans="6:11">
-      <c r="F59" s="27" t="s">
+      <c r="F59" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="G59" s="41"/>
-      <c r="H59" s="10" t="s">
+      <c r="G59" s="44"/>
+      <c r="H59" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="I59" s="25" t="s">
+      <c r="I59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
     </row>
     <row r="60" spans="6:11">
-      <c r="F60" s="27" t="s">
+      <c r="F60" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="41"/>
-      <c r="H60" s="17" t="s">
+      <c r="G60" s="44"/>
+      <c r="H60" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="I60" s="37" t="s">
+      <c r="I60" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
     </row>
     <row r="61" spans="6:11">
-      <c r="F61" s="63" t="s">
+      <c r="F61" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="G61" s="63"/>
-      <c r="H61" s="8" t="s">
+      <c r="G61" s="48"/>
+      <c r="H61" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
     </row>
     <row r="62" spans="6:11">
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-    </row>
-    <row r="63" spans="6:11">
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-    </row>
-    <row r="67" spans="3:11">
-      <c r="F67" s="37" t="s">
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+    </row>
+    <row r="63" spans="9:11">
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+    </row>
+    <row r="67" spans="6:11">
+      <c r="F67" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="42"/>
-      <c r="H67" s="15" t="s">
+      <c r="G67" s="56"/>
+      <c r="H67" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="I67" s="25" t="s">
+      <c r="I67" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
     </row>
     <row r="68" spans="3:11">
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="26" t="s">
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="34"/>
-      <c r="H68" s="15" t="s">
+      <c r="G68" s="43"/>
+      <c r="H68" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="I68" s="25" t="s">
+      <c r="I68" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-    </row>
-    <row r="69" spans="3:11">
-      <c r="F69" s="26" t="s">
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="6:11">
+      <c r="F69" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G69" s="34"/>
-      <c r="H69" s="15" t="s">
+      <c r="G69" s="43"/>
+      <c r="H69" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="I69" s="26" t="s">
+      <c r="I69" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-    </row>
-    <row r="70" spans="3:11">
-      <c r="F70" s="37" t="s">
+      <c r="J69" s="45"/>
+      <c r="K69" s="45"/>
+    </row>
+    <row r="70" spans="6:11">
+      <c r="F70" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G70" s="37"/>
-      <c r="H70" s="59" t="s">
+      <c r="G70" s="16"/>
+      <c r="H70" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="I70" s="63" t="s">
+      <c r="I70" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="J70" s="63"/>
-      <c r="K70" s="63"/>
-    </row>
-    <row r="71" spans="3:11">
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="63"/>
-      <c r="J71" s="63"/>
-      <c r="K71" s="63"/>
-    </row>
-    <row r="72" spans="3:11">
-      <c r="F72" s="63" t="s">
+      <c r="J70" s="48"/>
+      <c r="K70" s="48"/>
+    </row>
+    <row r="71" spans="6:11">
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="48"/>
+      <c r="K71" s="48"/>
+    </row>
+    <row r="72" spans="6:11">
+      <c r="F72" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="G72" s="63"/>
-      <c r="H72" s="16" t="s">
+      <c r="G72" s="48"/>
+      <c r="H72" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I72" s="63" t="s">
+      <c r="I72" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="J72" s="63"/>
-      <c r="K72" s="63"/>
-    </row>
-    <row r="73" spans="3:11">
-      <c r="F73" s="63"/>
-      <c r="G73" s="63"/>
-      <c r="I73" s="63"/>
-      <c r="J73" s="63"/>
-      <c r="K73" s="63"/>
-    </row>
-    <row r="74" spans="3:11">
-      <c r="F74" s="37" t="s">
+      <c r="J72" s="48"/>
+      <c r="K72" s="48"/>
+    </row>
+    <row r="73" spans="6:11">
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="48"/>
+    </row>
+    <row r="74" spans="6:11">
+      <c r="F74" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="G74" s="37"/>
-      <c r="I74" s="63"/>
-      <c r="J74" s="63"/>
-      <c r="K74" s="63"/>
-    </row>
-    <row r="75" spans="3:11">
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
-    </row>
-    <row r="78" spans="3:11">
+      <c r="G74" s="16"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="48"/>
+    </row>
+    <row r="75" spans="6:11">
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="48"/>
+    </row>
+    <row r="78" spans="7:10">
       <c r="G78" t="s">
         <v>91</v>
       </c>
@@ -3074,182 +3650,178 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="3:11">
-      <c r="F79" s="43" t="s">
+    <row r="79" spans="6:11">
+      <c r="F79" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="G79" s="44"/>
-      <c r="H79" s="55" t="s">
+      <c r="H79" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I79" s="43" t="s">
+      <c r="I79" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="J79" s="43"/>
-      <c r="K79" s="43"/>
-    </row>
-    <row r="80" spans="3:11">
-      <c r="H80" s="55"/>
-      <c r="I80" s="43" t="s">
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+    </row>
+    <row r="80" spans="8:11">
+      <c r="H80" s="10"/>
+      <c r="I80" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="J80" s="43"/>
-      <c r="K80" s="43"/>
-    </row>
-    <row r="81" spans="3:10">
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+    </row>
+    <row r="81" spans="10:10">
       <c r="J81" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="3:10">
-      <c r="F86" s="8"/>
-      <c r="G86" s="8" t="s">
+    <row r="86" spans="6:8">
+      <c r="F86" s="38"/>
+      <c r="G86" s="38" t="s">
         <v>99</v>
       </c>
       <c r="H86" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="3:10">
-      <c r="C87" s="60" t="s">
+    <row r="87" spans="3:8">
+      <c r="C87" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="D87" s="60"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="63" t="s">
+      <c r="D87" s="58"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="G87" s="63"/>
+      <c r="G87" s="48"/>
       <c r="H87" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="3:10">
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="63"/>
+    <row r="88" spans="3:8">
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
       <c r="H88" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="3:10">
-      <c r="F89" s="8"/>
-      <c r="G89" s="8" t="s">
+    <row r="89" spans="6:7">
+      <c r="F89" s="38"/>
+      <c r="G89" s="38" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="3:10">
-      <c r="F90" s="8"/>
-      <c r="G90" s="8" t="s">
+    <row r="90" spans="6:7">
+      <c r="F90" s="38"/>
+      <c r="G90" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="3:10">
-      <c r="F91" s="8"/>
-      <c r="G91" s="8" t="s">
+    <row r="91" spans="6:7">
+      <c r="F91" s="38"/>
+      <c r="G91" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="3:10">
-      <c r="F96" s="43" t="s">
+    <row r="96" spans="6:9">
+      <c r="F96" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="G96" s="44"/>
-      <c r="H96" s="38">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I96" s="39"/>
-    </row>
-    <row r="97" spans="6:10">
-      <c r="F97" s="43" t="s">
+      <c r="H96" s="18">
+        <v>2.24</v>
+      </c>
+      <c r="I96" s="20"/>
+    </row>
+    <row r="97" spans="6:9">
+      <c r="F97" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="G97" s="44"/>
-      <c r="H97" s="25" t="s">
+      <c r="H97" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I97" s="25"/>
-    </row>
-    <row r="98" spans="6:10">
-      <c r="H98" s="37" t="s">
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="8:9">
+      <c r="H98" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="I98" s="37"/>
-    </row>
-    <row r="99" spans="6:10">
-      <c r="H99" s="37"/>
-      <c r="I99" s="37"/>
-    </row>
-    <row r="100" spans="6:10">
-      <c r="H100" s="37" t="s">
+      <c r="I98" s="16"/>
+    </row>
+    <row r="99" spans="8:9">
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+    </row>
+    <row r="100" spans="8:9">
+      <c r="H100" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="I100" s="37"/>
-    </row>
-    <row r="101" spans="6:10">
-      <c r="H101" s="37"/>
-      <c r="I101" s="37"/>
-    </row>
-    <row r="102" spans="6:10">
-      <c r="H102" s="37"/>
-      <c r="I102" s="37"/>
-    </row>
-    <row r="103" spans="6:10">
-      <c r="H103" s="37" t="s">
+      <c r="I100" s="16"/>
+    </row>
+    <row r="101" spans="8:9">
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+    </row>
+    <row r="102" spans="8:9">
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+    </row>
+    <row r="103" spans="8:9">
+      <c r="H103" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I103" s="37"/>
-    </row>
-    <row r="104" spans="6:10">
-      <c r="H104" s="37"/>
-      <c r="I104" s="37"/>
-    </row>
-    <row r="108" spans="6:10">
+      <c r="I103" s="16"/>
+    </row>
+    <row r="104" spans="8:9">
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+    </row>
+    <row r="108" spans="7:10">
       <c r="G108">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="H108">
         <v>2.27</v>
       </c>
-      <c r="I108" s="25">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="J108" s="25"/>
-    </row>
-    <row r="109" spans="6:10">
+      <c r="I108" s="3">
+        <v>2.28</v>
+      </c>
+      <c r="J108" s="3"/>
+    </row>
+    <row r="109" spans="7:10">
       <c r="G109" t="s">
         <v>113</v>
       </c>
       <c r="H109" t="s">
         <v>114</v>
       </c>
-      <c r="I109" s="25" t="s">
+      <c r="I109" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J109" s="25"/>
-    </row>
-    <row r="110" spans="6:10">
+      <c r="J109" s="3"/>
+    </row>
+    <row r="110" spans="8:10">
       <c r="H110" t="s">
         <v>113</v>
       </c>
-      <c r="I110" s="25" t="s">
+      <c r="I110" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J110" s="25"/>
-    </row>
-    <row r="113" spans="7:10">
+      <c r="J110" s="3"/>
+    </row>
+    <row r="113" spans="7:9">
       <c r="G113">
         <v>3.1</v>
       </c>
       <c r="H113">
         <v>3.2</v>
       </c>
-      <c r="I113" s="43">
+      <c r="I113" s="42">
         <v>3.3</v>
       </c>
-      <c r="J113" s="44"/>
     </row>
     <row r="114" spans="7:10">
       <c r="G114" t="s">
@@ -3258,10 +3830,10 @@
       <c r="H114" t="s">
         <v>115</v>
       </c>
-      <c r="I114" s="43" t="s">
+      <c r="I114" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="J114" s="43"/>
+      <c r="J114" s="42"/>
     </row>
     <row r="115" spans="7:10">
       <c r="G115" t="s">
@@ -3270,20 +3842,19 @@
       <c r="H115" t="s">
         <v>116</v>
       </c>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
-    </row>
-    <row r="119" spans="7:10">
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
+    </row>
+    <row r="119" spans="7:9">
       <c r="G119">
         <v>3.5</v>
       </c>
       <c r="H119">
         <v>3.6</v>
       </c>
-      <c r="I119" s="43">
+      <c r="I119" s="42">
         <v>3.7</v>
       </c>
-      <c r="J119" s="44"/>
     </row>
     <row r="120" spans="7:10">
       <c r="G120" t="s">
@@ -3292,12 +3863,12 @@
       <c r="H120" t="s">
         <v>118</v>
       </c>
-      <c r="I120" s="43" t="s">
+      <c r="I120" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="J120" s="43"/>
-    </row>
-    <row r="121" spans="7:10">
+      <c r="J120" s="42"/>
+    </row>
+    <row r="121" spans="8:9">
       <c r="H121" t="s">
         <v>120</v>
       </c>
@@ -3305,7 +3876,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="7:10">
+    <row r="122" spans="9:9">
       <c r="I122" t="s">
         <v>122</v>
       </c>
@@ -3317,37 +3888,35 @@
       <c r="H127">
         <v>3.13</v>
       </c>
-      <c r="I127" s="43">
+      <c r="I127" s="42">
         <v>3.14</v>
       </c>
-      <c r="J127" s="43"/>
-    </row>
-    <row r="128" spans="7:10">
-      <c r="G128" s="55" t="s">
+      <c r="J127" s="42"/>
+    </row>
+    <row r="128" spans="7:9">
+      <c r="G128" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H128" s="55" t="s">
+      <c r="H128" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="I128" s="43" t="s">
+      <c r="I128" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="J128" s="44"/>
-    </row>
-    <row r="129" spans="7:10">
-      <c r="G129" s="55"/>
-      <c r="H129" s="55"/>
-      <c r="I129" s="43" t="s">
+    </row>
+    <row r="129" spans="7:9">
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="J129" s="44"/>
-    </row>
-    <row r="130" spans="7:10">
+    </row>
+    <row r="130" spans="7:7">
       <c r="G130" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="135" spans="7:10">
+    <row r="135" spans="7:8">
       <c r="G135">
         <v>3.21</v>
       </c>
@@ -3355,7 +3924,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="136" spans="7:10">
+    <row r="136" spans="7:8">
       <c r="G136" t="s">
         <v>128</v>
       </c>
@@ -3364,10 +3933,10 @@
       </c>
     </row>
     <row r="140" spans="7:10">
-      <c r="G140" s="8">
+      <c r="G140" s="38">
         <v>3.26</v>
       </c>
-      <c r="H140" s="8">
+      <c r="H140" s="38">
         <v>3.27</v>
       </c>
       <c r="J140">
@@ -3375,10 +3944,10 @@
       </c>
     </row>
     <row r="141" spans="7:10">
-      <c r="G141" s="37" t="s">
+      <c r="G141" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="H141" s="8" t="s">
+      <c r="H141" s="38" t="s">
         <v>131</v>
       </c>
       <c r="J141" t="s">
@@ -3386,344 +3955,344 @@
       </c>
     </row>
     <row r="142" spans="7:10">
-      <c r="G142" s="37"/>
-      <c r="H142" s="8" t="s">
+      <c r="G142" s="16"/>
+      <c r="H142" s="38" t="s">
         <v>133</v>
       </c>
       <c r="J142" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="7:10">
-      <c r="G143" s="1" t="s">
+    <row r="143" spans="7:8">
+      <c r="G143" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H143" s="8" t="s">
+      <c r="H143" s="38" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="144" spans="7:10">
-      <c r="G144" s="37" t="s">
+    <row r="144" spans="7:8">
+      <c r="G144" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H144" s="8" t="s">
+      <c r="H144" s="38" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="145" spans="3:10">
-      <c r="G145" s="37"/>
-    </row>
-    <row r="146" spans="3:10">
-      <c r="G146" s="37"/>
-    </row>
-    <row r="149" spans="3:10">
-      <c r="G149" s="4">
+    <row r="145" spans="7:7">
+      <c r="G145" s="16"/>
+    </row>
+    <row r="146" spans="7:7">
+      <c r="G146" s="16"/>
+    </row>
+    <row r="149" spans="7:10">
+      <c r="G149" s="29">
         <v>43188</v>
       </c>
-      <c r="H149" s="4">
+      <c r="H149" s="29">
         <v>43189</v>
       </c>
-      <c r="J149" s="20">
+      <c r="J149" s="61">
         <v>43190</v>
       </c>
     </row>
     <row r="150" spans="3:10">
-      <c r="C150" s="61" t="s">
+      <c r="C150" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="D150" s="61"/>
-      <c r="E150" s="61"/>
-      <c r="F150" s="61"/>
-      <c r="G150" s="37" t="s">
+      <c r="D150" s="59"/>
+      <c r="E150" s="59"/>
+      <c r="F150" s="59"/>
+      <c r="G150" s="16" t="s">
         <v>140</v>
       </c>
       <c r="H150" t="s">
         <v>141</v>
       </c>
-      <c r="J150" s="8" t="s">
+      <c r="J150" s="38" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="151" spans="3:10">
-      <c r="C151" s="61"/>
-      <c r="D151" s="61"/>
-      <c r="E151" s="61"/>
-      <c r="F151" s="61"/>
-      <c r="G151" s="37"/>
+      <c r="C151" s="59"/>
+      <c r="D151" s="59"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="59"/>
+      <c r="G151" s="16"/>
       <c r="H151" t="s">
         <v>142</v>
       </c>
-      <c r="J151" s="37" t="s">
+      <c r="J151" s="16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="152" spans="3:10">
-      <c r="C152" s="61"/>
-      <c r="D152" s="61"/>
-      <c r="E152" s="61"/>
-      <c r="F152" s="61"/>
-      <c r="G152" s="37"/>
-      <c r="J152" s="37"/>
-    </row>
-    <row r="153" spans="3:10">
-      <c r="G153" s="37" t="s">
+      <c r="C152" s="59"/>
+      <c r="D152" s="59"/>
+      <c r="E152" s="59"/>
+      <c r="F152" s="59"/>
+      <c r="G152" s="16"/>
+      <c r="J152" s="16"/>
+    </row>
+    <row r="153" spans="7:10">
+      <c r="G153" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="J153" s="37" t="s">
+      <c r="J153" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="3:10">
-      <c r="G154" s="37"/>
-      <c r="J154" s="37"/>
-    </row>
-    <row r="155" spans="3:10">
-      <c r="G155" s="37"/>
-      <c r="J155" s="37"/>
-    </row>
-    <row r="156" spans="3:10">
-      <c r="G156" s="37"/>
-      <c r="J156" s="37"/>
-    </row>
-    <row r="157" spans="3:10">
-      <c r="G157" s="37" t="s">
+    <row r="154" spans="7:10">
+      <c r="G154" s="16"/>
+      <c r="J154" s="16"/>
+    </row>
+    <row r="155" spans="7:10">
+      <c r="G155" s="16"/>
+      <c r="J155" s="16"/>
+    </row>
+    <row r="156" spans="7:10">
+      <c r="G156" s="16"/>
+      <c r="J156" s="16"/>
+    </row>
+    <row r="157" spans="7:10">
+      <c r="G157" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="J157" s="37"/>
-    </row>
-    <row r="158" spans="3:10">
-      <c r="G158" s="37"/>
-      <c r="J158" s="37"/>
-    </row>
-    <row r="159" spans="3:10">
-      <c r="G159" s="37"/>
-      <c r="J159" s="37"/>
-    </row>
-    <row r="160" spans="3:10">
-      <c r="G160" s="37"/>
-      <c r="J160" s="37" t="s">
+      <c r="J157" s="16"/>
+    </row>
+    <row r="158" spans="7:10">
+      <c r="G158" s="16"/>
+      <c r="J158" s="16"/>
+    </row>
+    <row r="159" spans="7:10">
+      <c r="G159" s="16"/>
+      <c r="J159" s="16"/>
+    </row>
+    <row r="160" spans="7:10">
+      <c r="G160" s="16"/>
+      <c r="J160" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="2:10">
-      <c r="G161" s="37" t="s">
+    <row r="161" spans="7:10">
+      <c r="G161" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="J161" s="37"/>
-    </row>
-    <row r="162" spans="2:10">
-      <c r="G162" s="37"/>
-      <c r="J162" s="37"/>
-    </row>
-    <row r="163" spans="2:10">
-      <c r="G163" s="37"/>
-    </row>
-    <row r="166" spans="2:10">
-      <c r="G166" s="19">
+      <c r="J161" s="16"/>
+    </row>
+    <row r="162" spans="7:10">
+      <c r="G162" s="16"/>
+      <c r="J162" s="16"/>
+    </row>
+    <row r="163" spans="7:7">
+      <c r="G163" s="16"/>
+    </row>
+    <row r="166" spans="7:10">
+      <c r="G166" s="60">
         <v>43192</v>
       </c>
-      <c r="H166" s="20">
+      <c r="H166" s="61">
         <v>43193</v>
       </c>
-      <c r="I166" s="45">
+      <c r="I166" s="17">
         <v>43194</v>
       </c>
-      <c r="J166" s="46"/>
-    </row>
-    <row r="167" spans="2:10">
-      <c r="G167" s="15" t="s">
+      <c r="J166" s="61"/>
+    </row>
+    <row r="167" spans="7:10">
+      <c r="G167" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="H167" s="8" t="s">
+      <c r="H167" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="I167" s="37" t="s">
+      <c r="I167" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="J167" s="37"/>
-    </row>
-    <row r="168" spans="2:10">
-      <c r="G168" s="56" t="s">
+      <c r="J167" s="16"/>
+    </row>
+    <row r="168" spans="7:10">
+      <c r="G168" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="H168" s="8" t="s">
+      <c r="H168" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="I168" s="37"/>
-      <c r="J168" s="37"/>
-    </row>
-    <row r="169" spans="2:10">
-      <c r="G169" s="56"/>
-      <c r="H169" s="37" t="s">
+      <c r="I168" s="16"/>
+      <c r="J168" s="16"/>
+    </row>
+    <row r="169" spans="7:10">
+      <c r="G169" s="62"/>
+      <c r="H169" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="I169" s="37"/>
-      <c r="J169" s="37"/>
-    </row>
-    <row r="170" spans="2:10">
-      <c r="H170" s="37"/>
-      <c r="I170" s="25" t="s">
+      <c r="I169" s="16"/>
+      <c r="J169" s="16"/>
+    </row>
+    <row r="170" spans="8:10">
+      <c r="H170" s="16"/>
+      <c r="I170" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J170" s="32"/>
-    </row>
-    <row r="175" spans="2:10">
-      <c r="G175" s="4">
+      <c r="J170" s="38"/>
+    </row>
+    <row r="175" spans="7:7">
+      <c r="G175" s="29">
         <v>43199</v>
       </c>
     </row>
-    <row r="176" spans="2:10">
-      <c r="B176" s="25" t="s">
+    <row r="176" spans="2:7">
+      <c r="B176" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C176" s="25"/>
-      <c r="D176" s="25"/>
-      <c r="E176" s="25"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
       <c r="G176" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="177" spans="2:10">
-      <c r="B177" s="25" t="s">
+    <row r="177" spans="2:5">
+      <c r="B177" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C177" s="25"/>
-      <c r="D177" s="25"/>
-      <c r="E177" s="25"/>
-    </row>
-    <row r="178" spans="2:10">
-      <c r="B178" s="62" t="s">
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C178" s="62"/>
-      <c r="D178" s="62"/>
-      <c r="E178" s="62"/>
-    </row>
-    <row r="179" spans="2:10">
-      <c r="B179" s="62"/>
-      <c r="C179" s="62"/>
-      <c r="D179" s="62"/>
-      <c r="E179" s="62"/>
-    </row>
-    <row r="180" spans="2:10">
-      <c r="B180" s="62"/>
-      <c r="C180" s="62"/>
-      <c r="D180" s="62"/>
-      <c r="E180" s="62"/>
-    </row>
-    <row r="181" spans="2:10">
-      <c r="B181" s="62"/>
-      <c r="C181" s="62"/>
-      <c r="D181" s="62"/>
-      <c r="E181" s="62"/>
+      <c r="C178" s="33"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="33"/>
+    </row>
+    <row r="179" spans="2:5">
+      <c r="B179" s="33"/>
+      <c r="C179" s="33"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="33"/>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="B180" s="33"/>
+      <c r="C180" s="33"/>
+      <c r="D180" s="33"/>
+      <c r="E180" s="33"/>
+    </row>
+    <row r="181" spans="2:5">
+      <c r="B181" s="33"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
     </row>
     <row r="182" spans="2:10">
-      <c r="B182" s="62"/>
-      <c r="C182" s="62"/>
-      <c r="D182" s="62"/>
-      <c r="E182" s="62"/>
-      <c r="G182" s="4">
+      <c r="B182" s="33"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="33"/>
+      <c r="E182" s="33"/>
+      <c r="G182" s="29">
         <v>43211</v>
       </c>
-      <c r="H182" s="20">
+      <c r="H182" s="61">
         <v>43215</v>
       </c>
-      <c r="I182" s="45">
+      <c r="I182" s="17">
         <v>43216</v>
       </c>
-      <c r="J182" s="46"/>
+      <c r="J182" s="61"/>
     </row>
     <row r="183" spans="2:10">
-      <c r="B183" s="62"/>
-      <c r="C183" s="62"/>
-      <c r="D183" s="62"/>
-      <c r="E183" s="62"/>
+      <c r="B183" s="33"/>
+      <c r="C183" s="33"/>
+      <c r="D183" s="33"/>
+      <c r="E183" s="33"/>
       <c r="G183" t="s">
         <v>160</v>
       </c>
-      <c r="H183" s="37" t="s">
+      <c r="H183" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="I183" s="37" t="s">
+      <c r="I183" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="J183" s="37"/>
+      <c r="J183" s="16"/>
     </row>
     <row r="184" spans="2:10">
-      <c r="B184" s="62"/>
-      <c r="C184" s="62"/>
-      <c r="D184" s="62"/>
-      <c r="E184" s="62"/>
-      <c r="H184" s="37"/>
-      <c r="I184" s="37"/>
-      <c r="J184" s="37"/>
-    </row>
-    <row r="185" spans="2:10">
-      <c r="H185" s="37"/>
-      <c r="I185" s="55" t="s">
+      <c r="B184" s="33"/>
+      <c r="C184" s="33"/>
+      <c r="D184" s="33"/>
+      <c r="E184" s="33"/>
+      <c r="H184" s="16"/>
+      <c r="I184" s="16"/>
+      <c r="J184" s="16"/>
+    </row>
+    <row r="185" spans="8:10">
+      <c r="H185" s="16"/>
+      <c r="I185" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="J185" s="55"/>
-    </row>
-    <row r="186" spans="2:10">
-      <c r="H186" s="37"/>
-      <c r="I186" s="55"/>
-      <c r="J186" s="55"/>
-    </row>
-    <row r="187" spans="2:10">
-      <c r="I187" s="55"/>
-      <c r="J187" s="55"/>
-    </row>
-    <row r="188" spans="2:10">
-      <c r="I188" s="55"/>
-      <c r="J188" s="55"/>
-    </row>
-    <row r="191" spans="2:10">
-      <c r="G191" s="4">
+      <c r="J185" s="10"/>
+    </row>
+    <row r="186" spans="8:10">
+      <c r="H186" s="16"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="10"/>
+    </row>
+    <row r="187" spans="9:10">
+      <c r="I187" s="10"/>
+      <c r="J187" s="10"/>
+    </row>
+    <row r="188" spans="9:10">
+      <c r="I188" s="10"/>
+      <c r="J188" s="10"/>
+    </row>
+    <row r="191" spans="7:8">
+      <c r="G191" s="29">
         <v>43217</v>
       </c>
-      <c r="H191" s="20">
+      <c r="H191" s="61">
         <v>43218</v>
       </c>
     </row>
-    <row r="192" spans="2:10">
-      <c r="G192" s="55" t="s">
+    <row r="192" spans="7:8">
+      <c r="G192" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="H192" s="37" t="s">
+      <c r="H192" s="16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="193" spans="7:10">
-      <c r="G193" s="55"/>
-      <c r="H193" s="37"/>
-    </row>
-    <row r="194" spans="7:10">
-      <c r="G194" s="55"/>
-      <c r="H194" s="37"/>
-    </row>
-    <row r="195" spans="7:10">
-      <c r="G195" s="55"/>
-      <c r="H195" s="37"/>
-    </row>
-    <row r="196" spans="7:10">
-      <c r="G196" s="55"/>
-      <c r="H196" s="37"/>
-    </row>
-    <row r="197" spans="7:10">
-      <c r="H197" s="37"/>
-    </row>
-    <row r="198" spans="7:10">
-      <c r="H198" s="37"/>
+    <row r="193" spans="7:8">
+      <c r="G193" s="10"/>
+      <c r="H193" s="16"/>
+    </row>
+    <row r="194" spans="7:8">
+      <c r="G194" s="10"/>
+      <c r="H194" s="16"/>
+    </row>
+    <row r="195" spans="7:8">
+      <c r="G195" s="10"/>
+      <c r="H195" s="16"/>
+    </row>
+    <row r="196" spans="7:8">
+      <c r="G196" s="10"/>
+      <c r="H196" s="16"/>
+    </row>
+    <row r="197" spans="8:8">
+      <c r="H197" s="16"/>
+    </row>
+    <row r="198" spans="8:8">
+      <c r="H198" s="16"/>
     </row>
     <row r="202" spans="7:10">
-      <c r="G202" s="4">
+      <c r="G202" s="29">
         <v>43223</v>
       </c>
-      <c r="H202" s="4">
+      <c r="H202" s="29">
         <v>43225</v>
       </c>
-      <c r="J202" s="4">
+      <c r="J202" s="29">
         <v>43227</v>
       </c>
     </row>
@@ -3734,152 +4303,152 @@
       <c r="H203" t="s">
         <v>167</v>
       </c>
-      <c r="I203" s="55" t="s">
+      <c r="I203" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="J203" s="55"/>
+      <c r="J203" s="10"/>
     </row>
     <row r="204" spans="7:10">
       <c r="G204" t="s">
         <v>169</v>
       </c>
-      <c r="I204" s="55"/>
-      <c r="J204" s="55"/>
-    </row>
-    <row r="205" spans="7:10">
+      <c r="I204" s="10"/>
+      <c r="J204" s="10"/>
+    </row>
+    <row r="205" spans="10:10">
       <c r="J205" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="208" spans="7:10">
-      <c r="J208" s="4"/>
-    </row>
-    <row r="209" spans="7:10">
-      <c r="G209" s="20">
+    <row r="208" spans="10:10">
+      <c r="J208" s="29"/>
+    </row>
+    <row r="209" spans="7:8">
+      <c r="G209" s="61">
         <v>43231</v>
       </c>
-      <c r="H209" s="4">
+      <c r="H209" s="29">
         <v>43234</v>
       </c>
     </row>
-    <row r="210" spans="7:10">
-      <c r="G210" s="37" t="s">
+    <row r="210" spans="7:8">
+      <c r="G210" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="H210" s="55" t="s">
+      <c r="H210" s="10" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="211" spans="7:10">
-      <c r="G211" s="37"/>
-      <c r="H211" s="55"/>
-    </row>
-    <row r="212" spans="7:10">
-      <c r="G212" s="37"/>
-    </row>
-    <row r="213" spans="7:10">
-      <c r="G213" s="8" t="s">
+    <row r="211" spans="7:8">
+      <c r="G211" s="16"/>
+      <c r="H211" s="10"/>
+    </row>
+    <row r="212" spans="7:7">
+      <c r="G212" s="16"/>
+    </row>
+    <row r="213" spans="7:7">
+      <c r="G213" s="38" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="214" spans="7:10">
-      <c r="G214" s="37" t="s">
+    <row r="214" spans="7:7">
+      <c r="G214" s="16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="215" spans="7:10">
-      <c r="G215" s="42"/>
+    <row r="215" spans="7:7">
+      <c r="G215" s="56"/>
     </row>
     <row r="220" spans="7:10">
-      <c r="G220" s="21">
+      <c r="G220" s="63">
         <v>43236</v>
       </c>
-      <c r="H220" s="21">
+      <c r="H220" s="63">
         <v>43238</v>
       </c>
-      <c r="I220" s="45">
+      <c r="I220" s="17">
         <v>43239</v>
       </c>
-      <c r="J220" s="46"/>
+      <c r="J220" s="61"/>
     </row>
     <row r="221" spans="7:10">
-      <c r="G221" s="25" t="s">
+      <c r="G221" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H221" s="25"/>
+      <c r="H221" s="3"/>
       <c r="I221" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="J221" s="37"/>
+      <c r="J221" s="16"/>
     </row>
     <row r="222" spans="7:10">
-      <c r="G222" s="37" t="s">
+      <c r="G222" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="H222" s="37"/>
+      <c r="H222" s="16"/>
       <c r="I222" s="64"/>
-      <c r="J222" s="37"/>
+      <c r="J222" s="16"/>
     </row>
     <row r="223" spans="7:10">
-      <c r="G223" s="37"/>
-      <c r="H223" s="37"/>
-      <c r="I223" s="39" t="s">
+      <c r="G223" s="16"/>
+      <c r="H223" s="16"/>
+      <c r="I223" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="J223" s="32"/>
-    </row>
-    <row r="224" spans="7:10">
-      <c r="G224" s="25" t="s">
+      <c r="J223" s="38"/>
+    </row>
+    <row r="224" spans="7:8">
+      <c r="G224" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H224" s="25"/>
+      <c r="H224" s="3"/>
     </row>
     <row r="229" spans="7:10">
-      <c r="G229" s="4">
+      <c r="G229" s="29">
         <v>43241</v>
       </c>
-      <c r="H229" s="4">
+      <c r="H229" s="29">
         <v>43243</v>
       </c>
-      <c r="I229" s="45">
+      <c r="I229" s="17">
         <v>43244</v>
       </c>
-      <c r="J229" s="46"/>
+      <c r="J229" s="61"/>
     </row>
     <row r="230" spans="7:10">
-      <c r="G230" s="55" t="s">
+      <c r="G230" s="10" t="s">
         <v>180</v>
       </c>
       <c r="H230" t="s">
         <v>181</v>
       </c>
-      <c r="I230" s="37" t="s">
+      <c r="I230" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="J230" s="37"/>
+      <c r="J230" s="16"/>
     </row>
     <row r="231" spans="7:10">
-      <c r="G231" s="55"/>
+      <c r="G231" s="10"/>
       <c r="H231" t="s">
         <v>183</v>
       </c>
-      <c r="I231" s="37"/>
-      <c r="J231" s="37"/>
+      <c r="I231" s="16"/>
+      <c r="J231" s="16"/>
     </row>
     <row r="232" spans="7:10">
-      <c r="G232" s="55"/>
-      <c r="I232" s="25" t="s">
+      <c r="G232" s="10"/>
+      <c r="I232" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J232" s="32"/>
-    </row>
-    <row r="233" spans="7:10">
+      <c r="J232" s="38"/>
+    </row>
+    <row r="233" spans="9:9">
       <c r="I233" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="238" spans="7:10">
-      <c r="G238" s="4">
+    <row r="238" spans="7:7">
+      <c r="G238" s="29">
         <v>43245</v>
       </c>
     </row>
@@ -3887,77 +4456,77 @@
       <c r="G239" t="s">
         <v>186</v>
       </c>
-      <c r="I239" s="45">
+      <c r="I239" s="17">
         <v>43248</v>
       </c>
-      <c r="J239" s="46"/>
+      <c r="J239" s="61"/>
     </row>
     <row r="240" spans="7:10">
-      <c r="G240" s="55" t="s">
+      <c r="G240" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="I240" s="25" t="s">
+      <c r="I240" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J240" s="32"/>
+      <c r="J240" s="38"/>
     </row>
     <row r="241" spans="7:10">
-      <c r="G241" s="55"/>
-      <c r="I241" s="37" t="s">
+      <c r="G241" s="10"/>
+      <c r="I241" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="J241" s="37"/>
+      <c r="J241" s="16"/>
     </row>
     <row r="242" spans="7:10">
-      <c r="G242" s="55"/>
-      <c r="I242" s="37"/>
-      <c r="J242" s="37"/>
+      <c r="G242" s="10"/>
+      <c r="I242" s="16"/>
+      <c r="J242" s="16"/>
     </row>
     <row r="243" spans="7:10">
-      <c r="G243" s="55"/>
-      <c r="I243" s="37" t="s">
+      <c r="G243" s="10"/>
+      <c r="I243" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="J243" s="37"/>
+      <c r="J243" s="16"/>
     </row>
     <row r="244" spans="7:10">
-      <c r="G244" s="55"/>
-      <c r="I244" s="37"/>
-      <c r="J244" s="37"/>
-    </row>
-    <row r="245" spans="7:10">
-      <c r="I245" s="37"/>
-      <c r="J245" s="37"/>
-    </row>
-    <row r="246" spans="7:10">
-      <c r="I246" s="37"/>
-      <c r="J246" s="37"/>
-    </row>
-    <row r="247" spans="7:10">
-      <c r="I247" s="37"/>
-      <c r="J247" s="37"/>
-    </row>
-    <row r="248" spans="7:10">
-      <c r="I248" s="37"/>
-      <c r="J248" s="37"/>
-    </row>
-    <row r="249" spans="7:10">
-      <c r="I249" s="37"/>
-      <c r="J249" s="37"/>
-    </row>
-    <row r="250" spans="7:10">
-      <c r="I250" s="37"/>
-      <c r="J250" s="37"/>
-    </row>
-    <row r="254" spans="7:10">
-      <c r="G254" s="4">
+      <c r="G244" s="10"/>
+      <c r="I244" s="16"/>
+      <c r="J244" s="16"/>
+    </row>
+    <row r="245" spans="9:10">
+      <c r="I245" s="16"/>
+      <c r="J245" s="16"/>
+    </row>
+    <row r="246" spans="9:10">
+      <c r="I246" s="16"/>
+      <c r="J246" s="16"/>
+    </row>
+    <row r="247" spans="9:10">
+      <c r="I247" s="16"/>
+      <c r="J247" s="16"/>
+    </row>
+    <row r="248" spans="9:10">
+      <c r="I248" s="16"/>
+      <c r="J248" s="16"/>
+    </row>
+    <row r="249" spans="9:10">
+      <c r="I249" s="16"/>
+      <c r="J249" s="16"/>
+    </row>
+    <row r="250" spans="9:10">
+      <c r="I250" s="16"/>
+      <c r="J250" s="16"/>
+    </row>
+    <row r="254" spans="7:8">
+      <c r="G254" s="29">
         <v>43249</v>
       </c>
-      <c r="H254" s="4">
+      <c r="H254" s="29">
         <v>43250</v>
       </c>
     </row>
-    <row r="255" spans="7:10">
+    <row r="255" spans="7:8">
       <c r="G255" t="s">
         <v>191</v>
       </c>
@@ -3965,254 +4534,254 @@
         <v>192</v>
       </c>
     </row>
-    <row r="256" spans="7:10">
-      <c r="G256" s="55" t="s">
+    <row r="256" spans="7:8">
+      <c r="G256" s="10" t="s">
         <v>193</v>
       </c>
       <c r="H256" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="257" spans="7:10">
-      <c r="G257" s="55"/>
+    <row r="257" spans="7:7">
+      <c r="G257" s="10"/>
     </row>
     <row r="264" spans="7:10">
-      <c r="G264" s="2">
+      <c r="G264" s="17">
         <v>43252</v>
       </c>
-      <c r="H264" s="20">
+      <c r="H264" s="61">
         <v>43253</v>
       </c>
-      <c r="I264" s="45">
+      <c r="I264" s="17">
         <v>43255</v>
       </c>
-      <c r="J264" s="46"/>
+      <c r="J264" s="61"/>
     </row>
     <row r="265" spans="7:10">
-      <c r="G265" s="1" t="s">
+      <c r="G265" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H265" s="37" t="s">
+      <c r="H265" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="I265" s="37" t="s">
+      <c r="I265" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="J265" s="37"/>
+      <c r="J265" s="16"/>
     </row>
     <row r="266" spans="7:10">
-      <c r="G266" s="37" t="s">
+      <c r="G266" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="H266" s="37"/>
-      <c r="I266" s="37"/>
-      <c r="J266" s="37"/>
+      <c r="H266" s="16"/>
+      <c r="I266" s="16"/>
+      <c r="J266" s="16"/>
     </row>
     <row r="267" spans="7:10">
-      <c r="G267" s="37"/>
-      <c r="H267" s="8" t="s">
+      <c r="G267" s="16"/>
+      <c r="H267" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="I267" s="37"/>
-      <c r="J267" s="37"/>
+      <c r="I267" s="16"/>
+      <c r="J267" s="16"/>
     </row>
     <row r="268" spans="7:10">
-      <c r="G268" s="37"/>
-      <c r="I268" s="37"/>
-      <c r="J268" s="37"/>
+      <c r="G268" s="16"/>
+      <c r="I268" s="16"/>
+      <c r="J268" s="16"/>
     </row>
     <row r="269" spans="7:10">
-      <c r="G269" s="37" t="s">
+      <c r="G269" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="I269" s="37"/>
-      <c r="J269" s="37"/>
-    </row>
-    <row r="270" spans="7:10">
-      <c r="G270" s="37"/>
-    </row>
-    <row r="271" spans="7:10">
-      <c r="G271" s="37" t="s">
+      <c r="I269" s="16"/>
+      <c r="J269" s="16"/>
+    </row>
+    <row r="270" spans="7:7">
+      <c r="G270" s="16"/>
+    </row>
+    <row r="271" spans="7:7">
+      <c r="G271" s="16" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="272" spans="7:10">
-      <c r="G272" s="37"/>
-    </row>
-    <row r="273" spans="7:10">
-      <c r="G273" s="37"/>
-    </row>
-    <row r="274" spans="7:10">
-      <c r="G274" s="37"/>
-    </row>
-    <row r="275" spans="7:10">
-      <c r="G275" s="37"/>
-    </row>
-    <row r="276" spans="7:10">
-      <c r="G276" s="37" t="s">
+    <row r="272" spans="7:7">
+      <c r="G272" s="16"/>
+    </row>
+    <row r="273" spans="7:7">
+      <c r="G273" s="16"/>
+    </row>
+    <row r="274" spans="7:7">
+      <c r="G274" s="16"/>
+    </row>
+    <row r="275" spans="7:7">
+      <c r="G275" s="16"/>
+    </row>
+    <row r="276" spans="7:7">
+      <c r="G276" s="16" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="277" spans="7:10">
-      <c r="G277" s="37"/>
-    </row>
-    <row r="278" spans="7:10">
-      <c r="G278" s="37" t="s">
+    <row r="277" spans="7:7">
+      <c r="G277" s="16"/>
+    </row>
+    <row r="278" spans="7:7">
+      <c r="G278" s="16" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="279" spans="7:10">
-      <c r="G279" s="37"/>
-    </row>
-    <row r="280" spans="7:10">
-      <c r="G280" s="37"/>
+    <row r="279" spans="7:7">
+      <c r="G279" s="16"/>
+    </row>
+    <row r="280" spans="7:7">
+      <c r="G280" s="16"/>
     </row>
     <row r="287" spans="7:10">
-      <c r="G287" s="20">
+      <c r="G287" s="61">
         <v>43256</v>
       </c>
-      <c r="H287" s="20">
+      <c r="H287" s="61">
         <v>43257</v>
       </c>
-      <c r="I287" s="47">
+      <c r="I287" s="22">
         <v>43258</v>
       </c>
-      <c r="J287" s="48"/>
+      <c r="J287" s="66"/>
     </row>
     <row r="288" spans="7:10">
-      <c r="G288" s="37" t="s">
+      <c r="G288" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="H288" s="37" t="s">
+      <c r="H288" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="I288" s="65" t="s">
+      <c r="I288" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J288" s="66"/>
-    </row>
-    <row r="289" spans="7:12">
-      <c r="G289" s="37"/>
-      <c r="H289" s="37"/>
-      <c r="I289" s="67"/>
-      <c r="J289" s="68"/>
-    </row>
-    <row r="290" spans="7:12">
-      <c r="G290" s="37" t="s">
+      <c r="J288" s="7"/>
+    </row>
+    <row r="289" spans="7:10">
+      <c r="G289" s="16"/>
+      <c r="H289" s="16"/>
+      <c r="I289" s="13"/>
+      <c r="J289" s="15"/>
+    </row>
+    <row r="290" spans="7:10">
+      <c r="G290" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H290" s="8" t="s">
+      <c r="H290" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="I290" s="38" t="s">
+      <c r="I290" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="J290" s="49"/>
-    </row>
-    <row r="291" spans="7:12">
-      <c r="G291" s="37"/>
-      <c r="H291" s="8"/>
-      <c r="I291" s="8"/>
-      <c r="J291" s="8"/>
-    </row>
-    <row r="292" spans="7:12">
-      <c r="G292" s="8"/>
-      <c r="H292" s="8"/>
-      <c r="I292" s="8"/>
-      <c r="J292" s="8"/>
-    </row>
-    <row r="297" spans="7:12">
-      <c r="G297" s="4">
+      <c r="J290" s="67"/>
+    </row>
+    <row r="291" spans="7:10">
+      <c r="G291" s="16"/>
+      <c r="H291" s="38"/>
+      <c r="I291" s="38"/>
+      <c r="J291" s="38"/>
+    </row>
+    <row r="292" spans="7:10">
+      <c r="G292" s="38"/>
+      <c r="H292" s="38"/>
+      <c r="I292" s="38"/>
+      <c r="J292" s="38"/>
+    </row>
+    <row r="297" spans="7:7">
+      <c r="G297" s="29">
         <v>43259</v>
       </c>
     </row>
     <row r="298" spans="7:12">
-      <c r="G298" s="55" t="s">
+      <c r="G298" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="L298" s="37" t="s">
+      <c r="L298" s="16" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="299" spans="7:12">
-      <c r="G299" s="55"/>
-      <c r="L299" s="37"/>
+      <c r="G299" s="10"/>
+      <c r="L299" s="16"/>
     </row>
     <row r="300" spans="7:12">
-      <c r="G300" s="55"/>
-      <c r="L300" s="37"/>
+      <c r="G300" s="10"/>
+      <c r="L300" s="16"/>
     </row>
     <row r="301" spans="7:12">
-      <c r="G301" s="55"/>
-      <c r="L301" s="37"/>
-    </row>
-    <row r="302" spans="7:12">
-      <c r="L302" s="37"/>
-    </row>
-    <row r="303" spans="7:12">
-      <c r="L303" s="37"/>
-    </row>
-    <row r="304" spans="7:12">
-      <c r="L304" s="37"/>
-    </row>
-    <row r="305" spans="7:12">
-      <c r="L305" s="5"/>
-    </row>
-    <row r="306" spans="7:12">
-      <c r="L306" s="5"/>
-    </row>
-    <row r="307" spans="7:12">
-      <c r="L307" s="5"/>
-    </row>
-    <row r="308" spans="7:12">
-      <c r="L308" s="5"/>
-    </row>
-    <row r="309" spans="7:12">
-      <c r="L309" s="5"/>
-    </row>
-    <row r="313" spans="7:12">
-      <c r="G313" s="4">
+      <c r="G301" s="10"/>
+      <c r="L301" s="16"/>
+    </row>
+    <row r="302" spans="12:12">
+      <c r="L302" s="16"/>
+    </row>
+    <row r="303" spans="12:12">
+      <c r="L303" s="16"/>
+    </row>
+    <row r="304" spans="12:12">
+      <c r="L304" s="16"/>
+    </row>
+    <row r="305" spans="12:12">
+      <c r="L305" s="30"/>
+    </row>
+    <row r="306" spans="12:12">
+      <c r="L306" s="30"/>
+    </row>
+    <row r="307" spans="12:12">
+      <c r="L307" s="30"/>
+    </row>
+    <row r="308" spans="12:12">
+      <c r="L308" s="30"/>
+    </row>
+    <row r="309" spans="12:12">
+      <c r="L309" s="30"/>
+    </row>
+    <row r="313" spans="7:10">
+      <c r="G313" s="29">
         <v>43271</v>
       </c>
-      <c r="H313" s="4">
+      <c r="H313" s="29">
         <v>43272</v>
       </c>
-      <c r="I313" s="50">
+      <c r="I313" s="23">
         <v>43273</v>
       </c>
-      <c r="J313" s="51"/>
-    </row>
-    <row r="314" spans="7:12">
-      <c r="G314" s="57" t="s">
+      <c r="J313" s="29"/>
+    </row>
+    <row r="314" spans="7:10">
+      <c r="G314" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="H314" s="57" t="s">
+      <c r="H314" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="I314" s="69" t="s">
+      <c r="I314" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="J314" s="25"/>
-    </row>
-    <row r="315" spans="7:12">
-      <c r="G315" s="37"/>
-      <c r="H315" s="37"/>
-      <c r="I315" s="25"/>
-      <c r="J315" s="25"/>
-    </row>
-    <row r="317" spans="7:12">
-      <c r="G317" s="8" t="s">
+      <c r="J314" s="3"/>
+    </row>
+    <row r="315" spans="7:10">
+      <c r="G315" s="16"/>
+      <c r="H315" s="16"/>
+      <c r="I315" s="3"/>
+      <c r="J315" s="3"/>
+    </row>
+    <row r="317" spans="7:10">
+      <c r="G317" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="H317" s="8" t="s">
+      <c r="H317" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="I317" s="25" t="s">
+      <c r="I317" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="J317" s="25"/>
-    </row>
-    <row r="318" spans="7:12">
+      <c r="J317" s="3"/>
+    </row>
+    <row r="318" spans="7:9">
       <c r="G318" t="s">
         <v>218</v>
       </c>
@@ -4221,166 +4790,166 @@
       </c>
     </row>
     <row r="322" spans="7:10">
-      <c r="G322" s="20">
+      <c r="G322" s="61">
         <v>43274</v>
       </c>
-      <c r="H322" s="4">
+      <c r="H322" s="29">
         <v>43276</v>
       </c>
-      <c r="J322" s="4">
+      <c r="J322" s="29">
         <v>43277</v>
       </c>
     </row>
     <row r="323" spans="7:10">
-      <c r="G323" s="37" t="s">
+      <c r="G323" s="16" t="s">
         <v>220</v>
       </c>
       <c r="H323" t="s">
         <v>221</v>
       </c>
-      <c r="I323" s="55" t="s">
+      <c r="I323" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="J323" s="55"/>
+      <c r="J323" s="10"/>
     </row>
     <row r="324" spans="7:10">
-      <c r="G324" s="37"/>
+      <c r="G324" s="16"/>
       <c r="H324" t="s">
         <v>223</v>
       </c>
-      <c r="I324" s="55"/>
-      <c r="J324" s="55"/>
-    </row>
-    <row r="325" spans="7:10">
-      <c r="G325" s="37" t="s">
+      <c r="I324" s="10"/>
+      <c r="J324" s="10"/>
+    </row>
+    <row r="325" spans="7:8">
+      <c r="G325" s="16" t="s">
         <v>224</v>
       </c>
       <c r="H325" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="326" spans="7:10">
-      <c r="G326" s="37"/>
-    </row>
-    <row r="327" spans="7:10">
-      <c r="G327" s="37"/>
-      <c r="H327" s="55" t="s">
+    <row r="326" spans="7:7">
+      <c r="G326" s="16"/>
+    </row>
+    <row r="327" spans="7:8">
+      <c r="G327" s="16"/>
+      <c r="H327" s="10" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="328" spans="7:10">
-      <c r="H328" s="55"/>
-    </row>
-    <row r="329" spans="7:10">
-      <c r="H329" s="55"/>
+    <row r="328" spans="8:8">
+      <c r="H328" s="10"/>
+    </row>
+    <row r="329" spans="8:8">
+      <c r="H329" s="10"/>
     </row>
     <row r="334" spans="7:10">
-      <c r="G334" s="20">
+      <c r="G334" s="61">
         <v>43278</v>
       </c>
-      <c r="H334" s="20">
+      <c r="H334" s="61">
         <v>43279</v>
       </c>
-      <c r="J334" s="4">
+      <c r="J334" s="29">
         <v>43280</v>
       </c>
     </row>
-    <row r="335" spans="7:10">
-      <c r="G335" s="37" t="s">
+    <row r="335" spans="7:8">
+      <c r="G335" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="H335" s="37" t="s">
+      <c r="H335" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="336" spans="7:10">
-      <c r="G336" s="37"/>
-      <c r="H336" s="37"/>
-    </row>
-    <row r="337" spans="7:10">
-      <c r="G337" s="37"/>
-      <c r="H337" s="37"/>
-    </row>
-    <row r="338" spans="7:10">
-      <c r="G338" s="56"/>
-      <c r="H338" s="37" t="s">
+    <row r="336" spans="7:8">
+      <c r="G336" s="16"/>
+      <c r="H336" s="16"/>
+    </row>
+    <row r="337" spans="7:8">
+      <c r="G337" s="16"/>
+      <c r="H337" s="16"/>
+    </row>
+    <row r="338" spans="7:8">
+      <c r="G338" s="62"/>
+      <c r="H338" s="16" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="339" spans="7:10">
-      <c r="G339" s="56" t="s">
+    <row r="339" spans="7:8">
+      <c r="G339" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="H339" s="37"/>
-    </row>
-    <row r="340" spans="7:10">
-      <c r="G340" s="56"/>
-      <c r="H340" s="37"/>
-    </row>
-    <row r="341" spans="7:10">
-      <c r="H341" s="37"/>
-    </row>
-    <row r="342" spans="7:10">
-      <c r="H342" s="37"/>
+      <c r="H339" s="16"/>
+    </row>
+    <row r="340" spans="7:8">
+      <c r="G340" s="62"/>
+      <c r="H340" s="16"/>
+    </row>
+    <row r="341" spans="8:8">
+      <c r="H341" s="16"/>
+    </row>
+    <row r="342" spans="8:8">
+      <c r="H342" s="16"/>
     </row>
     <row r="345" spans="7:10">
-      <c r="G345" s="22">
+      <c r="G345" s="68">
         <v>43281</v>
       </c>
-      <c r="H345" s="4">
+      <c r="H345" s="29">
         <v>43283</v>
       </c>
-      <c r="I345" s="50">
+      <c r="I345" s="23">
         <v>43285</v>
       </c>
-      <c r="J345" s="51"/>
+      <c r="J345" s="29"/>
     </row>
     <row r="346" spans="7:10">
-      <c r="G346" s="58" t="s">
+      <c r="G346" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="H346" s="55" t="s">
+      <c r="H346" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="I346" s="55" t="s">
+      <c r="I346" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="J346" s="55"/>
+      <c r="J346" s="10"/>
     </row>
     <row r="347" spans="7:10">
-      <c r="G347" s="58"/>
-      <c r="H347" s="55"/>
-      <c r="I347" s="55"/>
-      <c r="J347" s="55"/>
-    </row>
-    <row r="348" spans="7:10">
-      <c r="G348" s="58"/>
-    </row>
-    <row r="349" spans="7:10">
-      <c r="G349" s="58"/>
-    </row>
-    <row r="350" spans="7:10">
-      <c r="G350" s="58"/>
-    </row>
-    <row r="351" spans="7:10">
-      <c r="G351" s="58"/>
-    </row>
-    <row r="352" spans="7:10">
-      <c r="G352" s="58"/>
-    </row>
-    <row r="353" spans="7:10">
-      <c r="G353" s="58" t="s">
+      <c r="G347" s="69"/>
+      <c r="H347" s="10"/>
+      <c r="I347" s="10"/>
+      <c r="J347" s="10"/>
+    </row>
+    <row r="348" spans="7:7">
+      <c r="G348" s="69"/>
+    </row>
+    <row r="349" spans="7:7">
+      <c r="G349" s="69"/>
+    </row>
+    <row r="350" spans="7:7">
+      <c r="G350" s="69"/>
+    </row>
+    <row r="351" spans="7:7">
+      <c r="G351" s="69"/>
+    </row>
+    <row r="352" spans="7:7">
+      <c r="G352" s="69"/>
+    </row>
+    <row r="353" spans="7:7">
+      <c r="G353" s="69" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="354" spans="7:10">
-      <c r="G354" s="58"/>
+    <row r="354" spans="7:7">
+      <c r="G354" s="69"/>
     </row>
     <row r="357" spans="7:10">
-      <c r="G357" s="4">
+      <c r="G357" s="29">
         <v>43286</v>
       </c>
-      <c r="J357" s="4">
+      <c r="J357" s="29">
         <v>43288</v>
       </c>
     </row>
@@ -4388,64 +4957,64 @@
       <c r="G358" t="s">
         <v>235</v>
       </c>
-      <c r="I358" s="55" t="s">
+      <c r="I358" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="J358" s="55"/>
+      <c r="J358" s="10"/>
     </row>
     <row r="359" spans="7:10">
       <c r="G359" t="s">
         <v>237</v>
       </c>
-      <c r="I359" s="55"/>
-      <c r="J359" s="55"/>
-    </row>
-    <row r="365" spans="7:10">
-      <c r="G365" s="4">
+      <c r="I359" s="10"/>
+      <c r="J359" s="10"/>
+    </row>
+    <row r="365" spans="7:8">
+      <c r="G365" s="29">
         <v>43292</v>
       </c>
-      <c r="H365" s="20">
+      <c r="H365" s="61">
         <v>43293</v>
       </c>
     </row>
-    <row r="366" spans="7:10">
-      <c r="G366" s="55" t="s">
+    <row r="366" spans="7:8">
+      <c r="G366" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="H366" s="37" t="s">
+      <c r="H366" s="16" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="367" spans="7:10">
-      <c r="G367" s="55"/>
-      <c r="H367" s="37"/>
-    </row>
-    <row r="368" spans="7:10">
-      <c r="G368" s="55" t="s">
+    <row r="367" spans="7:8">
+      <c r="G367" s="10"/>
+      <c r="H367" s="16"/>
+    </row>
+    <row r="368" spans="7:8">
+      <c r="G368" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="H368" s="37"/>
-    </row>
-    <row r="369" spans="7:10">
-      <c r="G369" s="55"/>
-      <c r="H369" s="37"/>
+      <c r="H368" s="16"/>
+    </row>
+    <row r="369" spans="7:8">
+      <c r="G369" s="10"/>
+      <c r="H369" s="16"/>
     </row>
     <row r="374" spans="7:10">
-      <c r="G374" s="4">
+      <c r="G374" s="29">
         <v>43307</v>
       </c>
-      <c r="H374" s="20">
+      <c r="H374" s="61">
         <v>43308</v>
       </c>
-      <c r="J374" s="4">
+      <c r="J374" s="29">
         <v>43311</v>
       </c>
     </row>
     <row r="375" spans="7:10">
-      <c r="G375" s="55" t="s">
+      <c r="G375" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="H375" s="37" t="s">
+      <c r="H375" s="16" t="s">
         <v>242</v>
       </c>
       <c r="J375" t="s">
@@ -4453,42 +5022,42 @@
       </c>
     </row>
     <row r="376" spans="7:10">
-      <c r="G376" s="55"/>
-      <c r="H376" s="37"/>
+      <c r="G376" s="10"/>
+      <c r="H376" s="16"/>
       <c r="J376" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="377" spans="7:10">
-      <c r="G377" s="55"/>
-      <c r="H377" s="8" t="s">
+    <row r="377" spans="7:8">
+      <c r="G377" s="10"/>
+      <c r="H377" s="38" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="378" spans="7:10">
-      <c r="H378" s="37" t="s">
+    <row r="378" spans="8:8">
+      <c r="H378" s="16" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="379" spans="7:10">
-      <c r="H379" s="37"/>
+    <row r="379" spans="8:8">
+      <c r="H379" s="16"/>
     </row>
     <row r="384" spans="7:10">
-      <c r="G384" s="20">
+      <c r="G384" s="61">
         <v>43312</v>
       </c>
-      <c r="H384" s="4">
+      <c r="H384" s="29">
         <v>43313</v>
       </c>
-      <c r="J384" s="4">
+      <c r="J384" s="29">
         <v>43314</v>
       </c>
     </row>
     <row r="385" spans="7:10">
-      <c r="G385" s="8" t="s">
+      <c r="G385" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="H385" s="55" t="s">
+      <c r="H385" s="10" t="s">
         <v>248</v>
       </c>
       <c r="J385" t="s">
@@ -4496,40 +5065,40 @@
       </c>
     </row>
     <row r="386" spans="7:10">
-      <c r="G386" s="8" t="s">
+      <c r="G386" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="H386" s="55"/>
-      <c r="J386" s="55" t="s">
+      <c r="H386" s="10"/>
+      <c r="J386" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="387" spans="7:10">
-      <c r="G387" s="8" t="s">
+      <c r="G387" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="H387" s="55"/>
-      <c r="J387" s="55"/>
-    </row>
-    <row r="388" spans="7:10">
-      <c r="H388" s="55" t="s">
+      <c r="H387" s="10"/>
+      <c r="J387" s="10"/>
+    </row>
+    <row r="388" spans="8:10">
+      <c r="H388" s="10" t="s">
         <v>253</v>
       </c>
       <c r="J388" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="389" spans="7:10">
-      <c r="H389" s="55"/>
+    <row r="389" spans="8:8">
+      <c r="H389" s="10"/>
     </row>
     <row r="393" spans="7:10">
-      <c r="G393" s="4">
+      <c r="G393" s="29">
         <v>43315</v>
       </c>
-      <c r="H393" s="4">
+      <c r="H393" s="29">
         <v>43316</v>
       </c>
-      <c r="J393" s="4">
+      <c r="J393" s="29">
         <v>43318</v>
       </c>
     </row>
@@ -4537,132 +5106,131 @@
       <c r="G394" t="s">
         <v>255</v>
       </c>
-      <c r="H394" s="55" t="s">
+      <c r="H394" s="10" t="s">
         <v>256</v>
       </c>
       <c r="J394" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="395" spans="7:10">
+    <row r="395" spans="7:8">
       <c r="G395" t="s">
         <v>258</v>
       </c>
-      <c r="H395" s="55"/>
-    </row>
-    <row r="396" spans="7:10">
-      <c r="G396" s="55" t="s">
+      <c r="H395" s="10"/>
+    </row>
+    <row r="396" spans="7:8">
+      <c r="G396" s="10" t="s">
         <v>259</v>
       </c>
       <c r="H396" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="397" spans="7:10">
-      <c r="G397" s="55"/>
+    <row r="397" spans="7:7">
+      <c r="G397" s="10"/>
     </row>
     <row r="401" spans="7:10">
-      <c r="G401" s="4">
+      <c r="G401" s="29">
         <v>43319</v>
       </c>
-      <c r="H401" s="4">
+      <c r="H401" s="29">
         <v>43320</v>
       </c>
-      <c r="J401" s="4">
+      <c r="J401" s="29">
         <v>43321</v>
       </c>
     </row>
     <row r="402" spans="7:10">
-      <c r="G402" s="55" t="s">
+      <c r="G402" s="10" t="s">
         <v>261</v>
       </c>
       <c r="H402" t="s">
         <v>262</v>
       </c>
-      <c r="I402" s="55" t="s">
+      <c r="I402" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="J402" s="55"/>
+      <c r="J402" s="10"/>
     </row>
     <row r="403" spans="7:10">
-      <c r="G403" s="55"/>
-      <c r="I403" s="55"/>
-      <c r="J403" s="55"/>
+      <c r="G403" s="10"/>
+      <c r="I403" s="10"/>
+      <c r="J403" s="10"/>
     </row>
     <row r="404" spans="7:10">
-      <c r="G404" s="55" t="s">
+      <c r="G404" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="I404" s="55" t="s">
+      <c r="I404" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="J404" s="55"/>
+      <c r="J404" s="10"/>
     </row>
     <row r="405" spans="7:10">
-      <c r="G405" s="55"/>
-      <c r="I405" s="55"/>
-      <c r="J405" s="55"/>
+      <c r="G405" s="10"/>
+      <c r="I405" s="10"/>
+      <c r="J405" s="10"/>
     </row>
     <row r="406" spans="7:10">
-      <c r="G406" s="55" t="s">
+      <c r="G406" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="I406" s="55" t="s">
+      <c r="I406" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="J406" s="55"/>
+      <c r="J406" s="10"/>
     </row>
     <row r="407" spans="7:10">
-      <c r="G407" s="55"/>
-      <c r="I407" s="55"/>
-      <c r="J407" s="55"/>
-    </row>
-    <row r="408" spans="7:10">
-      <c r="I408" s="55"/>
-      <c r="J408" s="55"/>
-    </row>
-    <row r="409" spans="7:10">
-      <c r="I409" s="43" t="s">
+      <c r="G407" s="10"/>
+      <c r="I407" s="10"/>
+      <c r="J407" s="10"/>
+    </row>
+    <row r="408" spans="9:10">
+      <c r="I408" s="10"/>
+      <c r="J408" s="10"/>
+    </row>
+    <row r="409" spans="9:9">
+      <c r="I409" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="J409" s="44"/>
-    </row>
-    <row r="414" spans="7:10">
-      <c r="G414" s="4">
+    </row>
+    <row r="414" spans="7:8">
+      <c r="G414" s="29">
         <v>43322</v>
       </c>
       <c r="H414" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="415" spans="7:10">
-      <c r="G415" s="55" t="s">
+    <row r="415" spans="7:7">
+      <c r="G415" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="416" spans="7:10">
-      <c r="G416" s="55"/>
-    </row>
-    <row r="417" spans="7:13">
-      <c r="G417" s="55" t="s">
+    <row r="416" spans="7:7">
+      <c r="G416" s="10"/>
+    </row>
+    <row r="417" spans="7:7">
+      <c r="G417" s="10" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="418" spans="7:13">
-      <c r="G418" s="55"/>
-    </row>
-    <row r="423" spans="7:13">
-      <c r="G423" s="4">
+    <row r="418" spans="7:7">
+      <c r="G418" s="10"/>
+    </row>
+    <row r="423" spans="7:10">
+      <c r="G423" s="29">
         <v>43325</v>
       </c>
-      <c r="H423" s="4">
+      <c r="H423" s="29">
         <v>43326</v>
       </c>
-      <c r="J423" s="4">
+      <c r="J423" s="29">
         <v>43327</v>
       </c>
     </row>
-    <row r="424" spans="7:13">
+    <row r="424" spans="7:10">
       <c r="G424" t="s">
         <v>272</v>
       </c>
@@ -4673,350 +5241,350 @@
         <v>274</v>
       </c>
     </row>
-    <row r="425" spans="7:13">
+    <row r="425" spans="8:8">
       <c r="H425" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="426" spans="7:13">
+    <row r="426" spans="8:8">
       <c r="H426" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="432" spans="7:13">
-      <c r="G432" s="4">
+      <c r="G432" s="29">
         <v>43328</v>
       </c>
-      <c r="H432" s="4">
+      <c r="H432" s="29">
         <v>43329</v>
       </c>
-      <c r="I432" s="52">
+      <c r="I432" s="71">
         <v>43330</v>
       </c>
-      <c r="J432" s="53"/>
-      <c r="K432" s="24"/>
-      <c r="L432" s="7" t="s">
+      <c r="J432" s="70"/>
+      <c r="K432" s="72"/>
+      <c r="L432" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="M432" s="7" t="s">
+      <c r="M432" s="32" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="433" spans="5:13">
-      <c r="G433" s="55" t="s">
+    <row r="433" spans="7:13">
+      <c r="G433" s="10" t="s">
         <v>279</v>
       </c>
       <c r="H433" t="s">
         <v>280</v>
       </c>
-      <c r="I433" s="37" t="s">
+      <c r="I433" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="J433" s="56"/>
-      <c r="K433" s="8" t="s">
+      <c r="J433" s="62"/>
+      <c r="K433" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="L433" s="1">
+      <c r="L433" s="3">
         <v>1790015</v>
       </c>
-      <c r="M433" s="1">
+      <c r="M433" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="434" spans="5:13">
-      <c r="G434" s="55"/>
+    <row r="434" spans="7:13">
+      <c r="G434" s="10"/>
       <c r="H434" t="s">
         <v>283</v>
       </c>
-      <c r="I434" s="37"/>
-      <c r="J434" s="56"/>
-      <c r="K434" s="8" t="s">
+      <c r="I434" s="16"/>
+      <c r="J434" s="62"/>
+      <c r="K434" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="L434" s="1">
+      <c r="L434" s="3">
         <v>1790609</v>
       </c>
-      <c r="M434" s="1">
+      <c r="M434" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="435" spans="5:13">
+    <row r="435" spans="7:13">
       <c r="G435" t="s">
         <v>285</v>
       </c>
-      <c r="H435" s="55" t="s">
+      <c r="H435" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="I435" s="37"/>
-      <c r="J435" s="37"/>
-      <c r="K435" s="27" t="s">
+      <c r="I435" s="16"/>
+      <c r="J435" s="16"/>
+      <c r="K435" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="L435" s="27"/>
-      <c r="M435" s="27"/>
-    </row>
-    <row r="436" spans="5:13">
-      <c r="G436" s="55" t="s">
+      <c r="L435" s="39"/>
+      <c r="M435" s="39"/>
+    </row>
+    <row r="436" spans="7:10">
+      <c r="G436" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="H436" s="55"/>
-      <c r="I436" s="37" t="s">
+      <c r="H436" s="10"/>
+      <c r="I436" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J436" s="37"/>
-    </row>
-    <row r="437" spans="5:13">
-      <c r="G437" s="55"/>
+      <c r="J436" s="16"/>
+    </row>
+    <row r="437" spans="7:10">
+      <c r="G437" s="10"/>
       <c r="H437" t="s">
         <v>290</v>
       </c>
-      <c r="I437" s="37"/>
-      <c r="J437" s="37"/>
-    </row>
-    <row r="438" spans="5:13">
-      <c r="I438" s="37"/>
-      <c r="J438" s="37"/>
-    </row>
-    <row r="439" spans="5:13">
-      <c r="I439" s="37"/>
-      <c r="J439" s="37"/>
-    </row>
-    <row r="440" spans="5:13">
-      <c r="I440" s="37"/>
-      <c r="J440" s="37"/>
-    </row>
-    <row r="441" spans="5:13">
-      <c r="I441" s="37"/>
-      <c r="J441" s="37"/>
-    </row>
-    <row r="446" spans="5:13">
-      <c r="E446" s="23">
+      <c r="I437" s="16"/>
+      <c r="J437" s="16"/>
+    </row>
+    <row r="438" spans="9:10">
+      <c r="I438" s="16"/>
+      <c r="J438" s="16"/>
+    </row>
+    <row r="439" spans="9:10">
+      <c r="I439" s="16"/>
+      <c r="J439" s="16"/>
+    </row>
+    <row r="440" spans="9:10">
+      <c r="I440" s="16"/>
+      <c r="J440" s="16"/>
+    </row>
+    <row r="441" spans="9:10">
+      <c r="I441" s="16"/>
+      <c r="J441" s="16"/>
+    </row>
+    <row r="446" spans="5:10">
+      <c r="E446" s="70">
         <v>43332</v>
       </c>
-      <c r="F446" s="7" t="s">
+      <c r="F446" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="G446" s="7" t="s">
+      <c r="G446" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="H446" s="4">
+      <c r="H446" s="29">
         <v>43333</v>
       </c>
-      <c r="J446" s="4">
+      <c r="J446" s="29">
         <v>43334</v>
       </c>
     </row>
-    <row r="447" spans="5:13">
-      <c r="E447" s="8" t="s">
+    <row r="447" spans="5:10">
+      <c r="E447" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="F447" s="1">
+      <c r="F447" s="3">
         <v>2287467</v>
       </c>
-      <c r="G447" s="1">
+      <c r="G447" s="3">
         <v>122</v>
       </c>
       <c r="H447" t="s">
         <v>291</v>
       </c>
-      <c r="I447" s="55" t="s">
+      <c r="I447" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="J447" s="55"/>
-    </row>
-    <row r="448" spans="5:13">
-      <c r="E448" s="8" t="s">
+      <c r="J447" s="10"/>
+    </row>
+    <row r="448" spans="5:10">
+      <c r="E448" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="F448" s="1">
+      <c r="F448" s="3">
         <v>2287003</v>
       </c>
-      <c r="G448" s="1">
+      <c r="G448" s="3">
         <v>56</v>
       </c>
-      <c r="I448" s="55"/>
-      <c r="J448" s="55"/>
+      <c r="I448" s="10"/>
+      <c r="J448" s="10"/>
     </row>
     <row r="449" spans="5:10">
-      <c r="E449" s="27" t="s">
+      <c r="E449" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="F449" s="27"/>
-      <c r="G449" s="27"/>
-      <c r="I449" s="55"/>
-      <c r="J449" s="55"/>
-    </row>
-    <row r="451" spans="5:10">
+      <c r="F449" s="39"/>
+      <c r="G449" s="39"/>
+      <c r="I449" s="10"/>
+      <c r="J449" s="10"/>
+    </row>
+    <row r="451" spans="5:5">
       <c r="E451" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="458" spans="5:10">
-      <c r="F458" s="45">
+    <row r="458" spans="6:10">
+      <c r="F458" s="17">
         <v>43335</v>
       </c>
-      <c r="G458" s="54"/>
-      <c r="H458" s="20">
+      <c r="G458" s="60"/>
+      <c r="H458" s="61">
         <v>43336</v>
       </c>
-      <c r="J458" s="4">
+      <c r="J458" s="29">
         <v>43337</v>
       </c>
     </row>
-    <row r="459" spans="5:10">
-      <c r="F459" s="25" t="s">
+    <row r="459" spans="6:10">
+      <c r="F459" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G459" s="31"/>
-      <c r="H459" s="8" t="s">
+      <c r="G459" s="49"/>
+      <c r="H459" s="38" t="s">
         <v>295</v>
       </c>
       <c r="J459" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="460" spans="5:10">
-      <c r="F460" s="37" t="s">
+    <row r="460" spans="6:10">
+      <c r="F460" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="G460" s="56"/>
-      <c r="H460" s="37" t="s">
+      <c r="G460" s="62"/>
+      <c r="H460" s="16" t="s">
         <v>298</v>
       </c>
       <c r="J460" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="461" spans="5:10">
-      <c r="F461" s="37"/>
-      <c r="G461" s="56"/>
-      <c r="H461" s="37"/>
+    <row r="461" spans="6:10">
+      <c r="F461" s="16"/>
+      <c r="G461" s="62"/>
+      <c r="H461" s="16"/>
       <c r="J461" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="462" spans="5:10">
-      <c r="F462" s="37" t="s">
+    <row r="462" spans="6:10">
+      <c r="F462" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="G462" s="56"/>
-      <c r="H462" s="37"/>
+      <c r="G462" s="62"/>
+      <c r="H462" s="16"/>
       <c r="J462" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="463" spans="5:10">
-      <c r="F463" s="37"/>
-      <c r="G463" s="56"/>
-      <c r="H463" s="37" t="s">
+    <row r="463" spans="6:10">
+      <c r="F463" s="16"/>
+      <c r="G463" s="62"/>
+      <c r="H463" s="16" t="s">
         <v>303</v>
       </c>
       <c r="J463" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="464" spans="5:10">
-      <c r="H464" s="37"/>
-    </row>
-    <row r="465" spans="6:10">
-      <c r="H465" s="8" t="s">
+    <row r="464" spans="8:8">
+      <c r="H464" s="16"/>
+    </row>
+    <row r="465" spans="8:8">
+      <c r="H465" s="38" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="470" spans="6:10">
-      <c r="F470" s="45">
+      <c r="F470" s="17">
         <v>43339</v>
       </c>
-      <c r="G470" s="46"/>
-      <c r="H470" s="20">
+      <c r="G470" s="61"/>
+      <c r="H470" s="61">
         <v>43340</v>
       </c>
-      <c r="J470" s="4">
+      <c r="J470" s="29">
         <v>43341</v>
       </c>
     </row>
     <row r="471" spans="6:10">
-      <c r="F471" s="25" t="s">
+      <c r="F471" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G471" s="32"/>
-      <c r="H471" s="37" t="s">
+      <c r="G471" s="38"/>
+      <c r="H471" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="I471" s="55" t="s">
+      <c r="I471" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="J471" s="55"/>
+      <c r="J471" s="10"/>
     </row>
     <row r="472" spans="6:10">
-      <c r="F472" s="25" t="s">
+      <c r="F472" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G472" s="32"/>
-      <c r="H472" s="37"/>
-      <c r="I472" s="55"/>
-      <c r="J472" s="55"/>
+      <c r="G472" s="38"/>
+      <c r="H472" s="16"/>
+      <c r="I472" s="10"/>
+      <c r="J472" s="10"/>
     </row>
     <row r="473" spans="6:10">
-      <c r="F473" s="37" t="s">
+      <c r="F473" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="G473" s="37"/>
-      <c r="H473" s="37"/>
-      <c r="I473" s="55"/>
-      <c r="J473" s="55"/>
+      <c r="G473" s="16"/>
+      <c r="H473" s="16"/>
+      <c r="I473" s="10"/>
+      <c r="J473" s="10"/>
     </row>
     <row r="474" spans="6:10">
-      <c r="F474" s="37"/>
-      <c r="G474" s="37"/>
-      <c r="H474" s="37"/>
-      <c r="I474" s="55"/>
-      <c r="J474" s="55"/>
+      <c r="F474" s="16"/>
+      <c r="G474" s="16"/>
+      <c r="H474" s="16"/>
+      <c r="I474" s="10"/>
+      <c r="J474" s="10"/>
     </row>
     <row r="475" spans="6:10">
-      <c r="F475" s="37" t="s">
+      <c r="F475" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="G475" s="37"/>
-      <c r="H475" s="37" t="s">
+      <c r="G475" s="16"/>
+      <c r="H475" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="I475" s="55"/>
-      <c r="J475" s="55"/>
+      <c r="I475" s="10"/>
+      <c r="J475" s="10"/>
     </row>
     <row r="476" spans="6:10">
-      <c r="F476" s="37"/>
-      <c r="G476" s="37"/>
-      <c r="H476" s="42"/>
-      <c r="I476" s="55"/>
-      <c r="J476" s="55"/>
-    </row>
-    <row r="477" spans="6:10">
-      <c r="F477" s="25" t="s">
+      <c r="F476" s="16"/>
+      <c r="G476" s="16"/>
+      <c r="H476" s="56"/>
+      <c r="I476" s="10"/>
+      <c r="J476" s="10"/>
+    </row>
+    <row r="477" spans="6:8">
+      <c r="F477" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G477" s="32"/>
-      <c r="H477" s="8" t="s">
+      <c r="G477" s="38"/>
+      <c r="H477" s="38" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="478" spans="6:10" ht="27">
-      <c r="F478" s="25" t="s">
+    <row r="478" ht="27" spans="6:8">
+      <c r="F478" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="G478" s="32"/>
-      <c r="H478" s="18" t="s">
+      <c r="G478" s="38"/>
+      <c r="H478" s="56" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="482" spans="7:10">
-      <c r="G482" s="4">
+      <c r="G482" s="29">
         <v>43342</v>
       </c>
-      <c r="H482" s="4">
+      <c r="H482" s="29">
         <v>43343</v>
       </c>
-      <c r="J482" s="4">
+      <c r="J482" s="29">
         <v>43344</v>
       </c>
     </row>
@@ -5027,10 +5595,10 @@
       <c r="H483" t="s">
         <v>318</v>
       </c>
-      <c r="I483" s="55" t="s">
+      <c r="I483" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="J483" s="55"/>
+      <c r="J483" s="10"/>
     </row>
     <row r="484" spans="7:10">
       <c r="G484" t="s">
@@ -5039,94 +5607,93 @@
       <c r="H484" t="s">
         <v>321</v>
       </c>
-      <c r="I484" s="55"/>
-      <c r="J484" s="55"/>
+      <c r="I484" s="10"/>
+      <c r="J484" s="10"/>
     </row>
     <row r="485" spans="7:10">
       <c r="G485" t="s">
         <v>322</v>
       </c>
-      <c r="H485" s="55" t="s">
+      <c r="H485" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="I485" s="55" t="s">
+      <c r="I485" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="J485" s="55"/>
+      <c r="J485" s="10"/>
     </row>
     <row r="486" spans="7:10">
-      <c r="G486" s="55" t="s">
+      <c r="G486" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="H486" s="55"/>
-      <c r="I486" s="55"/>
-      <c r="J486" s="55"/>
+      <c r="H486" s="10"/>
+      <c r="I486" s="10"/>
+      <c r="J486" s="10"/>
     </row>
     <row r="487" spans="7:10">
-      <c r="G487" s="55"/>
+      <c r="G487" s="10"/>
       <c r="H487" t="s">
         <v>326</v>
       </c>
-      <c r="I487" s="43" t="s">
+      <c r="I487" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="J487" s="43"/>
+      <c r="J487" s="42"/>
     </row>
     <row r="488" spans="7:10">
-      <c r="G488" s="55"/>
-      <c r="H488" s="55" t="s">
+      <c r="G488" s="10"/>
+      <c r="H488" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="I488" s="55" t="s">
+      <c r="I488" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="J488" s="55"/>
+      <c r="J488" s="10"/>
     </row>
     <row r="489" spans="7:10">
-      <c r="G489" s="55" t="s">
+      <c r="G489" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="H489" s="55"/>
-      <c r="I489" s="55"/>
-      <c r="J489" s="55"/>
-    </row>
-    <row r="490" spans="7:10">
-      <c r="G490" s="55"/>
-      <c r="H490" s="55" t="s">
+      <c r="H489" s="10"/>
+      <c r="I489" s="10"/>
+      <c r="J489" s="10"/>
+    </row>
+    <row r="490" spans="7:9">
+      <c r="G490" s="10"/>
+      <c r="H490" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="I490" s="43" t="s">
+      <c r="I490" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="J490" s="44"/>
-    </row>
-    <row r="491" spans="7:10">
-      <c r="H491" s="55"/>
-    </row>
-    <row r="492" spans="7:10">
-      <c r="H492" s="55" t="s">
+    </row>
+    <row r="491" spans="8:8">
+      <c r="H491" s="10"/>
+    </row>
+    <row r="492" spans="8:8">
+      <c r="H492" s="10" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="493" spans="7:10">
-      <c r="H493" s="55"/>
-    </row>
-    <row r="494" spans="7:10">
-      <c r="H494" s="55" t="s">
+    <row r="493" spans="8:8">
+      <c r="H493" s="10"/>
+    </row>
+    <row r="494" spans="8:8">
+      <c r="H494" s="10" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="495" spans="7:10">
-      <c r="H495" s="55"/>
+    <row r="495" spans="8:8">
+      <c r="H495" s="10"/>
     </row>
     <row r="500" spans="7:10">
-      <c r="G500" s="4">
+      <c r="G500" s="29">
         <v>43346</v>
       </c>
-      <c r="H500" s="4">
+      <c r="H500" s="29">
         <v>43347</v>
       </c>
-      <c r="J500" s="4">
+      <c r="J500" s="29">
         <v>43348</v>
       </c>
     </row>
@@ -5137,112 +5704,112 @@
       <c r="H501" t="s">
         <v>336</v>
       </c>
-      <c r="I501" s="55" t="s">
+      <c r="I501" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="J501" s="55"/>
-    </row>
-    <row r="502" spans="7:10">
+      <c r="J501" s="10"/>
+    </row>
+    <row r="502" spans="8:10">
       <c r="H502" t="s">
         <v>338</v>
       </c>
-      <c r="I502" s="55"/>
-      <c r="J502" s="55"/>
-    </row>
-    <row r="503" spans="7:10">
+      <c r="I502" s="10"/>
+      <c r="J502" s="10"/>
+    </row>
+    <row r="503" spans="8:10">
       <c r="H503" t="s">
         <v>339</v>
       </c>
-      <c r="I503" s="55" t="s">
+      <c r="I503" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="J503" s="55"/>
-    </row>
-    <row r="504" spans="7:10">
-      <c r="H504" s="55" t="s">
+      <c r="J503" s="10"/>
+    </row>
+    <row r="504" spans="8:10">
+      <c r="H504" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="I504" s="55"/>
-      <c r="J504" s="55"/>
-    </row>
-    <row r="505" spans="7:10">
-      <c r="H505" s="55"/>
-      <c r="I505" s="55"/>
-      <c r="J505" s="55"/>
+      <c r="I504" s="10"/>
+      <c r="J504" s="10"/>
+    </row>
+    <row r="505" spans="8:10">
+      <c r="H505" s="10"/>
+      <c r="I505" s="10"/>
+      <c r="J505" s="10"/>
     </row>
     <row r="512" spans="7:10">
-      <c r="G512" s="4">
+      <c r="G512" s="29">
         <v>43349</v>
       </c>
-      <c r="H512" s="4">
+      <c r="H512" s="29">
         <v>43350</v>
       </c>
-      <c r="J512" s="4">
+      <c r="J512" s="29">
         <v>43351</v>
       </c>
     </row>
     <row r="513" spans="7:10">
-      <c r="G513" s="55" t="s">
+      <c r="G513" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="H513" s="55" t="s">
+      <c r="H513" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="I513" s="37" t="s">
+      <c r="I513" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="J513" s="37"/>
+      <c r="J513" s="16"/>
     </row>
     <row r="514" spans="7:10">
-      <c r="G514" s="55"/>
-      <c r="H514" s="55"/>
-      <c r="I514" s="37"/>
-      <c r="J514" s="37"/>
+      <c r="G514" s="10"/>
+      <c r="H514" s="10"/>
+      <c r="I514" s="16"/>
+      <c r="J514" s="16"/>
     </row>
     <row r="515" spans="7:10">
       <c r="G515" t="s">
         <v>345</v>
       </c>
-      <c r="H515" s="55" t="s">
+      <c r="H515" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="I515" s="37"/>
-      <c r="J515" s="37"/>
+      <c r="I515" s="16"/>
+      <c r="J515" s="16"/>
     </row>
     <row r="516" spans="7:10">
       <c r="G516" t="s">
         <v>347</v>
       </c>
-      <c r="H516" s="55"/>
-      <c r="I516" s="37"/>
-      <c r="J516" s="37"/>
+      <c r="H516" s="10"/>
+      <c r="I516" s="16"/>
+      <c r="J516" s="16"/>
     </row>
     <row r="517" spans="7:10">
-      <c r="G517" s="55" t="s">
+      <c r="G517" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="I517" s="37"/>
-      <c r="J517" s="37"/>
-    </row>
-    <row r="518" spans="7:10">
-      <c r="G518" s="55"/>
-    </row>
-    <row r="519" spans="7:10">
-      <c r="G519" s="55" t="s">
+      <c r="I517" s="16"/>
+      <c r="J517" s="16"/>
+    </row>
+    <row r="518" spans="7:7">
+      <c r="G518" s="10"/>
+    </row>
+    <row r="519" spans="7:7">
+      <c r="G519" s="10" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="520" spans="7:10">
-      <c r="G520" s="55"/>
+    <row r="520" spans="7:7">
+      <c r="G520" s="10"/>
     </row>
     <row r="527" spans="7:10">
-      <c r="G527" s="4">
+      <c r="G527" s="29">
         <v>43353</v>
       </c>
-      <c r="H527" s="4">
+      <c r="H527" s="29">
         <v>43354</v>
       </c>
-      <c r="J527" s="4">
+      <c r="J527" s="29">
         <v>43355</v>
       </c>
     </row>
@@ -5250,45 +5817,45 @@
       <c r="G528" t="s">
         <v>350</v>
       </c>
-      <c r="H528" s="55" t="s">
+      <c r="H528" s="10" t="s">
         <v>351</v>
       </c>
       <c r="J528" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="529" spans="7:10">
-      <c r="H529" s="55"/>
+    <row r="529" spans="8:10">
+      <c r="H529" s="10"/>
       <c r="J529" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="530" spans="7:10">
-      <c r="H530" s="55"/>
-    </row>
-    <row r="531" spans="7:10">
+    <row r="530" spans="8:8">
+      <c r="H530" s="10"/>
+    </row>
+    <row r="531" spans="8:8">
       <c r="H531" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="532" spans="7:10">
+    <row r="532" spans="8:8">
       <c r="H532" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="536" spans="7:10">
-      <c r="G536" s="4">
+      <c r="G536" s="29">
         <v>43356</v>
       </c>
-      <c r="H536" s="4">
+      <c r="H536" s="29">
         <v>43357</v>
       </c>
-      <c r="J536" s="4">
+      <c r="J536" s="29">
         <v>43358</v>
       </c>
     </row>
     <row r="537" spans="7:10">
-      <c r="G537" s="55" t="s">
+      <c r="G537" s="10" t="s">
         <v>356</v>
       </c>
       <c r="H537" t="s">
@@ -5298,80 +5865,80 @@
         <v>358</v>
       </c>
     </row>
-    <row r="538" spans="7:10">
-      <c r="G538" s="55"/>
-    </row>
-    <row r="546" spans="7:12">
-      <c r="G546" s="4">
+    <row r="538" spans="7:7">
+      <c r="G538" s="10"/>
+    </row>
+    <row r="546" spans="7:10">
+      <c r="G546" s="29">
         <v>43361</v>
       </c>
-      <c r="H546" s="4">
+      <c r="H546" s="29">
         <v>43362</v>
       </c>
-      <c r="J546" s="4">
+      <c r="J546" s="29">
         <v>43363</v>
       </c>
     </row>
     <row r="547" spans="7:12">
-      <c r="G547" s="55" t="s">
+      <c r="G547" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="H547" s="55" t="s">
+      <c r="H547" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="I547" s="43" t="s">
+      <c r="I547" s="42" t="s">
         <v>361</v>
       </c>
-      <c r="J547" s="43"/>
-      <c r="K547" s="43"/>
-      <c r="L547" s="43"/>
-    </row>
-    <row r="548" spans="7:12">
-      <c r="G548" s="55"/>
-      <c r="H548" s="55"/>
-    </row>
-    <row r="549" spans="7:12">
+      <c r="J547" s="42"/>
+      <c r="K547" s="42"/>
+      <c r="L547" s="42"/>
+    </row>
+    <row r="548" spans="7:8">
+      <c r="G548" s="10"/>
+      <c r="H548" s="10"/>
+    </row>
+    <row r="549" spans="8:8">
       <c r="H549" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="550" spans="7:12">
+    <row r="550" spans="8:8">
       <c r="H550" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="553" spans="7:12">
-      <c r="G553" s="4">
+    <row r="553" spans="7:7">
+      <c r="G553" s="29">
         <v>43364</v>
       </c>
     </row>
-    <row r="554" spans="7:12">
-      <c r="G554" s="55" t="s">
+    <row r="554" spans="7:7">
+      <c r="G554" s="10" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="555" spans="7:12">
-      <c r="G555" s="55"/>
-    </row>
-    <row r="556" spans="7:12">
-      <c r="G556" s="55"/>
+    <row r="555" spans="7:7">
+      <c r="G555" s="10"/>
+    </row>
+    <row r="556" spans="7:7">
+      <c r="G556" s="10"/>
     </row>
     <row r="563" spans="7:10">
-      <c r="G563" s="4">
+      <c r="G563" s="29">
         <v>43368</v>
       </c>
-      <c r="H563" s="20">
+      <c r="H563" s="61">
         <v>43369</v>
       </c>
-      <c r="J563" s="4">
+      <c r="J563" s="29">
         <v>43370</v>
       </c>
     </row>
     <row r="564" spans="7:10">
-      <c r="G564" s="55" t="s">
+      <c r="G564" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="H564" s="37" t="s">
+      <c r="H564" s="16" t="s">
         <v>366</v>
       </c>
       <c r="J564" t="s">
@@ -5379,34 +5946,34 @@
       </c>
     </row>
     <row r="565" spans="7:10">
-      <c r="G565" s="55"/>
-      <c r="H565" s="37"/>
+      <c r="G565" s="10"/>
+      <c r="H565" s="16"/>
       <c r="J565" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="566" spans="7:10">
-      <c r="H566" s="8" t="s">
+    <row r="566" spans="8:8">
+      <c r="H566" s="38" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="567" spans="7:10">
-      <c r="H567" s="37" t="s">
+    <row r="567" spans="8:8">
+      <c r="H567" s="16" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="568" spans="7:10">
-      <c r="H568" s="37"/>
-    </row>
-    <row r="574" spans="7:10">
-      <c r="G574" s="4">
+    <row r="568" spans="8:8">
+      <c r="H568" s="16"/>
+    </row>
+    <row r="574" spans="7:8">
+      <c r="G574" s="29">
         <v>43371</v>
       </c>
-      <c r="H574" s="4">
+      <c r="H574" s="29">
         <v>43372</v>
       </c>
     </row>
-    <row r="575" spans="7:10">
+    <row r="575" spans="7:8">
       <c r="G575" t="s">
         <v>371</v>
       </c>
@@ -5414,8 +5981,8 @@
         <v>372</v>
       </c>
     </row>
-    <row r="576" spans="7:10">
-      <c r="G576" s="55" t="s">
+    <row r="576" spans="7:8">
+      <c r="G576" s="10" t="s">
         <v>373</v>
       </c>
       <c r="H576" t="s">
@@ -5423,10 +5990,197 @@
       </c>
     </row>
     <row r="577" spans="7:7">
-      <c r="G577" s="55"/>
+      <c r="G577" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="244">
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="I166:J166"/>
+    <mergeCell ref="I170:J170"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="I182:J182"/>
+    <mergeCell ref="I220:J220"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="I223:J223"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="I229:J229"/>
+    <mergeCell ref="I232:J232"/>
+    <mergeCell ref="I239:J239"/>
+    <mergeCell ref="I240:J240"/>
+    <mergeCell ref="I264:J264"/>
+    <mergeCell ref="I287:J287"/>
+    <mergeCell ref="I290:J290"/>
+    <mergeCell ref="I313:J313"/>
+    <mergeCell ref="I317:J317"/>
+    <mergeCell ref="I345:J345"/>
+    <mergeCell ref="I409:J409"/>
+    <mergeCell ref="I432:J432"/>
+    <mergeCell ref="K435:M435"/>
+    <mergeCell ref="E449:G449"/>
+    <mergeCell ref="F458:G458"/>
+    <mergeCell ref="F459:G459"/>
+    <mergeCell ref="F470:G470"/>
+    <mergeCell ref="F471:G471"/>
+    <mergeCell ref="F472:G472"/>
+    <mergeCell ref="F477:G477"/>
+    <mergeCell ref="F478:G478"/>
+    <mergeCell ref="I487:J487"/>
+    <mergeCell ref="I490:J490"/>
+    <mergeCell ref="I547:L547"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="G144:G146"/>
+    <mergeCell ref="G150:G152"/>
+    <mergeCell ref="G153:G156"/>
+    <mergeCell ref="G157:G160"/>
+    <mergeCell ref="G161:G163"/>
+    <mergeCell ref="G168:G169"/>
+    <mergeCell ref="G192:G196"/>
+    <mergeCell ref="G210:G212"/>
+    <mergeCell ref="G214:G215"/>
+    <mergeCell ref="G230:G232"/>
+    <mergeCell ref="G240:G244"/>
+    <mergeCell ref="G256:G257"/>
+    <mergeCell ref="G266:G268"/>
+    <mergeCell ref="G269:G270"/>
+    <mergeCell ref="G271:G275"/>
+    <mergeCell ref="G276:G277"/>
+    <mergeCell ref="G278:G280"/>
+    <mergeCell ref="G288:G289"/>
+    <mergeCell ref="G290:G291"/>
+    <mergeCell ref="G298:G301"/>
+    <mergeCell ref="G314:G315"/>
+    <mergeCell ref="G323:G324"/>
+    <mergeCell ref="G325:G327"/>
+    <mergeCell ref="G335:G338"/>
+    <mergeCell ref="G339:G340"/>
+    <mergeCell ref="G346:G352"/>
+    <mergeCell ref="G353:G354"/>
+    <mergeCell ref="G366:G367"/>
+    <mergeCell ref="G368:G369"/>
+    <mergeCell ref="G375:G377"/>
+    <mergeCell ref="G396:G397"/>
+    <mergeCell ref="G402:G403"/>
+    <mergeCell ref="G404:G405"/>
+    <mergeCell ref="G406:G407"/>
+    <mergeCell ref="G415:G416"/>
+    <mergeCell ref="G417:G418"/>
+    <mergeCell ref="G433:G434"/>
+    <mergeCell ref="G436:G437"/>
+    <mergeCell ref="G486:G488"/>
+    <mergeCell ref="G489:G490"/>
+    <mergeCell ref="G513:G514"/>
+    <mergeCell ref="G517:G518"/>
+    <mergeCell ref="G519:G520"/>
+    <mergeCell ref="G537:G538"/>
+    <mergeCell ref="G547:G548"/>
+    <mergeCell ref="G554:G556"/>
+    <mergeCell ref="G564:G565"/>
+    <mergeCell ref="G576:G577"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="H169:H170"/>
+    <mergeCell ref="H183:H186"/>
+    <mergeCell ref="H192:H198"/>
+    <mergeCell ref="H210:H211"/>
+    <mergeCell ref="H265:H266"/>
+    <mergeCell ref="H288:H289"/>
+    <mergeCell ref="H314:H315"/>
+    <mergeCell ref="H327:H329"/>
+    <mergeCell ref="H335:H337"/>
+    <mergeCell ref="H338:H342"/>
+    <mergeCell ref="H346:H347"/>
+    <mergeCell ref="H366:H369"/>
+    <mergeCell ref="H375:H376"/>
+    <mergeCell ref="H378:H379"/>
+    <mergeCell ref="H385:H387"/>
+    <mergeCell ref="H388:H389"/>
+    <mergeCell ref="H394:H395"/>
+    <mergeCell ref="H435:H436"/>
+    <mergeCell ref="H460:H462"/>
+    <mergeCell ref="H463:H464"/>
+    <mergeCell ref="H471:H474"/>
+    <mergeCell ref="H475:H476"/>
+    <mergeCell ref="H485:H486"/>
+    <mergeCell ref="H488:H489"/>
+    <mergeCell ref="H490:H491"/>
+    <mergeCell ref="H492:H493"/>
+    <mergeCell ref="H494:H495"/>
+    <mergeCell ref="H504:H505"/>
+    <mergeCell ref="H513:H514"/>
+    <mergeCell ref="H515:H516"/>
+    <mergeCell ref="H528:H530"/>
+    <mergeCell ref="H547:H548"/>
+    <mergeCell ref="H564:H565"/>
     <mergeCell ref="H567:H568"/>
     <mergeCell ref="J151:J152"/>
     <mergeCell ref="J153:J159"/>
@@ -5451,109 +6205,6 @@
     <mergeCell ref="I513:J517"/>
     <mergeCell ref="I203:J204"/>
     <mergeCell ref="G222:H223"/>
-    <mergeCell ref="H490:H491"/>
-    <mergeCell ref="H492:H493"/>
-    <mergeCell ref="H494:H495"/>
-    <mergeCell ref="H504:H505"/>
-    <mergeCell ref="H513:H514"/>
-    <mergeCell ref="H515:H516"/>
-    <mergeCell ref="H528:H530"/>
-    <mergeCell ref="H547:H548"/>
-    <mergeCell ref="H564:H565"/>
-    <mergeCell ref="H388:H389"/>
-    <mergeCell ref="H394:H395"/>
-    <mergeCell ref="H435:H436"/>
-    <mergeCell ref="H460:H462"/>
-    <mergeCell ref="H463:H464"/>
-    <mergeCell ref="H471:H474"/>
-    <mergeCell ref="H475:H476"/>
-    <mergeCell ref="H485:H486"/>
-    <mergeCell ref="H488:H489"/>
-    <mergeCell ref="G576:G577"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="H169:H170"/>
-    <mergeCell ref="H183:H186"/>
-    <mergeCell ref="H192:H198"/>
-    <mergeCell ref="H210:H211"/>
-    <mergeCell ref="H265:H266"/>
-    <mergeCell ref="H288:H289"/>
-    <mergeCell ref="H314:H315"/>
-    <mergeCell ref="H327:H329"/>
-    <mergeCell ref="H335:H337"/>
-    <mergeCell ref="H338:H342"/>
-    <mergeCell ref="H346:H347"/>
-    <mergeCell ref="H366:H369"/>
-    <mergeCell ref="H375:H376"/>
-    <mergeCell ref="H378:H379"/>
-    <mergeCell ref="H385:H387"/>
-    <mergeCell ref="G486:G488"/>
-    <mergeCell ref="G489:G490"/>
-    <mergeCell ref="G513:G514"/>
-    <mergeCell ref="G517:G518"/>
-    <mergeCell ref="G519:G520"/>
-    <mergeCell ref="G537:G538"/>
-    <mergeCell ref="G547:G548"/>
-    <mergeCell ref="G554:G556"/>
-    <mergeCell ref="G564:G565"/>
-    <mergeCell ref="G368:G369"/>
-    <mergeCell ref="G375:G377"/>
-    <mergeCell ref="G396:G397"/>
-    <mergeCell ref="G402:G403"/>
-    <mergeCell ref="G404:G405"/>
-    <mergeCell ref="G406:G407"/>
-    <mergeCell ref="G415:G416"/>
-    <mergeCell ref="G417:G418"/>
-    <mergeCell ref="G433:G434"/>
-    <mergeCell ref="G298:G301"/>
-    <mergeCell ref="G314:G315"/>
-    <mergeCell ref="G323:G324"/>
-    <mergeCell ref="G325:G327"/>
-    <mergeCell ref="G335:G338"/>
-    <mergeCell ref="G339:G340"/>
-    <mergeCell ref="G346:G352"/>
-    <mergeCell ref="G353:G354"/>
-    <mergeCell ref="G366:G367"/>
-    <mergeCell ref="I487:J487"/>
-    <mergeCell ref="I490:J490"/>
-    <mergeCell ref="I547:L547"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="G144:G146"/>
-    <mergeCell ref="G150:G152"/>
-    <mergeCell ref="G153:G156"/>
-    <mergeCell ref="G157:G160"/>
-    <mergeCell ref="G161:G163"/>
-    <mergeCell ref="G168:G169"/>
-    <mergeCell ref="G192:G196"/>
-    <mergeCell ref="G210:G212"/>
-    <mergeCell ref="G214:G215"/>
-    <mergeCell ref="G230:G232"/>
-    <mergeCell ref="G240:G244"/>
-    <mergeCell ref="G256:G257"/>
-    <mergeCell ref="G266:G268"/>
-    <mergeCell ref="G269:G270"/>
-    <mergeCell ref="G271:G275"/>
-    <mergeCell ref="G276:G277"/>
-    <mergeCell ref="G278:G280"/>
-    <mergeCell ref="G288:G289"/>
-    <mergeCell ref="G290:G291"/>
-    <mergeCell ref="K435:M435"/>
-    <mergeCell ref="E449:G449"/>
-    <mergeCell ref="F458:G458"/>
-    <mergeCell ref="F459:G459"/>
-    <mergeCell ref="F470:G470"/>
-    <mergeCell ref="F471:G471"/>
-    <mergeCell ref="F472:G472"/>
-    <mergeCell ref="F477:G477"/>
-    <mergeCell ref="F478:G478"/>
-    <mergeCell ref="G436:G437"/>
     <mergeCell ref="I433:J435"/>
     <mergeCell ref="I436:J441"/>
     <mergeCell ref="I447:J449"/>
@@ -5562,15 +6213,6 @@
     <mergeCell ref="F473:G474"/>
     <mergeCell ref="F475:G476"/>
     <mergeCell ref="I471:J476"/>
-    <mergeCell ref="I240:J240"/>
-    <mergeCell ref="I264:J264"/>
-    <mergeCell ref="I287:J287"/>
-    <mergeCell ref="I290:J290"/>
-    <mergeCell ref="I313:J313"/>
-    <mergeCell ref="I317:J317"/>
-    <mergeCell ref="I345:J345"/>
-    <mergeCell ref="I409:J409"/>
-    <mergeCell ref="I432:J432"/>
     <mergeCell ref="I241:J242"/>
     <mergeCell ref="I243:J250"/>
     <mergeCell ref="I265:J269"/>
@@ -5582,45 +6224,8 @@
     <mergeCell ref="I402:J403"/>
     <mergeCell ref="I404:J405"/>
     <mergeCell ref="I406:J408"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="I182:J182"/>
-    <mergeCell ref="I220:J220"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="I223:J223"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="I229:J229"/>
-    <mergeCell ref="I232:J232"/>
-    <mergeCell ref="I239:J239"/>
     <mergeCell ref="I221:J222"/>
     <mergeCell ref="I230:J231"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="I166:J166"/>
-    <mergeCell ref="I170:J170"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="I80:K80"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="I68:K68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="I69:K69"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="I79:K79"/>
     <mergeCell ref="F61:G62"/>
     <mergeCell ref="I60:K63"/>
     <mergeCell ref="F70:G71"/>
@@ -5628,1833 +6233,1796 @@
     <mergeCell ref="F74:G75"/>
     <mergeCell ref="I70:K71"/>
     <mergeCell ref="I72:K75"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="I59:K59"/>
     <mergeCell ref="I43:K44"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="F36:G36"/>
     <mergeCell ref="F31:G32"/>
     <mergeCell ref="F33:G35"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:L14"/>
     <mergeCell ref="F12:G13"/>
     <mergeCell ref="I9:L10"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A4:AD142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K135" sqref="K135"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="K140" sqref="K140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="3" width="9.125"/>
-    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
     <col min="10" max="12" width="9.125"/>
     <col min="17" max="17" width="9.125"/>
     <col min="20" max="21" width="9.125"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:19">
-      <c r="B4" s="70">
+      <c r="B4" s="1">
         <v>43373</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="I4" s="45">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="I4" s="17">
         <v>43379</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="P4" s="47">
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="P4" s="22">
         <v>43380</v>
       </c>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="72"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="28"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="I5" s="37" t="s">
+      <c r="F5" s="3"/>
+      <c r="I5" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="P5" s="37" t="s">
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="P5" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="38" t="s">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="S5" s="39"/>
+      <c r="S5" s="20"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="78"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="38" t="s">
+      <c r="F6" s="3"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="S6" s="39"/>
+      <c r="S6" s="20"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="78"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="1" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="P7" s="25" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="P7" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="66"/>
-      <c r="I8" s="37" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="I8" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37" t="s">
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="P8" s="37" t="s">
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="P8" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="80"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="85"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="80"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="85"/>
-      <c r="I10" s="25" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="I10" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="P10" s="37" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="P10" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="80"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="85"/>
-      <c r="I11" s="37" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="I11" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="80"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="85"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="P12" s="37" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="P12" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="80"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="85"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="81"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="68"/>
-      <c r="P14" s="37" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="P14" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-    </row>
-    <row r="16" spans="2:19">
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-    </row>
-    <row r="24" spans="2:20">
-      <c r="B24" s="45">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="17">
         <v>43381</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="I24" s="50">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="I24" s="23">
         <v>43382</v>
       </c>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="Q24" s="4">
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="Q24" s="29">
         <v>43383</v>
       </c>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="I25" s="1" t="s">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="I25" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="P25" s="25" t="s">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="P25" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="I26" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="P26" s="25" t="s">
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="P26" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="P27" s="87" t="s">
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="P27" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="I28" s="25" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="I28" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25" t="s">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="39"/>
-      <c r="I29" s="38" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="I29" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="J29" s="39"/>
-      <c r="K29" s="25" t="s">
+      <c r="J29" s="20"/>
+      <c r="K29" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-    </row>
-    <row r="30" spans="2:20">
-      <c r="I30" s="37" t="s">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+    </row>
+    <row r="30" spans="9:20">
+      <c r="I30" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-    </row>
-    <row r="31" spans="2:20">
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-    </row>
-    <row r="32" spans="2:20">
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="P32" s="25" t="s">
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+    </row>
+    <row r="31" spans="9:20">
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+    </row>
+    <row r="32" spans="9:20">
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="P32" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-    </row>
-    <row r="33" spans="2:30">
-      <c r="P33" s="25" t="s">
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+    </row>
+    <row r="33" spans="16:20">
+      <c r="P33" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-    </row>
-    <row r="34" spans="2:30">
-      <c r="P34" s="37" t="s">
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="16:20">
+      <c r="P34" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-    </row>
-    <row r="35" spans="2:30">
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+    </row>
+    <row r="35" spans="16:20">
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
     </row>
     <row r="41" spans="2:30">
-      <c r="B41" s="45">
+      <c r="B41" s="17">
         <v>43384</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="H41" s="45">
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="H41" s="17">
         <v>43385</v>
       </c>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="U41" s="69" t="s">
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="U41" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="V41" s="69"/>
-      <c r="W41" s="69"/>
-      <c r="X41" s="69"/>
-      <c r="Y41" s="69"/>
-      <c r="Z41" s="69"/>
-      <c r="AA41" s="69"/>
-      <c r="AB41" s="69"/>
-      <c r="AC41" s="69"/>
-      <c r="AD41" s="69"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
     </row>
     <row r="42" spans="2:30">
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="H42" s="69" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="H42" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="69"/>
-      <c r="U42" s="1" t="s">
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="U42" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="V42" s="1" t="s">
+      <c r="V42" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="W42" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="X42" s="1" t="s">
+      <c r="X42" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="Y42" s="1" t="s">
+      <c r="Y42" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="Z42" s="1" t="s">
+      <c r="Z42" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="AA42" s="1" t="s">
+      <c r="AA42" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="AB42" s="1" t="s">
+      <c r="AB42" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="AC42" s="25" t="s">
+      <c r="AC42" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="AD42" s="25"/>
+      <c r="AD42" s="3"/>
     </row>
     <row r="43" spans="2:30">
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="H43" s="1" t="s">
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="H43" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="N43" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="O43" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="P43" s="25" t="s">
+      <c r="P43" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="Q43" s="25"/>
-      <c r="U43" s="37" t="s">
+      <c r="Q43" s="3"/>
+      <c r="U43" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="V43" s="39" t="s">
+      <c r="V43" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="W43" s="25">
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="1">
+      <c r="X43" s="3">
         <v>3</v>
       </c>
-      <c r="Y43" s="1">
+      <c r="Y43" s="3">
         <v>25</v>
       </c>
-      <c r="Z43" s="1">
+      <c r="Z43" s="3">
         <v>20</v>
       </c>
-      <c r="AA43" s="1">
+      <c r="AA43" s="3">
         <v>5</v>
       </c>
-      <c r="AB43" s="1" t="s">
+      <c r="AB43" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC43" s="25"/>
-      <c r="AD43" s="25"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
     </row>
     <row r="44" spans="2:30">
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="H44" s="37" t="s">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="H44" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="I44" s="39" t="s">
+      <c r="I44" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="J44" s="25">
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="3">
         <v>3</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44" s="3">
         <v>25</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="3">
         <v>20</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N44" s="3">
         <v>5</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="O44" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="39"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="1">
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3">
         <v>2</v>
       </c>
-      <c r="Y44" s="1">
+      <c r="Y44" s="3">
         <v>34</v>
       </c>
-      <c r="Z44" s="1">
+      <c r="Z44" s="3">
         <v>19</v>
       </c>
-      <c r="AA44" s="1">
+      <c r="AA44" s="3">
         <v>15</v>
       </c>
-      <c r="AB44" s="1" t="s">
+      <c r="AB44" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC44" s="38"/>
-      <c r="AD44" s="39"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="20"/>
     </row>
     <row r="45" spans="2:30">
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="1">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3">
         <v>2</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45" s="3">
         <v>34</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45" s="3">
         <v>19</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45" s="3">
         <v>15</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="O45" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="39"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="25"/>
-      <c r="X45" s="1">
+      <c r="P45" s="18"/>
+      <c r="Q45" s="20"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3">
         <v>1</v>
       </c>
-      <c r="Y45" s="1">
+      <c r="Y45" s="3">
         <v>83</v>
       </c>
-      <c r="Z45" s="1">
+      <c r="Z45" s="3">
         <v>60</v>
       </c>
-      <c r="AA45" s="1">
+      <c r="AA45" s="3">
         <v>23</v>
       </c>
-      <c r="AB45" s="1" t="s">
+      <c r="AB45" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC45" s="38"/>
-      <c r="AD45" s="39"/>
+      <c r="AC45" s="18"/>
+      <c r="AD45" s="20"/>
     </row>
     <row r="46" spans="2:30">
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="1">
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3">
         <v>1</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46" s="3">
         <v>83</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46" s="3">
         <v>60</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46" s="3">
         <v>23</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="O46" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="39"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="39"/>
-      <c r="W46" s="25">
+      <c r="P46" s="18"/>
+      <c r="Q46" s="20"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="3">
         <v>100</v>
       </c>
-      <c r="X46" s="1">
+      <c r="X46" s="3">
         <v>1.5</v>
       </c>
-      <c r="Y46" s="1">
+      <c r="Y46" s="3">
         <v>66</v>
       </c>
-      <c r="Z46" s="1">
+      <c r="Z46" s="3">
         <v>51</v>
       </c>
-      <c r="AA46" s="1">
+      <c r="AA46" s="3">
         <v>15</v>
       </c>
-      <c r="AB46" s="1" t="s">
+      <c r="AB46" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC46" s="38"/>
-      <c r="AD46" s="39"/>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="20"/>
     </row>
     <row r="47" spans="2:30">
-      <c r="B47" s="25"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="3">
         <v>1.5</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47" s="3">
         <v>66</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47" s="3">
         <v>51</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47" s="3">
         <v>15</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="O47" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="39"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="25"/>
-      <c r="X47" s="1">
+      <c r="P47" s="18"/>
+      <c r="Q47" s="20"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3">
         <v>1</v>
       </c>
-      <c r="Y47" s="1">
+      <c r="Y47" s="3">
         <v>79</v>
       </c>
-      <c r="Z47" s="1">
+      <c r="Z47" s="3">
         <v>44</v>
       </c>
-      <c r="AA47" s="1">
+      <c r="AA47" s="3">
         <v>35</v>
       </c>
-      <c r="AB47" s="1" t="s">
+      <c r="AB47" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC47" s="38"/>
-      <c r="AD47" s="39"/>
+      <c r="AC47" s="18"/>
+      <c r="AD47" s="20"/>
     </row>
     <row r="48" spans="2:30">
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="1">
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3">
         <v>1</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48" s="3">
         <v>79</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48" s="3">
         <v>44</v>
       </c>
-      <c r="N48" s="1">
+      <c r="N48" s="3">
         <v>35</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="O48" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="39"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="39"/>
-      <c r="W48" s="25"/>
-      <c r="X48" s="1">
+      <c r="P48" s="18"/>
+      <c r="Q48" s="20"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3">
         <v>0.5</v>
       </c>
-      <c r="Y48" s="1">
+      <c r="Y48" s="3">
         <v>456</v>
       </c>
-      <c r="Z48" s="1">
+      <c r="Z48" s="3">
         <v>44</v>
       </c>
-      <c r="AA48" s="1">
+      <c r="AA48" s="3">
         <v>112</v>
       </c>
-      <c r="AB48" s="1" t="s">
+      <c r="AB48" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC48" s="38"/>
-      <c r="AD48" s="39"/>
-    </row>
-    <row r="49" spans="2:30">
-      <c r="H49" s="37"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="1">
+      <c r="AC48" s="18"/>
+      <c r="AD48" s="20"/>
+    </row>
+    <row r="49" spans="8:30">
+      <c r="H49" s="16"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3">
         <v>0.5</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49" s="3">
         <v>456</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49" s="3">
         <v>44</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N49" s="3">
         <v>112</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="O49" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="39"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="25"/>
-      <c r="X49" s="1">
+      <c r="P49" s="18"/>
+      <c r="Q49" s="20"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3">
         <v>0.2</v>
       </c>
-      <c r="Y49" s="1">
+      <c r="Y49" s="3">
         <v>365</v>
       </c>
-      <c r="Z49" s="1">
+      <c r="Z49" s="3">
         <v>43</v>
       </c>
-      <c r="AA49" s="1">
+      <c r="AA49" s="3">
         <v>322</v>
       </c>
-      <c r="AB49" s="1" t="s">
+      <c r="AB49" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC49" s="25" t="s">
+      <c r="AC49" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="AD49" s="25"/>
-    </row>
-    <row r="50" spans="2:30">
-      <c r="H50" s="37"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="1">
+      <c r="AD49" s="3"/>
+    </row>
+    <row r="50" spans="8:30">
+      <c r="H50" s="16"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3">
         <v>0.2</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L50" s="3">
         <v>365</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50" s="3">
         <v>43</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N50" s="3">
         <v>322</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="O50" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P50" s="25" t="s">
+      <c r="P50" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="Q50" s="25"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="25">
+      <c r="Q50" s="3"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="3">
         <v>50</v>
       </c>
-      <c r="X50" s="1">
+      <c r="X50" s="3">
         <v>1.5</v>
       </c>
-      <c r="Y50" s="1">
+      <c r="Y50" s="3">
         <v>115</v>
       </c>
-      <c r="Z50" s="1">
+      <c r="Z50" s="3">
         <v>115</v>
       </c>
-      <c r="AA50" s="1">
+      <c r="AA50" s="3">
         <v>0</v>
       </c>
-      <c r="AB50" s="1" t="s">
+      <c r="AB50" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC50" s="38"/>
-      <c r="AD50" s="39"/>
-    </row>
-    <row r="51" spans="2:30">
-      <c r="H51" s="37"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="25">
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="20"/>
+    </row>
+    <row r="51" spans="8:30">
+      <c r="H51" s="16"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="3">
         <v>50</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="3">
         <v>1.5</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L51" s="3">
         <v>115</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51" s="3">
         <v>115</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="O51" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="39"/>
-      <c r="U51" s="37"/>
-      <c r="V51" s="39"/>
-      <c r="W51" s="25"/>
-      <c r="X51" s="1">
+      <c r="P51" s="18"/>
+      <c r="Q51" s="20"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3">
         <v>0.8</v>
       </c>
-      <c r="Y51" s="1">
+      <c r="Y51" s="3">
         <v>117</v>
       </c>
-      <c r="Z51" s="1">
+      <c r="Z51" s="3">
         <v>99</v>
       </c>
-      <c r="AA51" s="1">
+      <c r="AA51" s="3">
         <v>18</v>
       </c>
-      <c r="AB51" s="1" t="s">
+      <c r="AB51" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC51" s="25" t="s">
+      <c r="AC51" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="AD51" s="25"/>
-    </row>
-    <row r="52" spans="2:30">
-      <c r="H52" s="37"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="1">
+      <c r="AD51" s="3"/>
+    </row>
+    <row r="52" spans="8:30">
+      <c r="H52" s="16"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3">
         <v>0.8</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52" s="3">
         <v>117</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52" s="3">
         <v>99</v>
       </c>
-      <c r="N52" s="1">
+      <c r="N52" s="3">
         <v>18</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="O52" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P52" s="25" t="s">
+      <c r="P52" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="Q52" s="25"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="25"/>
-      <c r="X52" s="1">
+      <c r="Q52" s="3"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3">
         <v>0.2</v>
       </c>
-      <c r="Y52" s="1">
+      <c r="Y52" s="3">
         <v>398</v>
       </c>
-      <c r="Z52" s="1">
+      <c r="Z52" s="3">
         <v>89</v>
       </c>
-      <c r="AA52" s="1">
+      <c r="AA52" s="3">
         <v>309</v>
       </c>
-      <c r="AB52" s="1" t="s">
+      <c r="AB52" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC52" s="25" t="s">
+      <c r="AC52" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="AD52" s="25"/>
-    </row>
-    <row r="53" spans="2:30">
-      <c r="H53" s="37"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="1">
+      <c r="AD52" s="3"/>
+    </row>
+    <row r="53" spans="8:30">
+      <c r="H53" s="16"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3">
         <v>0.2</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L53" s="3">
         <v>398</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53" s="3">
         <v>89</v>
       </c>
-      <c r="N53" s="1">
+      <c r="N53" s="3">
         <v>309</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="O53" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P53" s="25" t="s">
+      <c r="P53" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="Q53" s="25"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="39" t="s">
+      <c r="Q53" s="3"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="W53" s="1">
+      <c r="W53" s="3">
         <v>200</v>
       </c>
-      <c r="X53" s="1">
+      <c r="X53" s="3">
         <v>2</v>
       </c>
-      <c r="Y53" s="1">
+      <c r="Y53" s="3">
         <v>44</v>
       </c>
-      <c r="Z53" s="1">
+      <c r="Z53" s="3">
         <v>20</v>
       </c>
-      <c r="AA53" s="1">
+      <c r="AA53" s="3">
         <v>24</v>
       </c>
-      <c r="AB53" s="1" t="s">
+      <c r="AB53" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC53" s="73" t="s">
+      <c r="AC53" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="AD53" s="73"/>
-    </row>
-    <row r="54" spans="2:30">
-      <c r="H54" s="37"/>
-      <c r="I54" s="39" t="s">
+      <c r="AD53" s="25"/>
+    </row>
+    <row r="54" spans="8:30">
+      <c r="H54" s="16"/>
+      <c r="I54" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54" s="3">
         <v>2</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L54" s="3">
         <v>44</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54" s="3">
         <v>20</v>
       </c>
-      <c r="N54" s="1">
+      <c r="N54" s="3">
         <v>24</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="O54" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P54" s="73" t="s">
+      <c r="P54" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="Q54" s="73"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="25">
+      <c r="Q54" s="25"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="3">
         <v>100</v>
       </c>
-      <c r="X54" s="1">
+      <c r="X54" s="3">
         <v>1.5</v>
       </c>
-      <c r="Y54" s="1">
+      <c r="Y54" s="3">
         <v>93</v>
       </c>
-      <c r="Z54" s="1">
+      <c r="Z54" s="3">
         <v>47</v>
       </c>
-      <c r="AA54" s="1">
+      <c r="AA54" s="3">
         <v>46</v>
       </c>
-      <c r="AB54" s="1" t="s">
+      <c r="AB54" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC54" s="38"/>
-      <c r="AD54" s="39"/>
-    </row>
-    <row r="55" spans="2:30">
-      <c r="H55" s="37"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="25">
+      <c r="AC54" s="18"/>
+      <c r="AD54" s="20"/>
+    </row>
+    <row r="55" spans="8:30">
+      <c r="H55" s="16"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="3">
         <v>100</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55" s="3">
         <v>1.5</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L55" s="3">
         <v>93</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M55" s="3">
         <v>47</v>
       </c>
-      <c r="N55" s="1">
+      <c r="N55" s="3">
         <v>46</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="O55" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="39"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="25"/>
-      <c r="X55" s="1">
+      <c r="P55" s="18"/>
+      <c r="Q55" s="20"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3">
         <v>0.5</v>
       </c>
-      <c r="Y55" s="1">
+      <c r="Y55" s="3">
         <v>209</v>
       </c>
-      <c r="Z55" s="1">
+      <c r="Z55" s="3">
         <v>41</v>
       </c>
-      <c r="AA55" s="1">
+      <c r="AA55" s="3">
         <v>168</v>
       </c>
-      <c r="AB55" s="1" t="s">
+      <c r="AB55" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC55" s="73" t="s">
+      <c r="AC55" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="AD55" s="73"/>
-    </row>
-    <row r="56" spans="2:30">
-      <c r="H56" s="37"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="1">
+      <c r="AD55" s="25"/>
+    </row>
+    <row r="56" spans="8:30">
+      <c r="H56" s="16"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3">
         <v>0.5</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L56" s="3">
         <v>209</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56" s="3">
         <v>41</v>
       </c>
-      <c r="N56" s="1">
+      <c r="N56" s="3">
         <v>168</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="O56" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P56" s="73" t="s">
+      <c r="P56" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="Q56" s="73"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="39"/>
-      <c r="W56" s="25"/>
-      <c r="X56" s="1">
+      <c r="Q56" s="25"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3">
         <v>0.2</v>
       </c>
-      <c r="Y56" s="1">
+      <c r="Y56" s="3">
         <v>453</v>
       </c>
-      <c r="Z56" s="1">
+      <c r="Z56" s="3">
         <v>43</v>
       </c>
-      <c r="AA56" s="1">
+      <c r="AA56" s="3">
         <v>410</v>
       </c>
-      <c r="AB56" s="1" t="s">
+      <c r="AB56" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC56" s="25" t="s">
+      <c r="AC56" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="AD56" s="25"/>
-    </row>
-    <row r="57" spans="2:30">
-      <c r="H57" s="37"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="1">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="8:30">
+      <c r="H57" s="16"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3">
         <v>0.2</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L57" s="3">
         <v>453</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57" s="3">
         <v>43</v>
       </c>
-      <c r="N57" s="1">
+      <c r="N57" s="3">
         <v>410</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="O57" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P57" s="25" t="s">
+      <c r="P57" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="Q57" s="25"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="39"/>
-      <c r="W57" s="1">
+      <c r="Q57" s="3"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="3">
         <v>50</v>
       </c>
-      <c r="X57" s="1">
+      <c r="X57" s="3">
         <v>0.2</v>
       </c>
-      <c r="Y57" s="1">
+      <c r="Y57" s="3">
         <v>405</v>
       </c>
-      <c r="Z57" s="1">
+      <c r="Z57" s="3">
         <v>84</v>
       </c>
-      <c r="AA57" s="1">
+      <c r="AA57" s="3">
         <v>321</v>
       </c>
-      <c r="AB57" s="1" t="s">
+      <c r="AB57" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="AC57" s="25" t="s">
+      <c r="AC57" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="AD57" s="25"/>
-    </row>
-    <row r="58" spans="2:30">
-      <c r="H58" s="37"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="1">
+      <c r="AD57" s="3"/>
+    </row>
+    <row r="58" spans="8:30">
+      <c r="H58" s="16"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="3">
         <v>50</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58" s="3">
         <v>0.2</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L58" s="3">
         <v>405</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58" s="3">
         <v>84</v>
       </c>
-      <c r="N58" s="1">
+      <c r="N58" s="3">
         <v>321</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="O58" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P58" s="25" t="s">
+      <c r="P58" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="Q58" s="25"/>
-      <c r="U58" s="37"/>
-      <c r="V58" s="40" t="s">
+      <c r="Q58" s="3"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="W58" s="40"/>
-      <c r="X58" s="40"/>
-      <c r="Y58" s="40"/>
-      <c r="Z58" s="40"/>
-      <c r="AA58" s="40"/>
-      <c r="AB58" s="40"/>
-      <c r="AC58" s="40"/>
-      <c r="AD58" s="39"/>
-    </row>
-    <row r="59" spans="2:30">
-      <c r="H59" s="37"/>
-      <c r="I59" s="40" t="s">
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="19"/>
+      <c r="Z58" s="19"/>
+      <c r="AA58" s="19"/>
+      <c r="AB58" s="19"/>
+      <c r="AC58" s="19"/>
+      <c r="AD58" s="20"/>
+    </row>
+    <row r="59" spans="8:21">
+      <c r="H59" s="16"/>
+      <c r="I59" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="J59" s="40"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="39"/>
-      <c r="U59" s="5"/>
-    </row>
-    <row r="60" spans="2:30">
-      <c r="U60" s="5"/>
-    </row>
-    <row r="61" spans="2:30">
-      <c r="U61" s="5"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="20"/>
+      <c r="U59" s="30"/>
+    </row>
+    <row r="60" spans="21:21">
+      <c r="U60" s="30"/>
+    </row>
+    <row r="61" spans="21:23">
+      <c r="U61" s="30"/>
       <c r="W61">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="2:30">
-      <c r="U62" s="5"/>
-    </row>
-    <row r="63" spans="2:30">
-      <c r="W63" s="5"/>
-    </row>
-    <row r="64" spans="2:30">
-      <c r="B64" s="45">
+    <row r="62" spans="21:21">
+      <c r="U62" s="30"/>
+    </row>
+    <row r="63" spans="23:23">
+      <c r="W63" s="30"/>
+    </row>
+    <row r="64" spans="2:21">
+      <c r="B64" s="17">
         <v>43386</v>
       </c>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="J64" s="74">
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="J64" s="26">
         <v>43387</v>
       </c>
-      <c r="K64" s="74"/>
-      <c r="L64" s="74"/>
-      <c r="M64" s="74"/>
-      <c r="N64" s="74"/>
-      <c r="U64" s="4">
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
+      <c r="U64" s="29">
         <v>43388</v>
       </c>
     </row>
-    <row r="65" spans="2:24">
-      <c r="B65" s="37" t="s">
+    <row r="65" spans="2:21">
+      <c r="B65" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="J65" s="75" t="s">
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="J65" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="K65" s="75"/>
-      <c r="L65" s="75"/>
-      <c r="M65" s="75"/>
-      <c r="N65" s="75"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
       <c r="U65" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="66" spans="2:24">
-      <c r="B66" s="37"/>
-      <c r="C66" s="25" t="s">
+    <row r="66" spans="2:21">
+      <c r="B66" s="16"/>
+      <c r="C66" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="J66" s="75" t="s">
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="J66" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="K66" s="75"/>
-      <c r="L66" s="75"/>
-      <c r="M66" s="75"/>
-      <c r="N66" s="75"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
       <c r="U66" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="67" spans="2:24">
-      <c r="B67" s="37"/>
-      <c r="C67" s="25" t="s">
+      <c r="B67" s="16"/>
+      <c r="C67" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="J67" s="75" t="s">
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="J67" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="K67" s="75"/>
-      <c r="L67" s="75"/>
-      <c r="M67" s="75"/>
-      <c r="N67" s="75"/>
-      <c r="U67" s="55" t="s">
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="U67" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="V67" s="55"/>
-      <c r="W67" s="55"/>
-      <c r="X67" s="55"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
     </row>
     <row r="68" spans="2:24">
-      <c r="B68" s="37"/>
-      <c r="C68" s="25" t="s">
+      <c r="B68" s="16"/>
+      <c r="C68" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="J68" s="75" t="s">
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="J68" s="36" t="s">
         <v>451</v>
       </c>
-      <c r="K68" s="75"/>
-      <c r="L68" s="75"/>
-      <c r="M68" s="75"/>
-      <c r="N68" s="75"/>
-      <c r="U68" s="55"/>
-      <c r="V68" s="55"/>
-      <c r="W68" s="55"/>
-      <c r="X68" s="55"/>
-    </row>
-    <row r="69" spans="2:24">
-      <c r="B69" s="37" t="s">
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+    </row>
+    <row r="69" spans="2:21">
+      <c r="B69" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="J69" s="75" t="s">
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="J69" s="36" t="s">
         <v>453</v>
       </c>
-      <c r="K69" s="75"/>
-      <c r="L69" s="75"/>
-      <c r="M69" s="75"/>
-      <c r="N69" s="75"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
       <c r="U69" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="70" spans="2:24">
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="J70" s="75" t="s">
+    <row r="70" spans="2:14">
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="J70" s="36" t="s">
         <v>455</v>
       </c>
-      <c r="K70" s="75"/>
-      <c r="L70" s="75"/>
-      <c r="M70" s="75"/>
-      <c r="N70" s="75"/>
-    </row>
-    <row r="71" spans="2:24">
-      <c r="B71" s="37" t="s">
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="J71" s="76" t="s">
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="J71" s="37" t="s">
         <v>457</v>
       </c>
-      <c r="K71" s="76"/>
-      <c r="L71" s="76"/>
-      <c r="M71" s="76"/>
-      <c r="N71" s="76"/>
-    </row>
-    <row r="72" spans="2:24">
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="J72" s="75" t="s">
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="37"/>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="J72" s="36" t="s">
         <v>458</v>
       </c>
-      <c r="K72" s="75"/>
-      <c r="L72" s="75"/>
-      <c r="M72" s="75"/>
-      <c r="N72" s="75"/>
-    </row>
-    <row r="80" spans="2:24">
-      <c r="B80" s="45">
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+    </row>
+    <row r="80" spans="2:23">
+      <c r="B80" s="17">
         <v>43389</v>
       </c>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
-      <c r="T80" s="45">
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="T80" s="17">
         <v>43391</v>
       </c>
-      <c r="U80" s="45"/>
-      <c r="V80" s="45"/>
-      <c r="W80" s="45"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="17"/>
     </row>
     <row r="81" spans="2:23">
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="K81" s="45">
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="K81" s="17">
         <v>43390</v>
       </c>
-      <c r="L81" s="45"/>
-      <c r="M81" s="45"/>
-      <c r="N81" s="45"/>
-      <c r="O81" s="45"/>
-      <c r="P81" s="45"/>
-      <c r="T81" s="8" t="s">
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="T81" s="38" t="s">
         <v>460</v>
       </c>
-      <c r="U81" s="8"/>
-      <c r="V81" s="8"/>
-      <c r="W81" s="8"/>
+      <c r="U81" s="38"/>
+      <c r="V81" s="38"/>
+      <c r="W81" s="38"/>
     </row>
     <row r="82" spans="2:23">
-      <c r="B82" s="37" t="s">
+      <c r="B82" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="6"/>
-      <c r="K82" s="25" t="s">
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="31"/>
+      <c r="K82" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="L82" s="25"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="25"/>
-      <c r="O82" s="25"/>
-      <c r="P82" s="25"/>
-      <c r="T82" s="8" t="s">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="T82" s="38" t="s">
         <v>463</v>
       </c>
-      <c r="U82" s="8"/>
-      <c r="V82" s="8"/>
-      <c r="W82" s="8"/>
+      <c r="U82" s="38"/>
+      <c r="V82" s="38"/>
+      <c r="W82" s="38"/>
     </row>
     <row r="83" spans="2:23">
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="6"/>
-      <c r="K83" s="25" t="s">
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="31"/>
+      <c r="K83" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="L83" s="25"/>
-      <c r="M83" s="25"/>
-      <c r="N83" s="25"/>
-      <c r="O83" s="25"/>
-      <c r="P83" s="25"/>
-      <c r="T83" s="8" t="s">
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="T83" s="38" t="s">
         <v>465</v>
       </c>
-      <c r="U83" s="8"/>
-      <c r="V83" s="8"/>
-      <c r="W83" s="8"/>
+      <c r="U83" s="38"/>
+      <c r="V83" s="38"/>
+      <c r="W83" s="38"/>
     </row>
     <row r="84" spans="2:23">
-      <c r="B84" s="37" t="s">
+      <c r="B84" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="6"/>
-      <c r="K84" s="25" t="s">
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="31"/>
+      <c r="K84" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-      <c r="T84" s="8" t="s">
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="T84" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="U84" s="8"/>
-      <c r="V84" s="8"/>
-      <c r="W84" s="8"/>
+      <c r="U84" s="38"/>
+      <c r="V84" s="38"/>
+      <c r="W84" s="38"/>
     </row>
     <row r="85" spans="2:23">
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="6"/>
-      <c r="K85" s="25" t="s">
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="31"/>
+      <c r="K85" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="L85" s="25"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="25"/>
-      <c r="O85" s="25"/>
-      <c r="P85" s="25"/>
-      <c r="T85" s="38"/>
-      <c r="U85" s="40"/>
-      <c r="V85" s="40"/>
-      <c r="W85" s="39"/>
-    </row>
-    <row r="86" spans="2:23">
-      <c r="T86" s="37" t="s">
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="T85" s="18"/>
+      <c r="U85" s="19"/>
+      <c r="V85" s="19"/>
+      <c r="W85" s="20"/>
+    </row>
+    <row r="86" spans="20:23">
+      <c r="T86" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="U86" s="37"/>
-      <c r="V86" s="37"/>
-      <c r="W86" s="37"/>
-    </row>
-    <row r="87" spans="2:23">
-      <c r="T87" s="37"/>
-      <c r="U87" s="37"/>
-      <c r="V87" s="37"/>
-      <c r="W87" s="37"/>
-    </row>
-    <row r="88" spans="2:23">
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="37"/>
-      <c r="W88" s="37"/>
-    </row>
-    <row r="89" spans="2:23">
-      <c r="T89" s="38" t="s">
+      <c r="U86" s="16"/>
+      <c r="V86" s="16"/>
+      <c r="W86" s="16"/>
+    </row>
+    <row r="87" spans="20:23">
+      <c r="T87" s="16"/>
+      <c r="U87" s="16"/>
+      <c r="V87" s="16"/>
+      <c r="W87" s="16"/>
+    </row>
+    <row r="88" spans="20:23">
+      <c r="T88" s="16"/>
+      <c r="U88" s="16"/>
+      <c r="V88" s="16"/>
+      <c r="W88" s="16"/>
+    </row>
+    <row r="89" spans="20:23">
+      <c r="T89" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="U89" s="40"/>
-      <c r="V89" s="40"/>
-      <c r="W89" s="39"/>
-    </row>
-    <row r="90" spans="2:23">
-      <c r="T90" s="37" t="s">
+      <c r="U89" s="19"/>
+      <c r="V89" s="19"/>
+      <c r="W89" s="20"/>
+    </row>
+    <row r="90" spans="20:23">
+      <c r="T90" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="U90" s="37"/>
-      <c r="V90" s="37"/>
-      <c r="W90" s="37"/>
-    </row>
-    <row r="91" spans="2:23">
-      <c r="T91" s="37"/>
-      <c r="U91" s="37"/>
-      <c r="V91" s="37"/>
-      <c r="W91" s="37"/>
-    </row>
-    <row r="96" spans="2:23" ht="21.95" customHeight="1"/>
+      <c r="U90" s="16"/>
+      <c r="V90" s="16"/>
+      <c r="W90" s="16"/>
+    </row>
+    <row r="91" spans="20:23">
+      <c r="T91" s="16"/>
+      <c r="U91" s="16"/>
+      <c r="V91" s="16"/>
+      <c r="W91" s="16"/>
+    </row>
+    <row r="96" ht="21.95" customHeight="1"/>
     <row r="97" spans="2:23">
-      <c r="B97" s="45">
+      <c r="B97" s="17">
         <v>43392</v>
       </c>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="45"/>
-      <c r="K97" s="4">
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="K97" s="29">
         <v>43393</v>
       </c>
-      <c r="T97" s="45">
+      <c r="T97" s="17">
         <v>43394</v>
       </c>
-      <c r="U97" s="45"/>
-      <c r="V97" s="45"/>
-      <c r="W97" s="45"/>
+      <c r="U97" s="17"/>
+      <c r="V97" s="17"/>
+      <c r="W97" s="17"/>
     </row>
     <row r="98" spans="2:23">
-      <c r="B98" s="25" t="s">
+      <c r="B98" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="K98" s="82" t="s">
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="K98" s="73" t="s">
         <v>474</v>
       </c>
-      <c r="L98" s="55"/>
-      <c r="M98" s="55"/>
-      <c r="N98" s="55"/>
-      <c r="O98" s="55"/>
-      <c r="P98" s="55"/>
-      <c r="T98" s="27" t="s">
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="T98" s="39" t="s">
         <v>475</v>
       </c>
-      <c r="U98" s="27"/>
-      <c r="V98" s="27"/>
-      <c r="W98" s="27"/>
-    </row>
-    <row r="99" spans="2:23">
-      <c r="B99" s="25" t="s">
+      <c r="U98" s="39"/>
+      <c r="V98" s="39"/>
+      <c r="W98" s="39"/>
+    </row>
+    <row r="99" spans="2:16">
+      <c r="B99" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="K99" s="55"/>
-      <c r="L99" s="55"/>
-      <c r="M99" s="55"/>
-      <c r="N99" s="55"/>
-      <c r="O99" s="55"/>
-      <c r="P99" s="55"/>
-    </row>
-    <row r="100" spans="2:23">
-      <c r="B100" s="25" t="s">
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-    </row>
-    <row r="101" spans="2:23">
-      <c r="B101" s="25" t="s">
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
       <c r="K101" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="102" spans="2:23">
-      <c r="B102" s="37" t="s">
+    <row r="102" spans="2:6">
+      <c r="B102" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-    </row>
-    <row r="103" spans="2:23">
-      <c r="B103" s="37"/>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+    </row>
+    <row r="103" spans="2:13">
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
       <c r="K103" t="s">
         <v>481</v>
       </c>
@@ -7465,12 +8033,12 @@
         <v>483</v>
       </c>
     </row>
-    <row r="104" spans="2:23">
-      <c r="B104" s="37"/>
-      <c r="C104" s="37"/>
-      <c r="D104" s="37"/>
-      <c r="E104" s="37"/>
-      <c r="F104" s="37"/>
+    <row r="104" spans="2:13">
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
       <c r="L104" t="s">
         <v>484</v>
       </c>
@@ -7478,97 +8046,97 @@
         <v>485</v>
       </c>
     </row>
-    <row r="105" spans="2:23">
-      <c r="B105" s="37"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="37"/>
-      <c r="F105" s="37"/>
+    <row r="105" spans="2:12">
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
       <c r="L105" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="106" spans="2:23">
-      <c r="B106" s="77" t="s">
+    <row r="106" spans="2:7">
+      <c r="B106" s="32" t="s">
         <v>487</v>
       </c>
-      <c r="C106" s="62" t="s">
+      <c r="C106" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="D106" s="62"/>
-      <c r="E106" s="62"/>
-      <c r="F106" s="62"/>
-      <c r="G106" s="6"/>
-    </row>
-    <row r="107" spans="2:23">
-      <c r="B107" s="77"/>
-      <c r="C107" s="77" t="s">
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="31"/>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="32"/>
+      <c r="C107" s="32" t="s">
         <v>489</v>
       </c>
-      <c r="D107" s="77"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77"/>
-      <c r="G107" s="5"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="30"/>
       <c r="K107" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="108" spans="2:23">
-      <c r="B108" s="77"/>
-      <c r="C108" s="77" t="s">
+    <row r="108" spans="2:6">
+      <c r="B108" s="32"/>
+      <c r="C108" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-    </row>
-    <row r="109" spans="2:23">
-      <c r="B109" s="55" t="s">
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="C109" s="55"/>
-      <c r="D109" s="55"/>
-      <c r="E109" s="55"/>
-      <c r="F109" s="55"/>
-    </row>
-    <row r="110" spans="2:23">
-      <c r="B110" s="55"/>
-      <c r="C110" s="55"/>
-      <c r="D110" s="55"/>
-      <c r="E110" s="55"/>
-      <c r="F110" s="55"/>
-    </row>
-    <row r="116" spans="1:15">
-      <c r="C116" s="4">
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+    </row>
+    <row r="116" spans="3:11">
+      <c r="C116" s="29">
         <v>43395</v>
       </c>
-      <c r="K116" s="4">
+      <c r="K116" s="29">
         <v>43396</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="3:15">
       <c r="C117" t="s">
         <v>493</v>
       </c>
-      <c r="K117" s="55" t="s">
+      <c r="K117" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="L117" s="55"/>
-      <c r="M117" s="55"/>
-      <c r="N117" s="55"/>
-      <c r="O117" s="55"/>
-    </row>
-    <row r="118" spans="1:15">
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10"/>
+      <c r="O117" s="10"/>
+    </row>
+    <row r="118" spans="3:15">
       <c r="C118" t="s">
         <v>495</v>
       </c>
-      <c r="K118" s="55"/>
-      <c r="L118" s="55"/>
-      <c r="M118" s="55"/>
-      <c r="N118" s="55"/>
-      <c r="O118" s="55"/>
-    </row>
-    <row r="119" spans="1:15">
+      <c r="K118" s="10"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
+      <c r="N118" s="10"/>
+      <c r="O118" s="10"/>
+    </row>
+    <row r="119" spans="3:11">
       <c r="C119" t="s">
         <v>496</v>
       </c>
@@ -7576,142 +8144,335 @@
         <v>497</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="11:11">
       <c r="K120" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="11:11">
       <c r="K121" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="11:11">
       <c r="K122" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
-      <c r="A126" s="45">
+    <row r="126" spans="1:12">
+      <c r="A126" s="17">
         <v>43397</v>
       </c>
-      <c r="B126" s="45"/>
-      <c r="C126" s="45"/>
-      <c r="D126" s="45"/>
-      <c r="G126" s="4">
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="G126" s="34">
         <v>43398</v>
       </c>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="A127" s="37" t="s">
+      <c r="H126" s="34"/>
+      <c r="I126" s="34"/>
+      <c r="J126" s="34"/>
+      <c r="K126" s="34"/>
+      <c r="L126" s="34"/>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="B127" s="37"/>
-      <c r="C127" s="37"/>
-      <c r="D127" s="37"/>
-      <c r="G127" t="s">
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="G127" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="H127" s="35"/>
+      <c r="I127" s="35"/>
+      <c r="J127" s="35"/>
+      <c r="K127" s="35"/>
+      <c r="L127" s="35"/>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="16"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="G128" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="H128" s="35"/>
+      <c r="I128" s="35"/>
+      <c r="J128" s="35"/>
+      <c r="K128" s="35"/>
+      <c r="L128" s="35"/>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="B129" s="16"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="G129" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="H129" s="35"/>
+      <c r="I129" s="35"/>
+      <c r="J129" s="35"/>
+      <c r="K129" s="35"/>
+      <c r="L129" s="35"/>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="16"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="G130" s="40" t="s">
+        <v>506</v>
+      </c>
+      <c r="H130" s="40"/>
+      <c r="I130" s="40"/>
+      <c r="J130" s="40"/>
+      <c r="K130" s="40"/>
+      <c r="L130" s="40"/>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="G131" s="41" t="s">
+        <v>508</v>
+      </c>
+      <c r="H131" s="41"/>
+      <c r="I131" s="41"/>
+      <c r="J131" s="41"/>
+      <c r="K131" s="41"/>
+      <c r="L131" s="41"/>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="B132" s="16"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="G132" s="41"/>
+      <c r="H132" s="41"/>
+      <c r="I132" s="41"/>
+      <c r="J132" s="41"/>
+      <c r="K132" s="41"/>
+      <c r="L132" s="41"/>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="16"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+      <c r="G133" s="41" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="128" spans="1:15">
-      <c r="A128" s="37"/>
-      <c r="B128" s="37"/>
-      <c r="C128" s="37"/>
-      <c r="D128" s="37"/>
-      <c r="G128" t="s">
+      <c r="H133" s="41"/>
+      <c r="I133" s="41"/>
+      <c r="J133" s="41"/>
+      <c r="K133" s="41"/>
+      <c r="L133" s="41"/>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="10" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="37" t="s">
-        <v>502</v>
-      </c>
-      <c r="B129" s="37"/>
-      <c r="C129" s="37"/>
-      <c r="D129" s="37"/>
-      <c r="G129" t="s">
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="G134" s="41"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
+      <c r="K134" s="41"/>
+      <c r="L134" s="41"/>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="G135" s="41" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="37"/>
-      <c r="B130" s="37"/>
-      <c r="C130" s="37"/>
-      <c r="D130" s="37"/>
-      <c r="G130" t="s">
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+      <c r="J135" s="41"/>
+      <c r="K135" s="41"/>
+      <c r="L135" s="41"/>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="37" t="s">
-        <v>503</v>
-      </c>
-      <c r="B131" s="37"/>
-      <c r="C131" s="37"/>
-      <c r="D131" s="37"/>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="37" t="s">
-        <v>504</v>
-      </c>
-      <c r="B132" s="37"/>
-      <c r="C132" s="37"/>
-      <c r="D132" s="37"/>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="37"/>
-      <c r="B133" s="37"/>
-      <c r="C133" s="37"/>
-      <c r="D133" s="37"/>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="55" t="s">
-        <v>505</v>
-      </c>
-      <c r="B134" s="55"/>
-      <c r="C134" s="55"/>
-      <c r="D134" s="55"/>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="55"/>
-      <c r="B135" s="55"/>
-      <c r="C135" s="55"/>
-      <c r="D135" s="55"/>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="G136" s="41"/>
+      <c r="H136" s="41"/>
+      <c r="I136" s="41"/>
+      <c r="J136" s="41"/>
+      <c r="K136" s="41"/>
+      <c r="L136" s="41"/>
+    </row>
+    <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="55" t="s">
-        <v>508</v>
-      </c>
-      <c r="B140" s="55"/>
-      <c r="C140" s="55"/>
-      <c r="D140" s="55"/>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="55"/>
-      <c r="B141" s="55"/>
-      <c r="C141" s="55"/>
-      <c r="D141" s="55"/>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="43" t="s">
-        <v>509</v>
-      </c>
-      <c r="B142" s="43"/>
-      <c r="C142" s="43"/>
-      <c r="D142" s="43"/>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="10"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="42" t="s">
+        <v>516</v>
+      </c>
+      <c r="B142" s="42"/>
+      <c r="C142" s="42"/>
+      <c r="D142" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="160">
+  <mergeCells count="167">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="H41:Q41"/>
+    <mergeCell ref="U41:AD41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="H42:Q42"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="AC47:AD47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="AC49:AD49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="AC50:AD50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="AC51:AD51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="AC52:AD52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="AC53:AD53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="AC54:AD54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="AC55:AD55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="AC56:AD56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="AC57:AD57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="V58:AD58"/>
+    <mergeCell ref="I59:Q59"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="J64:N64"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="J66:N66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="J70:N70"/>
+    <mergeCell ref="J71:N71"/>
+    <mergeCell ref="J72:N72"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="T80:W80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="K81:P81"/>
+    <mergeCell ref="K82:P82"/>
+    <mergeCell ref="K83:P83"/>
+    <mergeCell ref="K84:P84"/>
+    <mergeCell ref="K85:P85"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="T89:W89"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="T97:W97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="T98:W98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="G126:L126"/>
+    <mergeCell ref="G127:L127"/>
+    <mergeCell ref="G128:L128"/>
+    <mergeCell ref="G129:L129"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H44:H59"/>
+    <mergeCell ref="I44:I53"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="U43:U58"/>
+    <mergeCell ref="V43:V52"/>
+    <mergeCell ref="V53:V57"/>
+    <mergeCell ref="W43:W45"/>
+    <mergeCell ref="W46:W49"/>
+    <mergeCell ref="W50:W52"/>
+    <mergeCell ref="W54:W56"/>
     <mergeCell ref="I8:J9"/>
     <mergeCell ref="K8:M9"/>
     <mergeCell ref="I11:M13"/>
@@ -7735,18 +8496,6 @@
     <mergeCell ref="K117:O118"/>
     <mergeCell ref="B69:F70"/>
     <mergeCell ref="B71:F72"/>
-    <mergeCell ref="C107:F107"/>
-    <mergeCell ref="C108:F108"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
     <mergeCell ref="A127:D128"/>
     <mergeCell ref="A129:D130"/>
     <mergeCell ref="A132:D133"/>
@@ -7758,123 +8507,16 @@
     <mergeCell ref="C46:F47"/>
     <mergeCell ref="A134:D135"/>
     <mergeCell ref="A140:D141"/>
-    <mergeCell ref="T89:W89"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="T97:W97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="T98:W98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="C106:F106"/>
-    <mergeCell ref="J72:N72"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="T80:W80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="K81:P81"/>
-    <mergeCell ref="K82:P82"/>
-    <mergeCell ref="K83:P83"/>
-    <mergeCell ref="K84:P84"/>
-    <mergeCell ref="K85:P85"/>
-    <mergeCell ref="T85:W85"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="J66:N66"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="J70:N70"/>
-    <mergeCell ref="J71:N71"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="AC57:AD57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="V58:AD58"/>
-    <mergeCell ref="I59:Q59"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="J64:N64"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="J65:N65"/>
-    <mergeCell ref="H44:H59"/>
-    <mergeCell ref="I44:I53"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="U43:U58"/>
-    <mergeCell ref="V43:V52"/>
-    <mergeCell ref="V53:V57"/>
-    <mergeCell ref="W43:W45"/>
-    <mergeCell ref="W46:W49"/>
-    <mergeCell ref="W50:W52"/>
-    <mergeCell ref="W54:W56"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="AC52:AD52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="AC53:AD53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="AC54:AD54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="AC55:AD55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="AC56:AD56"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="AC48:AD48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="AC49:AD49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="AC50:AD50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="AC51:AD51"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="AC46:AD46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="AC47:AD47"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="H41:Q41"/>
-    <mergeCell ref="U41:AD41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="H42:Q42"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="AC43:AD43"/>
     <mergeCell ref="I30:M32"/>
     <mergeCell ref="P27:T31"/>
     <mergeCell ref="P34:T35"/>
     <mergeCell ref="I26:M27"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="G131:L132"/>
+    <mergeCell ref="G133:L134"/>
+    <mergeCell ref="G135:L136"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/日计划.xlsx
+++ b/日计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538">
   <si>
     <t>完成</t>
   </si>
@@ -1600,16 +1600,79 @@
   <si>
     <t>初步确认键值策略，等待与江辉测试。</t>
   </si>
+  <si>
+    <t>HEX</t>
+  </si>
+  <si>
+    <t>键值</t>
+  </si>
+  <si>
+    <t>ALT P</t>
+  </si>
+  <si>
+    <t>NUM1 P</t>
+  </si>
+  <si>
+    <t>NUM1 R</t>
+  </si>
+  <si>
+    <t>40,num1</t>
+  </si>
+  <si>
+    <t>40,0</t>
+  </si>
+  <si>
+    <t>NUM2 P</t>
+  </si>
+  <si>
+    <t>NUM2 R</t>
+  </si>
+  <si>
+    <t>40,num2</t>
+  </si>
+  <si>
+    <t>NUM3 P</t>
+  </si>
+  <si>
+    <t>NUM3 R</t>
+  </si>
+  <si>
+    <t>40,num3</t>
+  </si>
+  <si>
+    <t>NUM4 P</t>
+  </si>
+  <si>
+    <t>NUM4 R</t>
+  </si>
+  <si>
+    <t>40,num4</t>
+  </si>
+  <si>
+    <t>NUM5 P</t>
+  </si>
+  <si>
+    <t>NUM5 R</t>
+  </si>
+  <si>
+    <t>40,num5</t>
+  </si>
+  <si>
+    <t>ALT R</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1642,15 +1705,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1664,22 +1734,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1694,62 +1749,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1764,10 +1764,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1778,8 +1778,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1818,6 +1881,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1825,6 +1912,108 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,13 +2031,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1860,139 +2049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2175,17 +2238,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2205,11 +2271,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2219,6 +2291,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2238,30 +2325,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2280,10 +2343,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2292,137 +2355,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2525,12 +2588,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2542,12 +2599,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3101,7 +3152,7 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:12">
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="39" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -3119,181 +3170,181 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="4:12">
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46" t="s">
+      <c r="G9" s="41"/>
+      <c r="H9" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
     </row>
     <row r="10" spans="6:12">
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46" t="s">
+      <c r="G10" s="41"/>
+      <c r="H10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
     </row>
     <row r="11" spans="6:12">
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="47" t="s">
+      <c r="G11" s="41"/>
+      <c r="H11" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
     </row>
     <row r="12" spans="6:12">
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="48"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
     </row>
     <row r="13" spans="6:12">
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="I13" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
     </row>
     <row r="14" spans="6:12">
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="46" t="s">
+      <c r="G14" s="37"/>
+      <c r="H14" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="54" t="s">
+      <c r="I14" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="46"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="42"/>
     </row>
     <row r="15" spans="6:12">
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="45" t="s">
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="54" t="s">
+      <c r="I15" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="46"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="20" spans="6:11">
       <c r="F20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="49"/>
-      <c r="H20" s="38" t="s">
+      <c r="G20" s="45"/>
+      <c r="H20" s="36" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="38"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="6:11">
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="38" t="s">
+      <c r="G21" s="46"/>
+      <c r="H21" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="45" t="s">
+      <c r="I21" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="45"/>
-      <c r="K21" s="43"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="39"/>
     </row>
     <row r="22" spans="6:11">
       <c r="F22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="38" t="s">
+      <c r="G22" s="45"/>
+      <c r="H22" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="45"/>
-      <c r="K22" s="43"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="39"/>
     </row>
     <row r="23" spans="6:11">
       <c r="F23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="49"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="45"/>
-      <c r="K23" s="43"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="39"/>
     </row>
     <row r="24" spans="6:11">
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="52"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="45" t="s">
+      <c r="I24" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="45"/>
-      <c r="K24" s="43"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="39"/>
     </row>
     <row r="28" spans="6:11">
       <c r="F28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="36" t="s">
         <v>37</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -3306,11 +3357,11 @@
       <c r="E29" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="43" t="s">
+      <c r="G29" s="41"/>
+      <c r="H29" s="39" t="s">
         <v>41</v>
       </c>
       <c r="I29" s="16" t="s">
@@ -3324,7 +3375,7 @@
         <v>43</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="43" t="s">
+      <c r="H30" s="39" t="s">
         <v>44</v>
       </c>
       <c r="I30" s="3" t="s">
@@ -3352,14 +3403,14 @@
         <v>48</v>
       </c>
       <c r="G33" s="16"/>
-      <c r="H33" s="44" t="s">
+      <c r="H33" s="40" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="43" t="s">
+      <c r="H34" s="39" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3382,7 +3433,7 @@
         <v>51</v>
       </c>
       <c r="G41" s="18"/>
-      <c r="H41" s="38" t="s">
+      <c r="H41" s="36" t="s">
         <v>52</v>
       </c>
       <c r="I41" s="18" t="s">
@@ -3399,11 +3450,11 @@
       <c r="H42" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="45" t="s">
+      <c r="I42" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
     </row>
     <row r="43" spans="6:11">
       <c r="F43" s="3" t="s">
@@ -3411,31 +3462,31 @@
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="16"/>
-      <c r="I43" s="48" t="s">
+      <c r="I43" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
     </row>
     <row r="44" spans="6:11">
       <c r="F44" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G44" s="18"/>
-      <c r="H44" s="38" t="s">
+      <c r="H44" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
     </row>
     <row r="45" spans="8:8">
-      <c r="H45" s="38" t="s">
+      <c r="H45" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="46" spans="8:8">
-      <c r="H46" s="38" t="s">
+      <c r="H46" s="36" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3472,7 +3523,7 @@
         <v>63</v>
       </c>
       <c r="G58" s="3"/>
-      <c r="H58" s="38" t="s">
+      <c r="H58" s="36" t="s">
         <v>64</v>
       </c>
       <c r="I58" s="3" t="s">
@@ -3482,11 +3533,11 @@
       <c r="K58" s="3"/>
     </row>
     <row r="59" spans="6:11">
-      <c r="F59" s="39" t="s">
+      <c r="F59" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="G59" s="44"/>
-      <c r="H59" s="43" t="s">
+      <c r="G59" s="40"/>
+      <c r="H59" s="39" t="s">
         <v>67</v>
       </c>
       <c r="I59" s="3" t="s">
@@ -3496,11 +3547,11 @@
       <c r="K59" s="3"/>
     </row>
     <row r="60" spans="6:11">
-      <c r="F60" s="39" t="s">
+      <c r="F60" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="44"/>
-      <c r="H60" s="53" t="s">
+      <c r="G60" s="40"/>
+      <c r="H60" s="49" t="s">
         <v>70</v>
       </c>
       <c r="I60" s="16" t="s">
@@ -3510,11 +3561,11 @@
       <c r="K60" s="16"/>
     </row>
     <row r="61" spans="6:11">
-      <c r="F61" s="48" t="s">
+      <c r="F61" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G61" s="48"/>
-      <c r="H61" s="38" t="s">
+      <c r="G61" s="44"/>
+      <c r="H61" s="36" t="s">
         <v>73</v>
       </c>
       <c r="I61" s="16"/>
@@ -3522,8 +3573,8 @@
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="6:11">
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
       <c r="K62" s="16"/>
@@ -3537,8 +3588,8 @@
       <c r="F67" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="56"/>
-      <c r="H67" s="49" t="s">
+      <c r="G67" s="52"/>
+      <c r="H67" s="45" t="s">
         <v>75</v>
       </c>
       <c r="I67" s="3" t="s">
@@ -3553,11 +3604,11 @@
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="45" t="s">
+      <c r="F68" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="43"/>
-      <c r="H68" s="49" t="s">
+      <c r="G68" s="39"/>
+      <c r="H68" s="45" t="s">
         <v>79</v>
       </c>
       <c r="I68" s="3" t="s">
@@ -3567,77 +3618,77 @@
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="6:11">
-      <c r="F69" s="45" t="s">
+      <c r="F69" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="G69" s="43"/>
-      <c r="H69" s="49" t="s">
+      <c r="G69" s="39"/>
+      <c r="H69" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="I69" s="45" t="s">
+      <c r="I69" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="J69" s="45"/>
-      <c r="K69" s="45"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
     </row>
     <row r="70" spans="6:11">
       <c r="F70" s="16" t="s">
         <v>84</v>
       </c>
       <c r="G70" s="16"/>
-      <c r="H70" s="57" t="s">
+      <c r="H70" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="I70" s="48" t="s">
+      <c r="I70" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="J70" s="48"/>
-      <c r="K70" s="48"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
     </row>
     <row r="71" spans="6:11">
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
-      <c r="H71" s="57"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="48"/>
-      <c r="K71" s="48"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
     </row>
     <row r="72" spans="6:11">
-      <c r="F72" s="48" t="s">
+      <c r="F72" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="G72" s="48"/>
-      <c r="H72" s="50" t="s">
+      <c r="G72" s="44"/>
+      <c r="H72" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I72" s="48" t="s">
+      <c r="I72" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="J72" s="48"/>
-      <c r="K72" s="48"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
     </row>
     <row r="73" spans="6:11">
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="48"/>
-      <c r="K73" s="48"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
     </row>
     <row r="74" spans="6:11">
       <c r="F74" s="16" t="s">
         <v>90</v>
       </c>
       <c r="G74" s="16"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="48"/>
-      <c r="K74" s="48"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
     </row>
     <row r="75" spans="6:11">
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="48"/>
-      <c r="K75" s="48"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
     </row>
     <row r="78" spans="7:10">
       <c r="G78" t="s">
@@ -3651,25 +3702,25 @@
       </c>
     </row>
     <row r="79" spans="6:11">
-      <c r="F79" s="42" t="s">
+      <c r="F79" s="38" t="s">
         <v>94</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I79" s="42" t="s">
+      <c r="I79" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
     </row>
     <row r="80" spans="8:11">
       <c r="H80" s="10"/>
-      <c r="I80" s="42" t="s">
+      <c r="I80" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
     </row>
     <row r="81" spans="10:10">
       <c r="J81" t="s">
@@ -3677,8 +3728,8 @@
       </c>
     </row>
     <row r="86" spans="6:8">
-      <c r="F86" s="38"/>
-      <c r="G86" s="38" t="s">
+      <c r="F86" s="36"/>
+      <c r="G86" s="36" t="s">
         <v>99</v>
       </c>
       <c r="H86" t="s">
@@ -3686,49 +3737,49 @@
       </c>
     </row>
     <row r="87" spans="3:8">
-      <c r="C87" s="58" t="s">
+      <c r="C87" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="48" t="s">
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="G87" s="48"/>
+      <c r="G87" s="44"/>
       <c r="H87" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="88" spans="3:8">
-      <c r="C88" s="58"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
       <c r="H88" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="89" spans="6:7">
-      <c r="F89" s="38"/>
-      <c r="G89" s="38" t="s">
+      <c r="F89" s="36"/>
+      <c r="G89" s="36" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="90" spans="6:7">
-      <c r="F90" s="38"/>
-      <c r="G90" s="38" t="s">
+      <c r="F90" s="36"/>
+      <c r="G90" s="36" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="91" spans="6:7">
-      <c r="F91" s="38"/>
-      <c r="G91" s="38" t="s">
+      <c r="F91" s="36"/>
+      <c r="G91" s="36" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" spans="6:9">
-      <c r="F96" s="42" t="s">
+      <c r="F96" s="38" t="s">
         <v>107</v>
       </c>
       <c r="H96" s="18">
@@ -3737,7 +3788,7 @@
       <c r="I96" s="20"/>
     </row>
     <row r="97" spans="6:9">
-      <c r="F97" s="42" t="s">
+      <c r="F97" s="38" t="s">
         <v>108</v>
       </c>
       <c r="H97" s="3" t="s">
@@ -3819,7 +3870,7 @@
       <c r="H113">
         <v>3.2</v>
       </c>
-      <c r="I113" s="42">
+      <c r="I113" s="38">
         <v>3.3</v>
       </c>
     </row>
@@ -3830,10 +3881,10 @@
       <c r="H114" t="s">
         <v>115</v>
       </c>
-      <c r="I114" s="42" t="s">
+      <c r="I114" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="J114" s="42"/>
+      <c r="J114" s="38"/>
     </row>
     <row r="115" spans="7:10">
       <c r="G115" t="s">
@@ -3852,7 +3903,7 @@
       <c r="H119">
         <v>3.6</v>
       </c>
-      <c r="I119" s="42">
+      <c r="I119" s="38">
         <v>3.7</v>
       </c>
     </row>
@@ -3863,10 +3914,10 @@
       <c r="H120" t="s">
         <v>118</v>
       </c>
-      <c r="I120" s="42" t="s">
+      <c r="I120" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="J120" s="42"/>
+      <c r="J120" s="38"/>
     </row>
     <row r="121" spans="8:9">
       <c r="H121" t="s">
@@ -3888,10 +3939,10 @@
       <c r="H127">
         <v>3.13</v>
       </c>
-      <c r="I127" s="42">
+      <c r="I127" s="38">
         <v>3.14</v>
       </c>
-      <c r="J127" s="42"/>
+      <c r="J127" s="38"/>
     </row>
     <row r="128" spans="7:9">
       <c r="G128" s="10" t="s">
@@ -3900,14 +3951,14 @@
       <c r="H128" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="I128" s="42" t="s">
+      <c r="I128" s="38" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="129" spans="7:9">
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
-      <c r="I129" s="42" t="s">
+      <c r="I129" s="38" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3933,10 +3984,10 @@
       </c>
     </row>
     <row r="140" spans="7:10">
-      <c r="G140" s="38">
+      <c r="G140" s="36">
         <v>3.26</v>
       </c>
-      <c r="H140" s="38">
+      <c r="H140" s="36">
         <v>3.27</v>
       </c>
       <c r="J140">
@@ -3947,7 +3998,7 @@
       <c r="G141" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="H141" s="38" t="s">
+      <c r="H141" s="36" t="s">
         <v>131</v>
       </c>
       <c r="J141" t="s">
@@ -3956,7 +4007,7 @@
     </row>
     <row r="142" spans="7:10">
       <c r="G142" s="16"/>
-      <c r="H142" s="38" t="s">
+      <c r="H142" s="36" t="s">
         <v>133</v>
       </c>
       <c r="J142" t="s">
@@ -3967,7 +4018,7 @@
       <c r="G143" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H143" s="38" t="s">
+      <c r="H143" s="36" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3975,7 +4026,7 @@
       <c r="G144" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H144" s="38" t="s">
+      <c r="H144" s="36" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3992,32 +4043,32 @@
       <c r="H149" s="29">
         <v>43189</v>
       </c>
-      <c r="J149" s="61">
+      <c r="J149" s="57">
         <v>43190</v>
       </c>
     </row>
     <row r="150" spans="3:10">
-      <c r="C150" s="59" t="s">
+      <c r="C150" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="D150" s="59"/>
-      <c r="E150" s="59"/>
-      <c r="F150" s="59"/>
+      <c r="D150" s="55"/>
+      <c r="E150" s="55"/>
+      <c r="F150" s="55"/>
       <c r="G150" s="16" t="s">
         <v>140</v>
       </c>
       <c r="H150" t="s">
         <v>141</v>
       </c>
-      <c r="J150" s="38" t="s">
+      <c r="J150" s="36" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="151" spans="3:10">
-      <c r="C151" s="59"/>
-      <c r="D151" s="59"/>
-      <c r="E151" s="59"/>
-      <c r="F151" s="59"/>
+      <c r="C151" s="55"/>
+      <c r="D151" s="55"/>
+      <c r="E151" s="55"/>
+      <c r="F151" s="55"/>
       <c r="G151" s="16"/>
       <c r="H151" t="s">
         <v>142</v>
@@ -4027,10 +4078,10 @@
       </c>
     </row>
     <row r="152" spans="3:10">
-      <c r="C152" s="59"/>
-      <c r="D152" s="59"/>
-      <c r="E152" s="59"/>
-      <c r="F152" s="59"/>
+      <c r="C152" s="55"/>
+      <c r="D152" s="55"/>
+      <c r="E152" s="55"/>
+      <c r="F152" s="55"/>
       <c r="G152" s="16"/>
       <c r="J152" s="16"/>
     </row>
@@ -4088,22 +4139,22 @@
       <c r="G163" s="16"/>
     </row>
     <row r="166" spans="7:10">
-      <c r="G166" s="60">
+      <c r="G166" s="56">
         <v>43192</v>
       </c>
-      <c r="H166" s="61">
+      <c r="H166" s="57">
         <v>43193</v>
       </c>
       <c r="I166" s="17">
         <v>43194</v>
       </c>
-      <c r="J166" s="61"/>
+      <c r="J166" s="57"/>
     </row>
     <row r="167" spans="7:10">
-      <c r="G167" s="49" t="s">
+      <c r="G167" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="H167" s="38" t="s">
+      <c r="H167" s="36" t="s">
         <v>150</v>
       </c>
       <c r="I167" s="16" t="s">
@@ -4112,17 +4163,17 @@
       <c r="J167" s="16"/>
     </row>
     <row r="168" spans="7:10">
-      <c r="G168" s="62" t="s">
+      <c r="G168" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="H168" s="38" t="s">
+      <c r="H168" s="36" t="s">
         <v>153</v>
       </c>
       <c r="I168" s="16"/>
       <c r="J168" s="16"/>
     </row>
     <row r="169" spans="7:10">
-      <c r="G169" s="62"/>
+      <c r="G169" s="58"/>
       <c r="H169" s="16" t="s">
         <v>154</v>
       </c>
@@ -4134,7 +4185,7 @@
       <c r="I170" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J170" s="38"/>
+      <c r="J170" s="36"/>
     </row>
     <row r="175" spans="7:7">
       <c r="G175" s="29">
@@ -4194,13 +4245,13 @@
       <c r="G182" s="29">
         <v>43211</v>
       </c>
-      <c r="H182" s="61">
+      <c r="H182" s="57">
         <v>43215</v>
       </c>
       <c r="I182" s="17">
         <v>43216</v>
       </c>
-      <c r="J182" s="61"/>
+      <c r="J182" s="57"/>
     </row>
     <row r="183" spans="2:10">
       <c r="B183" s="33"/>
@@ -4251,7 +4302,7 @@
       <c r="G191" s="29">
         <v>43217</v>
       </c>
-      <c r="H191" s="61">
+      <c r="H191" s="57">
         <v>43218</v>
       </c>
     </row>
@@ -4324,7 +4375,7 @@
       <c r="J208" s="29"/>
     </row>
     <row r="209" spans="7:8">
-      <c r="G209" s="61">
+      <c r="G209" s="57">
         <v>43231</v>
       </c>
       <c r="H209" s="29">
@@ -4347,7 +4398,7 @@
       <c r="G212" s="16"/>
     </row>
     <row r="213" spans="7:7">
-      <c r="G213" s="38" t="s">
+      <c r="G213" s="36" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4357,26 +4408,26 @@
       </c>
     </row>
     <row r="215" spans="7:7">
-      <c r="G215" s="56"/>
+      <c r="G215" s="52"/>
     </row>
     <row r="220" spans="7:10">
-      <c r="G220" s="63">
+      <c r="G220" s="59">
         <v>43236</v>
       </c>
-      <c r="H220" s="63">
+      <c r="H220" s="59">
         <v>43238</v>
       </c>
       <c r="I220" s="17">
         <v>43239</v>
       </c>
-      <c r="J220" s="61"/>
+      <c r="J220" s="57"/>
     </row>
     <row r="221" spans="7:10">
       <c r="G221" s="3" t="s">
         <v>175</v>
       </c>
       <c r="H221" s="3"/>
-      <c r="I221" s="64" t="s">
+      <c r="I221" s="60" t="s">
         <v>176</v>
       </c>
       <c r="J221" s="16"/>
@@ -4386,7 +4437,7 @@
         <v>177</v>
       </c>
       <c r="H222" s="16"/>
-      <c r="I222" s="64"/>
+      <c r="I222" s="60"/>
       <c r="J222" s="16"/>
     </row>
     <row r="223" spans="7:10">
@@ -4395,7 +4446,7 @@
       <c r="I223" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="J223" s="38"/>
+      <c r="J223" s="36"/>
     </row>
     <row r="224" spans="7:8">
       <c r="G224" s="3" t="s">
@@ -4413,7 +4464,7 @@
       <c r="I229" s="17">
         <v>43244</v>
       </c>
-      <c r="J229" s="61"/>
+      <c r="J229" s="57"/>
     </row>
     <row r="230" spans="7:10">
       <c r="G230" s="10" t="s">
@@ -4440,7 +4491,7 @@
       <c r="I232" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J232" s="38"/>
+      <c r="J232" s="36"/>
     </row>
     <row r="233" spans="9:9">
       <c r="I233" t="s">
@@ -4459,7 +4510,7 @@
       <c r="I239" s="17">
         <v>43248</v>
       </c>
-      <c r="J239" s="61"/>
+      <c r="J239" s="57"/>
     </row>
     <row r="240" spans="7:10">
       <c r="G240" s="10" t="s">
@@ -4468,7 +4519,7 @@
       <c r="I240" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J240" s="38"/>
+      <c r="J240" s="36"/>
     </row>
     <row r="241" spans="7:10">
       <c r="G241" s="10"/>
@@ -4549,13 +4600,13 @@
       <c r="G264" s="17">
         <v>43252</v>
       </c>
-      <c r="H264" s="61">
+      <c r="H264" s="57">
         <v>43253</v>
       </c>
       <c r="I264" s="17">
         <v>43255</v>
       </c>
-      <c r="J264" s="61"/>
+      <c r="J264" s="57"/>
     </row>
     <row r="265" spans="7:10">
       <c r="G265" s="3" t="s">
@@ -4579,7 +4630,7 @@
     </row>
     <row r="267" spans="7:10">
       <c r="G267" s="16"/>
-      <c r="H267" s="38" t="s">
+      <c r="H267" s="36" t="s">
         <v>199</v>
       </c>
       <c r="I267" s="16"/>
@@ -4637,16 +4688,16 @@
       <c r="G280" s="16"/>
     </row>
     <row r="287" spans="7:10">
-      <c r="G287" s="61">
+      <c r="G287" s="57">
         <v>43256</v>
       </c>
-      <c r="H287" s="61">
+      <c r="H287" s="57">
         <v>43257</v>
       </c>
       <c r="I287" s="22">
         <v>43258</v>
       </c>
-      <c r="J287" s="66"/>
+      <c r="J287" s="62"/>
     </row>
     <row r="288" spans="7:10">
       <c r="G288" s="16" t="s">
@@ -4670,25 +4721,25 @@
       <c r="G290" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H290" s="38" t="s">
+      <c r="H290" s="36" t="s">
         <v>208</v>
       </c>
       <c r="I290" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="J290" s="67"/>
+      <c r="J290" s="63"/>
     </row>
     <row r="291" spans="7:10">
       <c r="G291" s="16"/>
-      <c r="H291" s="38"/>
-      <c r="I291" s="38"/>
-      <c r="J291" s="38"/>
+      <c r="H291" s="36"/>
+      <c r="I291" s="36"/>
+      <c r="J291" s="36"/>
     </row>
     <row r="292" spans="7:10">
-      <c r="G292" s="38"/>
-      <c r="H292" s="38"/>
-      <c r="I292" s="38"/>
-      <c r="J292" s="38"/>
+      <c r="G292" s="36"/>
+      <c r="H292" s="36"/>
+      <c r="I292" s="36"/>
+      <c r="J292" s="36"/>
     </row>
     <row r="297" spans="7:7">
       <c r="G297" s="29">
@@ -4752,10 +4803,10 @@
       <c r="J313" s="29"/>
     </row>
     <row r="314" spans="7:10">
-      <c r="G314" s="65" t="s">
+      <c r="G314" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="H314" s="65" t="s">
+      <c r="H314" s="61" t="s">
         <v>213</v>
       </c>
       <c r="I314" s="21" t="s">
@@ -4770,10 +4821,10 @@
       <c r="J315" s="3"/>
     </row>
     <row r="317" spans="7:10">
-      <c r="G317" s="38" t="s">
+      <c r="G317" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="H317" s="38" t="s">
+      <c r="H317" s="36" t="s">
         <v>216</v>
       </c>
       <c r="I317" s="3" t="s">
@@ -4790,7 +4841,7 @@
       </c>
     </row>
     <row r="322" spans="7:10">
-      <c r="G322" s="61">
+      <c r="G322" s="57">
         <v>43274</v>
       </c>
       <c r="H322" s="29">
@@ -4844,10 +4895,10 @@
       <c r="H329" s="10"/>
     </row>
     <row r="334" spans="7:10">
-      <c r="G334" s="61">
+      <c r="G334" s="57">
         <v>43278</v>
       </c>
-      <c r="H334" s="61">
+      <c r="H334" s="57">
         <v>43279</v>
       </c>
       <c r="J334" s="29">
@@ -4871,19 +4922,19 @@
       <c r="H337" s="16"/>
     </row>
     <row r="338" spans="7:8">
-      <c r="G338" s="62"/>
+      <c r="G338" s="58"/>
       <c r="H338" s="16" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="339" spans="7:8">
-      <c r="G339" s="62" t="s">
+      <c r="G339" s="58" t="s">
         <v>230</v>
       </c>
       <c r="H339" s="16"/>
     </row>
     <row r="340" spans="7:8">
-      <c r="G340" s="62"/>
+      <c r="G340" s="58"/>
       <c r="H340" s="16"/>
     </row>
     <row r="341" spans="8:8">
@@ -4893,7 +4944,7 @@
       <c r="H342" s="16"/>
     </row>
     <row r="345" spans="7:10">
-      <c r="G345" s="68">
+      <c r="G345" s="64">
         <v>43281</v>
       </c>
       <c r="H345" s="29">
@@ -4905,7 +4956,7 @@
       <c r="J345" s="29"/>
     </row>
     <row r="346" spans="7:10">
-      <c r="G346" s="69" t="s">
+      <c r="G346" s="65" t="s">
         <v>231</v>
       </c>
       <c r="H346" s="10" t="s">
@@ -4917,33 +4968,33 @@
       <c r="J346" s="10"/>
     </row>
     <row r="347" spans="7:10">
-      <c r="G347" s="69"/>
+      <c r="G347" s="65"/>
       <c r="H347" s="10"/>
       <c r="I347" s="10"/>
       <c r="J347" s="10"/>
     </row>
     <row r="348" spans="7:7">
-      <c r="G348" s="69"/>
+      <c r="G348" s="65"/>
     </row>
     <row r="349" spans="7:7">
-      <c r="G349" s="69"/>
+      <c r="G349" s="65"/>
     </row>
     <row r="350" spans="7:7">
-      <c r="G350" s="69"/>
+      <c r="G350" s="65"/>
     </row>
     <row r="351" spans="7:7">
-      <c r="G351" s="69"/>
+      <c r="G351" s="65"/>
     </row>
     <row r="352" spans="7:7">
-      <c r="G352" s="69"/>
+      <c r="G352" s="65"/>
     </row>
     <row r="353" spans="7:7">
-      <c r="G353" s="69" t="s">
+      <c r="G353" s="65" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="354" spans="7:7">
-      <c r="G354" s="69"/>
+      <c r="G354" s="65"/>
     </row>
     <row r="357" spans="7:10">
       <c r="G357" s="29">
@@ -4973,7 +5024,7 @@
       <c r="G365" s="29">
         <v>43292</v>
       </c>
-      <c r="H365" s="61">
+      <c r="H365" s="57">
         <v>43293</v>
       </c>
     </row>
@@ -5003,7 +5054,7 @@
       <c r="G374" s="29">
         <v>43307</v>
       </c>
-      <c r="H374" s="61">
+      <c r="H374" s="57">
         <v>43308</v>
       </c>
       <c r="J374" s="29">
@@ -5030,7 +5081,7 @@
     </row>
     <row r="377" spans="7:8">
       <c r="G377" s="10"/>
-      <c r="H377" s="38" t="s">
+      <c r="H377" s="36" t="s">
         <v>245</v>
       </c>
     </row>
@@ -5043,7 +5094,7 @@
       <c r="H379" s="16"/>
     </row>
     <row r="384" spans="7:10">
-      <c r="G384" s="61">
+      <c r="G384" s="57">
         <v>43312</v>
       </c>
       <c r="H384" s="29">
@@ -5054,7 +5105,7 @@
       </c>
     </row>
     <row r="385" spans="7:10">
-      <c r="G385" s="38" t="s">
+      <c r="G385" s="36" t="s">
         <v>247</v>
       </c>
       <c r="H385" s="10" t="s">
@@ -5065,7 +5116,7 @@
       </c>
     </row>
     <row r="386" spans="7:10">
-      <c r="G386" s="38" t="s">
+      <c r="G386" s="36" t="s">
         <v>250</v>
       </c>
       <c r="H386" s="10"/>
@@ -5074,7 +5125,7 @@
       </c>
     </row>
     <row r="387" spans="7:10">
-      <c r="G387" s="38" t="s">
+      <c r="G387" s="36" t="s">
         <v>252</v>
       </c>
       <c r="H387" s="10"/>
@@ -5191,7 +5242,7 @@
       <c r="J408" s="10"/>
     </row>
     <row r="409" spans="9:9">
-      <c r="I409" s="42" t="s">
+      <c r="I409" s="38" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5258,11 +5309,11 @@
       <c r="H432" s="29">
         <v>43329</v>
       </c>
-      <c r="I432" s="71">
+      <c r="I432" s="67">
         <v>43330</v>
       </c>
-      <c r="J432" s="70"/>
-      <c r="K432" s="72"/>
+      <c r="J432" s="66"/>
+      <c r="K432" s="68"/>
       <c r="L432" s="32" t="s">
         <v>277</v>
       </c>
@@ -5280,8 +5331,8 @@
       <c r="I433" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="J433" s="62"/>
-      <c r="K433" s="38" t="s">
+      <c r="J433" s="58"/>
+      <c r="K433" s="36" t="s">
         <v>282</v>
       </c>
       <c r="L433" s="3">
@@ -5297,8 +5348,8 @@
         <v>283</v>
       </c>
       <c r="I434" s="16"/>
-      <c r="J434" s="62"/>
-      <c r="K434" s="38" t="s">
+      <c r="J434" s="58"/>
+      <c r="K434" s="36" t="s">
         <v>284</v>
       </c>
       <c r="L434" s="3">
@@ -5317,11 +5368,11 @@
       </c>
       <c r="I435" s="16"/>
       <c r="J435" s="16"/>
-      <c r="K435" s="39" t="s">
+      <c r="K435" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="L435" s="39"/>
-      <c r="M435" s="39"/>
+      <c r="L435" s="37"/>
+      <c r="M435" s="37"/>
     </row>
     <row r="436" spans="7:10">
       <c r="G436" s="10" t="s">
@@ -5358,7 +5409,7 @@
       <c r="J441" s="16"/>
     </row>
     <row r="446" spans="5:10">
-      <c r="E446" s="70">
+      <c r="E446" s="66">
         <v>43332</v>
       </c>
       <c r="F446" s="32" t="s">
@@ -5375,7 +5426,7 @@
       </c>
     </row>
     <row r="447" spans="5:10">
-      <c r="E447" s="38" t="s">
+      <c r="E447" s="36" t="s">
         <v>282</v>
       </c>
       <c r="F447" s="3">
@@ -5393,7 +5444,7 @@
       <c r="J447" s="10"/>
     </row>
     <row r="448" spans="5:10">
-      <c r="E448" s="38" t="s">
+      <c r="E448" s="36" t="s">
         <v>284</v>
       </c>
       <c r="F448" s="3">
@@ -5406,11 +5457,11 @@
       <c r="J448" s="10"/>
     </row>
     <row r="449" spans="5:10">
-      <c r="E449" s="39" t="s">
+      <c r="E449" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="F449" s="39"/>
-      <c r="G449" s="39"/>
+      <c r="F449" s="37"/>
+      <c r="G449" s="37"/>
       <c r="I449" s="10"/>
       <c r="J449" s="10"/>
     </row>
@@ -5423,8 +5474,8 @@
       <c r="F458" s="17">
         <v>43335</v>
       </c>
-      <c r="G458" s="60"/>
-      <c r="H458" s="61">
+      <c r="G458" s="56"/>
+      <c r="H458" s="57">
         <v>43336</v>
       </c>
       <c r="J458" s="29">
@@ -5435,8 +5486,8 @@
       <c r="F459" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G459" s="49"/>
-      <c r="H459" s="38" t="s">
+      <c r="G459" s="45"/>
+      <c r="H459" s="36" t="s">
         <v>295</v>
       </c>
       <c r="J459" t="s">
@@ -5447,7 +5498,7 @@
       <c r="F460" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="G460" s="62"/>
+      <c r="G460" s="58"/>
       <c r="H460" s="16" t="s">
         <v>298</v>
       </c>
@@ -5457,7 +5508,7 @@
     </row>
     <row r="461" spans="6:10">
       <c r="F461" s="16"/>
-      <c r="G461" s="62"/>
+      <c r="G461" s="58"/>
       <c r="H461" s="16"/>
       <c r="J461" t="s">
         <v>300</v>
@@ -5467,7 +5518,7 @@
       <c r="F462" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="G462" s="62"/>
+      <c r="G462" s="58"/>
       <c r="H462" s="16"/>
       <c r="J462" t="s">
         <v>302</v>
@@ -5475,7 +5526,7 @@
     </row>
     <row r="463" spans="6:10">
       <c r="F463" s="16"/>
-      <c r="G463" s="62"/>
+      <c r="G463" s="58"/>
       <c r="H463" s="16" t="s">
         <v>303</v>
       </c>
@@ -5487,7 +5538,7 @@
       <c r="H464" s="16"/>
     </row>
     <row r="465" spans="8:8">
-      <c r="H465" s="38" t="s">
+      <c r="H465" s="36" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5495,8 +5546,8 @@
       <c r="F470" s="17">
         <v>43339</v>
       </c>
-      <c r="G470" s="61"/>
-      <c r="H470" s="61">
+      <c r="G470" s="57"/>
+      <c r="H470" s="57">
         <v>43340</v>
       </c>
       <c r="J470" s="29">
@@ -5507,7 +5558,7 @@
       <c r="F471" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G471" s="38"/>
+      <c r="G471" s="36"/>
       <c r="H471" s="16" t="s">
         <v>307</v>
       </c>
@@ -5520,7 +5571,7 @@
       <c r="F472" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G472" s="38"/>
+      <c r="G472" s="36"/>
       <c r="H472" s="16"/>
       <c r="I472" s="10"/>
       <c r="J472" s="10"/>
@@ -5555,7 +5606,7 @@
     <row r="476" spans="6:10">
       <c r="F476" s="16"/>
       <c r="G476" s="16"/>
-      <c r="H476" s="56"/>
+      <c r="H476" s="52"/>
       <c r="I476" s="10"/>
       <c r="J476" s="10"/>
     </row>
@@ -5563,8 +5614,8 @@
       <c r="F477" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G477" s="38"/>
-      <c r="H477" s="38" t="s">
+      <c r="G477" s="36"/>
+      <c r="H477" s="36" t="s">
         <v>314</v>
       </c>
     </row>
@@ -5572,8 +5623,8 @@
       <c r="F478" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="G478" s="38"/>
-      <c r="H478" s="56" t="s">
+      <c r="G478" s="36"/>
+      <c r="H478" s="52" t="s">
         <v>316</v>
       </c>
     </row>
@@ -5635,10 +5686,10 @@
       <c r="H487" t="s">
         <v>326</v>
       </c>
-      <c r="I487" s="42" t="s">
+      <c r="I487" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="J487" s="42"/>
+      <c r="J487" s="38"/>
     </row>
     <row r="488" spans="7:10">
       <c r="G488" s="10"/>
@@ -5663,7 +5714,7 @@
       <c r="H490" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="I490" s="42" t="s">
+      <c r="I490" s="38" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5886,12 +5937,12 @@
       <c r="H547" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="I547" s="42" t="s">
+      <c r="I547" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="J547" s="42"/>
-      <c r="K547" s="42"/>
-      <c r="L547" s="42"/>
+      <c r="J547" s="38"/>
+      <c r="K547" s="38"/>
+      <c r="L547" s="38"/>
     </row>
     <row r="548" spans="7:8">
       <c r="G548" s="10"/>
@@ -5927,7 +5978,7 @@
       <c r="G563" s="29">
         <v>43368</v>
       </c>
-      <c r="H563" s="61">
+      <c r="H563" s="57">
         <v>43369</v>
       </c>
       <c r="J563" s="29">
@@ -5953,7 +6004,7 @@
       </c>
     </row>
     <row r="566" spans="8:8">
-      <c r="H566" s="38" t="s">
+      <c r="H566" s="36" t="s">
         <v>369</v>
       </c>
     </row>
@@ -6248,10 +6299,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:AD142"/>
+  <dimension ref="A4:AD158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="K140" sqref="K140"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="N148" sqref="N148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7625,13 +7676,13 @@
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="J65" s="36" t="s">
+      <c r="J65" s="34" t="s">
         <v>442</v>
       </c>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
       <c r="U65" t="s">
         <v>443</v>
       </c>
@@ -7644,13 +7695,13 @@
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="J66" s="36" t="s">
+      <c r="J66" s="34" t="s">
         <v>445</v>
       </c>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
       <c r="U66" t="s">
         <v>446</v>
       </c>
@@ -7663,13 +7714,13 @@
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="J67" s="36" t="s">
+      <c r="J67" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="34"/>
       <c r="U67" s="10" t="s">
         <v>449</v>
       </c>
@@ -7685,13 +7736,13 @@
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="J68" s="36" t="s">
+      <c r="J68" s="34" t="s">
         <v>451</v>
       </c>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="34"/>
       <c r="U68" s="10"/>
       <c r="V68" s="10"/>
       <c r="W68" s="10"/>
@@ -7705,13 +7756,13 @@
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
-      <c r="J69" s="36" t="s">
+      <c r="J69" s="34" t="s">
         <v>453</v>
       </c>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
       <c r="U69" t="s">
         <v>454</v>
       </c>
@@ -7722,13 +7773,13 @@
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
-      <c r="J70" s="36" t="s">
+      <c r="J70" s="34" t="s">
         <v>455</v>
       </c>
-      <c r="K70" s="36"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="36"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
     </row>
     <row r="71" spans="2:14">
       <c r="B71" s="16" t="s">
@@ -7738,13 +7789,13 @@
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
-      <c r="J71" s="37" t="s">
+      <c r="J71" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
     </row>
     <row r="72" spans="2:14">
       <c r="B72" s="16"/>
@@ -7752,13 +7803,13 @@
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
-      <c r="J72" s="36" t="s">
+      <c r="J72" s="34" t="s">
         <v>458</v>
       </c>
-      <c r="K72" s="36"/>
-      <c r="L72" s="36"/>
-      <c r="M72" s="36"/>
-      <c r="N72" s="36"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="34"/>
     </row>
     <row r="80" spans="2:23">
       <c r="B80" s="17">
@@ -7791,12 +7842,12 @@
       <c r="N81" s="17"/>
       <c r="O81" s="17"/>
       <c r="P81" s="17"/>
-      <c r="T81" s="38" t="s">
+      <c r="T81" s="36" t="s">
         <v>460</v>
       </c>
-      <c r="U81" s="38"/>
-      <c r="V81" s="38"/>
-      <c r="W81" s="38"/>
+      <c r="U81" s="36"/>
+      <c r="V81" s="36"/>
+      <c r="W81" s="36"/>
     </row>
     <row r="82" spans="2:23">
       <c r="B82" s="16" t="s">
@@ -7815,12 +7866,12 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-      <c r="T82" s="38" t="s">
+      <c r="T82" s="36" t="s">
         <v>463</v>
       </c>
-      <c r="U82" s="38"/>
-      <c r="V82" s="38"/>
-      <c r="W82" s="38"/>
+      <c r="U82" s="36"/>
+      <c r="V82" s="36"/>
+      <c r="W82" s="36"/>
     </row>
     <row r="83" spans="2:23">
       <c r="B83" s="16"/>
@@ -7837,12 +7888,12 @@
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
-      <c r="T83" s="38" t="s">
+      <c r="T83" s="36" t="s">
         <v>465</v>
       </c>
-      <c r="U83" s="38"/>
-      <c r="V83" s="38"/>
-      <c r="W83" s="38"/>
+      <c r="U83" s="36"/>
+      <c r="V83" s="36"/>
+      <c r="W83" s="36"/>
     </row>
     <row r="84" spans="2:23">
       <c r="B84" s="16" t="s">
@@ -7861,12 +7912,12 @@
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
-      <c r="T84" s="38" t="s">
+      <c r="T84" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="U84" s="38"/>
-      <c r="V84" s="38"/>
-      <c r="W84" s="38"/>
+      <c r="U84" s="36"/>
+      <c r="V84" s="36"/>
+      <c r="W84" s="36"/>
     </row>
     <row r="85" spans="2:23">
       <c r="B85" s="16"/>
@@ -7957,7 +8008,7 @@
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
-      <c r="K98" s="73" t="s">
+      <c r="K98" s="69" t="s">
         <v>474</v>
       </c>
       <c r="L98" s="10"/>
@@ -7965,12 +8016,12 @@
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
-      <c r="T98" s="39" t="s">
+      <c r="T98" s="37" t="s">
         <v>475</v>
       </c>
-      <c r="U98" s="39"/>
-      <c r="V98" s="39"/>
-      <c r="W98" s="39"/>
+      <c r="U98" s="37"/>
+      <c r="V98" s="37"/>
+      <c r="W98" s="37"/>
     </row>
     <row r="99" spans="2:16">
       <c r="B99" s="3" t="s">
@@ -8166,14 +8217,14 @@
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
-      <c r="G126" s="34">
+      <c r="G126" s="17">
         <v>43398</v>
       </c>
-      <c r="H126" s="34"/>
-      <c r="I126" s="34"/>
-      <c r="J126" s="34"/>
-      <c r="K126" s="34"/>
-      <c r="L126" s="34"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="17"/>
+      <c r="L126" s="17"/>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="16" t="s">
@@ -8182,28 +8233,28 @@
       <c r="B127" s="16"/>
       <c r="C127" s="16"/>
       <c r="D127" s="16"/>
-      <c r="G127" s="35" t="s">
+      <c r="G127" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="H127" s="35"/>
-      <c r="I127" s="35"/>
-      <c r="J127" s="35"/>
-      <c r="K127" s="35"/>
-      <c r="L127" s="35"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="16"/>
       <c r="B128" s="16"/>
       <c r="C128" s="16"/>
       <c r="D128" s="16"/>
-      <c r="G128" s="35" t="s">
+      <c r="G128" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="H128" s="35"/>
-      <c r="I128" s="35"/>
-      <c r="J128" s="35"/>
-      <c r="K128" s="35"/>
-      <c r="L128" s="35"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="16" t="s">
@@ -8212,28 +8263,28 @@
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
       <c r="D129" s="16"/>
-      <c r="G129" s="35" t="s">
+      <c r="G129" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="H129" s="35"/>
-      <c r="I129" s="35"/>
-      <c r="J129" s="35"/>
-      <c r="K129" s="35"/>
-      <c r="L129" s="35"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="16"/>
       <c r="B130" s="16"/>
       <c r="C130" s="16"/>
       <c r="D130" s="16"/>
-      <c r="G130" s="40" t="s">
+      <c r="G130" s="36" t="s">
         <v>506</v>
       </c>
-      <c r="H130" s="40"/>
-      <c r="I130" s="40"/>
-      <c r="J130" s="40"/>
-      <c r="K130" s="40"/>
-      <c r="L130" s="40"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="36"/>
+      <c r="J130" s="36"/>
+      <c r="K130" s="36"/>
+      <c r="L130" s="36"/>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="16" t="s">
@@ -8242,14 +8293,14 @@
       <c r="B131" s="16"/>
       <c r="C131" s="16"/>
       <c r="D131" s="16"/>
-      <c r="G131" s="41" t="s">
+      <c r="G131" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="H131" s="41"/>
-      <c r="I131" s="41"/>
-      <c r="J131" s="41"/>
-      <c r="K131" s="41"/>
-      <c r="L131" s="41"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="16"/>
+      <c r="L131" s="16"/>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="16" t="s">
@@ -8258,26 +8309,26 @@
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
       <c r="D132" s="16"/>
-      <c r="G132" s="41"/>
-      <c r="H132" s="41"/>
-      <c r="I132" s="41"/>
-      <c r="J132" s="41"/>
-      <c r="K132" s="41"/>
-      <c r="L132" s="41"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="16"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="16"/>
+      <c r="L132" s="16"/>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="16"/>
       <c r="B133" s="16"/>
       <c r="C133" s="16"/>
       <c r="D133" s="16"/>
-      <c r="G133" s="41" t="s">
+      <c r="G133" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="H133" s="41"/>
-      <c r="I133" s="41"/>
-      <c r="J133" s="41"/>
-      <c r="K133" s="41"/>
-      <c r="L133" s="41"/>
+      <c r="H133" s="16"/>
+      <c r="I133" s="16"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="16"/>
+      <c r="L133" s="16"/>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="10" t="s">
@@ -8286,37 +8337,37 @@
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
-      <c r="G134" s="41"/>
-      <c r="H134" s="41"/>
-      <c r="I134" s="41"/>
-      <c r="J134" s="41"/>
-      <c r="K134" s="41"/>
-      <c r="L134" s="41"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="16"/>
+      <c r="L134" s="16"/>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
       <c r="D135" s="10"/>
-      <c r="G135" s="41" t="s">
+      <c r="G135" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="H135" s="41"/>
-      <c r="I135" s="41"/>
-      <c r="J135" s="41"/>
-      <c r="K135" s="41"/>
-      <c r="L135" s="41"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="16"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="16"/>
+      <c r="L135" s="16"/>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" t="s">
         <v>513</v>
       </c>
-      <c r="G136" s="41"/>
-      <c r="H136" s="41"/>
-      <c r="I136" s="41"/>
-      <c r="J136" s="41"/>
-      <c r="K136" s="41"/>
-      <c r="L136" s="41"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="16"/>
+      <c r="L136" s="16"/>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
@@ -8338,12 +8389,164 @@
       <c r="D141" s="10"/>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="42" t="s">
+      <c r="A142" s="38" t="s">
         <v>516</v>
       </c>
-      <c r="B142" s="42"/>
-      <c r="C142" s="42"/>
-      <c r="D142" s="42"/>
+      <c r="B142" s="38"/>
+      <c r="C142" s="38"/>
+      <c r="D142" s="38"/>
+    </row>
+    <row r="145" spans="11:11">
+      <c r="K145" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="146" spans="7:9">
+      <c r="G146" t="s">
+        <v>518</v>
+      </c>
+      <c r="H146" t="s">
+        <v>484</v>
+      </c>
+      <c r="I146" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="147" spans="9:12">
+      <c r="I147" t="s">
+        <v>520</v>
+      </c>
+      <c r="J147" t="s">
+        <v>521</v>
+      </c>
+      <c r="K147" t="s">
+        <v>522</v>
+      </c>
+      <c r="L147" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="148" spans="9:12">
+      <c r="I148" t="s">
+        <v>524</v>
+      </c>
+      <c r="J148" t="s">
+        <v>525</v>
+      </c>
+      <c r="K148" t="s">
+        <v>526</